--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E4FC8-E7FF-4A92-8613-69AB23171BB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3D746-174F-465E-A4B5-BD04C154F1D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Projektbudget" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$57:$V$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$57:$W$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="152">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -467,9 +467,6 @@
     <t>6.1 Reserve</t>
   </si>
   <si>
-    <t>7. Abschluss</t>
-  </si>
-  <si>
     <t>1.2 Organisatorisches Pflichtenheft</t>
   </si>
   <si>
@@ -492,6 +489,27 @@
   </si>
   <si>
     <t>1.8.2 Projektauflösung</t>
+  </si>
+  <si>
+    <t>2.2.2 Mathematische Beschreibung</t>
+  </si>
+  <si>
+    <t>2.2.3 Ersatzschaltbild bestimmen</t>
+  </si>
+  <si>
+    <t>2.2.1 Problembeschrieb/ ?Theorie?</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Verantwortung</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1001,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1282,6 +1300,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,27 +1350,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,14 +1380,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2067,231 +2136,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ89"/>
+  <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="45" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="45" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.59765625" style="61" customWidth="1"/>
-    <col min="2" max="4" width="7.69921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.296875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="7.69921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.69921875" style="61" customWidth="1"/>
-    <col min="12" max="12" width="7.69921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="6.296875" style="61" customWidth="1"/>
-    <col min="18" max="19" width="7.69921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.296875" style="61" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.69921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.69921875" style="61" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.796875" style="61"/>
+    <col min="2" max="2" width="4.69921875" style="129" customWidth="1"/>
+    <col min="3" max="23" width="6.69921875" style="61" customWidth="1"/>
+    <col min="24" max="16384" width="10.796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="129"/>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="131">
+    <row r="1" spans="1:23" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="173" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="134"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="143">
         <v>2019</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="133"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="63" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="145"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="134"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="D3" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="E3" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="F3" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="G3" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="I3" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="J3" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="K3" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="L3" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="M3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="131" t="s">
+      <c r="N3" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="64" t="s">
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="64" t="s">
+      <c r="T3" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="U3" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="U3" s="64" t="s">
+      <c r="V3" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="W3" s="64" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="63">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="134"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="63">
         <v>18.02</v>
       </c>
-      <c r="C4" s="63">
+      <c r="D4" s="63">
         <v>25.02</v>
       </c>
-      <c r="D4" s="65">
+      <c r="E4" s="65">
         <v>4.03</v>
       </c>
-      <c r="E4" s="65">
+      <c r="F4" s="65">
         <v>11.03</v>
       </c>
-      <c r="F4" s="65">
+      <c r="G4" s="65">
         <v>18.03</v>
       </c>
-      <c r="G4" s="65">
+      <c r="H4" s="65">
         <v>25.03</v>
       </c>
-      <c r="H4" s="65">
+      <c r="I4" s="65">
         <v>1.04</v>
       </c>
-      <c r="I4" s="63">
+      <c r="J4" s="63">
         <v>8.0399999999999991</v>
       </c>
-      <c r="J4" s="65">
+      <c r="K4" s="65">
         <v>15.04</v>
       </c>
-      <c r="K4" s="63">
+      <c r="L4" s="63">
         <v>22.04</v>
       </c>
-      <c r="L4" s="65">
+      <c r="M4" s="65">
         <v>29.04</v>
       </c>
-      <c r="M4" s="123">
+      <c r="N4" s="123">
         <v>6.05</v>
       </c>
-      <c r="N4" s="123">
+      <c r="O4" s="123">
         <v>7.05</v>
       </c>
-      <c r="O4" s="123">
+      <c r="P4" s="123">
         <v>8.0500000000000007</v>
       </c>
-      <c r="P4" s="123">
+      <c r="Q4" s="123">
         <v>9.0500000000000007</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="R4" s="123">
         <v>10.050000000000001</v>
       </c>
-      <c r="R4" s="63">
+      <c r="S4" s="63">
         <v>13.05</v>
       </c>
-      <c r="S4" s="63">
+      <c r="T4" s="63">
         <v>20.05</v>
       </c>
-      <c r="T4" s="63">
+      <c r="U4" s="63">
         <v>27.05</v>
       </c>
-      <c r="U4" s="63">
+      <c r="V4" s="63">
         <v>3.06</v>
       </c>
-      <c r="V4" s="63">
+      <c r="W4" s="63">
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="173"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="173"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2312,399 +2336,414 @@
       <c r="T6" s="122"/>
       <c r="U6" s="122"/>
       <c r="V6" s="122"/>
-    </row>
-    <row r="7" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="122"/>
+    </row>
+    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="62"/>
       <c r="D8" s="62"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
       <c r="J8" s="63"/>
       <c r="K8" s="63"/>
       <c r="L8" s="63"/>
-      <c r="M8" s="123"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="123"/>
       <c r="O8" s="123"/>
       <c r="P8" s="123"/>
       <c r="Q8" s="123"/>
-      <c r="R8" s="63"/>
+      <c r="R8" s="123"/>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="63"/>
-    </row>
-    <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="W8" s="63"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="62"/>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
-      <c r="M9" s="123"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="123"/>
       <c r="O9" s="123"/>
       <c r="P9" s="123"/>
       <c r="Q9" s="123"/>
-      <c r="R9" s="63"/>
+      <c r="R9" s="123"/>
       <c r="S9" s="63"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
       <c r="V9" s="63"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="63"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="120" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="63"/>
       <c r="L10" s="63"/>
-      <c r="M10" s="123"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="123"/>
       <c r="O10" s="123"/>
       <c r="P10" s="123"/>
       <c r="Q10" s="123"/>
-      <c r="R10" s="63"/>
+      <c r="R10" s="123"/>
       <c r="S10" s="63"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
       <c r="V10" s="63"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="63"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="120" t="s">
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="63"/>
       <c r="L11" s="63"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="123"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="124"/>
       <c r="P11" s="123"/>
       <c r="Q11" s="123"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="63"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
       <c r="V11" s="63"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="63"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="63"/>
       <c r="G12" s="63"/>
-      <c r="H12" s="120" t="s">
+      <c r="H12" s="63"/>
+      <c r="I12" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="62"/>
-      <c r="M12" s="123"/>
+      <c r="M12" s="62"/>
       <c r="N12" s="123"/>
       <c r="O12" s="123"/>
       <c r="P12" s="123"/>
       <c r="Q12" s="123"/>
-      <c r="R12" s="63"/>
+      <c r="R12" s="123"/>
       <c r="S12" s="63"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
       <c r="V12" s="63"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="63"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="120" t="s">
+      <c r="H13" s="63"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="66"/>
       <c r="K13" s="66"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="123"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="123"/>
       <c r="O13" s="123"/>
       <c r="P13" s="123"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="63"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="124"/>
       <c r="S13" s="63"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
       <c r="V13" s="63"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="63"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="63"/>
       <c r="G14" s="63"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="66"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="62"/>
       <c r="K14" s="66"/>
-      <c r="L14" s="120" t="s">
+      <c r="L14" s="66"/>
+      <c r="M14" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="123"/>
       <c r="N14" s="123"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
       <c r="Q14" s="123"/>
-      <c r="S14" s="63"/>
+      <c r="R14" s="123"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
       <c r="V14" s="63"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="63"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>109</v>
       </c>
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="63"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="62"/>
-      <c r="M15" s="123"/>
+      <c r="M15" s="62"/>
       <c r="N15" s="123"/>
       <c r="O15" s="123"/>
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
-      <c r="R15" s="120" t="s">
+      <c r="R15" s="123"/>
+      <c r="S15" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="63"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="120" t="s">
+      <c r="T15" s="63"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="120" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>110</v>
       </c>
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="62"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="124"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="123"/>
       <c r="O16" s="124"/>
       <c r="P16" s="124"/>
       <c r="Q16" s="124"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="120" t="s">
+      <c r="R16" s="124"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="120" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>111</v>
       </c>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="63"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="62"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="124"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="123"/>
       <c r="O17" s="124"/>
       <c r="P17" s="124"/>
       <c r="Q17" s="124"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="120" t="s">
+      <c r="R17" s="124"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="120" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="62"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="124"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="123"/>
       <c r="O18" s="124"/>
       <c r="P18" s="124"/>
       <c r="Q18" s="124"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="63"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="62"/>
       <c r="T18" s="63"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
-    </row>
-    <row r="19" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="63"/>
+    </row>
+    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="136"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="136"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="136"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="121" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="159"/>
+    </row>
+    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="135"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="101"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="101"/>
       <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="E22" s="101"/>
       <c r="F22" s="102"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
@@ -2721,13 +2760,16 @@
       <c r="S22" s="102"/>
       <c r="T22" s="102"/>
       <c r="U22" s="102"/>
-      <c r="V22" s="103"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V22" s="102"/>
+      <c r="W22" s="103"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="104"/>
+      <c r="B23" s="162" t="s">
+        <v>148</v>
+      </c>
       <c r="C23" s="104"/>
       <c r="D23" s="104"/>
       <c r="E23" s="104"/>
@@ -2748,353 +2790,381 @@
       <c r="T23" s="104"/>
       <c r="U23" s="104"/>
       <c r="V23" s="104"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="104"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="105"/>
+        <v>137</v>
+      </c>
+      <c r="B24" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="73"/>
       <c r="D24" s="105"/>
       <c r="E24" s="105"/>
       <c r="F24" s="105"/>
       <c r="G24" s="105"/>
       <c r="H24" s="105"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="105"/>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
       <c r="L24" s="76"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="126"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="125"/>
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
       <c r="Q24" s="126"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="66"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="74"/>
       <c r="T24" s="66"/>
       <c r="U24" s="66"/>
       <c r="V24" s="66"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="66"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="105"/>
+        <v>138</v>
+      </c>
+      <c r="B25" s="163"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="105"/>
-      <c r="E25" s="73"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
       <c r="H25" s="73"/>
-      <c r="I25" s="76"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
       <c r="L25" s="76"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="126"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="125"/>
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
       <c r="Q25" s="126"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="66"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="74"/>
       <c r="T25" s="66"/>
       <c r="U25" s="66"/>
       <c r="V25" s="66"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="66"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="73"/>
+        <v>139</v>
+      </c>
+      <c r="B26" s="163"/>
       <c r="C26" s="73"/>
-      <c r="D26" s="105"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="105"/>
-      <c r="F26" s="73"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
-      <c r="I26" s="76"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="76"/>
       <c r="K26" s="76"/>
       <c r="L26" s="76"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="126"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="125"/>
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
       <c r="Q26" s="126"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="66"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="74"/>
       <c r="T26" s="66"/>
       <c r="U26" s="66"/>
       <c r="V26" s="66"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="66"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="73"/>
+        <v>140</v>
+      </c>
+      <c r="B27" s="163"/>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="105"/>
-      <c r="G27" s="73"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="73"/>
-      <c r="I27" s="76"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="76"/>
       <c r="K27" s="76"/>
       <c r="L27" s="76"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="125"/>
       <c r="O27" s="126"/>
       <c r="P27" s="126"/>
       <c r="Q27" s="126"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="66"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="74"/>
       <c r="T27" s="66"/>
       <c r="U27" s="66"/>
       <c r="V27" s="66"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="66"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="105"/>
+      <c r="B28" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="73"/>
       <c r="D28" s="105"/>
       <c r="E28" s="105"/>
       <c r="F28" s="105"/>
       <c r="G28" s="105"/>
       <c r="H28" s="105"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="105"/>
       <c r="J28" s="76"/>
       <c r="K28" s="76"/>
       <c r="L28" s="76"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="126"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="125"/>
       <c r="O28" s="126"/>
       <c r="P28" s="126"/>
       <c r="Q28" s="126"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="66"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="74"/>
       <c r="T28" s="66"/>
       <c r="U28" s="66"/>
       <c r="V28" s="66"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="66"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="105"/>
+        <v>141</v>
+      </c>
+      <c r="B29" s="163"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="105"/>
       <c r="E29" s="105"/>
-      <c r="F29" s="73"/>
+      <c r="F29" s="105"/>
       <c r="G29" s="73"/>
       <c r="H29" s="73"/>
-      <c r="I29" s="76"/>
+      <c r="I29" s="73"/>
       <c r="J29" s="76"/>
       <c r="K29" s="76"/>
       <c r="L29" s="76"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="126"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="125"/>
       <c r="O29" s="126"/>
       <c r="P29" s="126"/>
       <c r="Q29" s="126"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="66"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="74"/>
       <c r="T29" s="66"/>
       <c r="U29" s="66"/>
       <c r="V29" s="66"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="66"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="105"/>
+      <c r="B30" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="73"/>
       <c r="D30" s="105"/>
       <c r="E30" s="105"/>
       <c r="F30" s="105"/>
       <c r="G30" s="105"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="76"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="76"/>
       <c r="K30" s="76"/>
       <c r="L30" s="76"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="126"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="125"/>
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
       <c r="Q30" s="126"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="66"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="74"/>
       <c r="T30" s="66"/>
       <c r="U30" s="66"/>
       <c r="V30" s="66"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="66"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="73"/>
+      <c r="B31" s="162" t="s">
+        <v>148</v>
+      </c>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="106"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
       <c r="K31" s="106"/>
       <c r="L31" s="106"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="126"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="125"/>
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
       <c r="Q31" s="126"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="66"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="74"/>
       <c r="T31" s="66"/>
       <c r="U31" s="66"/>
       <c r="V31" s="66"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="66"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="73"/>
+      <c r="B32" s="162" t="s">
+        <v>148</v>
+      </c>
       <c r="C32" s="73"/>
       <c r="D32" s="73"/>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
-      <c r="H32" s="76"/>
+      <c r="H32" s="73"/>
       <c r="I32" s="76"/>
       <c r="J32" s="76"/>
       <c r="K32" s="76"/>
       <c r="L32" s="76"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="107"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="106"/>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
       <c r="Q32" s="107"/>
       <c r="R32" s="107"/>
-      <c r="S32" s="66"/>
+      <c r="S32" s="107"/>
       <c r="T32" s="66"/>
       <c r="U32" s="66"/>
       <c r="V32" s="66"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="66"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="73"/>
+      <c r="B33" s="162" t="s">
+        <v>148</v>
+      </c>
       <c r="C33" s="73"/>
       <c r="D33" s="73"/>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
-      <c r="H33" s="76"/>
+      <c r="H33" s="73"/>
       <c r="I33" s="76"/>
       <c r="J33" s="76"/>
       <c r="K33" s="76"/>
       <c r="L33" s="76"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="126"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="125"/>
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
       <c r="Q33" s="126"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="107"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="66"/>
       <c r="T33" s="107"/>
       <c r="U33" s="107"/>
       <c r="V33" s="107"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="107"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="73"/>
+        <v>142</v>
+      </c>
+      <c r="B34" s="162" t="s">
+        <v>148</v>
+      </c>
       <c r="C34" s="73"/>
       <c r="D34" s="73"/>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
       <c r="G34" s="73"/>
-      <c r="H34" s="76"/>
+      <c r="H34" s="73"/>
       <c r="I34" s="76"/>
       <c r="J34" s="76"/>
       <c r="K34" s="76"/>
       <c r="L34" s="76"/>
-      <c r="M34" s="125"/>
-      <c r="N34" s="126"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="125"/>
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
       <c r="Q34" s="126"/>
-      <c r="R34" s="66"/>
+      <c r="R34" s="126"/>
       <c r="S34" s="66"/>
       <c r="T34" s="66"/>
-      <c r="U34" s="107"/>
+      <c r="U34" s="66"/>
       <c r="V34" s="107"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="107"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="73"/>
+        <v>143</v>
+      </c>
+      <c r="B35" s="164"/>
       <c r="C35" s="73"/>
       <c r="D35" s="73"/>
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
-      <c r="H35" s="76"/>
+      <c r="H35" s="73"/>
       <c r="I35" s="76"/>
       <c r="J35" s="76"/>
       <c r="K35" s="76"/>
       <c r="L35" s="76"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="126"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="125"/>
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
       <c r="Q35" s="126"/>
-      <c r="R35" s="66"/>
+      <c r="R35" s="126"/>
       <c r="S35" s="66"/>
       <c r="T35" s="66"/>
-      <c r="U35" s="107"/>
+      <c r="U35" s="66"/>
       <c r="V35" s="107"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="107"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="73"/>
+        <v>144</v>
+      </c>
+      <c r="B36" s="164"/>
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
       <c r="G36" s="73"/>
-      <c r="H36" s="76"/>
+      <c r="H36" s="73"/>
       <c r="I36" s="76"/>
       <c r="J36" s="76"/>
       <c r="K36" s="76"/>
       <c r="L36" s="76"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="126"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="125"/>
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
       <c r="Q36" s="126"/>
-      <c r="R36" s="66"/>
+      <c r="R36" s="126"/>
       <c r="S36" s="66"/>
       <c r="T36" s="66"/>
-      <c r="U36" s="107"/>
+      <c r="U36" s="66"/>
       <c r="V36" s="107"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="107"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="105"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="105"/>
       <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
+      <c r="E37" s="105"/>
       <c r="F37" s="106"/>
       <c r="G37" s="106"/>
       <c r="H37" s="106"/>
@@ -3112,39 +3182,41 @@
       <c r="T37" s="106"/>
       <c r="U37" s="106"/>
       <c r="V37" s="106"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="137"/>
-      <c r="O38" s="137"/>
-      <c r="P38" s="137"/>
-      <c r="Q38" s="137"/>
-      <c r="R38" s="137"/>
-      <c r="S38" s="137"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="137"/>
-      <c r="V38" s="137"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="106"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="137"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="138"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="138"/>
+      <c r="U38" s="138"/>
+      <c r="V38" s="138"/>
+      <c r="W38" s="138"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="89"/>
+      <c r="B39" s="165"/>
       <c r="C39" s="89"/>
       <c r="D39" s="89"/>
-      <c r="E39" s="90"/>
+      <c r="E39" s="89"/>
       <c r="F39" s="90"/>
       <c r="G39" s="90"/>
       <c r="H39" s="90"/>
@@ -3155,95 +3227,103 @@
       <c r="M39" s="90"/>
       <c r="N39" s="90"/>
       <c r="O39" s="90"/>
-      <c r="P39" s="91"/>
+      <c r="P39" s="90"/>
       <c r="Q39" s="91"/>
       <c r="R39" s="91"/>
       <c r="S39" s="91"/>
       <c r="T39" s="91"/>
       <c r="U39" s="91"/>
       <c r="V39" s="91"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="91"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="166" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="78"/>
       <c r="D40" s="73"/>
       <c r="E40" s="73"/>
       <c r="F40" s="73"/>
       <c r="G40" s="73"/>
       <c r="H40" s="73"/>
-      <c r="I40" s="76"/>
+      <c r="I40" s="73"/>
       <c r="J40" s="76"/>
       <c r="K40" s="76"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="125"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="79"/>
       <c r="N40" s="125"/>
       <c r="O40" s="125"/>
-      <c r="P40" s="127"/>
+      <c r="P40" s="125"/>
       <c r="Q40" s="127"/>
-      <c r="R40" s="80"/>
+      <c r="R40" s="127"/>
       <c r="S40" s="80"/>
       <c r="T40" s="80"/>
-      <c r="U40" s="79"/>
+      <c r="U40" s="80"/>
       <c r="V40" s="79"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="77" t="s">
+      <c r="W40" s="79"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="73"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="73"/>
       <c r="E41" s="73"/>
       <c r="F41" s="73"/>
       <c r="G41" s="73"/>
       <c r="H41" s="73"/>
-      <c r="I41" s="76"/>
+      <c r="I41" s="73"/>
       <c r="J41" s="76"/>
       <c r="K41" s="76"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="125"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="79"/>
       <c r="N41" s="125"/>
       <c r="O41" s="125"/>
-      <c r="P41" s="127"/>
+      <c r="P41" s="125"/>
       <c r="Q41" s="127"/>
-      <c r="R41" s="80"/>
+      <c r="R41" s="127"/>
       <c r="S41" s="80"/>
       <c r="T41" s="80"/>
-      <c r="U41" s="79"/>
+      <c r="U41" s="80"/>
       <c r="V41" s="79"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="79"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="76"/>
+      <c r="I42" s="73"/>
       <c r="J42" s="76"/>
       <c r="K42" s="76"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="125"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="79"/>
       <c r="N42" s="125"/>
       <c r="O42" s="125"/>
-      <c r="P42" s="127"/>
+      <c r="P42" s="125"/>
       <c r="Q42" s="127"/>
-      <c r="R42" s="80"/>
+      <c r="R42" s="127"/>
       <c r="S42" s="80"/>
       <c r="T42" s="80"/>
-      <c r="U42" s="79"/>
+      <c r="U42" s="80"/>
       <c r="V42" s="79"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="79"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="76"/>
+      <c r="B43" s="162" t="s">
+        <v>150</v>
+      </c>
       <c r="C43" s="76"/>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
@@ -3254,20 +3334,23 @@
       <c r="J43" s="76"/>
       <c r="K43" s="76"/>
       <c r="L43" s="76"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="126"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="125"/>
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
       <c r="Q43" s="126"/>
-      <c r="R43" s="66"/>
+      <c r="R43" s="126"/>
       <c r="S43" s="66"/>
       <c r="T43" s="66"/>
       <c r="U43" s="66"/>
       <c r="V43" s="66"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
+      <c r="W43" s="66"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="167"/>
       <c r="C44" s="76"/>
       <c r="D44" s="76"/>
       <c r="E44" s="76"/>
@@ -3278,23 +3361,26 @@
       <c r="J44" s="76"/>
       <c r="K44" s="76"/>
       <c r="L44" s="76"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="127"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="125"/>
       <c r="O44" s="127"/>
       <c r="P44" s="127"/>
       <c r="Q44" s="127"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="66"/>
+      <c r="R44" s="127"/>
+      <c r="S44" s="82"/>
       <c r="T44" s="66"/>
       <c r="U44" s="66"/>
       <c r="V44" s="66"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="73"/>
+      <c r="W44" s="66"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="164"/>
       <c r="C45" s="73"/>
       <c r="D45" s="73"/>
-      <c r="E45" s="76"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="76"/>
       <c r="G45" s="76"/>
       <c r="H45" s="76"/>
@@ -3302,20 +3388,23 @@
       <c r="J45" s="76"/>
       <c r="K45" s="76"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="126"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="125"/>
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
       <c r="Q45" s="126"/>
-      <c r="R45" s="66"/>
+      <c r="R45" s="126"/>
       <c r="S45" s="66"/>
       <c r="T45" s="66"/>
       <c r="U45" s="66"/>
       <c r="V45" s="66"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="76"/>
+      <c r="W45" s="66"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="168"/>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
       <c r="E46" s="76"/>
@@ -3326,49 +3415,51 @@
       <c r="J46" s="76"/>
       <c r="K46" s="76"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="126"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="125"/>
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
       <c r="Q46" s="126"/>
-      <c r="R46" s="66"/>
+      <c r="R46" s="126"/>
       <c r="S46" s="66"/>
       <c r="T46" s="66"/>
       <c r="U46" s="66"/>
       <c r="V46" s="66"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="136"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="137"/>
-      <c r="L47" s="137"/>
-      <c r="M47" s="137"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="137"/>
-      <c r="P47" s="137"/>
-      <c r="Q47" s="137"/>
-      <c r="R47" s="137"/>
-      <c r="S47" s="137"/>
-      <c r="T47" s="137"/>
-      <c r="U47" s="137"/>
-      <c r="V47" s="137"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="66"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="137"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="138"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="138"/>
+      <c r="Q47" s="138"/>
+      <c r="R47" s="138"/>
+      <c r="S47" s="138"/>
+      <c r="T47" s="138"/>
+      <c r="U47" s="138"/>
+      <c r="V47" s="138"/>
+      <c r="W47" s="138"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="95"/>
+      <c r="B48" s="169"/>
       <c r="C48" s="95"/>
       <c r="D48" s="95"/>
-      <c r="E48" s="96"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="96"/>
       <c r="G48" s="96"/>
       <c r="H48" s="96"/>
@@ -3379,173 +3470,184 @@
       <c r="M48" s="96"/>
       <c r="N48" s="96"/>
       <c r="O48" s="96"/>
-      <c r="P48" s="97"/>
+      <c r="P48" s="96"/>
       <c r="Q48" s="97"/>
       <c r="R48" s="97"/>
       <c r="S48" s="97"/>
       <c r="T48" s="97"/>
-      <c r="U48" s="96"/>
+      <c r="U48" s="97"/>
       <c r="V48" s="96"/>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W48" s="96"/>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="73"/>
+      <c r="B49" s="166" t="s">
+        <v>149</v>
+      </c>
       <c r="C49" s="73"/>
       <c r="D49" s="73"/>
-      <c r="E49" s="76"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="76"/>
       <c r="G49" s="76"/>
-      <c r="H49" s="73"/>
+      <c r="H49" s="76"/>
       <c r="I49" s="73"/>
       <c r="J49" s="73"/>
       <c r="K49" s="73"/>
       <c r="L49" s="73"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="127"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="128"/>
       <c r="O49" s="127"/>
       <c r="P49" s="127"/>
       <c r="Q49" s="127"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="66"/>
+      <c r="R49" s="127"/>
+      <c r="S49" s="82"/>
       <c r="T49" s="66"/>
-      <c r="U49" s="76"/>
+      <c r="U49" s="66"/>
       <c r="V49" s="76"/>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W49" s="76"/>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="73"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
-      <c r="E50" s="76"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="76"/>
-      <c r="G50" s="73"/>
+      <c r="G50" s="76"/>
       <c r="H50" s="73"/>
       <c r="I50" s="73"/>
-      <c r="J50" s="76"/>
+      <c r="J50" s="73"/>
       <c r="K50" s="76"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="127"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="125"/>
       <c r="O50" s="127"/>
       <c r="P50" s="127"/>
       <c r="Q50" s="127"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="66"/>
+      <c r="R50" s="127"/>
+      <c r="S50" s="82"/>
       <c r="T50" s="66"/>
-      <c r="U50" s="76"/>
+      <c r="U50" s="66"/>
       <c r="V50" s="76"/>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W50" s="76"/>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="73"/>
+      <c r="B51" s="163"/>
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="76"/>
       <c r="G51" s="73"/>
       <c r="H51" s="73"/>
-      <c r="I51" s="76"/>
+      <c r="I51" s="73"/>
       <c r="J51" s="76"/>
       <c r="K51" s="76"/>
       <c r="L51" s="76"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="126"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="125"/>
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
       <c r="Q51" s="126"/>
-      <c r="R51" s="66"/>
+      <c r="R51" s="126"/>
       <c r="S51" s="66"/>
       <c r="T51" s="66"/>
       <c r="U51" s="66"/>
       <c r="V51" s="66"/>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W51" s="66"/>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="73"/>
+      <c r="B52" s="163"/>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="73"/>
       <c r="H52" s="73"/>
       <c r="I52" s="73"/>
-      <c r="J52" s="76"/>
+      <c r="J52" s="73"/>
       <c r="K52" s="76"/>
       <c r="L52" s="76"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="126"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="125"/>
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
       <c r="Q52" s="126"/>
-      <c r="R52" s="66"/>
+      <c r="R52" s="126"/>
       <c r="S52" s="66"/>
       <c r="T52" s="66"/>
       <c r="U52" s="66"/>
       <c r="V52" s="66"/>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W52" s="66"/>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="73"/>
+      <c r="B53" s="162" t="s">
+        <v>150</v>
+      </c>
       <c r="C53" s="73"/>
       <c r="D53" s="73"/>
-      <c r="E53" s="76"/>
+      <c r="E53" s="73"/>
       <c r="F53" s="76"/>
-      <c r="G53" s="73"/>
+      <c r="G53" s="76"/>
       <c r="H53" s="73"/>
       <c r="I53" s="73"/>
-      <c r="J53" s="76"/>
+      <c r="J53" s="73"/>
       <c r="K53" s="76"/>
       <c r="L53" s="76"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="127"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="125"/>
       <c r="O53" s="127"/>
       <c r="P53" s="127"/>
       <c r="Q53" s="127"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="66"/>
+      <c r="R53" s="127"/>
+      <c r="S53" s="82"/>
       <c r="T53" s="66"/>
-      <c r="U53" s="76"/>
+      <c r="U53" s="66"/>
       <c r="V53" s="76"/>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W53" s="76"/>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="83"/>
-      <c r="B54" s="73"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="73"/>
       <c r="D54" s="73"/>
-      <c r="E54" s="76"/>
+      <c r="E54" s="73"/>
       <c r="F54" s="76"/>
-      <c r="G54" s="73"/>
+      <c r="G54" s="76"/>
       <c r="H54" s="73"/>
       <c r="I54" s="73"/>
-      <c r="J54" s="76"/>
+      <c r="J54" s="73"/>
       <c r="K54" s="76"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="127"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="126"/>
       <c r="O54" s="127"/>
       <c r="P54" s="127"/>
       <c r="Q54" s="127"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="66"/>
+      <c r="R54" s="127"/>
+      <c r="S54" s="82"/>
       <c r="T54" s="66"/>
-      <c r="U54" s="76"/>
+      <c r="U54" s="66"/>
       <c r="V54" s="76"/>
-    </row>
-    <row r="55" spans="1:43" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W54" s="76"/>
+    </row>
+    <row r="55" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="76"/>
+      <c r="B55" s="162"/>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
       <c r="E55" s="76"/>
@@ -3556,29 +3658,30 @@
       <c r="J55" s="76"/>
       <c r="K55" s="76"/>
       <c r="L55" s="76"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="127"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="125"/>
       <c r="O55" s="127"/>
       <c r="P55" s="127"/>
       <c r="Q55" s="127"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="73"/>
+      <c r="R55" s="127"/>
+      <c r="S55" s="82"/>
       <c r="T55" s="73"/>
       <c r="U55" s="73"/>
       <c r="V55" s="73"/>
-      <c r="W55" s="61"/>
+      <c r="W55" s="73"/>
       <c r="X55" s="61"/>
       <c r="Y55" s="61"/>
       <c r="Z55" s="61"/>
       <c r="AA55" s="61"/>
       <c r="AB55" s="61"/>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC55" s="61"/>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="72"/>
-      <c r="B56" s="73"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="73"/>
       <c r="D56" s="73"/>
-      <c r="E56" s="76"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="76"/>
       <c r="G56" s="76"/>
       <c r="H56" s="76"/>
@@ -3586,49 +3689,51 @@
       <c r="J56" s="76"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76"/>
-      <c r="M56" s="125"/>
-      <c r="N56" s="127"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="125"/>
       <c r="O56" s="127"/>
       <c r="P56" s="127"/>
       <c r="Q56" s="127"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="66"/>
-      <c r="T56" s="76"/>
+      <c r="R56" s="127"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="66"/>
       <c r="U56" s="76"/>
       <c r="V56" s="76"/>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="137"/>
-      <c r="L57" s="137"/>
-      <c r="M57" s="137"/>
-      <c r="N57" s="137"/>
-      <c r="O57" s="137"/>
-      <c r="P57" s="137"/>
-      <c r="Q57" s="137"/>
-      <c r="R57" s="137"/>
-      <c r="S57" s="137"/>
-      <c r="T57" s="137"/>
-      <c r="U57" s="137"/>
-      <c r="V57" s="137"/>
-    </row>
-    <row r="58" spans="1:43" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="76"/>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A57" s="137"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="138"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="138"/>
+      <c r="J57" s="138"/>
+      <c r="K57" s="138"/>
+      <c r="L57" s="138"/>
+      <c r="M57" s="138"/>
+      <c r="N57" s="138"/>
+      <c r="O57" s="138"/>
+      <c r="P57" s="138"/>
+      <c r="Q57" s="138"/>
+      <c r="R57" s="138"/>
+      <c r="S57" s="138"/>
+      <c r="T57" s="138"/>
+      <c r="U57" s="138"/>
+      <c r="V57" s="138"/>
+      <c r="W57" s="138"/>
+    </row>
+    <row r="58" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="109"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="109"/>
       <c r="D58" s="109"/>
-      <c r="E58" s="110"/>
+      <c r="E58" s="109"/>
       <c r="F58" s="110"/>
       <c r="G58" s="110"/>
       <c r="H58" s="110"/>
@@ -3639,14 +3744,14 @@
       <c r="M58" s="110"/>
       <c r="N58" s="110"/>
       <c r="O58" s="110"/>
-      <c r="P58" s="111"/>
+      <c r="P58" s="110"/>
       <c r="Q58" s="111"/>
       <c r="R58" s="111"/>
       <c r="S58" s="111"/>
       <c r="T58" s="111"/>
-      <c r="U58" s="110"/>
+      <c r="U58" s="111"/>
       <c r="V58" s="110"/>
-      <c r="W58" s="61"/>
+      <c r="W58" s="110"/>
       <c r="X58" s="61"/>
       <c r="Y58" s="61"/>
       <c r="Z58" s="61"/>
@@ -3667,12 +3772,15 @@
       <c r="AO58" s="61"/>
       <c r="AP58" s="61"/>
       <c r="AQ58" s="61"/>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR58" s="61"/>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="76"/>
+      <c r="B59" s="166" t="s">
+        <v>149</v>
+      </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
       <c r="E59" s="76"/>
@@ -3681,49 +3789,51 @@
       <c r="H59" s="76"/>
       <c r="I59" s="76"/>
       <c r="J59" s="76"/>
-      <c r="K59" s="73"/>
+      <c r="K59" s="76"/>
       <c r="L59" s="73"/>
-      <c r="M59" s="128"/>
+      <c r="M59" s="73"/>
       <c r="N59" s="128"/>
       <c r="O59" s="128"/>
       <c r="P59" s="128"/>
       <c r="Q59" s="128"/>
-      <c r="R59" s="73"/>
+      <c r="R59" s="128"/>
       <c r="S59" s="73"/>
-      <c r="T59" s="76"/>
+      <c r="T59" s="73"/>
       <c r="U59" s="76"/>
       <c r="V59" s="76"/>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W59" s="76"/>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="75"/>
-      <c r="B60" s="73"/>
+      <c r="B60" s="164"/>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
-      <c r="E60" s="76"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="76"/>
       <c r="G60" s="76"/>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
       <c r="J60" s="76"/>
-      <c r="K60" s="73"/>
+      <c r="K60" s="76"/>
       <c r="L60" s="73"/>
-      <c r="M60" s="128"/>
+      <c r="M60" s="73"/>
       <c r="N60" s="128"/>
       <c r="O60" s="128"/>
       <c r="P60" s="128"/>
       <c r="Q60" s="128"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="76"/>
+      <c r="R60" s="128"/>
+      <c r="S60" s="73"/>
       <c r="T60" s="76"/>
       <c r="U60" s="76"/>
       <c r="V60" s="76"/>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W60" s="76"/>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="75"/>
-      <c r="B61" s="73"/>
+      <c r="B61" s="164"/>
       <c r="C61" s="73"/>
       <c r="D61" s="73"/>
-      <c r="E61" s="76"/>
+      <c r="E61" s="73"/>
       <c r="F61" s="76"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -3731,49 +3841,53 @@
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
       <c r="L61" s="76"/>
-      <c r="M61" s="125"/>
-      <c r="N61" s="127"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="125"/>
       <c r="O61" s="127"/>
-      <c r="P61" s="128"/>
+      <c r="P61" s="127"/>
       <c r="Q61" s="128"/>
-      <c r="R61" s="73"/>
+      <c r="R61" s="128"/>
       <c r="S61" s="73"/>
-      <c r="T61" s="76"/>
+      <c r="T61" s="73"/>
       <c r="U61" s="76"/>
       <c r="V61" s="76"/>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W61" s="76"/>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="73"/>
+      <c r="B62" s="162" t="s">
+        <v>150</v>
+      </c>
       <c r="C62" s="73"/>
       <c r="D62" s="73"/>
-      <c r="E62" s="76"/>
+      <c r="E62" s="73"/>
       <c r="F62" s="76"/>
       <c r="G62" s="76"/>
       <c r="H62" s="76"/>
       <c r="I62" s="76"/>
       <c r="J62" s="76"/>
-      <c r="K62" s="73"/>
+      <c r="K62" s="76"/>
       <c r="L62" s="73"/>
-      <c r="M62" s="128"/>
+      <c r="M62" s="73"/>
       <c r="N62" s="128"/>
       <c r="O62" s="128"/>
       <c r="P62" s="128"/>
       <c r="Q62" s="128"/>
-      <c r="R62" s="73"/>
+      <c r="R62" s="128"/>
       <c r="S62" s="73"/>
-      <c r="T62" s="76"/>
+      <c r="T62" s="73"/>
       <c r="U62" s="76"/>
       <c r="V62" s="76"/>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W62" s="76"/>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="75"/>
-      <c r="B63" s="73"/>
+      <c r="B63" s="164"/>
       <c r="C63" s="73"/>
       <c r="D63" s="73"/>
-      <c r="E63" s="76"/>
+      <c r="E63" s="73"/>
       <c r="F63" s="76"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -3781,137 +3895,142 @@
       <c r="J63" s="76"/>
       <c r="K63" s="76"/>
       <c r="L63" s="76"/>
-      <c r="M63" s="128"/>
+      <c r="M63" s="76"/>
       <c r="N63" s="128"/>
       <c r="O63" s="128"/>
       <c r="P63" s="128"/>
       <c r="Q63" s="128"/>
-      <c r="R63" s="73"/>
-      <c r="S63" s="76"/>
+      <c r="R63" s="128"/>
+      <c r="S63" s="73"/>
       <c r="T63" s="76"/>
       <c r="U63" s="76"/>
       <c r="V63" s="76"/>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W63" s="76"/>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="75"/>
-      <c r="B64" s="73"/>
+      <c r="B64" s="164"/>
       <c r="C64" s="73"/>
       <c r="D64" s="73"/>
-      <c r="E64" s="76"/>
+      <c r="E64" s="73"/>
       <c r="F64" s="76"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
       <c r="I64" s="76"/>
       <c r="J64" s="76"/>
-      <c r="K64" s="73"/>
+      <c r="K64" s="76"/>
       <c r="L64" s="73"/>
-      <c r="M64" s="128"/>
+      <c r="M64" s="73"/>
       <c r="N64" s="128"/>
       <c r="O64" s="128"/>
       <c r="P64" s="128"/>
       <c r="Q64" s="128"/>
-      <c r="R64" s="73"/>
+      <c r="R64" s="128"/>
       <c r="S64" s="73"/>
-      <c r="T64" s="76"/>
+      <c r="T64" s="73"/>
       <c r="U64" s="76"/>
       <c r="V64" s="76"/>
-    </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W64" s="76"/>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="75"/>
-      <c r="B65" s="73"/>
+      <c r="B65" s="164"/>
       <c r="C65" s="73"/>
       <c r="D65" s="73"/>
-      <c r="E65" s="76"/>
+      <c r="E65" s="73"/>
       <c r="F65" s="76"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
       <c r="I65" s="76"/>
       <c r="J65" s="76"/>
-      <c r="K65" s="73"/>
+      <c r="K65" s="76"/>
       <c r="L65" s="73"/>
-      <c r="M65" s="128"/>
+      <c r="M65" s="73"/>
       <c r="N65" s="128"/>
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
       <c r="Q65" s="128"/>
-      <c r="R65" s="73"/>
+      <c r="R65" s="128"/>
       <c r="S65" s="73"/>
-      <c r="T65" s="76"/>
+      <c r="T65" s="73"/>
       <c r="U65" s="76"/>
       <c r="V65" s="76"/>
-    </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W65" s="76"/>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="75"/>
-      <c r="B66" s="73"/>
+      <c r="B66" s="164"/>
       <c r="C66" s="73"/>
       <c r="D66" s="73"/>
-      <c r="E66" s="76"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="76"/>
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
-      <c r="I66" s="73"/>
+      <c r="I66" s="76"/>
       <c r="J66" s="73"/>
       <c r="K66" s="73"/>
       <c r="L66" s="73"/>
-      <c r="M66" s="128"/>
+      <c r="M66" s="73"/>
       <c r="N66" s="128"/>
       <c r="O66" s="128"/>
       <c r="P66" s="128"/>
       <c r="Q66" s="128"/>
-      <c r="R66" s="73"/>
+      <c r="R66" s="128"/>
       <c r="S66" s="73"/>
-      <c r="T66" s="76"/>
+      <c r="T66" s="73"/>
       <c r="U66" s="76"/>
       <c r="V66" s="76"/>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W66" s="76"/>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="75"/>
-      <c r="B67" s="73"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="73"/>
       <c r="D67" s="73"/>
-      <c r="E67" s="76"/>
+      <c r="E67" s="73"/>
       <c r="F67" s="76"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
       <c r="I67" s="76"/>
       <c r="J67" s="76"/>
-      <c r="K67" s="73"/>
+      <c r="K67" s="76"/>
       <c r="L67" s="73"/>
-      <c r="M67" s="128"/>
+      <c r="M67" s="73"/>
       <c r="N67" s="128"/>
       <c r="O67" s="128"/>
       <c r="P67" s="128"/>
       <c r="Q67" s="128"/>
-      <c r="R67" s="73"/>
+      <c r="R67" s="128"/>
       <c r="S67" s="73"/>
-      <c r="T67" s="76"/>
+      <c r="T67" s="73"/>
       <c r="U67" s="76"/>
       <c r="V67" s="76"/>
-    </row>
-    <row r="68" spans="1:43" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="76"/>
+    </row>
+    <row r="68" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
-      <c r="B68" s="73"/>
+      <c r="B68" s="163"/>
       <c r="C68" s="73"/>
       <c r="D68" s="73"/>
-      <c r="E68" s="76"/>
+      <c r="E68" s="73"/>
       <c r="F68" s="76"/>
       <c r="G68" s="76"/>
       <c r="H68" s="76"/>
-      <c r="I68" s="73"/>
+      <c r="I68" s="76"/>
       <c r="J68" s="73"/>
       <c r="K68" s="73"/>
       <c r="L68" s="73"/>
-      <c r="M68" s="128"/>
+      <c r="M68" s="73"/>
       <c r="N68" s="128"/>
       <c r="O68" s="128"/>
       <c r="P68" s="128"/>
       <c r="Q68" s="128"/>
-      <c r="R68" s="73"/>
-      <c r="S68" s="76"/>
+      <c r="R68" s="128"/>
+      <c r="S68" s="73"/>
       <c r="T68" s="76"/>
       <c r="U68" s="76"/>
       <c r="V68" s="76"/>
-      <c r="W68" s="61"/>
+      <c r="W68" s="76"/>
       <c r="X68" s="61"/>
       <c r="Y68" s="61"/>
       <c r="Z68" s="61"/>
@@ -3932,108 +4051,113 @@
       <c r="AO68" s="61"/>
       <c r="AP68" s="61"/>
       <c r="AQ68" s="61"/>
-    </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR68" s="61"/>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="75"/>
-      <c r="B69" s="73"/>
+      <c r="B69" s="164"/>
       <c r="C69" s="73"/>
       <c r="D69" s="73"/>
-      <c r="E69" s="76"/>
+      <c r="E69" s="73"/>
       <c r="F69" s="76"/>
       <c r="G69" s="76"/>
       <c r="H69" s="76"/>
       <c r="I69" s="76"/>
       <c r="J69" s="76"/>
-      <c r="K69" s="73"/>
+      <c r="K69" s="76"/>
       <c r="L69" s="73"/>
-      <c r="M69" s="128"/>
+      <c r="M69" s="73"/>
       <c r="N69" s="128"/>
       <c r="O69" s="128"/>
       <c r="P69" s="128"/>
       <c r="Q69" s="128"/>
-      <c r="R69" s="73"/>
+      <c r="R69" s="128"/>
       <c r="S69" s="73"/>
       <c r="T69" s="73"/>
       <c r="U69" s="73"/>
       <c r="V69" s="73"/>
-    </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W69" s="73"/>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="75"/>
-      <c r="B70" s="73"/>
+      <c r="B70" s="164"/>
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
-      <c r="E70" s="76"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="76"/>
       <c r="G70" s="76"/>
       <c r="H70" s="76"/>
       <c r="I70" s="76"/>
       <c r="J70" s="76"/>
-      <c r="K70" s="73"/>
+      <c r="K70" s="76"/>
       <c r="L70" s="73"/>
-      <c r="M70" s="128"/>
+      <c r="M70" s="73"/>
       <c r="N70" s="128"/>
       <c r="O70" s="128"/>
       <c r="P70" s="128"/>
       <c r="Q70" s="128"/>
-      <c r="R70" s="73"/>
+      <c r="R70" s="128"/>
       <c r="S70" s="73"/>
-      <c r="T70" s="76"/>
+      <c r="T70" s="73"/>
       <c r="U70" s="76"/>
       <c r="V70" s="76"/>
-    </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W70" s="76"/>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="75"/>
-      <c r="B71" s="73"/>
+      <c r="B71" s="164"/>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
-      <c r="E71" s="76"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="76"/>
       <c r="G71" s="76"/>
       <c r="H71" s="76"/>
       <c r="I71" s="76"/>
       <c r="J71" s="76"/>
-      <c r="K71" s="73"/>
+      <c r="K71" s="76"/>
       <c r="L71" s="73"/>
-      <c r="M71" s="128"/>
+      <c r="M71" s="73"/>
       <c r="N71" s="128"/>
       <c r="O71" s="128"/>
       <c r="P71" s="128"/>
       <c r="Q71" s="128"/>
-      <c r="R71" s="73"/>
+      <c r="R71" s="128"/>
       <c r="S71" s="73"/>
       <c r="T71" s="73"/>
       <c r="U71" s="73"/>
       <c r="V71" s="73"/>
-    </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A72" s="140"/>
-      <c r="B72" s="141"/>
-      <c r="C72" s="141"/>
-      <c r="D72" s="141"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="141"/>
-      <c r="J72" s="141"/>
-      <c r="K72" s="141"/>
-      <c r="L72" s="141"/>
-      <c r="M72" s="141"/>
-      <c r="N72" s="141"/>
-      <c r="O72" s="141"/>
-      <c r="P72" s="141"/>
-      <c r="Q72" s="141"/>
-      <c r="R72" s="141"/>
-      <c r="S72" s="141"/>
-      <c r="T72" s="141"/>
-      <c r="U72" s="141"/>
-      <c r="V72" s="141"/>
-    </row>
-    <row r="73" spans="1:43" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W71" s="73"/>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A72" s="139"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="140"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="140"/>
+      <c r="O72" s="140"/>
+      <c r="P72" s="140"/>
+      <c r="Q72" s="140"/>
+      <c r="R72" s="140"/>
+      <c r="S72" s="140"/>
+      <c r="T72" s="140"/>
+      <c r="U72" s="140"/>
+      <c r="V72" s="140"/>
+      <c r="W72" s="140"/>
+    </row>
+    <row r="73" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="113"/>
+      <c r="B73" s="171"/>
       <c r="C73" s="113"/>
       <c r="D73" s="113"/>
       <c r="E73" s="113"/>
@@ -4054,7 +4178,7 @@
       <c r="T73" s="113"/>
       <c r="U73" s="113"/>
       <c r="V73" s="113"/>
-      <c r="W73" s="119"/>
+      <c r="W73" s="113"/>
       <c r="X73" s="119"/>
       <c r="Y73" s="119"/>
       <c r="Z73" s="119"/>
@@ -4075,33 +4199,36 @@
       <c r="AO73" s="119"/>
       <c r="AP73" s="119"/>
       <c r="AQ73" s="119"/>
-    </row>
-    <row r="74" spans="1:43" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="154" t="s">
+      <c r="AR73" s="119"/>
+    </row>
+    <row r="74" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="154"/>
-      <c r="C74" s="154"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="154"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="154"/>
-      <c r="H74" s="154"/>
-      <c r="I74" s="154"/>
-      <c r="J74" s="154"/>
-      <c r="K74" s="154"/>
-      <c r="L74" s="154"/>
-      <c r="M74" s="153"/>
-      <c r="N74" s="153"/>
-      <c r="O74" s="153"/>
-      <c r="P74" s="153"/>
-      <c r="Q74" s="153"/>
-      <c r="R74" s="154"/>
-      <c r="S74" s="154"/>
-      <c r="T74" s="154"/>
-      <c r="U74" s="154"/>
-      <c r="V74" s="154"/>
-      <c r="W74" s="119"/>
+      <c r="B74" s="166" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="131"/>
+      <c r="D74" s="131"/>
+      <c r="E74" s="131"/>
+      <c r="F74" s="131"/>
+      <c r="G74" s="131"/>
+      <c r="H74" s="131"/>
+      <c r="I74" s="131"/>
+      <c r="J74" s="131"/>
+      <c r="K74" s="131"/>
+      <c r="L74" s="131"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="130"/>
+      <c r="O74" s="130"/>
+      <c r="P74" s="130"/>
+      <c r="Q74" s="130"/>
+      <c r="R74" s="130"/>
+      <c r="S74" s="131"/>
+      <c r="T74" s="131"/>
+      <c r="U74" s="131"/>
+      <c r="V74" s="131"/>
+      <c r="W74" s="131"/>
       <c r="X74" s="119"/>
       <c r="Y74" s="119"/>
       <c r="Z74" s="119"/>
@@ -4122,33 +4249,36 @@
       <c r="AO74" s="119"/>
       <c r="AP74" s="119"/>
       <c r="AQ74" s="119"/>
-    </row>
-    <row r="75" spans="1:43" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="154" t="s">
+      <c r="AR74" s="119"/>
+    </row>
+    <row r="75" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="154"/>
-      <c r="C75" s="154"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="154"/>
-      <c r="H75" s="154"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="154"/>
-      <c r="M75" s="153"/>
-      <c r="N75" s="153"/>
-      <c r="O75" s="153"/>
-      <c r="P75" s="153"/>
-      <c r="Q75" s="153"/>
-      <c r="R75" s="154"/>
-      <c r="S75" s="154"/>
-      <c r="T75" s="154"/>
-      <c r="U75" s="154"/>
-      <c r="V75" s="154"/>
-      <c r="W75" s="119"/>
+      <c r="B75" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="131"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="131"/>
+      <c r="L75" s="131"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="130"/>
+      <c r="O75" s="130"/>
+      <c r="P75" s="130"/>
+      <c r="Q75" s="130"/>
+      <c r="R75" s="130"/>
+      <c r="S75" s="131"/>
+      <c r="T75" s="131"/>
+      <c r="U75" s="131"/>
+      <c r="V75" s="131"/>
+      <c r="W75" s="131"/>
       <c r="X75" s="119"/>
       <c r="Y75" s="119"/>
       <c r="Z75" s="119"/>
@@ -4169,12 +4299,15 @@
       <c r="AO75" s="119"/>
       <c r="AP75" s="119"/>
       <c r="AQ75" s="119"/>
-    </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR75" s="119"/>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="93"/>
+      <c r="B76" s="162" t="s">
+        <v>150</v>
+      </c>
       <c r="C76" s="93"/>
       <c r="D76" s="93"/>
       <c r="E76" s="93"/>
@@ -4185,49 +4318,51 @@
       <c r="J76" s="93"/>
       <c r="K76" s="93"/>
       <c r="L76" s="93"/>
-      <c r="M76" s="92"/>
+      <c r="M76" s="93"/>
       <c r="N76" s="92"/>
       <c r="O76" s="92"/>
       <c r="P76" s="92"/>
       <c r="Q76" s="92"/>
-      <c r="R76" s="93"/>
+      <c r="R76" s="92"/>
       <c r="S76" s="93"/>
       <c r="T76" s="93"/>
       <c r="U76" s="93"/>
       <c r="V76" s="93"/>
-    </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="134"/>
-      <c r="B77" s="135"/>
-      <c r="C77" s="135"/>
-      <c r="D77" s="135"/>
-      <c r="E77" s="135"/>
-      <c r="F77" s="135"/>
-      <c r="G77" s="135"/>
-      <c r="H77" s="135"/>
-      <c r="I77" s="135"/>
-      <c r="J77" s="135"/>
-      <c r="K77" s="135"/>
-      <c r="L77" s="135"/>
-      <c r="M77" s="135"/>
-      <c r="N77" s="135"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="135"/>
-      <c r="Q77" s="135"/>
-      <c r="R77" s="135"/>
-      <c r="S77" s="135"/>
-      <c r="T77" s="135"/>
-      <c r="U77" s="135"/>
-      <c r="V77" s="135"/>
-    </row>
-    <row r="78" spans="1:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W76" s="93"/>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A77" s="146"/>
+      <c r="B77" s="147"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="147"/>
+      <c r="E77" s="147"/>
+      <c r="F77" s="147"/>
+      <c r="G77" s="147"/>
+      <c r="H77" s="147"/>
+      <c r="I77" s="147"/>
+      <c r="J77" s="147"/>
+      <c r="K77" s="147"/>
+      <c r="L77" s="147"/>
+      <c r="M77" s="147"/>
+      <c r="N77" s="147"/>
+      <c r="O77" s="147"/>
+      <c r="P77" s="147"/>
+      <c r="Q77" s="147"/>
+      <c r="R77" s="147"/>
+      <c r="S77" s="147"/>
+      <c r="T77" s="147"/>
+      <c r="U77" s="147"/>
+      <c r="V77" s="147"/>
+      <c r="W77" s="147"/>
+    </row>
+    <row r="78" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="115"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="115"/>
       <c r="D78" s="115"/>
-      <c r="E78" s="116"/>
+      <c r="E78" s="115"/>
       <c r="F78" s="116"/>
       <c r="G78" s="116"/>
       <c r="H78" s="116"/>
@@ -4238,14 +4373,14 @@
       <c r="M78" s="116"/>
       <c r="N78" s="116"/>
       <c r="O78" s="116"/>
-      <c r="P78" s="117"/>
+      <c r="P78" s="116"/>
       <c r="Q78" s="117"/>
       <c r="R78" s="117"/>
       <c r="S78" s="117"/>
       <c r="T78" s="117"/>
-      <c r="U78" s="116"/>
+      <c r="U78" s="117"/>
       <c r="V78" s="116"/>
-      <c r="W78" s="61"/>
+      <c r="W78" s="116"/>
       <c r="X78" s="61"/>
       <c r="Y78" s="61"/>
       <c r="Z78" s="61"/>
@@ -4266,229 +4401,129 @@
       <c r="AO78" s="61"/>
       <c r="AP78" s="61"/>
       <c r="AQ78" s="61"/>
-    </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR78" s="61"/>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="155"/>
-      <c r="C79" s="155"/>
-      <c r="D79" s="155"/>
-      <c r="E79" s="155"/>
-      <c r="F79" s="155"/>
-      <c r="G79" s="155"/>
-      <c r="H79" s="155"/>
-      <c r="I79" s="155"/>
-      <c r="J79" s="155"/>
-      <c r="K79" s="155"/>
-      <c r="L79" s="155"/>
-      <c r="M79" s="156"/>
-      <c r="N79" s="156"/>
-      <c r="O79" s="156"/>
-      <c r="P79" s="156"/>
-      <c r="Q79" s="156"/>
-      <c r="R79" s="155"/>
-      <c r="S79" s="155"/>
-      <c r="T79" s="155"/>
-      <c r="U79" s="155"/>
-      <c r="V79" s="155"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="112" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="113"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="113"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113"/>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="113"/>
-      <c r="K81" s="113"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="113"/>
-      <c r="N81" s="113"/>
-      <c r="O81" s="113"/>
-      <c r="P81" s="113"/>
-      <c r="Q81" s="113"/>
-      <c r="R81" s="113"/>
-      <c r="S81" s="113"/>
-      <c r="T81" s="113"/>
-      <c r="U81" s="113"/>
-      <c r="V81" s="113"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="154"/>
-      <c r="C82" s="154"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="154"/>
-      <c r="F82" s="154"/>
-      <c r="G82" s="154"/>
-      <c r="H82" s="154"/>
-      <c r="I82" s="154"/>
-      <c r="J82" s="154"/>
-      <c r="K82" s="154"/>
-      <c r="L82" s="154"/>
-      <c r="M82" s="153"/>
-      <c r="N82" s="153"/>
-      <c r="O82" s="153"/>
-      <c r="P82" s="153"/>
-      <c r="Q82" s="153"/>
-      <c r="R82" s="154"/>
-      <c r="S82" s="154"/>
-      <c r="T82" s="154"/>
-      <c r="U82" s="154"/>
-      <c r="V82" s="154"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="154"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
-      <c r="K83" s="154"/>
-      <c r="L83" s="154"/>
-      <c r="M83" s="153"/>
-      <c r="N83" s="153"/>
-      <c r="O83" s="153"/>
-      <c r="P83" s="153"/>
-      <c r="Q83" s="153"/>
-      <c r="R83" s="154"/>
-      <c r="S83" s="154"/>
-      <c r="T83" s="154"/>
-      <c r="U83" s="154"/>
-      <c r="V83" s="154"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="93"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="93"/>
-      <c r="H84" s="93"/>
-      <c r="I84" s="93"/>
-      <c r="J84" s="93"/>
-      <c r="K84" s="93"/>
-      <c r="L84" s="93"/>
-      <c r="M84" s="92"/>
-      <c r="N84" s="92"/>
-      <c r="O84" s="92"/>
-      <c r="P84" s="92"/>
-      <c r="Q84" s="92"/>
-      <c r="R84" s="93"/>
-      <c r="S84" s="93"/>
-      <c r="T84" s="93"/>
-      <c r="U84" s="93"/>
-      <c r="V84" s="93"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="142"/>
-      <c r="B87" s="142"/>
-      <c r="C87" s="142"/>
-      <c r="D87" s="142"/>
-      <c r="E87" s="142"/>
-      <c r="F87" s="142"/>
-      <c r="G87" s="142"/>
-      <c r="H87" s="142"/>
-      <c r="I87" s="142"/>
-      <c r="J87" s="142"/>
-      <c r="K87" s="142"/>
-      <c r="L87" s="142"/>
-      <c r="M87" s="142"/>
-      <c r="N87" s="142"/>
-      <c r="O87" s="142"/>
-      <c r="P87" s="142"/>
-      <c r="Q87" s="142"/>
-      <c r="R87" s="142"/>
-      <c r="S87" s="142"/>
-      <c r="T87" s="142"/>
-      <c r="U87" s="142"/>
-      <c r="V87" s="142"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="130"/>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
-      <c r="G88" s="129"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="129"/>
-      <c r="K88" s="129"/>
-      <c r="L88" s="129"/>
-      <c r="M88" s="129"/>
-      <c r="N88" s="129"/>
-      <c r="O88" s="129"/>
-      <c r="P88" s="129"/>
-      <c r="Q88" s="129"/>
-      <c r="R88" s="129"/>
-      <c r="S88" s="129"/>
-      <c r="T88" s="129"/>
-      <c r="U88" s="129"/>
-      <c r="V88" s="129"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="129"/>
-      <c r="B89" s="129"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="129"/>
-      <c r="G89" s="129"/>
-      <c r="H89" s="129"/>
-      <c r="I89" s="129"/>
-      <c r="J89" s="129"/>
-      <c r="K89" s="129"/>
-      <c r="L89" s="129"/>
-      <c r="M89" s="129"/>
-      <c r="N89" s="129"/>
-      <c r="O89" s="129"/>
-      <c r="P89" s="129"/>
-      <c r="Q89" s="129"/>
-      <c r="R89" s="129"/>
-      <c r="S89" s="129"/>
-      <c r="T89" s="129"/>
-      <c r="U89" s="129"/>
-      <c r="V89" s="129"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="132"/>
+      <c r="E79" s="132"/>
+      <c r="F79" s="132"/>
+      <c r="G79" s="132"/>
+      <c r="H79" s="132"/>
+      <c r="I79" s="132"/>
+      <c r="J79" s="132"/>
+      <c r="K79" s="132"/>
+      <c r="L79" s="132"/>
+      <c r="M79" s="132"/>
+      <c r="N79" s="133"/>
+      <c r="O79" s="133"/>
+      <c r="P79" s="133"/>
+      <c r="Q79" s="133"/>
+      <c r="R79" s="133"/>
+      <c r="S79" s="132"/>
+      <c r="T79" s="132"/>
+      <c r="U79" s="132"/>
+      <c r="V79" s="132"/>
+      <c r="W79" s="132"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="141"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="141"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="141"/>
+      <c r="F83" s="141"/>
+      <c r="G83" s="141"/>
+      <c r="H83" s="141"/>
+      <c r="I83" s="141"/>
+      <c r="J83" s="141"/>
+      <c r="K83" s="141"/>
+      <c r="L83" s="141"/>
+      <c r="M83" s="141"/>
+      <c r="N83" s="141"/>
+      <c r="O83" s="141"/>
+      <c r="P83" s="141"/>
+      <c r="Q83" s="141"/>
+      <c r="R83" s="141"/>
+      <c r="S83" s="141"/>
+      <c r="T83" s="141"/>
+      <c r="U83" s="141"/>
+      <c r="V83" s="141"/>
+      <c r="W83" s="141"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="142"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
+      <c r="J84" s="134"/>
+      <c r="K84" s="134"/>
+      <c r="L84" s="134"/>
+      <c r="M84" s="134"/>
+      <c r="N84" s="134"/>
+      <c r="O84" s="134"/>
+      <c r="P84" s="134"/>
+      <c r="Q84" s="134"/>
+      <c r="R84" s="134"/>
+      <c r="S84" s="134"/>
+      <c r="T84" s="134"/>
+      <c r="U84" s="134"/>
+      <c r="V84" s="134"/>
+      <c r="W84" s="134"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="134"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
+      <c r="J85" s="134"/>
+      <c r="K85" s="134"/>
+      <c r="L85" s="134"/>
+      <c r="M85" s="134"/>
+      <c r="N85" s="134"/>
+      <c r="O85" s="134"/>
+      <c r="P85" s="134"/>
+      <c r="Q85" s="134"/>
+      <c r="R85" s="134"/>
+      <c r="S85" s="134"/>
+      <c r="T85" s="134"/>
+      <c r="U85" s="134"/>
+      <c r="V85" s="134"/>
+      <c r="W85" s="134"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A89:V89"/>
-    <mergeCell ref="A5:V5"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A21:V21"/>
-    <mergeCell ref="A38:V38"/>
-    <mergeCell ref="A47:V47"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="A87:V87"/>
-    <mergeCell ref="A1:V1"/>
+  <mergeCells count="15">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A88:V88"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="A77:V77"/>
-    <mergeCell ref="A57:V57"/>
+    <mergeCell ref="A84:W84"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C2:W2"/>
+    <mergeCell ref="A77:W77"/>
+    <mergeCell ref="A57:W57"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="A85:W85"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A19:W19"/>
+    <mergeCell ref="A21:W21"/>
+    <mergeCell ref="A38:W38"/>
+    <mergeCell ref="A47:W47"/>
+    <mergeCell ref="A72:W72"/>
+    <mergeCell ref="A83:W83"/>
   </mergeCells>
-  <conditionalFormatting sqref="A44">
+  <conditionalFormatting sqref="A44:B44">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4500,7 +4535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
+  <conditionalFormatting sqref="A45:B45">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4560,7 +4595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+  <conditionalFormatting sqref="A60:B60">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4572,7 +4607,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+  <conditionalFormatting sqref="A61:B61">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4584,7 +4619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
+  <conditionalFormatting sqref="A63:B63">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4596,7 +4631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="A65:B65">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4608,7 +4643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+  <conditionalFormatting sqref="A67:B67">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4620,7 +4655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A71:B71">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4632,7 +4667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A68:B68">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4644,7 +4679,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="A54:B54">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4656,7 +4691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+  <conditionalFormatting sqref="A64:B64">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4668,7 +4703,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A70:B70">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4680,7 +4715,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A36">
+  <conditionalFormatting sqref="A35:B36 A32:A34">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -4701,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -4717,24 +4752,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
     </row>
     <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="143"/>
-      <c r="C3" s="144" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="145"/>
+      <c r="F3" s="150"/>
     </row>
     <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
@@ -6266,27 +6301,27 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="151"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="151"/>
-      <c r="F84" s="151"/>
+      <c r="B84" s="156"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="156"/>
+      <c r="F84" s="156"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="150"/>
-      <c r="C85" s="150"/>
-      <c r="D85" s="150"/>
-      <c r="E85" s="152"/>
-      <c r="F85" s="152"/>
+      <c r="B85" s="155"/>
+      <c r="C85" s="155"/>
+      <c r="D85" s="155"/>
+      <c r="E85" s="157"/>
+      <c r="F85" s="157"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="146" t="s">
+      <c r="B86" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="147"/>
-      <c r="D86" s="148"/>
-      <c r="E86" s="152"/>
-      <c r="F86" s="152"/>
+      <c r="C86" s="152"/>
+      <c r="D86" s="153"/>
+      <c r="E86" s="157"/>
+      <c r="F86" s="157"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
@@ -6298,8 +6333,8 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="152"/>
-      <c r="F87" s="152"/>
+      <c r="E87" s="157"/>
+      <c r="F87" s="157"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
@@ -6311,8 +6346,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="152"/>
-      <c r="F88" s="152"/>
+      <c r="E88" s="157"/>
+      <c r="F88" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6787,12 +6822,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6953,20 +6990,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6991,18 +7035,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3D746-174F-465E-A4B5-BD04C154F1D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF55BF1-ADDD-4988-8758-9C8A16C1B90F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,21 +1308,87 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,24 +1398,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,54 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="45" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="45" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2151,40 +2151,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="158" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="143">
+      <c r="A2" s="149"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="151">
         <v>2019</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="145"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="153"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="173"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="63" t="s">
         <v>87</v>
       </c>
@@ -2218,13 +2218,13 @@
       <c r="M3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="143" t="s">
+      <c r="N3" s="151" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="173"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="63">
         <v>18.02</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="173"/>
+      <c r="B5" s="158"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="173"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2339,29 +2339,29 @@
       <c r="W6" s="122"/>
     </row>
     <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="135"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
@@ -2512,7 +2512,7 @@
       <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="160"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -2681,66 +2681,66 @@
       <c r="W18" s="63"/>
     </row>
     <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="159"/>
+      <c r="B20" s="135"/>
     </row>
     <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="135"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="159"/>
+      <c r="T21" s="159"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="159"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="161"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="101"/>
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
@@ -2767,7 +2767,7 @@
       <c r="A23" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="138" t="s">
         <v>148</v>
       </c>
       <c r="C23" s="104"/>
@@ -2796,7 +2796,7 @@
       <c r="A24" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="138" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="73"/>
@@ -2825,7 +2825,7 @@
       <c r="A25" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="163"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="73"/>
       <c r="D25" s="105"/>
       <c r="E25" s="105"/>
@@ -2852,7 +2852,7 @@
       <c r="A26" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="163"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="73"/>
       <c r="D26" s="73"/>
       <c r="E26" s="105"/>
@@ -2879,7 +2879,7 @@
       <c r="A27" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="163"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
@@ -2906,7 +2906,7 @@
       <c r="A28" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="138" t="s">
         <v>148</v>
       </c>
       <c r="C28" s="73"/>
@@ -2935,7 +2935,7 @@
       <c r="A29" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="163"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="73"/>
       <c r="D29" s="105"/>
       <c r="E29" s="105"/>
@@ -2962,7 +2962,7 @@
       <c r="A30" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="138" t="s">
         <v>148</v>
       </c>
       <c r="C30" s="73"/>
@@ -2991,7 +2991,7 @@
       <c r="A31" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="162" t="s">
+      <c r="B31" s="138" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="73"/>
@@ -3020,7 +3020,7 @@
       <c r="A32" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="138" t="s">
         <v>148</v>
       </c>
       <c r="C32" s="73"/>
@@ -3049,7 +3049,7 @@
       <c r="A33" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="138" t="s">
         <v>148</v>
       </c>
       <c r="C33" s="73"/>
@@ -3078,7 +3078,7 @@
       <c r="A34" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="162" t="s">
+      <c r="B34" s="138" t="s">
         <v>148</v>
       </c>
       <c r="C34" s="73"/>
@@ -3107,7 +3107,7 @@
       <c r="A35" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="164"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="73"/>
       <c r="D35" s="73"/>
       <c r="E35" s="73"/>
@@ -3134,7 +3134,7 @@
       <c r="A36" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="164"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
@@ -3161,7 +3161,7 @@
       <c r="A37" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="163"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="105"/>
       <c r="D37" s="105"/>
       <c r="E37" s="105"/>
@@ -3185,35 +3185,35 @@
       <c r="W37" s="106"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="137"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="138"/>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="138"/>
-      <c r="R38" s="138"/>
-      <c r="S38" s="138"/>
-      <c r="T38" s="138"/>
-      <c r="U38" s="138"/>
-      <c r="V38" s="138"/>
-      <c r="W38" s="138"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
+      <c r="V38" s="157"/>
+      <c r="W38" s="157"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="165"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="89"/>
       <c r="D39" s="89"/>
       <c r="E39" s="89"/>
@@ -3240,7 +3240,7 @@
       <c r="A40" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="166" t="s">
+      <c r="B40" s="142" t="s">
         <v>149</v>
       </c>
       <c r="C40" s="78"/>
@@ -3266,10 +3266,10 @@
       <c r="W40" s="79"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="158" t="s">
+      <c r="A41" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="166"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="78"/>
       <c r="D41" s="73"/>
       <c r="E41" s="73"/>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="77"/>
-      <c r="B42" s="166"/>
+      <c r="B42" s="142"/>
       <c r="C42" s="78"/>
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
@@ -3321,7 +3321,7 @@
       <c r="A43" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="138" t="s">
         <v>150</v>
       </c>
       <c r="C43" s="76"/>
@@ -3350,7 +3350,7 @@
       <c r="A44" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="167"/>
+      <c r="B44" s="143"/>
       <c r="C44" s="76"/>
       <c r="D44" s="76"/>
       <c r="E44" s="76"/>
@@ -3377,7 +3377,7 @@
       <c r="A45" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="140"/>
       <c r="C45" s="73"/>
       <c r="D45" s="73"/>
       <c r="E45" s="73"/>
@@ -3404,7 +3404,7 @@
       <c r="A46" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="168"/>
+      <c r="B46" s="144"/>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
       <c r="E46" s="76"/>
@@ -3428,35 +3428,35 @@
       <c r="W46" s="66"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="137"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="138"/>
-      <c r="P47" s="138"/>
-      <c r="Q47" s="138"/>
-      <c r="R47" s="138"/>
-      <c r="S47" s="138"/>
-      <c r="T47" s="138"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="138"/>
-      <c r="W47" s="138"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="157"/>
+      <c r="P47" s="157"/>
+      <c r="Q47" s="157"/>
+      <c r="R47" s="157"/>
+      <c r="S47" s="157"/>
+      <c r="T47" s="157"/>
+      <c r="U47" s="157"/>
+      <c r="V47" s="157"/>
+      <c r="W47" s="157"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="169"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="95"/>
       <c r="D48" s="95"/>
       <c r="E48" s="95"/>
@@ -3483,7 +3483,7 @@
       <c r="A49" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="142" t="s">
         <v>149</v>
       </c>
       <c r="C49" s="73"/>
@@ -3512,7 +3512,7 @@
       <c r="A50" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="163"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
@@ -3539,7 +3539,7 @@
       <c r="A51" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="163"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
       <c r="E51" s="73"/>
@@ -3566,7 +3566,7 @@
       <c r="A52" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="163"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
@@ -3593,7 +3593,7 @@
       <c r="A53" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="138" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="73"/>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="83"/>
-      <c r="B54" s="163"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="73"/>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
@@ -3647,7 +3647,7 @@
       <c r="A55" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="162"/>
+      <c r="B55" s="138"/>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
       <c r="E55" s="76"/>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="72"/>
-      <c r="B56" s="163"/>
+      <c r="B56" s="139"/>
       <c r="C56" s="73"/>
       <c r="D56" s="73"/>
       <c r="E56" s="73"/>
@@ -3702,35 +3702,35 @@
       <c r="W56" s="76"/>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A57" s="137"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138"/>
-      <c r="J57" s="138"/>
-      <c r="K57" s="138"/>
-      <c r="L57" s="138"/>
-      <c r="M57" s="138"/>
-      <c r="N57" s="138"/>
-      <c r="O57" s="138"/>
-      <c r="P57" s="138"/>
-      <c r="Q57" s="138"/>
-      <c r="R57" s="138"/>
-      <c r="S57" s="138"/>
-      <c r="T57" s="138"/>
-      <c r="U57" s="138"/>
-      <c r="V57" s="138"/>
-      <c r="W57" s="138"/>
+      <c r="A57" s="156"/>
+      <c r="B57" s="157"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="157"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="157"/>
+      <c r="N57" s="157"/>
+      <c r="O57" s="157"/>
+      <c r="P57" s="157"/>
+      <c r="Q57" s="157"/>
+      <c r="R57" s="157"/>
+      <c r="S57" s="157"/>
+      <c r="T57" s="157"/>
+      <c r="U57" s="157"/>
+      <c r="V57" s="157"/>
+      <c r="W57" s="157"/>
     </row>
     <row r="58" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="170"/>
+      <c r="B58" s="146"/>
       <c r="C58" s="109"/>
       <c r="D58" s="109"/>
       <c r="E58" s="109"/>
@@ -3778,7 +3778,7 @@
       <c r="A59" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="166" t="s">
+      <c r="B59" s="142" t="s">
         <v>149</v>
       </c>
       <c r="C59" s="76"/>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="75"/>
-      <c r="B60" s="164"/>
+      <c r="B60" s="140"/>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
       <c r="E60" s="73"/>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="75"/>
-      <c r="B61" s="164"/>
+      <c r="B61" s="140"/>
       <c r="C61" s="73"/>
       <c r="D61" s="73"/>
       <c r="E61" s="73"/>
@@ -3857,7 +3857,7 @@
       <c r="A62" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="162" t="s">
+      <c r="B62" s="138" t="s">
         <v>150</v>
       </c>
       <c r="C62" s="73"/>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="75"/>
-      <c r="B63" s="164"/>
+      <c r="B63" s="140"/>
       <c r="C63" s="73"/>
       <c r="D63" s="73"/>
       <c r="E63" s="73"/>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="75"/>
-      <c r="B64" s="164"/>
+      <c r="B64" s="140"/>
       <c r="C64" s="73"/>
       <c r="D64" s="73"/>
       <c r="E64" s="73"/>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="75"/>
-      <c r="B65" s="164"/>
+      <c r="B65" s="140"/>
       <c r="C65" s="73"/>
       <c r="D65" s="73"/>
       <c r="E65" s="73"/>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="75"/>
-      <c r="B66" s="164"/>
+      <c r="B66" s="140"/>
       <c r="C66" s="73"/>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="75"/>
-      <c r="B67" s="164"/>
+      <c r="B67" s="140"/>
       <c r="C67" s="73"/>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="68" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
-      <c r="B68" s="163"/>
+      <c r="B68" s="139"/>
       <c r="C68" s="73"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="75"/>
-      <c r="B69" s="164"/>
+      <c r="B69" s="140"/>
       <c r="C69" s="73"/>
       <c r="D69" s="73"/>
       <c r="E69" s="73"/>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="75"/>
-      <c r="B70" s="164"/>
+      <c r="B70" s="140"/>
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
       <c r="E70" s="73"/>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="75"/>
-      <c r="B71" s="164"/>
+      <c r="B71" s="140"/>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
       <c r="E71" s="73"/>
@@ -4129,35 +4129,35 @@
       <c r="W71" s="73"/>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A72" s="139"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="140"/>
-      <c r="R72" s="140"/>
-      <c r="S72" s="140"/>
-      <c r="T72" s="140"/>
-      <c r="U72" s="140"/>
-      <c r="V72" s="140"/>
-      <c r="W72" s="140"/>
+      <c r="A72" s="161"/>
+      <c r="B72" s="162"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="162"/>
+      <c r="F72" s="162"/>
+      <c r="G72" s="162"/>
+      <c r="H72" s="162"/>
+      <c r="I72" s="162"/>
+      <c r="J72" s="162"/>
+      <c r="K72" s="162"/>
+      <c r="L72" s="162"/>
+      <c r="M72" s="162"/>
+      <c r="N72" s="162"/>
+      <c r="O72" s="162"/>
+      <c r="P72" s="162"/>
+      <c r="Q72" s="162"/>
+      <c r="R72" s="162"/>
+      <c r="S72" s="162"/>
+      <c r="T72" s="162"/>
+      <c r="U72" s="162"/>
+      <c r="V72" s="162"/>
+      <c r="W72" s="162"/>
     </row>
     <row r="73" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="171"/>
+      <c r="B73" s="147"/>
       <c r="C73" s="113"/>
       <c r="D73" s="113"/>
       <c r="E73" s="113"/>
@@ -4205,7 +4205,7 @@
       <c r="A74" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="166" t="s">
+      <c r="B74" s="142" t="s">
         <v>149</v>
       </c>
       <c r="C74" s="131"/>
@@ -4255,7 +4255,7 @@
       <c r="A75" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="162" t="s">
+      <c r="B75" s="138" t="s">
         <v>150</v>
       </c>
       <c r="C75" s="131"/>
@@ -4305,7 +4305,7 @@
       <c r="A76" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="162" t="s">
+      <c r="B76" s="138" t="s">
         <v>150</v>
       </c>
       <c r="C76" s="93"/>
@@ -4331,35 +4331,35 @@
       <c r="W76" s="93"/>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A77" s="146"/>
-      <c r="B77" s="147"/>
-      <c r="C77" s="147"/>
-      <c r="D77" s="147"/>
-      <c r="E77" s="147"/>
-      <c r="F77" s="147"/>
-      <c r="G77" s="147"/>
-      <c r="H77" s="147"/>
-      <c r="I77" s="147"/>
-      <c r="J77" s="147"/>
-      <c r="K77" s="147"/>
-      <c r="L77" s="147"/>
-      <c r="M77" s="147"/>
-      <c r="N77" s="147"/>
-      <c r="O77" s="147"/>
-      <c r="P77" s="147"/>
-      <c r="Q77" s="147"/>
-      <c r="R77" s="147"/>
-      <c r="S77" s="147"/>
-      <c r="T77" s="147"/>
-      <c r="U77" s="147"/>
-      <c r="V77" s="147"/>
-      <c r="W77" s="147"/>
+      <c r="A77" s="154"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="155"/>
+      <c r="D77" s="155"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="155"/>
+      <c r="G77" s="155"/>
+      <c r="H77" s="155"/>
+      <c r="I77" s="155"/>
+      <c r="J77" s="155"/>
+      <c r="K77" s="155"/>
+      <c r="L77" s="155"/>
+      <c r="M77" s="155"/>
+      <c r="N77" s="155"/>
+      <c r="O77" s="155"/>
+      <c r="P77" s="155"/>
+      <c r="Q77" s="155"/>
+      <c r="R77" s="155"/>
+      <c r="S77" s="155"/>
+      <c r="T77" s="155"/>
+      <c r="U77" s="155"/>
+      <c r="V77" s="155"/>
+      <c r="W77" s="155"/>
     </row>
     <row r="78" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="172"/>
+      <c r="B78" s="148"/>
       <c r="C78" s="115"/>
       <c r="D78" s="115"/>
       <c r="E78" s="115"/>
@@ -4431,89 +4431,82 @@
       <c r="W79" s="132"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="141"/>
-      <c r="B83" s="141"/>
-      <c r="C83" s="141"/>
-      <c r="D83" s="141"/>
-      <c r="E83" s="141"/>
-      <c r="F83" s="141"/>
-      <c r="G83" s="141"/>
-      <c r="H83" s="141"/>
-      <c r="I83" s="141"/>
-      <c r="J83" s="141"/>
-      <c r="K83" s="141"/>
-      <c r="L83" s="141"/>
-      <c r="M83" s="141"/>
-      <c r="N83" s="141"/>
-      <c r="O83" s="141"/>
-      <c r="P83" s="141"/>
-      <c r="Q83" s="141"/>
-      <c r="R83" s="141"/>
-      <c r="S83" s="141"/>
-      <c r="T83" s="141"/>
-      <c r="U83" s="141"/>
-      <c r="V83" s="141"/>
-      <c r="W83" s="141"/>
+      <c r="A83" s="163"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
+      <c r="F83" s="163"/>
+      <c r="G83" s="163"/>
+      <c r="H83" s="163"/>
+      <c r="I83" s="163"/>
+      <c r="J83" s="163"/>
+      <c r="K83" s="163"/>
+      <c r="L83" s="163"/>
+      <c r="M83" s="163"/>
+      <c r="N83" s="163"/>
+      <c r="O83" s="163"/>
+      <c r="P83" s="163"/>
+      <c r="Q83" s="163"/>
+      <c r="R83" s="163"/>
+      <c r="S83" s="163"/>
+      <c r="T83" s="163"/>
+      <c r="U83" s="163"/>
+      <c r="V83" s="163"/>
+      <c r="W83" s="163"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="142"/>
-      <c r="B84" s="134"/>
-      <c r="C84" s="134"/>
-      <c r="D84" s="134"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="134"/>
-      <c r="I84" s="134"/>
-      <c r="J84" s="134"/>
-      <c r="K84" s="134"/>
-      <c r="L84" s="134"/>
-      <c r="M84" s="134"/>
-      <c r="N84" s="134"/>
-      <c r="O84" s="134"/>
-      <c r="P84" s="134"/>
-      <c r="Q84" s="134"/>
-      <c r="R84" s="134"/>
-      <c r="S84" s="134"/>
-      <c r="T84" s="134"/>
-      <c r="U84" s="134"/>
-      <c r="V84" s="134"/>
-      <c r="W84" s="134"/>
+      <c r="A84" s="150"/>
+      <c r="B84" s="149"/>
+      <c r="C84" s="149"/>
+      <c r="D84" s="149"/>
+      <c r="E84" s="149"/>
+      <c r="F84" s="149"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="149"/>
+      <c r="I84" s="149"/>
+      <c r="J84" s="149"/>
+      <c r="K84" s="149"/>
+      <c r="L84" s="149"/>
+      <c r="M84" s="149"/>
+      <c r="N84" s="149"/>
+      <c r="O84" s="149"/>
+      <c r="P84" s="149"/>
+      <c r="Q84" s="149"/>
+      <c r="R84" s="149"/>
+      <c r="S84" s="149"/>
+      <c r="T84" s="149"/>
+      <c r="U84" s="149"/>
+      <c r="V84" s="149"/>
+      <c r="W84" s="149"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="134"/>
-      <c r="B85" s="134"/>
-      <c r="C85" s="134"/>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="134"/>
-      <c r="G85" s="134"/>
-      <c r="H85" s="134"/>
-      <c r="I85" s="134"/>
-      <c r="J85" s="134"/>
-      <c r="K85" s="134"/>
-      <c r="L85" s="134"/>
-      <c r="M85" s="134"/>
-      <c r="N85" s="134"/>
-      <c r="O85" s="134"/>
-      <c r="P85" s="134"/>
-      <c r="Q85" s="134"/>
-      <c r="R85" s="134"/>
-      <c r="S85" s="134"/>
-      <c r="T85" s="134"/>
-      <c r="U85" s="134"/>
-      <c r="V85" s="134"/>
-      <c r="W85" s="134"/>
+      <c r="A85" s="149"/>
+      <c r="B85" s="149"/>
+      <c r="C85" s="149"/>
+      <c r="D85" s="149"/>
+      <c r="E85" s="149"/>
+      <c r="F85" s="149"/>
+      <c r="G85" s="149"/>
+      <c r="H85" s="149"/>
+      <c r="I85" s="149"/>
+      <c r="J85" s="149"/>
+      <c r="K85" s="149"/>
+      <c r="L85" s="149"/>
+      <c r="M85" s="149"/>
+      <c r="N85" s="149"/>
+      <c r="O85" s="149"/>
+      <c r="P85" s="149"/>
+      <c r="Q85" s="149"/>
+      <c r="R85" s="149"/>
+      <c r="S85" s="149"/>
+      <c r="T85" s="149"/>
+      <c r="U85" s="149"/>
+      <c r="V85" s="149"/>
+      <c r="W85" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A84:W84"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C2:W2"/>
-    <mergeCell ref="A77:W77"/>
-    <mergeCell ref="A57:W57"/>
-    <mergeCell ref="B1:B6"/>
     <mergeCell ref="A85:W85"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A19:W19"/>
@@ -4522,6 +4515,13 @@
     <mergeCell ref="A47:W47"/>
     <mergeCell ref="A72:W72"/>
     <mergeCell ref="A83:W83"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A84:W84"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C2:W2"/>
+    <mergeCell ref="A77:W77"/>
+    <mergeCell ref="A57:W57"/>
+    <mergeCell ref="B1:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="A44:B44">
     <cfRule type="colorScale" priority="54">
@@ -4736,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -4752,24 +4752,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
     </row>
     <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="148"/>
-      <c r="C3" s="149" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150" t="s">
+      <c r="D3" s="166"/>
+      <c r="E3" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="150"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
@@ -6301,27 +6301,27 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="156"/>
-      <c r="C84" s="156"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="156"/>
-      <c r="F84" s="156"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="172"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="155"/>
-      <c r="C85" s="155"/>
-      <c r="D85" s="155"/>
-      <c r="E85" s="157"/>
-      <c r="F85" s="157"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="173"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="151" t="s">
+      <c r="B86" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="152"/>
-      <c r="D86" s="153"/>
-      <c r="E86" s="157"/>
-      <c r="F86" s="157"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="173"/>
+      <c r="F86" s="173"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
@@ -6333,8 +6333,8 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="157"/>
-      <c r="F87" s="157"/>
+      <c r="E87" s="173"/>
+      <c r="F87" s="173"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
@@ -6346,8 +6346,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="157"/>
-      <c r="F88" s="157"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6822,14 +6822,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6990,27 +6988,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7035,9 +7026,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkrummenacher/Documents/GitHub/P2Pflichtenheft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF55BF1-ADDD-4988-8758-9C8A16C1B90F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21563444-364E-704D-8EB6-12AFFE96FD6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
     <sheet name="Projektbudget" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$57:$W$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$62:$W$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="162">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -491,15 +491,6 @@
     <t>1.8.2 Projektauflösung</t>
   </si>
   <si>
-    <t>2.2.2 Mathematische Beschreibung</t>
-  </si>
-  <si>
-    <t>2.2.3 Ersatzschaltbild bestimmen</t>
-  </si>
-  <si>
-    <t>2.2.1 Problembeschrieb/ ?Theorie?</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
@@ -510,6 +501,45 @@
   </si>
   <si>
     <t>Verantwortung</t>
+  </si>
+  <si>
+    <t>2.2.1 Problembeschrieb</t>
+  </si>
+  <si>
+    <t>2.2.3 Schaltungsberechnung erarbeiten</t>
+  </si>
+  <si>
+    <t>2.1.2 GUI Möglichkeiten ausarbeiten</t>
+  </si>
+  <si>
+    <t>2.1.3 Optionale Ziele ausarbeiten</t>
+  </si>
+  <si>
+    <t>3.2.1 Schaltungsberechnung mit Matlab</t>
+  </si>
+  <si>
+    <t>3.2.2 Schaltungsberechnung überprüfen</t>
+  </si>
+  <si>
+    <t>4.1.1 MVC Framework erstellen</t>
+  </si>
+  <si>
+    <t>4.1.2 Implementierung Code aus Entwurf</t>
+  </si>
+  <si>
+    <t>4.1.3 Anpassungen Klassendiagramm</t>
+  </si>
+  <si>
+    <t>2.2.2 Mathematischer Lösungsansatz erarbeiten</t>
+  </si>
+  <si>
+    <t>3.2.3 Lösungskonzept besprechen/überarbeiten</t>
+  </si>
+  <si>
+    <t>3.3.1 Testkonzept erstellen</t>
+  </si>
+  <si>
+    <t>3.3.2 Bedienungsanleitung erstellen</t>
   </si>
 </sst>
 </file>
@@ -522,7 +552,7 @@
     <numFmt numFmtId="166" formatCode="#,###\ &quot;PW&quot;"/>
     <numFmt numFmtId="167" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -649,8 +679,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +792,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1049,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1356,6 +1404,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,30 +1443,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1427,6 +1475,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2136,55 +2193,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR85"/>
+  <dimension ref="A1:AR91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="45" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="113" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:W62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.59765625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" style="129" customWidth="1"/>
-    <col min="3" max="23" width="6.69921875" style="61" customWidth="1"/>
-    <col min="24" max="16384" width="10.796875" style="61"/>
+    <col min="1" max="1" width="45.6640625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="129" customWidth="1"/>
+    <col min="3" max="23" width="6.6640625" style="61" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="158" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="22.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="163" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="149"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="151">
+      <c r="B2" s="163"/>
+      <c r="C2" s="158">
         <v>2019</v>
       </c>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="153"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="160"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="149"/>
-      <c r="B3" s="158"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="63" t="s">
         <v>87</v>
       </c>
@@ -2218,13 +2275,13 @@
       <c r="M3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="151" t="s">
+      <c r="N3" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
       <c r="S3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2241,9 +2298,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="149"/>
-      <c r="B4" s="158"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="63">
         <v>18.02</v>
       </c>
@@ -2308,14 +2365,14 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="158"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="163"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="158"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2338,32 +2395,32 @@
       <c r="V6" s="122"/>
       <c r="W6" s="122"/>
     </row>
-    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="150"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="66" t="s">
         <v>1</v>
       </c>
@@ -2392,7 +2449,7 @@
       <c r="V8" s="63"/>
       <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="66" t="s">
         <v>103</v>
       </c>
@@ -2421,7 +2478,7 @@
       <c r="V9" s="63"/>
       <c r="W9" s="63"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2450,7 +2507,7 @@
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
         <v>104</v>
       </c>
@@ -2479,7 +2536,7 @@
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
         <v>105</v>
       </c>
@@ -2508,7 +2565,7 @@
       <c r="V12" s="63"/>
       <c r="W12" s="63"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
@@ -2537,7 +2594,7 @@
       <c r="V13" s="63"/>
       <c r="W13" s="63"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
         <v>108</v>
       </c>
@@ -2565,7 +2622,7 @@
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
         <v>109</v>
       </c>
@@ -2596,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="66" t="s">
         <v>110</v>
       </c>
@@ -2625,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
         <v>111</v>
       </c>
@@ -2654,7 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
@@ -2680,63 +2737,63 @@
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
     </row>
-    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="151"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="121" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="135"/>
     </row>
-    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="159"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="150"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="100" t="s">
         <v>5</v>
       </c>
@@ -2763,12 +2820,12 @@
       <c r="V22" s="102"/>
       <c r="W22" s="103"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="72" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C23" s="104"/>
       <c r="D23" s="104"/>
@@ -2792,12 +2849,12 @@
       <c r="V23" s="104"/>
       <c r="W23" s="104"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="72" t="s">
         <v>137</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="105"/>
@@ -2821,7 +2878,7 @@
       <c r="V24" s="66"/>
       <c r="W24" s="66"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="83" t="s">
         <v>138</v>
       </c>
@@ -2848,7 +2905,7 @@
       <c r="V25" s="66"/>
       <c r="W25" s="66"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="83" t="s">
         <v>139</v>
       </c>
@@ -2875,7 +2932,7 @@
       <c r="V26" s="66"/>
       <c r="W26" s="66"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="83" t="s">
         <v>140</v>
       </c>
@@ -2902,12 +2959,12 @@
       <c r="V27" s="66"/>
       <c r="W27" s="66"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="72" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="105"/>
@@ -2931,7 +2988,7 @@
       <c r="V28" s="66"/>
       <c r="W28" s="66"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="83" t="s">
         <v>141</v>
       </c>
@@ -2958,12 +3015,12 @@
       <c r="V29" s="66"/>
       <c r="W29" s="66"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="87" t="s">
         <v>113</v>
       </c>
       <c r="B30" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="105"/>
@@ -2987,12 +3044,12 @@
       <c r="V30" s="66"/>
       <c r="W30" s="66"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="87" t="s">
         <v>114</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
@@ -3016,12 +3073,12 @@
       <c r="V31" s="66"/>
       <c r="W31" s="66"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="87" t="s">
         <v>115</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="73"/>
@@ -3045,12 +3102,12 @@
       <c r="V32" s="66"/>
       <c r="W32" s="66"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="87" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="73"/>
@@ -3074,12 +3131,12 @@
       <c r="V33" s="107"/>
       <c r="W33" s="107"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="87" t="s">
         <v>142</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="73"/>
@@ -3103,7 +3160,7 @@
       <c r="V34" s="107"/>
       <c r="W34" s="107"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="75" t="s">
         <v>143</v>
       </c>
@@ -3130,7 +3187,7 @@
       <c r="V35" s="107"/>
       <c r="W35" s="107"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="75" t="s">
         <v>144</v>
       </c>
@@ -3157,7 +3214,7 @@
       <c r="V36" s="107"/>
       <c r="W36" s="107"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A37" s="72" t="s">
         <v>122</v>
       </c>
@@ -3184,32 +3241,32 @@
       <c r="V37" s="106"/>
       <c r="W37" s="106"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="156"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
-      <c r="O38" s="157"/>
-      <c r="P38" s="157"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="157"/>
-      <c r="S38" s="157"/>
-      <c r="T38" s="157"/>
-      <c r="U38" s="157"/>
-      <c r="V38" s="157"/>
-      <c r="W38" s="157"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A38" s="152"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="153"/>
+      <c r="V38" s="153"/>
+      <c r="W38" s="153"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A39" s="88" t="s">
         <v>11</v>
       </c>
@@ -3236,12 +3293,12 @@
       <c r="V39" s="91"/>
       <c r="W39" s="91"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A40" s="77" t="s">
         <v>119</v>
       </c>
       <c r="B40" s="142" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="73"/>
@@ -3265,14 +3322,14 @@
       <c r="V40" s="79"/>
       <c r="W40" s="79"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A41" s="134" t="s">
         <v>131</v>
       </c>
       <c r="B41" s="142"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
       <c r="F41" s="73"/>
       <c r="G41" s="73"/>
       <c r="H41" s="73"/>
@@ -3292,13 +3349,15 @@
       <c r="V41" s="79"/>
       <c r="W41" s="79"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A42" s="134" t="s">
+        <v>151</v>
+      </c>
       <c r="B42" s="142"/>
       <c r="C42" s="78"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="174"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
       <c r="I42" s="73"/>
@@ -3317,70 +3376,68 @@
       <c r="V42" s="79"/>
       <c r="W42" s="79"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="138" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A43" s="134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="142"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="174"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
       <c r="J43" s="76"/>
       <c r="K43" s="76"/>
       <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
+      <c r="M43" s="79"/>
       <c r="N43" s="125"/>
-      <c r="O43" s="126"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="66"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
-      <c r="W43" s="66"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="127"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="79"/>
+      <c r="W43" s="79"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A44" s="77"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
       <c r="J44" s="76"/>
       <c r="K44" s="76"/>
       <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
+      <c r="M44" s="79"/>
       <c r="N44" s="125"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="127"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
       <c r="Q44" s="127"/>
       <c r="R44" s="127"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="140"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="V44" s="79"/>
+      <c r="W44" s="79"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A45" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="76"/>
       <c r="G45" s="76"/>
       <c r="H45" s="76"/>
@@ -3400,14 +3457,14 @@
       <c r="V45" s="66"/>
       <c r="W45" s="66"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="144"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="A46" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="143"/>
+      <c r="C46" s="176"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
       <c r="F46" s="76"/>
       <c r="G46" s="76"/>
       <c r="H46" s="76"/>
@@ -3417,161 +3474,161 @@
       <c r="L46" s="76"/>
       <c r="M46" s="76"/>
       <c r="N46" s="125"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="66"/>
+      <c r="O46" s="127"/>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="127"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="82"/>
       <c r="T46" s="66"/>
       <c r="U46" s="66"/>
       <c r="V46" s="66"/>
       <c r="W46" s="66"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="157"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="157"/>
-      <c r="N47" s="157"/>
-      <c r="O47" s="157"/>
-      <c r="P47" s="157"/>
-      <c r="Q47" s="157"/>
-      <c r="R47" s="157"/>
-      <c r="S47" s="157"/>
-      <c r="T47" s="157"/>
-      <c r="U47" s="157"/>
-      <c r="V47" s="157"/>
-      <c r="W47" s="157"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="s">
+    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="A47" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="140"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="125"/>
+      <c r="O47" s="126"/>
+      <c r="P47" s="126"/>
+      <c r="Q47" s="126"/>
+      <c r="R47" s="126"/>
+      <c r="S47" s="66"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="66"/>
+      <c r="V47" s="66"/>
+      <c r="W47" s="66"/>
+    </row>
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="A48" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="144"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="126"/>
+      <c r="P48" s="126"/>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="126"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A49" s="152"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="153"/>
+      <c r="R49" s="153"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="153"/>
+      <c r="V49" s="153"/>
+      <c r="W49" s="153"/>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A50" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="145"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="97"/>
-      <c r="S48" s="97"/>
-      <c r="T48" s="97"/>
-      <c r="U48" s="97"/>
-      <c r="V48" s="96"/>
-      <c r="W48" s="96"/>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A49" s="72" t="s">
+      <c r="B50" s="145"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="97"/>
+      <c r="S50" s="97"/>
+      <c r="T50" s="97"/>
+      <c r="U50" s="97"/>
+      <c r="V50" s="96"/>
+      <c r="W50" s="96"/>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A51" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="142" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="128"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="127"/>
-      <c r="Q49" s="127"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="66"/>
-      <c r="U49" s="66"/>
-      <c r="V49" s="76"/>
-      <c r="W49" s="76"/>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A50" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="139"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="125"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="127"/>
-      <c r="Q50" s="127"/>
-      <c r="R50" s="127"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="66"/>
-      <c r="U50" s="66"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="76"/>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A51" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="139"/>
+      <c r="B51" s="142" t="s">
+        <v>146</v>
+      </c>
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
       <c r="E51" s="73"/>
       <c r="F51" s="76"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
       <c r="I51" s="73"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="66"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="127"/>
+      <c r="P51" s="127"/>
+      <c r="Q51" s="127"/>
+      <c r="R51" s="127"/>
+      <c r="S51" s="82"/>
       <c r="T51" s="66"/>
       <c r="U51" s="66"/>
-      <c r="V51" s="66"/>
-      <c r="W51" s="66"/>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="V51" s="76"/>
+      <c r="W51" s="76"/>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A52" s="83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B52" s="139"/>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="73"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="179"/>
       <c r="H52" s="73"/>
       <c r="I52" s="73"/>
       <c r="J52" s="73"/>
@@ -3579,83 +3636,85 @@
       <c r="L52" s="76"/>
       <c r="M52" s="76"/>
       <c r="N52" s="125"/>
-      <c r="O52" s="126"/>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="66"/>
+      <c r="O52" s="127"/>
+      <c r="P52" s="127"/>
+      <c r="Q52" s="127"/>
+      <c r="R52" s="127"/>
+      <c r="S52" s="82"/>
       <c r="T52" s="66"/>
       <c r="U52" s="66"/>
-      <c r="V52" s="66"/>
-      <c r="W52" s="66"/>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A53" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="138" t="s">
-        <v>150</v>
-      </c>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A53" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="139"/>
       <c r="C53" s="73"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
       <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
+      <c r="G53" s="178"/>
+      <c r="H53" s="178"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="76"/>
       <c r="K53" s="76"/>
       <c r="L53" s="76"/>
       <c r="M53" s="76"/>
       <c r="N53" s="125"/>
-      <c r="O53" s="127"/>
-      <c r="P53" s="127"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="82"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="126"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="126"/>
+      <c r="S53" s="66"/>
       <c r="T53" s="66"/>
       <c r="U53" s="66"/>
-      <c r="V53" s="76"/>
-      <c r="W53" s="76"/>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="66"/>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A54" s="83" t="s">
+        <v>134</v>
+      </c>
       <c r="B54" s="139"/>
       <c r="C54" s="73"/>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
       <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="178"/>
       <c r="K54" s="76"/>
       <c r="L54" s="76"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="127"/>
-      <c r="P54" s="127"/>
-      <c r="Q54" s="127"/>
-      <c r="R54" s="127"/>
-      <c r="S54" s="82"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="125"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="126"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="126"/>
+      <c r="S54" s="66"/>
       <c r="T54" s="66"/>
       <c r="U54" s="66"/>
-      <c r="V54" s="76"/>
-      <c r="W54" s="76"/>
-    </row>
-    <row r="55" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V54" s="66"/>
+      <c r="W54" s="66"/>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A55" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="138"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
+        <v>124</v>
+      </c>
+      <c r="B55" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="76"/>
       <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
       <c r="K55" s="76"/>
       <c r="L55" s="76"/>
       <c r="M55" s="76"/>
@@ -3665,28 +3724,24 @@
       <c r="Q55" s="127"/>
       <c r="R55" s="127"/>
       <c r="S55" s="82"/>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-      <c r="W55" s="73"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="61"/>
-      <c r="Z55" s="61"/>
-      <c r="AA55" s="61"/>
-      <c r="AB55" s="61"/>
-      <c r="AC55" s="61"/>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="66"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="76"/>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A56" s="83" t="s">
+        <v>153</v>
+      </c>
       <c r="B56" s="139"/>
       <c r="C56" s="73"/>
       <c r="D56" s="73"/>
       <c r="E56" s="73"/>
       <c r="F56" s="76"/>
       <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76"/>
       <c r="M56" s="76"/>
@@ -3697,89 +3752,70 @@
       <c r="R56" s="127"/>
       <c r="S56" s="82"/>
       <c r="T56" s="66"/>
-      <c r="U56" s="76"/>
+      <c r="U56" s="66"/>
       <c r="V56" s="76"/>
       <c r="W56" s="76"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A57" s="156"/>
-      <c r="B57" s="157"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
-      <c r="P57" s="157"/>
-      <c r="Q57" s="157"/>
-      <c r="R57" s="157"/>
-      <c r="S57" s="157"/>
-      <c r="T57" s="157"/>
-      <c r="U57" s="157"/>
-      <c r="V57" s="157"/>
-      <c r="W57" s="157"/>
-    </row>
-    <row r="58" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="146"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
-      <c r="K58" s="110"/>
-      <c r="L58" s="110"/>
-      <c r="M58" s="110"/>
-      <c r="N58" s="110"/>
-      <c r="O58" s="110"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="111"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="111"/>
-      <c r="U58" s="111"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="61"/>
-      <c r="Z58" s="61"/>
-      <c r="AA58" s="61"/>
-      <c r="AB58" s="61"/>
-      <c r="AC58" s="61"/>
-      <c r="AD58" s="61"/>
-      <c r="AE58" s="61"/>
-      <c r="AF58" s="61"/>
-      <c r="AG58" s="61"/>
-      <c r="AH58" s="61"/>
-      <c r="AI58" s="61"/>
-      <c r="AJ58" s="61"/>
-      <c r="AK58" s="61"/>
-      <c r="AL58" s="61"/>
-      <c r="AM58" s="61"/>
-      <c r="AN58" s="61"/>
-      <c r="AO58" s="61"/>
-      <c r="AP58" s="61"/>
-      <c r="AQ58" s="61"/>
-      <c r="AR58" s="61"/>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A57" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="139"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="127"/>
+      <c r="P57" s="127"/>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="66"/>
+      <c r="U57" s="66"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A58" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="139"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
+      <c r="S58" s="82"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
+    </row>
+    <row r="59" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="142" t="s">
-        <v>149</v>
+        <v>125</v>
+      </c>
+      <c r="B59" s="138" t="s">
+        <v>146</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -3789,23 +3825,31 @@
       <c r="H59" s="76"/>
       <c r="I59" s="76"/>
       <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="128"/>
-      <c r="O59" s="128"/>
-      <c r="P59" s="128"/>
-      <c r="Q59" s="128"/>
-      <c r="R59" s="128"/>
-      <c r="S59" s="73"/>
+      <c r="K59" s="179"/>
+      <c r="L59" s="179"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="125"/>
+      <c r="O59" s="127"/>
+      <c r="P59" s="127"/>
+      <c r="Q59" s="127"/>
+      <c r="R59" s="127"/>
+      <c r="S59" s="82"/>
       <c r="T59" s="73"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="76"/>
-      <c r="W59" s="76"/>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
-      <c r="B60" s="140"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="61"/>
+      <c r="AC59" s="61"/>
+    </row>
+    <row r="60" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="139"/>
       <c r="C60" s="73"/>
       <c r="D60" s="73"/>
       <c r="E60" s="73"/>
@@ -3814,23 +3858,31 @@
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
       <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="128"/>
-      <c r="O60" s="128"/>
-      <c r="P60" s="128"/>
-      <c r="Q60" s="128"/>
-      <c r="R60" s="128"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="140"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="179"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="125"/>
+      <c r="O60" s="127"/>
+      <c r="P60" s="127"/>
+      <c r="Q60" s="127"/>
+      <c r="R60" s="127"/>
+      <c r="S60" s="82"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="61"/>
+      <c r="Y60" s="61"/>
+      <c r="Z60" s="61"/>
+      <c r="AA60" s="61"/>
+      <c r="AB60" s="61"/>
+      <c r="AC60" s="61"/>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A61" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="139"/>
       <c r="C61" s="73"/>
       <c r="D61" s="73"/>
       <c r="E61" s="73"/>
@@ -3845,74 +3897,97 @@
       <c r="N61" s="125"/>
       <c r="O61" s="127"/>
       <c r="P61" s="127"/>
-      <c r="Q61" s="128"/>
-      <c r="R61" s="128"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="73"/>
+      <c r="Q61" s="127"/>
+      <c r="R61" s="127"/>
+      <c r="S61" s="82"/>
+      <c r="T61" s="66"/>
       <c r="U61" s="76"/>
       <c r="V61" s="76"/>
       <c r="W61" s="76"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A62" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="138" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="128"/>
-      <c r="O62" s="128"/>
-      <c r="P62" s="128"/>
-      <c r="Q62" s="128"/>
-      <c r="R62" s="128"/>
-      <c r="S62" s="73"/>
-      <c r="T62" s="73"/>
-      <c r="U62" s="76"/>
-      <c r="V62" s="76"/>
-      <c r="W62" s="76"/>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="128"/>
-      <c r="O63" s="128"/>
-      <c r="P63" s="128"/>
-      <c r="Q63" s="128"/>
-      <c r="R63" s="128"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="76"/>
-      <c r="U63" s="76"/>
-      <c r="V63" s="76"/>
-      <c r="W63" s="76"/>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A62" s="152"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="153"/>
+      <c r="P62" s="153"/>
+      <c r="Q62" s="153"/>
+      <c r="R62" s="153"/>
+      <c r="S62" s="153"/>
+      <c r="T62" s="153"/>
+      <c r="U62" s="153"/>
+      <c r="V62" s="153"/>
+      <c r="W62" s="153"/>
+    </row>
+    <row r="63" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="146"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="110"/>
+      <c r="L63" s="110"/>
+      <c r="M63" s="110"/>
+      <c r="N63" s="110"/>
+      <c r="O63" s="110"/>
+      <c r="P63" s="110"/>
+      <c r="Q63" s="111"/>
+      <c r="R63" s="111"/>
+      <c r="S63" s="111"/>
+      <c r="T63" s="111"/>
+      <c r="U63" s="111"/>
+      <c r="V63" s="110"/>
+      <c r="W63" s="110"/>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="61"/>
+      <c r="AA63" s="61"/>
+      <c r="AB63" s="61"/>
+      <c r="AC63" s="61"/>
+      <c r="AD63" s="61"/>
+      <c r="AE63" s="61"/>
+      <c r="AF63" s="61"/>
+      <c r="AG63" s="61"/>
+      <c r="AH63" s="61"/>
+      <c r="AI63" s="61"/>
+      <c r="AJ63" s="61"/>
+      <c r="AK63" s="61"/>
+      <c r="AL63" s="61"/>
+      <c r="AM63" s="61"/>
+      <c r="AN63" s="61"/>
+      <c r="AO63" s="61"/>
+      <c r="AP63" s="61"/>
+      <c r="AQ63" s="61"/>
+      <c r="AR63" s="61"/>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A64" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
       <c r="F64" s="76"/>
       <c r="G64" s="76"/>
       <c r="H64" s="76"/>
@@ -3932,8 +4007,10 @@
       <c r="V64" s="76"/>
       <c r="W64" s="76"/>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
+    <row r="65" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="A65" s="75" t="s">
+        <v>155</v>
+      </c>
       <c r="B65" s="140"/>
       <c r="C65" s="73"/>
       <c r="D65" s="73"/>
@@ -3952,13 +4029,15 @@
       <c r="Q65" s="128"/>
       <c r="R65" s="128"/>
       <c r="S65" s="73"/>
-      <c r="T65" s="73"/>
+      <c r="T65" s="76"/>
       <c r="U65" s="76"/>
       <c r="V65" s="76"/>
       <c r="W65" s="76"/>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A66" s="75"/>
+    <row r="66" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="A66" s="75" t="s">
+        <v>156</v>
+      </c>
       <c r="B66" s="140"/>
       <c r="C66" s="73"/>
       <c r="D66" s="73"/>
@@ -3967,8 +4046,8 @@
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
       <c r="I66" s="76"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
       <c r="L66" s="73"/>
       <c r="M66" s="73"/>
       <c r="N66" s="128"/>
@@ -3982,8 +4061,10 @@
       <c r="V66" s="76"/>
       <c r="W66" s="76"/>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
+    <row r="67" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="A67" s="180" t="s">
+        <v>157</v>
+      </c>
       <c r="B67" s="140"/>
       <c r="C67" s="73"/>
       <c r="D67" s="73"/>
@@ -3994,11 +4075,11 @@
       <c r="I67" s="76"/>
       <c r="J67" s="76"/>
       <c r="K67" s="76"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="128"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
+      <c r="L67" s="76"/>
+      <c r="M67" s="76"/>
+      <c r="N67" s="125"/>
+      <c r="O67" s="127"/>
+      <c r="P67" s="127"/>
       <c r="Q67" s="128"/>
       <c r="R67" s="128"/>
       <c r="S67" s="73"/>
@@ -4007,9 +4088,13 @@
       <c r="V67" s="76"/>
       <c r="W67" s="76"/>
     </row>
-    <row r="68" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
-      <c r="B68" s="139"/>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A68" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="138" t="s">
+        <v>147</v>
+      </c>
       <c r="C68" s="73"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
@@ -4017,8 +4102,8 @@
       <c r="G68" s="76"/>
       <c r="H68" s="76"/>
       <c r="I68" s="76"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
       <c r="L68" s="73"/>
       <c r="M68" s="73"/>
       <c r="N68" s="128"/>
@@ -4027,33 +4112,12 @@
       <c r="Q68" s="128"/>
       <c r="R68" s="128"/>
       <c r="S68" s="73"/>
-      <c r="T68" s="76"/>
+      <c r="T68" s="73"/>
       <c r="U68" s="76"/>
       <c r="V68" s="76"/>
       <c r="W68" s="76"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
-      <c r="Z68" s="61"/>
-      <c r="AA68" s="61"/>
-      <c r="AB68" s="61"/>
-      <c r="AC68" s="61"/>
-      <c r="AD68" s="61"/>
-      <c r="AE68" s="61"/>
-      <c r="AF68" s="61"/>
-      <c r="AG68" s="61"/>
-      <c r="AH68" s="61"/>
-      <c r="AI68" s="61"/>
-      <c r="AJ68" s="61"/>
-      <c r="AK68" s="61"/>
-      <c r="AL68" s="61"/>
-      <c r="AM68" s="61"/>
-      <c r="AN68" s="61"/>
-      <c r="AO68" s="61"/>
-      <c r="AP68" s="61"/>
-      <c r="AQ68" s="61"/>
-      <c r="AR68" s="61"/>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A69" s="75"/>
       <c r="B69" s="140"/>
       <c r="C69" s="73"/>
@@ -4065,20 +4129,20 @@
       <c r="I69" s="76"/>
       <c r="J69" s="76"/>
       <c r="K69" s="76"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="76"/>
       <c r="N69" s="128"/>
       <c r="O69" s="128"/>
       <c r="P69" s="128"/>
       <c r="Q69" s="128"/>
       <c r="R69" s="128"/>
       <c r="S69" s="73"/>
-      <c r="T69" s="73"/>
-      <c r="U69" s="73"/>
-      <c r="V69" s="73"/>
-      <c r="W69" s="73"/>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T69" s="76"/>
+      <c r="U69" s="76"/>
+      <c r="V69" s="76"/>
+      <c r="W69" s="76"/>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A70" s="75"/>
       <c r="B70" s="140"/>
       <c r="C70" s="73"/>
@@ -4103,7 +4167,7 @@
       <c r="V70" s="76"/>
       <c r="W70" s="76"/>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A71" s="75"/>
       <c r="B71" s="140"/>
       <c r="C71" s="73"/>
@@ -4124,406 +4188,577 @@
       <c r="R71" s="128"/>
       <c r="S71" s="73"/>
       <c r="T71" s="73"/>
-      <c r="U71" s="73"/>
-      <c r="V71" s="73"/>
-      <c r="W71" s="73"/>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A72" s="161"/>
-      <c r="B72" s="162"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="162"/>
-      <c r="E72" s="162"/>
-      <c r="F72" s="162"/>
-      <c r="G72" s="162"/>
-      <c r="H72" s="162"/>
-      <c r="I72" s="162"/>
-      <c r="J72" s="162"/>
-      <c r="K72" s="162"/>
-      <c r="L72" s="162"/>
-      <c r="M72" s="162"/>
-      <c r="N72" s="162"/>
-      <c r="O72" s="162"/>
-      <c r="P72" s="162"/>
-      <c r="Q72" s="162"/>
-      <c r="R72" s="162"/>
-      <c r="S72" s="162"/>
-      <c r="T72" s="162"/>
-      <c r="U72" s="162"/>
-      <c r="V72" s="162"/>
-      <c r="W72" s="162"/>
-    </row>
-    <row r="73" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="112" t="s">
+      <c r="U71" s="76"/>
+      <c r="V71" s="76"/>
+      <c r="W71" s="76"/>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A72" s="75"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="128"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="128"/>
+      <c r="Q72" s="128"/>
+      <c r="R72" s="128"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="76"/>
+      <c r="V72" s="76"/>
+      <c r="W72" s="76"/>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A73" s="75"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="128"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128"/>
+      <c r="Q73" s="128"/>
+      <c r="R73" s="128"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="76"/>
+      <c r="V73" s="76"/>
+      <c r="W73" s="76"/>
+    </row>
+    <row r="74" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="72"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="128"/>
+      <c r="O74" s="128"/>
+      <c r="P74" s="128"/>
+      <c r="Q74" s="128"/>
+      <c r="R74" s="128"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="76"/>
+      <c r="U74" s="76"/>
+      <c r="V74" s="76"/>
+      <c r="W74" s="76"/>
+      <c r="X74" s="61"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61"/>
+      <c r="AA74" s="61"/>
+      <c r="AB74" s="61"/>
+      <c r="AC74" s="61"/>
+      <c r="AD74" s="61"/>
+      <c r="AE74" s="61"/>
+      <c r="AF74" s="61"/>
+      <c r="AG74" s="61"/>
+      <c r="AH74" s="61"/>
+      <c r="AI74" s="61"/>
+      <c r="AJ74" s="61"/>
+      <c r="AK74" s="61"/>
+      <c r="AL74" s="61"/>
+      <c r="AM74" s="61"/>
+      <c r="AN74" s="61"/>
+      <c r="AO74" s="61"/>
+      <c r="AP74" s="61"/>
+      <c r="AQ74" s="61"/>
+      <c r="AR74" s="61"/>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A75" s="75"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="128"/>
+      <c r="O75" s="128"/>
+      <c r="P75" s="128"/>
+      <c r="Q75" s="128"/>
+      <c r="R75" s="128"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="73"/>
+      <c r="W75" s="73"/>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A76" s="75"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="128"/>
+      <c r="O76" s="128"/>
+      <c r="P76" s="128"/>
+      <c r="Q76" s="128"/>
+      <c r="R76" s="128"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73"/>
+      <c r="U76" s="76"/>
+      <c r="V76" s="76"/>
+      <c r="W76" s="76"/>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A77" s="75"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="73"/>
+      <c r="N77" s="128"/>
+      <c r="O77" s="128"/>
+      <c r="P77" s="128"/>
+      <c r="Q77" s="128"/>
+      <c r="R77" s="128"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
+      <c r="U77" s="73"/>
+      <c r="V77" s="73"/>
+      <c r="W77" s="73"/>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A78" s="154"/>
+      <c r="B78" s="155"/>
+      <c r="C78" s="155"/>
+      <c r="D78" s="155"/>
+      <c r="E78" s="155"/>
+      <c r="F78" s="155"/>
+      <c r="G78" s="155"/>
+      <c r="H78" s="155"/>
+      <c r="I78" s="155"/>
+      <c r="J78" s="155"/>
+      <c r="K78" s="155"/>
+      <c r="L78" s="155"/>
+      <c r="M78" s="155"/>
+      <c r="N78" s="155"/>
+      <c r="O78" s="155"/>
+      <c r="P78" s="155"/>
+      <c r="Q78" s="155"/>
+      <c r="R78" s="155"/>
+      <c r="S78" s="155"/>
+      <c r="T78" s="155"/>
+      <c r="U78" s="155"/>
+      <c r="V78" s="155"/>
+      <c r="W78" s="155"/>
+    </row>
+    <row r="79" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="147"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="113"/>
-      <c r="P73" s="113"/>
-      <c r="Q73" s="113"/>
-      <c r="R73" s="113"/>
-      <c r="S73" s="113"/>
-      <c r="T73" s="113"/>
-      <c r="U73" s="113"/>
-      <c r="V73" s="113"/>
-      <c r="W73" s="113"/>
-      <c r="X73" s="119"/>
-      <c r="Y73" s="119"/>
-      <c r="Z73" s="119"/>
-      <c r="AA73" s="119"/>
-      <c r="AB73" s="119"/>
-      <c r="AC73" s="119"/>
-      <c r="AD73" s="119"/>
-      <c r="AE73" s="119"/>
-      <c r="AF73" s="119"/>
-      <c r="AG73" s="119"/>
-      <c r="AH73" s="119"/>
-      <c r="AI73" s="119"/>
-      <c r="AJ73" s="119"/>
-      <c r="AK73" s="119"/>
-      <c r="AL73" s="119"/>
-      <c r="AM73" s="119"/>
-      <c r="AN73" s="119"/>
-      <c r="AO73" s="119"/>
-      <c r="AP73" s="119"/>
-      <c r="AQ73" s="119"/>
-      <c r="AR73" s="119"/>
-    </row>
-    <row r="74" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="131" t="s">
+      <c r="B79" s="147"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="113"/>
+      <c r="E79" s="113"/>
+      <c r="F79" s="113"/>
+      <c r="G79" s="113"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="113"/>
+      <c r="O79" s="113"/>
+      <c r="P79" s="113"/>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="113"/>
+      <c r="S79" s="113"/>
+      <c r="T79" s="113"/>
+      <c r="U79" s="113"/>
+      <c r="V79" s="113"/>
+      <c r="W79" s="113"/>
+      <c r="X79" s="119"/>
+      <c r="Y79" s="119"/>
+      <c r="Z79" s="119"/>
+      <c r="AA79" s="119"/>
+      <c r="AB79" s="119"/>
+      <c r="AC79" s="119"/>
+      <c r="AD79" s="119"/>
+      <c r="AE79" s="119"/>
+      <c r="AF79" s="119"/>
+      <c r="AG79" s="119"/>
+      <c r="AH79" s="119"/>
+      <c r="AI79" s="119"/>
+      <c r="AJ79" s="119"/>
+      <c r="AK79" s="119"/>
+      <c r="AL79" s="119"/>
+      <c r="AM79" s="119"/>
+      <c r="AN79" s="119"/>
+      <c r="AO79" s="119"/>
+      <c r="AP79" s="119"/>
+      <c r="AQ79" s="119"/>
+      <c r="AR79" s="119"/>
+    </row>
+    <row r="80" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="142" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="131"/>
-      <c r="D74" s="131"/>
-      <c r="E74" s="131"/>
-      <c r="F74" s="131"/>
-      <c r="G74" s="131"/>
-      <c r="H74" s="131"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="131"/>
-      <c r="K74" s="131"/>
-      <c r="L74" s="131"/>
-      <c r="M74" s="131"/>
-      <c r="N74" s="130"/>
-      <c r="O74" s="130"/>
-      <c r="P74" s="130"/>
-      <c r="Q74" s="130"/>
-      <c r="R74" s="130"/>
-      <c r="S74" s="131"/>
-      <c r="T74" s="131"/>
-      <c r="U74" s="131"/>
-      <c r="V74" s="131"/>
-      <c r="W74" s="131"/>
-      <c r="X74" s="119"/>
-      <c r="Y74" s="119"/>
-      <c r="Z74" s="119"/>
-      <c r="AA74" s="119"/>
-      <c r="AB74" s="119"/>
-      <c r="AC74" s="119"/>
-      <c r="AD74" s="119"/>
-      <c r="AE74" s="119"/>
-      <c r="AF74" s="119"/>
-      <c r="AG74" s="119"/>
-      <c r="AH74" s="119"/>
-      <c r="AI74" s="119"/>
-      <c r="AJ74" s="119"/>
-      <c r="AK74" s="119"/>
-      <c r="AL74" s="119"/>
-      <c r="AM74" s="119"/>
-      <c r="AN74" s="119"/>
-      <c r="AO74" s="119"/>
-      <c r="AP74" s="119"/>
-      <c r="AQ74" s="119"/>
-      <c r="AR74" s="119"/>
-    </row>
-    <row r="75" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="131" t="s">
+      <c r="B80" s="142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="131"/>
+      <c r="D80" s="131"/>
+      <c r="E80" s="131"/>
+      <c r="F80" s="131"/>
+      <c r="G80" s="131"/>
+      <c r="H80" s="131"/>
+      <c r="I80" s="131"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="131"/>
+      <c r="L80" s="131"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="130"/>
+      <c r="O80" s="130"/>
+      <c r="P80" s="130"/>
+      <c r="Q80" s="130"/>
+      <c r="R80" s="130"/>
+      <c r="S80" s="131"/>
+      <c r="T80" s="131"/>
+      <c r="U80" s="131"/>
+      <c r="V80" s="131"/>
+      <c r="W80" s="131"/>
+      <c r="X80" s="119"/>
+      <c r="Y80" s="119"/>
+      <c r="Z80" s="119"/>
+      <c r="AA80" s="119"/>
+      <c r="AB80" s="119"/>
+      <c r="AC80" s="119"/>
+      <c r="AD80" s="119"/>
+      <c r="AE80" s="119"/>
+      <c r="AF80" s="119"/>
+      <c r="AG80" s="119"/>
+      <c r="AH80" s="119"/>
+      <c r="AI80" s="119"/>
+      <c r="AJ80" s="119"/>
+      <c r="AK80" s="119"/>
+      <c r="AL80" s="119"/>
+      <c r="AM80" s="119"/>
+      <c r="AN80" s="119"/>
+      <c r="AO80" s="119"/>
+      <c r="AP80" s="119"/>
+      <c r="AQ80" s="119"/>
+      <c r="AR80" s="119"/>
+    </row>
+    <row r="81" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="138" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="131"/>
-      <c r="D75" s="131"/>
-      <c r="E75" s="131"/>
-      <c r="F75" s="131"/>
-      <c r="G75" s="131"/>
-      <c r="H75" s="131"/>
-      <c r="I75" s="131"/>
-      <c r="J75" s="131"/>
-      <c r="K75" s="131"/>
-      <c r="L75" s="131"/>
-      <c r="M75" s="131"/>
-      <c r="N75" s="130"/>
-      <c r="O75" s="130"/>
-      <c r="P75" s="130"/>
-      <c r="Q75" s="130"/>
-      <c r="R75" s="130"/>
-      <c r="S75" s="131"/>
-      <c r="T75" s="131"/>
-      <c r="U75" s="131"/>
-      <c r="V75" s="131"/>
-      <c r="W75" s="131"/>
-      <c r="X75" s="119"/>
-      <c r="Y75" s="119"/>
-      <c r="Z75" s="119"/>
-      <c r="AA75" s="119"/>
-      <c r="AB75" s="119"/>
-      <c r="AC75" s="119"/>
-      <c r="AD75" s="119"/>
-      <c r="AE75" s="119"/>
-      <c r="AF75" s="119"/>
-      <c r="AG75" s="119"/>
-      <c r="AH75" s="119"/>
-      <c r="AI75" s="119"/>
-      <c r="AJ75" s="119"/>
-      <c r="AK75" s="119"/>
-      <c r="AL75" s="119"/>
-      <c r="AM75" s="119"/>
-      <c r="AN75" s="119"/>
-      <c r="AO75" s="119"/>
-      <c r="AP75" s="119"/>
-      <c r="AQ75" s="119"/>
-      <c r="AR75" s="119"/>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A76" s="93" t="s">
+      <c r="B81" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="131"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131"/>
+      <c r="J81" s="131"/>
+      <c r="K81" s="131"/>
+      <c r="L81" s="131"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="130"/>
+      <c r="O81" s="130"/>
+      <c r="P81" s="130"/>
+      <c r="Q81" s="130"/>
+      <c r="R81" s="130"/>
+      <c r="S81" s="131"/>
+      <c r="T81" s="131"/>
+      <c r="U81" s="131"/>
+      <c r="V81" s="131"/>
+      <c r="W81" s="131"/>
+      <c r="X81" s="119"/>
+      <c r="Y81" s="119"/>
+      <c r="Z81" s="119"/>
+      <c r="AA81" s="119"/>
+      <c r="AB81" s="119"/>
+      <c r="AC81" s="119"/>
+      <c r="AD81" s="119"/>
+      <c r="AE81" s="119"/>
+      <c r="AF81" s="119"/>
+      <c r="AG81" s="119"/>
+      <c r="AH81" s="119"/>
+      <c r="AI81" s="119"/>
+      <c r="AJ81" s="119"/>
+      <c r="AK81" s="119"/>
+      <c r="AL81" s="119"/>
+      <c r="AM81" s="119"/>
+      <c r="AN81" s="119"/>
+      <c r="AO81" s="119"/>
+      <c r="AP81" s="119"/>
+      <c r="AQ81" s="119"/>
+      <c r="AR81" s="119"/>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A82" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="138" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="93"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="93"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="93"/>
-      <c r="L76" s="93"/>
-      <c r="M76" s="93"/>
-      <c r="N76" s="92"/>
-      <c r="O76" s="92"/>
-      <c r="P76" s="92"/>
-      <c r="Q76" s="92"/>
-      <c r="R76" s="92"/>
-      <c r="S76" s="93"/>
-      <c r="T76" s="93"/>
-      <c r="U76" s="93"/>
-      <c r="V76" s="93"/>
-      <c r="W76" s="93"/>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A77" s="154"/>
-      <c r="B77" s="155"/>
-      <c r="C77" s="155"/>
-      <c r="D77" s="155"/>
-      <c r="E77" s="155"/>
-      <c r="F77" s="155"/>
-      <c r="G77" s="155"/>
-      <c r="H77" s="155"/>
-      <c r="I77" s="155"/>
-      <c r="J77" s="155"/>
-      <c r="K77" s="155"/>
-      <c r="L77" s="155"/>
-      <c r="M77" s="155"/>
-      <c r="N77" s="155"/>
-      <c r="O77" s="155"/>
-      <c r="P77" s="155"/>
-      <c r="Q77" s="155"/>
-      <c r="R77" s="155"/>
-      <c r="S77" s="155"/>
-      <c r="T77" s="155"/>
-      <c r="U77" s="155"/>
-      <c r="V77" s="155"/>
-      <c r="W77" s="155"/>
-    </row>
-    <row r="78" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="114" t="s">
+      <c r="B82" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="93"/>
+      <c r="I82" s="93"/>
+      <c r="J82" s="93"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="93"/>
+      <c r="M82" s="93"/>
+      <c r="N82" s="92"/>
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92"/>
+      <c r="R82" s="92"/>
+      <c r="S82" s="93"/>
+      <c r="T82" s="93"/>
+      <c r="U82" s="93"/>
+      <c r="V82" s="93"/>
+      <c r="W82" s="93"/>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A83" s="161"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="162"/>
+      <c r="D83" s="162"/>
+      <c r="E83" s="162"/>
+      <c r="F83" s="162"/>
+      <c r="G83" s="162"/>
+      <c r="H83" s="162"/>
+      <c r="I83" s="162"/>
+      <c r="J83" s="162"/>
+      <c r="K83" s="162"/>
+      <c r="L83" s="162"/>
+      <c r="M83" s="162"/>
+      <c r="N83" s="162"/>
+      <c r="O83" s="162"/>
+      <c r="P83" s="162"/>
+      <c r="Q83" s="162"/>
+      <c r="R83" s="162"/>
+      <c r="S83" s="162"/>
+      <c r="T83" s="162"/>
+      <c r="U83" s="162"/>
+      <c r="V83" s="162"/>
+      <c r="W83" s="162"/>
+    </row>
+    <row r="84" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="148"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="116"/>
-      <c r="G78" s="116"/>
-      <c r="H78" s="116"/>
-      <c r="I78" s="116"/>
-      <c r="J78" s="116"/>
-      <c r="K78" s="116"/>
-      <c r="L78" s="116"/>
-      <c r="M78" s="116"/>
-      <c r="N78" s="116"/>
-      <c r="O78" s="116"/>
-      <c r="P78" s="116"/>
-      <c r="Q78" s="117"/>
-      <c r="R78" s="117"/>
-      <c r="S78" s="117"/>
-      <c r="T78" s="117"/>
-      <c r="U78" s="117"/>
-      <c r="V78" s="116"/>
-      <c r="W78" s="116"/>
-      <c r="X78" s="61"/>
-      <c r="Y78" s="61"/>
-      <c r="Z78" s="61"/>
-      <c r="AA78" s="61"/>
-      <c r="AB78" s="61"/>
-      <c r="AC78" s="61"/>
-      <c r="AD78" s="61"/>
-      <c r="AE78" s="61"/>
-      <c r="AF78" s="61"/>
-      <c r="AG78" s="61"/>
-      <c r="AH78" s="61"/>
-      <c r="AI78" s="61"/>
-      <c r="AJ78" s="61"/>
-      <c r="AK78" s="61"/>
-      <c r="AL78" s="61"/>
-      <c r="AM78" s="61"/>
-      <c r="AN78" s="61"/>
-      <c r="AO78" s="61"/>
-      <c r="AP78" s="61"/>
-      <c r="AQ78" s="61"/>
-      <c r="AR78" s="61"/>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A79" s="85" t="s">
+      <c r="B84" s="148"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="115"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="116"/>
+      <c r="H84" s="116"/>
+      <c r="I84" s="116"/>
+      <c r="J84" s="116"/>
+      <c r="K84" s="116"/>
+      <c r="L84" s="116"/>
+      <c r="M84" s="116"/>
+      <c r="N84" s="116"/>
+      <c r="O84" s="116"/>
+      <c r="P84" s="116"/>
+      <c r="Q84" s="117"/>
+      <c r="R84" s="117"/>
+      <c r="S84" s="117"/>
+      <c r="T84" s="117"/>
+      <c r="U84" s="117"/>
+      <c r="V84" s="116"/>
+      <c r="W84" s="116"/>
+      <c r="X84" s="61"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="61"/>
+      <c r="AA84" s="61"/>
+      <c r="AB84" s="61"/>
+      <c r="AC84" s="61"/>
+      <c r="AD84" s="61"/>
+      <c r="AE84" s="61"/>
+      <c r="AF84" s="61"/>
+      <c r="AG84" s="61"/>
+      <c r="AH84" s="61"/>
+      <c r="AI84" s="61"/>
+      <c r="AJ84" s="61"/>
+      <c r="AK84" s="61"/>
+      <c r="AL84" s="61"/>
+      <c r="AM84" s="61"/>
+      <c r="AN84" s="61"/>
+      <c r="AO84" s="61"/>
+      <c r="AP84" s="61"/>
+      <c r="AQ84" s="61"/>
+      <c r="AR84" s="61"/>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A85" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="132"/>
-      <c r="D79" s="132"/>
-      <c r="E79" s="132"/>
-      <c r="F79" s="132"/>
-      <c r="G79" s="132"/>
-      <c r="H79" s="132"/>
-      <c r="I79" s="132"/>
-      <c r="J79" s="132"/>
-      <c r="K79" s="132"/>
-      <c r="L79" s="132"/>
-      <c r="M79" s="132"/>
-      <c r="N79" s="133"/>
-      <c r="O79" s="133"/>
-      <c r="P79" s="133"/>
-      <c r="Q79" s="133"/>
-      <c r="R79" s="133"/>
-      <c r="S79" s="132"/>
-      <c r="T79" s="132"/>
-      <c r="U79" s="132"/>
-      <c r="V79" s="132"/>
-      <c r="W79" s="132"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="163"/>
-      <c r="B83" s="163"/>
-      <c r="C83" s="163"/>
-      <c r="D83" s="163"/>
-      <c r="E83" s="163"/>
-      <c r="F83" s="163"/>
-      <c r="G83" s="163"/>
-      <c r="H83" s="163"/>
-      <c r="I83" s="163"/>
-      <c r="J83" s="163"/>
-      <c r="K83" s="163"/>
-      <c r="L83" s="163"/>
-      <c r="M83" s="163"/>
-      <c r="N83" s="163"/>
-      <c r="O83" s="163"/>
-      <c r="P83" s="163"/>
-      <c r="Q83" s="163"/>
-      <c r="R83" s="163"/>
-      <c r="S83" s="163"/>
-      <c r="T83" s="163"/>
-      <c r="U83" s="163"/>
-      <c r="V83" s="163"/>
-      <c r="W83" s="163"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="150"/>
-      <c r="B84" s="149"/>
-      <c r="C84" s="149"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="149"/>
-      <c r="F84" s="149"/>
-      <c r="G84" s="149"/>
-      <c r="H84" s="149"/>
-      <c r="I84" s="149"/>
-      <c r="J84" s="149"/>
-      <c r="K84" s="149"/>
-      <c r="L84" s="149"/>
-      <c r="M84" s="149"/>
-      <c r="N84" s="149"/>
-      <c r="O84" s="149"/>
-      <c r="P84" s="149"/>
-      <c r="Q84" s="149"/>
-      <c r="R84" s="149"/>
-      <c r="S84" s="149"/>
-      <c r="T84" s="149"/>
-      <c r="U84" s="149"/>
-      <c r="V84" s="149"/>
-      <c r="W84" s="149"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="149"/>
-      <c r="B85" s="149"/>
-      <c r="C85" s="149"/>
-      <c r="D85" s="149"/>
-      <c r="E85" s="149"/>
-      <c r="F85" s="149"/>
-      <c r="G85" s="149"/>
-      <c r="H85" s="149"/>
-      <c r="I85" s="149"/>
-      <c r="J85" s="149"/>
-      <c r="K85" s="149"/>
-      <c r="L85" s="149"/>
-      <c r="M85" s="149"/>
-      <c r="N85" s="149"/>
-      <c r="O85" s="149"/>
-      <c r="P85" s="149"/>
-      <c r="Q85" s="149"/>
-      <c r="R85" s="149"/>
-      <c r="S85" s="149"/>
-      <c r="T85" s="149"/>
-      <c r="U85" s="149"/>
-      <c r="V85" s="149"/>
-      <c r="W85" s="149"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="132"/>
+      <c r="F85" s="132"/>
+      <c r="G85" s="132"/>
+      <c r="H85" s="132"/>
+      <c r="I85" s="132"/>
+      <c r="J85" s="132"/>
+      <c r="K85" s="132"/>
+      <c r="L85" s="132"/>
+      <c r="M85" s="132"/>
+      <c r="N85" s="133"/>
+      <c r="O85" s="133"/>
+      <c r="P85" s="133"/>
+      <c r="Q85" s="133"/>
+      <c r="R85" s="133"/>
+      <c r="S85" s="132"/>
+      <c r="T85" s="132"/>
+      <c r="U85" s="132"/>
+      <c r="V85" s="132"/>
+      <c r="W85" s="132"/>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A89" s="156"/>
+      <c r="B89" s="156"/>
+      <c r="C89" s="156"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="156"/>
+      <c r="G89" s="156"/>
+      <c r="H89" s="156"/>
+      <c r="I89" s="156"/>
+      <c r="J89" s="156"/>
+      <c r="K89" s="156"/>
+      <c r="L89" s="156"/>
+      <c r="M89" s="156"/>
+      <c r="N89" s="156"/>
+      <c r="O89" s="156"/>
+      <c r="P89" s="156"/>
+      <c r="Q89" s="156"/>
+      <c r="R89" s="156"/>
+      <c r="S89" s="156"/>
+      <c r="T89" s="156"/>
+      <c r="U89" s="156"/>
+      <c r="V89" s="156"/>
+      <c r="W89" s="156"/>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A90" s="157"/>
+      <c r="B90" s="149"/>
+      <c r="C90" s="149"/>
+      <c r="D90" s="149"/>
+      <c r="E90" s="149"/>
+      <c r="F90" s="149"/>
+      <c r="G90" s="149"/>
+      <c r="H90" s="149"/>
+      <c r="I90" s="149"/>
+      <c r="J90" s="149"/>
+      <c r="K90" s="149"/>
+      <c r="L90" s="149"/>
+      <c r="M90" s="149"/>
+      <c r="N90" s="149"/>
+      <c r="O90" s="149"/>
+      <c r="P90" s="149"/>
+      <c r="Q90" s="149"/>
+      <c r="R90" s="149"/>
+      <c r="S90" s="149"/>
+      <c r="T90" s="149"/>
+      <c r="U90" s="149"/>
+      <c r="V90" s="149"/>
+      <c r="W90" s="149"/>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A91" s="149"/>
+      <c r="B91" s="149"/>
+      <c r="C91" s="149"/>
+      <c r="D91" s="149"/>
+      <c r="E91" s="149"/>
+      <c r="F91" s="149"/>
+      <c r="G91" s="149"/>
+      <c r="H91" s="149"/>
+      <c r="I91" s="149"/>
+      <c r="J91" s="149"/>
+      <c r="K91" s="149"/>
+      <c r="L91" s="149"/>
+      <c r="M91" s="149"/>
+      <c r="N91" s="149"/>
+      <c r="O91" s="149"/>
+      <c r="P91" s="149"/>
+      <c r="Q91" s="149"/>
+      <c r="R91" s="149"/>
+      <c r="S91" s="149"/>
+      <c r="T91" s="149"/>
+      <c r="U91" s="149"/>
+      <c r="V91" s="149"/>
+      <c r="W91" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A85:W85"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A90:W90"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C2:W2"/>
+    <mergeCell ref="A83:W83"/>
+    <mergeCell ref="A62:W62"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="A91:W91"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A19:W19"/>
     <mergeCell ref="A21:W21"/>
     <mergeCell ref="A38:W38"/>
-    <mergeCell ref="A47:W47"/>
-    <mergeCell ref="A72:W72"/>
-    <mergeCell ref="A83:W83"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A84:W84"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C2:W2"/>
-    <mergeCell ref="A77:W77"/>
-    <mergeCell ref="A57:W57"/>
-    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="A49:W49"/>
+    <mergeCell ref="A78:W78"/>
+    <mergeCell ref="A89:W89"/>
   </mergeCells>
-  <conditionalFormatting sqref="A44:B44">
+  <conditionalFormatting sqref="A46:B46">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4535,7 +4770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B45">
+  <conditionalFormatting sqref="A47:B47">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4571,7 +4806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="A51">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4583,7 +4818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A55:A57">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -4595,7 +4830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
+  <conditionalFormatting sqref="A65:B66">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4607,7 +4842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
+  <conditionalFormatting sqref="A67:B67">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4619,7 +4854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
+  <conditionalFormatting sqref="A69:B69">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4631,7 +4866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
+  <conditionalFormatting sqref="A71:B71">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4643,7 +4878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:B67">
+  <conditionalFormatting sqref="A73:B73">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4655,7 +4890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B71">
+  <conditionalFormatting sqref="A77:B77">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4667,7 +4902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:B68">
+  <conditionalFormatting sqref="A74:B74">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4679,7 +4914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
+  <conditionalFormatting sqref="A58:B58">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4691,7 +4926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B64">
+  <conditionalFormatting sqref="A70:B70">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4703,7 +4938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B70">
+  <conditionalFormatting sqref="A76:B76">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4740,18 +4975,18 @@
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.296875" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" customWidth="1"/>
-    <col min="9" max="9" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="164" t="s">
         <v>73</v>
       </c>
@@ -4760,7 +4995,7 @@
       <c r="E2" s="171"/>
       <c r="F2" s="171"/>
     </row>
-    <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="164"/>
       <c r="C3" s="165" t="s">
         <v>74</v>
@@ -4771,7 +5006,7 @@
       </c>
       <c r="F3" s="166"/>
     </row>
-    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
@@ -4788,14 +5023,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="53"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -4816,7 +5051,7 @@
         <v>8.2982791586998079</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +5071,7 @@
         <v>1.6061185468451242</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -4856,7 +5091,7 @@
         <v>2.4091778202676863</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -4876,7 +5111,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -4896,7 +5131,7 @@
         <v>0.66921606118546839</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -4916,14 +5151,14 @@
         <v>0.93690248565965584</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="52"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -4944,7 +5179,7 @@
         <v>6.8833652007648185</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -4965,7 +5200,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -4985,7 +5220,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -5005,7 +5240,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5026,7 +5261,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -5046,7 +5281,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -5066,7 +5301,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -5086,7 +5321,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5107,7 +5342,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5127,7 +5362,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5147,7 +5382,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -5168,7 +5403,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5188,14 +5423,14 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="58"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -5216,7 +5451,7 @@
         <v>15.678776290630974</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5237,7 +5472,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
@@ -5257,7 +5492,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -5277,7 +5512,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -5298,7 +5533,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -5318,7 +5553,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -5338,7 +5573,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -5358,7 +5593,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
@@ -5378,7 +5613,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -5399,7 +5634,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>33</v>
       </c>
@@ -5419,7 +5654,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5439,7 +5674,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -5460,7 +5695,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -5480,7 +5715,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -5500,14 +5735,14 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
@@ -5528,7 +5763,7 @@
         <v>43.977055449330784</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -5549,7 +5784,7 @@
         <v>9.1778202676864247</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -5569,7 +5804,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
@@ -5589,7 +5824,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -5610,7 +5845,7 @@
         <v>12.619502868068833</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
@@ -5630,7 +5865,7 @@
         <v>3.4416826003824093</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -5650,7 +5885,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>44</v>
       </c>
@@ -5670,7 +5905,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5691,7 +5926,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>46</v>
       </c>
@@ -5711,7 +5946,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
@@ -5731,7 +5966,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>48</v>
       </c>
@@ -5752,7 +5987,7 @@
         <v>16.061185468451242</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -5772,7 +6007,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
@@ -5792,7 +6027,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
@@ -5812,14 +6047,14 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="2"/>
       <c r="E58" s="60"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
@@ -5840,7 +6075,7 @@
         <v>14.531548757170171</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>53</v>
       </c>
@@ -5861,7 +6096,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>54</v>
       </c>
@@ -5881,7 +6116,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>55</v>
       </c>
@@ -5902,7 +6137,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
@@ -5922,7 +6157,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>80</v>
       </c>
@@ -5942,7 +6177,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
@@ -5962,7 +6197,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
@@ -5983,7 +6218,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
@@ -6003,7 +6238,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>60</v>
       </c>
@@ -6023,7 +6258,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
         <v>61</v>
       </c>
@@ -6044,7 +6279,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
@@ -6064,14 +6299,14 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="48" t="s">
         <v>63</v>
       </c>
@@ -6092,7 +6327,7 @@
         <v>10.630975143403441</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>64</v>
       </c>
@@ -6113,7 +6348,7 @@
         <v>2.1414913957934991</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>65</v>
       </c>
@@ -6133,7 +6368,7 @@
         <v>0.9177820267686424</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>81</v>
       </c>
@@ -6153,7 +6388,7 @@
         <v>0.4588910133843212</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>66</v>
       </c>
@@ -6173,7 +6408,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>67</v>
       </c>
@@ -6193,7 +6428,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>68</v>
       </c>
@@ -6213,7 +6448,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>69</v>
       </c>
@@ -6233,7 +6468,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
         <v>70</v>
       </c>
@@ -6253,7 +6488,7 @@
         <v>3.5181644359464626</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>71</v>
       </c>
@@ -6273,14 +6508,14 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="55"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>72</v>
       </c>
@@ -6300,21 +6535,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="172"/>
       <c r="C84" s="172"/>
       <c r="D84" s="172"/>
       <c r="E84" s="172"/>
       <c r="F84" s="172"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="171"/>
       <c r="C85" s="171"/>
       <c r="D85" s="171"/>
       <c r="E85" s="173"/>
       <c r="F85" s="173"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="167" t="s">
         <v>82</v>
       </c>
@@ -6323,7 +6558,7 @@
       <c r="E86" s="173"/>
       <c r="F86" s="173"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
@@ -6336,7 +6571,7 @@
       <c r="E87" s="173"/>
       <c r="F87" s="173"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
@@ -6822,12 +7057,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6988,20 +7225,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7026,18 +7270,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkrummenacher/Documents/GitHub/P2Pflichtenheft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21563444-364E-704D-8EB6-12AFFE96FD6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C206809-6DA5-464D-8893-9F7C1A9A7A30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
@@ -1401,81 +1401,6 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="18" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1484,6 +1409,81 @@
     <xf numFmtId="166" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2195,53 +2195,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="113" zoomScaleNormal="80" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:W62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="129" customWidth="1"/>
-    <col min="3" max="23" width="6.6640625" style="61" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="61"/>
+    <col min="1" max="1" width="45.69921875" style="61" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" style="129" customWidth="1"/>
+    <col min="3" max="23" width="6.69921875" style="61" customWidth="1"/>
+    <col min="24" max="16384" width="10.796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="163" t="s">
+    <row r="1" spans="1:23" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="170" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="149"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="158">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="156"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="165">
         <v>2019</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="160"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="149"/>
-      <c r="B3" s="163"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="167"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="156"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="63" t="s">
         <v>87</v>
       </c>
@@ -2275,13 +2275,13 @@
       <c r="M3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="158" t="s">
+      <c r="N3" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
       <c r="S3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2298,9 +2298,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="149"/>
-      <c r="B4" s="163"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="156"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="63">
         <v>18.02</v>
       </c>
@@ -2365,14 +2365,14 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="163"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="170"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="163"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2395,32 +2395,32 @@
       <c r="V6" s="122"/>
       <c r="W6" s="122"/>
     </row>
-    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="157"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="157"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>1</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="V8" s="63"/>
       <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>103</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="V9" s="63"/>
       <c r="W9" s="63"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>104</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>105</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="V12" s="63"/>
       <c r="W12" s="63"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="V13" s="63"/>
       <c r="W13" s="63"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>108</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>109</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>110</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>111</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
@@ -2737,63 +2737,63 @@
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
     </row>
-    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="151"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="158"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="158"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="158"/>
+      <c r="W19" s="158"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="121" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="135"/>
     </row>
-    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="150"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="150"/>
-      <c r="P21" s="150"/>
-      <c r="Q21" s="150"/>
-      <c r="R21" s="150"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="150"/>
-      <c r="U21" s="150"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="150"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="157"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="157"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>5</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="V22" s="102"/>
       <c r="W22" s="103"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
         <v>117</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="V23" s="104"/>
       <c r="W23" s="104"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
         <v>137</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="V24" s="66"/>
       <c r="W24" s="66"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
         <v>138</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="V25" s="66"/>
       <c r="W25" s="66"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
         <v>139</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="V26" s="66"/>
       <c r="W26" s="66"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
         <v>140</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="V27" s="66"/>
       <c r="W27" s="66"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
         <v>121</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="V28" s="66"/>
       <c r="W28" s="66"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="83" t="s">
         <v>141</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="V29" s="66"/>
       <c r="W29" s="66"/>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>113</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="V30" s="66"/>
       <c r="W30" s="66"/>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
         <v>114</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="V31" s="66"/>
       <c r="W31" s="66"/>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>115</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="V32" s="66"/>
       <c r="W32" s="66"/>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="87" t="s">
         <v>116</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="V33" s="107"/>
       <c r="W33" s="107"/>
     </row>
-    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="87" t="s">
         <v>142</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="V34" s="107"/>
       <c r="W34" s="107"/>
     </row>
-    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="75" t="s">
         <v>143</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="V35" s="107"/>
       <c r="W35" s="107"/>
     </row>
-    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="75" t="s">
         <v>144</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="V36" s="107"/>
       <c r="W36" s="107"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
         <v>122</v>
       </c>
@@ -3241,32 +3241,32 @@
       <c r="V37" s="106"/>
       <c r="W37" s="106"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="152"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
-      <c r="V38" s="153"/>
-      <c r="W38" s="153"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="159"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="160"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="160"/>
+      <c r="R38" s="160"/>
+      <c r="S38" s="160"/>
+      <c r="T38" s="160"/>
+      <c r="U38" s="160"/>
+      <c r="V38" s="160"/>
+      <c r="W38" s="160"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="88" t="s">
         <v>11</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="V39" s="91"/>
       <c r="W39" s="91"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>119</v>
       </c>
@@ -3322,14 +3322,14 @@
       <c r="V40" s="79"/>
       <c r="W40" s="79"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="134" t="s">
         <v>131</v>
       </c>
       <c r="B41" s="142"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
-      <c r="E41" s="177"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
       <c r="F41" s="73"/>
       <c r="G41" s="73"/>
       <c r="H41" s="73"/>
@@ -3349,15 +3349,15 @@
       <c r="V41" s="79"/>
       <c r="W41" s="79"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="134" t="s">
         <v>151</v>
       </c>
       <c r="B42" s="142"/>
       <c r="C42" s="78"/>
       <c r="D42" s="78"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="174"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="149"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
       <c r="I42" s="73"/>
@@ -3376,15 +3376,15 @@
       <c r="V42" s="79"/>
       <c r="W42" s="79"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="134" t="s">
         <v>152</v>
       </c>
       <c r="B43" s="142"/>
       <c r="C43" s="78"/>
       <c r="D43" s="78"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="174"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="149"/>
       <c r="G43" s="73"/>
       <c r="H43" s="73"/>
       <c r="I43" s="73"/>
@@ -3403,7 +3403,7 @@
       <c r="V43" s="79"/>
       <c r="W43" s="79"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="77"/>
       <c r="B44" s="142"/>
       <c r="C44" s="78"/>
@@ -3428,7 +3428,7 @@
       <c r="V44" s="79"/>
       <c r="W44" s="79"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="72" t="s">
         <v>120</v>
       </c>
@@ -3457,14 +3457,14 @@
       <c r="V45" s="66"/>
       <c r="W45" s="66"/>
     </row>
-    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="75" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="143"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
       <c r="F46" s="76"/>
       <c r="G46" s="76"/>
       <c r="H46" s="76"/>
@@ -3484,16 +3484,16 @@
       <c r="V46" s="66"/>
       <c r="W46" s="66"/>
     </row>
-    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="75" t="s">
         <v>158</v>
       </c>
       <c r="B47" s="140"/>
       <c r="C47" s="73"/>
-      <c r="D47" s="177"/>
-      <c r="E47" s="174"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="175"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
       <c r="H47" s="76"/>
       <c r="I47" s="76"/>
       <c r="J47" s="76"/>
@@ -3511,7 +3511,7 @@
       <c r="V47" s="66"/>
       <c r="W47" s="66"/>
     </row>
-    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
         <v>150</v>
       </c>
@@ -3519,10 +3519,10 @@
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="175"/>
-      <c r="G48" s="175"/>
-      <c r="H48" s="175"/>
-      <c r="I48" s="175"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
       <c r="L48" s="76"/>
@@ -3538,32 +3538,32 @@
       <c r="V48" s="66"/>
       <c r="W48" s="66"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A49" s="152"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="153"/>
-      <c r="R49" s="153"/>
-      <c r="S49" s="153"/>
-      <c r="T49" s="153"/>
-      <c r="U49" s="153"/>
-      <c r="V49" s="153"/>
-      <c r="W49" s="153"/>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A49" s="159"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="160"/>
+      <c r="O49" s="160"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="160"/>
+      <c r="S49" s="160"/>
+      <c r="T49" s="160"/>
+      <c r="U49" s="160"/>
+      <c r="V49" s="160"/>
+      <c r="W49" s="160"/>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="s">
         <v>24</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="V50" s="96"/>
       <c r="W50" s="96"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="72" t="s">
         <v>123</v>
       </c>
@@ -3619,16 +3619,16 @@
       <c r="V51" s="76"/>
       <c r="W51" s="76"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>132</v>
       </c>
       <c r="B52" s="139"/>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="179"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
       <c r="H52" s="73"/>
       <c r="I52" s="73"/>
       <c r="J52" s="73"/>
@@ -3646,7 +3646,7 @@
       <c r="V52" s="76"/>
       <c r="W52" s="76"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>133</v>
       </c>
@@ -3655,9 +3655,9 @@
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
       <c r="F53" s="76"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="153"/>
       <c r="J53" s="76"/>
       <c r="K53" s="76"/>
       <c r="L53" s="76"/>
@@ -3673,7 +3673,7 @@
       <c r="V53" s="66"/>
       <c r="W53" s="66"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>134</v>
       </c>
@@ -3683,9 +3683,9 @@
       <c r="E54" s="73"/>
       <c r="F54" s="76"/>
       <c r="G54" s="73"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="153"/>
       <c r="K54" s="76"/>
       <c r="L54" s="76"/>
       <c r="M54" s="76"/>
@@ -3700,7 +3700,7 @@
       <c r="V54" s="66"/>
       <c r="W54" s="66"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="72" t="s">
         <v>124</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="V55" s="76"/>
       <c r="W55" s="76"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="83" t="s">
         <v>153</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="V56" s="76"/>
       <c r="W56" s="76"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
         <v>154</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="V57" s="76"/>
       <c r="W57" s="76"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="83" t="s">
         <v>159</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="V58" s="76"/>
       <c r="W58" s="76"/>
     </row>
-    <row r="59" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
         <v>125</v>
       </c>
@@ -3825,8 +3825,8 @@
       <c r="H59" s="76"/>
       <c r="I59" s="76"/>
       <c r="J59" s="76"/>
-      <c r="K59" s="179"/>
-      <c r="L59" s="179"/>
+      <c r="K59" s="154"/>
+      <c r="L59" s="154"/>
       <c r="M59" s="76"/>
       <c r="N59" s="125"/>
       <c r="O59" s="127"/>
@@ -3845,7 +3845,7 @@
       <c r="AB59" s="61"/>
       <c r="AC59" s="61"/>
     </row>
-    <row r="60" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="83" t="s">
         <v>160</v>
       </c>
@@ -3858,8 +3858,8 @@
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
       <c r="J60" s="76"/>
-      <c r="K60" s="179"/>
-      <c r="L60" s="179"/>
+      <c r="K60" s="154"/>
+      <c r="L60" s="154"/>
       <c r="M60" s="76"/>
       <c r="N60" s="125"/>
       <c r="O60" s="127"/>
@@ -3878,7 +3878,7 @@
       <c r="AB60" s="61"/>
       <c r="AC60" s="61"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="83" t="s">
         <v>161</v>
       </c>
@@ -3905,32 +3905,32 @@
       <c r="V61" s="76"/>
       <c r="W61" s="76"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A62" s="152"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="153"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="153"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="153"/>
-      <c r="P62" s="153"/>
-      <c r="Q62" s="153"/>
-      <c r="R62" s="153"/>
-      <c r="S62" s="153"/>
-      <c r="T62" s="153"/>
-      <c r="U62" s="153"/>
-      <c r="V62" s="153"/>
-      <c r="W62" s="153"/>
-    </row>
-    <row r="63" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A62" s="159"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="160"/>
+      <c r="K62" s="160"/>
+      <c r="L62" s="160"/>
+      <c r="M62" s="160"/>
+      <c r="N62" s="160"/>
+      <c r="O62" s="160"/>
+      <c r="P62" s="160"/>
+      <c r="Q62" s="160"/>
+      <c r="R62" s="160"/>
+      <c r="S62" s="160"/>
+      <c r="T62" s="160"/>
+      <c r="U62" s="160"/>
+      <c r="V62" s="160"/>
+      <c r="W62" s="160"/>
+    </row>
+    <row r="63" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="108" t="s">
         <v>37</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="AQ63" s="61"/>
       <c r="AR63" s="61"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="72" t="s">
         <v>126</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="V64" s="76"/>
       <c r="W64" s="76"/>
     </row>
-    <row r="65" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="75" t="s">
         <v>155</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="V65" s="76"/>
       <c r="W65" s="76"/>
     </row>
-    <row r="66" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="75" t="s">
         <v>156</v>
       </c>
@@ -4061,8 +4061,8 @@
       <c r="V66" s="76"/>
       <c r="W66" s="76"/>
     </row>
-    <row r="67" spans="1:44" ht="15" x14ac:dyDescent="0.15">
-      <c r="A67" s="180" t="s">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A67" s="155" t="s">
         <v>157</v>
       </c>
       <c r="B67" s="140"/>
@@ -4088,7 +4088,7 @@
       <c r="V67" s="76"/>
       <c r="W67" s="76"/>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="72" t="s">
         <v>127</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="V68" s="76"/>
       <c r="W68" s="76"/>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="75"/>
       <c r="B69" s="140"/>
       <c r="C69" s="73"/>
@@ -4142,7 +4142,7 @@
       <c r="V69" s="76"/>
       <c r="W69" s="76"/>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="75"/>
       <c r="B70" s="140"/>
       <c r="C70" s="73"/>
@@ -4167,7 +4167,7 @@
       <c r="V70" s="76"/>
       <c r="W70" s="76"/>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="75"/>
       <c r="B71" s="140"/>
       <c r="C71" s="73"/>
@@ -4192,7 +4192,7 @@
       <c r="V71" s="76"/>
       <c r="W71" s="76"/>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="75"/>
       <c r="B72" s="140"/>
       <c r="C72" s="73"/>
@@ -4217,7 +4217,7 @@
       <c r="V72" s="76"/>
       <c r="W72" s="76"/>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="75"/>
       <c r="B73" s="140"/>
       <c r="C73" s="73"/>
@@ -4242,7 +4242,7 @@
       <c r="V73" s="76"/>
       <c r="W73" s="76"/>
     </row>
-    <row r="74" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
       <c r="B74" s="139"/>
       <c r="C74" s="73"/>
@@ -4288,7 +4288,7 @@
       <c r="AQ74" s="61"/>
       <c r="AR74" s="61"/>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="75"/>
       <c r="B75" s="140"/>
       <c r="C75" s="73"/>
@@ -4313,7 +4313,7 @@
       <c r="V75" s="73"/>
       <c r="W75" s="73"/>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="75"/>
       <c r="B76" s="140"/>
       <c r="C76" s="73"/>
@@ -4338,7 +4338,7 @@
       <c r="V76" s="76"/>
       <c r="W76" s="76"/>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" s="75"/>
       <c r="B77" s="140"/>
       <c r="C77" s="73"/>
@@ -4363,32 +4363,32 @@
       <c r="V77" s="73"/>
       <c r="W77" s="73"/>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A78" s="154"/>
-      <c r="B78" s="155"/>
-      <c r="C78" s="155"/>
-      <c r="D78" s="155"/>
-      <c r="E78" s="155"/>
-      <c r="F78" s="155"/>
-      <c r="G78" s="155"/>
-      <c r="H78" s="155"/>
-      <c r="I78" s="155"/>
-      <c r="J78" s="155"/>
-      <c r="K78" s="155"/>
-      <c r="L78" s="155"/>
-      <c r="M78" s="155"/>
-      <c r="N78" s="155"/>
-      <c r="O78" s="155"/>
-      <c r="P78" s="155"/>
-      <c r="Q78" s="155"/>
-      <c r="R78" s="155"/>
-      <c r="S78" s="155"/>
-      <c r="T78" s="155"/>
-      <c r="U78" s="155"/>
-      <c r="V78" s="155"/>
-      <c r="W78" s="155"/>
-    </row>
-    <row r="79" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A78" s="161"/>
+      <c r="B78" s="162"/>
+      <c r="C78" s="162"/>
+      <c r="D78" s="162"/>
+      <c r="E78" s="162"/>
+      <c r="F78" s="162"/>
+      <c r="G78" s="162"/>
+      <c r="H78" s="162"/>
+      <c r="I78" s="162"/>
+      <c r="J78" s="162"/>
+      <c r="K78" s="162"/>
+      <c r="L78" s="162"/>
+      <c r="M78" s="162"/>
+      <c r="N78" s="162"/>
+      <c r="O78" s="162"/>
+      <c r="P78" s="162"/>
+      <c r="Q78" s="162"/>
+      <c r="R78" s="162"/>
+      <c r="S78" s="162"/>
+      <c r="T78" s="162"/>
+      <c r="U78" s="162"/>
+      <c r="V78" s="162"/>
+      <c r="W78" s="162"/>
+    </row>
+    <row r="79" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="112" t="s">
         <v>118</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="AQ79" s="119"/>
       <c r="AR79" s="119"/>
     </row>
-    <row r="80" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="131" t="s">
         <v>128</v>
       </c>
@@ -4486,7 +4486,7 @@
       <c r="AQ80" s="119"/>
       <c r="AR80" s="119"/>
     </row>
-    <row r="81" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="131" t="s">
         <v>129</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="AQ81" s="119"/>
       <c r="AR81" s="119"/>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="s">
         <v>130</v>
       </c>
@@ -4565,32 +4565,32 @@
       <c r="V82" s="93"/>
       <c r="W82" s="93"/>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A83" s="161"/>
-      <c r="B83" s="162"/>
-      <c r="C83" s="162"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
-      <c r="G83" s="162"/>
-      <c r="H83" s="162"/>
-      <c r="I83" s="162"/>
-      <c r="J83" s="162"/>
-      <c r="K83" s="162"/>
-      <c r="L83" s="162"/>
-      <c r="M83" s="162"/>
-      <c r="N83" s="162"/>
-      <c r="O83" s="162"/>
-      <c r="P83" s="162"/>
-      <c r="Q83" s="162"/>
-      <c r="R83" s="162"/>
-      <c r="S83" s="162"/>
-      <c r="T83" s="162"/>
-      <c r="U83" s="162"/>
-      <c r="V83" s="162"/>
-      <c r="W83" s="162"/>
-    </row>
-    <row r="84" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A83" s="168"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="169"/>
+      <c r="D83" s="169"/>
+      <c r="E83" s="169"/>
+      <c r="F83" s="169"/>
+      <c r="G83" s="169"/>
+      <c r="H83" s="169"/>
+      <c r="I83" s="169"/>
+      <c r="J83" s="169"/>
+      <c r="K83" s="169"/>
+      <c r="L83" s="169"/>
+      <c r="M83" s="169"/>
+      <c r="N83" s="169"/>
+      <c r="O83" s="169"/>
+      <c r="P83" s="169"/>
+      <c r="Q83" s="169"/>
+      <c r="R83" s="169"/>
+      <c r="S83" s="169"/>
+      <c r="T83" s="169"/>
+      <c r="U83" s="169"/>
+      <c r="V83" s="169"/>
+      <c r="W83" s="169"/>
+    </row>
+    <row r="84" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="114" t="s">
         <v>135</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="AQ84" s="61"/>
       <c r="AR84" s="61"/>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="85" t="s">
         <v>136</v>
       </c>
@@ -4665,80 +4665,80 @@
       <c r="V85" s="132"/>
       <c r="W85" s="132"/>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A89" s="156"/>
-      <c r="B89" s="156"/>
-      <c r="C89" s="156"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="156"/>
-      <c r="I89" s="156"/>
-      <c r="J89" s="156"/>
-      <c r="K89" s="156"/>
-      <c r="L89" s="156"/>
-      <c r="M89" s="156"/>
-      <c r="N89" s="156"/>
-      <c r="O89" s="156"/>
-      <c r="P89" s="156"/>
-      <c r="Q89" s="156"/>
-      <c r="R89" s="156"/>
-      <c r="S89" s="156"/>
-      <c r="T89" s="156"/>
-      <c r="U89" s="156"/>
-      <c r="V89" s="156"/>
-      <c r="W89" s="156"/>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A90" s="157"/>
-      <c r="B90" s="149"/>
-      <c r="C90" s="149"/>
-      <c r="D90" s="149"/>
-      <c r="E90" s="149"/>
-      <c r="F90" s="149"/>
-      <c r="G90" s="149"/>
-      <c r="H90" s="149"/>
-      <c r="I90" s="149"/>
-      <c r="J90" s="149"/>
-      <c r="K90" s="149"/>
-      <c r="L90" s="149"/>
-      <c r="M90" s="149"/>
-      <c r="N90" s="149"/>
-      <c r="O90" s="149"/>
-      <c r="P90" s="149"/>
-      <c r="Q90" s="149"/>
-      <c r="R90" s="149"/>
-      <c r="S90" s="149"/>
-      <c r="T90" s="149"/>
-      <c r="U90" s="149"/>
-      <c r="V90" s="149"/>
-      <c r="W90" s="149"/>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A91" s="149"/>
-      <c r="B91" s="149"/>
-      <c r="C91" s="149"/>
-      <c r="D91" s="149"/>
-      <c r="E91" s="149"/>
-      <c r="F91" s="149"/>
-      <c r="G91" s="149"/>
-      <c r="H91" s="149"/>
-      <c r="I91" s="149"/>
-      <c r="J91" s="149"/>
-      <c r="K91" s="149"/>
-      <c r="L91" s="149"/>
-      <c r="M91" s="149"/>
-      <c r="N91" s="149"/>
-      <c r="O91" s="149"/>
-      <c r="P91" s="149"/>
-      <c r="Q91" s="149"/>
-      <c r="R91" s="149"/>
-      <c r="S91" s="149"/>
-      <c r="T91" s="149"/>
-      <c r="U91" s="149"/>
-      <c r="V91" s="149"/>
-      <c r="W91" s="149"/>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A89" s="163"/>
+      <c r="B89" s="163"/>
+      <c r="C89" s="163"/>
+      <c r="D89" s="163"/>
+      <c r="E89" s="163"/>
+      <c r="F89" s="163"/>
+      <c r="G89" s="163"/>
+      <c r="H89" s="163"/>
+      <c r="I89" s="163"/>
+      <c r="J89" s="163"/>
+      <c r="K89" s="163"/>
+      <c r="L89" s="163"/>
+      <c r="M89" s="163"/>
+      <c r="N89" s="163"/>
+      <c r="O89" s="163"/>
+      <c r="P89" s="163"/>
+      <c r="Q89" s="163"/>
+      <c r="R89" s="163"/>
+      <c r="S89" s="163"/>
+      <c r="T89" s="163"/>
+      <c r="U89" s="163"/>
+      <c r="V89" s="163"/>
+      <c r="W89" s="163"/>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A90" s="164"/>
+      <c r="B90" s="156"/>
+      <c r="C90" s="156"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="156"/>
+      <c r="F90" s="156"/>
+      <c r="G90" s="156"/>
+      <c r="H90" s="156"/>
+      <c r="I90" s="156"/>
+      <c r="J90" s="156"/>
+      <c r="K90" s="156"/>
+      <c r="L90" s="156"/>
+      <c r="M90" s="156"/>
+      <c r="N90" s="156"/>
+      <c r="O90" s="156"/>
+      <c r="P90" s="156"/>
+      <c r="Q90" s="156"/>
+      <c r="R90" s="156"/>
+      <c r="S90" s="156"/>
+      <c r="T90" s="156"/>
+      <c r="U90" s="156"/>
+      <c r="V90" s="156"/>
+      <c r="W90" s="156"/>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A91" s="156"/>
+      <c r="B91" s="156"/>
+      <c r="C91" s="156"/>
+      <c r="D91" s="156"/>
+      <c r="E91" s="156"/>
+      <c r="F91" s="156"/>
+      <c r="G91" s="156"/>
+      <c r="H91" s="156"/>
+      <c r="I91" s="156"/>
+      <c r="J91" s="156"/>
+      <c r="K91" s="156"/>
+      <c r="L91" s="156"/>
+      <c r="M91" s="156"/>
+      <c r="N91" s="156"/>
+      <c r="O91" s="156"/>
+      <c r="P91" s="156"/>
+      <c r="Q91" s="156"/>
+      <c r="R91" s="156"/>
+      <c r="S91" s="156"/>
+      <c r="T91" s="156"/>
+      <c r="U91" s="156"/>
+      <c r="V91" s="156"/>
+      <c r="W91" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4975,38 +4975,38 @@
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="43.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+    <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-    </row>
-    <row r="3" spans="2:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="164"/>
-      <c r="C3" s="165" t="s">
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+    </row>
+    <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="171"/>
+      <c r="C3" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166" t="s">
+      <c r="D3" s="173"/>
+      <c r="E3" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="166"/>
-    </row>
-    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="173"/>
+    </row>
+    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
@@ -5023,14 +5023,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="53"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>8.2982791586998079</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>1.6061185468451242</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>2.4091778202676863</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>0.66921606118546839</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -5151,14 +5151,14 @@
         <v>0.93690248565965584</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="52"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>6.8833652007648185</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5423,14 +5423,14 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="58"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>15.678776290630974</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>33</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -5735,14 +5735,14 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>43.977055449330784</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>9.1778202676864247</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>12.619502868068833</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>3.4416826003824093</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>44</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>46</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>48</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>16.061185468451242</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
@@ -6047,14 +6047,14 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="2"/>
       <c r="E58" s="60"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>14.531548757170171</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>53</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>54</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>55</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>80</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>60</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>61</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
@@ -6299,14 +6299,14 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="48" t="s">
         <v>63</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>10.630975143403441</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>64</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>2.1414913957934991</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>65</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>0.9177820267686424</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>81</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0.4588910133843212</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>66</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>67</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>68</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>69</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>70</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>3.5181644359464626</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>71</v>
       </c>
@@ -6508,14 +6508,14 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="55"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="5" t="s">
         <v>72</v>
       </c>
@@ -6535,30 +6535,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="172"/>
-      <c r="F84" s="172"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="173"/>
-      <c r="F85" s="173"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="167" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="179"/>
+      <c r="C84" s="179"/>
+      <c r="D84" s="179"/>
+      <c r="E84" s="179"/>
+      <c r="F84" s="179"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="178"/>
+      <c r="C85" s="178"/>
+      <c r="D85" s="178"/>
+      <c r="E85" s="180"/>
+      <c r="F85" s="180"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="168"/>
-      <c r="D86" s="169"/>
-      <c r="E86" s="173"/>
-      <c r="F86" s="173"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="175"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="180"/>
+      <c r="F86" s="180"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
@@ -6568,10 +6568,10 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="173"/>
-      <c r="F87" s="173"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E87" s="180"/>
+      <c r="F87" s="180"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
@@ -6581,8 +6581,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="173"/>
-      <c r="F88" s="173"/>
+      <c r="E88" s="180"/>
+      <c r="F88" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkrummenacher/Documents/GitHub/P2Pflichtenheft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C206809-6DA5-464D-8893-9F7C1A9A7A30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F2B0DB-6B84-434B-A481-0B3840D460E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
     <sheet name="Projektbudget" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$62:$W$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$63:$W$89</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -540,6 +540,18 @@
   </si>
   <si>
     <t>3.3.2 Bedienungsanleitung erstellen</t>
+  </si>
+  <si>
+    <t>3.3.3 Software mit Testkonzept validieren</t>
+  </si>
+  <si>
+    <t>4.2.1 Berechnungen für Javacode anpassen</t>
+  </si>
+  <si>
+    <t>4.2.3 Auswertung der Daten von der Software</t>
+  </si>
+  <si>
+    <t>4.2.2 Validieren der Berechnungen im Code</t>
   </si>
 </sst>
 </file>
@@ -686,7 +698,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,6 +816,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1073,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1413,18 +1437,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1434,27 +1479,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,6 +1508,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2193,55 +2231,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR91"/>
+  <dimension ref="A1:AR92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="118" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="U82" sqref="U82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.69921875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" style="129" customWidth="1"/>
-    <col min="3" max="23" width="6.69921875" style="61" customWidth="1"/>
-    <col min="24" max="16384" width="10.796875" style="61"/>
+    <col min="1" max="1" width="45.6640625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="129" customWidth="1"/>
+    <col min="3" max="23" width="6.6640625" style="61" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="170" t="s">
+    <row r="1" spans="1:23" ht="22.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="165" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="156"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="165">
+      <c r="B2" s="165"/>
+      <c r="C2" s="158">
         <v>2019</v>
       </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="167"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="160"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="156"/>
-      <c r="B3" s="170"/>
+      <c r="B3" s="165"/>
       <c r="C3" s="63" t="s">
         <v>87</v>
       </c>
@@ -2275,13 +2313,13 @@
       <c r="M3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="165" t="s">
+      <c r="N3" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
       <c r="S3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2298,9 +2336,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="156"/>
-      <c r="B4" s="170"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="63">
         <v>18.02</v>
       </c>
@@ -2365,14 +2403,14 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="170"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="165"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="170"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2395,32 +2433,32 @@
       <c r="V6" s="122"/>
       <c r="W6" s="122"/>
     </row>
-    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
-      <c r="V7" s="157"/>
-      <c r="W7" s="157"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="66" t="s">
         <v>1</v>
       </c>
@@ -2449,7 +2487,7 @@
       <c r="V8" s="63"/>
       <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="66" t="s">
         <v>103</v>
       </c>
@@ -2478,7 +2516,7 @@
       <c r="V9" s="63"/>
       <c r="W9" s="63"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2507,7 +2545,7 @@
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
         <v>104</v>
       </c>
@@ -2536,7 +2574,7 @@
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
         <v>105</v>
       </c>
@@ -2565,7 +2603,7 @@
       <c r="V12" s="63"/>
       <c r="W12" s="63"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
@@ -2594,7 +2632,7 @@
       <c r="V13" s="63"/>
       <c r="W13" s="63"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
         <v>108</v>
       </c>
@@ -2622,7 +2660,7 @@
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
         <v>109</v>
       </c>
@@ -2653,7 +2691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="66" t="s">
         <v>110</v>
       </c>
@@ -2682,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
         <v>111</v>
       </c>
@@ -2711,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
@@ -2737,63 +2775,63 @@
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
     </row>
-    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="158"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="167"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="167"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="167"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="167"/>
+      <c r="T19" s="167"/>
+      <c r="U19" s="167"/>
+      <c r="V19" s="167"/>
+      <c r="W19" s="167"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="121" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="135"/>
     </row>
-    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="157"/>
-      <c r="S21" s="157"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="166"/>
+      <c r="T21" s="166"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="166"/>
+      <c r="W21" s="166"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="100" t="s">
         <v>5</v>
       </c>
@@ -2820,7 +2858,7 @@
       <c r="V22" s="102"/>
       <c r="W22" s="103"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="72" t="s">
         <v>117</v>
       </c>
@@ -2849,7 +2887,7 @@
       <c r="V23" s="104"/>
       <c r="W23" s="104"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="72" t="s">
         <v>137</v>
       </c>
@@ -2878,7 +2916,7 @@
       <c r="V24" s="66"/>
       <c r="W24" s="66"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="83" t="s">
         <v>138</v>
       </c>
@@ -2905,7 +2943,7 @@
       <c r="V25" s="66"/>
       <c r="W25" s="66"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="83" t="s">
         <v>139</v>
       </c>
@@ -2932,7 +2970,7 @@
       <c r="V26" s="66"/>
       <c r="W26" s="66"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="83" t="s">
         <v>140</v>
       </c>
@@ -2959,7 +2997,7 @@
       <c r="V27" s="66"/>
       <c r="W27" s="66"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="72" t="s">
         <v>121</v>
       </c>
@@ -2988,7 +3026,7 @@
       <c r="V28" s="66"/>
       <c r="W28" s="66"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="83" t="s">
         <v>141</v>
       </c>
@@ -3015,7 +3053,7 @@
       <c r="V29" s="66"/>
       <c r="W29" s="66"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="87" t="s">
         <v>113</v>
       </c>
@@ -3044,7 +3082,7 @@
       <c r="V30" s="66"/>
       <c r="W30" s="66"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="87" t="s">
         <v>114</v>
       </c>
@@ -3073,7 +3111,7 @@
       <c r="V31" s="66"/>
       <c r="W31" s="66"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="87" t="s">
         <v>115</v>
       </c>
@@ -3102,7 +3140,7 @@
       <c r="V32" s="66"/>
       <c r="W32" s="66"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="87" t="s">
         <v>116</v>
       </c>
@@ -3131,7 +3169,7 @@
       <c r="V33" s="107"/>
       <c r="W33" s="107"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="87" t="s">
         <v>142</v>
       </c>
@@ -3160,7 +3198,7 @@
       <c r="V34" s="107"/>
       <c r="W34" s="107"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="75" t="s">
         <v>143</v>
       </c>
@@ -3187,7 +3225,7 @@
       <c r="V35" s="107"/>
       <c r="W35" s="107"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="75" t="s">
         <v>144</v>
       </c>
@@ -3214,7 +3252,7 @@
       <c r="V36" s="107"/>
       <c r="W36" s="107"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A37" s="72" t="s">
         <v>122</v>
       </c>
@@ -3241,32 +3279,32 @@
       <c r="V37" s="106"/>
       <c r="W37" s="106"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="159"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="160"/>
-      <c r="L38" s="160"/>
-      <c r="M38" s="160"/>
-      <c r="N38" s="160"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="160"/>
-      <c r="Q38" s="160"/>
-      <c r="R38" s="160"/>
-      <c r="S38" s="160"/>
-      <c r="T38" s="160"/>
-      <c r="U38" s="160"/>
-      <c r="V38" s="160"/>
-      <c r="W38" s="160"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A38" s="163"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="164"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="164"/>
+      <c r="T38" s="164"/>
+      <c r="U38" s="164"/>
+      <c r="V38" s="164"/>
+      <c r="W38" s="164"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A39" s="88" t="s">
         <v>11</v>
       </c>
@@ -3293,7 +3331,7 @@
       <c r="V39" s="91"/>
       <c r="W39" s="91"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A40" s="77" t="s">
         <v>119</v>
       </c>
@@ -3322,7 +3360,7 @@
       <c r="V40" s="79"/>
       <c r="W40" s="79"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A41" s="134" t="s">
         <v>131</v>
       </c>
@@ -3349,7 +3387,7 @@
       <c r="V41" s="79"/>
       <c r="W41" s="79"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A42" s="134" t="s">
         <v>151</v>
       </c>
@@ -3376,7 +3414,7 @@
       <c r="V42" s="79"/>
       <c r="W42" s="79"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" s="134" t="s">
         <v>152</v>
       </c>
@@ -3403,7 +3441,7 @@
       <c r="V43" s="79"/>
       <c r="W43" s="79"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44" s="77"/>
       <c r="B44" s="142"/>
       <c r="C44" s="78"/>
@@ -3428,7 +3466,7 @@
       <c r="V44" s="79"/>
       <c r="W44" s="79"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" s="72" t="s">
         <v>120</v>
       </c>
@@ -3457,7 +3495,7 @@
       <c r="V45" s="66"/>
       <c r="W45" s="66"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="75" t="s">
         <v>149</v>
       </c>
@@ -3484,7 +3522,7 @@
       <c r="V46" s="66"/>
       <c r="W46" s="66"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="75" t="s">
         <v>158</v>
       </c>
@@ -3511,7 +3549,7 @@
       <c r="V47" s="66"/>
       <c r="W47" s="66"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="81" t="s">
         <v>150</v>
       </c>
@@ -3538,32 +3576,32 @@
       <c r="V48" s="66"/>
       <c r="W48" s="66"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A49" s="159"/>
-      <c r="B49" s="160"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="160"/>
-      <c r="J49" s="160"/>
-      <c r="K49" s="160"/>
-      <c r="L49" s="160"/>
-      <c r="M49" s="160"/>
-      <c r="N49" s="160"/>
-      <c r="O49" s="160"/>
-      <c r="P49" s="160"/>
-      <c r="Q49" s="160"/>
-      <c r="R49" s="160"/>
-      <c r="S49" s="160"/>
-      <c r="T49" s="160"/>
-      <c r="U49" s="160"/>
-      <c r="V49" s="160"/>
-      <c r="W49" s="160"/>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A49" s="163"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="164"/>
+      <c r="M49" s="164"/>
+      <c r="N49" s="164"/>
+      <c r="O49" s="164"/>
+      <c r="P49" s="164"/>
+      <c r="Q49" s="164"/>
+      <c r="R49" s="164"/>
+      <c r="S49" s="164"/>
+      <c r="T49" s="164"/>
+      <c r="U49" s="164"/>
+      <c r="V49" s="164"/>
+      <c r="W49" s="164"/>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A50" s="94" t="s">
         <v>24</v>
       </c>
@@ -3590,7 +3628,7 @@
       <c r="V50" s="96"/>
       <c r="W50" s="96"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A51" s="72" t="s">
         <v>123</v>
       </c>
@@ -3619,7 +3657,7 @@
       <c r="V51" s="76"/>
       <c r="W51" s="76"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A52" s="83" t="s">
         <v>132</v>
       </c>
@@ -3646,7 +3684,7 @@
       <c r="V52" s="76"/>
       <c r="W52" s="76"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A53" s="83" t="s">
         <v>133</v>
       </c>
@@ -3673,7 +3711,7 @@
       <c r="V53" s="66"/>
       <c r="W53" s="66"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A54" s="83" t="s">
         <v>134</v>
       </c>
@@ -3700,7 +3738,7 @@
       <c r="V54" s="66"/>
       <c r="W54" s="66"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A55" s="72" t="s">
         <v>124</v>
       </c>
@@ -3729,7 +3767,7 @@
       <c r="V55" s="76"/>
       <c r="W55" s="76"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A56" s="83" t="s">
         <v>153</v>
       </c>
@@ -3739,9 +3777,9 @@
       <c r="E56" s="73"/>
       <c r="F56" s="76"/>
       <c r="G56" s="76"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="153"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76"/>
       <c r="M56" s="76"/>
@@ -3756,7 +3794,7 @@
       <c r="V56" s="76"/>
       <c r="W56" s="76"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A57" s="83" t="s">
         <v>154</v>
       </c>
@@ -3767,9 +3805,9 @@
       <c r="F57" s="76"/>
       <c r="G57" s="76"/>
       <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="76"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="154"/>
       <c r="L57" s="76"/>
       <c r="M57" s="76"/>
       <c r="N57" s="125"/>
@@ -3783,7 +3821,7 @@
       <c r="V57" s="76"/>
       <c r="W57" s="76"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A58" s="83" t="s">
         <v>159</v>
       </c>
@@ -3795,9 +3833,9 @@
       <c r="G58" s="76"/>
       <c r="H58" s="73"/>
       <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="154"/>
+      <c r="L58" s="154"/>
       <c r="M58" s="66"/>
       <c r="N58" s="126"/>
       <c r="O58" s="127"/>
@@ -3810,7 +3848,7 @@
       <c r="V58" s="76"/>
       <c r="W58" s="76"/>
     </row>
-    <row r="59" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="72" t="s">
         <v>125</v>
       </c>
@@ -3845,7 +3883,7 @@
       <c r="AB59" s="61"/>
       <c r="AC59" s="61"/>
     </row>
-    <row r="60" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="83" t="s">
         <v>160</v>
       </c>
@@ -3878,7 +3916,7 @@
       <c r="AB60" s="61"/>
       <c r="AC60" s="61"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A61" s="83" t="s">
         <v>161</v>
       </c>
@@ -3892,8 +3930,8 @@
       <c r="I61" s="76"/>
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
       <c r="N61" s="125"/>
       <c r="O61" s="127"/>
       <c r="P61" s="127"/>
@@ -3905,116 +3943,116 @@
       <c r="V61" s="76"/>
       <c r="W61" s="76"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A62" s="159"/>
-      <c r="B62" s="160"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="160"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="160"/>
-      <c r="I62" s="160"/>
-      <c r="J62" s="160"/>
-      <c r="K62" s="160"/>
-      <c r="L62" s="160"/>
-      <c r="M62" s="160"/>
-      <c r="N62" s="160"/>
-      <c r="O62" s="160"/>
-      <c r="P62" s="160"/>
-      <c r="Q62" s="160"/>
-      <c r="R62" s="160"/>
-      <c r="S62" s="160"/>
-      <c r="T62" s="160"/>
-      <c r="U62" s="160"/>
-      <c r="V62" s="160"/>
-      <c r="W62" s="160"/>
-    </row>
-    <row r="63" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108" t="s">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A62" s="181" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="138"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="184"/>
+      <c r="M62" s="184"/>
+      <c r="N62" s="125"/>
+      <c r="O62" s="127"/>
+      <c r="P62" s="127"/>
+      <c r="Q62" s="127"/>
+      <c r="R62" s="127"/>
+      <c r="S62" s="182"/>
+      <c r="T62" s="183"/>
+      <c r="U62" s="76"/>
+      <c r="V62" s="76"/>
+      <c r="W62" s="76"/>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A63" s="163"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="164"/>
+      <c r="F63" s="164"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="164"/>
+      <c r="J63" s="164"/>
+      <c r="K63" s="164"/>
+      <c r="L63" s="164"/>
+      <c r="M63" s="164"/>
+      <c r="N63" s="164"/>
+      <c r="O63" s="164"/>
+      <c r="P63" s="164"/>
+      <c r="Q63" s="164"/>
+      <c r="R63" s="164"/>
+      <c r="S63" s="164"/>
+      <c r="T63" s="164"/>
+      <c r="U63" s="164"/>
+      <c r="V63" s="164"/>
+      <c r="W63" s="164"/>
+    </row>
+    <row r="64" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="146"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="110"/>
-      <c r="G63" s="110"/>
-      <c r="H63" s="110"/>
-      <c r="I63" s="110"/>
-      <c r="J63" s="110"/>
-      <c r="K63" s="110"/>
-      <c r="L63" s="110"/>
-      <c r="M63" s="110"/>
-      <c r="N63" s="110"/>
-      <c r="O63" s="110"/>
-      <c r="P63" s="110"/>
-      <c r="Q63" s="111"/>
-      <c r="R63" s="111"/>
-      <c r="S63" s="111"/>
-      <c r="T63" s="111"/>
-      <c r="U63" s="111"/>
-      <c r="V63" s="110"/>
-      <c r="W63" s="110"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="61"/>
-      <c r="AA63" s="61"/>
-      <c r="AB63" s="61"/>
-      <c r="AC63" s="61"/>
-      <c r="AD63" s="61"/>
-      <c r="AE63" s="61"/>
-      <c r="AF63" s="61"/>
-      <c r="AG63" s="61"/>
-      <c r="AH63" s="61"/>
-      <c r="AI63" s="61"/>
-      <c r="AJ63" s="61"/>
-      <c r="AK63" s="61"/>
-      <c r="AL63" s="61"/>
-      <c r="AM63" s="61"/>
-      <c r="AN63" s="61"/>
-      <c r="AO63" s="61"/>
-      <c r="AP63" s="61"/>
-      <c r="AQ63" s="61"/>
-      <c r="AR63" s="61"/>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A64" s="72" t="s">
+      <c r="B64" s="146"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="110"/>
+      <c r="K64" s="110"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="110"/>
+      <c r="N64" s="110"/>
+      <c r="O64" s="110"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="111"/>
+      <c r="R64" s="111"/>
+      <c r="S64" s="111"/>
+      <c r="T64" s="111"/>
+      <c r="U64" s="111"/>
+      <c r="V64" s="110"/>
+      <c r="W64" s="110"/>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
+      <c r="AB64" s="61"/>
+      <c r="AC64" s="61"/>
+      <c r="AD64" s="61"/>
+      <c r="AE64" s="61"/>
+      <c r="AF64" s="61"/>
+      <c r="AG64" s="61"/>
+      <c r="AH64" s="61"/>
+      <c r="AI64" s="61"/>
+      <c r="AJ64" s="61"/>
+      <c r="AK64" s="61"/>
+      <c r="AL64" s="61"/>
+      <c r="AM64" s="61"/>
+      <c r="AN64" s="61"/>
+      <c r="AO64" s="61"/>
+      <c r="AP64" s="61"/>
+      <c r="AQ64" s="61"/>
+      <c r="AR64" s="61"/>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A65" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="142" t="s">
+      <c r="B65" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="128"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="128"/>
-      <c r="R64" s="128"/>
-      <c r="S64" s="73"/>
-      <c r="T64" s="73"/>
-      <c r="U64" s="76"/>
-      <c r="V64" s="76"/>
-      <c r="W64" s="76"/>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A65" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="B65" s="140"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="76"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -4029,14 +4067,14 @@
       <c r="Q65" s="128"/>
       <c r="R65" s="128"/>
       <c r="S65" s="73"/>
-      <c r="T65" s="76"/>
+      <c r="T65" s="73"/>
       <c r="U65" s="76"/>
       <c r="V65" s="76"/>
       <c r="W65" s="76"/>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" s="140"/>
       <c r="C66" s="73"/>
@@ -4056,14 +4094,14 @@
       <c r="Q66" s="128"/>
       <c r="R66" s="128"/>
       <c r="S66" s="73"/>
-      <c r="T66" s="73"/>
+      <c r="T66" s="76"/>
       <c r="U66" s="76"/>
       <c r="V66" s="76"/>
       <c r="W66" s="76"/>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A67" s="155" t="s">
-        <v>157</v>
+    <row r="67" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="A67" s="75" t="s">
+        <v>156</v>
       </c>
       <c r="B67" s="140"/>
       <c r="C67" s="73"/>
@@ -4075,11 +4113,11 @@
       <c r="I67" s="76"/>
       <c r="J67" s="76"/>
       <c r="K67" s="76"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="125"/>
-      <c r="O67" s="127"/>
-      <c r="P67" s="127"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="128"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="128"/>
       <c r="Q67" s="128"/>
       <c r="R67" s="128"/>
       <c r="S67" s="73"/>
@@ -4088,13 +4126,11 @@
       <c r="V67" s="76"/>
       <c r="W67" s="76"/>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A68" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="138" t="s">
-        <v>147</v>
-      </c>
+    <row r="68" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="A68" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="140"/>
       <c r="C68" s="73"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
@@ -4104,11 +4140,11 @@
       <c r="I68" s="76"/>
       <c r="J68" s="76"/>
       <c r="K68" s="76"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="128"/>
-      <c r="O68" s="128"/>
-      <c r="P68" s="128"/>
+      <c r="L68" s="76"/>
+      <c r="M68" s="76"/>
+      <c r="N68" s="125"/>
+      <c r="O68" s="127"/>
+      <c r="P68" s="127"/>
       <c r="Q68" s="128"/>
       <c r="R68" s="128"/>
       <c r="S68" s="73"/>
@@ -4117,9 +4153,13 @@
       <c r="V68" s="76"/>
       <c r="W68" s="76"/>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
-      <c r="B69" s="140"/>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A69" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="138" t="s">
+        <v>147</v>
+      </c>
       <c r="C69" s="73"/>
       <c r="D69" s="73"/>
       <c r="E69" s="73"/>
@@ -4129,21 +4169,23 @@
       <c r="I69" s="76"/>
       <c r="J69" s="76"/>
       <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
       <c r="N69" s="128"/>
       <c r="O69" s="128"/>
       <c r="P69" s="128"/>
       <c r="Q69" s="128"/>
       <c r="R69" s="128"/>
       <c r="S69" s="73"/>
-      <c r="T69" s="76"/>
+      <c r="T69" s="73"/>
       <c r="U69" s="76"/>
       <c r="V69" s="76"/>
       <c r="W69" s="76"/>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A70" s="75"/>
+    <row r="70" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="A70" s="75" t="s">
+        <v>163</v>
+      </c>
       <c r="B70" s="140"/>
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
@@ -4154,21 +4196,23 @@
       <c r="I70" s="76"/>
       <c r="J70" s="76"/>
       <c r="K70" s="76"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="128"/>
+      <c r="L70" s="185"/>
+      <c r="M70" s="185"/>
+      <c r="N70" s="186"/>
       <c r="O70" s="128"/>
       <c r="P70" s="128"/>
       <c r="Q70" s="128"/>
       <c r="R70" s="128"/>
       <c r="S70" s="73"/>
-      <c r="T70" s="73"/>
+      <c r="T70" s="76"/>
       <c r="U70" s="76"/>
       <c r="V70" s="76"/>
       <c r="W70" s="76"/>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A71" s="75"/>
+    <row r="71" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="A71" s="75" t="s">
+        <v>165</v>
+      </c>
       <c r="B71" s="140"/>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
@@ -4181,9 +4225,9 @@
       <c r="K71" s="76"/>
       <c r="L71" s="73"/>
       <c r="M71" s="73"/>
-      <c r="N71" s="128"/>
-      <c r="O71" s="128"/>
-      <c r="P71" s="128"/>
+      <c r="N71" s="186"/>
+      <c r="O71" s="186"/>
+      <c r="P71" s="186"/>
       <c r="Q71" s="128"/>
       <c r="R71" s="128"/>
       <c r="S71" s="73"/>
@@ -4192,8 +4236,10 @@
       <c r="V71" s="76"/>
       <c r="W71" s="76"/>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A72" s="75"/>
+    <row r="72" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="A72" s="75" t="s">
+        <v>164</v>
+      </c>
       <c r="B72" s="140"/>
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
@@ -4202,22 +4248,22 @@
       <c r="G72" s="76"/>
       <c r="H72" s="76"/>
       <c r="I72" s="76"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="73"/>
+      <c r="J72" s="76"/>
+      <c r="K72" s="76"/>
       <c r="L72" s="73"/>
       <c r="M72" s="73"/>
       <c r="N72" s="128"/>
       <c r="O72" s="128"/>
-      <c r="P72" s="128"/>
-      <c r="Q72" s="128"/>
-      <c r="R72" s="128"/>
+      <c r="P72" s="186"/>
+      <c r="Q72" s="186"/>
+      <c r="R72" s="186"/>
       <c r="S72" s="73"/>
       <c r="T72" s="73"/>
       <c r="U72" s="76"/>
       <c r="V72" s="76"/>
       <c r="W72" s="76"/>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A73" s="75"/>
       <c r="B73" s="140"/>
       <c r="C73" s="73"/>
@@ -4227,8 +4273,8 @@
       <c r="G73" s="76"/>
       <c r="H73" s="76"/>
       <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
       <c r="L73" s="73"/>
       <c r="M73" s="73"/>
       <c r="N73" s="128"/>
@@ -4242,9 +4288,9 @@
       <c r="V73" s="76"/>
       <c r="W73" s="76"/>
     </row>
-    <row r="74" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72"/>
-      <c r="B74" s="139"/>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A74" s="75"/>
+      <c r="B74" s="140"/>
       <c r="C74" s="73"/>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
@@ -4252,8 +4298,8 @@
       <c r="G74" s="76"/>
       <c r="H74" s="76"/>
       <c r="I74" s="76"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
       <c r="L74" s="73"/>
       <c r="M74" s="73"/>
       <c r="N74" s="128"/>
@@ -4262,35 +4308,14 @@
       <c r="Q74" s="128"/>
       <c r="R74" s="128"/>
       <c r="S74" s="73"/>
-      <c r="T74" s="76"/>
+      <c r="T74" s="73"/>
       <c r="U74" s="76"/>
       <c r="V74" s="76"/>
       <c r="W74" s="76"/>
-      <c r="X74" s="61"/>
-      <c r="Y74" s="61"/>
-      <c r="Z74" s="61"/>
-      <c r="AA74" s="61"/>
-      <c r="AB74" s="61"/>
-      <c r="AC74" s="61"/>
-      <c r="AD74" s="61"/>
-      <c r="AE74" s="61"/>
-      <c r="AF74" s="61"/>
-      <c r="AG74" s="61"/>
-      <c r="AH74" s="61"/>
-      <c r="AI74" s="61"/>
-      <c r="AJ74" s="61"/>
-      <c r="AK74" s="61"/>
-      <c r="AL74" s="61"/>
-      <c r="AM74" s="61"/>
-      <c r="AN74" s="61"/>
-      <c r="AO74" s="61"/>
-      <c r="AP74" s="61"/>
-      <c r="AQ74" s="61"/>
-      <c r="AR74" s="61"/>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A75" s="75"/>
-      <c r="B75" s="140"/>
+    </row>
+    <row r="75" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="72"/>
+      <c r="B75" s="139"/>
       <c r="C75" s="73"/>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
@@ -4298,8 +4323,8 @@
       <c r="G75" s="76"/>
       <c r="H75" s="76"/>
       <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
       <c r="L75" s="73"/>
       <c r="M75" s="73"/>
       <c r="N75" s="128"/>
@@ -4308,12 +4333,33 @@
       <c r="Q75" s="128"/>
       <c r="R75" s="128"/>
       <c r="S75" s="73"/>
-      <c r="T75" s="73"/>
-      <c r="U75" s="73"/>
-      <c r="V75" s="73"/>
-      <c r="W75" s="73"/>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T75" s="76"/>
+      <c r="U75" s="76"/>
+      <c r="V75" s="76"/>
+      <c r="W75" s="76"/>
+      <c r="X75" s="61"/>
+      <c r="Y75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="61"/>
+      <c r="AB75" s="61"/>
+      <c r="AC75" s="61"/>
+      <c r="AD75" s="61"/>
+      <c r="AE75" s="61"/>
+      <c r="AF75" s="61"/>
+      <c r="AG75" s="61"/>
+      <c r="AH75" s="61"/>
+      <c r="AI75" s="61"/>
+      <c r="AJ75" s="61"/>
+      <c r="AK75" s="61"/>
+      <c r="AL75" s="61"/>
+      <c r="AM75" s="61"/>
+      <c r="AN75" s="61"/>
+      <c r="AO75" s="61"/>
+      <c r="AP75" s="61"/>
+      <c r="AQ75" s="61"/>
+      <c r="AR75" s="61"/>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A76" s="75"/>
       <c r="B76" s="140"/>
       <c r="C76" s="73"/>
@@ -4334,11 +4380,11 @@
       <c r="R76" s="128"/>
       <c r="S76" s="73"/>
       <c r="T76" s="73"/>
-      <c r="U76" s="76"/>
-      <c r="V76" s="76"/>
-      <c r="W76" s="76"/>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="U76" s="73"/>
+      <c r="V76" s="73"/>
+      <c r="W76" s="73"/>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A77" s="75"/>
       <c r="B77" s="140"/>
       <c r="C77" s="73"/>
@@ -4359,111 +4405,86 @@
       <c r="R77" s="128"/>
       <c r="S77" s="73"/>
       <c r="T77" s="73"/>
-      <c r="U77" s="73"/>
-      <c r="V77" s="73"/>
-      <c r="W77" s="73"/>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A78" s="161"/>
-      <c r="B78" s="162"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="162"/>
-      <c r="E78" s="162"/>
-      <c r="F78" s="162"/>
-      <c r="G78" s="162"/>
-      <c r="H78" s="162"/>
-      <c r="I78" s="162"/>
-      <c r="J78" s="162"/>
-      <c r="K78" s="162"/>
-      <c r="L78" s="162"/>
-      <c r="M78" s="162"/>
-      <c r="N78" s="162"/>
-      <c r="O78" s="162"/>
-      <c r="P78" s="162"/>
-      <c r="Q78" s="162"/>
-      <c r="R78" s="162"/>
-      <c r="S78" s="162"/>
-      <c r="T78" s="162"/>
-      <c r="U78" s="162"/>
-      <c r="V78" s="162"/>
-      <c r="W78" s="162"/>
-    </row>
-    <row r="79" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="112" t="s">
+      <c r="U77" s="76"/>
+      <c r="V77" s="76"/>
+      <c r="W77" s="76"/>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A78" s="75"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="128"/>
+      <c r="O78" s="128"/>
+      <c r="P78" s="128"/>
+      <c r="Q78" s="128"/>
+      <c r="R78" s="128"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
+      <c r="U78" s="73"/>
+      <c r="V78" s="73"/>
+      <c r="W78" s="73"/>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A79" s="168"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="169"/>
+      <c r="H79" s="169"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="169"/>
+      <c r="K79" s="169"/>
+      <c r="L79" s="169"/>
+      <c r="M79" s="169"/>
+      <c r="N79" s="169"/>
+      <c r="O79" s="169"/>
+      <c r="P79" s="169"/>
+      <c r="Q79" s="169"/>
+      <c r="R79" s="169"/>
+      <c r="S79" s="169"/>
+      <c r="T79" s="169"/>
+      <c r="U79" s="169"/>
+      <c r="V79" s="169"/>
+      <c r="W79" s="169"/>
+    </row>
+    <row r="80" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="147"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="113"/>
-      <c r="F79" s="113"/>
-      <c r="G79" s="113"/>
-      <c r="H79" s="113"/>
-      <c r="I79" s="113"/>
-      <c r="J79" s="113"/>
-      <c r="K79" s="113"/>
-      <c r="L79" s="113"/>
-      <c r="M79" s="113"/>
-      <c r="N79" s="113"/>
-      <c r="O79" s="113"/>
-      <c r="P79" s="113"/>
-      <c r="Q79" s="113"/>
-      <c r="R79" s="113"/>
-      <c r="S79" s="113"/>
-      <c r="T79" s="113"/>
-      <c r="U79" s="113"/>
-      <c r="V79" s="113"/>
-      <c r="W79" s="113"/>
-      <c r="X79" s="119"/>
-      <c r="Y79" s="119"/>
-      <c r="Z79" s="119"/>
-      <c r="AA79" s="119"/>
-      <c r="AB79" s="119"/>
-      <c r="AC79" s="119"/>
-      <c r="AD79" s="119"/>
-      <c r="AE79" s="119"/>
-      <c r="AF79" s="119"/>
-      <c r="AG79" s="119"/>
-      <c r="AH79" s="119"/>
-      <c r="AI79" s="119"/>
-      <c r="AJ79" s="119"/>
-      <c r="AK79" s="119"/>
-      <c r="AL79" s="119"/>
-      <c r="AM79" s="119"/>
-      <c r="AN79" s="119"/>
-      <c r="AO79" s="119"/>
-      <c r="AP79" s="119"/>
-      <c r="AQ79" s="119"/>
-      <c r="AR79" s="119"/>
-    </row>
-    <row r="80" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" s="142" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="131"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="131"/>
-      <c r="F80" s="131"/>
-      <c r="G80" s="131"/>
-      <c r="H80" s="131"/>
-      <c r="I80" s="131"/>
-      <c r="J80" s="131"/>
-      <c r="K80" s="131"/>
-      <c r="L80" s="131"/>
-      <c r="M80" s="131"/>
-      <c r="N80" s="130"/>
-      <c r="O80" s="130"/>
-      <c r="P80" s="130"/>
-      <c r="Q80" s="130"/>
-      <c r="R80" s="130"/>
-      <c r="S80" s="131"/>
-      <c r="T80" s="131"/>
-      <c r="U80" s="131"/>
-      <c r="V80" s="131"/>
-      <c r="W80" s="131"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="113"/>
+      <c r="D80" s="113"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="113"/>
+      <c r="G80" s="113"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="113"/>
+      <c r="K80" s="113"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="113"/>
+      <c r="N80" s="113"/>
+      <c r="O80" s="113"/>
+      <c r="P80" s="113"/>
+      <c r="Q80" s="113"/>
+      <c r="R80" s="113"/>
+      <c r="S80" s="113"/>
+      <c r="T80" s="113"/>
+      <c r="U80" s="113"/>
+      <c r="V80" s="113"/>
+      <c r="W80" s="113"/>
       <c r="X80" s="119"/>
       <c r="Y80" s="119"/>
       <c r="Z80" s="119"/>
@@ -4486,12 +4507,12 @@
       <c r="AQ80" s="119"/>
       <c r="AR80" s="119"/>
     </row>
-    <row r="81" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="138" t="s">
-        <v>147</v>
+        <v>128</v>
+      </c>
+      <c r="B81" s="142" t="s">
+        <v>146</v>
       </c>
       <c r="C81" s="131"/>
       <c r="D81" s="131"/>
@@ -4509,8 +4530,8 @@
       <c r="P81" s="130"/>
       <c r="Q81" s="130"/>
       <c r="R81" s="130"/>
-      <c r="S81" s="131"/>
-      <c r="T81" s="131"/>
+      <c r="S81" s="187"/>
+      <c r="T81" s="187"/>
       <c r="U81" s="131"/>
       <c r="V81" s="131"/>
       <c r="W81" s="131"/>
@@ -4536,187 +4557,212 @@
       <c r="AQ81" s="119"/>
       <c r="AR81" s="119"/>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A82" s="93" t="s">
-        <v>130</v>
+    <row r="82" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="131" t="s">
+        <v>129</v>
       </c>
       <c r="B82" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="93"/>
-      <c r="D82" s="93"/>
-      <c r="E82" s="93"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="93"/>
-      <c r="J82" s="93"/>
-      <c r="K82" s="93"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="92"/>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92"/>
-      <c r="R82" s="92"/>
-      <c r="S82" s="93"/>
-      <c r="T82" s="93"/>
-      <c r="U82" s="93"/>
-      <c r="V82" s="93"/>
-      <c r="W82" s="93"/>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A83" s="168"/>
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
-      <c r="E83" s="169"/>
-      <c r="F83" s="169"/>
-      <c r="G83" s="169"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="169"/>
-      <c r="K83" s="169"/>
-      <c r="L83" s="169"/>
-      <c r="M83" s="169"/>
-      <c r="N83" s="169"/>
-      <c r="O83" s="169"/>
-      <c r="P83" s="169"/>
-      <c r="Q83" s="169"/>
-      <c r="R83" s="169"/>
-      <c r="S83" s="169"/>
-      <c r="T83" s="169"/>
-      <c r="U83" s="169"/>
-      <c r="V83" s="169"/>
-      <c r="W83" s="169"/>
-    </row>
-    <row r="84" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="114" t="s">
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="131"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="130"/>
+      <c r="O82" s="130"/>
+      <c r="P82" s="130"/>
+      <c r="Q82" s="130"/>
+      <c r="R82" s="187"/>
+      <c r="S82" s="187"/>
+      <c r="T82" s="131"/>
+      <c r="U82" s="131"/>
+      <c r="V82" s="131"/>
+      <c r="W82" s="131"/>
+      <c r="X82" s="119"/>
+      <c r="Y82" s="119"/>
+      <c r="Z82" s="119"/>
+      <c r="AA82" s="119"/>
+      <c r="AB82" s="119"/>
+      <c r="AC82" s="119"/>
+      <c r="AD82" s="119"/>
+      <c r="AE82" s="119"/>
+      <c r="AF82" s="119"/>
+      <c r="AG82" s="119"/>
+      <c r="AH82" s="119"/>
+      <c r="AI82" s="119"/>
+      <c r="AJ82" s="119"/>
+      <c r="AK82" s="119"/>
+      <c r="AL82" s="119"/>
+      <c r="AM82" s="119"/>
+      <c r="AN82" s="119"/>
+      <c r="AO82" s="119"/>
+      <c r="AP82" s="119"/>
+      <c r="AQ82" s="119"/>
+      <c r="AR82" s="119"/>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A83" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="93"/>
+      <c r="L83" s="93"/>
+      <c r="M83" s="93"/>
+      <c r="N83" s="92"/>
+      <c r="O83" s="92"/>
+      <c r="P83" s="92"/>
+      <c r="Q83" s="188"/>
+      <c r="R83" s="188"/>
+      <c r="S83" s="93"/>
+      <c r="T83" s="93"/>
+      <c r="U83" s="93"/>
+      <c r="V83" s="93"/>
+      <c r="W83" s="93"/>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A84" s="161"/>
+      <c r="B84" s="162"/>
+      <c r="C84" s="162"/>
+      <c r="D84" s="162"/>
+      <c r="E84" s="162"/>
+      <c r="F84" s="162"/>
+      <c r="G84" s="162"/>
+      <c r="H84" s="162"/>
+      <c r="I84" s="162"/>
+      <c r="J84" s="162"/>
+      <c r="K84" s="162"/>
+      <c r="L84" s="162"/>
+      <c r="M84" s="162"/>
+      <c r="N84" s="162"/>
+      <c r="O84" s="162"/>
+      <c r="P84" s="162"/>
+      <c r="Q84" s="162"/>
+      <c r="R84" s="162"/>
+      <c r="S84" s="162"/>
+      <c r="T84" s="162"/>
+      <c r="U84" s="162"/>
+      <c r="V84" s="162"/>
+      <c r="W84" s="162"/>
+    </row>
+    <row r="85" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="148"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="116"/>
-      <c r="G84" s="116"/>
-      <c r="H84" s="116"/>
-      <c r="I84" s="116"/>
-      <c r="J84" s="116"/>
-      <c r="K84" s="116"/>
-      <c r="L84" s="116"/>
-      <c r="M84" s="116"/>
-      <c r="N84" s="116"/>
-      <c r="O84" s="116"/>
-      <c r="P84" s="116"/>
-      <c r="Q84" s="117"/>
-      <c r="R84" s="117"/>
-      <c r="S84" s="117"/>
-      <c r="T84" s="117"/>
-      <c r="U84" s="117"/>
-      <c r="V84" s="116"/>
-      <c r="W84" s="116"/>
-      <c r="X84" s="61"/>
-      <c r="Y84" s="61"/>
-      <c r="Z84" s="61"/>
-      <c r="AA84" s="61"/>
-      <c r="AB84" s="61"/>
-      <c r="AC84" s="61"/>
-      <c r="AD84" s="61"/>
-      <c r="AE84" s="61"/>
-      <c r="AF84" s="61"/>
-      <c r="AG84" s="61"/>
-      <c r="AH84" s="61"/>
-      <c r="AI84" s="61"/>
-      <c r="AJ84" s="61"/>
-      <c r="AK84" s="61"/>
-      <c r="AL84" s="61"/>
-      <c r="AM84" s="61"/>
-      <c r="AN84" s="61"/>
-      <c r="AO84" s="61"/>
-      <c r="AP84" s="61"/>
-      <c r="AQ84" s="61"/>
-      <c r="AR84" s="61"/>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A85" s="85" t="s">
+      <c r="B85" s="148"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="115"/>
+      <c r="E85" s="115"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="116"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="116"/>
+      <c r="J85" s="116"/>
+      <c r="K85" s="116"/>
+      <c r="L85" s="116"/>
+      <c r="M85" s="116"/>
+      <c r="N85" s="116"/>
+      <c r="O85" s="116"/>
+      <c r="P85" s="116"/>
+      <c r="Q85" s="117"/>
+      <c r="R85" s="117"/>
+      <c r="S85" s="117"/>
+      <c r="T85" s="117"/>
+      <c r="U85" s="117"/>
+      <c r="V85" s="116"/>
+      <c r="W85" s="116"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="61"/>
+      <c r="Z85" s="61"/>
+      <c r="AA85" s="61"/>
+      <c r="AB85" s="61"/>
+      <c r="AC85" s="61"/>
+      <c r="AD85" s="61"/>
+      <c r="AE85" s="61"/>
+      <c r="AF85" s="61"/>
+      <c r="AG85" s="61"/>
+      <c r="AH85" s="61"/>
+      <c r="AI85" s="61"/>
+      <c r="AJ85" s="61"/>
+      <c r="AK85" s="61"/>
+      <c r="AL85" s="61"/>
+      <c r="AM85" s="61"/>
+      <c r="AN85" s="61"/>
+      <c r="AO85" s="61"/>
+      <c r="AP85" s="61"/>
+      <c r="AQ85" s="61"/>
+      <c r="AR85" s="61"/>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A86" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="132"/>
-      <c r="D85" s="132"/>
-      <c r="E85" s="132"/>
-      <c r="F85" s="132"/>
-      <c r="G85" s="132"/>
-      <c r="H85" s="132"/>
-      <c r="I85" s="132"/>
-      <c r="J85" s="132"/>
-      <c r="K85" s="132"/>
-      <c r="L85" s="132"/>
-      <c r="M85" s="132"/>
-      <c r="N85" s="133"/>
-      <c r="O85" s="133"/>
-      <c r="P85" s="133"/>
-      <c r="Q85" s="133"/>
-      <c r="R85" s="133"/>
-      <c r="S85" s="132"/>
-      <c r="T85" s="132"/>
-      <c r="U85" s="132"/>
-      <c r="V85" s="132"/>
-      <c r="W85" s="132"/>
-    </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A89" s="163"/>
-      <c r="B89" s="163"/>
-      <c r="C89" s="163"/>
-      <c r="D89" s="163"/>
-      <c r="E89" s="163"/>
-      <c r="F89" s="163"/>
-      <c r="G89" s="163"/>
-      <c r="H89" s="163"/>
-      <c r="I89" s="163"/>
-      <c r="J89" s="163"/>
-      <c r="K89" s="163"/>
-      <c r="L89" s="163"/>
-      <c r="M89" s="163"/>
-      <c r="N89" s="163"/>
-      <c r="O89" s="163"/>
-      <c r="P89" s="163"/>
-      <c r="Q89" s="163"/>
-      <c r="R89" s="163"/>
-      <c r="S89" s="163"/>
-      <c r="T89" s="163"/>
-      <c r="U89" s="163"/>
-      <c r="V89" s="163"/>
-      <c r="W89" s="163"/>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A90" s="164"/>
-      <c r="B90" s="156"/>
-      <c r="C90" s="156"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="156"/>
-      <c r="G90" s="156"/>
-      <c r="H90" s="156"/>
-      <c r="I90" s="156"/>
-      <c r="J90" s="156"/>
-      <c r="K90" s="156"/>
-      <c r="L90" s="156"/>
-      <c r="M90" s="156"/>
-      <c r="N90" s="156"/>
-      <c r="O90" s="156"/>
-      <c r="P90" s="156"/>
-      <c r="Q90" s="156"/>
-      <c r="R90" s="156"/>
-      <c r="S90" s="156"/>
-      <c r="T90" s="156"/>
-      <c r="U90" s="156"/>
-      <c r="V90" s="156"/>
-      <c r="W90" s="156"/>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A91" s="156"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="132"/>
+      <c r="G86" s="132"/>
+      <c r="H86" s="132"/>
+      <c r="I86" s="132"/>
+      <c r="J86" s="132"/>
+      <c r="K86" s="132"/>
+      <c r="L86" s="132"/>
+      <c r="M86" s="132"/>
+      <c r="N86" s="133"/>
+      <c r="O86" s="133"/>
+      <c r="P86" s="133"/>
+      <c r="Q86" s="133"/>
+      <c r="R86" s="133"/>
+      <c r="S86" s="132"/>
+      <c r="T86" s="132"/>
+      <c r="U86" s="132"/>
+      <c r="V86" s="132"/>
+      <c r="W86" s="132"/>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A90" s="170"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
+      <c r="F90" s="170"/>
+      <c r="G90" s="170"/>
+      <c r="H90" s="170"/>
+      <c r="I90" s="170"/>
+      <c r="J90" s="170"/>
+      <c r="K90" s="170"/>
+      <c r="L90" s="170"/>
+      <c r="M90" s="170"/>
+      <c r="N90" s="170"/>
+      <c r="O90" s="170"/>
+      <c r="P90" s="170"/>
+      <c r="Q90" s="170"/>
+      <c r="R90" s="170"/>
+      <c r="S90" s="170"/>
+      <c r="T90" s="170"/>
+      <c r="U90" s="170"/>
+      <c r="V90" s="170"/>
+      <c r="W90" s="170"/>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A91" s="157"/>
       <c r="B91" s="156"/>
       <c r="C91" s="156"/>
       <c r="D91" s="156"/>
@@ -4740,23 +4786,48 @@
       <c r="V91" s="156"/>
       <c r="W91" s="156"/>
     </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A92" s="156"/>
+      <c r="B92" s="156"/>
+      <c r="C92" s="156"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="156"/>
+      <c r="F92" s="156"/>
+      <c r="G92" s="156"/>
+      <c r="H92" s="156"/>
+      <c r="I92" s="156"/>
+      <c r="J92" s="156"/>
+      <c r="K92" s="156"/>
+      <c r="L92" s="156"/>
+      <c r="M92" s="156"/>
+      <c r="N92" s="156"/>
+      <c r="O92" s="156"/>
+      <c r="P92" s="156"/>
+      <c r="Q92" s="156"/>
+      <c r="R92" s="156"/>
+      <c r="S92" s="156"/>
+      <c r="T92" s="156"/>
+      <c r="U92" s="156"/>
+      <c r="V92" s="156"/>
+      <c r="W92" s="156"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A90:W90"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C2:W2"/>
-    <mergeCell ref="A83:W83"/>
-    <mergeCell ref="A62:W62"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="A91:W91"/>
+    <mergeCell ref="A92:W92"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A19:W19"/>
     <mergeCell ref="A21:W21"/>
     <mergeCell ref="A38:W38"/>
     <mergeCell ref="A49:W49"/>
-    <mergeCell ref="A78:W78"/>
-    <mergeCell ref="A89:W89"/>
+    <mergeCell ref="A79:W79"/>
+    <mergeCell ref="A90:W90"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A91:W91"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C2:W2"/>
+    <mergeCell ref="A84:W84"/>
+    <mergeCell ref="A63:W63"/>
+    <mergeCell ref="B1:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:B46">
     <cfRule type="colorScale" priority="54">
@@ -4830,7 +4901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B66">
+  <conditionalFormatting sqref="A66:B67">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4842,7 +4913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:B67">
+  <conditionalFormatting sqref="A68:B68">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4854,7 +4925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:B69">
+  <conditionalFormatting sqref="A70:B70">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4866,7 +4937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B71">
+  <conditionalFormatting sqref="A72:B72">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4878,7 +4949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:B73">
+  <conditionalFormatting sqref="A74:B74">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4890,7 +4961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:B77">
+  <conditionalFormatting sqref="A78:B78">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4902,7 +4973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:B74">
+  <conditionalFormatting sqref="A75:B75">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4926,7 +4997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B70">
+  <conditionalFormatting sqref="A71:B71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4938,7 +5009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:B76">
+  <conditionalFormatting sqref="A77:B77">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4975,18 +5046,18 @@
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.296875" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" customWidth="1"/>
-    <col min="9" max="9" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="171" t="s">
         <v>73</v>
       </c>
@@ -4995,7 +5066,7 @@
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
     </row>
-    <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="171"/>
       <c r="C3" s="172" t="s">
         <v>74</v>
@@ -5006,7 +5077,7 @@
       </c>
       <c r="F3" s="173"/>
     </row>
-    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
@@ -5023,14 +5094,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="53"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5122,7 @@
         <v>8.2982791586998079</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -5071,7 +5142,7 @@
         <v>1.6061185468451242</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -5091,7 +5162,7 @@
         <v>2.4091778202676863</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -5111,7 +5182,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -5131,7 +5202,7 @@
         <v>0.66921606118546839</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -5151,14 +5222,14 @@
         <v>0.93690248565965584</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="52"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -5179,7 +5250,7 @@
         <v>6.8833652007648185</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -5200,7 +5271,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -5220,7 +5291,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -5240,7 +5311,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5261,7 +5332,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -5281,7 +5352,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -5301,7 +5372,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -5321,7 +5392,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5342,7 +5413,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5362,7 +5433,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5382,7 +5453,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -5403,7 +5474,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5423,14 +5494,14 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="58"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -5451,7 +5522,7 @@
         <v>15.678776290630974</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5472,7 +5543,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
@@ -5492,7 +5563,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -5512,7 +5583,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -5533,7 +5604,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -5553,7 +5624,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -5573,7 +5644,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -5593,7 +5664,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
@@ -5613,7 +5684,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -5634,7 +5705,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>33</v>
       </c>
@@ -5654,7 +5725,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5674,7 +5745,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -5695,7 +5766,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -5715,7 +5786,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -5735,14 +5806,14 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
@@ -5763,7 +5834,7 @@
         <v>43.977055449330784</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -5784,7 +5855,7 @@
         <v>9.1778202676864247</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -5804,7 +5875,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
@@ -5824,7 +5895,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -5845,7 +5916,7 @@
         <v>12.619502868068833</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
@@ -5865,7 +5936,7 @@
         <v>3.4416826003824093</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -5885,7 +5956,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>44</v>
       </c>
@@ -5905,7 +5976,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5926,7 +5997,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>46</v>
       </c>
@@ -5946,7 +6017,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
@@ -5966,7 +6037,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>48</v>
       </c>
@@ -5987,7 +6058,7 @@
         <v>16.061185468451242</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -6007,7 +6078,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
@@ -6027,7 +6098,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
@@ -6047,14 +6118,14 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="2"/>
       <c r="E58" s="60"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
@@ -6075,7 +6146,7 @@
         <v>14.531548757170171</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>53</v>
       </c>
@@ -6096,7 +6167,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>54</v>
       </c>
@@ -6116,7 +6187,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>55</v>
       </c>
@@ -6137,7 +6208,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
@@ -6157,7 +6228,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>80</v>
       </c>
@@ -6177,7 +6248,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
@@ -6197,7 +6268,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
@@ -6218,7 +6289,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
@@ -6238,7 +6309,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>60</v>
       </c>
@@ -6258,7 +6329,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
         <v>61</v>
       </c>
@@ -6279,7 +6350,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
@@ -6299,14 +6370,14 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="48" t="s">
         <v>63</v>
       </c>
@@ -6327,7 +6398,7 @@
         <v>10.630975143403441</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>64</v>
       </c>
@@ -6348,7 +6419,7 @@
         <v>2.1414913957934991</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>65</v>
       </c>
@@ -6368,7 +6439,7 @@
         <v>0.9177820267686424</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>81</v>
       </c>
@@ -6388,7 +6459,7 @@
         <v>0.4588910133843212</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>66</v>
       </c>
@@ -6408,7 +6479,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>67</v>
       </c>
@@ -6428,7 +6499,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>68</v>
       </c>
@@ -6448,7 +6519,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>69</v>
       </c>
@@ -6468,7 +6539,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
         <v>70</v>
       </c>
@@ -6488,7 +6559,7 @@
         <v>3.5181644359464626</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>71</v>
       </c>
@@ -6508,14 +6579,14 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="55"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>72</v>
       </c>
@@ -6535,21 +6606,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="179"/>
       <c r="C84" s="179"/>
       <c r="D84" s="179"/>
       <c r="E84" s="179"/>
       <c r="F84" s="179"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="178"/>
       <c r="C85" s="178"/>
       <c r="D85" s="178"/>
       <c r="E85" s="180"/>
       <c r="F85" s="180"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="174" t="s">
         <v>82</v>
       </c>
@@ -6558,7 +6629,7 @@
       <c r="E86" s="180"/>
       <c r="F86" s="180"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
@@ -6571,7 +6642,7 @@
       <c r="E87" s="180"/>
       <c r="F87" s="180"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
@@ -7068,6 +7139,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -7224,15 +7304,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
   <ds:schemaRefs>
@@ -7251,6 +7322,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7267,12 +7346,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkrummenacher/Documents/GitHub/P2Pflichtenheft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F2B0DB-6B84-434B-A481-0B3840D460E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91797B5-E924-4097-B22A-3BF2E61DC320}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
     <sheet name="Projektbudget" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$63:$W$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$63:$X$83</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="167">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>4.2.2 Validieren der Berechnungen im Code</t>
+  </si>
+  <si>
+    <t>Arbeitsstunden</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1067,13 +1070,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1383,9 +1448,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1434,87 +1496,14 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,6 +1512,91 @@
     <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2231,187 +2305,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR92"/>
+  <dimension ref="A1:AS86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="118" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="U82" sqref="U82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:X73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="129" customWidth="1"/>
-    <col min="3" max="23" width="6.6640625" style="61" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="61"/>
+    <col min="1" max="1" width="45.69921875" style="61" customWidth="1"/>
+    <col min="2" max="3" width="4.69921875" style="129" customWidth="1"/>
+    <col min="4" max="24" width="6.69921875" style="61" customWidth="1"/>
+    <col min="25" max="16384" width="10.796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="165" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="156"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="158">
+    <row r="1" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="163"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="171">
         <v>2019</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="160"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="156"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="63" t="s">
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="173"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="163"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="E3" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="F3" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="G3" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="I3" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="J3" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="K3" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="L3" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="M3" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="N3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="158" t="s">
+      <c r="O3" s="171" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="64" t="s">
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="U3" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="64" t="s">
+      <c r="V3" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="W3" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="W3" s="64" t="s">
+      <c r="X3" s="64" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="156"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="63">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="163"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="63">
         <v>18.02</v>
       </c>
-      <c r="D4" s="63">
+      <c r="E4" s="63">
         <v>25.02</v>
       </c>
-      <c r="E4" s="65">
+      <c r="F4" s="65">
         <v>4.03</v>
       </c>
-      <c r="F4" s="65">
+      <c r="G4" s="65">
         <v>11.03</v>
       </c>
-      <c r="G4" s="65">
+      <c r="H4" s="65">
         <v>18.03</v>
       </c>
-      <c r="H4" s="65">
+      <c r="I4" s="65">
         <v>25.03</v>
       </c>
-      <c r="I4" s="65">
+      <c r="J4" s="65">
         <v>1.04</v>
       </c>
-      <c r="J4" s="63">
+      <c r="K4" s="63">
         <v>8.0399999999999991</v>
       </c>
-      <c r="K4" s="65">
+      <c r="L4" s="65">
         <v>15.04</v>
       </c>
-      <c r="L4" s="63">
+      <c r="M4" s="63">
         <v>22.04</v>
       </c>
-      <c r="M4" s="65">
+      <c r="N4" s="65">
         <v>29.04</v>
       </c>
-      <c r="N4" s="123">
+      <c r="O4" s="123">
         <v>6.05</v>
       </c>
-      <c r="O4" s="123">
+      <c r="P4" s="123">
         <v>7.05</v>
       </c>
-      <c r="P4" s="123">
+      <c r="Q4" s="123">
         <v>8.0500000000000007</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="R4" s="123">
         <v>9.0500000000000007</v>
       </c>
-      <c r="R4" s="123">
+      <c r="S4" s="123">
         <v>10.050000000000001</v>
       </c>
-      <c r="S4" s="63">
+      <c r="T4" s="63">
         <v>13.05</v>
       </c>
-      <c r="T4" s="63">
+      <c r="U4" s="63">
         <v>20.05</v>
       </c>
-      <c r="U4" s="63">
+      <c r="V4" s="63">
         <v>27.05</v>
       </c>
-      <c r="V4" s="63">
+      <c r="W4" s="63">
         <v>3.06</v>
       </c>
-      <c r="W4" s="63">
+      <c r="X4" s="63">
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="165"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="122"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
       <c r="F6" s="122"/>
@@ -2432,91 +2509,95 @@
       <c r="U6" s="122"/>
       <c r="V6" s="122"/>
       <c r="W6" s="122"/>
-    </row>
-    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X6" s="122"/>
+    </row>
+    <row r="7" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="62"/>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="62"/>
       <c r="E8" s="62"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="63"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
       <c r="J8" s="63"/>
       <c r="K8" s="63"/>
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
-      <c r="N8" s="123"/>
+      <c r="N8" s="63"/>
       <c r="O8" s="123"/>
       <c r="P8" s="123"/>
       <c r="Q8" s="123"/>
       <c r="R8" s="123"/>
-      <c r="S8" s="63"/>
+      <c r="S8" s="123"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="63"/>
       <c r="W8" s="63"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X8" s="63"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="63"/>
       <c r="M9" s="63"/>
-      <c r="N9" s="123"/>
+      <c r="N9" s="63"/>
       <c r="O9" s="123"/>
       <c r="P9" s="123"/>
       <c r="Q9" s="123"/>
       <c r="R9" s="123"/>
-      <c r="S9" s="63"/>
+      <c r="S9" s="123"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
       <c r="V9" s="63"/>
       <c r="W9" s="63"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X9" s="63"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2524,28 +2605,29 @@
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="120" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
-      <c r="N10" s="123"/>
+      <c r="N10" s="63"/>
       <c r="O10" s="123"/>
       <c r="P10" s="123"/>
       <c r="Q10" s="123"/>
       <c r="R10" s="123"/>
-      <c r="S10" s="63"/>
+      <c r="S10" s="123"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X10" s="63"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>104</v>
       </c>
@@ -2553,28 +2635,29 @@
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="120" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="63"/>
       <c r="M11" s="63"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="123"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="124"/>
       <c r="Q11" s="123"/>
       <c r="R11" s="123"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="63"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="62"/>
       <c r="U11" s="63"/>
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11" s="63"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>105</v>
       </c>
@@ -2582,57 +2665,59 @@
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
-      <c r="I12" s="120" t="s">
+      <c r="I12" s="63"/>
+      <c r="J12" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="62"/>
-      <c r="N12" s="123"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="123"/>
       <c r="P12" s="123"/>
       <c r="Q12" s="123"/>
       <c r="R12" s="123"/>
-      <c r="S12" s="63"/>
+      <c r="S12" s="123"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
       <c r="V12" s="63"/>
       <c r="W12" s="63"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12" s="63"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="120" t="s">
+      <c r="I13" s="63"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="66"/>
       <c r="L13" s="66"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="123"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="63"/>
       <c r="O13" s="123"/>
       <c r="P13" s="123"/>
       <c r="Q13" s="123"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="63"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="124"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
       <c r="V13" s="63"/>
       <c r="W13" s="63"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X13" s="63"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>108</v>
       </c>
@@ -2640,27 +2725,28 @@
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="63"/>
       <c r="H14" s="63"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="66"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="66"/>
-      <c r="M14" s="120" t="s">
+      <c r="M14" s="66"/>
+      <c r="N14" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="123"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
       <c r="Q14" s="123"/>
       <c r="R14" s="123"/>
-      <c r="T14" s="63"/>
+      <c r="S14" s="123"/>
       <c r="U14" s="63"/>
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X14" s="63"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>109</v>
       </c>
@@ -2668,30 +2754,31 @@
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="63"/>
       <c r="K15" s="63"/>
-      <c r="L15" s="62"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="62"/>
-      <c r="N15" s="123"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="123"/>
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
       <c r="R15" s="123"/>
-      <c r="S15" s="120" t="s">
+      <c r="S15" s="123"/>
+      <c r="T15" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="T15" s="63"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="120" t="s">
+      <c r="U15" s="63"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="120" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>110</v>
       </c>
@@ -2699,28 +2786,29 @@
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="K16" s="63"/>
-      <c r="L16" s="62"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="62"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="124"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="124"/>
       <c r="Q16" s="124"/>
       <c r="R16" s="124"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="120" t="s">
+      <c r="S16" s="124"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="120" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>111</v>
       </c>
@@ -2728,752 +2816,810 @@
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
-      <c r="L17" s="62"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="62"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="124"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="123"/>
       <c r="P17" s="124"/>
       <c r="Q17" s="124"/>
       <c r="R17" s="124"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="120" t="s">
+      <c r="S17" s="124"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="120" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="62"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
       <c r="K18" s="63"/>
-      <c r="L18" s="62"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="62"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="124"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="124"/>
       <c r="Q18" s="124"/>
       <c r="R18" s="124"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="63"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="62"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
-    </row>
-    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="167"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="167"/>
-      <c r="S19" s="167"/>
-      <c r="T19" s="167"/>
-      <c r="U19" s="167"/>
-      <c r="V19" s="167"/>
-      <c r="W19" s="167"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A20" s="121" t="s">
+      <c r="X18" s="63"/>
+    </row>
+    <row r="19" spans="1:25" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="185"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+    </row>
+    <row r="20" spans="1:25" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="186"/>
+      <c r="B20" s="187" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="188"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="189"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="135"/>
-    </row>
-    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="166"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A22" s="100" t="s">
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="192"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="192"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="192"/>
+      <c r="S21" s="192"/>
+      <c r="T21" s="192"/>
+      <c r="U21" s="192"/>
+      <c r="V21" s="192"/>
+      <c r="W21" s="192"/>
+      <c r="X21" s="192"/>
+      <c r="Y21" s="193"/>
+    </row>
+    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="164"/>
+      <c r="X22" s="164"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="103"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A23" s="72" t="s">
+      <c r="B23" s="136"/>
+      <c r="C23" s="136">
+        <v>62</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="103"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="138" t="s">
+      <c r="B24" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A24" s="72" t="s">
+      <c r="C24" s="137"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B25" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A25" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="105"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="105"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="76"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
       <c r="K25" s="76"/>
       <c r="L25" s="76"/>
       <c r="M25" s="76"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="126"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="125"/>
       <c r="P25" s="126"/>
       <c r="Q25" s="126"/>
       <c r="R25" s="126"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="66"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="74"/>
       <c r="U25" s="66"/>
       <c r="V25" s="66"/>
       <c r="W25" s="66"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="73"/>
+        <v>138</v>
+      </c>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="73"/>
       <c r="E26" s="105"/>
       <c r="F26" s="105"/>
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
       <c r="I26" s="73"/>
-      <c r="J26" s="76"/>
+      <c r="J26" s="73"/>
       <c r="K26" s="76"/>
       <c r="L26" s="76"/>
       <c r="M26" s="76"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="126"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="125"/>
       <c r="P26" s="126"/>
       <c r="Q26" s="126"/>
       <c r="R26" s="126"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="66"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="74"/>
       <c r="U26" s="66"/>
       <c r="V26" s="66"/>
       <c r="W26" s="66"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X26" s="66"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="73"/>
+        <v>139</v>
+      </c>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
       <c r="F27" s="105"/>
       <c r="G27" s="105"/>
       <c r="H27" s="73"/>
       <c r="I27" s="73"/>
-      <c r="J27" s="76"/>
+      <c r="J27" s="73"/>
       <c r="K27" s="76"/>
       <c r="L27" s="76"/>
       <c r="M27" s="76"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="126"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="125"/>
       <c r="P27" s="126"/>
       <c r="Q27" s="126"/>
       <c r="R27" s="126"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="66"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="74"/>
       <c r="U27" s="66"/>
       <c r="V27" s="66"/>
       <c r="W27" s="66"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A28" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
+      <c r="X27" s="66"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="105"/>
       <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="76"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="76"/>
       <c r="L28" s="76"/>
       <c r="M28" s="76"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="126"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="125"/>
       <c r="P28" s="126"/>
       <c r="Q28" s="126"/>
       <c r="R28" s="126"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="66"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="74"/>
       <c r="U28" s="66"/>
       <c r="V28" s="66"/>
       <c r="W28" s="66"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A29" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="105"/>
+      <c r="X28" s="66"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="138"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="105"/>
       <c r="F29" s="105"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="76"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
       <c r="K29" s="76"/>
       <c r="L29" s="76"/>
       <c r="M29" s="76"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="126"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="125"/>
       <c r="P29" s="126"/>
       <c r="Q29" s="126"/>
       <c r="R29" s="126"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="66"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="74"/>
       <c r="U29" s="66"/>
       <c r="V29" s="66"/>
       <c r="W29" s="66"/>
-    </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="105"/>
+      <c r="X29" s="66"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="105"/>
       <c r="F30" s="105"/>
       <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="73"/>
-      <c r="J30" s="76"/>
+      <c r="J30" s="73"/>
       <c r="K30" s="76"/>
       <c r="L30" s="76"/>
       <c r="M30" s="76"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="126"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="125"/>
       <c r="P30" s="126"/>
       <c r="Q30" s="126"/>
       <c r="R30" s="126"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="66"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="74"/>
       <c r="U30" s="66"/>
       <c r="V30" s="66"/>
       <c r="W30" s="66"/>
-    </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="X30" s="66"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="126"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="125"/>
       <c r="P31" s="126"/>
       <c r="Q31" s="126"/>
       <c r="R31" s="126"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="66"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="74"/>
       <c r="U31" s="66"/>
       <c r="V31" s="66"/>
       <c r="W31" s="66"/>
-    </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="X31" s="66"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="73"/>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
       <c r="H32" s="73"/>
       <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
       <c r="N32" s="106"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="66"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="126"/>
+      <c r="T32" s="74"/>
       <c r="U32" s="66"/>
       <c r="V32" s="66"/>
       <c r="W32" s="66"/>
-    </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="X32" s="66"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="138"/>
       <c r="D33" s="73"/>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
       <c r="H33" s="73"/>
-      <c r="I33" s="76"/>
+      <c r="I33" s="73"/>
       <c r="J33" s="76"/>
       <c r="K33" s="76"/>
       <c r="L33" s="76"/>
       <c r="M33" s="76"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="66"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
       <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-    </row>
-    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="73"/>
+      <c r="C34" s="138"/>
       <c r="D34" s="73"/>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
       <c r="G34" s="73"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="76"/>
+      <c r="I34" s="73"/>
       <c r="J34" s="76"/>
       <c r="K34" s="76"/>
       <c r="L34" s="76"/>
       <c r="M34" s="76"/>
-      <c r="N34" s="125"/>
-      <c r="O34" s="126"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="125"/>
       <c r="P34" s="126"/>
       <c r="Q34" s="126"/>
       <c r="R34" s="126"/>
-      <c r="S34" s="66"/>
+      <c r="S34" s="126"/>
       <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
+      <c r="U34" s="107"/>
       <c r="V34" s="107"/>
       <c r="W34" s="107"/>
-    </row>
-    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A35" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="140"/>
-      <c r="C35" s="73"/>
+      <c r="X34" s="107"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="138"/>
       <c r="D35" s="73"/>
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
       <c r="H35" s="73"/>
-      <c r="I35" s="76"/>
+      <c r="I35" s="73"/>
       <c r="J35" s="76"/>
       <c r="K35" s="76"/>
       <c r="L35" s="76"/>
       <c r="M35" s="76"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="126"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="125"/>
       <c r="P35" s="126"/>
       <c r="Q35" s="126"/>
       <c r="R35" s="126"/>
-      <c r="S35" s="66"/>
+      <c r="S35" s="126"/>
       <c r="T35" s="66"/>
       <c r="U35" s="66"/>
-      <c r="V35" s="107"/>
+      <c r="V35" s="66"/>
       <c r="W35" s="107"/>
-    </row>
-    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="X35" s="107"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="140"/>
-      <c r="C36" s="73"/>
+        <v>143</v>
+      </c>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
       <c r="G36" s="73"/>
       <c r="H36" s="73"/>
-      <c r="I36" s="76"/>
+      <c r="I36" s="73"/>
       <c r="J36" s="76"/>
       <c r="K36" s="76"/>
       <c r="L36" s="76"/>
       <c r="M36" s="76"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="126"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="125"/>
       <c r="P36" s="126"/>
       <c r="Q36" s="126"/>
       <c r="R36" s="126"/>
-      <c r="S36" s="66"/>
+      <c r="S36" s="126"/>
       <c r="T36" s="66"/>
       <c r="U36" s="66"/>
-      <c r="V36" s="107"/>
+      <c r="V36" s="66"/>
       <c r="W36" s="107"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="72" t="s">
+      <c r="X36" s="107"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="139"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="125"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="106"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="163"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="164"/>
-      <c r="R38" s="164"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="164"/>
-      <c r="U38" s="164"/>
-      <c r="V38" s="164"/>
-      <c r="W38" s="164"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="88" t="s">
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
+      <c r="S38" s="106"/>
+      <c r="T38" s="106"/>
+      <c r="U38" s="106"/>
+      <c r="V38" s="106"/>
+      <c r="W38" s="106"/>
+      <c r="X38" s="106"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="165"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
+      <c r="K39" s="166"/>
+      <c r="L39" s="166"/>
+      <c r="M39" s="166"/>
+      <c r="N39" s="166"/>
+      <c r="O39" s="166"/>
+      <c r="P39" s="166"/>
+      <c r="Q39" s="166"/>
+      <c r="R39" s="166"/>
+      <c r="S39" s="166"/>
+      <c r="T39" s="166"/>
+      <c r="U39" s="166"/>
+      <c r="V39" s="166"/>
+      <c r="W39" s="166"/>
+      <c r="X39" s="166"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="141"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="77" t="s">
+      <c r="B40" s="140"/>
+      <c r="C40" s="140">
+        <v>174</v>
+      </c>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="91"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="142" t="s">
+      <c r="B41" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A41" s="134" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="73"/>
       <c r="F41" s="73"/>
       <c r="G41" s="73"/>
       <c r="H41" s="73"/>
       <c r="I41" s="73"/>
-      <c r="J41" s="76"/>
+      <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="76"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="125"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="79"/>
       <c r="O41" s="125"/>
       <c r="P41" s="125"/>
-      <c r="Q41" s="127"/>
+      <c r="Q41" s="125"/>
       <c r="R41" s="127"/>
-      <c r="S41" s="80"/>
+      <c r="S41" s="127"/>
       <c r="T41" s="80"/>
       <c r="U41" s="80"/>
-      <c r="V41" s="79"/>
+      <c r="V41" s="80"/>
       <c r="W41" s="79"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X41" s="79"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="142"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="152"/>
-      <c r="F42" s="149"/>
+        <v>131</v>
+      </c>
+      <c r="B42" s="141"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
       <c r="I42" s="73"/>
-      <c r="J42" s="76"/>
+      <c r="J42" s="73"/>
       <c r="K42" s="76"/>
       <c r="L42" s="76"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="125"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="79"/>
       <c r="O42" s="125"/>
       <c r="P42" s="125"/>
-      <c r="Q42" s="127"/>
+      <c r="Q42" s="125"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="80"/>
+      <c r="S42" s="127"/>
       <c r="T42" s="80"/>
       <c r="U42" s="80"/>
-      <c r="V42" s="79"/>
+      <c r="V42" s="80"/>
       <c r="W42" s="79"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X42" s="79"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="134" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="78"/>
+        <v>151</v>
+      </c>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
       <c r="D43" s="78"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="73"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="148"/>
       <c r="H43" s="73"/>
       <c r="I43" s="73"/>
-      <c r="J43" s="76"/>
+      <c r="J43" s="73"/>
       <c r="K43" s="76"/>
       <c r="L43" s="76"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="125"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="79"/>
       <c r="O43" s="125"/>
       <c r="P43" s="125"/>
-      <c r="Q43" s="127"/>
+      <c r="Q43" s="125"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="80"/>
+      <c r="S43" s="127"/>
       <c r="T43" s="80"/>
       <c r="U43" s="80"/>
-      <c r="V43" s="79"/>
+      <c r="V43" s="80"/>
       <c r="W43" s="79"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="77"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="78"/>
+      <c r="X43" s="79"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
       <c r="D44" s="78"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="148"/>
       <c r="H44" s="73"/>
       <c r="I44" s="73"/>
-      <c r="J44" s="76"/>
+      <c r="J44" s="73"/>
       <c r="K44" s="76"/>
       <c r="L44" s="76"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="125"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="79"/>
       <c r="O44" s="125"/>
       <c r="P44" s="125"/>
-      <c r="Q44" s="127"/>
+      <c r="Q44" s="125"/>
       <c r="R44" s="127"/>
-      <c r="S44" s="80"/>
+      <c r="S44" s="127"/>
       <c r="T44" s="80"/>
       <c r="U44" s="80"/>
-      <c r="V44" s="79"/>
+      <c r="V44" s="80"/>
       <c r="W44" s="79"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X44" s="79"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="137"/>
       <c r="D45" s="76"/>
       <c r="E45" s="76"/>
       <c r="F45" s="76"/>
@@ -3484,26 +3630,27 @@
       <c r="K45" s="76"/>
       <c r="L45" s="76"/>
       <c r="M45" s="76"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="126"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="125"/>
       <c r="P45" s="126"/>
       <c r="Q45" s="126"/>
       <c r="R45" s="126"/>
-      <c r="S45" s="66"/>
+      <c r="S45" s="126"/>
       <c r="T45" s="66"/>
       <c r="U45" s="66"/>
       <c r="V45" s="66"/>
       <c r="W45" s="66"/>
-    </row>
-    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="X45" s="66"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="143"/>
-      <c r="C46" s="151"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
       <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="76"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
       <c r="G46" s="76"/>
       <c r="H46" s="76"/>
       <c r="I46" s="76"/>
@@ -3511,105 +3658,109 @@
       <c r="K46" s="76"/>
       <c r="L46" s="76"/>
       <c r="M46" s="76"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="127"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="125"/>
       <c r="P46" s="127"/>
       <c r="Q46" s="127"/>
       <c r="R46" s="127"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="66"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="82"/>
       <c r="U46" s="66"/>
       <c r="V46" s="66"/>
       <c r="W46" s="66"/>
-    </row>
-    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="X46" s="66"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="140"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="76"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
       <c r="I47" s="76"/>
       <c r="J47" s="76"/>
       <c r="K47" s="76"/>
       <c r="L47" s="76"/>
       <c r="M47" s="76"/>
-      <c r="N47" s="125"/>
-      <c r="O47" s="126"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="125"/>
       <c r="P47" s="126"/>
       <c r="Q47" s="126"/>
       <c r="R47" s="126"/>
-      <c r="S47" s="66"/>
+      <c r="S47" s="126"/>
       <c r="T47" s="66"/>
       <c r="U47" s="66"/>
       <c r="V47" s="66"/>
       <c r="W47" s="66"/>
-    </row>
-    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+      <c r="X47" s="66"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="144"/>
-      <c r="C48" s="76"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
       <c r="D48" s="76"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
       <c r="K48" s="76"/>
       <c r="L48" s="76"/>
       <c r="M48" s="76"/>
-      <c r="N48" s="125"/>
-      <c r="O48" s="126"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="125"/>
       <c r="P48" s="126"/>
       <c r="Q48" s="126"/>
       <c r="R48" s="126"/>
-      <c r="S48" s="66"/>
+      <c r="S48" s="126"/>
       <c r="T48" s="66"/>
       <c r="U48" s="66"/>
       <c r="V48" s="66"/>
       <c r="W48" s="66"/>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A49" s="163"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="164"/>
-      <c r="K49" s="164"/>
-      <c r="L49" s="164"/>
-      <c r="M49" s="164"/>
-      <c r="N49" s="164"/>
-      <c r="O49" s="164"/>
-      <c r="P49" s="164"/>
-      <c r="Q49" s="164"/>
-      <c r="R49" s="164"/>
-      <c r="S49" s="164"/>
-      <c r="T49" s="164"/>
-      <c r="U49" s="164"/>
-      <c r="V49" s="164"/>
-      <c r="W49" s="164"/>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X48" s="66"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="166"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="166"/>
+      <c r="N49" s="166"/>
+      <c r="O49" s="166"/>
+      <c r="P49" s="166"/>
+      <c r="Q49" s="166"/>
+      <c r="R49" s="166"/>
+      <c r="S49" s="166"/>
+      <c r="T49" s="166"/>
+      <c r="U49" s="166"/>
+      <c r="V49" s="166"/>
+      <c r="W49" s="166"/>
+      <c r="X49" s="166"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="145"/>
-      <c r="C50" s="95"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
       <c r="D50" s="95"/>
       <c r="E50" s="95"/>
-      <c r="F50" s="96"/>
+      <c r="F50" s="95"/>
       <c r="G50" s="96"/>
       <c r="H50" s="96"/>
       <c r="I50" s="96"/>
@@ -3620,242 +3771,251 @@
       <c r="N50" s="96"/>
       <c r="O50" s="96"/>
       <c r="P50" s="96"/>
-      <c r="Q50" s="97"/>
+      <c r="Q50" s="96"/>
       <c r="R50" s="97"/>
       <c r="S50" s="97"/>
       <c r="T50" s="97"/>
       <c r="U50" s="97"/>
-      <c r="V50" s="96"/>
+      <c r="V50" s="97"/>
       <c r="W50" s="96"/>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X50" s="96"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="142" t="s">
+      <c r="B51" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="73"/>
+      <c r="C51" s="141"/>
       <c r="D51" s="73"/>
       <c r="E51" s="73"/>
-      <c r="F51" s="76"/>
+      <c r="F51" s="73"/>
       <c r="G51" s="76"/>
       <c r="H51" s="76"/>
-      <c r="I51" s="73"/>
+      <c r="I51" s="76"/>
       <c r="J51" s="73"/>
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
       <c r="M51" s="73"/>
-      <c r="N51" s="128"/>
-      <c r="O51" s="127"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="128"/>
       <c r="P51" s="127"/>
       <c r="Q51" s="127"/>
       <c r="R51" s="127"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="66"/>
+      <c r="S51" s="127"/>
+      <c r="T51" s="82"/>
       <c r="U51" s="66"/>
-      <c r="V51" s="76"/>
+      <c r="V51" s="66"/>
       <c r="W51" s="76"/>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X51" s="76"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="139"/>
-      <c r="C52" s="73"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="138"/>
       <c r="D52" s="73"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
       <c r="I52" s="73"/>
       <c r="J52" s="73"/>
-      <c r="K52" s="76"/>
+      <c r="K52" s="73"/>
       <c r="L52" s="76"/>
       <c r="M52" s="76"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="127"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="125"/>
       <c r="P52" s="127"/>
       <c r="Q52" s="127"/>
       <c r="R52" s="127"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="66"/>
+      <c r="S52" s="127"/>
+      <c r="T52" s="82"/>
       <c r="U52" s="66"/>
-      <c r="V52" s="76"/>
+      <c r="V52" s="66"/>
       <c r="W52" s="76"/>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X52" s="76"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="73"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="76"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
       <c r="K53" s="76"/>
       <c r="L53" s="76"/>
       <c r="M53" s="76"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="126"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="125"/>
       <c r="P53" s="126"/>
       <c r="Q53" s="126"/>
       <c r="R53" s="126"/>
-      <c r="S53" s="66"/>
+      <c r="S53" s="126"/>
       <c r="T53" s="66"/>
       <c r="U53" s="66"/>
       <c r="V53" s="66"/>
       <c r="W53" s="66"/>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X53" s="66"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="139"/>
-      <c r="C54" s="73"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="138"/>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="153"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="76"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="152"/>
       <c r="L54" s="76"/>
       <c r="M54" s="76"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="126"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="125"/>
       <c r="P54" s="126"/>
       <c r="Q54" s="126"/>
       <c r="R54" s="126"/>
-      <c r="S54" s="66"/>
+      <c r="S54" s="126"/>
       <c r="T54" s="66"/>
       <c r="U54" s="66"/>
       <c r="V54" s="66"/>
       <c r="W54" s="66"/>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X54" s="66"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="138" t="s">
+      <c r="B55" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="73"/>
+      <c r="C55" s="138"/>
       <c r="D55" s="73"/>
       <c r="E55" s="73"/>
-      <c r="F55" s="76"/>
+      <c r="F55" s="73"/>
       <c r="G55" s="76"/>
-      <c r="H55" s="73"/>
+      <c r="H55" s="76"/>
       <c r="I55" s="73"/>
       <c r="J55" s="73"/>
-      <c r="K55" s="76"/>
+      <c r="K55" s="73"/>
       <c r="L55" s="76"/>
       <c r="M55" s="76"/>
-      <c r="N55" s="125"/>
-      <c r="O55" s="127"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="125"/>
       <c r="P55" s="127"/>
       <c r="Q55" s="127"/>
       <c r="R55" s="127"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="66"/>
+      <c r="S55" s="127"/>
+      <c r="T55" s="82"/>
       <c r="U55" s="66"/>
-      <c r="V55" s="76"/>
+      <c r="V55" s="66"/>
       <c r="W55" s="76"/>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X55" s="76"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="139"/>
-      <c r="C56" s="73"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="138"/>
       <c r="D56" s="73"/>
       <c r="E56" s="73"/>
-      <c r="F56" s="76"/>
+      <c r="F56" s="73"/>
       <c r="G56" s="76"/>
-      <c r="H56" s="153"/>
-      <c r="I56" s="153"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
       <c r="L56" s="76"/>
       <c r="M56" s="76"/>
-      <c r="N56" s="125"/>
-      <c r="O56" s="127"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="125"/>
       <c r="P56" s="127"/>
       <c r="Q56" s="127"/>
       <c r="R56" s="127"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="66"/>
+      <c r="S56" s="127"/>
+      <c r="T56" s="82"/>
       <c r="U56" s="66"/>
-      <c r="V56" s="76"/>
+      <c r="V56" s="66"/>
       <c r="W56" s="76"/>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X56" s="76"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="139"/>
-      <c r="C57" s="73"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="138"/>
       <c r="D57" s="73"/>
       <c r="E57" s="73"/>
-      <c r="F57" s="76"/>
+      <c r="F57" s="73"/>
       <c r="G57" s="76"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="154"/>
-      <c r="L57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="153"/>
       <c r="M57" s="76"/>
-      <c r="N57" s="125"/>
-      <c r="O57" s="127"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="125"/>
       <c r="P57" s="127"/>
       <c r="Q57" s="127"/>
       <c r="R57" s="127"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="66"/>
+      <c r="S57" s="127"/>
+      <c r="T57" s="82"/>
       <c r="U57" s="66"/>
-      <c r="V57" s="76"/>
+      <c r="V57" s="66"/>
       <c r="W57" s="76"/>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X57" s="76"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="139"/>
-      <c r="C58" s="73"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="138"/>
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
-      <c r="F58" s="76"/>
+      <c r="F58" s="73"/>
       <c r="G58" s="76"/>
-      <c r="H58" s="73"/>
+      <c r="H58" s="76"/>
       <c r="I58" s="73"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="66"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="127"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="152"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="153"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="126"/>
       <c r="P58" s="127"/>
       <c r="Q58" s="127"/>
       <c r="R58" s="127"/>
-      <c r="S58" s="82"/>
-      <c r="T58" s="66"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="82"/>
       <c r="U58" s="66"/>
-      <c r="V58" s="76"/>
+      <c r="V58" s="66"/>
       <c r="W58" s="76"/>
-    </row>
-    <row r="59" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X58" s="76"/>
+    </row>
+    <row r="59" spans="1:45" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="138" t="s">
+      <c r="B59" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="137"/>
       <c r="D59" s="76"/>
       <c r="E59" s="76"/>
       <c r="F59" s="76"/>
@@ -3863,92 +4023,95 @@
       <c r="H59" s="76"/>
       <c r="I59" s="76"/>
       <c r="J59" s="76"/>
-      <c r="K59" s="154"/>
-      <c r="L59" s="154"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="127"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="125"/>
       <c r="P59" s="127"/>
       <c r="Q59" s="127"/>
       <c r="R59" s="127"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="73"/>
+      <c r="S59" s="127"/>
+      <c r="T59" s="82"/>
       <c r="U59" s="73"/>
       <c r="V59" s="73"/>
       <c r="W59" s="73"/>
-      <c r="X59" s="61"/>
+      <c r="X59" s="73"/>
       <c r="Y59" s="61"/>
       <c r="Z59" s="61"/>
       <c r="AA59" s="61"/>
       <c r="AB59" s="61"/>
       <c r="AC59" s="61"/>
-    </row>
-    <row r="60" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AD59" s="61"/>
+    </row>
+    <row r="60" spans="1:45" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="139"/>
-      <c r="C60" s="73"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="138"/>
       <c r="D60" s="73"/>
       <c r="E60" s="73"/>
-      <c r="F60" s="76"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="76"/>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
       <c r="J60" s="76"/>
-      <c r="K60" s="154"/>
-      <c r="L60" s="154"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="125"/>
-      <c r="O60" s="127"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="125"/>
       <c r="P60" s="127"/>
       <c r="Q60" s="127"/>
       <c r="R60" s="127"/>
-      <c r="S60" s="82"/>
-      <c r="T60" s="73"/>
+      <c r="S60" s="127"/>
+      <c r="T60" s="82"/>
       <c r="U60" s="73"/>
       <c r="V60" s="73"/>
       <c r="W60" s="73"/>
-      <c r="X60" s="61"/>
+      <c r="X60" s="73"/>
       <c r="Y60" s="61"/>
       <c r="Z60" s="61"/>
       <c r="AA60" s="61"/>
       <c r="AB60" s="61"/>
       <c r="AC60" s="61"/>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="AD60" s="61"/>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="139"/>
-      <c r="C61" s="73"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="138"/>
       <c r="D61" s="73"/>
       <c r="E61" s="73"/>
-      <c r="F61" s="76"/>
+      <c r="F61" s="73"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
       <c r="I61" s="76"/>
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
-      <c r="N61" s="125"/>
-      <c r="O61" s="127"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="153"/>
+      <c r="N61" s="153"/>
+      <c r="O61" s="125"/>
       <c r="P61" s="127"/>
       <c r="Q61" s="127"/>
       <c r="R61" s="127"/>
-      <c r="S61" s="82"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="76"/>
+      <c r="S61" s="127"/>
+      <c r="T61" s="82"/>
+      <c r="U61" s="66"/>
       <c r="V61" s="76"/>
       <c r="W61" s="76"/>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A62" s="181" t="s">
+      <c r="X61" s="76"/>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A62" s="156" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="138"/>
-      <c r="C62" s="76"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
       <c r="D62" s="76"/>
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
@@ -3957,53 +4120,57 @@
       <c r="I62" s="76"/>
       <c r="J62" s="76"/>
       <c r="K62" s="76"/>
-      <c r="L62" s="184"/>
-      <c r="M62" s="184"/>
-      <c r="N62" s="125"/>
-      <c r="O62" s="127"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="125"/>
       <c r="P62" s="127"/>
       <c r="Q62" s="127"/>
       <c r="R62" s="127"/>
-      <c r="S62" s="182"/>
-      <c r="T62" s="183"/>
-      <c r="U62" s="76"/>
+      <c r="S62" s="127"/>
+      <c r="T62" s="157"/>
+      <c r="U62" s="158"/>
       <c r="V62" s="76"/>
       <c r="W62" s="76"/>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A63" s="163"/>
-      <c r="B63" s="164"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="164"/>
-      <c r="F63" s="164"/>
-      <c r="G63" s="164"/>
-      <c r="H63" s="164"/>
-      <c r="I63" s="164"/>
-      <c r="J63" s="164"/>
-      <c r="K63" s="164"/>
-      <c r="L63" s="164"/>
-      <c r="M63" s="164"/>
-      <c r="N63" s="164"/>
-      <c r="O63" s="164"/>
-      <c r="P63" s="164"/>
-      <c r="Q63" s="164"/>
-      <c r="R63" s="164"/>
-      <c r="S63" s="164"/>
-      <c r="T63" s="164"/>
-      <c r="U63" s="164"/>
-      <c r="V63" s="164"/>
-      <c r="W63" s="164"/>
-    </row>
-    <row r="64" spans="1:44" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X62" s="76"/>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A63" s="165"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="166"/>
+      <c r="E63" s="166"/>
+      <c r="F63" s="166"/>
+      <c r="G63" s="166"/>
+      <c r="H63" s="166"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="166"/>
+      <c r="K63" s="166"/>
+      <c r="L63" s="166"/>
+      <c r="M63" s="166"/>
+      <c r="N63" s="166"/>
+      <c r="O63" s="166"/>
+      <c r="P63" s="166"/>
+      <c r="Q63" s="166"/>
+      <c r="R63" s="166"/>
+      <c r="S63" s="166"/>
+      <c r="T63" s="166"/>
+      <c r="U63" s="166"/>
+      <c r="V63" s="166"/>
+      <c r="W63" s="166"/>
+      <c r="X63" s="166"/>
+    </row>
+    <row r="64" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="146"/>
-      <c r="C64" s="109"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145">
+        <v>320</v>
+      </c>
       <c r="D64" s="109"/>
       <c r="E64" s="109"/>
-      <c r="F64" s="110"/>
+      <c r="F64" s="109"/>
       <c r="G64" s="110"/>
       <c r="H64" s="110"/>
       <c r="I64" s="110"/>
@@ -4014,14 +4181,14 @@
       <c r="N64" s="110"/>
       <c r="O64" s="110"/>
       <c r="P64" s="110"/>
-      <c r="Q64" s="111"/>
+      <c r="Q64" s="110"/>
       <c r="R64" s="111"/>
       <c r="S64" s="111"/>
       <c r="T64" s="111"/>
       <c r="U64" s="111"/>
-      <c r="V64" s="110"/>
+      <c r="V64" s="111"/>
       <c r="W64" s="110"/>
-      <c r="X64" s="61"/>
+      <c r="X64" s="110"/>
       <c r="Y64" s="61"/>
       <c r="Z64" s="61"/>
       <c r="AA64" s="61"/>
@@ -4042,15 +4209,16 @@
       <c r="AP64" s="61"/>
       <c r="AQ64" s="61"/>
       <c r="AR64" s="61"/>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="AS64" s="61"/>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="142" t="s">
+      <c r="B65" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="76"/>
+      <c r="C65" s="141"/>
       <c r="D65" s="76"/>
       <c r="E65" s="76"/>
       <c r="F65" s="76"/>
@@ -4059,82 +4227,85 @@
       <c r="I65" s="76"/>
       <c r="J65" s="76"/>
       <c r="K65" s="76"/>
-      <c r="L65" s="73"/>
+      <c r="L65" s="76"/>
       <c r="M65" s="73"/>
-      <c r="N65" s="128"/>
+      <c r="N65" s="73"/>
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
       <c r="Q65" s="128"/>
       <c r="R65" s="128"/>
-      <c r="S65" s="73"/>
+      <c r="S65" s="128"/>
       <c r="T65" s="73"/>
-      <c r="U65" s="76"/>
+      <c r="U65" s="73"/>
       <c r="V65" s="76"/>
       <c r="W65" s="76"/>
-    </row>
-    <row r="66" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="X65" s="76"/>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="140"/>
-      <c r="C66" s="73"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="139"/>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
-      <c r="F66" s="76"/>
+      <c r="F66" s="73"/>
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
       <c r="I66" s="76"/>
       <c r="J66" s="76"/>
       <c r="K66" s="76"/>
-      <c r="L66" s="73"/>
+      <c r="L66" s="76"/>
       <c r="M66" s="73"/>
-      <c r="N66" s="128"/>
+      <c r="N66" s="73"/>
       <c r="O66" s="128"/>
       <c r="P66" s="128"/>
       <c r="Q66" s="128"/>
       <c r="R66" s="128"/>
-      <c r="S66" s="73"/>
-      <c r="T66" s="76"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="73"/>
       <c r="U66" s="76"/>
       <c r="V66" s="76"/>
       <c r="W66" s="76"/>
-    </row>
-    <row r="67" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="X66" s="76"/>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="140"/>
-      <c r="C67" s="73"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="139"/>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
-      <c r="F67" s="76"/>
+      <c r="F67" s="73"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
       <c r="I67" s="76"/>
       <c r="J67" s="76"/>
       <c r="K67" s="76"/>
-      <c r="L67" s="73"/>
+      <c r="L67" s="76"/>
       <c r="M67" s="73"/>
-      <c r="N67" s="128"/>
+      <c r="N67" s="73"/>
       <c r="O67" s="128"/>
       <c r="P67" s="128"/>
       <c r="Q67" s="128"/>
       <c r="R67" s="128"/>
-      <c r="S67" s="73"/>
+      <c r="S67" s="128"/>
       <c r="T67" s="73"/>
-      <c r="U67" s="76"/>
+      <c r="U67" s="73"/>
       <c r="V67" s="76"/>
       <c r="W67" s="76"/>
-    </row>
-    <row r="68" spans="1:44" ht="15" x14ac:dyDescent="0.15">
-      <c r="A68" s="155" t="s">
+      <c r="X67" s="76"/>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A68" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="140"/>
-      <c r="C68" s="73"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="139"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
-      <c r="F68" s="76"/>
+      <c r="F68" s="73"/>
       <c r="G68" s="76"/>
       <c r="H68" s="76"/>
       <c r="I68" s="76"/>
@@ -4142,694 +4313,541 @@
       <c r="K68" s="76"/>
       <c r="L68" s="76"/>
       <c r="M68" s="76"/>
-      <c r="N68" s="125"/>
-      <c r="O68" s="127"/>
+      <c r="N68" s="76"/>
+      <c r="O68" s="125"/>
       <c r="P68" s="127"/>
-      <c r="Q68" s="128"/>
+      <c r="Q68" s="127"/>
       <c r="R68" s="128"/>
-      <c r="S68" s="73"/>
+      <c r="S68" s="128"/>
       <c r="T68" s="73"/>
-      <c r="U68" s="76"/>
+      <c r="U68" s="73"/>
       <c r="V68" s="76"/>
       <c r="W68" s="76"/>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="X68" s="76"/>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="138" t="s">
+      <c r="B69" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="73"/>
+      <c r="C69" s="138"/>
       <c r="D69" s="73"/>
       <c r="E69" s="73"/>
-      <c r="F69" s="76"/>
+      <c r="F69" s="73"/>
       <c r="G69" s="76"/>
       <c r="H69" s="76"/>
       <c r="I69" s="76"/>
       <c r="J69" s="76"/>
       <c r="K69" s="76"/>
-      <c r="L69" s="73"/>
+      <c r="L69" s="76"/>
       <c r="M69" s="73"/>
-      <c r="N69" s="128"/>
+      <c r="N69" s="73"/>
       <c r="O69" s="128"/>
       <c r="P69" s="128"/>
       <c r="Q69" s="128"/>
       <c r="R69" s="128"/>
-      <c r="S69" s="73"/>
+      <c r="S69" s="128"/>
       <c r="T69" s="73"/>
-      <c r="U69" s="76"/>
+      <c r="U69" s="73"/>
       <c r="V69" s="76"/>
       <c r="W69" s="76"/>
-    </row>
-    <row r="70" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="X69" s="76"/>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="140"/>
-      <c r="C70" s="73"/>
+      <c r="B70" s="139"/>
+      <c r="C70" s="139"/>
       <c r="D70" s="73"/>
       <c r="E70" s="73"/>
-      <c r="F70" s="76"/>
+      <c r="F70" s="73"/>
       <c r="G70" s="76"/>
       <c r="H70" s="76"/>
       <c r="I70" s="76"/>
       <c r="J70" s="76"/>
       <c r="K70" s="76"/>
-      <c r="L70" s="185"/>
-      <c r="M70" s="185"/>
-      <c r="N70" s="186"/>
-      <c r="O70" s="128"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="159"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="160"/>
       <c r="P70" s="128"/>
       <c r="Q70" s="128"/>
       <c r="R70" s="128"/>
-      <c r="S70" s="73"/>
-      <c r="T70" s="76"/>
+      <c r="S70" s="128"/>
+      <c r="T70" s="73"/>
       <c r="U70" s="76"/>
       <c r="V70" s="76"/>
       <c r="W70" s="76"/>
-    </row>
-    <row r="71" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="X70" s="76"/>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="140"/>
-      <c r="C71" s="73"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="139"/>
       <c r="D71" s="73"/>
       <c r="E71" s="73"/>
-      <c r="F71" s="76"/>
+      <c r="F71" s="73"/>
       <c r="G71" s="76"/>
       <c r="H71" s="76"/>
       <c r="I71" s="76"/>
       <c r="J71" s="76"/>
       <c r="K71" s="76"/>
-      <c r="L71" s="73"/>
+      <c r="L71" s="76"/>
       <c r="M71" s="73"/>
-      <c r="N71" s="186"/>
-      <c r="O71" s="186"/>
-      <c r="P71" s="186"/>
-      <c r="Q71" s="128"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="160"/>
+      <c r="P71" s="160"/>
+      <c r="Q71" s="160"/>
       <c r="R71" s="128"/>
-      <c r="S71" s="73"/>
+      <c r="S71" s="128"/>
       <c r="T71" s="73"/>
-      <c r="U71" s="76"/>
+      <c r="U71" s="73"/>
       <c r="V71" s="76"/>
       <c r="W71" s="76"/>
-    </row>
-    <row r="72" spans="1:44" ht="15" x14ac:dyDescent="0.15">
+      <c r="X71" s="76"/>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="140"/>
-      <c r="C72" s="73"/>
+      <c r="B72" s="139"/>
+      <c r="C72" s="139"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="76"/>
+      <c r="F72" s="73"/>
       <c r="G72" s="76"/>
       <c r="H72" s="76"/>
       <c r="I72" s="76"/>
       <c r="J72" s="76"/>
       <c r="K72" s="76"/>
-      <c r="L72" s="73"/>
+      <c r="L72" s="76"/>
       <c r="M72" s="73"/>
-      <c r="N72" s="128"/>
+      <c r="N72" s="73"/>
       <c r="O72" s="128"/>
-      <c r="P72" s="186"/>
-      <c r="Q72" s="186"/>
-      <c r="R72" s="186"/>
-      <c r="S72" s="73"/>
+      <c r="P72" s="128"/>
+      <c r="Q72" s="160"/>
+      <c r="R72" s="160"/>
+      <c r="S72" s="160"/>
       <c r="T72" s="73"/>
-      <c r="U72" s="76"/>
+      <c r="U72" s="73"/>
       <c r="V72" s="76"/>
       <c r="W72" s="76"/>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A73" s="75"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="128"/>
-      <c r="O73" s="128"/>
-      <c r="P73" s="128"/>
-      <c r="Q73" s="128"/>
-      <c r="R73" s="128"/>
-      <c r="S73" s="73"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="76"/>
-      <c r="V73" s="76"/>
-      <c r="W73" s="76"/>
-    </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A74" s="75"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="128"/>
-      <c r="O74" s="128"/>
-      <c r="P74" s="128"/>
-      <c r="Q74" s="128"/>
-      <c r="R74" s="128"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="76"/>
-      <c r="V74" s="76"/>
-      <c r="W74" s="76"/>
-    </row>
-    <row r="75" spans="1:44" s="84" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="72"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="73"/>
-      <c r="N75" s="128"/>
-      <c r="O75" s="128"/>
-      <c r="P75" s="128"/>
-      <c r="Q75" s="128"/>
-      <c r="R75" s="128"/>
-      <c r="S75" s="73"/>
-      <c r="T75" s="76"/>
-      <c r="U75" s="76"/>
-      <c r="V75" s="76"/>
-      <c r="W75" s="76"/>
-      <c r="X75" s="61"/>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="61"/>
-      <c r="AB75" s="61"/>
-      <c r="AC75" s="61"/>
-      <c r="AD75" s="61"/>
-      <c r="AE75" s="61"/>
-      <c r="AF75" s="61"/>
-      <c r="AG75" s="61"/>
-      <c r="AH75" s="61"/>
-      <c r="AI75" s="61"/>
-      <c r="AJ75" s="61"/>
-      <c r="AK75" s="61"/>
-      <c r="AL75" s="61"/>
-      <c r="AM75" s="61"/>
-      <c r="AN75" s="61"/>
-      <c r="AO75" s="61"/>
-      <c r="AP75" s="61"/>
-      <c r="AQ75" s="61"/>
-      <c r="AR75" s="61"/>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A76" s="75"/>
-      <c r="B76" s="140"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="73"/>
-      <c r="M76" s="73"/>
-      <c r="N76" s="128"/>
-      <c r="O76" s="128"/>
-      <c r="P76" s="128"/>
-      <c r="Q76" s="128"/>
-      <c r="R76" s="128"/>
-      <c r="S76" s="73"/>
-      <c r="T76" s="73"/>
-      <c r="U76" s="73"/>
-      <c r="V76" s="73"/>
-      <c r="W76" s="73"/>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A77" s="75"/>
-      <c r="B77" s="140"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="73"/>
-      <c r="M77" s="73"/>
-      <c r="N77" s="128"/>
-      <c r="O77" s="128"/>
-      <c r="P77" s="128"/>
-      <c r="Q77" s="128"/>
-      <c r="R77" s="128"/>
-      <c r="S77" s="73"/>
-      <c r="T77" s="73"/>
-      <c r="U77" s="76"/>
-      <c r="V77" s="76"/>
-      <c r="W77" s="76"/>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A78" s="75"/>
-      <c r="B78" s="140"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="76"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="128"/>
-      <c r="O78" s="128"/>
-      <c r="P78" s="128"/>
-      <c r="Q78" s="128"/>
-      <c r="R78" s="128"/>
-      <c r="S78" s="73"/>
-      <c r="T78" s="73"/>
-      <c r="U78" s="73"/>
-      <c r="V78" s="73"/>
-      <c r="W78" s="73"/>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A79" s="168"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
-      <c r="E79" s="169"/>
-      <c r="F79" s="169"/>
-      <c r="G79" s="169"/>
-      <c r="H79" s="169"/>
-      <c r="I79" s="169"/>
-      <c r="J79" s="169"/>
-      <c r="K79" s="169"/>
-      <c r="L79" s="169"/>
-      <c r="M79" s="169"/>
-      <c r="N79" s="169"/>
-      <c r="O79" s="169"/>
-      <c r="P79" s="169"/>
-      <c r="Q79" s="169"/>
-      <c r="R79" s="169"/>
-      <c r="S79" s="169"/>
-      <c r="T79" s="169"/>
-      <c r="U79" s="169"/>
-      <c r="V79" s="169"/>
-      <c r="W79" s="169"/>
-    </row>
-    <row r="80" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="112" t="s">
+      <c r="X72" s="76"/>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A73" s="167"/>
+      <c r="B73" s="168"/>
+      <c r="C73" s="168"/>
+      <c r="D73" s="168"/>
+      <c r="E73" s="168"/>
+      <c r="F73" s="168"/>
+      <c r="G73" s="168"/>
+      <c r="H73" s="168"/>
+      <c r="I73" s="168"/>
+      <c r="J73" s="168"/>
+      <c r="K73" s="168"/>
+      <c r="L73" s="168"/>
+      <c r="M73" s="168"/>
+      <c r="N73" s="168"/>
+      <c r="O73" s="168"/>
+      <c r="P73" s="168"/>
+      <c r="Q73" s="168"/>
+      <c r="R73" s="168"/>
+      <c r="S73" s="168"/>
+      <c r="T73" s="168"/>
+      <c r="U73" s="168"/>
+      <c r="V73" s="168"/>
+      <c r="W73" s="168"/>
+      <c r="X73" s="168"/>
+    </row>
+    <row r="74" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B80" s="147"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="113"/>
-      <c r="F80" s="113"/>
-      <c r="G80" s="113"/>
-      <c r="H80" s="113"/>
-      <c r="I80" s="113"/>
-      <c r="J80" s="113"/>
-      <c r="K80" s="113"/>
-      <c r="L80" s="113"/>
-      <c r="M80" s="113"/>
-      <c r="N80" s="113"/>
-      <c r="O80" s="113"/>
-      <c r="P80" s="113"/>
-      <c r="Q80" s="113"/>
-      <c r="R80" s="113"/>
-      <c r="S80" s="113"/>
-      <c r="T80" s="113"/>
-      <c r="U80" s="113"/>
-      <c r="V80" s="113"/>
-      <c r="W80" s="113"/>
-      <c r="X80" s="119"/>
-      <c r="Y80" s="119"/>
-      <c r="Z80" s="119"/>
-      <c r="AA80" s="119"/>
-      <c r="AB80" s="119"/>
-      <c r="AC80" s="119"/>
-      <c r="AD80" s="119"/>
-      <c r="AE80" s="119"/>
-      <c r="AF80" s="119"/>
-      <c r="AG80" s="119"/>
-      <c r="AH80" s="119"/>
-      <c r="AI80" s="119"/>
-      <c r="AJ80" s="119"/>
-      <c r="AK80" s="119"/>
-      <c r="AL80" s="119"/>
-      <c r="AM80" s="119"/>
-      <c r="AN80" s="119"/>
-      <c r="AO80" s="119"/>
-      <c r="AP80" s="119"/>
-      <c r="AQ80" s="119"/>
-      <c r="AR80" s="119"/>
-    </row>
-    <row r="81" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="131" t="s">
+      <c r="B74" s="146"/>
+      <c r="C74" s="146">
+        <v>114</v>
+      </c>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="113"/>
+      <c r="M74" s="113"/>
+      <c r="N74" s="113"/>
+      <c r="O74" s="113"/>
+      <c r="P74" s="113"/>
+      <c r="Q74" s="113"/>
+      <c r="R74" s="113"/>
+      <c r="S74" s="113"/>
+      <c r="T74" s="113"/>
+      <c r="U74" s="113"/>
+      <c r="V74" s="113"/>
+      <c r="W74" s="113"/>
+      <c r="X74" s="113"/>
+      <c r="Y74" s="119"/>
+      <c r="Z74" s="119"/>
+      <c r="AA74" s="119"/>
+      <c r="AB74" s="119"/>
+      <c r="AC74" s="119"/>
+      <c r="AD74" s="119"/>
+      <c r="AE74" s="119"/>
+      <c r="AF74" s="119"/>
+      <c r="AG74" s="119"/>
+      <c r="AH74" s="119"/>
+      <c r="AI74" s="119"/>
+      <c r="AJ74" s="119"/>
+      <c r="AK74" s="119"/>
+      <c r="AL74" s="119"/>
+      <c r="AM74" s="119"/>
+      <c r="AN74" s="119"/>
+      <c r="AO74" s="119"/>
+      <c r="AP74" s="119"/>
+      <c r="AQ74" s="119"/>
+      <c r="AR74" s="119"/>
+      <c r="AS74" s="119"/>
+    </row>
+    <row r="75" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="142" t="s">
+      <c r="B75" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="131"/>
-      <c r="H81" s="131"/>
-      <c r="I81" s="131"/>
-      <c r="J81" s="131"/>
-      <c r="K81" s="131"/>
-      <c r="L81" s="131"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="130"/>
-      <c r="O81" s="130"/>
-      <c r="P81" s="130"/>
-      <c r="Q81" s="130"/>
-      <c r="R81" s="130"/>
-      <c r="S81" s="187"/>
-      <c r="T81" s="187"/>
-      <c r="U81" s="131"/>
-      <c r="V81" s="131"/>
-      <c r="W81" s="131"/>
-      <c r="X81" s="119"/>
-      <c r="Y81" s="119"/>
-      <c r="Z81" s="119"/>
-      <c r="AA81" s="119"/>
-      <c r="AB81" s="119"/>
-      <c r="AC81" s="119"/>
-      <c r="AD81" s="119"/>
-      <c r="AE81" s="119"/>
-      <c r="AF81" s="119"/>
-      <c r="AG81" s="119"/>
-      <c r="AH81" s="119"/>
-      <c r="AI81" s="119"/>
-      <c r="AJ81" s="119"/>
-      <c r="AK81" s="119"/>
-      <c r="AL81" s="119"/>
-      <c r="AM81" s="119"/>
-      <c r="AN81" s="119"/>
-      <c r="AO81" s="119"/>
-      <c r="AP81" s="119"/>
-      <c r="AQ81" s="119"/>
-      <c r="AR81" s="119"/>
-    </row>
-    <row r="82" spans="1:44" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="131" t="s">
+      <c r="C75" s="141"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="131"/>
+      <c r="L75" s="131"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
+      <c r="O75" s="130"/>
+      <c r="P75" s="130"/>
+      <c r="Q75" s="130"/>
+      <c r="R75" s="130"/>
+      <c r="S75" s="130"/>
+      <c r="T75" s="161"/>
+      <c r="U75" s="161"/>
+      <c r="V75" s="131"/>
+      <c r="W75" s="131"/>
+      <c r="X75" s="131"/>
+      <c r="Y75" s="119"/>
+      <c r="Z75" s="119"/>
+      <c r="AA75" s="119"/>
+      <c r="AB75" s="119"/>
+      <c r="AC75" s="119"/>
+      <c r="AD75" s="119"/>
+      <c r="AE75" s="119"/>
+      <c r="AF75" s="119"/>
+      <c r="AG75" s="119"/>
+      <c r="AH75" s="119"/>
+      <c r="AI75" s="119"/>
+      <c r="AJ75" s="119"/>
+      <c r="AK75" s="119"/>
+      <c r="AL75" s="119"/>
+      <c r="AM75" s="119"/>
+      <c r="AN75" s="119"/>
+      <c r="AO75" s="119"/>
+      <c r="AP75" s="119"/>
+      <c r="AQ75" s="119"/>
+      <c r="AR75" s="119"/>
+      <c r="AS75" s="119"/>
+    </row>
+    <row r="76" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="138" t="s">
+      <c r="B76" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="131"/>
-      <c r="H82" s="131"/>
-      <c r="I82" s="131"/>
-      <c r="J82" s="131"/>
-      <c r="K82" s="131"/>
-      <c r="L82" s="131"/>
-      <c r="M82" s="131"/>
-      <c r="N82" s="130"/>
-      <c r="O82" s="130"/>
-      <c r="P82" s="130"/>
-      <c r="Q82" s="130"/>
-      <c r="R82" s="187"/>
-      <c r="S82" s="187"/>
-      <c r="T82" s="131"/>
-      <c r="U82" s="131"/>
-      <c r="V82" s="131"/>
-      <c r="W82" s="131"/>
-      <c r="X82" s="119"/>
-      <c r="Y82" s="119"/>
-      <c r="Z82" s="119"/>
-      <c r="AA82" s="119"/>
-      <c r="AB82" s="119"/>
-      <c r="AC82" s="119"/>
-      <c r="AD82" s="119"/>
-      <c r="AE82" s="119"/>
-      <c r="AF82" s="119"/>
-      <c r="AG82" s="119"/>
-      <c r="AH82" s="119"/>
-      <c r="AI82" s="119"/>
-      <c r="AJ82" s="119"/>
-      <c r="AK82" s="119"/>
-      <c r="AL82" s="119"/>
-      <c r="AM82" s="119"/>
-      <c r="AN82" s="119"/>
-      <c r="AO82" s="119"/>
-      <c r="AP82" s="119"/>
-      <c r="AQ82" s="119"/>
-      <c r="AR82" s="119"/>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A83" s="93" t="s">
+      <c r="C76" s="137"/>
+      <c r="D76" s="131"/>
+      <c r="E76" s="131"/>
+      <c r="F76" s="131"/>
+      <c r="G76" s="131"/>
+      <c r="H76" s="131"/>
+      <c r="I76" s="131"/>
+      <c r="J76" s="131"/>
+      <c r="K76" s="131"/>
+      <c r="L76" s="131"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="131"/>
+      <c r="O76" s="130"/>
+      <c r="P76" s="130"/>
+      <c r="Q76" s="130"/>
+      <c r="R76" s="130"/>
+      <c r="S76" s="161"/>
+      <c r="T76" s="161"/>
+      <c r="U76" s="131"/>
+      <c r="V76" s="131"/>
+      <c r="W76" s="131"/>
+      <c r="X76" s="131"/>
+      <c r="Y76" s="119"/>
+      <c r="Z76" s="119"/>
+      <c r="AA76" s="119"/>
+      <c r="AB76" s="119"/>
+      <c r="AC76" s="119"/>
+      <c r="AD76" s="119"/>
+      <c r="AE76" s="119"/>
+      <c r="AF76" s="119"/>
+      <c r="AG76" s="119"/>
+      <c r="AH76" s="119"/>
+      <c r="AI76" s="119"/>
+      <c r="AJ76" s="119"/>
+      <c r="AK76" s="119"/>
+      <c r="AL76" s="119"/>
+      <c r="AM76" s="119"/>
+      <c r="AN76" s="119"/>
+      <c r="AO76" s="119"/>
+      <c r="AP76" s="119"/>
+      <c r="AQ76" s="119"/>
+      <c r="AR76" s="119"/>
+      <c r="AS76" s="119"/>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A77" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="138" t="s">
+      <c r="B77" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="93"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="93"/>
-      <c r="H83" s="93"/>
-      <c r="I83" s="93"/>
-      <c r="J83" s="93"/>
-      <c r="K83" s="93"/>
-      <c r="L83" s="93"/>
-      <c r="M83" s="93"/>
-      <c r="N83" s="92"/>
-      <c r="O83" s="92"/>
-      <c r="P83" s="92"/>
-      <c r="Q83" s="188"/>
-      <c r="R83" s="188"/>
-      <c r="S83" s="93"/>
-      <c r="T83" s="93"/>
-      <c r="U83" s="93"/>
-      <c r="V83" s="93"/>
-      <c r="W83" s="93"/>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A84" s="161"/>
-      <c r="B84" s="162"/>
-      <c r="C84" s="162"/>
-      <c r="D84" s="162"/>
-      <c r="E84" s="162"/>
-      <c r="F84" s="162"/>
-      <c r="G84" s="162"/>
-      <c r="H84" s="162"/>
-      <c r="I84" s="162"/>
-      <c r="J84" s="162"/>
-      <c r="K84" s="162"/>
-      <c r="L84" s="162"/>
-      <c r="M84" s="162"/>
-      <c r="N84" s="162"/>
-      <c r="O84" s="162"/>
-      <c r="P84" s="162"/>
-      <c r="Q84" s="162"/>
-      <c r="R84" s="162"/>
-      <c r="S84" s="162"/>
-      <c r="T84" s="162"/>
-      <c r="U84" s="162"/>
-      <c r="V84" s="162"/>
-      <c r="W84" s="162"/>
-    </row>
-    <row r="85" spans="1:44" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="114" t="s">
+      <c r="C77" s="137"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="93"/>
+      <c r="M77" s="93"/>
+      <c r="N77" s="93"/>
+      <c r="O77" s="92"/>
+      <c r="P77" s="92"/>
+      <c r="Q77" s="92"/>
+      <c r="R77" s="162"/>
+      <c r="S77" s="162"/>
+      <c r="T77" s="93"/>
+      <c r="U77" s="93"/>
+      <c r="V77" s="93"/>
+      <c r="W77" s="93"/>
+      <c r="X77" s="93"/>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A78" s="167"/>
+      <c r="B78" s="168"/>
+      <c r="C78" s="168"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="168"/>
+      <c r="H78" s="168"/>
+      <c r="I78" s="168"/>
+      <c r="J78" s="168"/>
+      <c r="K78" s="168"/>
+      <c r="L78" s="168"/>
+      <c r="M78" s="168"/>
+      <c r="N78" s="168"/>
+      <c r="O78" s="168"/>
+      <c r="P78" s="168"/>
+      <c r="Q78" s="168"/>
+      <c r="R78" s="168"/>
+      <c r="S78" s="168"/>
+      <c r="T78" s="168"/>
+      <c r="U78" s="168"/>
+      <c r="V78" s="168"/>
+      <c r="W78" s="168"/>
+      <c r="X78" s="168"/>
+    </row>
+    <row r="79" spans="1:45" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B85" s="148"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="115"/>
-      <c r="F85" s="116"/>
-      <c r="G85" s="116"/>
-      <c r="H85" s="116"/>
-      <c r="I85" s="116"/>
-      <c r="J85" s="116"/>
-      <c r="K85" s="116"/>
-      <c r="L85" s="116"/>
-      <c r="M85" s="116"/>
-      <c r="N85" s="116"/>
-      <c r="O85" s="116"/>
-      <c r="P85" s="116"/>
-      <c r="Q85" s="117"/>
-      <c r="R85" s="117"/>
-      <c r="S85" s="117"/>
-      <c r="T85" s="117"/>
-      <c r="U85" s="117"/>
-      <c r="V85" s="116"/>
-      <c r="W85" s="116"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="61"/>
-      <c r="Z85" s="61"/>
-      <c r="AA85" s="61"/>
-      <c r="AB85" s="61"/>
-      <c r="AC85" s="61"/>
-      <c r="AD85" s="61"/>
-      <c r="AE85" s="61"/>
-      <c r="AF85" s="61"/>
-      <c r="AG85" s="61"/>
-      <c r="AH85" s="61"/>
-      <c r="AI85" s="61"/>
-      <c r="AJ85" s="61"/>
-      <c r="AK85" s="61"/>
-      <c r="AL85" s="61"/>
-      <c r="AM85" s="61"/>
-      <c r="AN85" s="61"/>
-      <c r="AO85" s="61"/>
-      <c r="AP85" s="61"/>
-      <c r="AQ85" s="61"/>
-      <c r="AR85" s="61"/>
-    </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A86" s="85" t="s">
+      <c r="B79" s="147"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="116"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116"/>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="117"/>
+      <c r="S79" s="117"/>
+      <c r="T79" s="117"/>
+      <c r="U79" s="117"/>
+      <c r="V79" s="117"/>
+      <c r="W79" s="116"/>
+      <c r="X79" s="116"/>
+      <c r="Y79" s="61"/>
+      <c r="Z79" s="61"/>
+      <c r="AA79" s="61"/>
+      <c r="AB79" s="61"/>
+      <c r="AC79" s="61"/>
+      <c r="AD79" s="61"/>
+      <c r="AE79" s="61"/>
+      <c r="AF79" s="61"/>
+      <c r="AG79" s="61"/>
+      <c r="AH79" s="61"/>
+      <c r="AI79" s="61"/>
+      <c r="AJ79" s="61"/>
+      <c r="AK79" s="61"/>
+      <c r="AL79" s="61"/>
+      <c r="AM79" s="61"/>
+      <c r="AN79" s="61"/>
+      <c r="AO79" s="61"/>
+      <c r="AP79" s="61"/>
+      <c r="AQ79" s="61"/>
+      <c r="AR79" s="61"/>
+      <c r="AS79" s="61"/>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A80" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="132"/>
-      <c r="D86" s="132"/>
-      <c r="E86" s="132"/>
-      <c r="F86" s="132"/>
-      <c r="G86" s="132"/>
-      <c r="H86" s="132"/>
-      <c r="I86" s="132"/>
-      <c r="J86" s="132"/>
-      <c r="K86" s="132"/>
-      <c r="L86" s="132"/>
-      <c r="M86" s="132"/>
-      <c r="N86" s="133"/>
-      <c r="O86" s="133"/>
-      <c r="P86" s="133"/>
-      <c r="Q86" s="133"/>
-      <c r="R86" s="133"/>
-      <c r="S86" s="132"/>
-      <c r="T86" s="132"/>
-      <c r="U86" s="132"/>
-      <c r="V86" s="132"/>
-      <c r="W86" s="132"/>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A90" s="170"/>
-      <c r="B90" s="170"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="170"/>
-      <c r="E90" s="170"/>
-      <c r="F90" s="170"/>
-      <c r="G90" s="170"/>
-      <c r="H90" s="170"/>
-      <c r="I90" s="170"/>
-      <c r="J90" s="170"/>
-      <c r="K90" s="170"/>
-      <c r="L90" s="170"/>
-      <c r="M90" s="170"/>
-      <c r="N90" s="170"/>
-      <c r="O90" s="170"/>
-      <c r="P90" s="170"/>
-      <c r="Q90" s="170"/>
-      <c r="R90" s="170"/>
-      <c r="S90" s="170"/>
-      <c r="T90" s="170"/>
-      <c r="U90" s="170"/>
-      <c r="V90" s="170"/>
-      <c r="W90" s="170"/>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A91" s="157"/>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
-      <c r="H91" s="156"/>
-      <c r="I91" s="156"/>
-      <c r="J91" s="156"/>
-      <c r="K91" s="156"/>
-      <c r="L91" s="156"/>
-      <c r="M91" s="156"/>
-      <c r="N91" s="156"/>
-      <c r="O91" s="156"/>
-      <c r="P91" s="156"/>
-      <c r="Q91" s="156"/>
-      <c r="R91" s="156"/>
-      <c r="S91" s="156"/>
-      <c r="T91" s="156"/>
-      <c r="U91" s="156"/>
-      <c r="V91" s="156"/>
-      <c r="W91" s="156"/>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A92" s="156"/>
-      <c r="B92" s="156"/>
-      <c r="C92" s="156"/>
-      <c r="D92" s="156"/>
-      <c r="E92" s="156"/>
-      <c r="F92" s="156"/>
-      <c r="G92" s="156"/>
-      <c r="H92" s="156"/>
-      <c r="I92" s="156"/>
-      <c r="J92" s="156"/>
-      <c r="K92" s="156"/>
-      <c r="L92" s="156"/>
-      <c r="M92" s="156"/>
-      <c r="N92" s="156"/>
-      <c r="O92" s="156"/>
-      <c r="P92" s="156"/>
-      <c r="Q92" s="156"/>
-      <c r="R92" s="156"/>
-      <c r="S92" s="156"/>
-      <c r="T92" s="156"/>
-      <c r="U92" s="156"/>
-      <c r="V92" s="156"/>
-      <c r="W92" s="156"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="132"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="132"/>
+      <c r="G80" s="132"/>
+      <c r="H80" s="132"/>
+      <c r="I80" s="132"/>
+      <c r="J80" s="132"/>
+      <c r="K80" s="132"/>
+      <c r="L80" s="132"/>
+      <c r="M80" s="132"/>
+      <c r="N80" s="132"/>
+      <c r="O80" s="133"/>
+      <c r="P80" s="133"/>
+      <c r="Q80" s="133"/>
+      <c r="R80" s="133"/>
+      <c r="S80" s="133"/>
+      <c r="T80" s="132"/>
+      <c r="U80" s="132"/>
+      <c r="V80" s="132"/>
+      <c r="W80" s="132"/>
+      <c r="X80" s="132"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84" s="169"/>
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="169"/>
+      <c r="G84" s="169"/>
+      <c r="H84" s="169"/>
+      <c r="I84" s="169"/>
+      <c r="J84" s="169"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="169"/>
+      <c r="M84" s="169"/>
+      <c r="N84" s="169"/>
+      <c r="O84" s="169"/>
+      <c r="P84" s="169"/>
+      <c r="Q84" s="169"/>
+      <c r="R84" s="169"/>
+      <c r="S84" s="169"/>
+      <c r="T84" s="169"/>
+      <c r="U84" s="169"/>
+      <c r="V84" s="169"/>
+      <c r="W84" s="169"/>
+      <c r="X84" s="169"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85" s="170"/>
+      <c r="B85" s="163"/>
+      <c r="C85" s="163"/>
+      <c r="D85" s="163"/>
+      <c r="E85" s="163"/>
+      <c r="F85" s="163"/>
+      <c r="G85" s="163"/>
+      <c r="H85" s="163"/>
+      <c r="I85" s="163"/>
+      <c r="J85" s="163"/>
+      <c r="K85" s="163"/>
+      <c r="L85" s="163"/>
+      <c r="M85" s="163"/>
+      <c r="N85" s="163"/>
+      <c r="O85" s="163"/>
+      <c r="P85" s="163"/>
+      <c r="Q85" s="163"/>
+      <c r="R85" s="163"/>
+      <c r="S85" s="163"/>
+      <c r="T85" s="163"/>
+      <c r="U85" s="163"/>
+      <c r="V85" s="163"/>
+      <c r="W85" s="163"/>
+      <c r="X85" s="163"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86" s="163"/>
+      <c r="B86" s="163"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="163"/>
+      <c r="G86" s="163"/>
+      <c r="H86" s="163"/>
+      <c r="I86" s="163"/>
+      <c r="J86" s="163"/>
+      <c r="K86" s="163"/>
+      <c r="L86" s="163"/>
+      <c r="M86" s="163"/>
+      <c r="N86" s="163"/>
+      <c r="O86" s="163"/>
+      <c r="P86" s="163"/>
+      <c r="Q86" s="163"/>
+      <c r="R86" s="163"/>
+      <c r="S86" s="163"/>
+      <c r="T86" s="163"/>
+      <c r="U86" s="163"/>
+      <c r="V86" s="163"/>
+      <c r="W86" s="163"/>
+      <c r="X86" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A92:W92"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A19:W19"/>
-    <mergeCell ref="A21:W21"/>
-    <mergeCell ref="A38:W38"/>
-    <mergeCell ref="A49:W49"/>
-    <mergeCell ref="A79:W79"/>
-    <mergeCell ref="A90:W90"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A91:W91"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C2:W2"/>
-    <mergeCell ref="A84:W84"/>
-    <mergeCell ref="A63:W63"/>
-    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="A85:X85"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="A78:X78"/>
+    <mergeCell ref="A63:X63"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A86:X86"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A22:X22"/>
+    <mergeCell ref="A39:X39"/>
+    <mergeCell ref="A49:X49"/>
+    <mergeCell ref="A73:X73"/>
+    <mergeCell ref="A84:X84"/>
   </mergeCells>
-  <conditionalFormatting sqref="A46:B46">
+  <conditionalFormatting sqref="A46:C46">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4841,7 +4859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B47">
+  <conditionalFormatting sqref="A47:C47">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4853,7 +4871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4865,7 +4883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -4901,7 +4919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:B67">
+  <conditionalFormatting sqref="A66:C67">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4913,7 +4931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:B68">
+  <conditionalFormatting sqref="A68:C68">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4925,7 +4943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B70">
+  <conditionalFormatting sqref="A70:C70">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4937,7 +4955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B72">
+  <conditionalFormatting sqref="A72:C72">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4949,43 +4967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:B74">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:B78">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:B75">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
+  <conditionalFormatting sqref="A58:C58">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4997,7 +4979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B71">
+  <conditionalFormatting sqref="A71:C71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5009,19 +4991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:B77">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B36 A32:A34">
+  <conditionalFormatting sqref="A36:C37 A33:A35">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5046,38 +5016,38 @@
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="43.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="171" t="s">
+    <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-    </row>
-    <row r="3" spans="2:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="171"/>
-      <c r="C3" s="172" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+    </row>
+    <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173" t="s">
+      <c r="D3" s="176"/>
+      <c r="E3" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="173"/>
-    </row>
-    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="176"/>
+    </row>
+    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
@@ -5094,14 +5064,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="53"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +5092,7 @@
         <v>8.2982791586998079</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -5142,7 +5112,7 @@
         <v>1.6061185468451242</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -5162,7 +5132,7 @@
         <v>2.4091778202676863</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -5182,7 +5152,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -5202,7 +5172,7 @@
         <v>0.66921606118546839</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -5222,14 +5192,14 @@
         <v>0.93690248565965584</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="52"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -5250,7 +5220,7 @@
         <v>6.8833652007648185</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -5271,7 +5241,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -5291,7 +5261,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -5311,7 +5281,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5332,7 +5302,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -5352,7 +5322,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -5372,7 +5342,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -5392,7 +5362,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5413,7 +5383,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5433,7 +5403,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5453,7 +5423,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -5474,7 +5444,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5494,14 +5464,14 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="58"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -5522,7 +5492,7 @@
         <v>15.678776290630974</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5543,7 +5513,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
@@ -5563,7 +5533,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -5583,7 +5553,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -5604,7 +5574,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -5624,7 +5594,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -5644,7 +5614,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -5664,7 +5634,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
@@ -5684,7 +5654,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -5705,7 +5675,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>33</v>
       </c>
@@ -5725,7 +5695,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5745,7 +5715,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -5766,7 +5736,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -5786,7 +5756,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -5806,14 +5776,14 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
@@ -5834,7 +5804,7 @@
         <v>43.977055449330784</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -5855,7 +5825,7 @@
         <v>9.1778202676864247</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -5875,7 +5845,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
@@ -5895,7 +5865,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -5916,7 +5886,7 @@
         <v>12.619502868068833</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
@@ -5936,7 +5906,7 @@
         <v>3.4416826003824093</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -5956,7 +5926,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>44</v>
       </c>
@@ -5976,7 +5946,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5997,7 +5967,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>46</v>
       </c>
@@ -6017,7 +5987,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
@@ -6037,7 +6007,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>48</v>
       </c>
@@ -6058,7 +6028,7 @@
         <v>16.061185468451242</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -6078,7 +6048,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
@@ -6098,7 +6068,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
@@ -6118,14 +6088,14 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="2"/>
       <c r="E58" s="60"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
@@ -6146,7 +6116,7 @@
         <v>14.531548757170171</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>53</v>
       </c>
@@ -6167,7 +6137,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>54</v>
       </c>
@@ -6187,7 +6157,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>55</v>
       </c>
@@ -6208,7 +6178,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
@@ -6228,7 +6198,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>80</v>
       </c>
@@ -6248,7 +6218,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
@@ -6268,7 +6238,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
@@ -6289,7 +6259,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
@@ -6309,7 +6279,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>60</v>
       </c>
@@ -6329,7 +6299,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>61</v>
       </c>
@@ -6350,7 +6320,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
@@ -6370,14 +6340,14 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="48" t="s">
         <v>63</v>
       </c>
@@ -6398,7 +6368,7 @@
         <v>10.630975143403441</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>64</v>
       </c>
@@ -6419,7 +6389,7 @@
         <v>2.1414913957934991</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>65</v>
       </c>
@@ -6439,7 +6409,7 @@
         <v>0.9177820267686424</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>81</v>
       </c>
@@ -6459,7 +6429,7 @@
         <v>0.4588910133843212</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>66</v>
       </c>
@@ -6479,7 +6449,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>67</v>
       </c>
@@ -6499,7 +6469,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>68</v>
       </c>
@@ -6519,7 +6489,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>69</v>
       </c>
@@ -6539,7 +6509,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>70</v>
       </c>
@@ -6559,7 +6529,7 @@
         <v>3.5181644359464626</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>71</v>
       </c>
@@ -6579,14 +6549,14 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="55"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="5" t="s">
         <v>72</v>
       </c>
@@ -6606,30 +6576,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="179"/>
-      <c r="C84" s="179"/>
-      <c r="D84" s="179"/>
-      <c r="E84" s="179"/>
-      <c r="F84" s="179"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="180"/>
-      <c r="F85" s="180"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="174" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="182"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="181"/>
+      <c r="C85" s="181"/>
+      <c r="D85" s="181"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="175"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="180"/>
-      <c r="F86" s="180"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="178"/>
+      <c r="D86" s="179"/>
+      <c r="E86" s="183"/>
+      <c r="F86" s="183"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
@@ -6639,10 +6609,10 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="180"/>
-      <c r="F87" s="180"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E87" s="183"/>
+      <c r="F87" s="183"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
@@ -6652,8 +6622,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="180"/>
-      <c r="F88" s="180"/>
+      <c r="E88" s="183"/>
+      <c r="F88" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7128,26 +7098,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -7304,32 +7254,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7346,4 +7291,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Desktop/P2Pflichtenheft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91797B5-E924-4097-B22A-3BF2E61DC320}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037FBEE-37C2-F043-9C1C-35CC007EA4FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="44760" windowHeight="22720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
     <sheet name="Projektbudget" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$63:$X$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$64:$X$84</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="168">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -449,18 +449,9 @@
     <t>5.3 Validierung Elektrotechnik</t>
   </si>
   <si>
-    <t>2.1.1 GUI Anfroderungen</t>
-  </si>
-  <si>
     <t>3.1.1 GUI entwerfen</t>
   </si>
   <si>
-    <t>3.1.2 Klassendiagramm erstellen</t>
-  </si>
-  <si>
-    <t>3.1.3 Programmablauf definieren</t>
-  </si>
-  <si>
     <t>6. Reserve</t>
   </si>
   <si>
@@ -509,12 +500,6 @@
     <t>2.2.3 Schaltungsberechnung erarbeiten</t>
   </si>
   <si>
-    <t>2.1.2 GUI Möglichkeiten ausarbeiten</t>
-  </si>
-  <si>
-    <t>2.1.3 Optionale Ziele ausarbeiten</t>
-  </si>
-  <si>
     <t>3.2.1 Schaltungsberechnung mit Matlab</t>
   </si>
   <si>
@@ -555,6 +540,24 @@
   </si>
   <si>
     <t>Arbeitsstunden</t>
+  </si>
+  <si>
+    <t>2.1.2 GUI Anfroderungen</t>
+  </si>
+  <si>
+    <t>2.1.3 GUI Möglichkeiten ausarbeiten</t>
+  </si>
+  <si>
+    <t>2.1.4 Optionale Ziele ausarbeiten</t>
+  </si>
+  <si>
+    <t>2.1.1 Recherche nützlicher Java-Bibliotheken</t>
+  </si>
+  <si>
+    <t>3.1.2 Programmablauf definieren</t>
+  </si>
+  <si>
+    <t>3.1.3 Klassendiagramm erstellen</t>
   </si>
 </sst>
 </file>
@@ -1512,69 +1515,6 @@
     <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -1582,9 +1522,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -1592,14 +1529,80 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard 2 2" xfId="2" xr:uid="{4C1626EA-4BB4-40D1-A1BB-A1A6B41C9248}"/>
   </cellStyles>
@@ -1633,7 +1636,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1934,7 +1937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1966,7 +1969,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2305,56 +2308,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS86"/>
+  <dimension ref="A1:AS87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:X73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="194" zoomScaleNormal="194" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.69921875" style="61" customWidth="1"/>
-    <col min="2" max="3" width="4.69921875" style="129" customWidth="1"/>
-    <col min="4" max="24" width="6.69921875" style="61" customWidth="1"/>
-    <col min="25" max="16384" width="10.796875" style="61"/>
+    <col min="1" max="1" width="45.6640625" style="61" customWidth="1"/>
+    <col min="2" max="3" width="4.6640625" style="129" customWidth="1"/>
+    <col min="4" max="24" width="6.6640625" style="61" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="163"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="171">
+    <row r="1" spans="1:24" ht="10.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A2" s="171"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="173">
         <v>2019</v>
       </c>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="173"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="175"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="171"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
       <c r="D3" s="63" t="s">
         <v>87</v>
       </c>
@@ -2388,13 +2391,13 @@
       <c r="N3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="171" t="s">
+      <c r="O3" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
       <c r="T3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2411,10 +2414,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4" s="171"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="63">
         <v>18.02</v>
       </c>
@@ -2479,16 +2482,16 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
       <c r="F6" s="122"/>
@@ -2511,33 +2514,33 @@
       <c r="W6" s="122"/>
       <c r="X6" s="122"/>
     </row>
-    <row r="7" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="66" t="s">
         <v>1</v>
       </c>
@@ -2567,7 +2570,7 @@
       <c r="W8" s="63"/>
       <c r="X8" s="63"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="66" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2600,7 @@
       <c r="W9" s="63"/>
       <c r="X9" s="63"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2627,7 +2630,7 @@
       <c r="W10" s="63"/>
       <c r="X10" s="63"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
         <v>104</v>
       </c>
@@ -2657,7 +2660,7 @@
       <c r="W11" s="63"/>
       <c r="X11" s="63"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
         <v>105</v>
       </c>
@@ -2687,7 +2690,7 @@
       <c r="W12" s="63"/>
       <c r="X12" s="63"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
@@ -2717,7 +2720,7 @@
       <c r="W13" s="63"/>
       <c r="X13" s="63"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
         <v>108</v>
       </c>
@@ -2746,7 +2749,7 @@
       <c r="W14" s="63"/>
       <c r="X14" s="63"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
         <v>109</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="66" t="s">
         <v>110</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
         <v>111</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
@@ -2864,8 +2867,8 @@
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
     </row>
-    <row r="19" spans="1:25" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+    <row r="19" spans="1:25" ht="6.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="164"/>
       <c r="B19" s="155"/>
       <c r="C19" s="155"/>
       <c r="D19" s="155"/>
@@ -2890,93 +2893,93 @@
       <c r="W19" s="155"/>
       <c r="X19" s="155"/>
     </row>
-    <row r="20" spans="1:25" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="186"/>
-      <c r="B20" s="187" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="187" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
-      <c r="X20" s="188"/>
-      <c r="Y20" s="189"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="190" t="s">
+    <row r="20" spans="1:25" ht="85.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="165"/>
+      <c r="B20" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="167"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A21" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="192"/>
-      <c r="Q21" s="192"/>
-      <c r="R21" s="192"/>
-      <c r="S21" s="192"/>
-      <c r="T21" s="192"/>
-      <c r="U21" s="192"/>
-      <c r="V21" s="192"/>
-      <c r="W21" s="192"/>
-      <c r="X21" s="192"/>
-      <c r="Y21" s="193"/>
-    </row>
-    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="169"/>
+      <c r="P21" s="169"/>
+      <c r="Q21" s="169"/>
+      <c r="R21" s="169"/>
+      <c r="S21" s="169"/>
+      <c r="T21" s="169"/>
+      <c r="U21" s="169"/>
+      <c r="V21" s="169"/>
+      <c r="W21" s="169"/>
+      <c r="X21" s="169"/>
+      <c r="Y21" s="170"/>
+    </row>
+    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="182"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="182"/>
+      <c r="S22" s="182"/>
+      <c r="T22" s="182"/>
+      <c r="U22" s="182"/>
+      <c r="V22" s="182"/>
+      <c r="W22" s="182"/>
+      <c r="X22" s="182"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="100" t="s">
         <v>5</v>
       </c>
@@ -3006,12 +3009,12 @@
       <c r="W23" s="102"/>
       <c r="X23" s="103"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="72" t="s">
         <v>117</v>
       </c>
       <c r="B24" s="137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C24" s="137"/>
       <c r="D24" s="104"/>
@@ -3036,12 +3039,12 @@
       <c r="W24" s="104"/>
       <c r="X24" s="104"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C25" s="138"/>
       <c r="D25" s="73"/>
@@ -3066,9 +3069,9 @@
       <c r="W25" s="66"/>
       <c r="X25" s="66"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" s="83" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B26" s="138"/>
       <c r="C26" s="138"/>
@@ -3094,9 +3097,9 @@
       <c r="W26" s="66"/>
       <c r="X26" s="66"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="83" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B27" s="138"/>
       <c r="C27" s="138"/>
@@ -3122,9 +3125,9 @@
       <c r="W27" s="66"/>
       <c r="X27" s="66"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B28" s="138"/>
       <c r="C28" s="138"/>
@@ -3150,12 +3153,12 @@
       <c r="W28" s="66"/>
       <c r="X28" s="66"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="72" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C29" s="138"/>
       <c r="D29" s="73"/>
@@ -3180,9 +3183,9 @@
       <c r="W29" s="66"/>
       <c r="X29" s="66"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B30" s="138"/>
       <c r="C30" s="138"/>
@@ -3208,12 +3211,12 @@
       <c r="W30" s="66"/>
       <c r="X30" s="66"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="87" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C31" s="138"/>
       <c r="D31" s="73"/>
@@ -3238,12 +3241,12 @@
       <c r="W31" s="66"/>
       <c r="X31" s="66"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="87" t="s">
         <v>114</v>
       </c>
       <c r="B32" s="137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C32" s="138"/>
       <c r="D32" s="73"/>
@@ -3268,12 +3271,12 @@
       <c r="W32" s="66"/>
       <c r="X32" s="66"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="87" t="s">
         <v>115</v>
       </c>
       <c r="B33" s="137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C33" s="138"/>
       <c r="D33" s="73"/>
@@ -3298,12 +3301,12 @@
       <c r="W33" s="66"/>
       <c r="X33" s="66"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="87" t="s">
         <v>116</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C34" s="138"/>
       <c r="D34" s="73"/>
@@ -3328,12 +3331,12 @@
       <c r="W34" s="107"/>
       <c r="X34" s="107"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="137" t="s">
         <v>142</v>
-      </c>
-      <c r="B35" s="137" t="s">
-        <v>145</v>
       </c>
       <c r="C35" s="138"/>
       <c r="D35" s="73"/>
@@ -3358,9 +3361,9 @@
       <c r="W35" s="107"/>
       <c r="X35" s="107"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B36" s="139"/>
       <c r="C36" s="139"/>
@@ -3386,9 +3389,9 @@
       <c r="W36" s="107"/>
       <c r="X36" s="107"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B37" s="139"/>
       <c r="C37" s="139"/>
@@ -3414,7 +3417,7 @@
       <c r="W37" s="107"/>
       <c r="X37" s="107"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" s="72" t="s">
         <v>122</v>
       </c>
@@ -3442,33 +3445,33 @@
       <c r="W38" s="106"/>
       <c r="X38" s="106"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="165"/>
-      <c r="B39" s="166"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
-      <c r="K39" s="166"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="166"/>
-      <c r="N39" s="166"/>
-      <c r="O39" s="166"/>
-      <c r="P39" s="166"/>
-      <c r="Q39" s="166"/>
-      <c r="R39" s="166"/>
-      <c r="S39" s="166"/>
-      <c r="T39" s="166"/>
-      <c r="U39" s="166"/>
-      <c r="V39" s="166"/>
-      <c r="W39" s="166"/>
-      <c r="X39" s="166"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A39" s="178"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="179"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="179"/>
+      <c r="O39" s="179"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
+      <c r="S39" s="179"/>
+      <c r="T39" s="179"/>
+      <c r="U39" s="179"/>
+      <c r="V39" s="179"/>
+      <c r="W39" s="179"/>
+      <c r="X39" s="179"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="88" t="s">
         <v>11</v>
       </c>
@@ -3498,12 +3501,12 @@
       <c r="W40" s="91"/>
       <c r="X40" s="91"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" s="77" t="s">
         <v>119</v>
       </c>
       <c r="B41" s="141" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C41" s="141"/>
       <c r="D41" s="78"/>
@@ -3528,9 +3531,9 @@
       <c r="W41" s="79"/>
       <c r="X41" s="79"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="134" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B42" s="141"/>
       <c r="C42" s="141"/>
@@ -3556,16 +3559,16 @@
       <c r="W42" s="79"/>
       <c r="X42" s="79"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43" s="134" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B43" s="141"/>
       <c r="C43" s="141"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
       <c r="F43" s="151"/>
-      <c r="G43" s="148"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="73"/>
       <c r="I43" s="73"/>
       <c r="J43" s="73"/>
@@ -3584,9 +3587,9 @@
       <c r="W43" s="79"/>
       <c r="X43" s="79"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44" s="134" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B44" s="141"/>
       <c r="C44" s="141"/>
@@ -3612,45 +3615,45 @@
       <c r="W44" s="79"/>
       <c r="X44" s="79"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="137" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="137"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A45" s="134" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
       <c r="K45" s="76"/>
       <c r="L45" s="76"/>
       <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
+      <c r="N45" s="79"/>
       <c r="O45" s="125"/>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="126"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="125"/>
+      <c r="R45" s="127"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="79"/>
+      <c r="X45" s="79"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A46" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="137"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
       <c r="G46" s="76"/>
       <c r="H46" s="76"/>
       <c r="I46" s="76"/>
@@ -3660,27 +3663,27 @@
       <c r="M46" s="76"/>
       <c r="N46" s="76"/>
       <c r="O46" s="125"/>
-      <c r="P46" s="127"/>
-      <c r="Q46" s="127"/>
-      <c r="R46" s="127"/>
-      <c r="S46" s="127"/>
-      <c r="T46" s="82"/>
+      <c r="P46" s="126"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="126"/>
+      <c r="T46" s="66"/>
       <c r="U46" s="66"/>
       <c r="V46" s="66"/>
       <c r="W46" s="66"/>
       <c r="X46" s="66"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
+        <v>146</v>
+      </c>
+      <c r="B47" s="142"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
       <c r="I47" s="76"/>
       <c r="J47" s="76"/>
       <c r="K47" s="76"/>
@@ -3688,29 +3691,29 @@
       <c r="M47" s="76"/>
       <c r="N47" s="76"/>
       <c r="O47" s="125"/>
-      <c r="P47" s="126"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="126"/>
-      <c r="T47" s="66"/>
+      <c r="P47" s="127"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="82"/>
       <c r="U47" s="66"/>
       <c r="V47" s="66"/>
       <c r="W47" s="66"/>
       <c r="X47" s="66"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
+    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A48" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="139"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="148"/>
       <c r="G48" s="149"/>
       <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="149"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
       <c r="K48" s="76"/>
       <c r="L48" s="76"/>
       <c r="M48" s="76"/>
@@ -3726,108 +3729,108 @@
       <c r="W48" s="66"/>
       <c r="X48" s="66"/>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="166"/>
-      <c r="M49" s="166"/>
-      <c r="N49" s="166"/>
-      <c r="O49" s="166"/>
-      <c r="P49" s="166"/>
-      <c r="Q49" s="166"/>
-      <c r="R49" s="166"/>
-      <c r="S49" s="166"/>
-      <c r="T49" s="166"/>
-      <c r="U49" s="166"/>
-      <c r="V49" s="166"/>
-      <c r="W49" s="166"/>
-      <c r="X49" s="166"/>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
+    <row r="49" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A49" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="126"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="126"/>
+      <c r="S49" s="126"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="66"/>
+      <c r="W49" s="66"/>
+      <c r="X49" s="66"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A50" s="178"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="179"/>
+      <c r="F50" s="179"/>
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="179"/>
+      <c r="J50" s="179"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="179"/>
+      <c r="M50" s="179"/>
+      <c r="N50" s="179"/>
+      <c r="O50" s="179"/>
+      <c r="P50" s="179"/>
+      <c r="Q50" s="179"/>
+      <c r="R50" s="179"/>
+      <c r="S50" s="179"/>
+      <c r="T50" s="179"/>
+      <c r="U50" s="179"/>
+      <c r="V50" s="179"/>
+      <c r="W50" s="179"/>
+      <c r="X50" s="179"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A51" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="97"/>
-      <c r="S50" s="97"/>
-      <c r="T50" s="97"/>
-      <c r="U50" s="97"/>
-      <c r="V50" s="97"/>
-      <c r="W50" s="96"/>
-      <c r="X50" s="96"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A51" s="72" t="s">
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="97"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="97"/>
+      <c r="U51" s="97"/>
+      <c r="V51" s="97"/>
+      <c r="W51" s="96"/>
+      <c r="X51" s="96"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A52" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="141"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="128"/>
-      <c r="P51" s="127"/>
-      <c r="Q51" s="127"/>
-      <c r="R51" s="127"/>
-      <c r="S51" s="127"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="66"/>
-      <c r="V51" s="66"/>
-      <c r="W51" s="76"/>
-      <c r="X51" s="76"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A52" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
+      <c r="B52" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="141"/>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="73"/>
       <c r="K52" s="73"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="125"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="128"/>
       <c r="P52" s="127"/>
       <c r="Q52" s="127"/>
       <c r="R52" s="127"/>
@@ -3838,48 +3841,48 @@
       <c r="W52" s="76"/>
       <c r="X52" s="76"/>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A53" s="83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="76"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
       <c r="L53" s="76"/>
       <c r="M53" s="76"/>
       <c r="N53" s="76"/>
       <c r="O53" s="125"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="66"/>
+      <c r="P53" s="127"/>
+      <c r="Q53" s="127"/>
+      <c r="R53" s="127"/>
+      <c r="S53" s="127"/>
+      <c r="T53" s="82"/>
       <c r="U53" s="66"/>
       <c r="V53" s="66"/>
-      <c r="W53" s="66"/>
-      <c r="X53" s="66"/>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="W53" s="76"/>
+      <c r="X53" s="76"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A54" s="83" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B54" s="138"/>
       <c r="C54" s="138"/>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="152"/>
-      <c r="K54" s="152"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
       <c r="L54" s="76"/>
       <c r="M54" s="76"/>
       <c r="N54" s="76"/>
@@ -3894,50 +3897,50 @@
       <c r="W54" s="66"/>
       <c r="X54" s="66"/>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="137" t="s">
-        <v>147</v>
-      </c>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A55" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="138"/>
       <c r="C55" s="138"/>
       <c r="D55" s="73"/>
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
       <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
+      <c r="H55" s="152"/>
       <c r="I55" s="73"/>
       <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
+      <c r="K55" s="76"/>
       <c r="L55" s="76"/>
       <c r="M55" s="76"/>
       <c r="N55" s="76"/>
       <c r="O55" s="125"/>
-      <c r="P55" s="127"/>
-      <c r="Q55" s="127"/>
-      <c r="R55" s="127"/>
-      <c r="S55" s="127"/>
-      <c r="T55" s="82"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="126"/>
+      <c r="T55" s="66"/>
       <c r="U55" s="66"/>
       <c r="V55" s="66"/>
-      <c r="W55" s="76"/>
-      <c r="X55" s="76"/>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A56" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="138"/>
+      <c r="W55" s="66"/>
+      <c r="X55" s="66"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A56" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="137" t="s">
+        <v>144</v>
+      </c>
       <c r="C56" s="138"/>
       <c r="D56" s="73"/>
       <c r="E56" s="73"/>
       <c r="F56" s="73"/>
       <c r="G56" s="76"/>
       <c r="H56" s="76"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="152"/>
-      <c r="K56" s="152"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
       <c r="L56" s="76"/>
       <c r="M56" s="76"/>
       <c r="N56" s="76"/>
@@ -3952,9 +3955,9 @@
       <c r="W56" s="76"/>
       <c r="X56" s="76"/>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="83" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B57" s="138"/>
       <c r="C57" s="138"/>
@@ -3963,10 +3966,10 @@
       <c r="F57" s="73"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
-      <c r="I57" s="73"/>
+      <c r="I57" s="152"/>
       <c r="J57" s="152"/>
       <c r="K57" s="152"/>
-      <c r="L57" s="153"/>
+      <c r="L57" s="76"/>
       <c r="M57" s="76"/>
       <c r="N57" s="76"/>
       <c r="O57" s="125"/>
@@ -3980,9 +3983,9 @@
       <c r="W57" s="76"/>
       <c r="X57" s="76"/>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A58" s="83" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B58" s="138"/>
       <c r="C58" s="138"/>
@@ -3992,12 +3995,12 @@
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
       <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
+      <c r="J58" s="152"/>
       <c r="K58" s="152"/>
       <c r="L58" s="153"/>
-      <c r="M58" s="153"/>
-      <c r="N58" s="66"/>
-      <c r="O58" s="126"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="125"/>
       <c r="P58" s="127"/>
       <c r="Q58" s="127"/>
       <c r="R58" s="127"/>
@@ -4008,51 +4011,45 @@
       <c r="W58" s="76"/>
       <c r="X58" s="76"/>
     </row>
-    <row r="59" spans="1:45" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="137"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A59" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="138"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
       <c r="G59" s="76"/>
       <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="152"/>
       <c r="L59" s="153"/>
       <c r="M59" s="153"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="125"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="126"/>
       <c r="P59" s="127"/>
       <c r="Q59" s="127"/>
       <c r="R59" s="127"/>
       <c r="S59" s="127"/>
       <c r="T59" s="82"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="61"/>
-      <c r="AB59" s="61"/>
-      <c r="AC59" s="61"/>
-      <c r="AD59" s="61"/>
-    </row>
-    <row r="60" spans="1:45" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+      <c r="W59" s="76"/>
+      <c r="X59" s="76"/>
+    </row>
+    <row r="60" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="137"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
       <c r="G60" s="76"/>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
@@ -4078,9 +4075,9 @@
       <c r="AC60" s="61"/>
       <c r="AD60" s="61"/>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="83" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B61" s="138"/>
       <c r="C61" s="138"/>
@@ -4092,164 +4089,170 @@
       <c r="I61" s="76"/>
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
+      <c r="L61" s="153"/>
       <c r="M61" s="153"/>
-      <c r="N61" s="153"/>
+      <c r="N61" s="76"/>
       <c r="O61" s="125"/>
       <c r="P61" s="127"/>
       <c r="Q61" s="127"/>
       <c r="R61" s="127"/>
       <c r="S61" s="127"/>
       <c r="T61" s="82"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="76"/>
-      <c r="W61" s="76"/>
-      <c r="X61" s="76"/>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A62" s="156" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="61"/>
+      <c r="Z61" s="61"/>
+      <c r="AA61" s="61"/>
+      <c r="AB61" s="61"/>
+      <c r="AC61" s="61"/>
+      <c r="AD61" s="61"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A62" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="138"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
       <c r="G62" s="76"/>
       <c r="H62" s="76"/>
       <c r="I62" s="76"/>
       <c r="J62" s="76"/>
       <c r="K62" s="76"/>
       <c r="L62" s="76"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="76"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
       <c r="O62" s="125"/>
       <c r="P62" s="127"/>
       <c r="Q62" s="127"/>
       <c r="R62" s="127"/>
       <c r="S62" s="127"/>
-      <c r="T62" s="157"/>
-      <c r="U62" s="158"/>
+      <c r="T62" s="82"/>
+      <c r="U62" s="66"/>
       <c r="V62" s="76"/>
       <c r="W62" s="76"/>
       <c r="X62" s="76"/>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A63" s="165"/>
-      <c r="B63" s="166"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="166"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="166"/>
-      <c r="I63" s="166"/>
-      <c r="J63" s="166"/>
-      <c r="K63" s="166"/>
-      <c r="L63" s="166"/>
-      <c r="M63" s="166"/>
-      <c r="N63" s="166"/>
-      <c r="O63" s="166"/>
-      <c r="P63" s="166"/>
-      <c r="Q63" s="166"/>
-      <c r="R63" s="166"/>
-      <c r="S63" s="166"/>
-      <c r="T63" s="166"/>
-      <c r="U63" s="166"/>
-      <c r="V63" s="166"/>
-      <c r="W63" s="166"/>
-      <c r="X63" s="166"/>
-    </row>
-    <row r="64" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="108" t="s">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A63" s="156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="125"/>
+      <c r="P63" s="127"/>
+      <c r="Q63" s="127"/>
+      <c r="R63" s="127"/>
+      <c r="S63" s="127"/>
+      <c r="T63" s="157"/>
+      <c r="U63" s="158"/>
+      <c r="V63" s="76"/>
+      <c r="W63" s="76"/>
+      <c r="X63" s="76"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A64" s="178"/>
+      <c r="B64" s="179"/>
+      <c r="C64" s="179"/>
+      <c r="D64" s="179"/>
+      <c r="E64" s="179"/>
+      <c r="F64" s="179"/>
+      <c r="G64" s="179"/>
+      <c r="H64" s="179"/>
+      <c r="I64" s="179"/>
+      <c r="J64" s="179"/>
+      <c r="K64" s="179"/>
+      <c r="L64" s="179"/>
+      <c r="M64" s="179"/>
+      <c r="N64" s="179"/>
+      <c r="O64" s="179"/>
+      <c r="P64" s="179"/>
+      <c r="Q64" s="179"/>
+      <c r="R64" s="179"/>
+      <c r="S64" s="179"/>
+      <c r="T64" s="179"/>
+      <c r="U64" s="179"/>
+      <c r="V64" s="179"/>
+      <c r="W64" s="179"/>
+      <c r="X64" s="179"/>
+    </row>
+    <row r="65" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145">
+      <c r="B65" s="145"/>
+      <c r="C65" s="145">
         <v>320</v>
       </c>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="110"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="110"/>
-      <c r="K64" s="110"/>
-      <c r="L64" s="110"/>
-      <c r="M64" s="110"/>
-      <c r="N64" s="110"/>
-      <c r="O64" s="110"/>
-      <c r="P64" s="110"/>
-      <c r="Q64" s="110"/>
-      <c r="R64" s="111"/>
-      <c r="S64" s="111"/>
-      <c r="T64" s="111"/>
-      <c r="U64" s="111"/>
-      <c r="V64" s="111"/>
-      <c r="W64" s="110"/>
-      <c r="X64" s="110"/>
-      <c r="Y64" s="61"/>
-      <c r="Z64" s="61"/>
-      <c r="AA64" s="61"/>
-      <c r="AB64" s="61"/>
-      <c r="AC64" s="61"/>
-      <c r="AD64" s="61"/>
-      <c r="AE64" s="61"/>
-      <c r="AF64" s="61"/>
-      <c r="AG64" s="61"/>
-      <c r="AH64" s="61"/>
-      <c r="AI64" s="61"/>
-      <c r="AJ64" s="61"/>
-      <c r="AK64" s="61"/>
-      <c r="AL64" s="61"/>
-      <c r="AM64" s="61"/>
-      <c r="AN64" s="61"/>
-      <c r="AO64" s="61"/>
-      <c r="AP64" s="61"/>
-      <c r="AQ64" s="61"/>
-      <c r="AR64" s="61"/>
-      <c r="AS64" s="61"/>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="110"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="111"/>
+      <c r="S65" s="111"/>
+      <c r="T65" s="111"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="110"/>
+      <c r="X65" s="110"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="61"/>
+      <c r="AF65" s="61"/>
+      <c r="AG65" s="61"/>
+      <c r="AH65" s="61"/>
+      <c r="AI65" s="61"/>
+      <c r="AJ65" s="61"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="61"/>
+      <c r="AM65" s="61"/>
+      <c r="AN65" s="61"/>
+      <c r="AO65" s="61"/>
+      <c r="AP65" s="61"/>
+      <c r="AQ65" s="61"/>
+      <c r="AR65" s="61"/>
+      <c r="AS65" s="61"/>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A66" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="141"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="128"/>
-      <c r="P65" s="128"/>
-      <c r="Q65" s="128"/>
-      <c r="R65" s="128"/>
-      <c r="S65" s="128"/>
-      <c r="T65" s="73"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="76"/>
-      <c r="W65" s="76"/>
-      <c r="X65" s="76"/>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="139"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
+      <c r="B66" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="141"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
       <c r="I66" s="76"/>
@@ -4264,14 +4267,14 @@
       <c r="R66" s="128"/>
       <c r="S66" s="128"/>
       <c r="T66" s="73"/>
-      <c r="U66" s="76"/>
+      <c r="U66" s="73"/>
       <c r="V66" s="76"/>
       <c r="W66" s="76"/>
       <c r="X66" s="76"/>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="75" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B67" s="139"/>
       <c r="C67" s="139"/>
@@ -4292,14 +4295,14 @@
       <c r="R67" s="128"/>
       <c r="S67" s="128"/>
       <c r="T67" s="73"/>
-      <c r="U67" s="73"/>
+      <c r="U67" s="76"/>
       <c r="V67" s="76"/>
       <c r="W67" s="76"/>
       <c r="X67" s="76"/>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A68" s="154" t="s">
-        <v>157</v>
+    <row r="68" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A68" s="75" t="s">
+        <v>151</v>
       </c>
       <c r="B68" s="139"/>
       <c r="C68" s="139"/>
@@ -4312,11 +4315,11 @@
       <c r="J68" s="76"/>
       <c r="K68" s="76"/>
       <c r="L68" s="76"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="76"/>
-      <c r="O68" s="125"/>
-      <c r="P68" s="127"/>
-      <c r="Q68" s="127"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="128"/>
+      <c r="Q68" s="128"/>
       <c r="R68" s="128"/>
       <c r="S68" s="128"/>
       <c r="T68" s="73"/>
@@ -4325,14 +4328,12 @@
       <c r="W68" s="76"/>
       <c r="X68" s="76"/>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A69" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="137" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="138"/>
+    <row r="69" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A69" s="154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="139"/>
+      <c r="C69" s="139"/>
       <c r="D69" s="73"/>
       <c r="E69" s="73"/>
       <c r="F69" s="73"/>
@@ -4342,11 +4343,11 @@
       <c r="J69" s="76"/>
       <c r="K69" s="76"/>
       <c r="L69" s="76"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="128"/>
-      <c r="P69" s="128"/>
-      <c r="Q69" s="128"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="127"/>
+      <c r="Q69" s="127"/>
       <c r="R69" s="128"/>
       <c r="S69" s="128"/>
       <c r="T69" s="73"/>
@@ -4355,12 +4356,14 @@
       <c r="W69" s="76"/>
       <c r="X69" s="76"/>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A70" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70" s="139"/>
-      <c r="C70" s="139"/>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A70" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="138"/>
       <c r="D70" s="73"/>
       <c r="E70" s="73"/>
       <c r="F70" s="73"/>
@@ -4370,22 +4373,22 @@
       <c r="J70" s="76"/>
       <c r="K70" s="76"/>
       <c r="L70" s="76"/>
-      <c r="M70" s="159"/>
-      <c r="N70" s="159"/>
-      <c r="O70" s="160"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="128"/>
       <c r="P70" s="128"/>
       <c r="Q70" s="128"/>
       <c r="R70" s="128"/>
       <c r="S70" s="128"/>
       <c r="T70" s="73"/>
-      <c r="U70" s="76"/>
+      <c r="U70" s="73"/>
       <c r="V70" s="76"/>
       <c r="W70" s="76"/>
       <c r="X70" s="76"/>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="75" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B71" s="139"/>
       <c r="C71" s="139"/>
@@ -4398,22 +4401,22 @@
       <c r="J71" s="76"/>
       <c r="K71" s="76"/>
       <c r="L71" s="76"/>
-      <c r="M71" s="73"/>
-      <c r="N71" s="73"/>
+      <c r="M71" s="159"/>
+      <c r="N71" s="159"/>
       <c r="O71" s="160"/>
-      <c r="P71" s="160"/>
-      <c r="Q71" s="160"/>
+      <c r="P71" s="128"/>
+      <c r="Q71" s="128"/>
       <c r="R71" s="128"/>
       <c r="S71" s="128"/>
       <c r="T71" s="73"/>
-      <c r="U71" s="73"/>
+      <c r="U71" s="76"/>
       <c r="V71" s="76"/>
       <c r="W71" s="76"/>
       <c r="X71" s="76"/>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="75" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B72" s="139"/>
       <c r="C72" s="139"/>
@@ -4428,123 +4431,100 @@
       <c r="L72" s="76"/>
       <c r="M72" s="73"/>
       <c r="N72" s="73"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="128"/>
+      <c r="O72" s="160"/>
+      <c r="P72" s="160"/>
       <c r="Q72" s="160"/>
-      <c r="R72" s="160"/>
-      <c r="S72" s="160"/>
+      <c r="R72" s="128"/>
+      <c r="S72" s="128"/>
       <c r="T72" s="73"/>
       <c r="U72" s="73"/>
       <c r="V72" s="76"/>
       <c r="W72" s="76"/>
       <c r="X72" s="76"/>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A73" s="167"/>
-      <c r="B73" s="168"/>
-      <c r="C73" s="168"/>
-      <c r="D73" s="168"/>
-      <c r="E73" s="168"/>
-      <c r="F73" s="168"/>
-      <c r="G73" s="168"/>
-      <c r="H73" s="168"/>
-      <c r="I73" s="168"/>
-      <c r="J73" s="168"/>
-      <c r="K73" s="168"/>
-      <c r="L73" s="168"/>
-      <c r="M73" s="168"/>
-      <c r="N73" s="168"/>
-      <c r="O73" s="168"/>
-      <c r="P73" s="168"/>
-      <c r="Q73" s="168"/>
-      <c r="R73" s="168"/>
-      <c r="S73" s="168"/>
-      <c r="T73" s="168"/>
-      <c r="U73" s="168"/>
-      <c r="V73" s="168"/>
-      <c r="W73" s="168"/>
-      <c r="X73" s="168"/>
-    </row>
-    <row r="74" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="112" t="s">
+    <row r="73" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A73" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="139"/>
+      <c r="C73" s="139"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="76"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128"/>
+      <c r="Q73" s="160"/>
+      <c r="R73" s="160"/>
+      <c r="S73" s="160"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+      <c r="V73" s="76"/>
+      <c r="W73" s="76"/>
+      <c r="X73" s="76"/>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A74" s="176"/>
+      <c r="B74" s="177"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="177"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="177"/>
+      <c r="H74" s="177"/>
+      <c r="I74" s="177"/>
+      <c r="J74" s="177"/>
+      <c r="K74" s="177"/>
+      <c r="L74" s="177"/>
+      <c r="M74" s="177"/>
+      <c r="N74" s="177"/>
+      <c r="O74" s="177"/>
+      <c r="P74" s="177"/>
+      <c r="Q74" s="177"/>
+      <c r="R74" s="177"/>
+      <c r="S74" s="177"/>
+      <c r="T74" s="177"/>
+      <c r="U74" s="177"/>
+      <c r="V74" s="177"/>
+      <c r="W74" s="177"/>
+      <c r="X74" s="177"/>
+    </row>
+    <row r="75" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="146"/>
-      <c r="C74" s="146">
+      <c r="B75" s="146"/>
+      <c r="C75" s="146">
         <v>114</v>
       </c>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="113"/>
-      <c r="I74" s="113"/>
-      <c r="J74" s="113"/>
-      <c r="K74" s="113"/>
-      <c r="L74" s="113"/>
-      <c r="M74" s="113"/>
-      <c r="N74" s="113"/>
-      <c r="O74" s="113"/>
-      <c r="P74" s="113"/>
-      <c r="Q74" s="113"/>
-      <c r="R74" s="113"/>
-      <c r="S74" s="113"/>
-      <c r="T74" s="113"/>
-      <c r="U74" s="113"/>
-      <c r="V74" s="113"/>
-      <c r="W74" s="113"/>
-      <c r="X74" s="113"/>
-      <c r="Y74" s="119"/>
-      <c r="Z74" s="119"/>
-      <c r="AA74" s="119"/>
-      <c r="AB74" s="119"/>
-      <c r="AC74" s="119"/>
-      <c r="AD74" s="119"/>
-      <c r="AE74" s="119"/>
-      <c r="AF74" s="119"/>
-      <c r="AG74" s="119"/>
-      <c r="AH74" s="119"/>
-      <c r="AI74" s="119"/>
-      <c r="AJ74" s="119"/>
-      <c r="AK74" s="119"/>
-      <c r="AL74" s="119"/>
-      <c r="AM74" s="119"/>
-      <c r="AN74" s="119"/>
-      <c r="AO74" s="119"/>
-      <c r="AP74" s="119"/>
-      <c r="AQ74" s="119"/>
-      <c r="AR74" s="119"/>
-      <c r="AS74" s="119"/>
-    </row>
-    <row r="75" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="141"/>
-      <c r="D75" s="131"/>
-      <c r="E75" s="131"/>
-      <c r="F75" s="131"/>
-      <c r="G75" s="131"/>
-      <c r="H75" s="131"/>
-      <c r="I75" s="131"/>
-      <c r="J75" s="131"/>
-      <c r="K75" s="131"/>
-      <c r="L75" s="131"/>
-      <c r="M75" s="131"/>
-      <c r="N75" s="131"/>
-      <c r="O75" s="130"/>
-      <c r="P75" s="130"/>
-      <c r="Q75" s="130"/>
-      <c r="R75" s="130"/>
-      <c r="S75" s="130"/>
-      <c r="T75" s="161"/>
-      <c r="U75" s="161"/>
-      <c r="V75" s="131"/>
-      <c r="W75" s="131"/>
-      <c r="X75" s="131"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="113"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="113"/>
+      <c r="K75" s="113"/>
+      <c r="L75" s="113"/>
+      <c r="M75" s="113"/>
+      <c r="N75" s="113"/>
+      <c r="O75" s="113"/>
+      <c r="P75" s="113"/>
+      <c r="Q75" s="113"/>
+      <c r="R75" s="113"/>
+      <c r="S75" s="113"/>
+      <c r="T75" s="113"/>
+      <c r="U75" s="113"/>
+      <c r="V75" s="113"/>
+      <c r="W75" s="113"/>
+      <c r="X75" s="113"/>
       <c r="Y75" s="119"/>
       <c r="Z75" s="119"/>
       <c r="AA75" s="119"/>
@@ -4567,14 +4547,14 @@
       <c r="AR75" s="119"/>
       <c r="AS75" s="119"/>
     </row>
-    <row r="76" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="137" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="137"/>
+        <v>128</v>
+      </c>
+      <c r="B76" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="141"/>
       <c r="D76" s="131"/>
       <c r="E76" s="131"/>
       <c r="F76" s="131"/>
@@ -4590,9 +4570,9 @@
       <c r="P76" s="130"/>
       <c r="Q76" s="130"/>
       <c r="R76" s="130"/>
-      <c r="S76" s="161"/>
+      <c r="S76" s="130"/>
       <c r="T76" s="161"/>
-      <c r="U76" s="131"/>
+      <c r="U76" s="161"/>
       <c r="V76" s="131"/>
       <c r="W76" s="131"/>
       <c r="X76" s="131"/>
@@ -4618,236 +4598,287 @@
       <c r="AR76" s="119"/>
       <c r="AS76" s="119"/>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A77" s="93" t="s">
+    <row r="77" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="137"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="131"/>
+      <c r="G77" s="131"/>
+      <c r="H77" s="131"/>
+      <c r="I77" s="131"/>
+      <c r="J77" s="131"/>
+      <c r="K77" s="131"/>
+      <c r="L77" s="131"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="131"/>
+      <c r="O77" s="130"/>
+      <c r="P77" s="130"/>
+      <c r="Q77" s="130"/>
+      <c r="R77" s="130"/>
+      <c r="S77" s="161"/>
+      <c r="T77" s="161"/>
+      <c r="U77" s="131"/>
+      <c r="V77" s="131"/>
+      <c r="W77" s="131"/>
+      <c r="X77" s="131"/>
+      <c r="Y77" s="119"/>
+      <c r="Z77" s="119"/>
+      <c r="AA77" s="119"/>
+      <c r="AB77" s="119"/>
+      <c r="AC77" s="119"/>
+      <c r="AD77" s="119"/>
+      <c r="AE77" s="119"/>
+      <c r="AF77" s="119"/>
+      <c r="AG77" s="119"/>
+      <c r="AH77" s="119"/>
+      <c r="AI77" s="119"/>
+      <c r="AJ77" s="119"/>
+      <c r="AK77" s="119"/>
+      <c r="AL77" s="119"/>
+      <c r="AM77" s="119"/>
+      <c r="AN77" s="119"/>
+      <c r="AO77" s="119"/>
+      <c r="AP77" s="119"/>
+      <c r="AQ77" s="119"/>
+      <c r="AR77" s="119"/>
+      <c r="AS77" s="119"/>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A78" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="137" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="137"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="93"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="93"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="92"/>
-      <c r="P77" s="92"/>
-      <c r="Q77" s="92"/>
-      <c r="R77" s="162"/>
-      <c r="S77" s="162"/>
-      <c r="T77" s="93"/>
-      <c r="U77" s="93"/>
-      <c r="V77" s="93"/>
-      <c r="W77" s="93"/>
-      <c r="X77" s="93"/>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A78" s="167"/>
-      <c r="B78" s="168"/>
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
-      <c r="E78" s="168"/>
-      <c r="F78" s="168"/>
-      <c r="G78" s="168"/>
-      <c r="H78" s="168"/>
-      <c r="I78" s="168"/>
-      <c r="J78" s="168"/>
-      <c r="K78" s="168"/>
-      <c r="L78" s="168"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="168"/>
-      <c r="O78" s="168"/>
-      <c r="P78" s="168"/>
-      <c r="Q78" s="168"/>
-      <c r="R78" s="168"/>
-      <c r="S78" s="168"/>
-      <c r="T78" s="168"/>
-      <c r="U78" s="168"/>
-      <c r="V78" s="168"/>
-      <c r="W78" s="168"/>
-      <c r="X78" s="168"/>
-    </row>
-    <row r="79" spans="1:45" s="118" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="147"/>
-      <c r="C79" s="147"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="116"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="116"/>
-      <c r="L79" s="116"/>
-      <c r="M79" s="116"/>
-      <c r="N79" s="116"/>
-      <c r="O79" s="116"/>
-      <c r="P79" s="116"/>
-      <c r="Q79" s="116"/>
-      <c r="R79" s="117"/>
-      <c r="S79" s="117"/>
-      <c r="T79" s="117"/>
-      <c r="U79" s="117"/>
-      <c r="V79" s="117"/>
-      <c r="W79" s="116"/>
-      <c r="X79" s="116"/>
-      <c r="Y79" s="61"/>
-      <c r="Z79" s="61"/>
-      <c r="AA79" s="61"/>
-      <c r="AB79" s="61"/>
-      <c r="AC79" s="61"/>
-      <c r="AD79" s="61"/>
-      <c r="AE79" s="61"/>
-      <c r="AF79" s="61"/>
-      <c r="AG79" s="61"/>
-      <c r="AH79" s="61"/>
-      <c r="AI79" s="61"/>
-      <c r="AJ79" s="61"/>
-      <c r="AK79" s="61"/>
-      <c r="AL79" s="61"/>
-      <c r="AM79" s="61"/>
-      <c r="AN79" s="61"/>
-      <c r="AO79" s="61"/>
-      <c r="AP79" s="61"/>
-      <c r="AQ79" s="61"/>
-      <c r="AR79" s="61"/>
-      <c r="AS79" s="61"/>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A80" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="132"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="132"/>
-      <c r="H80" s="132"/>
-      <c r="I80" s="132"/>
-      <c r="J80" s="132"/>
-      <c r="K80" s="132"/>
-      <c r="L80" s="132"/>
-      <c r="M80" s="132"/>
-      <c r="N80" s="132"/>
-      <c r="O80" s="133"/>
-      <c r="P80" s="133"/>
-      <c r="Q80" s="133"/>
-      <c r="R80" s="133"/>
-      <c r="S80" s="133"/>
-      <c r="T80" s="132"/>
-      <c r="U80" s="132"/>
-      <c r="V80" s="132"/>
-      <c r="W80" s="132"/>
-      <c r="X80" s="132"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A84" s="169"/>
-      <c r="B84" s="169"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="169"/>
-      <c r="E84" s="169"/>
-      <c r="F84" s="169"/>
-      <c r="G84" s="169"/>
-      <c r="H84" s="169"/>
-      <c r="I84" s="169"/>
-      <c r="J84" s="169"/>
-      <c r="K84" s="169"/>
-      <c r="L84" s="169"/>
-      <c r="M84" s="169"/>
-      <c r="N84" s="169"/>
-      <c r="O84" s="169"/>
-      <c r="P84" s="169"/>
-      <c r="Q84" s="169"/>
-      <c r="R84" s="169"/>
-      <c r="S84" s="169"/>
-      <c r="T84" s="169"/>
-      <c r="U84" s="169"/>
-      <c r="V84" s="169"/>
-      <c r="W84" s="169"/>
-      <c r="X84" s="169"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A85" s="170"/>
-      <c r="B85" s="163"/>
-      <c r="C85" s="163"/>
-      <c r="D85" s="163"/>
-      <c r="E85" s="163"/>
-      <c r="F85" s="163"/>
-      <c r="G85" s="163"/>
-      <c r="H85" s="163"/>
-      <c r="I85" s="163"/>
-      <c r="J85" s="163"/>
-      <c r="K85" s="163"/>
-      <c r="L85" s="163"/>
-      <c r="M85" s="163"/>
-      <c r="N85" s="163"/>
-      <c r="O85" s="163"/>
-      <c r="P85" s="163"/>
-      <c r="Q85" s="163"/>
-      <c r="R85" s="163"/>
-      <c r="S85" s="163"/>
-      <c r="T85" s="163"/>
-      <c r="U85" s="163"/>
-      <c r="V85" s="163"/>
-      <c r="W85" s="163"/>
-      <c r="X85" s="163"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A86" s="163"/>
-      <c r="B86" s="163"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="163"/>
-      <c r="E86" s="163"/>
-      <c r="F86" s="163"/>
-      <c r="G86" s="163"/>
-      <c r="H86" s="163"/>
-      <c r="I86" s="163"/>
-      <c r="J86" s="163"/>
-      <c r="K86" s="163"/>
-      <c r="L86" s="163"/>
-      <c r="M86" s="163"/>
-      <c r="N86" s="163"/>
-      <c r="O86" s="163"/>
-      <c r="P86" s="163"/>
-      <c r="Q86" s="163"/>
-      <c r="R86" s="163"/>
-      <c r="S86" s="163"/>
-      <c r="T86" s="163"/>
-      <c r="U86" s="163"/>
-      <c r="V86" s="163"/>
-      <c r="W86" s="163"/>
-      <c r="X86" s="163"/>
+      <c r="B78" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="137"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="93"/>
+      <c r="J78" s="93"/>
+      <c r="K78" s="93"/>
+      <c r="L78" s="93"/>
+      <c r="M78" s="93"/>
+      <c r="N78" s="93"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="92"/>
+      <c r="Q78" s="92"/>
+      <c r="R78" s="162"/>
+      <c r="S78" s="162"/>
+      <c r="T78" s="93"/>
+      <c r="U78" s="93"/>
+      <c r="V78" s="93"/>
+      <c r="W78" s="93"/>
+      <c r="X78" s="93"/>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A79" s="176"/>
+      <c r="B79" s="177"/>
+      <c r="C79" s="177"/>
+      <c r="D79" s="177"/>
+      <c r="E79" s="177"/>
+      <c r="F79" s="177"/>
+      <c r="G79" s="177"/>
+      <c r="H79" s="177"/>
+      <c r="I79" s="177"/>
+      <c r="J79" s="177"/>
+      <c r="K79" s="177"/>
+      <c r="L79" s="177"/>
+      <c r="M79" s="177"/>
+      <c r="N79" s="177"/>
+      <c r="O79" s="177"/>
+      <c r="P79" s="177"/>
+      <c r="Q79" s="177"/>
+      <c r="R79" s="177"/>
+      <c r="S79" s="177"/>
+      <c r="T79" s="177"/>
+      <c r="U79" s="177"/>
+      <c r="V79" s="177"/>
+      <c r="W79" s="177"/>
+      <c r="X79" s="177"/>
+    </row>
+    <row r="80" spans="1:45" s="118" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="147"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="115"/>
+      <c r="G80" s="116"/>
+      <c r="H80" s="116"/>
+      <c r="I80" s="116"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="116"/>
+      <c r="N80" s="116"/>
+      <c r="O80" s="116"/>
+      <c r="P80" s="116"/>
+      <c r="Q80" s="116"/>
+      <c r="R80" s="117"/>
+      <c r="S80" s="117"/>
+      <c r="T80" s="117"/>
+      <c r="U80" s="117"/>
+      <c r="V80" s="117"/>
+      <c r="W80" s="116"/>
+      <c r="X80" s="116"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="61"/>
+      <c r="AA80" s="61"/>
+      <c r="AB80" s="61"/>
+      <c r="AC80" s="61"/>
+      <c r="AD80" s="61"/>
+      <c r="AE80" s="61"/>
+      <c r="AF80" s="61"/>
+      <c r="AG80" s="61"/>
+      <c r="AH80" s="61"/>
+      <c r="AI80" s="61"/>
+      <c r="AJ80" s="61"/>
+      <c r="AK80" s="61"/>
+      <c r="AL80" s="61"/>
+      <c r="AM80" s="61"/>
+      <c r="AN80" s="61"/>
+      <c r="AO80" s="61"/>
+      <c r="AP80" s="61"/>
+      <c r="AQ80" s="61"/>
+      <c r="AR80" s="61"/>
+      <c r="AS80" s="61"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A81" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="132"/>
+      <c r="E81" s="132"/>
+      <c r="F81" s="132"/>
+      <c r="G81" s="132"/>
+      <c r="H81" s="132"/>
+      <c r="I81" s="132"/>
+      <c r="J81" s="132"/>
+      <c r="K81" s="132"/>
+      <c r="L81" s="132"/>
+      <c r="M81" s="132"/>
+      <c r="N81" s="132"/>
+      <c r="O81" s="133"/>
+      <c r="P81" s="133"/>
+      <c r="Q81" s="133"/>
+      <c r="R81" s="133"/>
+      <c r="S81" s="133"/>
+      <c r="T81" s="132"/>
+      <c r="U81" s="132"/>
+      <c r="V81" s="132"/>
+      <c r="W81" s="132"/>
+      <c r="X81" s="132"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A85" s="183"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
+      <c r="G85" s="183"/>
+      <c r="H85" s="183"/>
+      <c r="I85" s="183"/>
+      <c r="J85" s="183"/>
+      <c r="K85" s="183"/>
+      <c r="L85" s="183"/>
+      <c r="M85" s="183"/>
+      <c r="N85" s="183"/>
+      <c r="O85" s="183"/>
+      <c r="P85" s="183"/>
+      <c r="Q85" s="183"/>
+      <c r="R85" s="183"/>
+      <c r="S85" s="183"/>
+      <c r="T85" s="183"/>
+      <c r="U85" s="183"/>
+      <c r="V85" s="183"/>
+      <c r="W85" s="183"/>
+      <c r="X85" s="183"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A86" s="172"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
+      <c r="G86" s="171"/>
+      <c r="H86" s="171"/>
+      <c r="I86" s="171"/>
+      <c r="J86" s="171"/>
+      <c r="K86" s="171"/>
+      <c r="L86" s="171"/>
+      <c r="M86" s="171"/>
+      <c r="N86" s="171"/>
+      <c r="O86" s="171"/>
+      <c r="P86" s="171"/>
+      <c r="Q86" s="171"/>
+      <c r="R86" s="171"/>
+      <c r="S86" s="171"/>
+      <c r="T86" s="171"/>
+      <c r="U86" s="171"/>
+      <c r="V86" s="171"/>
+      <c r="W86" s="171"/>
+      <c r="X86" s="171"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A87" s="171"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
+      <c r="G87" s="171"/>
+      <c r="H87" s="171"/>
+      <c r="I87" s="171"/>
+      <c r="J87" s="171"/>
+      <c r="K87" s="171"/>
+      <c r="L87" s="171"/>
+      <c r="M87" s="171"/>
+      <c r="N87" s="171"/>
+      <c r="O87" s="171"/>
+      <c r="P87" s="171"/>
+      <c r="Q87" s="171"/>
+      <c r="R87" s="171"/>
+      <c r="S87" s="171"/>
+      <c r="T87" s="171"/>
+      <c r="U87" s="171"/>
+      <c r="V87" s="171"/>
+      <c r="W87" s="171"/>
+      <c r="X87" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A85:X85"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="A78:X78"/>
-    <mergeCell ref="A63:X63"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A86:X86"/>
+    <mergeCell ref="A87:X87"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A22:X22"/>
     <mergeCell ref="A39:X39"/>
-    <mergeCell ref="A49:X49"/>
-    <mergeCell ref="A73:X73"/>
-    <mergeCell ref="A84:X84"/>
+    <mergeCell ref="A50:X50"/>
+    <mergeCell ref="A74:X74"/>
+    <mergeCell ref="A85:X85"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A86:X86"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="A79:X79"/>
+    <mergeCell ref="A64:X64"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
-  <conditionalFormatting sqref="A46:C46">
+  <conditionalFormatting sqref="A47:C47">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4859,7 +4890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:C47">
+  <conditionalFormatting sqref="A48:C48">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -4895,7 +4926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A52">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4907,7 +4938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A57">
+  <conditionalFormatting sqref="A56:A58">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -4919,7 +4950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:C67">
+  <conditionalFormatting sqref="A67:C68">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4931,7 +4962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:C68">
+  <conditionalFormatting sqref="A69:C69">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4943,7 +4974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:C70">
+  <conditionalFormatting sqref="A71:C71">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4955,7 +4986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:C72">
+  <conditionalFormatting sqref="A73:C73">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4967,7 +4998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:C58">
+  <conditionalFormatting sqref="A59:C59">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4979,7 +5010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:C71">
+  <conditionalFormatting sqref="A72:C72">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5016,38 +5047,38 @@
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.296875" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" customWidth="1"/>
-    <col min="9" max="9" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="174" t="s">
+    <row r="2" spans="2:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-    </row>
-    <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175" t="s">
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+    </row>
+    <row r="3" spans="2:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="184"/>
+      <c r="C3" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176" t="s">
+      <c r="D3" s="186"/>
+      <c r="E3" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="176"/>
-    </row>
-    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="186"/>
+    </row>
+    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
@@ -5064,14 +5095,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="53"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5092,7 +5123,7 @@
         <v>8.2982791586998079</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -5112,7 +5143,7 @@
         <v>1.6061185468451242</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -5132,7 +5163,7 @@
         <v>2.4091778202676863</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -5152,7 +5183,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -5172,7 +5203,7 @@
         <v>0.66921606118546839</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -5192,14 +5223,14 @@
         <v>0.93690248565965584</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="52"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5251,7 @@
         <v>6.8833652007648185</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -5241,7 +5272,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -5261,7 +5292,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -5281,7 +5312,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5302,7 +5333,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -5322,7 +5353,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -5342,7 +5373,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -5362,7 +5393,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5383,7 +5414,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5403,7 +5434,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5423,7 +5454,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -5444,7 +5475,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5464,14 +5495,14 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="58"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -5492,7 +5523,7 @@
         <v>15.678776290630974</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5513,7 +5544,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
@@ -5533,7 +5564,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -5553,7 +5584,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -5574,7 +5605,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -5594,7 +5625,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -5614,7 +5645,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -5634,7 +5665,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
@@ -5654,7 +5685,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -5675,7 +5706,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>33</v>
       </c>
@@ -5695,7 +5726,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5715,7 +5746,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -5736,7 +5767,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -5756,7 +5787,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -5776,14 +5807,14 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
@@ -5804,7 +5835,7 @@
         <v>43.977055449330784</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -5825,7 +5856,7 @@
         <v>9.1778202676864247</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -5845,7 +5876,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
@@ -5865,7 +5896,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -5886,7 +5917,7 @@
         <v>12.619502868068833</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
@@ -5906,7 +5937,7 @@
         <v>3.4416826003824093</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -5926,7 +5957,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>44</v>
       </c>
@@ -5946,7 +5977,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5967,7 +5998,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>46</v>
       </c>
@@ -5987,7 +6018,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
@@ -6007,7 +6038,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>48</v>
       </c>
@@ -6028,7 +6059,7 @@
         <v>16.061185468451242</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -6048,7 +6079,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
@@ -6068,7 +6099,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
@@ -6088,14 +6119,14 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="2"/>
       <c r="E58" s="60"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
@@ -6116,7 +6147,7 @@
         <v>14.531548757170171</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>53</v>
       </c>
@@ -6137,7 +6168,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>54</v>
       </c>
@@ -6157,7 +6188,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>55</v>
       </c>
@@ -6178,7 +6209,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
@@ -6198,7 +6229,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>80</v>
       </c>
@@ -6218,7 +6249,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
@@ -6238,7 +6269,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
@@ -6259,7 +6290,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
@@ -6279,7 +6310,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>60</v>
       </c>
@@ -6299,7 +6330,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
         <v>61</v>
       </c>
@@ -6320,7 +6351,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
@@ -6340,14 +6371,14 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="48" t="s">
         <v>63</v>
       </c>
@@ -6368,7 +6399,7 @@
         <v>10.630975143403441</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>64</v>
       </c>
@@ -6389,7 +6420,7 @@
         <v>2.1414913957934991</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>65</v>
       </c>
@@ -6409,7 +6440,7 @@
         <v>0.9177820267686424</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>81</v>
       </c>
@@ -6429,7 +6460,7 @@
         <v>0.4588910133843212</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>66</v>
       </c>
@@ -6449,7 +6480,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>67</v>
       </c>
@@ -6469,7 +6500,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>68</v>
       </c>
@@ -6489,7 +6520,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>69</v>
       </c>
@@ -6509,7 +6540,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
         <v>70</v>
       </c>
@@ -6529,7 +6560,7 @@
         <v>3.5181644359464626</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>71</v>
       </c>
@@ -6549,14 +6580,14 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="55"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>72</v>
       </c>
@@ -6576,30 +6607,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="181"/>
-      <c r="C85" s="181"/>
-      <c r="D85" s="181"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="177" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="192"/>
+      <c r="C84" s="192"/>
+      <c r="D84" s="192"/>
+      <c r="E84" s="192"/>
+      <c r="F84" s="192"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="191"/>
+      <c r="C85" s="191"/>
+      <c r="D85" s="191"/>
+      <c r="E85" s="193"/>
+      <c r="F85" s="193"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="178"/>
-      <c r="D86" s="179"/>
-      <c r="E86" s="183"/>
-      <c r="F86" s="183"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="188"/>
+      <c r="D86" s="189"/>
+      <c r="E86" s="193"/>
+      <c r="F86" s="193"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
@@ -6609,10 +6640,10 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="183"/>
-      <c r="F87" s="183"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E87" s="193"/>
+      <c r="F87" s="193"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
@@ -6622,8 +6653,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="183"/>
-      <c r="F88" s="183"/>
+      <c r="E88" s="193"/>
+      <c r="F88" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7255,15 +7286,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
@@ -7272,6 +7294,15 @@
     <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7294,14 +7325,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -7316,4 +7339,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Desktop/P2Pflichtenheft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037FBEE-37C2-F043-9C1C-35CC007EA4FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF6AECF-ED14-8141-B4C5-483C375323D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="44760" windowHeight="22720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Projektbudget" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$64:$X$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$64:$X$87</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="171">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -506,15 +506,6 @@
     <t>3.2.2 Schaltungsberechnung überprüfen</t>
   </si>
   <si>
-    <t>4.1.1 MVC Framework erstellen</t>
-  </si>
-  <si>
-    <t>4.1.2 Implementierung Code aus Entwurf</t>
-  </si>
-  <si>
-    <t>4.1.3 Anpassungen Klassendiagramm</t>
-  </si>
-  <si>
     <t>2.2.2 Mathematischer Lösungsansatz erarbeiten</t>
   </si>
   <si>
@@ -558,6 +549,24 @@
   </si>
   <si>
     <t>3.1.3 Klassendiagramm erstellen</t>
+  </si>
+  <si>
+    <t>4.1.1 View</t>
+  </si>
+  <si>
+    <t>4.1.2 Controller</t>
+  </si>
+  <si>
+    <t>4.1.3 Model</t>
+  </si>
+  <si>
+    <t>4.1.5 Look And Feel</t>
+  </si>
+  <si>
+    <t>4.1.6 Anpassungen Klassendiagramm</t>
+  </si>
+  <si>
+    <t>4.1.4 Import und Export</t>
   </si>
 </sst>
 </file>
@@ -1534,6 +1543,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1546,29 +1573,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2308,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS87"/>
+  <dimension ref="A1:AS90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="194" zoomScaleNormal="194" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="194" zoomScaleNormal="194" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2330,29 +2339,29 @@
       <c r="A2" s="171"/>
       <c r="B2" s="163"/>
       <c r="C2" s="163"/>
-      <c r="D2" s="173">
+      <c r="D2" s="179">
         <v>2019</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="175"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="181"/>
     </row>
     <row r="3" spans="1:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="171"/>
@@ -2391,13 +2400,13 @@
       <c r="N3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="173" t="s">
+      <c r="O3" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
       <c r="T3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2515,30 +2524,30 @@
       <c r="X6" s="122"/>
     </row>
     <row r="7" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="182"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
-      <c r="T7" s="182"/>
-      <c r="U7" s="182"/>
-      <c r="V7" s="182"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="182"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="172"/>
+      <c r="V7" s="172"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="172"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="66" t="s">
@@ -2895,11 +2904,11 @@
     </row>
     <row r="20" spans="1:25" ht="85.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="165"/>
-      <c r="B20" s="180" t="s">
+      <c r="B20" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="180" t="s">
-        <v>161</v>
+      <c r="C20" s="182" t="s">
+        <v>158</v>
       </c>
       <c r="D20" s="166"/>
       <c r="E20" s="166"/>
@@ -2928,8 +2937,8 @@
       <c r="A21" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="169"/>
       <c r="E21" s="169"/>
       <c r="F21" s="169"/>
@@ -2954,30 +2963,30 @@
       <c r="Y21" s="170"/>
     </row>
     <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="182"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="182"/>
-      <c r="S22" s="182"/>
-      <c r="T22" s="182"/>
-      <c r="U22" s="182"/>
-      <c r="V22" s="182"/>
-      <c r="W22" s="182"/>
-      <c r="X22" s="182"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="172"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="100" t="s">
@@ -3446,30 +3455,30 @@
       <c r="X38" s="106"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A39" s="178"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="179"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
-      <c r="S39" s="179"/>
-      <c r="T39" s="179"/>
-      <c r="U39" s="179"/>
-      <c r="V39" s="179"/>
-      <c r="W39" s="179"/>
-      <c r="X39" s="179"/>
+      <c r="A39" s="173"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
+      <c r="S39" s="174"/>
+      <c r="T39" s="174"/>
+      <c r="U39" s="174"/>
+      <c r="V39" s="174"/>
+      <c r="W39" s="174"/>
+      <c r="X39" s="174"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="88" t="s">
@@ -3533,7 +3542,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="134" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42" s="141"/>
       <c r="C42" s="141"/>
@@ -3561,7 +3570,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43" s="134" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B43" s="141"/>
       <c r="C43" s="141"/>
@@ -3589,7 +3598,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44" s="134" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B44" s="141"/>
       <c r="C44" s="141"/>
@@ -3617,7 +3626,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45" s="134" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B45" s="141"/>
       <c r="C45" s="141"/>
@@ -3703,7 +3712,7 @@
     </row>
     <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B48" s="139"/>
       <c r="C48" s="139"/>
@@ -3758,30 +3767,30 @@
       <c r="X49" s="66"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A50" s="178"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="179"/>
-      <c r="G50" s="179"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="179"/>
-      <c r="J50" s="179"/>
-      <c r="K50" s="179"/>
-      <c r="L50" s="179"/>
-      <c r="M50" s="179"/>
-      <c r="N50" s="179"/>
-      <c r="O50" s="179"/>
-      <c r="P50" s="179"/>
-      <c r="Q50" s="179"/>
-      <c r="R50" s="179"/>
-      <c r="S50" s="179"/>
-      <c r="T50" s="179"/>
-      <c r="U50" s="179"/>
-      <c r="V50" s="179"/>
-      <c r="W50" s="179"/>
-      <c r="X50" s="179"/>
+      <c r="A50" s="173"/>
+      <c r="B50" s="174"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
+      <c r="E50" s="174"/>
+      <c r="F50" s="174"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="174"/>
+      <c r="I50" s="174"/>
+      <c r="J50" s="174"/>
+      <c r="K50" s="174"/>
+      <c r="L50" s="174"/>
+      <c r="M50" s="174"/>
+      <c r="N50" s="174"/>
+      <c r="O50" s="174"/>
+      <c r="P50" s="174"/>
+      <c r="Q50" s="174"/>
+      <c r="R50" s="174"/>
+      <c r="S50" s="174"/>
+      <c r="T50" s="174"/>
+      <c r="U50" s="174"/>
+      <c r="V50" s="174"/>
+      <c r="W50" s="174"/>
+      <c r="X50" s="174"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A51" s="94" t="s">
@@ -3871,7 +3880,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A54" s="83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B54" s="138"/>
       <c r="C54" s="138"/>
@@ -3899,7 +3908,7 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A55" s="83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B55" s="138"/>
       <c r="C55" s="138"/>
@@ -4013,7 +4022,7 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A59" s="83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B59" s="138"/>
       <c r="C59" s="138"/>
@@ -4077,7 +4086,7 @@
     </row>
     <row r="61" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B61" s="138"/>
       <c r="C61" s="138"/>
@@ -4111,7 +4120,7 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A62" s="83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B62" s="138"/>
       <c r="C62" s="138"/>
@@ -4139,7 +4148,7 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A63" s="156" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B63" s="137"/>
       <c r="C63" s="137"/>
@@ -4166,30 +4175,30 @@
       <c r="X63" s="76"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A64" s="178"/>
-      <c r="B64" s="179"/>
-      <c r="C64" s="179"/>
-      <c r="D64" s="179"/>
-      <c r="E64" s="179"/>
-      <c r="F64" s="179"/>
-      <c r="G64" s="179"/>
-      <c r="H64" s="179"/>
-      <c r="I64" s="179"/>
-      <c r="J64" s="179"/>
-      <c r="K64" s="179"/>
-      <c r="L64" s="179"/>
-      <c r="M64" s="179"/>
-      <c r="N64" s="179"/>
-      <c r="O64" s="179"/>
-      <c r="P64" s="179"/>
-      <c r="Q64" s="179"/>
-      <c r="R64" s="179"/>
-      <c r="S64" s="179"/>
-      <c r="T64" s="179"/>
-      <c r="U64" s="179"/>
-      <c r="V64" s="179"/>
-      <c r="W64" s="179"/>
-      <c r="X64" s="179"/>
+      <c r="A64" s="173"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
+      <c r="E64" s="174"/>
+      <c r="F64" s="174"/>
+      <c r="G64" s="174"/>
+      <c r="H64" s="174"/>
+      <c r="I64" s="174"/>
+      <c r="J64" s="174"/>
+      <c r="K64" s="174"/>
+      <c r="L64" s="174"/>
+      <c r="M64" s="174"/>
+      <c r="N64" s="174"/>
+      <c r="O64" s="174"/>
+      <c r="P64" s="174"/>
+      <c r="Q64" s="174"/>
+      <c r="R64" s="174"/>
+      <c r="S64" s="174"/>
+      <c r="T64" s="174"/>
+      <c r="U64" s="174"/>
+      <c r="V64" s="174"/>
+      <c r="W64" s="174"/>
+      <c r="X64" s="174"/>
     </row>
     <row r="65" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="108" t="s">
@@ -4274,54 +4283,54 @@
     </row>
     <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="139"/>
-      <c r="C67" s="139"/>
+        <v>165</v>
+      </c>
+      <c r="B67" s="141"/>
+      <c r="C67" s="141"/>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
       <c r="K67" s="76"/>
       <c r="L67" s="76"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="73"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
-      <c r="Q67" s="128"/>
-      <c r="R67" s="128"/>
-      <c r="S67" s="128"/>
+      <c r="M67" s="76"/>
+      <c r="N67" s="76"/>
+      <c r="O67" s="159"/>
+      <c r="P67" s="159"/>
+      <c r="Q67" s="159"/>
+      <c r="R67" s="159"/>
+      <c r="S67" s="159"/>
       <c r="T67" s="73"/>
-      <c r="U67" s="76"/>
+      <c r="U67" s="73"/>
       <c r="V67" s="76"/>
       <c r="W67" s="76"/>
       <c r="X67" s="76"/>
     </row>
     <row r="68" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="139"/>
-      <c r="C68" s="139"/>
+        <v>166</v>
+      </c>
+      <c r="B68" s="141"/>
+      <c r="C68" s="141"/>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
       <c r="F68" s="73"/>
       <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="76"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="128"/>
-      <c r="P68" s="128"/>
-      <c r="Q68" s="128"/>
-      <c r="R68" s="128"/>
-      <c r="S68" s="128"/>
+      <c r="H68" s="159"/>
+      <c r="I68" s="159"/>
+      <c r="J68" s="159"/>
+      <c r="K68" s="159"/>
+      <c r="L68" s="159"/>
+      <c r="M68" s="159"/>
+      <c r="N68" s="159"/>
+      <c r="O68" s="159"/>
+      <c r="P68" s="159"/>
+      <c r="Q68" s="159"/>
+      <c r="R68" s="159"/>
+      <c r="S68" s="159"/>
       <c r="T68" s="73"/>
       <c r="U68" s="73"/>
       <c r="V68" s="76"/>
@@ -4329,8 +4338,8 @@
       <c r="X68" s="76"/>
     </row>
     <row r="69" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A69" s="154" t="s">
-        <v>152</v>
+      <c r="A69" s="75" t="s">
+        <v>167</v>
       </c>
       <c r="B69" s="139"/>
       <c r="C69" s="139"/>
@@ -4342,28 +4351,26 @@
       <c r="I69" s="76"/>
       <c r="J69" s="76"/>
       <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="125"/>
-      <c r="P69" s="127"/>
-      <c r="Q69" s="127"/>
-      <c r="R69" s="128"/>
-      <c r="S69" s="128"/>
+      <c r="L69" s="159"/>
+      <c r="M69" s="159"/>
+      <c r="N69" s="159"/>
+      <c r="O69" s="159"/>
+      <c r="P69" s="159"/>
+      <c r="Q69" s="159"/>
+      <c r="R69" s="159"/>
+      <c r="S69" s="159"/>
       <c r="T69" s="73"/>
-      <c r="U69" s="73"/>
+      <c r="U69" s="76"/>
       <c r="V69" s="76"/>
       <c r="W69" s="76"/>
       <c r="X69" s="76"/>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A70" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="138"/>
+    <row r="70" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A70" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="139"/>
+      <c r="C70" s="139"/>
       <c r="D70" s="73"/>
       <c r="E70" s="73"/>
       <c r="F70" s="73"/>
@@ -4375,11 +4382,11 @@
       <c r="L70" s="76"/>
       <c r="M70" s="73"/>
       <c r="N70" s="73"/>
-      <c r="O70" s="128"/>
-      <c r="P70" s="128"/>
-      <c r="Q70" s="128"/>
-      <c r="R70" s="128"/>
-      <c r="S70" s="128"/>
+      <c r="O70" s="159"/>
+      <c r="P70" s="159"/>
+      <c r="Q70" s="159"/>
+      <c r="R70" s="159"/>
+      <c r="S70" s="159"/>
       <c r="T70" s="73"/>
       <c r="U70" s="73"/>
       <c r="V70" s="76"/>
@@ -4388,7 +4395,7 @@
     </row>
     <row r="71" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="75" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B71" s="139"/>
       <c r="C71" s="139"/>
@@ -4401,22 +4408,22 @@
       <c r="J71" s="76"/>
       <c r="K71" s="76"/>
       <c r="L71" s="76"/>
-      <c r="M71" s="159"/>
-      <c r="N71" s="159"/>
-      <c r="O71" s="160"/>
-      <c r="P71" s="128"/>
-      <c r="Q71" s="128"/>
-      <c r="R71" s="128"/>
-      <c r="S71" s="128"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="159"/>
+      <c r="P71" s="159"/>
+      <c r="Q71" s="159"/>
+      <c r="R71" s="159"/>
+      <c r="S71" s="159"/>
       <c r="T71" s="73"/>
-      <c r="U71" s="76"/>
+      <c r="U71" s="73"/>
       <c r="V71" s="76"/>
       <c r="W71" s="76"/>
       <c r="X71" s="76"/>
     </row>
     <row r="72" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="75" t="s">
-        <v>160</v>
+      <c r="A72" s="154" t="s">
+        <v>169</v>
       </c>
       <c r="B72" s="139"/>
       <c r="C72" s="139"/>
@@ -4429,11 +4436,11 @@
       <c r="J72" s="76"/>
       <c r="K72" s="76"/>
       <c r="L72" s="76"/>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="160"/>
-      <c r="P72" s="160"/>
-      <c r="Q72" s="160"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="76"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="127"/>
+      <c r="Q72" s="127"/>
       <c r="R72" s="128"/>
       <c r="S72" s="128"/>
       <c r="T72" s="73"/>
@@ -4442,12 +4449,14 @@
       <c r="W72" s="76"/>
       <c r="X72" s="76"/>
     </row>
-    <row r="73" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A73" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="139"/>
-      <c r="C73" s="139"/>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A73" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="138"/>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
       <c r="F73" s="73"/>
@@ -4461,424 +4470,520 @@
       <c r="N73" s="73"/>
       <c r="O73" s="128"/>
       <c r="P73" s="128"/>
-      <c r="Q73" s="160"/>
-      <c r="R73" s="160"/>
-      <c r="S73" s="160"/>
+      <c r="Q73" s="128"/>
+      <c r="R73" s="128"/>
+      <c r="S73" s="128"/>
       <c r="T73" s="73"/>
       <c r="U73" s="73"/>
       <c r="V73" s="76"/>
       <c r="W73" s="76"/>
       <c r="X73" s="76"/>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A74" s="176"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="177"/>
-      <c r="D74" s="177"/>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="177"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="177"/>
-      <c r="J74" s="177"/>
-      <c r="K74" s="177"/>
-      <c r="L74" s="177"/>
-      <c r="M74" s="177"/>
-      <c r="N74" s="177"/>
-      <c r="O74" s="177"/>
-      <c r="P74" s="177"/>
-      <c r="Q74" s="177"/>
-      <c r="R74" s="177"/>
-      <c r="S74" s="177"/>
-      <c r="T74" s="177"/>
-      <c r="U74" s="177"/>
-      <c r="V74" s="177"/>
-      <c r="W74" s="177"/>
-      <c r="X74" s="177"/>
-    </row>
-    <row r="75" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="112" t="s">
+    <row r="74" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A74" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="139"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76"/>
+      <c r="M74" s="159"/>
+      <c r="N74" s="159"/>
+      <c r="O74" s="160"/>
+      <c r="P74" s="128"/>
+      <c r="Q74" s="128"/>
+      <c r="R74" s="128"/>
+      <c r="S74" s="128"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="76"/>
+      <c r="V74" s="76"/>
+      <c r="W74" s="76"/>
+      <c r="X74" s="76"/>
+    </row>
+    <row r="75" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A75" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="139"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="76"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="160"/>
+      <c r="P75" s="160"/>
+      <c r="Q75" s="160"/>
+      <c r="R75" s="128"/>
+      <c r="S75" s="128"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="76"/>
+      <c r="W75" s="76"/>
+      <c r="X75" s="76"/>
+    </row>
+    <row r="76" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A76" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="139"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="128"/>
+      <c r="P76" s="128"/>
+      <c r="Q76" s="160"/>
+      <c r="R76" s="160"/>
+      <c r="S76" s="160"/>
+      <c r="T76" s="73"/>
+      <c r="U76" s="73"/>
+      <c r="V76" s="76"/>
+      <c r="W76" s="76"/>
+      <c r="X76" s="76"/>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A77" s="175"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
+      <c r="E77" s="176"/>
+      <c r="F77" s="176"/>
+      <c r="G77" s="176"/>
+      <c r="H77" s="176"/>
+      <c r="I77" s="176"/>
+      <c r="J77" s="176"/>
+      <c r="K77" s="176"/>
+      <c r="L77" s="176"/>
+      <c r="M77" s="176"/>
+      <c r="N77" s="176"/>
+      <c r="O77" s="176"/>
+      <c r="P77" s="176"/>
+      <c r="Q77" s="176"/>
+      <c r="R77" s="176"/>
+      <c r="S77" s="176"/>
+      <c r="T77" s="176"/>
+      <c r="U77" s="176"/>
+      <c r="V77" s="176"/>
+      <c r="W77" s="176"/>
+      <c r="X77" s="176"/>
+    </row>
+    <row r="78" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="146"/>
-      <c r="C75" s="146">
+      <c r="B78" s="146"/>
+      <c r="C78" s="146">
         <v>114</v>
       </c>
-      <c r="D75" s="113"/>
-      <c r="E75" s="113"/>
-      <c r="F75" s="113"/>
-      <c r="G75" s="113"/>
-      <c r="H75" s="113"/>
-      <c r="I75" s="113"/>
-      <c r="J75" s="113"/>
-      <c r="K75" s="113"/>
-      <c r="L75" s="113"/>
-      <c r="M75" s="113"/>
-      <c r="N75" s="113"/>
-      <c r="O75" s="113"/>
-      <c r="P75" s="113"/>
-      <c r="Q75" s="113"/>
-      <c r="R75" s="113"/>
-      <c r="S75" s="113"/>
-      <c r="T75" s="113"/>
-      <c r="U75" s="113"/>
-      <c r="V75" s="113"/>
-      <c r="W75" s="113"/>
-      <c r="X75" s="113"/>
-      <c r="Y75" s="119"/>
-      <c r="Z75" s="119"/>
-      <c r="AA75" s="119"/>
-      <c r="AB75" s="119"/>
-      <c r="AC75" s="119"/>
-      <c r="AD75" s="119"/>
-      <c r="AE75" s="119"/>
-      <c r="AF75" s="119"/>
-      <c r="AG75" s="119"/>
-      <c r="AH75" s="119"/>
-      <c r="AI75" s="119"/>
-      <c r="AJ75" s="119"/>
-      <c r="AK75" s="119"/>
-      <c r="AL75" s="119"/>
-      <c r="AM75" s="119"/>
-      <c r="AN75" s="119"/>
-      <c r="AO75" s="119"/>
-      <c r="AP75" s="119"/>
-      <c r="AQ75" s="119"/>
-      <c r="AR75" s="119"/>
-      <c r="AS75" s="119"/>
-    </row>
-    <row r="76" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="131" t="s">
+      <c r="D78" s="113"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="113"/>
+      <c r="H78" s="113"/>
+      <c r="I78" s="113"/>
+      <c r="J78" s="113"/>
+      <c r="K78" s="113"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="113"/>
+      <c r="N78" s="113"/>
+      <c r="O78" s="113"/>
+      <c r="P78" s="113"/>
+      <c r="Q78" s="113"/>
+      <c r="R78" s="113"/>
+      <c r="S78" s="113"/>
+      <c r="T78" s="113"/>
+      <c r="U78" s="113"/>
+      <c r="V78" s="113"/>
+      <c r="W78" s="113"/>
+      <c r="X78" s="113"/>
+      <c r="Y78" s="119"/>
+      <c r="Z78" s="119"/>
+      <c r="AA78" s="119"/>
+      <c r="AB78" s="119"/>
+      <c r="AC78" s="119"/>
+      <c r="AD78" s="119"/>
+      <c r="AE78" s="119"/>
+      <c r="AF78" s="119"/>
+      <c r="AG78" s="119"/>
+      <c r="AH78" s="119"/>
+      <c r="AI78" s="119"/>
+      <c r="AJ78" s="119"/>
+      <c r="AK78" s="119"/>
+      <c r="AL78" s="119"/>
+      <c r="AM78" s="119"/>
+      <c r="AN78" s="119"/>
+      <c r="AO78" s="119"/>
+      <c r="AP78" s="119"/>
+      <c r="AQ78" s="119"/>
+      <c r="AR78" s="119"/>
+      <c r="AS78" s="119"/>
+    </row>
+    <row r="79" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="141" t="s">
+      <c r="B79" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="141"/>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131"/>
-      <c r="F76" s="131"/>
-      <c r="G76" s="131"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="131"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="131"/>
-      <c r="O76" s="130"/>
-      <c r="P76" s="130"/>
-      <c r="Q76" s="130"/>
-      <c r="R76" s="130"/>
-      <c r="S76" s="130"/>
-      <c r="T76" s="161"/>
-      <c r="U76" s="161"/>
-      <c r="V76" s="131"/>
-      <c r="W76" s="131"/>
-      <c r="X76" s="131"/>
-      <c r="Y76" s="119"/>
-      <c r="Z76" s="119"/>
-      <c r="AA76" s="119"/>
-      <c r="AB76" s="119"/>
-      <c r="AC76" s="119"/>
-      <c r="AD76" s="119"/>
-      <c r="AE76" s="119"/>
-      <c r="AF76" s="119"/>
-      <c r="AG76" s="119"/>
-      <c r="AH76" s="119"/>
-      <c r="AI76" s="119"/>
-      <c r="AJ76" s="119"/>
-      <c r="AK76" s="119"/>
-      <c r="AL76" s="119"/>
-      <c r="AM76" s="119"/>
-      <c r="AN76" s="119"/>
-      <c r="AO76" s="119"/>
-      <c r="AP76" s="119"/>
-      <c r="AQ76" s="119"/>
-      <c r="AR76" s="119"/>
-      <c r="AS76" s="119"/>
-    </row>
-    <row r="77" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="131" t="s">
+      <c r="C79" s="141"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="131"/>
+      <c r="L79" s="131"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="130"/>
+      <c r="P79" s="130"/>
+      <c r="Q79" s="130"/>
+      <c r="R79" s="130"/>
+      <c r="S79" s="130"/>
+      <c r="T79" s="161"/>
+      <c r="U79" s="161"/>
+      <c r="V79" s="131"/>
+      <c r="W79" s="131"/>
+      <c r="X79" s="131"/>
+      <c r="Y79" s="119"/>
+      <c r="Z79" s="119"/>
+      <c r="AA79" s="119"/>
+      <c r="AB79" s="119"/>
+      <c r="AC79" s="119"/>
+      <c r="AD79" s="119"/>
+      <c r="AE79" s="119"/>
+      <c r="AF79" s="119"/>
+      <c r="AG79" s="119"/>
+      <c r="AH79" s="119"/>
+      <c r="AI79" s="119"/>
+      <c r="AJ79" s="119"/>
+      <c r="AK79" s="119"/>
+      <c r="AL79" s="119"/>
+      <c r="AM79" s="119"/>
+      <c r="AN79" s="119"/>
+      <c r="AO79" s="119"/>
+      <c r="AP79" s="119"/>
+      <c r="AQ79" s="119"/>
+      <c r="AR79" s="119"/>
+      <c r="AS79" s="119"/>
+    </row>
+    <row r="80" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="137" t="s">
+      <c r="B80" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="137"/>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131"/>
-      <c r="F77" s="131"/>
-      <c r="G77" s="131"/>
-      <c r="H77" s="131"/>
-      <c r="I77" s="131"/>
-      <c r="J77" s="131"/>
-      <c r="K77" s="131"/>
-      <c r="L77" s="131"/>
-      <c r="M77" s="131"/>
-      <c r="N77" s="131"/>
-      <c r="O77" s="130"/>
-      <c r="P77" s="130"/>
-      <c r="Q77" s="130"/>
-      <c r="R77" s="130"/>
-      <c r="S77" s="161"/>
-      <c r="T77" s="161"/>
-      <c r="U77" s="131"/>
-      <c r="V77" s="131"/>
-      <c r="W77" s="131"/>
-      <c r="X77" s="131"/>
-      <c r="Y77" s="119"/>
-      <c r="Z77" s="119"/>
-      <c r="AA77" s="119"/>
-      <c r="AB77" s="119"/>
-      <c r="AC77" s="119"/>
-      <c r="AD77" s="119"/>
-      <c r="AE77" s="119"/>
-      <c r="AF77" s="119"/>
-      <c r="AG77" s="119"/>
-      <c r="AH77" s="119"/>
-      <c r="AI77" s="119"/>
-      <c r="AJ77" s="119"/>
-      <c r="AK77" s="119"/>
-      <c r="AL77" s="119"/>
-      <c r="AM77" s="119"/>
-      <c r="AN77" s="119"/>
-      <c r="AO77" s="119"/>
-      <c r="AP77" s="119"/>
-      <c r="AQ77" s="119"/>
-      <c r="AR77" s="119"/>
-      <c r="AS77" s="119"/>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A78" s="93" t="s">
+      <c r="C80" s="137"/>
+      <c r="D80" s="131"/>
+      <c r="E80" s="131"/>
+      <c r="F80" s="131"/>
+      <c r="G80" s="131"/>
+      <c r="H80" s="131"/>
+      <c r="I80" s="131"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="131"/>
+      <c r="L80" s="131"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="131"/>
+      <c r="O80" s="130"/>
+      <c r="P80" s="130"/>
+      <c r="Q80" s="130"/>
+      <c r="R80" s="130"/>
+      <c r="S80" s="161"/>
+      <c r="T80" s="161"/>
+      <c r="U80" s="131"/>
+      <c r="V80" s="131"/>
+      <c r="W80" s="131"/>
+      <c r="X80" s="131"/>
+      <c r="Y80" s="119"/>
+      <c r="Z80" s="119"/>
+      <c r="AA80" s="119"/>
+      <c r="AB80" s="119"/>
+      <c r="AC80" s="119"/>
+      <c r="AD80" s="119"/>
+      <c r="AE80" s="119"/>
+      <c r="AF80" s="119"/>
+      <c r="AG80" s="119"/>
+      <c r="AH80" s="119"/>
+      <c r="AI80" s="119"/>
+      <c r="AJ80" s="119"/>
+      <c r="AK80" s="119"/>
+      <c r="AL80" s="119"/>
+      <c r="AM80" s="119"/>
+      <c r="AN80" s="119"/>
+      <c r="AO80" s="119"/>
+      <c r="AP80" s="119"/>
+      <c r="AQ80" s="119"/>
+      <c r="AR80" s="119"/>
+      <c r="AS80" s="119"/>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A81" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="137" t="s">
+      <c r="B81" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="137"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93"/>
-      <c r="L78" s="93"/>
-      <c r="M78" s="93"/>
-      <c r="N78" s="93"/>
-      <c r="O78" s="92"/>
-      <c r="P78" s="92"/>
-      <c r="Q78" s="92"/>
-      <c r="R78" s="162"/>
-      <c r="S78" s="162"/>
-      <c r="T78" s="93"/>
-      <c r="U78" s="93"/>
-      <c r="V78" s="93"/>
-      <c r="W78" s="93"/>
-      <c r="X78" s="93"/>
-    </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A79" s="176"/>
-      <c r="B79" s="177"/>
-      <c r="C79" s="177"/>
-      <c r="D79" s="177"/>
-      <c r="E79" s="177"/>
-      <c r="F79" s="177"/>
-      <c r="G79" s="177"/>
-      <c r="H79" s="177"/>
-      <c r="I79" s="177"/>
-      <c r="J79" s="177"/>
-      <c r="K79" s="177"/>
-      <c r="L79" s="177"/>
-      <c r="M79" s="177"/>
-      <c r="N79" s="177"/>
-      <c r="O79" s="177"/>
-      <c r="P79" s="177"/>
-      <c r="Q79" s="177"/>
-      <c r="R79" s="177"/>
-      <c r="S79" s="177"/>
-      <c r="T79" s="177"/>
-      <c r="U79" s="177"/>
-      <c r="V79" s="177"/>
-      <c r="W79" s="177"/>
-      <c r="X79" s="177"/>
-    </row>
-    <row r="80" spans="1:45" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="114" t="s">
+      <c r="C81" s="137"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="93"/>
+      <c r="K81" s="93"/>
+      <c r="L81" s="93"/>
+      <c r="M81" s="93"/>
+      <c r="N81" s="93"/>
+      <c r="O81" s="92"/>
+      <c r="P81" s="92"/>
+      <c r="Q81" s="92"/>
+      <c r="R81" s="162"/>
+      <c r="S81" s="162"/>
+      <c r="T81" s="93"/>
+      <c r="U81" s="93"/>
+      <c r="V81" s="93"/>
+      <c r="W81" s="93"/>
+      <c r="X81" s="93"/>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A82" s="175"/>
+      <c r="B82" s="176"/>
+      <c r="C82" s="176"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="176"/>
+      <c r="F82" s="176"/>
+      <c r="G82" s="176"/>
+      <c r="H82" s="176"/>
+      <c r="I82" s="176"/>
+      <c r="J82" s="176"/>
+      <c r="K82" s="176"/>
+      <c r="L82" s="176"/>
+      <c r="M82" s="176"/>
+      <c r="N82" s="176"/>
+      <c r="O82" s="176"/>
+      <c r="P82" s="176"/>
+      <c r="Q82" s="176"/>
+      <c r="R82" s="176"/>
+      <c r="S82" s="176"/>
+      <c r="T82" s="176"/>
+      <c r="U82" s="176"/>
+      <c r="V82" s="176"/>
+      <c r="W82" s="176"/>
+      <c r="X82" s="176"/>
+    </row>
+    <row r="83" spans="1:45" s="118" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="147"/>
-      <c r="C80" s="147"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="115"/>
-      <c r="F80" s="115"/>
-      <c r="G80" s="116"/>
-      <c r="H80" s="116"/>
-      <c r="I80" s="116"/>
-      <c r="J80" s="116"/>
-      <c r="K80" s="116"/>
-      <c r="L80" s="116"/>
-      <c r="M80" s="116"/>
-      <c r="N80" s="116"/>
-      <c r="O80" s="116"/>
-      <c r="P80" s="116"/>
-      <c r="Q80" s="116"/>
-      <c r="R80" s="117"/>
-      <c r="S80" s="117"/>
-      <c r="T80" s="117"/>
-      <c r="U80" s="117"/>
-      <c r="V80" s="117"/>
-      <c r="W80" s="116"/>
-      <c r="X80" s="116"/>
-      <c r="Y80" s="61"/>
-      <c r="Z80" s="61"/>
-      <c r="AA80" s="61"/>
-      <c r="AB80" s="61"/>
-      <c r="AC80" s="61"/>
-      <c r="AD80" s="61"/>
-      <c r="AE80" s="61"/>
-      <c r="AF80" s="61"/>
-      <c r="AG80" s="61"/>
-      <c r="AH80" s="61"/>
-      <c r="AI80" s="61"/>
-      <c r="AJ80" s="61"/>
-      <c r="AK80" s="61"/>
-      <c r="AL80" s="61"/>
-      <c r="AM80" s="61"/>
-      <c r="AN80" s="61"/>
-      <c r="AO80" s="61"/>
-      <c r="AP80" s="61"/>
-      <c r="AQ80" s="61"/>
-      <c r="AR80" s="61"/>
-      <c r="AS80" s="61"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A81" s="85" t="s">
+      <c r="B83" s="147"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="115"/>
+      <c r="G83" s="116"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="116"/>
+      <c r="M83" s="116"/>
+      <c r="N83" s="116"/>
+      <c r="O83" s="116"/>
+      <c r="P83" s="116"/>
+      <c r="Q83" s="116"/>
+      <c r="R83" s="117"/>
+      <c r="S83" s="117"/>
+      <c r="T83" s="117"/>
+      <c r="U83" s="117"/>
+      <c r="V83" s="117"/>
+      <c r="W83" s="116"/>
+      <c r="X83" s="116"/>
+      <c r="Y83" s="61"/>
+      <c r="Z83" s="61"/>
+      <c r="AA83" s="61"/>
+      <c r="AB83" s="61"/>
+      <c r="AC83" s="61"/>
+      <c r="AD83" s="61"/>
+      <c r="AE83" s="61"/>
+      <c r="AF83" s="61"/>
+      <c r="AG83" s="61"/>
+      <c r="AH83" s="61"/>
+      <c r="AI83" s="61"/>
+      <c r="AJ83" s="61"/>
+      <c r="AK83" s="61"/>
+      <c r="AL83" s="61"/>
+      <c r="AM83" s="61"/>
+      <c r="AN83" s="61"/>
+      <c r="AO83" s="61"/>
+      <c r="AP83" s="61"/>
+      <c r="AQ83" s="61"/>
+      <c r="AR83" s="61"/>
+      <c r="AS83" s="61"/>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A84" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="132"/>
-      <c r="E81" s="132"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="132"/>
-      <c r="H81" s="132"/>
-      <c r="I81" s="132"/>
-      <c r="J81" s="132"/>
-      <c r="K81" s="132"/>
-      <c r="L81" s="132"/>
-      <c r="M81" s="132"/>
-      <c r="N81" s="132"/>
-      <c r="O81" s="133"/>
-      <c r="P81" s="133"/>
-      <c r="Q81" s="133"/>
-      <c r="R81" s="133"/>
-      <c r="S81" s="133"/>
-      <c r="T81" s="132"/>
-      <c r="U81" s="132"/>
-      <c r="V81" s="132"/>
-      <c r="W81" s="132"/>
-      <c r="X81" s="132"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A85" s="183"/>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
-      <c r="G85" s="183"/>
-      <c r="H85" s="183"/>
-      <c r="I85" s="183"/>
-      <c r="J85" s="183"/>
-      <c r="K85" s="183"/>
-      <c r="L85" s="183"/>
-      <c r="M85" s="183"/>
-      <c r="N85" s="183"/>
-      <c r="O85" s="183"/>
-      <c r="P85" s="183"/>
-      <c r="Q85" s="183"/>
-      <c r="R85" s="183"/>
-      <c r="S85" s="183"/>
-      <c r="T85" s="183"/>
-      <c r="U85" s="183"/>
-      <c r="V85" s="183"/>
-      <c r="W85" s="183"/>
-      <c r="X85" s="183"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A86" s="172"/>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
-      <c r="G86" s="171"/>
-      <c r="H86" s="171"/>
-      <c r="I86" s="171"/>
-      <c r="J86" s="171"/>
-      <c r="K86" s="171"/>
-      <c r="L86" s="171"/>
-      <c r="M86" s="171"/>
-      <c r="N86" s="171"/>
-      <c r="O86" s="171"/>
-      <c r="P86" s="171"/>
-      <c r="Q86" s="171"/>
-      <c r="R86" s="171"/>
-      <c r="S86" s="171"/>
-      <c r="T86" s="171"/>
-      <c r="U86" s="171"/>
-      <c r="V86" s="171"/>
-      <c r="W86" s="171"/>
-      <c r="X86" s="171"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A87" s="171"/>
-      <c r="B87" s="171"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="171"/>
-      <c r="H87" s="171"/>
-      <c r="I87" s="171"/>
-      <c r="J87" s="171"/>
-      <c r="K87" s="171"/>
-      <c r="L87" s="171"/>
-      <c r="M87" s="171"/>
-      <c r="N87" s="171"/>
-      <c r="O87" s="171"/>
-      <c r="P87" s="171"/>
-      <c r="Q87" s="171"/>
-      <c r="R87" s="171"/>
-      <c r="S87" s="171"/>
-      <c r="T87" s="171"/>
-      <c r="U87" s="171"/>
-      <c r="V87" s="171"/>
-      <c r="W87" s="171"/>
-      <c r="X87" s="171"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="132"/>
+      <c r="G84" s="132"/>
+      <c r="H84" s="132"/>
+      <c r="I84" s="132"/>
+      <c r="J84" s="132"/>
+      <c r="K84" s="132"/>
+      <c r="L84" s="132"/>
+      <c r="M84" s="132"/>
+      <c r="N84" s="132"/>
+      <c r="O84" s="133"/>
+      <c r="P84" s="133"/>
+      <c r="Q84" s="133"/>
+      <c r="R84" s="133"/>
+      <c r="S84" s="133"/>
+      <c r="T84" s="132"/>
+      <c r="U84" s="132"/>
+      <c r="V84" s="132"/>
+      <c r="W84" s="132"/>
+      <c r="X84" s="132"/>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A88" s="177"/>
+      <c r="B88" s="177"/>
+      <c r="C88" s="177"/>
+      <c r="D88" s="177"/>
+      <c r="E88" s="177"/>
+      <c r="F88" s="177"/>
+      <c r="G88" s="177"/>
+      <c r="H88" s="177"/>
+      <c r="I88" s="177"/>
+      <c r="J88" s="177"/>
+      <c r="K88" s="177"/>
+      <c r="L88" s="177"/>
+      <c r="M88" s="177"/>
+      <c r="N88" s="177"/>
+      <c r="O88" s="177"/>
+      <c r="P88" s="177"/>
+      <c r="Q88" s="177"/>
+      <c r="R88" s="177"/>
+      <c r="S88" s="177"/>
+      <c r="T88" s="177"/>
+      <c r="U88" s="177"/>
+      <c r="V88" s="177"/>
+      <c r="W88" s="177"/>
+      <c r="X88" s="177"/>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A89" s="178"/>
+      <c r="B89" s="171"/>
+      <c r="C89" s="171"/>
+      <c r="D89" s="171"/>
+      <c r="E89" s="171"/>
+      <c r="F89" s="171"/>
+      <c r="G89" s="171"/>
+      <c r="H89" s="171"/>
+      <c r="I89" s="171"/>
+      <c r="J89" s="171"/>
+      <c r="K89" s="171"/>
+      <c r="L89" s="171"/>
+      <c r="M89" s="171"/>
+      <c r="N89" s="171"/>
+      <c r="O89" s="171"/>
+      <c r="P89" s="171"/>
+      <c r="Q89" s="171"/>
+      <c r="R89" s="171"/>
+      <c r="S89" s="171"/>
+      <c r="T89" s="171"/>
+      <c r="U89" s="171"/>
+      <c r="V89" s="171"/>
+      <c r="W89" s="171"/>
+      <c r="X89" s="171"/>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A90" s="171"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
+      <c r="G90" s="171"/>
+      <c r="H90" s="171"/>
+      <c r="I90" s="171"/>
+      <c r="J90" s="171"/>
+      <c r="K90" s="171"/>
+      <c r="L90" s="171"/>
+      <c r="M90" s="171"/>
+      <c r="N90" s="171"/>
+      <c r="O90" s="171"/>
+      <c r="P90" s="171"/>
+      <c r="Q90" s="171"/>
+      <c r="R90" s="171"/>
+      <c r="S90" s="171"/>
+      <c r="T90" s="171"/>
+      <c r="U90" s="171"/>
+      <c r="V90" s="171"/>
+      <c r="W90" s="171"/>
+      <c r="X90" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A87:X87"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="A82:X82"/>
+    <mergeCell ref="A64:X64"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A90:X90"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A22:X22"/>
     <mergeCell ref="A39:X39"/>
     <mergeCell ref="A50:X50"/>
-    <mergeCell ref="A74:X74"/>
-    <mergeCell ref="A85:X85"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A86:X86"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="A79:X79"/>
-    <mergeCell ref="A64:X64"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A77:X77"/>
+    <mergeCell ref="A88:X88"/>
   </mergeCells>
   <conditionalFormatting sqref="A47:C47">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:C48">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -4890,8 +4995,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C48">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4902,7 +5007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4914,8 +5019,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="A52">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4926,7 +5031,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="A56:A58">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4938,19 +5043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A58">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:C68">
+  <conditionalFormatting sqref="A72:C72">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4962,7 +5055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:C69">
+  <conditionalFormatting sqref="A74:C74">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4974,7 +5067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:C71">
+  <conditionalFormatting sqref="A76:C76">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4986,8 +5079,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:C73">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="A59:C59">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4998,20 +5091,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:C59">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:C72">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="A75:C75">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5023,7 +5104,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:C37 A33:A35">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:C71">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7129,6 +7234,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -7285,41 +7410,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7342,9 +7436,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Desktop/P2Pflichtenheft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF6AECF-ED14-8141-B4C5-483C375323D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB6E45-03FE-4CB8-83E7-79F32664C9B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="44760" windowHeight="22720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
-    <sheet name="Projektbudget" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
+    <sheet name="Projektbudget" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$64:$X$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$56:$X$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -395,21 +396,6 @@
     <t>KW 19 (Projektwoche)</t>
   </si>
   <si>
-    <t>1.4 Statusbericht 1</t>
-  </si>
-  <si>
-    <t>1.5 Statusbericht 2</t>
-  </si>
-  <si>
-    <t>1.6 Statusbericht 3</t>
-  </si>
-  <si>
-    <t>1.7 Statusbericht 4</t>
-  </si>
-  <si>
-    <t>1.1 Projektmanagment</t>
-  </si>
-  <si>
     <t>5. Vaildierung</t>
   </si>
   <si>
@@ -419,12 +405,6 @@
     <t>2.2 Fachbereich Elektrotechnik</t>
   </si>
   <si>
-    <t>1.3 Fachliches Pflichtenheft</t>
-  </si>
-  <si>
-    <t>1.9 Diverses</t>
-  </si>
-  <si>
     <t>3.1 Fachbereich Software</t>
   </si>
   <si>
@@ -452,36 +432,6 @@
     <t>3.1.1 GUI entwerfen</t>
   </si>
   <si>
-    <t>6. Reserve</t>
-  </si>
-  <si>
-    <t>6.1 Reserve</t>
-  </si>
-  <si>
-    <t>1.2 Organisatorisches Pflichtenheft</t>
-  </si>
-  <si>
-    <t>1.2.1 Projektorganisation/ Kommunikationskonzept</t>
-  </si>
-  <si>
-    <t>1.2.2 Planung/ Budget</t>
-  </si>
-  <si>
-    <t>1.2.3 Risikomanagement</t>
-  </si>
-  <si>
-    <t>1.3.1 Übersicht</t>
-  </si>
-  <si>
-    <t>1.8 Projektabschluss</t>
-  </si>
-  <si>
-    <t>1.8.1 Präsentation</t>
-  </si>
-  <si>
-    <t>1.8.2 Projektauflösung</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
@@ -567,6 +517,54 @@
   </si>
   <si>
     <t>4.1.4 Import und Export</t>
+  </si>
+  <si>
+    <t>1.1 Projektmanagement</t>
+  </si>
+  <si>
+    <t>1.4 Zwischenpräsentation</t>
+  </si>
+  <si>
+    <t>1.5 Statusbericht 1</t>
+  </si>
+  <si>
+    <t>1.6 Statusbericht 2</t>
+  </si>
+  <si>
+    <t>1.7 Statusbericht 3</t>
+  </si>
+  <si>
+    <t>1.8 Statusbericht 4</t>
+  </si>
+  <si>
+    <t>1.9 Projektabschluss</t>
+  </si>
+  <si>
+    <t>7. Dokumentation</t>
+  </si>
+  <si>
+    <t>7.1 Organisatorisches Pflichtenheft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 Fachliches Pflichtenheft </t>
+  </si>
+  <si>
+    <t>7.3 Fachbericht</t>
+  </si>
+  <si>
+    <t>6. Präsentationen</t>
+  </si>
+  <si>
+    <t>6.1 Zwischenpräsentation</t>
+  </si>
+  <si>
+    <t>6.2 Schlusspräsentation</t>
+  </si>
+  <si>
+    <t>8. Reserve</t>
+  </si>
+  <si>
+    <t>8.1 Reserve</t>
   </si>
 </sst>
 </file>
@@ -713,7 +711,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,12 +816,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -846,8 +838,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1030,15 +1034,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1150,7 +1145,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1297,10 +1292,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1422,9 +1417,6 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1455,8 +1447,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1484,9 +1474,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1496,122 +1483,150 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard 2 2" xfId="2" xr:uid="{4C1626EA-4BB4-40D1-A1BB-A1A6B41C9248}"/>
   </cellStyles>
@@ -1645,7 +1660,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1946,7 +1961,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1978,7 +1993,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2317,56 +2332,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS90"/>
+  <dimension ref="A1:AS89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="194" zoomScaleNormal="194" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="61" customWidth="1"/>
-    <col min="2" max="3" width="4.6640625" style="129" customWidth="1"/>
-    <col min="4" max="24" width="6.6640625" style="61" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="61"/>
+    <col min="1" max="1" width="45.69921875" style="61" customWidth="1"/>
+    <col min="2" max="3" width="4.69921875" style="126" customWidth="1"/>
+    <col min="4" max="24" width="6.69921875" style="61" customWidth="1"/>
+    <col min="25" max="16384" width="10.796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="10.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="171"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="179">
+    <row r="1" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="163"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="164">
         <v>2019</v>
       </c>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="181"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="171"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="166"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="163"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="63" t="s">
         <v>87</v>
       </c>
@@ -2400,13 +2415,13 @@
       <c r="N3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="179" t="s">
+      <c r="O3" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
       <c r="T3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2423,10 +2438,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="171"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="163"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="63">
         <v>18.02</v>
       </c>
@@ -2460,19 +2475,19 @@
       <c r="N4" s="65">
         <v>29.04</v>
       </c>
-      <c r="O4" s="123">
+      <c r="O4" s="120">
         <v>6.05</v>
       </c>
-      <c r="P4" s="123">
+      <c r="P4" s="120">
         <v>7.05</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="Q4" s="120">
         <v>8.0500000000000007</v>
       </c>
-      <c r="R4" s="123">
+      <c r="R4" s="120">
         <v>9.0500000000000007</v>
       </c>
-      <c r="S4" s="123">
+      <c r="S4" s="120">
         <v>10.050000000000001</v>
       </c>
       <c r="T4" s="63">
@@ -2491,71 +2506,71 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="121" t="s">
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-    </row>
-    <row r="7" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="172"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="172"/>
-      <c r="X7" s="172"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+    </row>
+    <row r="7" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="117" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="62"/>
@@ -2568,25 +2583,25 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
       <c r="N8" s="63"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="63"/>
       <c r="W8" s="63"/>
       <c r="X8" s="63"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="117" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="62"/>
@@ -2598,18 +2613,18 @@
       <c r="L9" s="63"/>
       <c r="M9" s="63"/>
       <c r="N9" s="63"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
       <c r="V9" s="63"/>
       <c r="W9" s="63"/>
       <c r="X9" s="63"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2619,7 +2634,7 @@
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="63"/>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="117" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="68"/>
@@ -2628,18 +2643,18 @@
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
       <c r="N10" s="63"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
       <c r="X10" s="63"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>104</v>
       </c>
@@ -2650,7 +2665,7 @@
       <c r="F11" s="62"/>
       <c r="G11" s="63"/>
       <c r="H11" s="67"/>
-      <c r="I11" s="120" t="s">
+      <c r="I11" s="117" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="66"/>
@@ -2658,18 +2673,18 @@
       <c r="L11" s="63"/>
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
       <c r="T11" s="62"/>
       <c r="U11" s="63"/>
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
       <c r="X11" s="63"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>105</v>
       </c>
@@ -2681,30 +2696,30 @@
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
-      <c r="J12" s="120" t="s">
+      <c r="J12" s="117" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="62"/>
       <c r="L12" s="63"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
       <c r="V12" s="63"/>
       <c r="W12" s="63"/>
       <c r="X12" s="63"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
@@ -2712,24 +2727,24 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="66"/>
-      <c r="K13" s="120" t="s">
+      <c r="K13" s="117" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="66"/>
       <c r="M13" s="66"/>
       <c r="N13" s="63"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="124"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="121"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
       <c r="V13" s="63"/>
       <c r="W13" s="63"/>
       <c r="X13" s="63"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>108</v>
       </c>
@@ -2745,20 +2760,20 @@
       <c r="K14" s="62"/>
       <c r="L14" s="66"/>
       <c r="M14" s="66"/>
-      <c r="N14" s="120" t="s">
+      <c r="N14" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
       <c r="U14" s="63"/>
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
       <c r="X14" s="63"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>109</v>
       </c>
@@ -2775,22 +2790,22 @@
       <c r="L15" s="63"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="120" t="s">
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="117" t="s">
         <v>2</v>
       </c>
       <c r="U15" s="63"/>
       <c r="V15" s="62"/>
       <c r="W15" s="63"/>
-      <c r="X15" s="120" t="s">
+      <c r="X15" s="117" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>110</v>
       </c>
@@ -2807,20 +2822,20 @@
       <c r="L16" s="63"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
       <c r="T16" s="86"/>
       <c r="U16" s="63"/>
       <c r="V16" s="62"/>
       <c r="W16" s="63"/>
-      <c r="X16" s="120" t="s">
+      <c r="X16" s="117" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>111</v>
       </c>
@@ -2837,20 +2852,20 @@
       <c r="L17" s="63"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
       <c r="T17" s="86"/>
       <c r="U17" s="63"/>
       <c r="V17" s="62"/>
       <c r="W17" s="63"/>
-      <c r="X17" s="120" t="s">
+      <c r="X17" s="117" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
@@ -2865,136 +2880,137 @@
       <c r="L18" s="63"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
       <c r="T18" s="62"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
     </row>
-    <row r="19" spans="1:25" ht="6.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="164"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-    </row>
-    <row r="20" spans="1:25" ht="85.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="165"/>
-      <c r="B20" s="182" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="182" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="167"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21" s="168" t="s">
+    <row r="19" spans="1:25" ht="6.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="155"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+    </row>
+    <row r="20" spans="1:25" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="156"/>
+      <c r="B20" s="171" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="171" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="157"/>
+      <c r="X20" s="157"/>
+      <c r="Y20" s="158"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="169"/>
-      <c r="Q21" s="169"/>
-      <c r="R21" s="169"/>
-      <c r="S21" s="169"/>
-      <c r="T21" s="169"/>
-      <c r="U21" s="169"/>
-      <c r="V21" s="169"/>
-      <c r="W21" s="169"/>
-      <c r="X21" s="169"/>
-      <c r="Y21" s="170"/>
-    </row>
-    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="172"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="172"/>
-      <c r="R22" s="172"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="172"/>
-      <c r="W22" s="172"/>
-      <c r="X22" s="172"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="160"/>
+      <c r="U21" s="160"/>
+      <c r="V21" s="160"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="161"/>
+    </row>
+    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="173"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="173"/>
+      <c r="T22" s="173"/>
+      <c r="U22" s="173"/>
+      <c r="V22" s="173"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136">
-        <v>62</v>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131">
+        <f>SUM(C24:C24,C26,C27,C28,C29,C30,C25)</f>
+        <v>45</v>
       </c>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -3018,14 +3034,16 @@
       <c r="W23" s="102"/>
       <c r="X23" s="103"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="137"/>
+        <v>154</v>
+      </c>
+      <c r="B24" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="132">
+        <v>25</v>
+      </c>
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
       <c r="F24" s="104"/>
@@ -3048,1048 +3066,1146 @@
       <c r="W24" s="104"/>
       <c r="X24" s="104"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="138"/>
+        <v>155</v>
+      </c>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133">
+        <v>5</v>
+      </c>
       <c r="D25" s="73"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="105"/>
-      <c r="K25" s="76"/>
+      <c r="K25" s="106"/>
       <c r="L25" s="76"/>
       <c r="M25" s="76"/>
       <c r="N25" s="76"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
       <c r="T25" s="74"/>
       <c r="U25" s="66"/>
       <c r="V25" s="66"/>
       <c r="W25" s="66"/>
       <c r="X25" s="66"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A26" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="133">
+        <v>2</v>
+      </c>
       <c r="D26" s="73"/>
       <c r="E26" s="105"/>
       <c r="F26" s="105"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="73"/>
       <c r="K26" s="76"/>
       <c r="L26" s="76"/>
       <c r="M26" s="76"/>
       <c r="N26" s="76"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
       <c r="T26" s="74"/>
       <c r="U26" s="66"/>
       <c r="V26" s="66"/>
       <c r="W26" s="66"/>
       <c r="X26" s="66"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A27" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="133">
+        <v>2</v>
+      </c>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
       <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
       <c r="T27" s="74"/>
       <c r="U27" s="66"/>
       <c r="V27" s="66"/>
       <c r="W27" s="66"/>
       <c r="X27" s="66"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A28" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="133">
+        <v>2</v>
+      </c>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
       <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="J28" s="76"/>
       <c r="K28" s="76"/>
       <c r="L28" s="76"/>
       <c r="M28" s="76"/>
       <c r="N28" s="76"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="74"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
       <c r="U28" s="66"/>
       <c r="V28" s="66"/>
       <c r="W28" s="66"/>
       <c r="X28" s="66"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="138"/>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="133">
+        <v>4</v>
+      </c>
       <c r="D29" s="73"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="76"/>
       <c r="K29" s="76"/>
       <c r="L29" s="76"/>
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A30" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="133">
+        <v>5</v>
+      </c>
       <c r="D30" s="73"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
       <c r="H30" s="73"/>
       <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
+      <c r="J30" s="76"/>
       <c r="K30" s="76"/>
       <c r="L30" s="76"/>
       <c r="M30" s="76"/>
       <c r="N30" s="76"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="74"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="66"/>
       <c r="U30" s="66"/>
       <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-    </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A31" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-    </row>
-    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A32" s="87" t="s">
+      <c r="W30" s="107"/>
+      <c r="X30" s="107"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="169"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="170"/>
+      <c r="X31" s="170"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135">
+        <f>SUM(C38,C33)</f>
+        <v>51</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="138"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-    </row>
-    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A33" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="138"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="136">
+        <f>SUM(C34:C37)</f>
+        <v>31</v>
+      </c>
+      <c r="D33" s="78"/>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
       <c r="H33" s="73"/>
       <c r="I33" s="73"/>
-      <c r="J33" s="76"/>
+      <c r="J33" s="73"/>
       <c r="K33" s="76"/>
       <c r="L33" s="76"/>
       <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-    </row>
-    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136">
+        <v>8</v>
+      </c>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
       <c r="G34" s="73"/>
       <c r="H34" s="73"/>
       <c r="I34" s="73"/>
-      <c r="J34" s="76"/>
+      <c r="J34" s="73"/>
       <c r="K34" s="76"/>
       <c r="L34" s="76"/>
       <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="125"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-    </row>
-    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A35" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="137" t="s">
+      <c r="N34" s="79"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="124"/>
+      <c r="S34" s="124"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="138"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136">
+        <v>10</v>
+      </c>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
       <c r="G35" s="73"/>
       <c r="H35" s="73"/>
       <c r="I35" s="73"/>
-      <c r="J35" s="76"/>
+      <c r="J35" s="73"/>
       <c r="K35" s="76"/>
       <c r="L35" s="76"/>
       <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-    </row>
-    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A36" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="139"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="124"/>
+      <c r="S35" s="124"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136">
+        <v>8</v>
+      </c>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="141"/>
       <c r="H36" s="73"/>
       <c r="I36" s="73"/>
-      <c r="J36" s="76"/>
+      <c r="J36" s="73"/>
       <c r="K36" s="76"/>
       <c r="L36" s="76"/>
       <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="125"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-    </row>
-    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A37" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="124"/>
+      <c r="S36" s="124"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136">
+        <v>5</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="141"/>
       <c r="H37" s="73"/>
       <c r="I37" s="73"/>
-      <c r="J37" s="76"/>
+      <c r="J37" s="73"/>
       <c r="K37" s="76"/>
       <c r="L37" s="76"/>
       <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="N37" s="79"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="124"/>
+      <c r="S37" s="124"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="106"/>
-      <c r="U38" s="106"/>
-      <c r="V38" s="106"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="106"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A39" s="173"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="174"/>
-      <c r="M39" s="174"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="174"/>
-      <c r="U39" s="174"/>
-      <c r="V39" s="174"/>
-      <c r="W39" s="174"/>
-      <c r="X39" s="174"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A40" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140">
-        <v>174</v>
-      </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="91"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="91"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="91"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A41" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="141" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="141"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
+        <v>115</v>
+      </c>
+      <c r="B38" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="132">
+        <f>SUM(C39:C41)</f>
+        <v>20</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137">
+        <v>10</v>
+      </c>
+      <c r="D39" s="143"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="124"/>
+      <c r="S39" s="124"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134">
+        <v>5</v>
+      </c>
+      <c r="D40" s="73"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137">
+        <v>5</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
       <c r="K41" s="76"/>
       <c r="L41" s="76"/>
       <c r="M41" s="76"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="80"/>
-      <c r="V41" s="80"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="79"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A42" s="134" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="80"/>
-      <c r="U42" s="80"/>
-      <c r="V42" s="80"/>
-      <c r="W42" s="79"/>
-      <c r="X42" s="79"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A43" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="127"/>
-      <c r="T43" s="80"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="80"/>
-      <c r="W43" s="79"/>
-      <c r="X43" s="79"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A44" s="134" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
+      <c r="L42" s="170"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="170"/>
+      <c r="O42" s="170"/>
+      <c r="P42" s="170"/>
+      <c r="Q42" s="170"/>
+      <c r="R42" s="170"/>
+      <c r="S42" s="170"/>
+      <c r="T42" s="170"/>
+      <c r="U42" s="170"/>
+      <c r="V42" s="170"/>
+      <c r="W42" s="170"/>
+      <c r="X42" s="170"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="138"/>
+      <c r="C43" s="138">
+        <f>SUM(C44,C48,C52)</f>
+        <v>113</v>
+      </c>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="96"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="136">
+        <f>SUM(C45:C47)</f>
+        <v>38</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
       <c r="J44" s="73"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="79"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
       <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="80"/>
-      <c r="U44" s="80"/>
-      <c r="V44" s="80"/>
-      <c r="W44" s="79"/>
-      <c r="X44" s="79"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A45" s="134" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="73"/>
+      <c r="P44" s="124"/>
+      <c r="Q44" s="124"/>
+      <c r="R44" s="124"/>
+      <c r="S44" s="124"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133">
+        <v>15</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
       <c r="I45" s="73"/>
       <c r="J45" s="73"/>
-      <c r="K45" s="76"/>
+      <c r="K45" s="73"/>
       <c r="L45" s="76"/>
       <c r="M45" s="76"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="125"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="127"/>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
-      <c r="W45" s="79"/>
-      <c r="X45" s="79"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A46" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="124"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="124"/>
+      <c r="S45" s="124"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133">
+        <v>15</v>
+      </c>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
       <c r="L46" s="76"/>
       <c r="M46" s="76"/>
       <c r="N46" s="76"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="126"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="123"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="123"/>
+      <c r="S46" s="123"/>
       <c r="T46" s="66"/>
       <c r="U46" s="66"/>
       <c r="V46" s="66"/>
       <c r="W46" s="66"/>
       <c r="X46" s="66"/>
     </row>
-    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A47" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="142"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133">
+        <v>8</v>
+      </c>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
       <c r="K47" s="76"/>
       <c r="L47" s="76"/>
       <c r="M47" s="76"/>
       <c r="N47" s="76"/>
-      <c r="O47" s="125"/>
-      <c r="P47" s="127"/>
-      <c r="Q47" s="127"/>
-      <c r="R47" s="127"/>
-      <c r="S47" s="127"/>
-      <c r="T47" s="82"/>
+      <c r="O47" s="122"/>
+      <c r="P47" s="123"/>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="123"/>
+      <c r="S47" s="123"/>
+      <c r="T47" s="66"/>
       <c r="U47" s="66"/>
       <c r="V47" s="66"/>
       <c r="W47" s="66"/>
       <c r="X47" s="66"/>
     </row>
-    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A48" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="139"/>
-      <c r="C48" s="139"/>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="136">
+        <f>SUM(C49:C51)</f>
+        <v>40</v>
+      </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
       <c r="L48" s="76"/>
       <c r="M48" s="76"/>
       <c r="N48" s="76"/>
-      <c r="O48" s="125"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="126"/>
-      <c r="T48" s="66"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="124"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="124"/>
+      <c r="T48" s="82"/>
       <c r="U48" s="66"/>
       <c r="V48" s="66"/>
-      <c r="W48" s="66"/>
-      <c r="X48" s="66"/>
-    </row>
-    <row r="49" spans="1:30" ht="15" x14ac:dyDescent="0.15">
-      <c r="A49" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="76"/>
+      <c r="W48" s="76"/>
+      <c r="X48" s="76"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A49" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133">
+        <v>15</v>
+      </c>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="145"/>
       <c r="L49" s="76"/>
       <c r="M49" s="76"/>
       <c r="N49" s="76"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="126"/>
-      <c r="T49" s="66"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
+      <c r="R49" s="124"/>
+      <c r="S49" s="124"/>
+      <c r="T49" s="82"/>
       <c r="U49" s="66"/>
       <c r="V49" s="66"/>
-      <c r="W49" s="66"/>
-      <c r="X49" s="66"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A50" s="173"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
-      <c r="E50" s="174"/>
-      <c r="F50" s="174"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="174"/>
-      <c r="K50" s="174"/>
-      <c r="L50" s="174"/>
-      <c r="M50" s="174"/>
-      <c r="N50" s="174"/>
-      <c r="O50" s="174"/>
-      <c r="P50" s="174"/>
-      <c r="Q50" s="174"/>
-      <c r="R50" s="174"/>
-      <c r="S50" s="174"/>
-      <c r="T50" s="174"/>
-      <c r="U50" s="174"/>
-      <c r="V50" s="174"/>
-      <c r="W50" s="174"/>
-      <c r="X50" s="174"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A51" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="97"/>
-      <c r="S51" s="97"/>
-      <c r="T51" s="97"/>
-      <c r="U51" s="97"/>
-      <c r="V51" s="97"/>
-      <c r="W51" s="96"/>
-      <c r="X51" s="96"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="W49" s="76"/>
+      <c r="X49" s="76"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A50" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133">
+        <v>15</v>
+      </c>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="146"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="124"/>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="124"/>
+      <c r="S50" s="124"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A51" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133">
+        <v>10</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="146"/>
+      <c r="M51" s="146"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="123"/>
+      <c r="P51" s="124"/>
+      <c r="Q51" s="124"/>
+      <c r="R51" s="124"/>
+      <c r="S51" s="124"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="76"/>
+      <c r="X51" s="76"/>
+    </row>
+    <row r="52" spans="1:45" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="141" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="141"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
+        <v>118</v>
+      </c>
+      <c r="B52" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="136">
+        <f>SUM(C53:C55)</f>
+        <v>35</v>
+      </c>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="76"/>
       <c r="H52" s="76"/>
       <c r="I52" s="76"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="128"/>
-      <c r="P52" s="127"/>
-      <c r="Q52" s="127"/>
-      <c r="R52" s="127"/>
-      <c r="S52" s="127"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="124"/>
+      <c r="Q52" s="124"/>
+      <c r="R52" s="124"/>
+      <c r="S52" s="124"/>
       <c r="T52" s="82"/>
-      <c r="U52" s="66"/>
-      <c r="V52" s="66"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+    </row>
+    <row r="53" spans="1:45" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
+        <v>135</v>
+      </c>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133">
+        <v>15</v>
+      </c>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
       <c r="L53" s="76"/>
       <c r="M53" s="76"/>
       <c r="N53" s="76"/>
-      <c r="O53" s="125"/>
-      <c r="P53" s="127"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="127"/>
+      <c r="O53" s="122"/>
+      <c r="P53" s="124"/>
+      <c r="Q53" s="124"/>
+      <c r="R53" s="124"/>
+      <c r="S53" s="124"/>
       <c r="T53" s="82"/>
-      <c r="U53" s="66"/>
-      <c r="V53" s="66"/>
-      <c r="W53" s="76"/>
-      <c r="X53" s="76"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
+        <v>136</v>
+      </c>
+      <c r="B54" s="133"/>
+      <c r="C54" s="133">
+        <v>10</v>
+      </c>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
       <c r="L54" s="76"/>
       <c r="M54" s="76"/>
       <c r="N54" s="76"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="126"/>
-      <c r="Q54" s="126"/>
-      <c r="R54" s="126"/>
-      <c r="S54" s="126"/>
-      <c r="T54" s="66"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="124"/>
+      <c r="Q54" s="124"/>
+      <c r="R54" s="124"/>
+      <c r="S54" s="124"/>
+      <c r="T54" s="82"/>
       <c r="U54" s="66"/>
-      <c r="V54" s="66"/>
-      <c r="W54" s="66"/>
-      <c r="X54" s="66"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A55" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
+      <c r="V54" s="76"/>
+      <c r="W54" s="76"/>
+      <c r="X54" s="76"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A55" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="132"/>
+      <c r="C55" s="132">
+        <v>10</v>
+      </c>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
       <c r="G55" s="76"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
       <c r="K55" s="76"/>
       <c r="L55" s="76"/>
       <c r="M55" s="76"/>
       <c r="N55" s="76"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="66"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="124"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="124"/>
+      <c r="T55" s="82"/>
       <c r="U55" s="66"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
-      <c r="X55" s="66"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A56" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="138"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="125"/>
-      <c r="P56" s="127"/>
-      <c r="Q56" s="127"/>
-      <c r="R56" s="127"/>
-      <c r="S56" s="127"/>
-      <c r="T56" s="82"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="66"/>
-      <c r="W56" s="76"/>
-      <c r="X56" s="76"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A57" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="125"/>
-      <c r="P57" s="127"/>
-      <c r="Q57" s="127"/>
-      <c r="R57" s="127"/>
-      <c r="S57" s="127"/>
-      <c r="T57" s="82"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="66"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="76"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A58" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="76"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="170"/>
+      <c r="M56" s="170"/>
+      <c r="N56" s="170"/>
+      <c r="O56" s="170"/>
+      <c r="P56" s="170"/>
+      <c r="Q56" s="170"/>
+      <c r="R56" s="170"/>
+      <c r="S56" s="170"/>
+      <c r="T56" s="170"/>
+      <c r="U56" s="170"/>
+      <c r="V56" s="170"/>
+      <c r="W56" s="170"/>
+      <c r="X56" s="170"/>
+    </row>
+    <row r="57" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="139"/>
+      <c r="C57" s="139">
+        <f>SUM(C58,C65)</f>
+        <v>208</v>
+      </c>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="110"/>
+      <c r="M57" s="110"/>
+      <c r="N57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="111"/>
+      <c r="S57" s="111"/>
+      <c r="T57" s="111"/>
+      <c r="U57" s="111"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="110"/>
+      <c r="X57" s="110"/>
+      <c r="Y57" s="61"/>
+      <c r="Z57" s="61"/>
+      <c r="AA57" s="61"/>
+      <c r="AB57" s="61"/>
+      <c r="AC57" s="61"/>
+      <c r="AD57" s="61"/>
+      <c r="AE57" s="61"/>
+      <c r="AF57" s="61"/>
+      <c r="AG57" s="61"/>
+      <c r="AH57" s="61"/>
+      <c r="AI57" s="61"/>
+      <c r="AJ57" s="61"/>
+      <c r="AK57" s="61"/>
+      <c r="AL57" s="61"/>
+      <c r="AM57" s="61"/>
+      <c r="AN57" s="61"/>
+      <c r="AO57" s="61"/>
+      <c r="AP57" s="61"/>
+      <c r="AQ57" s="61"/>
+      <c r="AR57" s="61"/>
+      <c r="AS57" s="61"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A58" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="136">
+        <f>SUM(C59:C64)</f>
+        <v>175</v>
+      </c>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
       <c r="O58" s="125"/>
-      <c r="P58" s="127"/>
-      <c r="Q58" s="127"/>
-      <c r="R58" s="127"/>
-      <c r="S58" s="127"/>
-      <c r="T58" s="82"/>
-      <c r="U58" s="66"/>
-      <c r="V58" s="66"/>
+      <c r="P58" s="125"/>
+      <c r="Q58" s="125"/>
+      <c r="R58" s="125"/>
+      <c r="S58" s="125"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="76"/>
       <c r="W58" s="76"/>
       <c r="X58" s="76"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A59" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A59" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136">
+        <v>20</v>
+      </c>
       <c r="D59" s="73"/>
       <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="152"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="153"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="126"/>
-      <c r="P59" s="127"/>
-      <c r="Q59" s="127"/>
-      <c r="R59" s="127"/>
-      <c r="S59" s="127"/>
-      <c r="T59" s="82"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="150"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="150"/>
+      <c r="Q59" s="150"/>
+      <c r="R59" s="150"/>
+      <c r="S59" s="150"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="76"/>
       <c r="W59" s="76"/>
       <c r="X59" s="76"/>
     </row>
-    <row r="60" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="137"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A60" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136">
+        <v>40</v>
+      </c>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="125"/>
-      <c r="P60" s="127"/>
-      <c r="Q60" s="127"/>
-      <c r="R60" s="127"/>
-      <c r="S60" s="127"/>
-      <c r="T60" s="82"/>
+      <c r="H60" s="150"/>
+      <c r="I60" s="150"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="150"/>
+      <c r="L60" s="150"/>
+      <c r="M60" s="150"/>
+      <c r="N60" s="150"/>
+      <c r="O60" s="150"/>
+      <c r="P60" s="150"/>
+      <c r="Q60" s="150"/>
+      <c r="R60" s="150"/>
+      <c r="S60" s="150"/>
+      <c r="T60" s="73"/>
       <c r="U60" s="73"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="61"/>
-      <c r="AA60" s="61"/>
-      <c r="AB60" s="61"/>
-      <c r="AC60" s="61"/>
-      <c r="AD60" s="61"/>
-    </row>
-    <row r="61" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A61" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="134"/>
+      <c r="C61" s="134">
+        <v>60</v>
+      </c>
       <c r="D61" s="73"/>
       <c r="E61" s="73"/>
       <c r="F61" s="73"/>
@@ -4098,32 +4214,28 @@
       <c r="I61" s="76"/>
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="125"/>
-      <c r="P61" s="127"/>
-      <c r="Q61" s="127"/>
-      <c r="R61" s="127"/>
-      <c r="S61" s="127"/>
-      <c r="T61" s="82"/>
-      <c r="U61" s="73"/>
-      <c r="V61" s="73"/>
-      <c r="W61" s="73"/>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="61"/>
-      <c r="Z61" s="61"/>
-      <c r="AA61" s="61"/>
-      <c r="AB61" s="61"/>
-      <c r="AC61" s="61"/>
-      <c r="AD61" s="61"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A62" s="83" t="s">
+      <c r="L61" s="150"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="150"/>
+      <c r="O61" s="150"/>
+      <c r="P61" s="150"/>
+      <c r="Q61" s="150"/>
+      <c r="R61" s="150"/>
+      <c r="S61" s="150"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="76"/>
+      <c r="V61" s="76"/>
+      <c r="W61" s="76"/>
+      <c r="X61" s="76"/>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A62" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134">
+        <v>25</v>
+      </c>
       <c r="D62" s="73"/>
       <c r="E62" s="73"/>
       <c r="F62" s="73"/>
@@ -4133,623 +4245,634 @@
       <c r="J62" s="76"/>
       <c r="K62" s="76"/>
       <c r="L62" s="76"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="125"/>
-      <c r="P62" s="127"/>
-      <c r="Q62" s="127"/>
-      <c r="R62" s="127"/>
-      <c r="S62" s="127"/>
-      <c r="T62" s="82"/>
-      <c r="U62" s="66"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="150"/>
+      <c r="P62" s="150"/>
+      <c r="Q62" s="150"/>
+      <c r="R62" s="150"/>
+      <c r="S62" s="150"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
       <c r="V62" s="76"/>
       <c r="W62" s="76"/>
       <c r="X62" s="76"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A63" s="156" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A63" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="134"/>
+      <c r="C63" s="134">
+        <v>20</v>
+      </c>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
       <c r="I63" s="76"/>
       <c r="J63" s="76"/>
       <c r="K63" s="76"/>
       <c r="L63" s="76"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="76"/>
-      <c r="O63" s="125"/>
-      <c r="P63" s="127"/>
-      <c r="Q63" s="127"/>
-      <c r="R63" s="127"/>
-      <c r="S63" s="127"/>
-      <c r="T63" s="157"/>
-      <c r="U63" s="158"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="150"/>
+      <c r="P63" s="150"/>
+      <c r="Q63" s="150"/>
+      <c r="R63" s="150"/>
+      <c r="S63" s="150"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
       <c r="V63" s="76"/>
       <c r="W63" s="76"/>
       <c r="X63" s="76"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A64" s="173"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
-      <c r="E64" s="174"/>
-      <c r="F64" s="174"/>
-      <c r="G64" s="174"/>
-      <c r="H64" s="174"/>
-      <c r="I64" s="174"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="174"/>
-      <c r="L64" s="174"/>
-      <c r="M64" s="174"/>
-      <c r="N64" s="174"/>
-      <c r="O64" s="174"/>
-      <c r="P64" s="174"/>
-      <c r="Q64" s="174"/>
-      <c r="R64" s="174"/>
-      <c r="S64" s="174"/>
-      <c r="T64" s="174"/>
-      <c r="U64" s="174"/>
-      <c r="V64" s="174"/>
-      <c r="W64" s="174"/>
-      <c r="X64" s="174"/>
-    </row>
-    <row r="65" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="145"/>
-      <c r="C65" s="145">
-        <v>320</v>
-      </c>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="110"/>
-      <c r="I65" s="110"/>
-      <c r="J65" s="110"/>
-      <c r="K65" s="110"/>
-      <c r="L65" s="110"/>
-      <c r="M65" s="110"/>
-      <c r="N65" s="110"/>
-      <c r="O65" s="110"/>
-      <c r="P65" s="110"/>
-      <c r="Q65" s="110"/>
-      <c r="R65" s="111"/>
-      <c r="S65" s="111"/>
-      <c r="T65" s="111"/>
-      <c r="U65" s="111"/>
-      <c r="V65" s="111"/>
-      <c r="W65" s="110"/>
-      <c r="X65" s="110"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
-      <c r="AB65" s="61"/>
-      <c r="AC65" s="61"/>
-      <c r="AD65" s="61"/>
-      <c r="AE65" s="61"/>
-      <c r="AF65" s="61"/>
-      <c r="AG65" s="61"/>
-      <c r="AH65" s="61"/>
-      <c r="AI65" s="61"/>
-      <c r="AJ65" s="61"/>
-      <c r="AK65" s="61"/>
-      <c r="AL65" s="61"/>
-      <c r="AM65" s="61"/>
-      <c r="AN65" s="61"/>
-      <c r="AO65" s="61"/>
-      <c r="AP65" s="61"/>
-      <c r="AQ65" s="61"/>
-      <c r="AR65" s="61"/>
-      <c r="AS65" s="61"/>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A66" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="141" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="141"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A64" s="147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="134"/>
+      <c r="C64" s="134">
+        <v>10</v>
+      </c>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="122"/>
+      <c r="P64" s="124"/>
+      <c r="Q64" s="124"/>
+      <c r="R64" s="125"/>
+      <c r="S64" s="125"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="76"/>
+      <c r="W64" s="76"/>
+      <c r="X64" s="76"/>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A65" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="133">
+        <f>SUM(C66:C68)</f>
+        <v>33</v>
+      </c>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="125"/>
+      <c r="P65" s="125"/>
+      <c r="Q65" s="125"/>
+      <c r="R65" s="125"/>
+      <c r="S65" s="125"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="76"/>
+      <c r="W65" s="76"/>
+      <c r="X65" s="76"/>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A66" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="134"/>
+      <c r="C66" s="134">
+        <v>10</v>
+      </c>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
       <c r="I66" s="76"/>
       <c r="J66" s="76"/>
       <c r="K66" s="76"/>
       <c r="L66" s="76"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="73"/>
-      <c r="O66" s="128"/>
-      <c r="P66" s="128"/>
-      <c r="Q66" s="128"/>
-      <c r="R66" s="128"/>
-      <c r="S66" s="128"/>
+      <c r="M66" s="150"/>
+      <c r="N66" s="150"/>
+      <c r="O66" s="151"/>
+      <c r="P66" s="125"/>
+      <c r="Q66" s="125"/>
+      <c r="R66" s="125"/>
+      <c r="S66" s="125"/>
       <c r="T66" s="73"/>
-      <c r="U66" s="73"/>
+      <c r="U66" s="76"/>
       <c r="V66" s="76"/>
       <c r="W66" s="76"/>
       <c r="X66" s="76"/>
     </row>
-    <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="141"/>
-      <c r="C67" s="141"/>
+        <v>140</v>
+      </c>
+      <c r="B67" s="134"/>
+      <c r="C67" s="134">
+        <v>15</v>
+      </c>
       <c r="D67" s="73"/>
       <c r="E67" s="73"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="159"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76"/>
       <c r="K67" s="76"/>
       <c r="L67" s="76"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="159"/>
-      <c r="P67" s="159"/>
-      <c r="Q67" s="159"/>
-      <c r="R67" s="159"/>
-      <c r="S67" s="159"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="151"/>
+      <c r="P67" s="151"/>
+      <c r="Q67" s="151"/>
+      <c r="R67" s="125"/>
+      <c r="S67" s="125"/>
       <c r="T67" s="73"/>
       <c r="U67" s="73"/>
       <c r="V67" s="76"/>
       <c r="W67" s="76"/>
       <c r="X67" s="76"/>
     </row>
-    <row r="68" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="B68" s="141"/>
-      <c r="C68" s="141"/>
+        <v>139</v>
+      </c>
+      <c r="B68" s="134"/>
+      <c r="C68" s="134">
+        <v>8</v>
+      </c>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
       <c r="F68" s="73"/>
       <c r="G68" s="76"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="159"/>
-      <c r="J68" s="159"/>
-      <c r="K68" s="159"/>
-      <c r="L68" s="159"/>
-      <c r="M68" s="159"/>
-      <c r="N68" s="159"/>
-      <c r="O68" s="159"/>
-      <c r="P68" s="159"/>
-      <c r="Q68" s="159"/>
-      <c r="R68" s="159"/>
-      <c r="S68" s="159"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="76"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="125"/>
+      <c r="P68" s="125"/>
+      <c r="Q68" s="151"/>
+      <c r="R68" s="151"/>
+      <c r="S68" s="151"/>
       <c r="T68" s="73"/>
       <c r="U68" s="73"/>
       <c r="V68" s="76"/>
       <c r="W68" s="76"/>
       <c r="X68" s="76"/>
     </row>
-    <row r="69" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A69" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="139"/>
-      <c r="C69" s="139"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="159"/>
-      <c r="M69" s="159"/>
-      <c r="N69" s="159"/>
-      <c r="O69" s="159"/>
-      <c r="P69" s="159"/>
-      <c r="Q69" s="159"/>
-      <c r="R69" s="159"/>
-      <c r="S69" s="159"/>
-      <c r="T69" s="73"/>
-      <c r="U69" s="76"/>
-      <c r="V69" s="76"/>
-      <c r="W69" s="76"/>
-      <c r="X69" s="76"/>
-    </row>
-    <row r="70" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A70" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="139"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
-      <c r="K70" s="76"/>
-      <c r="L70" s="76"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="73"/>
-      <c r="O70" s="159"/>
-      <c r="P70" s="159"/>
-      <c r="Q70" s="159"/>
-      <c r="R70" s="159"/>
-      <c r="S70" s="159"/>
-      <c r="T70" s="73"/>
-      <c r="U70" s="73"/>
-      <c r="V70" s="76"/>
-      <c r="W70" s="76"/>
-      <c r="X70" s="76"/>
-    </row>
-    <row r="71" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="139"/>
-      <c r="C71" s="139"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="73"/>
-      <c r="N71" s="73"/>
-      <c r="O71" s="159"/>
-      <c r="P71" s="159"/>
-      <c r="Q71" s="159"/>
-      <c r="R71" s="159"/>
-      <c r="S71" s="159"/>
-      <c r="T71" s="73"/>
-      <c r="U71" s="73"/>
-      <c r="V71" s="76"/>
-      <c r="W71" s="76"/>
-      <c r="X71" s="76"/>
-    </row>
-    <row r="72" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" s="139"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="125"/>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A69" s="167"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
+      <c r="J69" s="168"/>
+      <c r="K69" s="168"/>
+      <c r="L69" s="168"/>
+      <c r="M69" s="168"/>
+      <c r="N69" s="168"/>
+      <c r="O69" s="168"/>
+      <c r="P69" s="168"/>
+      <c r="Q69" s="168"/>
+      <c r="R69" s="168"/>
+      <c r="S69" s="168"/>
+      <c r="T69" s="168"/>
+      <c r="U69" s="168"/>
+      <c r="V69" s="168"/>
+      <c r="W69" s="168"/>
+      <c r="X69" s="168"/>
+    </row>
+    <row r="70" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="140"/>
+      <c r="C70" s="140">
+        <f>SUM(C71:C73)</f>
+        <v>150</v>
+      </c>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="113"/>
+      <c r="P70" s="113"/>
+      <c r="Q70" s="113"/>
+      <c r="R70" s="113"/>
+      <c r="S70" s="113"/>
+      <c r="T70" s="113"/>
+      <c r="U70" s="113"/>
+      <c r="V70" s="113"/>
+      <c r="W70" s="113"/>
+      <c r="X70" s="113"/>
+      <c r="Y70" s="116"/>
+      <c r="Z70" s="116"/>
+      <c r="AA70" s="116"/>
+      <c r="AB70" s="116"/>
+      <c r="AC70" s="116"/>
+      <c r="AD70" s="116"/>
+      <c r="AE70" s="116"/>
+      <c r="AF70" s="116"/>
+      <c r="AG70" s="116"/>
+      <c r="AH70" s="116"/>
+      <c r="AI70" s="116"/>
+      <c r="AJ70" s="116"/>
+      <c r="AK70" s="116"/>
+      <c r="AL70" s="116"/>
+      <c r="AM70" s="116"/>
+      <c r="AN70" s="116"/>
+      <c r="AO70" s="116"/>
+      <c r="AP70" s="116"/>
+      <c r="AQ70" s="116"/>
+      <c r="AR70" s="116"/>
+      <c r="AS70" s="116"/>
+    </row>
+    <row r="71" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="136">
+        <v>50</v>
+      </c>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="128"/>
+      <c r="M71" s="128"/>
+      <c r="N71" s="128"/>
+      <c r="O71" s="127"/>
+      <c r="P71" s="127"/>
+      <c r="Q71" s="127"/>
+      <c r="R71" s="127"/>
+      <c r="S71" s="127"/>
+      <c r="T71" s="152"/>
+      <c r="U71" s="152"/>
+      <c r="V71" s="128"/>
+      <c r="W71" s="128"/>
+      <c r="X71" s="128"/>
+      <c r="Y71" s="116"/>
+      <c r="Z71" s="116"/>
+      <c r="AA71" s="116"/>
+      <c r="AB71" s="116"/>
+      <c r="AC71" s="116"/>
+      <c r="AD71" s="116"/>
+      <c r="AE71" s="116"/>
+      <c r="AF71" s="116"/>
+      <c r="AG71" s="116"/>
+      <c r="AH71" s="116"/>
+      <c r="AI71" s="116"/>
+      <c r="AJ71" s="116"/>
+      <c r="AK71" s="116"/>
+      <c r="AL71" s="116"/>
+      <c r="AM71" s="116"/>
+      <c r="AN71" s="116"/>
+      <c r="AO71" s="116"/>
+      <c r="AP71" s="116"/>
+      <c r="AQ71" s="116"/>
+      <c r="AR71" s="116"/>
+      <c r="AS71" s="116"/>
+    </row>
+    <row r="72" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="132">
+        <v>50</v>
+      </c>
+      <c r="D72" s="128"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="128"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="128"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="128"/>
+      <c r="O72" s="127"/>
       <c r="P72" s="127"/>
       <c r="Q72" s="127"/>
-      <c r="R72" s="128"/>
-      <c r="S72" s="128"/>
-      <c r="T72" s="73"/>
-      <c r="U72" s="73"/>
-      <c r="V72" s="76"/>
-      <c r="W72" s="76"/>
-      <c r="X72" s="76"/>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A73" s="72" t="s">
+      <c r="R72" s="127"/>
+      <c r="S72" s="152"/>
+      <c r="T72" s="152"/>
+      <c r="U72" s="128"/>
+      <c r="V72" s="128"/>
+      <c r="W72" s="128"/>
+      <c r="X72" s="128"/>
+      <c r="Y72" s="116"/>
+      <c r="Z72" s="116"/>
+      <c r="AA72" s="116"/>
+      <c r="AB72" s="116"/>
+      <c r="AC72" s="116"/>
+      <c r="AD72" s="116"/>
+      <c r="AE72" s="116"/>
+      <c r="AF72" s="116"/>
+      <c r="AG72" s="116"/>
+      <c r="AH72" s="116"/>
+      <c r="AI72" s="116"/>
+      <c r="AJ72" s="116"/>
+      <c r="AK72" s="116"/>
+      <c r="AL72" s="116"/>
+      <c r="AM72" s="116"/>
+      <c r="AN72" s="116"/>
+      <c r="AO72" s="116"/>
+      <c r="AP72" s="116"/>
+      <c r="AQ72" s="116"/>
+      <c r="AR72" s="116"/>
+      <c r="AS72" s="116"/>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A73" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="138"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="76"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="73"/>
-      <c r="O73" s="128"/>
-      <c r="P73" s="128"/>
-      <c r="Q73" s="128"/>
-      <c r="R73" s="128"/>
-      <c r="S73" s="128"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="76"/>
-      <c r="W73" s="76"/>
-      <c r="X73" s="76"/>
-    </row>
-    <row r="74" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="B74" s="139"/>
-      <c r="C74" s="139"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76"/>
-      <c r="M74" s="159"/>
-      <c r="N74" s="159"/>
-      <c r="O74" s="160"/>
-      <c r="P74" s="128"/>
-      <c r="Q74" s="128"/>
-      <c r="R74" s="128"/>
-      <c r="S74" s="128"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="76"/>
-      <c r="V74" s="76"/>
-      <c r="W74" s="76"/>
-      <c r="X74" s="76"/>
-    </row>
-    <row r="75" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A75" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" s="139"/>
-      <c r="C75" s="139"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="76"/>
-      <c r="M75" s="73"/>
-      <c r="N75" s="73"/>
-      <c r="O75" s="160"/>
-      <c r="P75" s="160"/>
-      <c r="Q75" s="160"/>
-      <c r="R75" s="128"/>
-      <c r="S75" s="128"/>
-      <c r="T75" s="73"/>
-      <c r="U75" s="73"/>
-      <c r="V75" s="76"/>
-      <c r="W75" s="76"/>
-      <c r="X75" s="76"/>
-    </row>
-    <row r="76" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A76" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="139"/>
-      <c r="C76" s="139"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
-      <c r="M76" s="73"/>
-      <c r="N76" s="73"/>
-      <c r="O76" s="128"/>
-      <c r="P76" s="128"/>
-      <c r="Q76" s="160"/>
-      <c r="R76" s="160"/>
-      <c r="S76" s="160"/>
-      <c r="T76" s="73"/>
-      <c r="U76" s="73"/>
-      <c r="V76" s="76"/>
-      <c r="W76" s="76"/>
-      <c r="X76" s="76"/>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A77" s="175"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
-      <c r="E77" s="176"/>
-      <c r="F77" s="176"/>
-      <c r="G77" s="176"/>
-      <c r="H77" s="176"/>
-      <c r="I77" s="176"/>
-      <c r="J77" s="176"/>
-      <c r="K77" s="176"/>
-      <c r="L77" s="176"/>
-      <c r="M77" s="176"/>
-      <c r="N77" s="176"/>
-      <c r="O77" s="176"/>
-      <c r="P77" s="176"/>
-      <c r="Q77" s="176"/>
-      <c r="R77" s="176"/>
-      <c r="S77" s="176"/>
-      <c r="T77" s="176"/>
-      <c r="U77" s="176"/>
-      <c r="V77" s="176"/>
-      <c r="W77" s="176"/>
-      <c r="X77" s="176"/>
-    </row>
-    <row r="78" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="146"/>
-      <c r="C78" s="146">
-        <v>114</v>
-      </c>
-      <c r="D78" s="113"/>
-      <c r="E78" s="113"/>
-      <c r="F78" s="113"/>
-      <c r="G78" s="113"/>
-      <c r="H78" s="113"/>
-      <c r="I78" s="113"/>
-      <c r="J78" s="113"/>
-      <c r="K78" s="113"/>
-      <c r="L78" s="113"/>
-      <c r="M78" s="113"/>
-      <c r="N78" s="113"/>
-      <c r="O78" s="113"/>
-      <c r="P78" s="113"/>
-      <c r="Q78" s="113"/>
-      <c r="R78" s="113"/>
-      <c r="S78" s="113"/>
-      <c r="T78" s="113"/>
-      <c r="U78" s="113"/>
-      <c r="V78" s="113"/>
-      <c r="W78" s="113"/>
-      <c r="X78" s="113"/>
-      <c r="Y78" s="119"/>
-      <c r="Z78" s="119"/>
-      <c r="AA78" s="119"/>
-      <c r="AB78" s="119"/>
-      <c r="AC78" s="119"/>
-      <c r="AD78" s="119"/>
-      <c r="AE78" s="119"/>
-      <c r="AF78" s="119"/>
-      <c r="AG78" s="119"/>
-      <c r="AH78" s="119"/>
-      <c r="AI78" s="119"/>
-      <c r="AJ78" s="119"/>
-      <c r="AK78" s="119"/>
-      <c r="AL78" s="119"/>
-      <c r="AM78" s="119"/>
-      <c r="AN78" s="119"/>
-      <c r="AO78" s="119"/>
-      <c r="AP78" s="119"/>
-      <c r="AQ78" s="119"/>
-      <c r="AR78" s="119"/>
-      <c r="AS78" s="119"/>
-    </row>
-    <row r="79" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" s="141" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="141"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="131"/>
-      <c r="H79" s="131"/>
-      <c r="I79" s="131"/>
-      <c r="J79" s="131"/>
-      <c r="K79" s="131"/>
-      <c r="L79" s="131"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="130"/>
-      <c r="P79" s="130"/>
-      <c r="Q79" s="130"/>
-      <c r="R79" s="130"/>
-      <c r="S79" s="130"/>
-      <c r="T79" s="161"/>
-      <c r="U79" s="161"/>
-      <c r="V79" s="131"/>
-      <c r="W79" s="131"/>
-      <c r="X79" s="131"/>
-      <c r="Y79" s="119"/>
-      <c r="Z79" s="119"/>
-      <c r="AA79" s="119"/>
-      <c r="AB79" s="119"/>
-      <c r="AC79" s="119"/>
-      <c r="AD79" s="119"/>
-      <c r="AE79" s="119"/>
-      <c r="AF79" s="119"/>
-      <c r="AG79" s="119"/>
-      <c r="AH79" s="119"/>
-      <c r="AI79" s="119"/>
-      <c r="AJ79" s="119"/>
-      <c r="AK79" s="119"/>
-      <c r="AL79" s="119"/>
-      <c r="AM79" s="119"/>
-      <c r="AN79" s="119"/>
-      <c r="AO79" s="119"/>
-      <c r="AP79" s="119"/>
-      <c r="AQ79" s="119"/>
-      <c r="AR79" s="119"/>
-      <c r="AS79" s="119"/>
-    </row>
-    <row r="80" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" s="137"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="131"/>
-      <c r="F80" s="131"/>
-      <c r="G80" s="131"/>
-      <c r="H80" s="131"/>
-      <c r="I80" s="131"/>
-      <c r="J80" s="131"/>
-      <c r="K80" s="131"/>
-      <c r="L80" s="131"/>
-      <c r="M80" s="131"/>
-      <c r="N80" s="131"/>
-      <c r="O80" s="130"/>
-      <c r="P80" s="130"/>
-      <c r="Q80" s="130"/>
-      <c r="R80" s="130"/>
-      <c r="S80" s="161"/>
-      <c r="T80" s="161"/>
-      <c r="U80" s="131"/>
-      <c r="V80" s="131"/>
-      <c r="W80" s="131"/>
-      <c r="X80" s="131"/>
-      <c r="Y80" s="119"/>
-      <c r="Z80" s="119"/>
-      <c r="AA80" s="119"/>
-      <c r="AB80" s="119"/>
-      <c r="AC80" s="119"/>
-      <c r="AD80" s="119"/>
-      <c r="AE80" s="119"/>
-      <c r="AF80" s="119"/>
-      <c r="AG80" s="119"/>
-      <c r="AH80" s="119"/>
-      <c r="AI80" s="119"/>
-      <c r="AJ80" s="119"/>
-      <c r="AK80" s="119"/>
-      <c r="AL80" s="119"/>
-      <c r="AM80" s="119"/>
-      <c r="AN80" s="119"/>
-      <c r="AO80" s="119"/>
-      <c r="AP80" s="119"/>
-      <c r="AQ80" s="119"/>
-      <c r="AR80" s="119"/>
-      <c r="AS80" s="119"/>
-    </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="C73" s="132">
+        <v>50</v>
+      </c>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
+      <c r="J73" s="93"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="93"/>
+      <c r="M73" s="93"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="92"/>
+      <c r="P73" s="92"/>
+      <c r="Q73" s="92"/>
+      <c r="R73" s="153"/>
+      <c r="S73" s="153"/>
+      <c r="T73" s="93"/>
+      <c r="U73" s="93"/>
+      <c r="V73" s="93"/>
+      <c r="W73" s="93"/>
+      <c r="X73" s="93"/>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A74" s="185"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="186"/>
+      <c r="E74" s="186"/>
+      <c r="F74" s="186"/>
+      <c r="G74" s="186"/>
+      <c r="H74" s="186"/>
+      <c r="I74" s="186"/>
+      <c r="J74" s="186"/>
+      <c r="K74" s="186"/>
+      <c r="L74" s="186"/>
+      <c r="M74" s="186"/>
+      <c r="N74" s="186"/>
+      <c r="O74" s="186"/>
+      <c r="P74" s="186"/>
+      <c r="Q74" s="186"/>
+      <c r="R74" s="186"/>
+      <c r="S74" s="186"/>
+      <c r="T74" s="186"/>
+      <c r="U74" s="186"/>
+      <c r="V74" s="186"/>
+      <c r="W74" s="186"/>
+      <c r="X74" s="186"/>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A75" s="196" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197">
+        <f>SUM(C76:C77)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="198"/>
+      <c r="E75" s="198"/>
+      <c r="F75" s="198"/>
+      <c r="G75" s="198"/>
+      <c r="H75" s="198"/>
+      <c r="I75" s="198"/>
+      <c r="J75" s="198"/>
+      <c r="K75" s="198"/>
+      <c r="L75" s="198"/>
+      <c r="M75" s="198"/>
+      <c r="N75" s="198"/>
+      <c r="O75" s="198"/>
+      <c r="P75" s="198"/>
+      <c r="Q75" s="198"/>
+      <c r="R75" s="198"/>
+      <c r="S75" s="198"/>
+      <c r="T75" s="198"/>
+      <c r="U75" s="198"/>
+      <c r="V75" s="198"/>
+      <c r="W75" s="198"/>
+      <c r="X75" s="198"/>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A76" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="132"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
+      <c r="I76" s="93"/>
+      <c r="J76" s="93"/>
+      <c r="K76" s="93"/>
+      <c r="L76" s="93"/>
+      <c r="M76" s="93"/>
+      <c r="N76" s="93"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="93"/>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="93"/>
+      <c r="S76" s="93"/>
+      <c r="T76" s="93"/>
+      <c r="U76" s="93"/>
+      <c r="V76" s="93"/>
+      <c r="W76" s="93"/>
+      <c r="X76" s="93"/>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A77" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="132"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="93"/>
+      <c r="M77" s="93"/>
+      <c r="N77" s="93"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="93"/>
+      <c r="Q77" s="93"/>
+      <c r="R77" s="93"/>
+      <c r="S77" s="93"/>
+      <c r="T77" s="93"/>
+      <c r="U77" s="93"/>
+      <c r="V77" s="93"/>
+      <c r="W77" s="93"/>
+      <c r="X77" s="93"/>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A78" s="185"/>
+      <c r="B78" s="162"/>
+      <c r="C78" s="162"/>
+      <c r="D78" s="186"/>
+      <c r="E78" s="186"/>
+      <c r="F78" s="186"/>
+      <c r="G78" s="186"/>
+      <c r="H78" s="186"/>
+      <c r="I78" s="186"/>
+      <c r="J78" s="186"/>
+      <c r="K78" s="186"/>
+      <c r="L78" s="186"/>
+      <c r="M78" s="186"/>
+      <c r="N78" s="186"/>
+      <c r="O78" s="186"/>
+      <c r="P78" s="186"/>
+      <c r="Q78" s="186"/>
+      <c r="R78" s="186"/>
+      <c r="S78" s="186"/>
+      <c r="T78" s="186"/>
+      <c r="U78" s="186"/>
+      <c r="V78" s="186"/>
+      <c r="W78" s="186"/>
+      <c r="X78" s="186"/>
+    </row>
+    <row r="79" spans="1:45" s="188" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="199"/>
+      <c r="C79" s="199">
+        <f>SUM(C80:C82)</f>
+        <v>145</v>
+      </c>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
+      <c r="K79" s="114"/>
+      <c r="L79" s="114"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="114"/>
+      <c r="P79" s="114"/>
+      <c r="Q79" s="114"/>
+      <c r="R79" s="114"/>
+      <c r="S79" s="114"/>
+      <c r="T79" s="114"/>
+      <c r="U79" s="114"/>
+      <c r="V79" s="114"/>
+      <c r="W79" s="114"/>
+      <c r="X79" s="114"/>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A80" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="132">
+        <v>15</v>
+      </c>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="93"/>
+      <c r="L80" s="93"/>
+      <c r="M80" s="93"/>
+      <c r="N80" s="93"/>
+      <c r="O80" s="92"/>
+      <c r="P80" s="92"/>
+      <c r="Q80" s="92"/>
+      <c r="R80" s="92"/>
+      <c r="S80" s="92"/>
+      <c r="T80" s="93"/>
+      <c r="U80" s="93"/>
+      <c r="V80" s="93"/>
+      <c r="W80" s="93"/>
+      <c r="X80" s="93"/>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="137"/>
+        <v>163</v>
+      </c>
+      <c r="B81" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="132">
+        <v>30</v>
+      </c>
       <c r="D81" s="93"/>
       <c r="E81" s="93"/>
       <c r="F81" s="93"/>
@@ -4764,238 +4887,205 @@
       <c r="O81" s="92"/>
       <c r="P81" s="92"/>
       <c r="Q81" s="92"/>
-      <c r="R81" s="162"/>
-      <c r="S81" s="162"/>
+      <c r="R81" s="92"/>
+      <c r="S81" s="92"/>
       <c r="T81" s="93"/>
       <c r="U81" s="93"/>
       <c r="V81" s="93"/>
       <c r="W81" s="93"/>
       <c r="X81" s="93"/>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A82" s="175"/>
-      <c r="B82" s="176"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="176"/>
-      <c r="E82" s="176"/>
-      <c r="F82" s="176"/>
-      <c r="G82" s="176"/>
-      <c r="H82" s="176"/>
-      <c r="I82" s="176"/>
-      <c r="J82" s="176"/>
-      <c r="K82" s="176"/>
-      <c r="L82" s="176"/>
-      <c r="M82" s="176"/>
-      <c r="N82" s="176"/>
-      <c r="O82" s="176"/>
-      <c r="P82" s="176"/>
-      <c r="Q82" s="176"/>
-      <c r="R82" s="176"/>
-      <c r="S82" s="176"/>
-      <c r="T82" s="176"/>
-      <c r="U82" s="176"/>
-      <c r="V82" s="176"/>
-      <c r="W82" s="176"/>
-      <c r="X82" s="176"/>
-    </row>
-    <row r="83" spans="1:45" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="B83" s="147"/>
-      <c r="C83" s="147"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="116"/>
-      <c r="H83" s="116"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="116"/>
-      <c r="K83" s="116"/>
-      <c r="L83" s="116"/>
-      <c r="M83" s="116"/>
-      <c r="N83" s="116"/>
-      <c r="O83" s="116"/>
-      <c r="P83" s="116"/>
-      <c r="Q83" s="116"/>
-      <c r="R83" s="117"/>
-      <c r="S83" s="117"/>
-      <c r="T83" s="117"/>
-      <c r="U83" s="117"/>
-      <c r="V83" s="117"/>
-      <c r="W83" s="116"/>
-      <c r="X83" s="116"/>
-      <c r="Y83" s="61"/>
-      <c r="Z83" s="61"/>
-      <c r="AA83" s="61"/>
-      <c r="AB83" s="61"/>
-      <c r="AC83" s="61"/>
-      <c r="AD83" s="61"/>
-      <c r="AE83" s="61"/>
-      <c r="AF83" s="61"/>
-      <c r="AG83" s="61"/>
-      <c r="AH83" s="61"/>
-      <c r="AI83" s="61"/>
-      <c r="AJ83" s="61"/>
-      <c r="AK83" s="61"/>
-      <c r="AL83" s="61"/>
-      <c r="AM83" s="61"/>
-      <c r="AN83" s="61"/>
-      <c r="AO83" s="61"/>
-      <c r="AP83" s="61"/>
-      <c r="AQ83" s="61"/>
-      <c r="AR83" s="61"/>
-      <c r="AS83" s="61"/>
-    </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A84" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
-      <c r="F84" s="132"/>
-      <c r="G84" s="132"/>
-      <c r="H84" s="132"/>
-      <c r="I84" s="132"/>
-      <c r="J84" s="132"/>
-      <c r="K84" s="132"/>
-      <c r="L84" s="132"/>
-      <c r="M84" s="132"/>
-      <c r="N84" s="132"/>
-      <c r="O84" s="133"/>
-      <c r="P84" s="133"/>
-      <c r="Q84" s="133"/>
-      <c r="R84" s="133"/>
-      <c r="S84" s="133"/>
-      <c r="T84" s="132"/>
-      <c r="U84" s="132"/>
-      <c r="V84" s="132"/>
-      <c r="W84" s="132"/>
-      <c r="X84" s="132"/>
-    </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A88" s="177"/>
-      <c r="B88" s="177"/>
-      <c r="C88" s="177"/>
-      <c r="D88" s="177"/>
-      <c r="E88" s="177"/>
-      <c r="F88" s="177"/>
-      <c r="G88" s="177"/>
-      <c r="H88" s="177"/>
-      <c r="I88" s="177"/>
-      <c r="J88" s="177"/>
-      <c r="K88" s="177"/>
-      <c r="L88" s="177"/>
-      <c r="M88" s="177"/>
-      <c r="N88" s="177"/>
-      <c r="O88" s="177"/>
-      <c r="P88" s="177"/>
-      <c r="Q88" s="177"/>
-      <c r="R88" s="177"/>
-      <c r="S88" s="177"/>
-      <c r="T88" s="177"/>
-      <c r="U88" s="177"/>
-      <c r="V88" s="177"/>
-      <c r="W88" s="177"/>
-      <c r="X88" s="177"/>
-    </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A89" s="178"/>
-      <c r="B89" s="171"/>
-      <c r="C89" s="171"/>
-      <c r="D89" s="171"/>
-      <c r="E89" s="171"/>
-      <c r="F89" s="171"/>
-      <c r="G89" s="171"/>
-      <c r="H89" s="171"/>
-      <c r="I89" s="171"/>
-      <c r="J89" s="171"/>
-      <c r="K89" s="171"/>
-      <c r="L89" s="171"/>
-      <c r="M89" s="171"/>
-      <c r="N89" s="171"/>
-      <c r="O89" s="171"/>
-      <c r="P89" s="171"/>
-      <c r="Q89" s="171"/>
-      <c r="R89" s="171"/>
-      <c r="S89" s="171"/>
-      <c r="T89" s="171"/>
-      <c r="U89" s="171"/>
-      <c r="V89" s="171"/>
-      <c r="W89" s="171"/>
-      <c r="X89" s="171"/>
-    </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A90" s="171"/>
-      <c r="B90" s="171"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
-      <c r="E90" s="171"/>
-      <c r="F90" s="171"/>
-      <c r="G90" s="171"/>
-      <c r="H90" s="171"/>
-      <c r="I90" s="171"/>
-      <c r="J90" s="171"/>
-      <c r="K90" s="171"/>
-      <c r="L90" s="171"/>
-      <c r="M90" s="171"/>
-      <c r="N90" s="171"/>
-      <c r="O90" s="171"/>
-      <c r="P90" s="171"/>
-      <c r="Q90" s="171"/>
-      <c r="R90" s="171"/>
-      <c r="S90" s="171"/>
-      <c r="T90" s="171"/>
-      <c r="U90" s="171"/>
-      <c r="V90" s="171"/>
-      <c r="W90" s="171"/>
-      <c r="X90" s="171"/>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A82" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="132">
+        <v>100</v>
+      </c>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="93"/>
+      <c r="I82" s="93"/>
+      <c r="J82" s="93"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="93"/>
+      <c r="M82" s="93"/>
+      <c r="N82" s="93"/>
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92"/>
+      <c r="R82" s="92"/>
+      <c r="S82" s="92"/>
+      <c r="T82" s="93"/>
+      <c r="U82" s="93"/>
+      <c r="V82" s="93"/>
+      <c r="W82" s="93"/>
+      <c r="X82" s="93"/>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A83" s="187"/>
+      <c r="B83" s="187"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="187"/>
+      <c r="E83" s="187"/>
+      <c r="F83" s="187"/>
+      <c r="G83" s="187"/>
+      <c r="H83" s="187"/>
+      <c r="I83" s="187"/>
+      <c r="J83" s="187"/>
+      <c r="K83" s="187"/>
+      <c r="L83" s="187"/>
+      <c r="M83" s="187"/>
+      <c r="N83" s="187"/>
+      <c r="O83" s="187"/>
+      <c r="P83" s="187"/>
+      <c r="Q83" s="187"/>
+      <c r="R83" s="187"/>
+      <c r="S83" s="187"/>
+      <c r="T83" s="187"/>
+      <c r="U83" s="187"/>
+      <c r="V83" s="187"/>
+      <c r="W83" s="187"/>
+      <c r="X83" s="187"/>
+    </row>
+    <row r="84" spans="1:45" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="190" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="191"/>
+      <c r="C84" s="191">
+        <f>SUM(C85)</f>
+        <v>30</v>
+      </c>
+      <c r="D84" s="192"/>
+      <c r="E84" s="192"/>
+      <c r="F84" s="192"/>
+      <c r="G84" s="193"/>
+      <c r="H84" s="193"/>
+      <c r="I84" s="193"/>
+      <c r="J84" s="193"/>
+      <c r="K84" s="193"/>
+      <c r="L84" s="193"/>
+      <c r="M84" s="193"/>
+      <c r="N84" s="193"/>
+      <c r="O84" s="193"/>
+      <c r="P84" s="193"/>
+      <c r="Q84" s="193"/>
+      <c r="R84" s="194"/>
+      <c r="S84" s="194"/>
+      <c r="T84" s="194"/>
+      <c r="U84" s="194"/>
+      <c r="V84" s="194"/>
+      <c r="W84" s="193"/>
+      <c r="X84" s="193"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="61"/>
+      <c r="AA84" s="61"/>
+      <c r="AB84" s="61"/>
+      <c r="AC84" s="61"/>
+      <c r="AD84" s="61"/>
+      <c r="AE84" s="61"/>
+      <c r="AF84" s="61"/>
+      <c r="AG84" s="61"/>
+      <c r="AH84" s="61"/>
+      <c r="AI84" s="61"/>
+      <c r="AJ84" s="61"/>
+      <c r="AK84" s="61"/>
+      <c r="AL84" s="61"/>
+      <c r="AM84" s="61"/>
+      <c r="AN84" s="61"/>
+      <c r="AO84" s="61"/>
+      <c r="AP84" s="61"/>
+      <c r="AQ84" s="61"/>
+      <c r="AR84" s="61"/>
+      <c r="AS84" s="61"/>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A85" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63">
+        <v>30</v>
+      </c>
+      <c r="D85" s="195"/>
+      <c r="E85" s="195"/>
+      <c r="F85" s="195"/>
+      <c r="G85" s="195"/>
+      <c r="H85" s="195"/>
+      <c r="I85" s="195"/>
+      <c r="J85" s="195"/>
+      <c r="K85" s="195"/>
+      <c r="L85" s="195"/>
+      <c r="M85" s="195"/>
+      <c r="N85" s="195"/>
+      <c r="O85" s="189"/>
+      <c r="P85" s="189"/>
+      <c r="Q85" s="189"/>
+      <c r="R85" s="189"/>
+      <c r="S85" s="189"/>
+      <c r="T85" s="195"/>
+      <c r="U85" s="195"/>
+      <c r="V85" s="195"/>
+      <c r="W85" s="195"/>
+      <c r="X85" s="195"/>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C86" s="126">
+        <f>SUM(C84,C70,C57,C43,C32,C23,C79,C75)</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A89" s="174"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
+      <c r="F89" s="174"/>
+      <c r="G89" s="174"/>
+      <c r="H89" s="174"/>
+      <c r="I89" s="174"/>
+      <c r="J89" s="174"/>
+      <c r="K89" s="174"/>
+      <c r="L89" s="174"/>
+      <c r="M89" s="174"/>
+      <c r="N89" s="174"/>
+      <c r="O89" s="174"/>
+      <c r="P89" s="174"/>
+      <c r="Q89" s="174"/>
+      <c r="R89" s="174"/>
+      <c r="S89" s="174"/>
+      <c r="T89" s="174"/>
+      <c r="U89" s="174"/>
+      <c r="V89" s="174"/>
+      <c r="W89" s="174"/>
+      <c r="X89" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A91:X91"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A22:X22"/>
+    <mergeCell ref="A31:X31"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A69:X69"/>
+    <mergeCell ref="A89:X89"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A90:X90"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="D2:X2"/>
-    <mergeCell ref="A82:X82"/>
-    <mergeCell ref="A64:X64"/>
+    <mergeCell ref="A83:X83"/>
+    <mergeCell ref="A56:X56"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A90:X90"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A22:X22"/>
-    <mergeCell ref="A39:X39"/>
-    <mergeCell ref="A50:X50"/>
-    <mergeCell ref="A77:X77"/>
-    <mergeCell ref="A88:X88"/>
   </mergeCells>
-  <conditionalFormatting sqref="A47:C47">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:C48">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A26">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5007,7 +5097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A27">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5019,7 +5109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="A44">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5031,7 +5121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A58">
+  <conditionalFormatting sqref="A48:A50">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5043,92 +5133,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:C72">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74:C74">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:C76">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:C59">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:C75">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:C37 A33:A35">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A68">
+  <conditionalFormatting sqref="A59:A60">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:C71">
-    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5145,45 +5151,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A65E51-5950-476F-8AAD-D80644D6813A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="43.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="184" t="s">
+    <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-    </row>
-    <row r="3" spans="2:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="184"/>
-      <c r="C3" s="185" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+    </row>
+    <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186" t="s">
+      <c r="D3" s="177"/>
+      <c r="E3" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="186"/>
-    </row>
-    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="177"/>
+    </row>
+    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
@@ -5200,14 +5218,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="53"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5228,7 +5246,7 @@
         <v>8.2982791586998079</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -5248,7 +5266,7 @@
         <v>1.6061185468451242</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -5268,7 +5286,7 @@
         <v>2.4091778202676863</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -5288,7 +5306,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -5308,7 +5326,7 @@
         <v>0.66921606118546839</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -5328,14 +5346,14 @@
         <v>0.93690248565965584</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="52"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -5356,7 +5374,7 @@
         <v>6.8833652007648185</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -5377,7 +5395,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -5397,7 +5415,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -5417,7 +5435,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5438,7 +5456,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -5458,7 +5476,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -5478,7 +5496,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -5498,7 +5516,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5519,7 +5537,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5539,7 +5557,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5559,7 +5577,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -5580,7 +5598,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5600,14 +5618,14 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="58"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -5628,7 +5646,7 @@
         <v>15.678776290630974</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5649,7 +5667,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
@@ -5669,7 +5687,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -5689,7 +5707,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -5710,7 +5728,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -5730,7 +5748,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -5750,7 +5768,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -5770,7 +5788,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
@@ -5790,7 +5808,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -5811,7 +5829,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>33</v>
       </c>
@@ -5831,7 +5849,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -5872,7 +5890,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -5892,7 +5910,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -5912,14 +5930,14 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
@@ -5940,7 +5958,7 @@
         <v>43.977055449330784</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -5961,7 +5979,7 @@
         <v>9.1778202676864247</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -5981,7 +5999,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
@@ -6001,7 +6019,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -6022,7 +6040,7 @@
         <v>12.619502868068833</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
@@ -6042,7 +6060,7 @@
         <v>3.4416826003824093</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -6062,7 +6080,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>44</v>
       </c>
@@ -6082,7 +6100,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
@@ -6103,7 +6121,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>46</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
@@ -6143,7 +6161,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>48</v>
       </c>
@@ -6164,7 +6182,7 @@
         <v>16.061185468451242</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -6184,7 +6202,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
@@ -6204,7 +6222,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
@@ -6224,14 +6242,14 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="2"/>
       <c r="E58" s="60"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
@@ -6252,7 +6270,7 @@
         <v>14.531548757170171</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>53</v>
       </c>
@@ -6273,7 +6291,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>54</v>
       </c>
@@ -6293,7 +6311,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>55</v>
       </c>
@@ -6314,7 +6332,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
@@ -6334,7 +6352,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>80</v>
       </c>
@@ -6354,7 +6372,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
@@ -6374,7 +6392,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
@@ -6395,7 +6413,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
@@ -6415,7 +6433,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>60</v>
       </c>
@@ -6435,7 +6453,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>61</v>
       </c>
@@ -6456,7 +6474,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
@@ -6476,14 +6494,14 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="48" t="s">
         <v>63</v>
       </c>
@@ -6504,7 +6522,7 @@
         <v>10.630975143403441</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>64</v>
       </c>
@@ -6525,7 +6543,7 @@
         <v>2.1414913957934991</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>65</v>
       </c>
@@ -6545,7 +6563,7 @@
         <v>0.9177820267686424</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>81</v>
       </c>
@@ -6565,7 +6583,7 @@
         <v>0.4588910133843212</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>66</v>
       </c>
@@ -6585,7 +6603,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>67</v>
       </c>
@@ -6605,7 +6623,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>68</v>
       </c>
@@ -6625,7 +6643,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>69</v>
       </c>
@@ -6645,7 +6663,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>70</v>
       </c>
@@ -6665,7 +6683,7 @@
         <v>3.5181644359464626</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>71</v>
       </c>
@@ -6685,14 +6703,14 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="55"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="2:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="5" t="s">
         <v>72</v>
       </c>
@@ -6712,30 +6730,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="192"/>
-      <c r="C84" s="192"/>
-      <c r="D84" s="192"/>
-      <c r="E84" s="192"/>
-      <c r="F84" s="192"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="191"/>
-      <c r="C85" s="191"/>
-      <c r="D85" s="191"/>
-      <c r="E85" s="193"/>
-      <c r="F85" s="193"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="187" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="183"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="188"/>
-      <c r="D86" s="189"/>
-      <c r="E86" s="193"/>
-      <c r="F86" s="193"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="179"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="184"/>
+      <c r="F86" s="184"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
@@ -6745,10 +6763,10 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="193"/>
-      <c r="F87" s="193"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E87" s="184"/>
+      <c r="F87" s="184"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
@@ -6758,8 +6776,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="193"/>
-      <c r="F88" s="193"/>
+      <c r="E88" s="184"/>
+      <c r="F88" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7234,26 +7252,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -7410,10 +7408,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7436,20 +7465,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB6E45-03FE-4CB8-83E7-79F32664C9B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B655AC9-302F-4B6A-9550-BFEA4B89FD26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,7 +1145,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1525,80 +1525,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1623,6 +1554,76 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2332,9 +2333,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS89"/>
+  <dimension ref="A1:AS91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -2351,35 +2352,35 @@
       <c r="C1" s="154"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="163"/>
+      <c r="A2" s="178"/>
       <c r="B2" s="154"/>
       <c r="C2" s="154"/>
-      <c r="D2" s="164">
+      <c r="D2" s="185">
         <v>2019</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="166"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="187"/>
     </row>
     <row r="3" spans="1:24" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="154"/>
       <c r="C3" s="154"/>
       <c r="D3" s="63" t="s">
@@ -2415,13 +2416,13 @@
       <c r="N3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="164" t="s">
+      <c r="O3" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
       <c r="T3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2439,7 +2440,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="154"/>
       <c r="C4" s="154"/>
       <c r="D4" s="63">
@@ -2539,30 +2540,30 @@
       <c r="X6" s="119"/>
     </row>
     <row r="7" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
@@ -2919,10 +2920,10 @@
     </row>
     <row r="20" spans="1:25" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="156"/>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="171" t="s">
+      <c r="C20" s="189" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="157"/>
@@ -2952,8 +2953,8 @@
       <c r="A21" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="190"/>
       <c r="D21" s="160"/>
       <c r="E21" s="160"/>
       <c r="F21" s="160"/>
@@ -2978,30 +2979,30 @@
       <c r="Y21" s="161"/>
     </row>
     <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="173"/>
-      <c r="S22" s="173"/>
-      <c r="T22" s="173"/>
-      <c r="U22" s="173"/>
-      <c r="V22" s="173"/>
-      <c r="W22" s="173"/>
-      <c r="X22" s="173"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
+      <c r="N22" s="179"/>
+      <c r="O22" s="179"/>
+      <c r="P22" s="179"/>
+      <c r="Q22" s="179"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="179"/>
+      <c r="T22" s="179"/>
+      <c r="U22" s="179"/>
+      <c r="V22" s="179"/>
+      <c r="W22" s="179"/>
+      <c r="X22" s="179"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
@@ -3257,30 +3258,30 @@
       <c r="X30" s="107"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="169"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-      <c r="V31" s="170"/>
-      <c r="W31" s="170"/>
-      <c r="X31" s="170"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="181"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="88" t="s">
@@ -3590,30 +3591,30 @@
       <c r="X41" s="66"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="169"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="170"/>
-      <c r="P42" s="170"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="170"/>
-      <c r="S42" s="170"/>
-      <c r="T42" s="170"/>
-      <c r="U42" s="170"/>
-      <c r="V42" s="170"/>
-      <c r="W42" s="170"/>
-      <c r="X42" s="170"/>
+      <c r="A42" s="180"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="181"/>
+      <c r="K42" s="181"/>
+      <c r="L42" s="181"/>
+      <c r="M42" s="181"/>
+      <c r="N42" s="181"/>
+      <c r="O42" s="181"/>
+      <c r="P42" s="181"/>
+      <c r="Q42" s="181"/>
+      <c r="R42" s="181"/>
+      <c r="S42" s="181"/>
+      <c r="T42" s="181"/>
+      <c r="U42" s="181"/>
+      <c r="V42" s="181"/>
+      <c r="W42" s="181"/>
+      <c r="X42" s="181"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="s">
@@ -4028,30 +4029,30 @@
       <c r="X55" s="76"/>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A56" s="169"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="170"/>
-      <c r="M56" s="170"/>
-      <c r="N56" s="170"/>
-      <c r="O56" s="170"/>
-      <c r="P56" s="170"/>
-      <c r="Q56" s="170"/>
-      <c r="R56" s="170"/>
-      <c r="S56" s="170"/>
-      <c r="T56" s="170"/>
-      <c r="U56" s="170"/>
-      <c r="V56" s="170"/>
-      <c r="W56" s="170"/>
-      <c r="X56" s="170"/>
+      <c r="A56" s="180"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
+      <c r="E56" s="181"/>
+      <c r="F56" s="181"/>
+      <c r="G56" s="181"/>
+      <c r="H56" s="181"/>
+      <c r="I56" s="181"/>
+      <c r="J56" s="181"/>
+      <c r="K56" s="181"/>
+      <c r="L56" s="181"/>
+      <c r="M56" s="181"/>
+      <c r="N56" s="181"/>
+      <c r="O56" s="181"/>
+      <c r="P56" s="181"/>
+      <c r="Q56" s="181"/>
+      <c r="R56" s="181"/>
+      <c r="S56" s="181"/>
+      <c r="T56" s="181"/>
+      <c r="U56" s="181"/>
+      <c r="V56" s="181"/>
+      <c r="W56" s="181"/>
+      <c r="X56" s="181"/>
     </row>
     <row r="57" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="108" t="s">
@@ -4442,30 +4443,30 @@
       <c r="X68" s="76"/>
     </row>
     <row r="69" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A69" s="167"/>
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
-      <c r="I69" s="168"/>
-      <c r="J69" s="168"/>
-      <c r="K69" s="168"/>
-      <c r="L69" s="168"/>
-      <c r="M69" s="168"/>
-      <c r="N69" s="168"/>
-      <c r="O69" s="168"/>
-      <c r="P69" s="168"/>
-      <c r="Q69" s="168"/>
-      <c r="R69" s="168"/>
-      <c r="S69" s="168"/>
-      <c r="T69" s="168"/>
-      <c r="U69" s="168"/>
-      <c r="V69" s="168"/>
-      <c r="W69" s="168"/>
-      <c r="X69" s="168"/>
+      <c r="A69" s="182"/>
+      <c r="B69" s="183"/>
+      <c r="C69" s="183"/>
+      <c r="D69" s="183"/>
+      <c r="E69" s="183"/>
+      <c r="F69" s="183"/>
+      <c r="G69" s="183"/>
+      <c r="H69" s="183"/>
+      <c r="I69" s="183"/>
+      <c r="J69" s="183"/>
+      <c r="K69" s="183"/>
+      <c r="L69" s="183"/>
+      <c r="M69" s="183"/>
+      <c r="N69" s="183"/>
+      <c r="O69" s="183"/>
+      <c r="P69" s="183"/>
+      <c r="Q69" s="183"/>
+      <c r="R69" s="183"/>
+      <c r="S69" s="183"/>
+      <c r="T69" s="183"/>
+      <c r="U69" s="183"/>
+      <c r="V69" s="183"/>
+      <c r="W69" s="183"/>
+      <c r="X69" s="183"/>
     </row>
     <row r="70" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="112" t="s">
@@ -4658,61 +4659,61 @@
       <c r="X73" s="93"/>
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A74" s="185"/>
+      <c r="A74" s="163"/>
       <c r="B74" s="162"/>
       <c r="C74" s="162"/>
-      <c r="D74" s="186"/>
-      <c r="E74" s="186"/>
-      <c r="F74" s="186"/>
-      <c r="G74" s="186"/>
-      <c r="H74" s="186"/>
-      <c r="I74" s="186"/>
-      <c r="J74" s="186"/>
-      <c r="K74" s="186"/>
-      <c r="L74" s="186"/>
-      <c r="M74" s="186"/>
-      <c r="N74" s="186"/>
-      <c r="O74" s="186"/>
-      <c r="P74" s="186"/>
-      <c r="Q74" s="186"/>
-      <c r="R74" s="186"/>
-      <c r="S74" s="186"/>
-      <c r="T74" s="186"/>
-      <c r="U74" s="186"/>
-      <c r="V74" s="186"/>
-      <c r="W74" s="186"/>
-      <c r="X74" s="186"/>
+      <c r="D74" s="164"/>
+      <c r="E74" s="164"/>
+      <c r="F74" s="164"/>
+      <c r="G74" s="164"/>
+      <c r="H74" s="164"/>
+      <c r="I74" s="164"/>
+      <c r="J74" s="164"/>
+      <c r="K74" s="164"/>
+      <c r="L74" s="164"/>
+      <c r="M74" s="164"/>
+      <c r="N74" s="164"/>
+      <c r="O74" s="164"/>
+      <c r="P74" s="164"/>
+      <c r="Q74" s="164"/>
+      <c r="R74" s="164"/>
+      <c r="S74" s="164"/>
+      <c r="T74" s="164"/>
+      <c r="U74" s="164"/>
+      <c r="V74" s="164"/>
+      <c r="W74" s="164"/>
+      <c r="X74" s="164"/>
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A75" s="196" t="s">
+      <c r="A75" s="173" t="s">
         <v>165</v>
       </c>
-      <c r="B75" s="197"/>
-      <c r="C75" s="197">
+      <c r="B75" s="174"/>
+      <c r="C75" s="174">
         <f>SUM(C76:C77)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="198"/>
-      <c r="E75" s="198"/>
-      <c r="F75" s="198"/>
-      <c r="G75" s="198"/>
-      <c r="H75" s="198"/>
-      <c r="I75" s="198"/>
-      <c r="J75" s="198"/>
-      <c r="K75" s="198"/>
-      <c r="L75" s="198"/>
-      <c r="M75" s="198"/>
-      <c r="N75" s="198"/>
-      <c r="O75" s="198"/>
-      <c r="P75" s="198"/>
-      <c r="Q75" s="198"/>
-      <c r="R75" s="198"/>
-      <c r="S75" s="198"/>
-      <c r="T75" s="198"/>
-      <c r="U75" s="198"/>
-      <c r="V75" s="198"/>
-      <c r="W75" s="198"/>
-      <c r="X75" s="198"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="175"/>
+      <c r="H75" s="175"/>
+      <c r="I75" s="175"/>
+      <c r="J75" s="175"/>
+      <c r="K75" s="175"/>
+      <c r="L75" s="175"/>
+      <c r="M75" s="175"/>
+      <c r="N75" s="175"/>
+      <c r="O75" s="175"/>
+      <c r="P75" s="175"/>
+      <c r="Q75" s="175"/>
+      <c r="R75" s="175"/>
+      <c r="S75" s="175"/>
+      <c r="T75" s="175"/>
+      <c r="U75" s="175"/>
+      <c r="V75" s="175"/>
+      <c r="W75" s="175"/>
+      <c r="X75" s="175"/>
     </row>
     <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="s">
@@ -4775,37 +4776,37 @@
       <c r="X77" s="93"/>
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A78" s="185"/>
+      <c r="A78" s="163"/>
       <c r="B78" s="162"/>
       <c r="C78" s="162"/>
-      <c r="D78" s="186"/>
-      <c r="E78" s="186"/>
-      <c r="F78" s="186"/>
-      <c r="G78" s="186"/>
-      <c r="H78" s="186"/>
-      <c r="I78" s="186"/>
-      <c r="J78" s="186"/>
-      <c r="K78" s="186"/>
-      <c r="L78" s="186"/>
-      <c r="M78" s="186"/>
-      <c r="N78" s="186"/>
-      <c r="O78" s="186"/>
-      <c r="P78" s="186"/>
-      <c r="Q78" s="186"/>
-      <c r="R78" s="186"/>
-      <c r="S78" s="186"/>
-      <c r="T78" s="186"/>
-      <c r="U78" s="186"/>
-      <c r="V78" s="186"/>
-      <c r="W78" s="186"/>
-      <c r="X78" s="186"/>
-    </row>
-    <row r="79" spans="1:45" s="188" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="164"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="164"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="164"/>
+      <c r="K78" s="164"/>
+      <c r="L78" s="164"/>
+      <c r="M78" s="164"/>
+      <c r="N78" s="164"/>
+      <c r="O78" s="164"/>
+      <c r="P78" s="164"/>
+      <c r="Q78" s="164"/>
+      <c r="R78" s="164"/>
+      <c r="S78" s="164"/>
+      <c r="T78" s="164"/>
+      <c r="U78" s="164"/>
+      <c r="V78" s="164"/>
+      <c r="W78" s="164"/>
+      <c r="X78" s="164"/>
+    </row>
+    <row r="79" spans="1:45" s="165" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="199"/>
-      <c r="C79" s="199">
+      <c r="B79" s="176"/>
+      <c r="C79" s="176">
         <f>SUM(C80:C82)</f>
         <v>145</v>
       </c>
@@ -4928,61 +4929,61 @@
       <c r="X82" s="93"/>
     </row>
     <row r="83" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A83" s="187"/>
-      <c r="B83" s="187"/>
-      <c r="C83" s="187"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="187"/>
-      <c r="G83" s="187"/>
-      <c r="H83" s="187"/>
-      <c r="I83" s="187"/>
-      <c r="J83" s="187"/>
-      <c r="K83" s="187"/>
-      <c r="L83" s="187"/>
-      <c r="M83" s="187"/>
-      <c r="N83" s="187"/>
-      <c r="O83" s="187"/>
-      <c r="P83" s="187"/>
-      <c r="Q83" s="187"/>
-      <c r="R83" s="187"/>
-      <c r="S83" s="187"/>
-      <c r="T83" s="187"/>
-      <c r="U83" s="187"/>
-      <c r="V83" s="187"/>
-      <c r="W83" s="187"/>
-      <c r="X83" s="187"/>
+      <c r="A83" s="188"/>
+      <c r="B83" s="188"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="188"/>
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
+      <c r="G83" s="188"/>
+      <c r="H83" s="188"/>
+      <c r="I83" s="188"/>
+      <c r="J83" s="188"/>
+      <c r="K83" s="188"/>
+      <c r="L83" s="188"/>
+      <c r="M83" s="188"/>
+      <c r="N83" s="188"/>
+      <c r="O83" s="188"/>
+      <c r="P83" s="188"/>
+      <c r="Q83" s="188"/>
+      <c r="R83" s="188"/>
+      <c r="S83" s="188"/>
+      <c r="T83" s="188"/>
+      <c r="U83" s="188"/>
+      <c r="V83" s="188"/>
+      <c r="W83" s="188"/>
+      <c r="X83" s="188"/>
     </row>
     <row r="84" spans="1:45" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="190" t="s">
+      <c r="A84" s="167" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="191"/>
-      <c r="C84" s="191">
+      <c r="B84" s="168"/>
+      <c r="C84" s="168">
         <f>SUM(C85)</f>
         <v>30</v>
       </c>
-      <c r="D84" s="192"/>
-      <c r="E84" s="192"/>
-      <c r="F84" s="192"/>
-      <c r="G84" s="193"/>
-      <c r="H84" s="193"/>
-      <c r="I84" s="193"/>
-      <c r="J84" s="193"/>
-      <c r="K84" s="193"/>
-      <c r="L84" s="193"/>
-      <c r="M84" s="193"/>
-      <c r="N84" s="193"/>
-      <c r="O84" s="193"/>
-      <c r="P84" s="193"/>
-      <c r="Q84" s="193"/>
-      <c r="R84" s="194"/>
-      <c r="S84" s="194"/>
-      <c r="T84" s="194"/>
-      <c r="U84" s="194"/>
-      <c r="V84" s="194"/>
-      <c r="W84" s="193"/>
-      <c r="X84" s="193"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="169"/>
+      <c r="G84" s="170"/>
+      <c r="H84" s="170"/>
+      <c r="I84" s="170"/>
+      <c r="J84" s="170"/>
+      <c r="K84" s="170"/>
+      <c r="L84" s="170"/>
+      <c r="M84" s="170"/>
+      <c r="N84" s="170"/>
+      <c r="O84" s="170"/>
+      <c r="P84" s="170"/>
+      <c r="Q84" s="170"/>
+      <c r="R84" s="171"/>
+      <c r="S84" s="171"/>
+      <c r="T84" s="171"/>
+      <c r="U84" s="171"/>
+      <c r="V84" s="171"/>
+      <c r="W84" s="170"/>
+      <c r="X84" s="170"/>
       <c r="Y84" s="61"/>
       <c r="Z84" s="61"/>
       <c r="AA84" s="61"/>
@@ -5013,27 +5014,27 @@
       <c r="C85" s="63">
         <v>30</v>
       </c>
-      <c r="D85" s="195"/>
-      <c r="E85" s="195"/>
-      <c r="F85" s="195"/>
-      <c r="G85" s="195"/>
-      <c r="H85" s="195"/>
-      <c r="I85" s="195"/>
-      <c r="J85" s="195"/>
-      <c r="K85" s="195"/>
-      <c r="L85" s="195"/>
-      <c r="M85" s="195"/>
-      <c r="N85" s="195"/>
-      <c r="O85" s="189"/>
-      <c r="P85" s="189"/>
-      <c r="Q85" s="189"/>
-      <c r="R85" s="189"/>
-      <c r="S85" s="189"/>
-      <c r="T85" s="195"/>
-      <c r="U85" s="195"/>
-      <c r="V85" s="195"/>
-      <c r="W85" s="195"/>
-      <c r="X85" s="195"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
+      <c r="G85" s="172"/>
+      <c r="H85" s="172"/>
+      <c r="I85" s="172"/>
+      <c r="J85" s="172"/>
+      <c r="K85" s="172"/>
+      <c r="L85" s="172"/>
+      <c r="M85" s="172"/>
+      <c r="N85" s="172"/>
+      <c r="O85" s="166"/>
+      <c r="P85" s="166"/>
+      <c r="Q85" s="166"/>
+      <c r="R85" s="166"/>
+      <c r="S85" s="166"/>
+      <c r="T85" s="172"/>
+      <c r="U85" s="172"/>
+      <c r="V85" s="172"/>
+      <c r="W85" s="172"/>
+      <c r="X85" s="172"/>
     </row>
     <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C86" s="126">
@@ -5042,40 +5043,85 @@
       </c>
     </row>
     <row r="89" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A89" s="174"/>
-      <c r="B89" s="174"/>
-      <c r="C89" s="174"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="174"/>
-      <c r="F89" s="174"/>
-      <c r="G89" s="174"/>
-      <c r="H89" s="174"/>
-      <c r="I89" s="174"/>
-      <c r="J89" s="174"/>
-      <c r="K89" s="174"/>
-      <c r="L89" s="174"/>
-      <c r="M89" s="174"/>
-      <c r="N89" s="174"/>
-      <c r="O89" s="174"/>
-      <c r="P89" s="174"/>
-      <c r="Q89" s="174"/>
-      <c r="R89" s="174"/>
-      <c r="S89" s="174"/>
-      <c r="T89" s="174"/>
-      <c r="U89" s="174"/>
-      <c r="V89" s="174"/>
-      <c r="W89" s="174"/>
-      <c r="X89" s="174"/>
+      <c r="A89" s="184"/>
+      <c r="B89" s="184"/>
+      <c r="C89" s="184"/>
+      <c r="D89" s="184"/>
+      <c r="E89" s="184"/>
+      <c r="F89" s="184"/>
+      <c r="G89" s="184"/>
+      <c r="H89" s="184"/>
+      <c r="I89" s="184"/>
+      <c r="J89" s="184"/>
+      <c r="K89" s="184"/>
+      <c r="L89" s="184"/>
+      <c r="M89" s="184"/>
+      <c r="N89" s="184"/>
+      <c r="O89" s="184"/>
+      <c r="P89" s="184"/>
+      <c r="Q89" s="184"/>
+      <c r="R89" s="184"/>
+      <c r="S89" s="184"/>
+      <c r="T89" s="184"/>
+      <c r="U89" s="184"/>
+      <c r="V89" s="184"/>
+      <c r="W89" s="184"/>
+      <c r="X89" s="184"/>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A90" s="177"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="177"/>
+      <c r="E90" s="177"/>
+      <c r="F90" s="177"/>
+      <c r="G90" s="177"/>
+      <c r="H90" s="177"/>
+      <c r="I90" s="177"/>
+      <c r="J90" s="177"/>
+      <c r="K90" s="177"/>
+      <c r="L90" s="177"/>
+      <c r="M90" s="177"/>
+      <c r="N90" s="177"/>
+      <c r="O90" s="177"/>
+      <c r="P90" s="177"/>
+      <c r="Q90" s="177"/>
+      <c r="R90" s="177"/>
+      <c r="S90" s="177"/>
+      <c r="T90" s="177"/>
+      <c r="U90" s="177"/>
+      <c r="V90" s="177"/>
+      <c r="W90" s="177"/>
+      <c r="X90" s="177"/>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A91" s="177"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="178"/>
+      <c r="D91" s="177"/>
+      <c r="E91" s="177"/>
+      <c r="F91" s="177"/>
+      <c r="G91" s="177"/>
+      <c r="H91" s="177"/>
+      <c r="I91" s="177"/>
+      <c r="J91" s="177"/>
+      <c r="K91" s="177"/>
+      <c r="L91" s="177"/>
+      <c r="M91" s="177"/>
+      <c r="N91" s="177"/>
+      <c r="O91" s="177"/>
+      <c r="P91" s="177"/>
+      <c r="Q91" s="177"/>
+      <c r="R91" s="177"/>
+      <c r="S91" s="177"/>
+      <c r="T91" s="177"/>
+      <c r="U91" s="177"/>
+      <c r="V91" s="177"/>
+      <c r="W91" s="177"/>
+      <c r="X91" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A91:X91"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A22:X22"/>
-    <mergeCell ref="A31:X31"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A69:X69"/>
-    <mergeCell ref="A89:X89"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A90:X90"/>
     <mergeCell ref="O3:S3"/>
@@ -5084,6 +5130,13 @@
     <mergeCell ref="A56:X56"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A91:X91"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A22:X22"/>
+    <mergeCell ref="A31:X31"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A69:X69"/>
+    <mergeCell ref="A89:X89"/>
   </mergeCells>
   <conditionalFormatting sqref="A26">
     <cfRule type="colorScale" priority="40">
@@ -5182,24 +5235,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
     </row>
     <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="175"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177" t="s">
+      <c r="D3" s="193"/>
+      <c r="E3" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="177"/>
+      <c r="F3" s="193"/>
     </row>
     <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
@@ -6731,27 +6784,27 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="183"/>
-      <c r="F84" s="183"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="199"/>
+      <c r="D84" s="199"/>
+      <c r="E84" s="199"/>
+      <c r="F84" s="199"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="184"/>
-      <c r="F85" s="184"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="200"/>
+      <c r="F85" s="200"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="178" t="s">
+      <c r="B86" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="179"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="184"/>
-      <c r="F86" s="184"/>
+      <c r="C86" s="195"/>
+      <c r="D86" s="196"/>
+      <c r="E86" s="200"/>
+      <c r="F86" s="200"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
@@ -6763,8 +6816,8 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="184"/>
-      <c r="F87" s="184"/>
+      <c r="E87" s="200"/>
+      <c r="F87" s="200"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
@@ -6776,8 +6829,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="184"/>
-      <c r="F88" s="184"/>
+      <c r="E88" s="200"/>
+      <c r="F88" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7252,6 +7305,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -7408,17 +7472,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7429,6 +7482,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7447,23 +7517,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
   <ds:schemaRefs>

--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B655AC9-302F-4B6A-9550-BFEA4B89FD26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B0EED-90CA-470A-98FA-BF0B59D52EC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
-    <sheet name="Projektbudget" sheetId="2" r:id="rId3"/>
+    <sheet name="Budget" sheetId="3" r:id="rId2"/>
+    <sheet name="P1Budget" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$56:$X$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$60:$X$95</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="178">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -519,12 +519,6 @@
     <t>4.1.4 Import und Export</t>
   </si>
   <si>
-    <t>1.1 Projektmanagement</t>
-  </si>
-  <si>
-    <t>1.4 Zwischenpräsentation</t>
-  </si>
-  <si>
     <t>1.5 Statusbericht 1</t>
   </si>
   <si>
@@ -565,19 +559,50 @@
   </si>
   <si>
     <t>8.1 Reserve</t>
+  </si>
+  <si>
+    <t>1.1 Planung</t>
+  </si>
+  <si>
+    <t>1.2 Sitzungen</t>
+  </si>
+  <si>
+    <t>5.4 Lösungsprüfung mit Auftraggeber</t>
+  </si>
+  <si>
+    <t>Arbeitspakete</t>
+  </si>
+  <si>
+    <t>Stunden [h]</t>
+  </si>
+  <si>
+    <t>Stundenanteil [%]</t>
+  </si>
+  <si>
+    <t>Kosten [CHF]</t>
+  </si>
+  <si>
+    <t>1. Projektmanagemet</t>
+  </si>
+  <si>
+    <t>6. Präsentation</t>
+  </si>
+  <si>
+    <t>Kostenanteil [%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,###\ &quot;PT&quot;"/>
     <numFmt numFmtId="166" formatCode="#,###\ &quot;PW&quot;"/>
     <numFmt numFmtId="167" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0\'000.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -710,8 +735,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aial"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,8 +886,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1078,26 +1120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -1106,26 +1128,6 @@
         <color theme="0"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1139,13 +1141,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1334,12 +1369,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1450,9 +1479,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,18 +1536,8 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1546,28 +1562,34 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,24 +1599,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1624,6 +1628,108 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1859,7 +1965,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>(Projektbudget!$B$6,Projektbudget!$B$13,Projektbudget!$B$27,Projektbudget!$B$43,Projektbudget!$B$59,Projektbudget!$B$72)</c:f>
+              <c:f>(P1Budget!$B$6,P1Budget!$B$13,P1Budget!$B$27,P1Budget!$B$43,P1Budget!$B$59,P1Budget!$B$72)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1885,7 +1991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Projektbudget!$F$6,Projektbudget!$F$13,Projektbudget!$F$27,Projektbudget!$F$43,Projektbudget!$F$59,Projektbudget!$F$72)</c:f>
+              <c:f>(P1Budget!$F$6,P1Budget!$F$13,P1Budget!$F$27,P1Budget!$F$43,P1Budget!$F$59,P1Budget!$F$72)</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2333,56 +2439,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS91"/>
+  <dimension ref="A1:AS98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="45.69921875" style="61" customWidth="1"/>
-    <col min="2" max="3" width="4.69921875" style="126" customWidth="1"/>
+    <col min="2" max="3" width="4.69921875" style="124" customWidth="1"/>
     <col min="4" max="24" width="6.69921875" style="61" customWidth="1"/>
     <col min="25" max="16384" width="10.796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="178"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="185">
+    <row r="1" spans="1:24" ht="10.199999999999999" customHeight="1">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="168"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="170">
         <v>2019</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="187"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="172"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.45" customHeight="1">
+      <c r="A3" s="168"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
       <c r="D3" s="63" t="s">
         <v>87</v>
       </c>
@@ -2416,13 +2522,13 @@
       <c r="N3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="185" t="s">
+      <c r="O3" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
       <c r="T3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2439,10 +2545,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="178"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
+    <row r="4" spans="1:24">
+      <c r="A4" s="168"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="63">
         <v>18.02</v>
       </c>
@@ -2476,19 +2582,19 @@
       <c r="N4" s="65">
         <v>29.04</v>
       </c>
-      <c r="O4" s="120">
+      <c r="O4" s="118">
         <v>6.05</v>
       </c>
-      <c r="P4" s="120">
+      <c r="P4" s="118">
         <v>7.05</v>
       </c>
-      <c r="Q4" s="120">
+      <c r="Q4" s="118">
         <v>8.0500000000000007</v>
       </c>
-      <c r="R4" s="120">
+      <c r="R4" s="118">
         <v>9.0500000000000007</v>
       </c>
-      <c r="S4" s="120">
+      <c r="S4" s="118">
         <v>10.050000000000001</v>
       </c>
       <c r="T4" s="63">
@@ -2507,71 +2613,71 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+    <row r="5" spans="1:24" ht="6" customHeight="1">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-    </row>
-    <row r="7" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+    </row>
+    <row r="7" spans="1:24" ht="6" customHeight="1">
+      <c r="A7" s="176"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="176"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="117" t="s">
+      <c r="B8" s="196"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="115" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="62"/>
@@ -2584,25 +2690,25 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
       <c r="N8" s="63"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="63"/>
       <c r="W8" s="63"/>
       <c r="X8" s="63"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+    <row r="9" spans="1:24" ht="14.4" customHeight="1">
+      <c r="A9" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="115" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="62"/>
@@ -2614,28 +2720,28 @@
       <c r="L9" s="63"/>
       <c r="M9" s="63"/>
       <c r="N9" s="63"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
       <c r="V9" s="63"/>
       <c r="W9" s="63"/>
       <c r="X9" s="63"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+    <row r="10" spans="1:24">
+      <c r="A10" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="197"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="63"/>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="115" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="68"/>
@@ -2644,29 +2750,29 @@
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
       <c r="N10" s="63"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
       <c r="X10" s="63"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+    <row r="11" spans="1:24">
+      <c r="A11" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="197"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="63"/>
       <c r="H11" s="67"/>
-      <c r="I11" s="117" t="s">
+      <c r="I11" s="115" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="66"/>
@@ -2674,53 +2780,53 @@
       <c r="L11" s="63"/>
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
       <c r="T11" s="62"/>
       <c r="U11" s="63"/>
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
       <c r="X11" s="63"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:24">
+      <c r="A12" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="197"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
-      <c r="J12" s="117" t="s">
+      <c r="J12" s="115" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="62"/>
       <c r="L12" s="63"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
       <c r="V12" s="63"/>
       <c r="W12" s="63"/>
       <c r="X12" s="63"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:24">
+      <c r="A13" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="200"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
@@ -2728,29 +2834,29 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="66"/>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="115" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="66"/>
       <c r="M13" s="66"/>
       <c r="N13" s="63"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="121"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="119"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
       <c r="V13" s="63"/>
       <c r="W13" s="63"/>
       <c r="X13" s="63"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+    <row r="14" spans="1:24">
+      <c r="A14" s="195" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="197"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
@@ -2761,25 +2867,25 @@
       <c r="K14" s="62"/>
       <c r="L14" s="66"/>
       <c r="M14" s="66"/>
-      <c r="N14" s="117" t="s">
+      <c r="N14" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
       <c r="U14" s="63"/>
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
       <c r="X14" s="63"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:24">
+      <c r="A15" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="197"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
@@ -2791,27 +2897,25 @@
       <c r="L15" s="63"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="117" t="s">
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="115" t="s">
         <v>2</v>
       </c>
       <c r="U15" s="63"/>
       <c r="V15" s="62"/>
       <c r="W15" s="63"/>
-      <c r="X15" s="117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="X15" s="66"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="197"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
@@ -2823,25 +2927,25 @@
       <c r="L16" s="63"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="86"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="84"/>
       <c r="U16" s="63"/>
       <c r="V16" s="62"/>
       <c r="W16" s="63"/>
-      <c r="X16" s="117" t="s">
+      <c r="X16" s="115" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+    <row r="17" spans="1:25">
+      <c r="A17" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
@@ -2853,2292 +2957,2617 @@
       <c r="L17" s="63"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="86"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="84"/>
       <c r="U17" s="63"/>
       <c r="V17" s="62"/>
       <c r="W17" s="63"/>
-      <c r="X17" s="117" t="s">
+      <c r="X17" s="115" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-    </row>
-    <row r="19" spans="1:25" ht="6.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-    </row>
-    <row r="20" spans="1:25" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
-      <c r="B20" s="189" t="s">
+      <c r="D18" s="194"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="224"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="225"/>
+      <c r="R18" s="225"/>
+      <c r="S18" s="225"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="5.4" customHeight="1">
+      <c r="A19" s="152"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+    </row>
+    <row r="20" spans="1:25" ht="22.2" customHeight="1">
+      <c r="B20" s="222" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="189" t="s">
+      <c r="C20" s="222" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="157"/>
-      <c r="S20" s="157"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="158"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+    </row>
+    <row r="21" spans="1:25" ht="14.4" customHeight="1">
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="170">
+        <v>2019</v>
+      </c>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="172"/>
+    </row>
+    <row r="22" spans="1:25" ht="14.4" customHeight="1">
+      <c r="B22" s="222"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="171"/>
+      <c r="Q22" s="171"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="171"/>
+      <c r="T22" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="U22" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="V22" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="W22" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="X22" s="63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="14.4" customHeight="1">
+      <c r="A23" s="223"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="63">
+        <v>18.02</v>
+      </c>
+      <c r="E23" s="63">
+        <v>25.02</v>
+      </c>
+      <c r="F23" s="65">
+        <v>4.03</v>
+      </c>
+      <c r="G23" s="65">
+        <v>11.03</v>
+      </c>
+      <c r="H23" s="65">
+        <v>18.03</v>
+      </c>
+      <c r="I23" s="65">
+        <v>25.03</v>
+      </c>
+      <c r="J23" s="65">
+        <v>1.04</v>
+      </c>
+      <c r="K23" s="63">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="L23" s="65">
+        <v>15.04</v>
+      </c>
+      <c r="M23" s="63">
+        <v>22.04</v>
+      </c>
+      <c r="N23" s="65">
+        <v>29.04</v>
+      </c>
+      <c r="O23" s="118">
+        <v>6.05</v>
+      </c>
+      <c r="P23" s="118">
+        <v>7.05</v>
+      </c>
+      <c r="Q23" s="118">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="R23" s="118">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="S23" s="118">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="T23" s="63">
+        <v>13.05</v>
+      </c>
+      <c r="U23" s="63">
+        <v>20.05</v>
+      </c>
+      <c r="V23" s="63">
+        <v>27.05</v>
+      </c>
+      <c r="W23" s="63">
+        <v>3.06</v>
+      </c>
+      <c r="X23" s="63">
+        <v>10.06</v>
+      </c>
+      <c r="Y23" s="153"/>
+    </row>
+    <row r="24" spans="1:25" ht="6" customHeight="1">
+      <c r="A24" s="223"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="223"/>
+      <c r="S24" s="223"/>
+      <c r="T24" s="223"/>
+      <c r="U24" s="223"/>
+      <c r="V24" s="223"/>
+      <c r="W24" s="223"/>
+      <c r="X24" s="223"/>
+      <c r="Y24" s="220"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="161"/>
-    </row>
-    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="179"/>
-      <c r="Q22" s="179"/>
-      <c r="R22" s="179"/>
-      <c r="S22" s="179"/>
-      <c r="T22" s="179"/>
-      <c r="U22" s="179"/>
-      <c r="V22" s="179"/>
-      <c r="W22" s="179"/>
-      <c r="X22" s="179"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
+      <c r="B25" s="222"/>
+      <c r="C25" s="222"/>
+      <c r="Y25" s="154"/>
+    </row>
+    <row r="26" spans="1:25" ht="6" customHeight="1">
+      <c r="A26" s="221"/>
+      <c r="B26" s="221"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="221"/>
+      <c r="O26" s="221"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131">
-        <f>SUM(C24:C24,C26,C27,C28,C29,C30,C25)</f>
-        <v>45</v>
-      </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="103"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="128">
+        <f>SUM(C28:C28,C30,C31,C32,C33,C34,C29)</f>
+        <v>44</v>
+      </c>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="101"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="129">
+        <v>10</v>
+      </c>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="130">
+        <v>25</v>
+      </c>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B30" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="132">
-        <v>25</v>
-      </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133">
-        <v>5</v>
-      </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="133">
-        <v>2</v>
-      </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="133">
-        <v>2</v>
-      </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="133">
-        <v>2</v>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="133">
-        <v>4</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="133">
-        <v>5</v>
-      </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="66"/>
+      <c r="C30" s="130">
+        <v>1</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="72"/>
       <c r="U30" s="66"/>
       <c r="V30" s="66"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="107"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="180"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="181"/>
-      <c r="V31" s="181"/>
-      <c r="W31" s="181"/>
-      <c r="X31" s="181"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="130">
+        <v>1</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="130">
+        <v>1</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="130">
+        <v>4</v>
+      </c>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="130">
+        <v>2</v>
+      </c>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="174"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="175"/>
+      <c r="Q35" s="175"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="175"/>
+      <c r="T35" s="175"/>
+      <c r="U35" s="175"/>
+      <c r="V35" s="175"/>
+      <c r="W35" s="175"/>
+      <c r="X35" s="175"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135">
-        <f>SUM(C38,C33)</f>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132">
+        <f>SUM(C42,C37)</f>
         <v>51</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B37" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="136">
-        <f>SUM(C34:C37)</f>
+      <c r="C37" s="133">
+        <f>SUM(C38:C41)</f>
         <v>31</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="124"/>
-      <c r="S33" s="124"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="129" t="s">
+      <c r="D37" s="76"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="77"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136">
+      <c r="B38" s="133"/>
+      <c r="C38" s="133">
         <v>8</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="124"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="129" t="s">
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="136"/>
-      <c r="C35" s="136">
+      <c r="B39" s="133"/>
+      <c r="C39" s="133">
         <v>10</v>
       </c>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="129" t="s">
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136">
+      <c r="B40" s="133"/>
+      <c r="C40" s="133">
         <v>8</v>
       </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="124"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="80"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="129" t="s">
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136">
-        <v>5</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="124"/>
-      <c r="S37" s="124"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="132">
-        <f>SUM(C39:C41)</f>
-        <v>20</v>
-      </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137">
-        <v>10</v>
-      </c>
-      <c r="D39" s="143"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="124"/>
-      <c r="S39" s="124"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134">
-        <v>5</v>
-      </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="123"/>
-      <c r="S40" s="123"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="137"/>
-      <c r="C41" s="137">
+      <c r="B41" s="133"/>
+      <c r="C41" s="133">
         <v>5</v>
       </c>
       <c r="D41" s="76"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="180"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="181"/>
-      <c r="M42" s="181"/>
-      <c r="N42" s="181"/>
-      <c r="O42" s="181"/>
-      <c r="P42" s="181"/>
-      <c r="Q42" s="181"/>
-      <c r="R42" s="181"/>
-      <c r="S42" s="181"/>
-      <c r="T42" s="181"/>
-      <c r="U42" s="181"/>
-      <c r="V42" s="181"/>
-      <c r="W42" s="181"/>
-      <c r="X42" s="181"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138">
-        <f>SUM(C44,C48,C52)</f>
-        <v>113</v>
-      </c>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="97"/>
-      <c r="W43" s="96"/>
-      <c r="X43" s="96"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="136">
-        <f>SUM(C45:C47)</f>
-        <v>38</v>
-      </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="124"/>
-      <c r="Q44" s="124"/>
-      <c r="R44" s="124"/>
-      <c r="S44" s="124"/>
-      <c r="T44" s="82"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="122"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="129">
+        <f>SUM(C43:C45)</f>
+        <v>20</v>
+      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134">
+        <v>10</v>
+      </c>
+      <c r="D43" s="140"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="131"/>
+      <c r="C44" s="131">
+        <v>5</v>
+      </c>
+      <c r="D44" s="71"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="121"/>
+      <c r="S44" s="121"/>
+      <c r="T44" s="66"/>
       <c r="U44" s="66"/>
       <c r="V44" s="66"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="76"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133">
-        <v>15</v>
-      </c>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="122"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="124"/>
-      <c r="S45" s="124"/>
-      <c r="T45" s="82"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134">
+        <v>5</v>
+      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="121"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="66"/>
       <c r="U45" s="66"/>
       <c r="V45" s="66"/>
-      <c r="W45" s="76"/>
-      <c r="X45" s="76"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133">
-        <v>15</v>
-      </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="123"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="123"/>
-      <c r="S46" s="123"/>
-      <c r="T46" s="66"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="66"/>
-      <c r="W46" s="66"/>
-      <c r="X46" s="66"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133">
-        <v>8</v>
-      </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="122"/>
-      <c r="P47" s="123"/>
-      <c r="Q47" s="123"/>
-      <c r="R47" s="123"/>
-      <c r="S47" s="123"/>
-      <c r="T47" s="66"/>
-      <c r="U47" s="66"/>
-      <c r="V47" s="66"/>
-      <c r="W47" s="66"/>
-      <c r="X47" s="66"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="136">
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="174"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="175"/>
+      <c r="M46" s="175"/>
+      <c r="N46" s="175"/>
+      <c r="O46" s="175"/>
+      <c r="P46" s="175"/>
+      <c r="Q46" s="175"/>
+      <c r="R46" s="175"/>
+      <c r="S46" s="175"/>
+      <c r="T46" s="175"/>
+      <c r="U46" s="175"/>
+      <c r="V46" s="175"/>
+      <c r="W46" s="175"/>
+      <c r="X46" s="175"/>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135">
+        <f>SUM(C48,C52,C56)</f>
+        <v>113</v>
+      </c>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="94"/>
+      <c r="X47" s="94"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="133">
         <f>SUM(C49:C51)</f>
-        <v>40</v>
-      </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="122"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="124"/>
-      <c r="S48" s="124"/>
-      <c r="T48" s="82"/>
+        <v>38</v>
+      </c>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="122"/>
+      <c r="T48" s="80"/>
       <c r="U48" s="66"/>
       <c r="V48" s="66"/>
-      <c r="W48" s="76"/>
-      <c r="X48" s="76"/>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A49" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="133"/>
-      <c r="C49" s="133">
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+    </row>
+    <row r="49" spans="1:45">
+      <c r="A49" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130">
         <v>15</v>
       </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="145"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="122"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="124"/>
-      <c r="S49" s="124"/>
-      <c r="T49" s="82"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="122"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="122"/>
+      <c r="T49" s="80"/>
       <c r="U49" s="66"/>
       <c r="V49" s="66"/>
-      <c r="W49" s="76"/>
-      <c r="X49" s="76"/>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A50" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133">
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+    </row>
+    <row r="50" spans="1:45">
+      <c r="A50" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130">
         <v>15</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="146"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="124"/>
-      <c r="S50" s="124"/>
-      <c r="T50" s="82"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="121"/>
+      <c r="S50" s="121"/>
+      <c r="T50" s="66"/>
       <c r="U50" s="66"/>
       <c r="V50" s="66"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="76"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A51" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133">
-        <v>10</v>
-      </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="145"/>
-      <c r="L51" s="146"/>
-      <c r="M51" s="146"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="123"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="124"/>
-      <c r="S51" s="124"/>
-      <c r="T51" s="82"/>
+      <c r="W50" s="66"/>
+      <c r="X50" s="66"/>
+    </row>
+    <row r="51" spans="1:45">
+      <c r="A51" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130">
+        <v>8</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="121"/>
+      <c r="Q51" s="121"/>
+      <c r="R51" s="121"/>
+      <c r="S51" s="121"/>
+      <c r="T51" s="66"/>
       <c r="U51" s="66"/>
       <c r="V51" s="66"/>
-      <c r="W51" s="76"/>
-      <c r="X51" s="76"/>
-    </row>
-    <row r="52" spans="1:45" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72" t="s">
+      <c r="W51" s="66"/>
+      <c r="X51" s="66"/>
+    </row>
+    <row r="52" spans="1:45">
+      <c r="A52" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="133">
+        <f>SUM(C53:C55)</f>
+        <v>40</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="122"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="66"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="74"/>
+      <c r="X52" s="74"/>
+    </row>
+    <row r="53" spans="1:45">
+      <c r="A53" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130">
+        <v>15</v>
+      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="122"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="66"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="74"/>
+      <c r="X53" s="74"/>
+    </row>
+    <row r="54" spans="1:45">
+      <c r="A54" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130">
+        <v>15</v>
+      </c>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="142"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="143"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="66"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="74"/>
+      <c r="X54" s="74"/>
+    </row>
+    <row r="55" spans="1:45">
+      <c r="A55" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="130"/>
+      <c r="C55" s="130">
+        <v>10</v>
+      </c>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="142"/>
+      <c r="L55" s="143"/>
+      <c r="M55" s="143"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="121"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="122"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="66"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="74"/>
+      <c r="X55" s="74"/>
+    </row>
+    <row r="56" spans="1:45" s="82" customFormat="1">
+      <c r="A56" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="132" t="s">
+      <c r="B56" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="136">
-        <f>SUM(C53:C55)</f>
+      <c r="C56" s="133">
+        <f>SUM(C57:C59)</f>
         <v>35</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="124"/>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="124"/>
-      <c r="S52" s="124"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="73"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="73"/>
-      <c r="Y52" s="61"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-    </row>
-    <row r="53" spans="1:45" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="83" t="s">
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="122"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+    </row>
+    <row r="57" spans="1:45" s="82" customFormat="1">
+      <c r="A57" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133">
+      <c r="B57" s="130"/>
+      <c r="C57" s="130">
         <v>15</v>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="124"/>
-      <c r="Q53" s="124"/>
-      <c r="R53" s="124"/>
-      <c r="S53" s="124"/>
-      <c r="T53" s="82"/>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="61"/>
-      <c r="Z53" s="61"/>
-      <c r="AA53" s="61"/>
-      <c r="AB53" s="61"/>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A54" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133">
-        <v>10</v>
-      </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="124"/>
-      <c r="S54" s="124"/>
-      <c r="T54" s="82"/>
-      <c r="U54" s="66"/>
-      <c r="V54" s="76"/>
-      <c r="W54" s="76"/>
-      <c r="X54" s="76"/>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A55" s="149" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="132"/>
-      <c r="C55" s="132">
-        <v>10</v>
-      </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="122"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="124"/>
-      <c r="S55" s="124"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="76"/>
-      <c r="W55" s="76"/>
-      <c r="X55" s="76"/>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A56" s="180"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
-      <c r="E56" s="181"/>
-      <c r="F56" s="181"/>
-      <c r="G56" s="181"/>
-      <c r="H56" s="181"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="181"/>
-      <c r="K56" s="181"/>
-      <c r="L56" s="181"/>
-      <c r="M56" s="181"/>
-      <c r="N56" s="181"/>
-      <c r="O56" s="181"/>
-      <c r="P56" s="181"/>
-      <c r="Q56" s="181"/>
-      <c r="R56" s="181"/>
-      <c r="S56" s="181"/>
-      <c r="T56" s="181"/>
-      <c r="U56" s="181"/>
-      <c r="V56" s="181"/>
-      <c r="W56" s="181"/>
-      <c r="X56" s="181"/>
-    </row>
-    <row r="57" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="139"/>
-      <c r="C57" s="139">
-        <f>SUM(C58,C65)</f>
-        <v>208</v>
-      </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="110"/>
-      <c r="L57" s="110"/>
-      <c r="M57" s="110"/>
-      <c r="N57" s="110"/>
-      <c r="O57" s="110"/>
-      <c r="P57" s="110"/>
-      <c r="Q57" s="110"/>
-      <c r="R57" s="111"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="111"/>
-      <c r="U57" s="111"/>
-      <c r="V57" s="111"/>
-      <c r="W57" s="110"/>
-      <c r="X57" s="110"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="122"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
       <c r="Y57" s="61"/>
       <c r="Z57" s="61"/>
       <c r="AA57" s="61"/>
       <c r="AB57" s="61"/>
       <c r="AC57" s="61"/>
       <c r="AD57" s="61"/>
-      <c r="AE57" s="61"/>
-      <c r="AF57" s="61"/>
-      <c r="AG57" s="61"/>
-      <c r="AH57" s="61"/>
-      <c r="AI57" s="61"/>
-      <c r="AJ57" s="61"/>
-      <c r="AK57" s="61"/>
-      <c r="AL57" s="61"/>
-      <c r="AM57" s="61"/>
-      <c r="AN57" s="61"/>
-      <c r="AO57" s="61"/>
-      <c r="AP57" s="61"/>
-      <c r="AQ57" s="61"/>
-      <c r="AR57" s="61"/>
-      <c r="AS57" s="61"/>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A58" s="72" t="s">
+    </row>
+    <row r="58" spans="1:45">
+      <c r="A58" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130">
+        <v>10</v>
+      </c>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="122"/>
+      <c r="T58" s="80"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="74"/>
+    </row>
+    <row r="59" spans="1:45">
+      <c r="A59" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129">
+        <v>10</v>
+      </c>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122"/>
+      <c r="R59" s="122"/>
+      <c r="S59" s="122"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+    </row>
+    <row r="60" spans="1:45">
+      <c r="A60" s="174"/>
+      <c r="B60" s="175"/>
+      <c r="C60" s="175"/>
+      <c r="D60" s="175"/>
+      <c r="E60" s="175"/>
+      <c r="F60" s="175"/>
+      <c r="G60" s="175"/>
+      <c r="H60" s="175"/>
+      <c r="I60" s="175"/>
+      <c r="J60" s="175"/>
+      <c r="K60" s="175"/>
+      <c r="L60" s="175"/>
+      <c r="M60" s="175"/>
+      <c r="N60" s="175"/>
+      <c r="O60" s="175"/>
+      <c r="P60" s="175"/>
+      <c r="Q60" s="175"/>
+      <c r="R60" s="175"/>
+      <c r="S60" s="175"/>
+      <c r="T60" s="175"/>
+      <c r="U60" s="175"/>
+      <c r="V60" s="175"/>
+      <c r="W60" s="175"/>
+      <c r="X60" s="175"/>
+    </row>
+    <row r="61" spans="1:45" s="96" customFormat="1">
+      <c r="A61" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136">
+        <f>SUM(C62,C69)</f>
+        <v>260</v>
+      </c>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="109"/>
+      <c r="S61" s="109"/>
+      <c r="T61" s="109"/>
+      <c r="U61" s="109"/>
+      <c r="V61" s="109"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
+      <c r="Y61" s="61"/>
+      <c r="Z61" s="61"/>
+      <c r="AA61" s="61"/>
+      <c r="AB61" s="61"/>
+      <c r="AC61" s="61"/>
+      <c r="AD61" s="61"/>
+      <c r="AE61" s="61"/>
+      <c r="AF61" s="61"/>
+      <c r="AG61" s="61"/>
+      <c r="AH61" s="61"/>
+      <c r="AI61" s="61"/>
+      <c r="AJ61" s="61"/>
+      <c r="AK61" s="61"/>
+      <c r="AL61" s="61"/>
+      <c r="AM61" s="61"/>
+      <c r="AN61" s="61"/>
+      <c r="AO61" s="61"/>
+      <c r="AP61" s="61"/>
+      <c r="AQ61" s="61"/>
+      <c r="AR61" s="61"/>
+      <c r="AS61" s="61"/>
+    </row>
+    <row r="62" spans="1:45">
+      <c r="A62" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="136" t="s">
+      <c r="B62" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="136">
-        <f>SUM(C59:C64)</f>
-        <v>175</v>
-      </c>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="125"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
-      <c r="X58" s="76"/>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A59" s="75" t="s">
+      <c r="C62" s="133">
+        <f>SUM(C63:C68)</f>
+        <v>220</v>
+      </c>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="123"/>
+      <c r="P62" s="123"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="123"/>
+      <c r="S62" s="123"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="74"/>
+      <c r="W62" s="74"/>
+      <c r="X62" s="74"/>
+    </row>
+    <row r="63" spans="1:45">
+      <c r="A63" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136">
+      <c r="B63" s="133"/>
+      <c r="C63" s="133">
+        <v>30</v>
+      </c>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="147"/>
+      <c r="P63" s="147"/>
+      <c r="Q63" s="147"/>
+      <c r="R63" s="147"/>
+      <c r="S63" s="147"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
+      <c r="V63" s="74"/>
+      <c r="W63" s="74"/>
+      <c r="X63" s="74"/>
+    </row>
+    <row r="64" spans="1:45">
+      <c r="A64" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="133"/>
+      <c r="C64" s="133">
+        <v>50</v>
+      </c>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
+      <c r="N64" s="147"/>
+      <c r="O64" s="147"/>
+      <c r="P64" s="147"/>
+      <c r="Q64" s="147"/>
+      <c r="R64" s="147"/>
+      <c r="S64" s="147"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
+      <c r="V64" s="74"/>
+      <c r="W64" s="74"/>
+      <c r="X64" s="74"/>
+    </row>
+    <row r="65" spans="1:45">
+      <c r="A65" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="131"/>
+      <c r="C65" s="131">
+        <v>70</v>
+      </c>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="147"/>
+      <c r="N65" s="147"/>
+      <c r="O65" s="147"/>
+      <c r="P65" s="147"/>
+      <c r="Q65" s="147"/>
+      <c r="R65" s="147"/>
+      <c r="S65" s="147"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="74"/>
+      <c r="V65" s="74"/>
+      <c r="W65" s="74"/>
+      <c r="X65" s="74"/>
+    </row>
+    <row r="66" spans="1:45">
+      <c r="A66" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="131"/>
+      <c r="C66" s="131">
+        <v>30</v>
+      </c>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="147"/>
+      <c r="P66" s="147"/>
+      <c r="Q66" s="147"/>
+      <c r="R66" s="147"/>
+      <c r="S66" s="147"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
+      <c r="V66" s="74"/>
+      <c r="W66" s="74"/>
+      <c r="X66" s="74"/>
+    </row>
+    <row r="67" spans="1:45">
+      <c r="A67" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="131"/>
+      <c r="C67" s="131">
+        <v>30</v>
+      </c>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="147"/>
+      <c r="P67" s="147"/>
+      <c r="Q67" s="147"/>
+      <c r="R67" s="147"/>
+      <c r="S67" s="147"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="71"/>
+      <c r="V67" s="74"/>
+      <c r="W67" s="74"/>
+      <c r="X67" s="74"/>
+    </row>
+    <row r="68" spans="1:45">
+      <c r="A68" s="144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="131"/>
+      <c r="C68" s="131">
+        <v>10</v>
+      </c>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="120"/>
+      <c r="P68" s="122"/>
+      <c r="Q68" s="122"/>
+      <c r="R68" s="123"/>
+      <c r="S68" s="123"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
+      <c r="V68" s="74"/>
+      <c r="W68" s="74"/>
+      <c r="X68" s="74"/>
+    </row>
+    <row r="69" spans="1:45">
+      <c r="A69" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="130">
+        <f>SUM(C70:C72)</f>
+        <v>40</v>
+      </c>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="123"/>
+      <c r="P69" s="123"/>
+      <c r="Q69" s="123"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="123"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="71"/>
+      <c r="V69" s="74"/>
+      <c r="W69" s="74"/>
+      <c r="X69" s="74"/>
+    </row>
+    <row r="70" spans="1:45">
+      <c r="A70" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="131"/>
+      <c r="C70" s="131">
+        <v>10</v>
+      </c>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="147"/>
+      <c r="O70" s="148"/>
+      <c r="P70" s="123"/>
+      <c r="Q70" s="123"/>
+      <c r="R70" s="123"/>
+      <c r="S70" s="123"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="74"/>
+      <c r="V70" s="74"/>
+      <c r="W70" s="74"/>
+      <c r="X70" s="74"/>
+    </row>
+    <row r="71" spans="1:45">
+      <c r="A71" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="131"/>
+      <c r="C71" s="131">
         <v>20</v>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="150"/>
-      <c r="P59" s="150"/>
-      <c r="Q59" s="150"/>
-      <c r="R59" s="150"/>
-      <c r="S59" s="150"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="76"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="76"/>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136">
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="148"/>
+      <c r="P71" s="148"/>
+      <c r="Q71" s="148"/>
+      <c r="R71" s="123"/>
+      <c r="S71" s="123"/>
+      <c r="T71" s="71"/>
+      <c r="U71" s="71"/>
+      <c r="V71" s="74"/>
+      <c r="W71" s="74"/>
+      <c r="X71" s="74"/>
+    </row>
+    <row r="72" spans="1:45">
+      <c r="A72" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="131"/>
+      <c r="C72" s="131">
+        <v>10</v>
+      </c>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="123"/>
+      <c r="P72" s="123"/>
+      <c r="Q72" s="148"/>
+      <c r="R72" s="148"/>
+      <c r="S72" s="148"/>
+      <c r="T72" s="71"/>
+      <c r="U72" s="71"/>
+      <c r="V72" s="74"/>
+      <c r="W72" s="74"/>
+      <c r="X72" s="74"/>
+    </row>
+    <row r="73" spans="1:45">
+      <c r="A73" s="177"/>
+      <c r="B73" s="178"/>
+      <c r="C73" s="178"/>
+      <c r="D73" s="178"/>
+      <c r="E73" s="178"/>
+      <c r="F73" s="178"/>
+      <c r="G73" s="178"/>
+      <c r="H73" s="178"/>
+      <c r="I73" s="178"/>
+      <c r="J73" s="178"/>
+      <c r="K73" s="178"/>
+      <c r="L73" s="178"/>
+      <c r="M73" s="178"/>
+      <c r="N73" s="178"/>
+      <c r="O73" s="178"/>
+      <c r="P73" s="178"/>
+      <c r="Q73" s="178"/>
+      <c r="R73" s="178"/>
+      <c r="S73" s="178"/>
+      <c r="T73" s="178"/>
+      <c r="U73" s="178"/>
+      <c r="V73" s="178"/>
+      <c r="W73" s="178"/>
+      <c r="X73" s="178"/>
+    </row>
+    <row r="74" spans="1:45" s="97" customFormat="1">
+      <c r="A74" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="137"/>
+      <c r="C74" s="137">
+        <f>SUM(C75:C79)</f>
+        <v>120</v>
+      </c>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="111"/>
+      <c r="M74" s="111"/>
+      <c r="N74" s="111"/>
+      <c r="O74" s="111"/>
+      <c r="P74" s="111"/>
+      <c r="Q74" s="111"/>
+      <c r="R74" s="111"/>
+      <c r="S74" s="111"/>
+      <c r="T74" s="111"/>
+      <c r="U74" s="111"/>
+      <c r="V74" s="111"/>
+      <c r="W74" s="111"/>
+      <c r="X74" s="111"/>
+      <c r="Y74" s="114"/>
+      <c r="Z74" s="114"/>
+      <c r="AA74" s="114"/>
+      <c r="AB74" s="114"/>
+      <c r="AC74" s="114"/>
+      <c r="AD74" s="114"/>
+      <c r="AE74" s="114"/>
+      <c r="AF74" s="114"/>
+      <c r="AG74" s="114"/>
+      <c r="AH74" s="114"/>
+      <c r="AI74" s="114"/>
+      <c r="AJ74" s="114"/>
+      <c r="AK74" s="114"/>
+      <c r="AL74" s="114"/>
+      <c r="AM74" s="114"/>
+      <c r="AN74" s="114"/>
+      <c r="AO74" s="114"/>
+      <c r="AP74" s="114"/>
+      <c r="AQ74" s="114"/>
+      <c r="AR74" s="114"/>
+      <c r="AS74" s="114"/>
+    </row>
+    <row r="75" spans="1:45" s="97" customFormat="1">
+      <c r="A75" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="133">
+        <v>50</v>
+      </c>
+      <c r="D75" s="126"/>
+      <c r="E75" s="126"/>
+      <c r="F75" s="126"/>
+      <c r="G75" s="126"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="126"/>
+      <c r="J75" s="126"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="126"/>
+      <c r="N75" s="126"/>
+      <c r="O75" s="125"/>
+      <c r="P75" s="125"/>
+      <c r="Q75" s="125"/>
+      <c r="R75" s="125"/>
+      <c r="S75" s="125"/>
+      <c r="T75" s="149"/>
+      <c r="U75" s="149"/>
+      <c r="V75" s="126"/>
+      <c r="W75" s="126"/>
+      <c r="X75" s="126"/>
+      <c r="Y75" s="114"/>
+      <c r="Z75" s="114"/>
+      <c r="AA75" s="114"/>
+      <c r="AB75" s="114"/>
+      <c r="AC75" s="114"/>
+      <c r="AD75" s="114"/>
+      <c r="AE75" s="114"/>
+      <c r="AF75" s="114"/>
+      <c r="AG75" s="114"/>
+      <c r="AH75" s="114"/>
+      <c r="AI75" s="114"/>
+      <c r="AJ75" s="114"/>
+      <c r="AK75" s="114"/>
+      <c r="AL75" s="114"/>
+      <c r="AM75" s="114"/>
+      <c r="AN75" s="114"/>
+      <c r="AO75" s="114"/>
+      <c r="AP75" s="114"/>
+      <c r="AQ75" s="114"/>
+      <c r="AR75" s="114"/>
+      <c r="AS75" s="114"/>
+    </row>
+    <row r="76" spans="1:45" s="97" customFormat="1">
+      <c r="A76" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="129">
+        <v>25</v>
+      </c>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="126"/>
+      <c r="N76" s="126"/>
+      <c r="O76" s="125"/>
+      <c r="P76" s="125"/>
+      <c r="Q76" s="125"/>
+      <c r="R76" s="125"/>
+      <c r="S76" s="149"/>
+      <c r="T76" s="149"/>
+      <c r="U76" s="126"/>
+      <c r="V76" s="126"/>
+      <c r="W76" s="126"/>
+      <c r="X76" s="126"/>
+      <c r="Y76" s="114"/>
+      <c r="Z76" s="114"/>
+      <c r="AA76" s="114"/>
+      <c r="AB76" s="114"/>
+      <c r="AC76" s="114"/>
+      <c r="AD76" s="114"/>
+      <c r="AE76" s="114"/>
+      <c r="AF76" s="114"/>
+      <c r="AG76" s="114"/>
+      <c r="AH76" s="114"/>
+      <c r="AI76" s="114"/>
+      <c r="AJ76" s="114"/>
+      <c r="AK76" s="114"/>
+      <c r="AL76" s="114"/>
+      <c r="AM76" s="114"/>
+      <c r="AN76" s="114"/>
+      <c r="AO76" s="114"/>
+      <c r="AP76" s="114"/>
+      <c r="AQ76" s="114"/>
+      <c r="AR76" s="114"/>
+      <c r="AS76" s="114"/>
+    </row>
+    <row r="77" spans="1:45" s="97" customFormat="1">
+      <c r="A77" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="129">
+        <v>25</v>
+      </c>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="126"/>
+      <c r="N77" s="126"/>
+      <c r="O77" s="125"/>
+      <c r="P77" s="125"/>
+      <c r="Q77" s="125"/>
+      <c r="R77" s="125"/>
+      <c r="S77" s="149"/>
+      <c r="T77" s="149"/>
+      <c r="U77" s="126"/>
+      <c r="V77" s="126"/>
+      <c r="W77" s="126"/>
+      <c r="X77" s="126"/>
+      <c r="Y77" s="114"/>
+      <c r="Z77" s="114"/>
+      <c r="AA77" s="114"/>
+      <c r="AB77" s="114"/>
+      <c r="AC77" s="114"/>
+      <c r="AD77" s="114"/>
+      <c r="AE77" s="114"/>
+      <c r="AF77" s="114"/>
+      <c r="AG77" s="114"/>
+      <c r="AH77" s="114"/>
+      <c r="AI77" s="114"/>
+      <c r="AJ77" s="114"/>
+      <c r="AK77" s="114"/>
+      <c r="AL77" s="114"/>
+      <c r="AM77" s="114"/>
+      <c r="AN77" s="114"/>
+      <c r="AO77" s="114"/>
+      <c r="AP77" s="114"/>
+      <c r="AQ77" s="114"/>
+      <c r="AR77" s="114"/>
+      <c r="AS77" s="114"/>
+    </row>
+    <row r="78" spans="1:45" s="97" customFormat="1">
+      <c r="A78" s="126" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="129">
+        <v>20</v>
+      </c>
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
+      <c r="M78" s="126"/>
+      <c r="N78" s="126"/>
+      <c r="O78" s="125"/>
+      <c r="P78" s="125"/>
+      <c r="Q78" s="125"/>
+      <c r="R78" s="125"/>
+      <c r="S78" s="149"/>
+      <c r="T78" s="149"/>
+      <c r="U78" s="126"/>
+      <c r="V78" s="126"/>
+      <c r="W78" s="126"/>
+      <c r="X78" s="126"/>
+      <c r="Y78" s="114"/>
+      <c r="Z78" s="114"/>
+      <c r="AA78" s="114"/>
+      <c r="AB78" s="114"/>
+      <c r="AC78" s="114"/>
+      <c r="AD78" s="114"/>
+      <c r="AE78" s="114"/>
+      <c r="AF78" s="114"/>
+      <c r="AG78" s="114"/>
+      <c r="AH78" s="114"/>
+      <c r="AI78" s="114"/>
+      <c r="AJ78" s="114"/>
+      <c r="AK78" s="114"/>
+      <c r="AL78" s="114"/>
+      <c r="AM78" s="114"/>
+      <c r="AN78" s="114"/>
+      <c r="AO78" s="114"/>
+      <c r="AP78" s="114"/>
+      <c r="AQ78" s="114"/>
+      <c r="AR78" s="114"/>
+      <c r="AS78" s="114"/>
+    </row>
+    <row r="79" spans="1:45" s="97" customFormat="1">
+      <c r="A79" s="126"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="126"/>
+      <c r="K79" s="126"/>
+      <c r="L79" s="126"/>
+      <c r="M79" s="126"/>
+      <c r="N79" s="126"/>
+      <c r="O79" s="125"/>
+      <c r="P79" s="125"/>
+      <c r="Q79" s="125"/>
+      <c r="R79" s="125"/>
+      <c r="S79" s="149"/>
+      <c r="T79" s="149"/>
+      <c r="U79" s="126"/>
+      <c r="V79" s="126"/>
+      <c r="W79" s="126"/>
+      <c r="X79" s="126"/>
+      <c r="Y79" s="114"/>
+      <c r="Z79" s="114"/>
+      <c r="AA79" s="114"/>
+      <c r="AB79" s="114"/>
+      <c r="AC79" s="114"/>
+      <c r="AD79" s="114"/>
+      <c r="AE79" s="114"/>
+      <c r="AF79" s="114"/>
+      <c r="AG79" s="114"/>
+      <c r="AH79" s="114"/>
+      <c r="AI79" s="114"/>
+      <c r="AJ79" s="114"/>
+      <c r="AK79" s="114"/>
+      <c r="AL79" s="114"/>
+      <c r="AM79" s="114"/>
+      <c r="AN79" s="114"/>
+      <c r="AO79" s="114"/>
+      <c r="AP79" s="114"/>
+      <c r="AQ79" s="114"/>
+      <c r="AR79" s="114"/>
+      <c r="AS79" s="114"/>
+    </row>
+    <row r="80" spans="1:45">
+      <c r="B80" s="61"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="90"/>
+      <c r="P80" s="90"/>
+      <c r="Q80" s="90"/>
+      <c r="R80" s="150"/>
+      <c r="S80" s="150"/>
+      <c r="T80" s="91"/>
+      <c r="U80" s="91"/>
+      <c r="V80" s="91"/>
+      <c r="W80" s="91"/>
+      <c r="X80" s="91"/>
+    </row>
+    <row r="81" spans="1:45">
+      <c r="A81" s="156"/>
+      <c r="B81" s="155"/>
+      <c r="C81" s="155"/>
+      <c r="D81" s="157"/>
+      <c r="E81" s="157"/>
+      <c r="F81" s="157"/>
+      <c r="G81" s="157"/>
+      <c r="H81" s="157"/>
+      <c r="I81" s="157"/>
+      <c r="J81" s="157"/>
+      <c r="K81" s="157"/>
+      <c r="L81" s="157"/>
+      <c r="M81" s="157"/>
+      <c r="N81" s="157"/>
+      <c r="O81" s="157"/>
+      <c r="P81" s="157"/>
+      <c r="Q81" s="157"/>
+      <c r="R81" s="157"/>
+      <c r="S81" s="157"/>
+      <c r="T81" s="157"/>
+      <c r="U81" s="157"/>
+      <c r="V81" s="157"/>
+      <c r="W81" s="157"/>
+      <c r="X81" s="157"/>
+    </row>
+    <row r="82" spans="1:45" s="158" customFormat="1">
+      <c r="A82" s="166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="190"/>
+      <c r="C82" s="190">
+        <f>SUM(C83:C84)</f>
+        <v>15</v>
+      </c>
+      <c r="D82" s="191"/>
+      <c r="E82" s="191"/>
+      <c r="F82" s="191"/>
+      <c r="G82" s="191"/>
+      <c r="H82" s="191"/>
+      <c r="I82" s="191"/>
+      <c r="J82" s="191"/>
+      <c r="K82" s="191"/>
+      <c r="L82" s="191"/>
+      <c r="M82" s="191"/>
+      <c r="N82" s="191"/>
+      <c r="O82" s="191"/>
+      <c r="P82" s="191"/>
+      <c r="Q82" s="191"/>
+      <c r="R82" s="191"/>
+      <c r="S82" s="191"/>
+      <c r="T82" s="191"/>
+      <c r="U82" s="191"/>
+      <c r="V82" s="191"/>
+      <c r="W82" s="191"/>
+      <c r="X82" s="191"/>
+    </row>
+    <row r="83" spans="1:45">
+      <c r="A83" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="129">
+        <v>5</v>
+      </c>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="202"/>
+      <c r="L83" s="91"/>
+      <c r="M83" s="91"/>
+      <c r="N83" s="91"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="91"/>
+      <c r="Q83" s="91"/>
+      <c r="R83" s="91"/>
+      <c r="S83" s="91"/>
+      <c r="T83" s="91"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+    </row>
+    <row r="84" spans="1:45">
+      <c r="A84" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="129">
+        <v>10</v>
+      </c>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="91"/>
+      <c r="T84" s="91"/>
+      <c r="U84" s="91"/>
+      <c r="V84" s="91"/>
+      <c r="W84" s="202"/>
+      <c r="X84" s="202"/>
+    </row>
+    <row r="85" spans="1:45">
+      <c r="A85" s="156"/>
+      <c r="B85" s="155"/>
+      <c r="C85" s="155"/>
+      <c r="D85" s="157"/>
+      <c r="E85" s="157"/>
+      <c r="F85" s="157"/>
+      <c r="G85" s="157"/>
+      <c r="H85" s="157"/>
+      <c r="I85" s="157"/>
+      <c r="J85" s="157"/>
+      <c r="K85" s="157"/>
+      <c r="L85" s="157"/>
+      <c r="M85" s="157"/>
+      <c r="N85" s="157"/>
+      <c r="O85" s="157"/>
+      <c r="P85" s="157"/>
+      <c r="Q85" s="157"/>
+      <c r="R85" s="157"/>
+      <c r="S85" s="157"/>
+      <c r="T85" s="157"/>
+      <c r="U85" s="157"/>
+      <c r="V85" s="157"/>
+      <c r="W85" s="157"/>
+      <c r="X85" s="157"/>
+    </row>
+    <row r="86" spans="1:45" s="158" customFormat="1">
+      <c r="A86" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="167"/>
+      <c r="C86" s="167">
+        <f>SUM(C87:C89)</f>
+        <v>155</v>
+      </c>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="112"/>
+      <c r="I86" s="112"/>
+      <c r="J86" s="112"/>
+      <c r="K86" s="112"/>
+      <c r="L86" s="112"/>
+      <c r="M86" s="112"/>
+      <c r="N86" s="112"/>
+      <c r="O86" s="112"/>
+      <c r="P86" s="112"/>
+      <c r="Q86" s="112"/>
+      <c r="R86" s="112"/>
+      <c r="S86" s="112"/>
+      <c r="T86" s="112"/>
+      <c r="U86" s="112"/>
+      <c r="V86" s="112"/>
+      <c r="W86" s="112"/>
+      <c r="X86" s="112"/>
+    </row>
+    <row r="87" spans="1:45">
+      <c r="A87" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="129">
+        <v>15</v>
+      </c>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="91"/>
+      <c r="L87" s="91"/>
+      <c r="M87" s="91"/>
+      <c r="N87" s="91"/>
+      <c r="O87" s="90"/>
+      <c r="P87" s="90"/>
+      <c r="Q87" s="90"/>
+      <c r="R87" s="90"/>
+      <c r="S87" s="90"/>
+      <c r="T87" s="91"/>
+      <c r="U87" s="91"/>
+      <c r="V87" s="91"/>
+      <c r="W87" s="91"/>
+      <c r="X87" s="91"/>
+    </row>
+    <row r="88" spans="1:45">
+      <c r="A88" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="129">
         <v>40</v>
       </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="150"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="150"/>
-      <c r="N60" s="150"/>
-      <c r="O60" s="150"/>
-      <c r="P60" s="150"/>
-      <c r="Q60" s="150"/>
-      <c r="R60" s="150"/>
-      <c r="S60" s="150"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A61" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="134"/>
-      <c r="C61" s="134">
-        <v>60</v>
-      </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="150"/>
-      <c r="M61" s="150"/>
-      <c r="N61" s="150"/>
-      <c r="O61" s="150"/>
-      <c r="P61" s="150"/>
-      <c r="Q61" s="150"/>
-      <c r="R61" s="150"/>
-      <c r="S61" s="150"/>
-      <c r="T61" s="73"/>
-      <c r="U61" s="76"/>
-      <c r="V61" s="76"/>
-      <c r="W61" s="76"/>
-      <c r="X61" s="76"/>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="134"/>
-      <c r="C62" s="134">
-        <v>25</v>
-      </c>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="150"/>
-      <c r="P62" s="150"/>
-      <c r="Q62" s="150"/>
-      <c r="R62" s="150"/>
-      <c r="S62" s="150"/>
-      <c r="T62" s="73"/>
-      <c r="U62" s="73"/>
-      <c r="V62" s="76"/>
-      <c r="W62" s="76"/>
-      <c r="X62" s="76"/>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A63" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="134"/>
-      <c r="C63" s="134">
-        <v>20</v>
-      </c>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="150"/>
-      <c r="P63" s="150"/>
-      <c r="Q63" s="150"/>
-      <c r="R63" s="150"/>
-      <c r="S63" s="150"/>
-      <c r="T63" s="73"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="76"/>
-      <c r="W63" s="76"/>
-      <c r="X63" s="76"/>
-    </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A64" s="147" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="134"/>
-      <c r="C64" s="134">
-        <v>10</v>
-      </c>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="122"/>
-      <c r="P64" s="124"/>
-      <c r="Q64" s="124"/>
-      <c r="R64" s="125"/>
-      <c r="S64" s="125"/>
-      <c r="T64" s="73"/>
-      <c r="U64" s="73"/>
-      <c r="V64" s="76"/>
-      <c r="W64" s="76"/>
-      <c r="X64" s="76"/>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="133">
-        <f>SUM(C66:C68)</f>
-        <v>33</v>
-      </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="125"/>
-      <c r="P65" s="125"/>
-      <c r="Q65" s="125"/>
-      <c r="R65" s="125"/>
-      <c r="S65" s="125"/>
-      <c r="T65" s="73"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="76"/>
-      <c r="W65" s="76"/>
-      <c r="X65" s="76"/>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="134"/>
-      <c r="C66" s="134">
-        <v>10</v>
-      </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="76"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="150"/>
-      <c r="N66" s="150"/>
-      <c r="O66" s="151"/>
-      <c r="P66" s="125"/>
-      <c r="Q66" s="125"/>
-      <c r="R66" s="125"/>
-      <c r="S66" s="125"/>
-      <c r="T66" s="73"/>
-      <c r="U66" s="76"/>
-      <c r="V66" s="76"/>
-      <c r="W66" s="76"/>
-      <c r="X66" s="76"/>
-    </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A67" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="134"/>
-      <c r="C67" s="134">
-        <v>15</v>
-      </c>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76"/>
-      <c r="K67" s="76"/>
-      <c r="L67" s="76"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="73"/>
-      <c r="O67" s="151"/>
-      <c r="P67" s="151"/>
-      <c r="Q67" s="151"/>
-      <c r="R67" s="125"/>
-      <c r="S67" s="125"/>
-      <c r="T67" s="73"/>
-      <c r="U67" s="73"/>
-      <c r="V67" s="76"/>
-      <c r="W67" s="76"/>
-      <c r="X67" s="76"/>
-    </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="134"/>
-      <c r="C68" s="134">
-        <v>8</v>
-      </c>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="76"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="125"/>
-      <c r="P68" s="125"/>
-      <c r="Q68" s="151"/>
-      <c r="R68" s="151"/>
-      <c r="S68" s="151"/>
-      <c r="T68" s="73"/>
-      <c r="U68" s="73"/>
-      <c r="V68" s="76"/>
-      <c r="W68" s="76"/>
-      <c r="X68" s="76"/>
-    </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A69" s="182"/>
-      <c r="B69" s="183"/>
-      <c r="C69" s="183"/>
-      <c r="D69" s="183"/>
-      <c r="E69" s="183"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="183"/>
-      <c r="H69" s="183"/>
-      <c r="I69" s="183"/>
-      <c r="J69" s="183"/>
-      <c r="K69" s="183"/>
-      <c r="L69" s="183"/>
-      <c r="M69" s="183"/>
-      <c r="N69" s="183"/>
-      <c r="O69" s="183"/>
-      <c r="P69" s="183"/>
-      <c r="Q69" s="183"/>
-      <c r="R69" s="183"/>
-      <c r="S69" s="183"/>
-      <c r="T69" s="183"/>
-      <c r="U69" s="183"/>
-      <c r="V69" s="183"/>
-      <c r="W69" s="183"/>
-      <c r="X69" s="183"/>
-    </row>
-    <row r="70" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140">
-        <f>SUM(C71:C73)</f>
-        <v>150</v>
-      </c>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="113"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="113"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="113"/>
-      <c r="N70" s="113"/>
-      <c r="O70" s="113"/>
-      <c r="P70" s="113"/>
-      <c r="Q70" s="113"/>
-      <c r="R70" s="113"/>
-      <c r="S70" s="113"/>
-      <c r="T70" s="113"/>
-      <c r="U70" s="113"/>
-      <c r="V70" s="113"/>
-      <c r="W70" s="113"/>
-      <c r="X70" s="113"/>
-      <c r="Y70" s="116"/>
-      <c r="Z70" s="116"/>
-      <c r="AA70" s="116"/>
-      <c r="AB70" s="116"/>
-      <c r="AC70" s="116"/>
-      <c r="AD70" s="116"/>
-      <c r="AE70" s="116"/>
-      <c r="AF70" s="116"/>
-      <c r="AG70" s="116"/>
-      <c r="AH70" s="116"/>
-      <c r="AI70" s="116"/>
-      <c r="AJ70" s="116"/>
-      <c r="AK70" s="116"/>
-      <c r="AL70" s="116"/>
-      <c r="AM70" s="116"/>
-      <c r="AN70" s="116"/>
-      <c r="AO70" s="116"/>
-      <c r="AP70" s="116"/>
-      <c r="AQ70" s="116"/>
-      <c r="AR70" s="116"/>
-      <c r="AS70" s="116"/>
-    </row>
-    <row r="71" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="136">
-        <v>50</v>
-      </c>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="128"/>
-      <c r="H71" s="128"/>
-      <c r="I71" s="128"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="128"/>
-      <c r="L71" s="128"/>
-      <c r="M71" s="128"/>
-      <c r="N71" s="128"/>
-      <c r="O71" s="127"/>
-      <c r="P71" s="127"/>
-      <c r="Q71" s="127"/>
-      <c r="R71" s="127"/>
-      <c r="S71" s="127"/>
-      <c r="T71" s="152"/>
-      <c r="U71" s="152"/>
-      <c r="V71" s="128"/>
-      <c r="W71" s="128"/>
-      <c r="X71" s="128"/>
-      <c r="Y71" s="116"/>
-      <c r="Z71" s="116"/>
-      <c r="AA71" s="116"/>
-      <c r="AB71" s="116"/>
-      <c r="AC71" s="116"/>
-      <c r="AD71" s="116"/>
-      <c r="AE71" s="116"/>
-      <c r="AF71" s="116"/>
-      <c r="AG71" s="116"/>
-      <c r="AH71" s="116"/>
-      <c r="AI71" s="116"/>
-      <c r="AJ71" s="116"/>
-      <c r="AK71" s="116"/>
-      <c r="AL71" s="116"/>
-      <c r="AM71" s="116"/>
-      <c r="AN71" s="116"/>
-      <c r="AO71" s="116"/>
-      <c r="AP71" s="116"/>
-      <c r="AQ71" s="116"/>
-      <c r="AR71" s="116"/>
-      <c r="AS71" s="116"/>
-    </row>
-    <row r="72" spans="1:45" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="132">
-        <v>50</v>
-      </c>
-      <c r="D72" s="128"/>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="128"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="128"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="128"/>
-      <c r="L72" s="128"/>
-      <c r="M72" s="128"/>
-      <c r="N72" s="128"/>
-      <c r="O72" s="127"/>
-      <c r="P72" s="127"/>
-      <c r="Q72" s="127"/>
-      <c r="R72" s="127"/>
-      <c r="S72" s="152"/>
-      <c r="T72" s="152"/>
-      <c r="U72" s="128"/>
-      <c r="V72" s="128"/>
-      <c r="W72" s="128"/>
-      <c r="X72" s="128"/>
-      <c r="Y72" s="116"/>
-      <c r="Z72" s="116"/>
-      <c r="AA72" s="116"/>
-      <c r="AB72" s="116"/>
-      <c r="AC72" s="116"/>
-      <c r="AD72" s="116"/>
-      <c r="AE72" s="116"/>
-      <c r="AF72" s="116"/>
-      <c r="AG72" s="116"/>
-      <c r="AH72" s="116"/>
-      <c r="AI72" s="116"/>
-      <c r="AJ72" s="116"/>
-      <c r="AK72" s="116"/>
-      <c r="AL72" s="116"/>
-      <c r="AM72" s="116"/>
-      <c r="AN72" s="116"/>
-      <c r="AO72" s="116"/>
-      <c r="AP72" s="116"/>
-      <c r="AQ72" s="116"/>
-      <c r="AR72" s="116"/>
-      <c r="AS72" s="116"/>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A73" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="132">
-        <v>50</v>
-      </c>
-      <c r="D73" s="93"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="93"/>
-      <c r="L73" s="93"/>
-      <c r="M73" s="93"/>
-      <c r="N73" s="93"/>
-      <c r="O73" s="92"/>
-      <c r="P73" s="92"/>
-      <c r="Q73" s="92"/>
-      <c r="R73" s="153"/>
-      <c r="S73" s="153"/>
-      <c r="T73" s="93"/>
-      <c r="U73" s="93"/>
-      <c r="V73" s="93"/>
-      <c r="W73" s="93"/>
-      <c r="X73" s="93"/>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A74" s="163"/>
-      <c r="B74" s="162"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="164"/>
-      <c r="E74" s="164"/>
-      <c r="F74" s="164"/>
-      <c r="G74" s="164"/>
-      <c r="H74" s="164"/>
-      <c r="I74" s="164"/>
-      <c r="J74" s="164"/>
-      <c r="K74" s="164"/>
-      <c r="L74" s="164"/>
-      <c r="M74" s="164"/>
-      <c r="N74" s="164"/>
-      <c r="O74" s="164"/>
-      <c r="P74" s="164"/>
-      <c r="Q74" s="164"/>
-      <c r="R74" s="164"/>
-      <c r="S74" s="164"/>
-      <c r="T74" s="164"/>
-      <c r="U74" s="164"/>
-      <c r="V74" s="164"/>
-      <c r="W74" s="164"/>
-      <c r="X74" s="164"/>
-    </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A75" s="173" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="174"/>
-      <c r="C75" s="174">
-        <f>SUM(C76:C77)</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="175"/>
-      <c r="E75" s="175"/>
-      <c r="F75" s="175"/>
-      <c r="G75" s="175"/>
-      <c r="H75" s="175"/>
-      <c r="I75" s="175"/>
-      <c r="J75" s="175"/>
-      <c r="K75" s="175"/>
-      <c r="L75" s="175"/>
-      <c r="M75" s="175"/>
-      <c r="N75" s="175"/>
-      <c r="O75" s="175"/>
-      <c r="P75" s="175"/>
-      <c r="Q75" s="175"/>
-      <c r="R75" s="175"/>
-      <c r="S75" s="175"/>
-      <c r="T75" s="175"/>
-      <c r="U75" s="175"/>
-      <c r="V75" s="175"/>
-      <c r="W75" s="175"/>
-      <c r="X75" s="175"/>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A76" s="93" t="s">
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="91"/>
+      <c r="L88" s="91"/>
+      <c r="M88" s="91"/>
+      <c r="N88" s="91"/>
+      <c r="O88" s="90"/>
+      <c r="P88" s="90"/>
+      <c r="Q88" s="90"/>
+      <c r="R88" s="90"/>
+      <c r="S88" s="90"/>
+      <c r="T88" s="91"/>
+      <c r="U88" s="91"/>
+      <c r="V88" s="91"/>
+      <c r="W88" s="91"/>
+      <c r="X88" s="91"/>
+    </row>
+    <row r="89" spans="1:45">
+      <c r="A89" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="129">
+        <v>100</v>
+      </c>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="91"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="91"/>
+      <c r="O89" s="90"/>
+      <c r="P89" s="90"/>
+      <c r="Q89" s="90"/>
+      <c r="R89" s="90"/>
+      <c r="S89" s="90"/>
+      <c r="T89" s="91"/>
+      <c r="U89" s="91"/>
+      <c r="V89" s="91"/>
+      <c r="W89" s="91"/>
+      <c r="X89" s="91"/>
+    </row>
+    <row r="90" spans="1:45">
+      <c r="A90" s="173"/>
+      <c r="B90" s="173"/>
+      <c r="C90" s="173"/>
+      <c r="D90" s="173"/>
+      <c r="E90" s="173"/>
+      <c r="F90" s="173"/>
+      <c r="G90" s="173"/>
+      <c r="H90" s="173"/>
+      <c r="I90" s="173"/>
+      <c r="J90" s="173"/>
+      <c r="K90" s="173"/>
+      <c r="L90" s="173"/>
+      <c r="M90" s="173"/>
+      <c r="N90" s="173"/>
+      <c r="O90" s="173"/>
+      <c r="P90" s="173"/>
+      <c r="Q90" s="173"/>
+      <c r="R90" s="173"/>
+      <c r="S90" s="173"/>
+      <c r="T90" s="173"/>
+      <c r="U90" s="173"/>
+      <c r="V90" s="173"/>
+      <c r="W90" s="173"/>
+      <c r="X90" s="173"/>
+    </row>
+    <row r="91" spans="1:45" s="113" customFormat="1">
+      <c r="A91" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="B76" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="132"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="93"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="93"/>
-      <c r="L76" s="93"/>
-      <c r="M76" s="93"/>
-      <c r="N76" s="93"/>
-      <c r="O76" s="93"/>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="93"/>
-      <c r="R76" s="93"/>
-      <c r="S76" s="93"/>
-      <c r="T76" s="93"/>
-      <c r="U76" s="93"/>
-      <c r="V76" s="93"/>
-      <c r="W76" s="93"/>
-      <c r="X76" s="93"/>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A77" s="93" t="s">
+      <c r="B91" s="161"/>
+      <c r="C91" s="161">
+        <f>SUM(C92)</f>
+        <v>42</v>
+      </c>
+      <c r="D91" s="162"/>
+      <c r="E91" s="162"/>
+      <c r="F91" s="162"/>
+      <c r="G91" s="163"/>
+      <c r="H91" s="163"/>
+      <c r="I91" s="163"/>
+      <c r="J91" s="163"/>
+      <c r="K91" s="163"/>
+      <c r="L91" s="163"/>
+      <c r="M91" s="163"/>
+      <c r="N91" s="163"/>
+      <c r="O91" s="163"/>
+      <c r="P91" s="163"/>
+      <c r="Q91" s="163"/>
+      <c r="R91" s="164"/>
+      <c r="S91" s="164"/>
+      <c r="T91" s="164"/>
+      <c r="U91" s="164"/>
+      <c r="V91" s="164"/>
+      <c r="W91" s="163"/>
+      <c r="X91" s="163"/>
+      <c r="Y91" s="61"/>
+      <c r="Z91" s="61"/>
+      <c r="AA91" s="61"/>
+      <c r="AB91" s="61"/>
+      <c r="AC91" s="61"/>
+      <c r="AD91" s="61"/>
+      <c r="AE91" s="61"/>
+      <c r="AF91" s="61"/>
+      <c r="AG91" s="61"/>
+      <c r="AH91" s="61"/>
+      <c r="AI91" s="61"/>
+      <c r="AJ91" s="61"/>
+      <c r="AK91" s="61"/>
+      <c r="AL91" s="61"/>
+      <c r="AM91" s="61"/>
+      <c r="AN91" s="61"/>
+      <c r="AO91" s="61"/>
+      <c r="AP91" s="61"/>
+      <c r="AQ91" s="61"/>
+      <c r="AR91" s="61"/>
+      <c r="AS91" s="61"/>
+    </row>
+    <row r="92" spans="1:45">
+      <c r="A92" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="132"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="93"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="93"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="93"/>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="93"/>
-      <c r="R77" s="93"/>
-      <c r="S77" s="93"/>
-      <c r="T77" s="93"/>
-      <c r="U77" s="93"/>
-      <c r="V77" s="93"/>
-      <c r="W77" s="93"/>
-      <c r="X77" s="93"/>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A78" s="163"/>
-      <c r="B78" s="162"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="164"/>
-      <c r="E78" s="164"/>
-      <c r="F78" s="164"/>
-      <c r="G78" s="164"/>
-      <c r="H78" s="164"/>
-      <c r="I78" s="164"/>
-      <c r="J78" s="164"/>
-      <c r="K78" s="164"/>
-      <c r="L78" s="164"/>
-      <c r="M78" s="164"/>
-      <c r="N78" s="164"/>
-      <c r="O78" s="164"/>
-      <c r="P78" s="164"/>
-      <c r="Q78" s="164"/>
-      <c r="R78" s="164"/>
-      <c r="S78" s="164"/>
-      <c r="T78" s="164"/>
-      <c r="U78" s="164"/>
-      <c r="V78" s="164"/>
-      <c r="W78" s="164"/>
-      <c r="X78" s="164"/>
-    </row>
-    <row r="79" spans="1:45" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="114" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176">
-        <f>SUM(C80:C82)</f>
-        <v>145</v>
-      </c>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="114"/>
-      <c r="L79" s="114"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="114"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
-      <c r="Q79" s="114"/>
-      <c r="R79" s="114"/>
-      <c r="S79" s="114"/>
-      <c r="T79" s="114"/>
-      <c r="U79" s="114"/>
-      <c r="V79" s="114"/>
-      <c r="W79" s="114"/>
-      <c r="X79" s="114"/>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A80" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="132">
-        <v>15</v>
-      </c>
-      <c r="D80" s="93"/>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
-      <c r="I80" s="93"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="93"/>
-      <c r="L80" s="93"/>
-      <c r="M80" s="93"/>
-      <c r="N80" s="93"/>
-      <c r="O80" s="92"/>
-      <c r="P80" s="92"/>
-      <c r="Q80" s="92"/>
-      <c r="R80" s="92"/>
-      <c r="S80" s="92"/>
-      <c r="T80" s="93"/>
-      <c r="U80" s="93"/>
-      <c r="V80" s="93"/>
-      <c r="W80" s="93"/>
-      <c r="X80" s="93"/>
-    </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A81" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="132">
-        <v>30</v>
-      </c>
-      <c r="D81" s="93"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="93"/>
-      <c r="I81" s="93"/>
-      <c r="J81" s="93"/>
-      <c r="K81" s="93"/>
-      <c r="L81" s="93"/>
-      <c r="M81" s="93"/>
-      <c r="N81" s="93"/>
-      <c r="O81" s="92"/>
-      <c r="P81" s="92"/>
-      <c r="Q81" s="92"/>
-      <c r="R81" s="92"/>
-      <c r="S81" s="92"/>
-      <c r="T81" s="93"/>
-      <c r="U81" s="93"/>
-      <c r="V81" s="93"/>
-      <c r="W81" s="93"/>
-      <c r="X81" s="93"/>
-    </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A82" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="B82" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="132">
-        <v>100</v>
-      </c>
-      <c r="D82" s="93"/>
-      <c r="E82" s="93"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="93"/>
-      <c r="J82" s="93"/>
-      <c r="K82" s="93"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92"/>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="93"/>
-      <c r="U82" s="93"/>
-      <c r="V82" s="93"/>
-      <c r="W82" s="93"/>
-      <c r="X82" s="93"/>
-    </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A83" s="188"/>
-      <c r="B83" s="188"/>
-      <c r="C83" s="188"/>
-      <c r="D83" s="188"/>
-      <c r="E83" s="188"/>
-      <c r="F83" s="188"/>
-      <c r="G83" s="188"/>
-      <c r="H83" s="188"/>
-      <c r="I83" s="188"/>
-      <c r="J83" s="188"/>
-      <c r="K83" s="188"/>
-      <c r="L83" s="188"/>
-      <c r="M83" s="188"/>
-      <c r="N83" s="188"/>
-      <c r="O83" s="188"/>
-      <c r="P83" s="188"/>
-      <c r="Q83" s="188"/>
-      <c r="R83" s="188"/>
-      <c r="S83" s="188"/>
-      <c r="T83" s="188"/>
-      <c r="U83" s="188"/>
-      <c r="V83" s="188"/>
-      <c r="W83" s="188"/>
-      <c r="X83" s="188"/>
-    </row>
-    <row r="84" spans="1:45" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168">
-        <f>SUM(C85)</f>
-        <v>30</v>
-      </c>
-      <c r="D84" s="169"/>
-      <c r="E84" s="169"/>
-      <c r="F84" s="169"/>
-      <c r="G84" s="170"/>
-      <c r="H84" s="170"/>
-      <c r="I84" s="170"/>
-      <c r="J84" s="170"/>
-      <c r="K84" s="170"/>
-      <c r="L84" s="170"/>
-      <c r="M84" s="170"/>
-      <c r="N84" s="170"/>
-      <c r="O84" s="170"/>
-      <c r="P84" s="170"/>
-      <c r="Q84" s="170"/>
-      <c r="R84" s="171"/>
-      <c r="S84" s="171"/>
-      <c r="T84" s="171"/>
-      <c r="U84" s="171"/>
-      <c r="V84" s="171"/>
-      <c r="W84" s="170"/>
-      <c r="X84" s="170"/>
-      <c r="Y84" s="61"/>
-      <c r="Z84" s="61"/>
-      <c r="AA84" s="61"/>
-      <c r="AB84" s="61"/>
-      <c r="AC84" s="61"/>
-      <c r="AD84" s="61"/>
-      <c r="AE84" s="61"/>
-      <c r="AF84" s="61"/>
-      <c r="AG84" s="61"/>
-      <c r="AH84" s="61"/>
-      <c r="AI84" s="61"/>
-      <c r="AJ84" s="61"/>
-      <c r="AK84" s="61"/>
-      <c r="AL84" s="61"/>
-      <c r="AM84" s="61"/>
-      <c r="AN84" s="61"/>
-      <c r="AO84" s="61"/>
-      <c r="AP84" s="61"/>
-      <c r="AQ84" s="61"/>
-      <c r="AR84" s="61"/>
-      <c r="AS84" s="61"/>
-    </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A85" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="63">
-        <v>30</v>
-      </c>
-      <c r="D85" s="172"/>
-      <c r="E85" s="172"/>
-      <c r="F85" s="172"/>
-      <c r="G85" s="172"/>
-      <c r="H85" s="172"/>
-      <c r="I85" s="172"/>
-      <c r="J85" s="172"/>
-      <c r="K85" s="172"/>
-      <c r="L85" s="172"/>
-      <c r="M85" s="172"/>
-      <c r="N85" s="172"/>
-      <c r="O85" s="166"/>
-      <c r="P85" s="166"/>
-      <c r="Q85" s="166"/>
-      <c r="R85" s="166"/>
-      <c r="S85" s="166"/>
-      <c r="T85" s="172"/>
-      <c r="U85" s="172"/>
-      <c r="V85" s="172"/>
-      <c r="W85" s="172"/>
-      <c r="X85" s="172"/>
-    </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C86" s="126">
-        <f>SUM(C84,C70,C57,C43,C32,C23,C79,C75)</f>
-        <v>742</v>
-      </c>
-    </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A89" s="184"/>
-      <c r="B89" s="184"/>
-      <c r="C89" s="184"/>
-      <c r="D89" s="184"/>
-      <c r="E89" s="184"/>
-      <c r="F89" s="184"/>
-      <c r="G89" s="184"/>
-      <c r="H89" s="184"/>
-      <c r="I89" s="184"/>
-      <c r="J89" s="184"/>
-      <c r="K89" s="184"/>
-      <c r="L89" s="184"/>
-      <c r="M89" s="184"/>
-      <c r="N89" s="184"/>
-      <c r="O89" s="184"/>
-      <c r="P89" s="184"/>
-      <c r="Q89" s="184"/>
-      <c r="R89" s="184"/>
-      <c r="S89" s="184"/>
-      <c r="T89" s="184"/>
-      <c r="U89" s="184"/>
-      <c r="V89" s="184"/>
-      <c r="W89" s="184"/>
-      <c r="X89" s="184"/>
-    </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A90" s="177"/>
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="177"/>
-      <c r="E90" s="177"/>
-      <c r="F90" s="177"/>
-      <c r="G90" s="177"/>
-      <c r="H90" s="177"/>
-      <c r="I90" s="177"/>
-      <c r="J90" s="177"/>
-      <c r="K90" s="177"/>
-      <c r="L90" s="177"/>
-      <c r="M90" s="177"/>
-      <c r="N90" s="177"/>
-      <c r="O90" s="177"/>
-      <c r="P90" s="177"/>
-      <c r="Q90" s="177"/>
-      <c r="R90" s="177"/>
-      <c r="S90" s="177"/>
-      <c r="T90" s="177"/>
-      <c r="U90" s="177"/>
-      <c r="V90" s="177"/>
-      <c r="W90" s="177"/>
-      <c r="X90" s="177"/>
-    </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A91" s="177"/>
-      <c r="B91" s="178"/>
-      <c r="C91" s="178"/>
-      <c r="D91" s="177"/>
-      <c r="E91" s="177"/>
-      <c r="F91" s="177"/>
-      <c r="G91" s="177"/>
-      <c r="H91" s="177"/>
-      <c r="I91" s="177"/>
-      <c r="J91" s="177"/>
-      <c r="K91" s="177"/>
-      <c r="L91" s="177"/>
-      <c r="M91" s="177"/>
-      <c r="N91" s="177"/>
-      <c r="O91" s="177"/>
-      <c r="P91" s="177"/>
-      <c r="Q91" s="177"/>
-      <c r="R91" s="177"/>
-      <c r="S91" s="177"/>
-      <c r="T91" s="177"/>
-      <c r="U91" s="177"/>
-      <c r="V91" s="177"/>
-      <c r="W91" s="177"/>
-      <c r="X91" s="177"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63">
+        <v>42</v>
+      </c>
+      <c r="D92" s="165"/>
+      <c r="E92" s="165"/>
+      <c r="F92" s="165"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="165"/>
+      <c r="K92" s="165"/>
+      <c r="L92" s="165"/>
+      <c r="M92" s="165"/>
+      <c r="N92" s="165"/>
+      <c r="O92" s="159"/>
+      <c r="P92" s="159"/>
+      <c r="Q92" s="159"/>
+      <c r="R92" s="159"/>
+      <c r="S92" s="159"/>
+      <c r="T92" s="165"/>
+      <c r="U92" s="165"/>
+      <c r="V92" s="165"/>
+      <c r="W92" s="165"/>
+      <c r="X92" s="165"/>
+    </row>
+    <row r="93" spans="1:45">
+      <c r="C93" s="124">
+        <f>SUM(C91,C74,C61,C47,C36,C27,C86,C82)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:45">
+      <c r="A96" s="179"/>
+      <c r="B96" s="179"/>
+      <c r="C96" s="179"/>
+      <c r="D96" s="179"/>
+      <c r="E96" s="179"/>
+      <c r="F96" s="179"/>
+      <c r="G96" s="179"/>
+      <c r="H96" s="179"/>
+      <c r="I96" s="179"/>
+      <c r="J96" s="179"/>
+      <c r="K96" s="179"/>
+      <c r="L96" s="179"/>
+      <c r="M96" s="179"/>
+      <c r="N96" s="179"/>
+      <c r="O96" s="179"/>
+      <c r="P96" s="179"/>
+      <c r="Q96" s="179"/>
+      <c r="R96" s="179"/>
+      <c r="S96" s="179"/>
+      <c r="T96" s="179"/>
+      <c r="U96" s="179"/>
+      <c r="V96" s="179"/>
+      <c r="W96" s="179"/>
+      <c r="X96" s="179"/>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97" s="169"/>
+      <c r="B97" s="168"/>
+      <c r="C97" s="168"/>
+      <c r="D97" s="169"/>
+      <c r="E97" s="169"/>
+      <c r="F97" s="169"/>
+      <c r="G97" s="169"/>
+      <c r="H97" s="169"/>
+      <c r="I97" s="169"/>
+      <c r="J97" s="169"/>
+      <c r="K97" s="169"/>
+      <c r="L97" s="169"/>
+      <c r="M97" s="169"/>
+      <c r="N97" s="169"/>
+      <c r="O97" s="169"/>
+      <c r="P97" s="169"/>
+      <c r="Q97" s="169"/>
+      <c r="R97" s="169"/>
+      <c r="S97" s="169"/>
+      <c r="T97" s="169"/>
+      <c r="U97" s="169"/>
+      <c r="V97" s="169"/>
+      <c r="W97" s="169"/>
+      <c r="X97" s="169"/>
+    </row>
+    <row r="98" spans="1:24">
+      <c r="A98" s="169"/>
+      <c r="B98" s="168"/>
+      <c r="C98" s="168"/>
+      <c r="D98" s="169"/>
+      <c r="E98" s="169"/>
+      <c r="F98" s="169"/>
+      <c r="G98" s="169"/>
+      <c r="H98" s="169"/>
+      <c r="I98" s="169"/>
+      <c r="J98" s="169"/>
+      <c r="K98" s="169"/>
+      <c r="L98" s="169"/>
+      <c r="M98" s="169"/>
+      <c r="N98" s="169"/>
+      <c r="O98" s="169"/>
+      <c r="P98" s="169"/>
+      <c r="Q98" s="169"/>
+      <c r="R98" s="169"/>
+      <c r="S98" s="169"/>
+      <c r="T98" s="169"/>
+      <c r="U98" s="169"/>
+      <c r="V98" s="169"/>
+      <c r="W98" s="169"/>
+      <c r="X98" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="27">
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A98:X98"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A26:X26"/>
+    <mergeCell ref="A35:X35"/>
+    <mergeCell ref="A46:X46"/>
+    <mergeCell ref="A73:X73"/>
+    <mergeCell ref="A96:X96"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A90:X90"/>
+    <mergeCell ref="A97:X97"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="D2:X2"/>
-    <mergeCell ref="A83:X83"/>
-    <mergeCell ref="A56:X56"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A91:X91"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A22:X22"/>
-    <mergeCell ref="A31:X31"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A69:X69"/>
-    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A90:X90"/>
+    <mergeCell ref="A60:X60"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D21:X21"/>
   </mergeCells>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A30">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5150,7 +5579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A31">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5162,7 +5591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
+  <conditionalFormatting sqref="A48">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5174,7 +5603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A50">
+  <conditionalFormatting sqref="A52:A54">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5186,7 +5615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A60">
+  <conditionalFormatting sqref="A63:A64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5205,12 +5634,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A65E51-5950-476F-8AAD-D80644D6813A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="20.59765625" style="203" customWidth="1"/>
+    <col min="2" max="2" width="13" style="206" customWidth="1"/>
+    <col min="3" max="3" width="13" style="207" customWidth="1"/>
+    <col min="4" max="4" width="13" style="219" customWidth="1"/>
+    <col min="5" max="5" width="13" style="207" customWidth="1"/>
+    <col min="6" max="16384" width="11.19921875" style="203"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" customHeight="1">
+      <c r="A1" s="213" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="214" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="215" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="216" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="215" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="208" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="209">
+        <f>Terminplanung!C27</f>
+        <v>44</v>
+      </c>
+      <c r="C2" s="210">
+        <f>B2/B9*100</f>
+        <v>5.8047493403693933</v>
+      </c>
+      <c r="D2" s="217">
+        <f>B2*119</f>
+        <v>5236</v>
+      </c>
+      <c r="E2" s="210">
+        <f>D2/D9*100</f>
+        <v>9.7345132743362832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="209">
+        <f>Terminplanung!C36</f>
+        <v>51</v>
+      </c>
+      <c r="C3" s="210">
+        <f>B3/B9*100</f>
+        <v>6.7282321899736157</v>
+      </c>
+      <c r="D3" s="217">
+        <f>B3*68</f>
+        <v>3468</v>
+      </c>
+      <c r="E3" s="210">
+        <f>D3/D9*100</f>
+        <v>6.4475347661188369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="209">
+        <f>Terminplanung!C47</f>
+        <v>113</v>
+      </c>
+      <c r="C4" s="210">
+        <f>B4/B9*100</f>
+        <v>14.907651715039577</v>
+      </c>
+      <c r="D4" s="217">
+        <f t="shared" ref="D4:D8" si="0">B4*68</f>
+        <v>7684</v>
+      </c>
+      <c r="E4" s="210">
+        <f>D4/D9*100</f>
+        <v>14.285714285714285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="208" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="209">
+        <f>Terminplanung!C61</f>
+        <v>260</v>
+      </c>
+      <c r="C5" s="210">
+        <f>B5/B9*100</f>
+        <v>34.300791556728235</v>
+      </c>
+      <c r="D5" s="217">
+        <f t="shared" si="0"/>
+        <v>17680</v>
+      </c>
+      <c r="E5" s="210">
+        <f>D5/D9*100</f>
+        <v>32.869785082174459</v>
+      </c>
+      <c r="F5" s="204">
+        <f>SUM(E5,E7,E8)</f>
+        <v>54.361567635903917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="208" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="209">
+        <f>Terminplanung!C74</f>
+        <v>120</v>
+      </c>
+      <c r="C6" s="210">
+        <f>B6/B9*100</f>
+        <v>15.831134564643801</v>
+      </c>
+      <c r="D6" s="217">
+        <f t="shared" si="0"/>
+        <v>8160</v>
+      </c>
+      <c r="E6" s="210">
+        <f>D6/D9*100</f>
+        <v>15.170670037926676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="208" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="209">
+        <f>Terminplanung!C82</f>
+        <v>15</v>
+      </c>
+      <c r="C7" s="210">
+        <f>B7/B9*100</f>
+        <v>1.9788918205804751</v>
+      </c>
+      <c r="D7" s="217">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="E7" s="210">
+        <f>D7/D9*100</f>
+        <v>1.8963337547408345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="208" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="209">
+        <f>Terminplanung!C86</f>
+        <v>155</v>
+      </c>
+      <c r="C8" s="210">
+        <f>B8/B9*100</f>
+        <v>20.448548812664907</v>
+      </c>
+      <c r="D8" s="217">
+        <f t="shared" si="0"/>
+        <v>10540</v>
+      </c>
+      <c r="E8" s="210">
+        <f>D8/D9*100</f>
+        <v>19.59544879898862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="205" customFormat="1">
+      <c r="A9" s="227" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="211">
+        <f xml:space="preserve"> SUM(B2:B8)</f>
+        <v>758</v>
+      </c>
+      <c r="C9" s="212">
+        <f xml:space="preserve"> SUM(C2:C8)</f>
+        <v>100</v>
+      </c>
+      <c r="D9" s="218">
+        <f xml:space="preserve"> SUM(D2:D8)</f>
+        <v>53788</v>
+      </c>
+      <c r="E9" s="212">
+        <f xml:space="preserve"> SUM(E2:E8)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5219,11 +5848,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="43.296875" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" customWidth="1"/>
@@ -5234,27 +5863,27 @@
     <col min="10" max="10" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
+    <row r="2" spans="2:6" ht="19.2" customHeight="1">
+      <c r="B2" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-    </row>
-    <row r="3" spans="2:6" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="191"/>
-      <c r="C3" s="192" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+    </row>
+    <row r="3" spans="2:6" ht="21.45" customHeight="1">
+      <c r="B3" s="180"/>
+      <c r="C3" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193" t="s">
+      <c r="D3" s="182"/>
+      <c r="E3" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="193"/>
-    </row>
-    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="182"/>
+    </row>
+    <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1">
       <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
@@ -5271,14 +5900,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="16.2" customHeight="1">
       <c r="B5" s="45"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="53"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="16.2" customHeight="1">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -5299,7 +5928,7 @@
         <v>8.2982791586998079</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="16.2" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -5319,7 +5948,7 @@
         <v>1.6061185468451242</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="16.2" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +5968,7 @@
         <v>2.4091778202676863</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="16.2" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -5359,7 +5988,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="16.2" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -5379,7 +6008,7 @@
         <v>0.66921606118546839</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="16.2" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -5399,14 +6028,14 @@
         <v>0.93690248565965584</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="16.2" customHeight="1">
       <c r="B12" s="4"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="52"/>
       <c r="F12" s="54"/>
     </row>
-    <row r="13" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="16.2" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -5427,7 +6056,7 @@
         <v>6.8833652007648185</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="16.2" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -5448,7 +6077,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="16.2" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -5468,7 +6097,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="16.2" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -5488,7 +6117,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="16.2" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5509,7 +6138,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="16.2" customHeight="1">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -5529,7 +6158,7 @@
         <v>0.38240917782026768</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="16.2" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -5549,7 +6178,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="16.2" customHeight="1">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -5569,7 +6198,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="16.2" customHeight="1">
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5590,7 +6219,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="16.2" customHeight="1">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5610,7 +6239,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="16.2" customHeight="1">
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5630,7 +6259,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="16.2" customHeight="1">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -5651,7 +6280,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="16.2" customHeight="1">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5671,14 +6300,14 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="16.2" customHeight="1">
       <c r="B26" s="4"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="58"/>
       <c r="F26" s="54"/>
     </row>
-    <row r="27" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="16.2" customHeight="1">
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -5699,7 +6328,7 @@
         <v>15.678776290630974</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="16.2" customHeight="1">
       <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5720,7 +6349,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="16.2" customHeight="1">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
@@ -5740,7 +6369,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="16.2" customHeight="1">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -5760,7 +6389,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="16.2" customHeight="1">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -5781,7 +6410,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="16.2" customHeight="1">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -5801,7 +6430,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="16.2" customHeight="1">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -5821,7 +6450,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="16.2" customHeight="1">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -5841,7 +6470,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="16.2" customHeight="1">
       <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
@@ -5861,7 +6490,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="16.2" customHeight="1">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -5882,7 +6511,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="16.2" customHeight="1">
       <c r="B37" s="7" t="s">
         <v>33</v>
       </c>
@@ -5902,7 +6531,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="16.2" customHeight="1">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5922,7 +6551,7 @@
         <v>1.1472275334608031</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="16.2" customHeight="1">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -5943,7 +6572,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="16.2" customHeight="1">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -5963,7 +6592,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="16.2" customHeight="1">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -5983,14 +6612,14 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="16.2" customHeight="1">
       <c r="B42" s="4"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="16.2" customHeight="1">
       <c r="B43" s="13" t="s">
         <v>37</v>
       </c>
@@ -6011,7 +6640,7 @@
         <v>43.977055449330784</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="16.2" customHeight="1">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -6032,7 +6661,7 @@
         <v>9.1778202676864247</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="16.2" customHeight="1">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -6052,7 +6681,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="16.2" customHeight="1">
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
@@ -6072,7 +6701,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="16.2" customHeight="1">
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -6093,7 +6722,7 @@
         <v>12.619502868068833</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="16.2" customHeight="1">
       <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
@@ -6113,7 +6742,7 @@
         <v>3.4416826003824093</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="16.2" customHeight="1">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -6133,7 +6762,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="16.2" customHeight="1">
       <c r="B50" s="7" t="s">
         <v>44</v>
       </c>
@@ -6153,7 +6782,7 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="16.2" customHeight="1">
       <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
@@ -6174,7 +6803,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="16.2" customHeight="1">
       <c r="B52" s="7" t="s">
         <v>46</v>
       </c>
@@ -6194,7 +6823,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" ht="16.2" customHeight="1">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
@@ -6214,7 +6843,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="16.2" customHeight="1">
       <c r="B54" s="8" t="s">
         <v>48</v>
       </c>
@@ -6235,7 +6864,7 @@
         <v>16.061185468451242</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" ht="16.2" customHeight="1">
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -6255,7 +6884,7 @@
         <v>5.3537284894837471</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" ht="16.2" customHeight="1">
       <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
@@ -6275,7 +6904,7 @@
         <v>6.1185468451242828</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" ht="16.2" customHeight="1">
       <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
@@ -6295,14 +6924,14 @@
         <v>4.5889101338432123</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" ht="16.2" customHeight="1">
       <c r="B58" s="59"/>
       <c r="C58" s="60"/>
       <c r="D58" s="2"/>
       <c r="E58" s="60"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" ht="16.2" customHeight="1">
       <c r="B59" s="10" t="s">
         <v>52</v>
       </c>
@@ -6323,7 +6952,7 @@
         <v>14.531548757170171</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" ht="16.2" customHeight="1">
       <c r="B60" s="8" t="s">
         <v>53</v>
       </c>
@@ -6344,7 +6973,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" ht="16.2" customHeight="1">
       <c r="B61" s="7" t="s">
         <v>54</v>
       </c>
@@ -6364,7 +6993,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" ht="16.2" customHeight="1">
       <c r="B62" s="8" t="s">
         <v>55</v>
       </c>
@@ -6385,7 +7014,7 @@
         <v>3.8240917782026767</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" ht="16.2" customHeight="1">
       <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
@@ -6405,7 +7034,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" ht="16.2" customHeight="1">
       <c r="B64" s="7" t="s">
         <v>80</v>
       </c>
@@ -6425,7 +7054,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="16.2" customHeight="1">
       <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
@@ -6445,7 +7074,7 @@
         <v>2.2944550669216062</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="16.2" customHeight="1">
       <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
@@ -6466,7 +7095,7 @@
         <v>3.0592734225621414</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="16.2" customHeight="1">
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
@@ -6486,7 +7115,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="16.2" customHeight="1">
       <c r="B68" s="7" t="s">
         <v>60</v>
       </c>
@@ -6506,7 +7135,7 @@
         <v>1.5296367112810707</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="16.2" customHeight="1">
       <c r="B69" s="8" t="s">
         <v>61</v>
       </c>
@@ -6527,7 +7156,7 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="16.2" customHeight="1">
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
@@ -6547,14 +7176,14 @@
         <v>4.9713193116634802</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="16.2" customHeight="1">
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="16.2" customHeight="1">
       <c r="B72" s="48" t="s">
         <v>63</v>
       </c>
@@ -6575,7 +7204,7 @@
         <v>10.630975143403441</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="16.2" customHeight="1">
       <c r="B73" s="8" t="s">
         <v>64</v>
       </c>
@@ -6596,7 +7225,7 @@
         <v>2.1414913957934991</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="16.2" customHeight="1">
       <c r="B74" s="7" t="s">
         <v>65</v>
       </c>
@@ -6616,7 +7245,7 @@
         <v>0.9177820267686424</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="16.2" customHeight="1">
       <c r="B75" s="7" t="s">
         <v>81</v>
       </c>
@@ -6636,7 +7265,7 @@
         <v>0.4588910133843212</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="16.2" customHeight="1">
       <c r="B76" s="7" t="s">
         <v>66</v>
       </c>
@@ -6656,7 +7285,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="16.2" customHeight="1">
       <c r="B77" s="8" t="s">
         <v>67</v>
       </c>
@@ -6676,7 +7305,7 @@
         <v>2.6768642447418736</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="16.2" customHeight="1">
       <c r="B78" s="8" t="s">
         <v>68</v>
       </c>
@@ -6696,7 +7325,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="16.2" customHeight="1">
       <c r="B79" s="8" t="s">
         <v>69</v>
       </c>
@@ -6716,7 +7345,7 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="16.2" customHeight="1">
       <c r="B80" s="8" t="s">
         <v>70</v>
       </c>
@@ -6736,7 +7365,7 @@
         <v>3.5181644359464626</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="16.2" customHeight="1">
       <c r="B81" s="8" t="s">
         <v>71</v>
       </c>
@@ -6756,14 +7385,14 @@
         <v>0.76481835564053535</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" ht="16.2" thickBot="1">
       <c r="B82" s="55"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B83" s="5" t="s">
         <v>72</v>
       </c>
@@ -6783,30 +7412,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="199"/>
-      <c r="C84" s="199"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="199"/>
-      <c r="F84" s="199"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="198"/>
-      <c r="C85" s="198"/>
-      <c r="D85" s="198"/>
-      <c r="E85" s="200"/>
-      <c r="F85" s="200"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="194" t="s">
+    <row r="84" spans="2:6">
+      <c r="B84" s="188"/>
+      <c r="C84" s="188"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="188"/>
+      <c r="F84" s="188"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="187"/>
+      <c r="C85" s="187"/>
+      <c r="D85" s="187"/>
+      <c r="E85" s="189"/>
+      <c r="F85" s="189"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="195"/>
-      <c r="D86" s="196"/>
-      <c r="E86" s="200"/>
-      <c r="F86" s="200"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="184"/>
+      <c r="D86" s="185"/>
+      <c r="E86" s="189"/>
+      <c r="F86" s="189"/>
+    </row>
+    <row r="87" spans="2:6">
       <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
@@ -6816,10 +7445,10 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="200"/>
-      <c r="F87" s="200"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E87" s="189"/>
+      <c r="F87" s="189"/>
+    </row>
+    <row r="88" spans="2:6">
       <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
@@ -6829,8 +7458,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="200"/>
-      <c r="F88" s="200"/>
+      <c r="E88" s="189"/>
+      <c r="F88" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7305,17 +7934,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -7472,6 +8090,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7482,23 +8111,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7517,6 +8129,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
   <ds:schemaRefs>

--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B0EED-90CA-470A-98FA-BF0B59D52EC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424DF7B9-D964-414E-93DB-31DDD836577C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
-    <sheet name="Budget" sheetId="3" r:id="rId2"/>
-    <sheet name="P1Budget" sheetId="2" r:id="rId3"/>
+    <sheet name="Strukturplan" sheetId="4" r:id="rId2"/>
+    <sheet name="Budget" sheetId="3" r:id="rId3"/>
+    <sheet name="P1Budget" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$60:$X$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$61:$X$90</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="178">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -468,9 +469,6 @@
     <t>3.3.2 Bedienungsanleitung erstellen</t>
   </si>
   <si>
-    <t>3.3.3 Software mit Testkonzept validieren</t>
-  </si>
-  <si>
     <t>4.2.1 Berechnungen für Javacode anpassen</t>
   </si>
   <si>
@@ -519,33 +517,6 @@
     <t>4.1.4 Import und Export</t>
   </si>
   <si>
-    <t>1.5 Statusbericht 1</t>
-  </si>
-  <si>
-    <t>1.6 Statusbericht 2</t>
-  </si>
-  <si>
-    <t>1.7 Statusbericht 3</t>
-  </si>
-  <si>
-    <t>1.8 Statusbericht 4</t>
-  </si>
-  <si>
-    <t>1.9 Projektabschluss</t>
-  </si>
-  <si>
-    <t>7. Dokumentation</t>
-  </si>
-  <si>
-    <t>7.1 Organisatorisches Pflichtenheft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2 Fachliches Pflichtenheft </t>
-  </si>
-  <si>
-    <t>7.3 Fachbericht</t>
-  </si>
-  <si>
     <t>6. Präsentationen</t>
   </si>
   <si>
@@ -589,6 +560,36 @@
   </si>
   <si>
     <t>Kostenanteil [%]</t>
+  </si>
+  <si>
+    <t>Strukturplan</t>
+  </si>
+  <si>
+    <t>Aufwand in Personenstunden</t>
+  </si>
+  <si>
+    <t>1.3 Statusbericht 1</t>
+  </si>
+  <si>
+    <t>1.4 Statusbericht 2</t>
+  </si>
+  <si>
+    <t>1.5 Statusbericht 3</t>
+  </si>
+  <si>
+    <t>1.6 Statusbericht 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 Projektabschluss  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 Fachbericht </t>
+  </si>
+  <si>
+    <t>3.4 Fachliches Pflichtenheft</t>
+  </si>
+  <si>
+    <t>1.3 Organisatorisches Pflichtenheft</t>
   </si>
 </sst>
 </file>
@@ -600,7 +601,7 @@
     <numFmt numFmtId="165" formatCode="#,###\ &quot;PT&quot;"/>
     <numFmt numFmtId="166" formatCode="#,###\ &quot;PW&quot;"/>
     <numFmt numFmtId="167" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0\'000.00"/>
+    <numFmt numFmtId="168" formatCode="0\'000.00"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -747,7 +748,7 @@
       <name val="Aial"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,13 +883,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,7 +1187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1407,9 +1414,6 @@
     <xf numFmtId="166" fontId="11" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1521,15 +1525,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1548,87 +1546,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1638,32 +1558,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1697,40 +1596,154 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2439,56 +2452,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS98"/>
+  <dimension ref="A1:AS93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="45.69921875" style="61" customWidth="1"/>
-    <col min="2" max="3" width="4.69921875" style="124" customWidth="1"/>
+    <col min="2" max="3" width="4.69921875" style="123" customWidth="1"/>
     <col min="4" max="24" width="6.69921875" style="61" customWidth="1"/>
     <col min="25" max="16384" width="10.796875" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="10.199999999999999" customHeight="1">
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="168"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="170">
+      <c r="A2" s="190"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="186">
         <v>2019</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="172"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="205"/>
     </row>
     <row r="3" spans="1:24" ht="15.45" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
       <c r="D3" s="63" t="s">
         <v>87</v>
       </c>
@@ -2522,13 +2535,13 @@
       <c r="N3" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="170" t="s">
+      <c r="O3" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
       <c r="T3" s="64" t="s">
         <v>98</v>
       </c>
@@ -2546,9 +2559,9 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="168"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="63">
         <v>18.02</v>
       </c>
@@ -2582,19 +2595,19 @@
       <c r="N4" s="65">
         <v>29.04</v>
       </c>
-      <c r="O4" s="118">
+      <c r="O4" s="117">
         <v>6.05</v>
       </c>
-      <c r="P4" s="118">
+      <c r="P4" s="117">
         <v>7.05</v>
       </c>
-      <c r="Q4" s="118">
+      <c r="Q4" s="117">
         <v>8.0500000000000007</v>
       </c>
-      <c r="R4" s="118">
+      <c r="R4" s="117">
         <v>9.0500000000000007</v>
       </c>
-      <c r="S4" s="118">
+      <c r="S4" s="117">
         <v>10.050000000000001</v>
       </c>
       <c r="T4" s="63">
@@ -2614,70 +2627,70 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="6" customHeight="1">
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
     </row>
     <row r="7" spans="1:24" ht="6" customHeight="1">
-      <c r="A7" s="176"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="176"/>
-      <c r="S7" s="176"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="176"/>
-      <c r="V7" s="176"/>
-      <c r="W7" s="176"/>
-      <c r="X7" s="176"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="191"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="191"/>
+      <c r="U7" s="191"/>
+      <c r="V7" s="191"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="191"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="115" t="s">
+      <c r="B8" s="200"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="114" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="62"/>
@@ -2690,11 +2703,11 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
       <c r="N8" s="63"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="63"/>
@@ -2702,13 +2715,13 @@
       <c r="X8" s="63"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="197"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="114" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="62"/>
@@ -2720,11 +2733,11 @@
       <c r="L9" s="63"/>
       <c r="M9" s="63"/>
       <c r="N9" s="63"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
       <c r="V9" s="63"/>
@@ -2732,16 +2745,16 @@
       <c r="X9" s="63"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="197"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="63"/>
-      <c r="H10" s="115" t="s">
+      <c r="H10" s="114" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="68"/>
@@ -2750,11 +2763,11 @@
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
       <c r="N10" s="63"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
       <c r="V10" s="63"/>
@@ -2762,17 +2775,17 @@
       <c r="X10" s="63"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="199" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="201"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="63"/>
       <c r="H11" s="67"/>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="114" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="66"/>
@@ -2780,11 +2793,11 @@
       <c r="L11" s="63"/>
       <c r="M11" s="63"/>
       <c r="N11" s="63"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
       <c r="T11" s="62"/>
       <c r="U11" s="63"/>
       <c r="V11" s="63"/>
@@ -2792,29 +2805,29 @@
       <c r="X11" s="63"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="199" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="197"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
-      <c r="J12" s="115" t="s">
+      <c r="J12" s="114" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="62"/>
       <c r="L12" s="63"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
       <c r="V12" s="63"/>
@@ -2822,11 +2835,11 @@
       <c r="X12" s="63"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="202" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="199"/>
-      <c r="C13" s="200"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="204"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
@@ -2834,17 +2847,17 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="66"/>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="114" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="66"/>
       <c r="M13" s="66"/>
       <c r="N13" s="63"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="119"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="118"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
       <c r="V13" s="63"/>
@@ -2852,11 +2865,11 @@
       <c r="X13" s="63"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="197"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
@@ -2867,25 +2880,25 @@
       <c r="K14" s="62"/>
       <c r="L14" s="66"/>
       <c r="M14" s="66"/>
-      <c r="N14" s="115" t="s">
+      <c r="N14" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
       <c r="U14" s="63"/>
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
       <c r="X14" s="63"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="197"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
@@ -2897,12 +2910,12 @@
       <c r="L15" s="63"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="115" t="s">
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="114" t="s">
         <v>2</v>
       </c>
       <c r="U15" s="63"/>
@@ -2911,11 +2924,11 @@
       <c r="X15" s="66"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="199" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="197"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
@@ -2927,25 +2940,25 @@
       <c r="L16" s="63"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
       <c r="T16" s="84"/>
       <c r="U16" s="63"/>
       <c r="V16" s="62"/>
       <c r="W16" s="63"/>
-      <c r="X16" s="115" t="s">
+      <c r="X16" s="114" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="193" t="s">
+      <c r="A17" s="198" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
@@ -2957,16 +2970,16 @@
       <c r="L17" s="63"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
       <c r="T17" s="84"/>
       <c r="U17" s="63"/>
       <c r="V17" s="62"/>
       <c r="W17" s="63"/>
-      <c r="X17" s="115" t="s">
+      <c r="X17" s="114" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2974,115 +2987,115 @@
       <c r="A18" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="225"/>
-      <c r="R18" s="225"/>
-      <c r="S18" s="225"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="194"/>
-      <c r="V18" s="194"/>
-      <c r="W18" s="194"/>
-      <c r="X18" s="226" t="s">
+      <c r="D18" s="160"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="159"/>
+      <c r="U18" s="160"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="184" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="5.4" customHeight="1">
-      <c r="A19" s="152"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="144"/>
+      <c r="T19" s="144"/>
+      <c r="U19" s="144"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="144"/>
+      <c r="X19" s="144"/>
     </row>
     <row r="20" spans="1:25" ht="22.2" customHeight="1">
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="188" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="222" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
+      <c r="C20" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
     </row>
     <row r="21" spans="1:25" ht="14.4" customHeight="1">
-      <c r="B21" s="222"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="170">
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="186">
         <v>2019</v>
       </c>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="171"/>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="171"/>
-      <c r="T21" s="171"/>
-      <c r="U21" s="171"/>
-      <c r="V21" s="171"/>
-      <c r="W21" s="171"/>
-      <c r="X21" s="172"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="187"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="187"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="X21" s="205"/>
     </row>
     <row r="22" spans="1:25" ht="14.4" customHeight="1">
-      <c r="B22" s="222"/>
-      <c r="C22" s="222"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
       <c r="D22" s="63" t="s">
         <v>87</v>
       </c>
@@ -3116,13 +3129,13 @@
       <c r="N22" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O22" s="170" t="s">
+      <c r="O22" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="171"/>
-      <c r="S22" s="171"/>
+      <c r="P22" s="187"/>
+      <c r="Q22" s="187"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="187"/>
       <c r="T22" s="63" t="s">
         <v>98</v>
       </c>
@@ -3140,9 +3153,9 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="14.4" customHeight="1">
-      <c r="A23" s="223"/>
-      <c r="B23" s="222"/>
-      <c r="C23" s="222"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="188"/>
       <c r="D23" s="63">
         <v>18.02</v>
       </c>
@@ -3176,19 +3189,19 @@
       <c r="N23" s="65">
         <v>29.04</v>
       </c>
-      <c r="O23" s="118">
+      <c r="O23" s="117">
         <v>6.05</v>
       </c>
-      <c r="P23" s="118">
+      <c r="P23" s="117">
         <v>7.05</v>
       </c>
-      <c r="Q23" s="118">
+      <c r="Q23" s="117">
         <v>8.0500000000000007</v>
       </c>
-      <c r="R23" s="118">
+      <c r="R23" s="117">
         <v>9.0500000000000007</v>
       </c>
-      <c r="S23" s="118">
+      <c r="S23" s="117">
         <v>10.050000000000001</v>
       </c>
       <c r="T23" s="63">
@@ -3206,222 +3219,222 @@
       <c r="X23" s="63">
         <v>10.06</v>
       </c>
-      <c r="Y23" s="153"/>
+      <c r="Y23" s="150"/>
     </row>
     <row r="24" spans="1:25" ht="6" customHeight="1">
-      <c r="A24" s="223"/>
-      <c r="B24" s="222"/>
-      <c r="C24" s="222"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="223"/>
-      <c r="O24" s="223"/>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="223"/>
-      <c r="S24" s="223"/>
-      <c r="T24" s="223"/>
-      <c r="U24" s="223"/>
-      <c r="V24" s="223"/>
-      <c r="W24" s="223"/>
-      <c r="X24" s="223"/>
-      <c r="Y24" s="220"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181"/>
+      <c r="U24" s="181"/>
+      <c r="V24" s="181"/>
+      <c r="W24" s="181"/>
+      <c r="X24" s="181"/>
+      <c r="Y24" s="180"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="222"/>
-      <c r="C25" s="222"/>
-      <c r="Y25" s="154"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="Y25" s="151"/>
     </row>
     <row r="26" spans="1:25" ht="6" customHeight="1">
-      <c r="A26" s="221"/>
-      <c r="B26" s="221"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="221"/>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="221"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="221"/>
-      <c r="S26" s="221"/>
-      <c r="T26" s="221"/>
-      <c r="U26" s="221"/>
-      <c r="V26" s="221"/>
-      <c r="W26" s="221"/>
-      <c r="X26" s="221"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="192"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="192"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="192"/>
+      <c r="T26" s="192"/>
+      <c r="U26" s="192"/>
+      <c r="V26" s="192"/>
+      <c r="W26" s="192"/>
+      <c r="X26" s="192"/>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128">
-        <f>SUM(C28:C28,C30,C31,C32,C33,C34,C29)</f>
-        <v>44</v>
-      </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="101"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127">
+        <f>SUM(C28:C28,C31,C32,C33,C34,C35,C29,C30)</f>
+        <v>49</v>
+      </c>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="100"/>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="129">
-        <v>10</v>
-      </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
+      <c r="C28" s="128">
+        <v>8</v>
+      </c>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="130">
-        <v>25</v>
-      </c>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
+      <c r="C29" s="129">
+        <v>22</v>
+      </c>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="129" t="s">
+      <c r="A30" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="130">
-        <v>1</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
+      <c r="C30" s="129">
+        <v>10</v>
+      </c>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="229"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="229"/>
+      <c r="N30" s="229"/>
+      <c r="O30" s="229"/>
+      <c r="P30" s="229"/>
+      <c r="Q30" s="229"/>
+      <c r="R30" s="229"/>
+      <c r="S30" s="229"/>
+      <c r="T30" s="229"/>
+      <c r="U30" s="229"/>
+      <c r="V30" s="229"/>
+      <c r="W30" s="229"/>
+      <c r="X30" s="229"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="130">
+      <c r="C31" s="129">
         <v>1</v>
       </c>
       <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="120"/>
       <c r="T31" s="72"/>
       <c r="U31" s="66"/>
       <c r="V31" s="66"/>
@@ -3430,12 +3443,12 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="130">
+      <c r="C32" s="129">
         <v>1</v>
       </c>
       <c r="D32" s="71"/>
@@ -3443,18 +3456,18 @@
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="72"/>
       <c r="U32" s="66"/>
       <c r="V32" s="66"/>
       <c r="W32" s="66"/>
@@ -3462,13 +3475,13 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="130">
-        <v>4</v>
+      <c r="C33" s="129">
+        <v>2</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
@@ -3481,26 +3494,26 @@
       <c r="L33" s="74"/>
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="105"/>
-      <c r="W33" s="105"/>
-      <c r="X33" s="105"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="130">
-        <v>2</v>
+      <c r="C34" s="129">
+        <v>3</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="71"/>
@@ -3513,119 +3526,121 @@
       <c r="L34" s="74"/>
       <c r="M34" s="74"/>
       <c r="N34" s="74"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="121"/>
-      <c r="R34" s="121"/>
-      <c r="S34" s="121"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
       <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="174"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="175"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="175"/>
-      <c r="S35" s="175"/>
-      <c r="T35" s="175"/>
-      <c r="U35" s="175"/>
-      <c r="V35" s="175"/>
-      <c r="W35" s="175"/>
-      <c r="X35" s="175"/>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="A36" s="86" t="s">
+      <c r="A35" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="129">
+        <v>2</v>
+      </c>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
+    </row>
+    <row r="36" spans="1:24" ht="6" customHeight="1">
+      <c r="A36" s="193"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
+      <c r="P36" s="194"/>
+      <c r="Q36" s="194"/>
+      <c r="R36" s="194"/>
+      <c r="S36" s="194"/>
+      <c r="T36" s="194"/>
+      <c r="U36" s="194"/>
+      <c r="V36" s="194"/>
+      <c r="W36" s="194"/>
+      <c r="X36" s="194"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132">
-        <f>SUM(C42,C37)</f>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131">
+        <f>SUM(C43,C38)</f>
         <v>51</v>
       </c>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="75" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="133" t="s">
+      <c r="B38" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="133">
-        <f>SUM(C38:C41)</f>
+      <c r="C38" s="132">
+        <f>SUM(C39:C42)</f>
         <v>31</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77"/>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133">
-        <v>8</v>
-      </c>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="71"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
       <c r="H38" s="71"/>
       <c r="I38" s="71"/>
       <c r="J38" s="71"/>
@@ -3633,11 +3648,11 @@
       <c r="L38" s="74"/>
       <c r="M38" s="74"/>
       <c r="N38" s="77"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
       <c r="T38" s="78"/>
       <c r="U38" s="78"/>
       <c r="V38" s="78"/>
@@ -3645,16 +3660,16 @@
       <c r="X38" s="77"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133">
-        <v>10</v>
-      </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
+      <c r="A39" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132">
+        <v>8</v>
+      </c>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
       <c r="G39" s="71"/>
       <c r="H39" s="71"/>
       <c r="I39" s="71"/>
@@ -3663,11 +3678,11 @@
       <c r="L39" s="74"/>
       <c r="M39" s="74"/>
       <c r="N39" s="77"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="120"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="121"/>
+      <c r="S39" s="121"/>
       <c r="T39" s="78"/>
       <c r="U39" s="78"/>
       <c r="V39" s="78"/>
@@ -3675,29 +3690,29 @@
       <c r="X39" s="77"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133">
-        <v>8</v>
-      </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
+      <c r="A40" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132">
+        <v>10</v>
+      </c>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
       <c r="K40" s="74"/>
       <c r="L40" s="74"/>
       <c r="M40" s="74"/>
       <c r="N40" s="77"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="121"/>
+      <c r="S40" s="121"/>
       <c r="T40" s="78"/>
       <c r="U40" s="78"/>
       <c r="V40" s="78"/>
@@ -3705,29 +3720,29 @@
       <c r="X40" s="77"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="127" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133">
-        <v>5</v>
+      <c r="A41" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132">
+        <v>8</v>
       </c>
       <c r="D41" s="76"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="71"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
       <c r="I41" s="71"/>
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="74"/>
       <c r="M41" s="74"/>
       <c r="N41" s="77"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
+      <c r="O41" s="119"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="121"/>
+      <c r="S41" s="121"/>
       <c r="T41" s="78"/>
       <c r="U41" s="78"/>
       <c r="V41" s="78"/>
@@ -3735,63 +3750,63 @@
       <c r="X41" s="77"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="129">
-        <f>SUM(C43:C45)</f>
-        <v>20</v>
-      </c>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
+      <c r="A42" s="126" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132">
+        <v>5</v>
+      </c>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
       <c r="K42" s="74"/>
       <c r="L42" s="74"/>
       <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="119"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="119"/>
       <c r="R42" s="121"/>
       <c r="S42" s="121"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="77"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134">
-        <v>10</v>
-      </c>
-      <c r="D43" s="140"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
+      <c r="A43" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="128">
+        <f>SUM(C44:C46)</f>
+        <v>20</v>
+      </c>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
       <c r="K43" s="74"/>
       <c r="L43" s="74"/>
       <c r="M43" s="74"/>
       <c r="N43" s="74"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="80"/>
+      <c r="O43" s="119"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="66"/>
       <c r="U43" s="66"/>
       <c r="V43" s="66"/>
       <c r="W43" s="66"/>
@@ -3799,58 +3814,58 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131">
-        <v>5</v>
-      </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="141"/>
+        <v>129</v>
+      </c>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133">
+        <v>10</v>
+      </c>
+      <c r="D44" s="139"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="138"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
       <c r="I44" s="74"/>
       <c r="J44" s="74"/>
       <c r="K44" s="74"/>
       <c r="L44" s="74"/>
       <c r="M44" s="74"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="120"/>
+      <c r="O44" s="119"/>
       <c r="P44" s="121"/>
       <c r="Q44" s="121"/>
       <c r="R44" s="121"/>
       <c r="S44" s="121"/>
-      <c r="T44" s="66"/>
+      <c r="T44" s="80"/>
       <c r="U44" s="66"/>
       <c r="V44" s="66"/>
       <c r="W44" s="66"/>
       <c r="X44" s="66"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134">
+      <c r="A45" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130">
         <v>5</v>
       </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
       <c r="K45" s="74"/>
       <c r="L45" s="74"/>
       <c r="M45" s="74"/>
       <c r="N45" s="74"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="121"/>
-      <c r="R45" s="121"/>
-      <c r="S45" s="121"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
       <c r="T45" s="66"/>
       <c r="U45" s="66"/>
       <c r="V45" s="66"/>
@@ -3858,119 +3873,119 @@
       <c r="X45" s="66"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="174"/>
-      <c r="B46" s="175"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="175"/>
-      <c r="K46" s="175"/>
-      <c r="L46" s="175"/>
-      <c r="M46" s="175"/>
-      <c r="N46" s="175"/>
-      <c r="O46" s="175"/>
-      <c r="P46" s="175"/>
-      <c r="Q46" s="175"/>
-      <c r="R46" s="175"/>
-      <c r="S46" s="175"/>
-      <c r="T46" s="175"/>
-      <c r="U46" s="175"/>
-      <c r="V46" s="175"/>
-      <c r="W46" s="175"/>
-      <c r="X46" s="175"/>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="A47" s="92" t="s">
+      <c r="A46" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133">
+        <v>5</v>
+      </c>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="66"/>
+    </row>
+    <row r="47" spans="1:24" ht="6" customHeight="1">
+      <c r="A47" s="193"/>
+      <c r="B47" s="194"/>
+      <c r="C47" s="194"/>
+      <c r="D47" s="194"/>
+      <c r="E47" s="194"/>
+      <c r="F47" s="194"/>
+      <c r="G47" s="194"/>
+      <c r="H47" s="194"/>
+      <c r="I47" s="194"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="194"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="194"/>
+      <c r="O47" s="194"/>
+      <c r="P47" s="194"/>
+      <c r="Q47" s="194"/>
+      <c r="R47" s="194"/>
+      <c r="S47" s="194"/>
+      <c r="T47" s="194"/>
+      <c r="U47" s="194"/>
+      <c r="V47" s="194"/>
+      <c r="W47" s="194"/>
+      <c r="X47" s="194"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="135"/>
-      <c r="C47" s="135">
-        <f>SUM(C48,C52,C56)</f>
-        <v>113</v>
-      </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="95"/>
-      <c r="V47" s="95"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" s="70" t="s">
+      <c r="B48" s="134"/>
+      <c r="C48" s="134">
+        <f>SUM(C49,C53,C57,C60)</f>
+        <v>122</v>
+      </c>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="94"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="93"/>
+      <c r="X48" s="93"/>
+    </row>
+    <row r="49" spans="1:45">
+      <c r="A49" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="133" t="s">
+      <c r="B49" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="133">
-        <f>SUM(C49:C51)</f>
-        <v>38</v>
-      </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="123"/>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="122"/>
-      <c r="T48" s="80"/>
-      <c r="U48" s="66"/>
-      <c r="V48" s="66"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="74"/>
-    </row>
-    <row r="49" spans="1:45">
-      <c r="A49" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130">
-        <v>15</v>
+      <c r="C49" s="132">
+        <f>SUM(C50:C52)</f>
+        <v>35</v>
       </c>
       <c r="D49" s="71"/>
       <c r="E49" s="71"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="71"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="71"/>
       <c r="K49" s="71"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="122"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="121"/>
+      <c r="S49" s="121"/>
       <c r="T49" s="80"/>
       <c r="U49" s="66"/>
       <c r="V49" s="66"/>
@@ -3979,58 +3994,58 @@
     </row>
     <row r="50" spans="1:45">
       <c r="A50" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130">
+        <v>124</v>
+      </c>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129">
         <v>15</v>
       </c>
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
-      <c r="F50" s="142"/>
+      <c r="F50" s="141"/>
       <c r="G50" s="142"/>
-      <c r="H50" s="71"/>
+      <c r="H50" s="142"/>
       <c r="I50" s="71"/>
       <c r="J50" s="71"/>
       <c r="K50" s="71"/>
       <c r="L50" s="74"/>
       <c r="M50" s="74"/>
       <c r="N50" s="74"/>
-      <c r="O50" s="120"/>
+      <c r="O50" s="119"/>
       <c r="P50" s="121"/>
       <c r="Q50" s="121"/>
       <c r="R50" s="121"/>
       <c r="S50" s="121"/>
-      <c r="T50" s="66"/>
+      <c r="T50" s="80"/>
       <c r="U50" s="66"/>
       <c r="V50" s="66"/>
-      <c r="W50" s="66"/>
-      <c r="X50" s="66"/>
+      <c r="W50" s="74"/>
+      <c r="X50" s="74"/>
     </row>
     <row r="51" spans="1:45">
       <c r="A51" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130">
-        <v>8</v>
+        <v>145</v>
+      </c>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129">
+        <v>12</v>
       </c>
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="142"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="141"/>
       <c r="I51" s="71"/>
       <c r="J51" s="71"/>
-      <c r="K51" s="74"/>
+      <c r="K51" s="71"/>
       <c r="L51" s="74"/>
       <c r="M51" s="74"/>
       <c r="N51" s="74"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="121"/>
-      <c r="Q51" s="121"/>
-      <c r="R51" s="121"/>
-      <c r="S51" s="121"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="120"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+      <c r="S51" s="120"/>
       <c r="T51" s="66"/>
       <c r="U51" s="66"/>
       <c r="V51" s="66"/>
@@ -4038,62 +4053,62 @@
       <c r="X51" s="66"/>
     </row>
     <row r="52" spans="1:45">
-      <c r="A52" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="133">
-        <f>SUM(C53:C55)</f>
-        <v>40</v>
+      <c r="A52" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129">
+        <v>8</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
       <c r="F52" s="71"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="141"/>
       <c r="I52" s="71"/>
       <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
+      <c r="K52" s="74"/>
       <c r="L52" s="74"/>
       <c r="M52" s="74"/>
       <c r="N52" s="74"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="122"/>
-      <c r="T52" s="80"/>
+      <c r="O52" s="119"/>
+      <c r="P52" s="120"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="66"/>
       <c r="U52" s="66"/>
       <c r="V52" s="66"/>
-      <c r="W52" s="74"/>
-      <c r="X52" s="74"/>
+      <c r="W52" s="66"/>
+      <c r="X52" s="66"/>
     </row>
     <row r="53" spans="1:45">
-      <c r="A53" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="130"/>
-      <c r="C53" s="130">
-        <v>15</v>
+      <c r="A53" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="132">
+        <f>SUM(C54:C56)</f>
+        <v>37</v>
       </c>
       <c r="D53" s="71"/>
       <c r="E53" s="71"/>
       <c r="F53" s="71"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="141"/>
+      <c r="J53" s="141"/>
+      <c r="K53" s="141"/>
       <c r="L53" s="74"/>
       <c r="M53" s="74"/>
       <c r="N53" s="74"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="122"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="121"/>
+      <c r="Q53" s="121"/>
+      <c r="R53" s="121"/>
+      <c r="S53" s="121"/>
       <c r="T53" s="80"/>
       <c r="U53" s="66"/>
       <c r="V53" s="66"/>
@@ -4102,28 +4117,28 @@
     </row>
     <row r="54" spans="1:45">
       <c r="A54" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130">
+        <v>131</v>
+      </c>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129">
         <v>15</v>
       </c>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
       <c r="F54" s="71"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="142"/>
-      <c r="L54" s="143"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="141"/>
+      <c r="K54" s="141"/>
+      <c r="L54" s="74"/>
       <c r="M54" s="74"/>
       <c r="N54" s="74"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="122"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="121"/>
+      <c r="Q54" s="121"/>
+      <c r="R54" s="121"/>
+      <c r="S54" s="121"/>
       <c r="T54" s="80"/>
       <c r="U54" s="66"/>
       <c r="V54" s="66"/>
@@ -4132,97 +4147,91 @@
     </row>
     <row r="55" spans="1:45">
       <c r="A55" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="130"/>
-      <c r="C55" s="130">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129">
+        <v>12</v>
       </c>
       <c r="D55" s="71"/>
       <c r="E55" s="71"/>
       <c r="F55" s="71"/>
       <c r="G55" s="74"/>
       <c r="H55" s="74"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="142"/>
-      <c r="L55" s="143"/>
-      <c r="M55" s="143"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="121"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="122"/>
+      <c r="I55" s="141"/>
+      <c r="J55" s="141"/>
+      <c r="K55" s="141"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="121"/>
+      <c r="Q55" s="121"/>
+      <c r="R55" s="121"/>
+      <c r="S55" s="121"/>
       <c r="T55" s="80"/>
       <c r="U55" s="66"/>
       <c r="V55" s="66"/>
       <c r="W55" s="74"/>
       <c r="X55" s="74"/>
     </row>
-    <row r="56" spans="1:45" s="82" customFormat="1">
-      <c r="A56" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="133">
-        <f>SUM(C57:C59)</f>
-        <v>35</v>
-      </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
+    <row r="56" spans="1:45">
+      <c r="A56" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129">
+        <v>10</v>
+      </c>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
       <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="71"/>
       <c r="L56" s="74"/>
       <c r="M56" s="74"/>
-      <c r="N56" s="74"/>
+      <c r="N56" s="66"/>
       <c r="O56" s="120"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="122"/>
+      <c r="P56" s="121"/>
+      <c r="Q56" s="121"/>
+      <c r="R56" s="121"/>
+      <c r="S56" s="121"/>
       <c r="T56" s="80"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
-      <c r="AB56" s="61"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="61"/>
+      <c r="U56" s="66"/>
+      <c r="V56" s="66"/>
+      <c r="W56" s="74"/>
+      <c r="X56" s="74"/>
     </row>
     <row r="57" spans="1:45" s="82" customFormat="1">
-      <c r="A57" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130">
-        <v>15</v>
-      </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
+      <c r="A57" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="132">
+        <f>SUM(C58:C59)</f>
+        <v>10</v>
+      </c>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="142"/>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="74"/>
       <c r="N57" s="74"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
+      <c r="O57" s="119"/>
+      <c r="P57" s="121"/>
+      <c r="Q57" s="121"/>
+      <c r="R57" s="220"/>
+      <c r="S57" s="220"/>
       <c r="T57" s="80"/>
       <c r="U57" s="71"/>
       <c r="V57" s="71"/>
@@ -4235,201 +4244,207 @@
       <c r="AC57" s="61"/>
       <c r="AD57" s="61"/>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:45" s="82" customFormat="1">
       <c r="A58" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="130"/>
-      <c r="C58" s="130">
+        <v>135</v>
+      </c>
+      <c r="B58" s="129"/>
+      <c r="C58" s="129">
         <v>10</v>
       </c>
       <c r="D58" s="71"/>
       <c r="E58" s="71"/>
       <c r="F58" s="71"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="142"/>
+      <c r="J58" s="142"/>
       <c r="K58" s="74"/>
       <c r="L58" s="74"/>
       <c r="M58" s="74"/>
       <c r="N58" s="74"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="122"/>
+      <c r="O58" s="119"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="121"/>
+      <c r="R58" s="121"/>
+      <c r="S58" s="121"/>
       <c r="T58" s="80"/>
-      <c r="U58" s="66"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
-      <c r="X58" s="74"/>
-    </row>
-    <row r="59" spans="1:45">
-      <c r="A59" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="129"/>
-      <c r="C59" s="129">
-        <v>10</v>
-      </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="122"/>
-      <c r="R59" s="122"/>
-      <c r="S59" s="122"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="74"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="61"/>
+      <c r="Z58" s="61"/>
+      <c r="AA58" s="61"/>
+      <c r="AB58" s="61"/>
+      <c r="AC58" s="61"/>
+      <c r="AD58" s="61"/>
+    </row>
+    <row r="59" spans="1:45" s="228" customFormat="1">
+      <c r="A59" s="222" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="223"/>
+      <c r="C59" s="223">
+        <v>0</v>
+      </c>
+      <c r="D59" s="224"/>
+      <c r="E59" s="224"/>
+      <c r="F59" s="224"/>
+      <c r="G59" s="225"/>
+      <c r="H59" s="225"/>
+      <c r="I59" s="225"/>
+      <c r="J59" s="225"/>
+      <c r="K59" s="225"/>
+      <c r="L59" s="225"/>
+      <c r="M59" s="225"/>
+      <c r="N59" s="225"/>
+      <c r="O59" s="225"/>
+      <c r="P59" s="226"/>
+      <c r="Q59" s="226"/>
+      <c r="R59" s="226"/>
+      <c r="S59" s="226"/>
+      <c r="T59" s="226"/>
+      <c r="U59" s="227"/>
+      <c r="V59" s="225"/>
+      <c r="W59" s="225"/>
+      <c r="X59" s="225"/>
     </row>
     <row r="60" spans="1:45">
-      <c r="A60" s="174"/>
-      <c r="B60" s="175"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="175"/>
-      <c r="E60" s="175"/>
-      <c r="F60" s="175"/>
-      <c r="G60" s="175"/>
-      <c r="H60" s="175"/>
-      <c r="I60" s="175"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="175"/>
-      <c r="L60" s="175"/>
-      <c r="M60" s="175"/>
-      <c r="N60" s="175"/>
-      <c r="O60" s="175"/>
-      <c r="P60" s="175"/>
-      <c r="Q60" s="175"/>
-      <c r="R60" s="175"/>
-      <c r="S60" s="175"/>
-      <c r="T60" s="175"/>
-      <c r="U60" s="175"/>
-      <c r="V60" s="175"/>
-      <c r="W60" s="175"/>
-      <c r="X60" s="175"/>
-    </row>
-    <row r="61" spans="1:45" s="96" customFormat="1">
-      <c r="A61" s="106" t="s">
+      <c r="A60" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="128"/>
+      <c r="C60" s="128">
+        <v>40</v>
+      </c>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="66"/>
+      <c r="V60" s="74"/>
+      <c r="W60" s="74"/>
+      <c r="X60" s="74"/>
+    </row>
+    <row r="61" spans="1:45" ht="6" customHeight="1">
+      <c r="A61" s="193"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="194"/>
+      <c r="D61" s="194"/>
+      <c r="E61" s="194"/>
+      <c r="F61" s="194"/>
+      <c r="G61" s="194"/>
+      <c r="H61" s="194"/>
+      <c r="I61" s="194"/>
+      <c r="J61" s="194"/>
+      <c r="K61" s="194"/>
+      <c r="L61" s="194"/>
+      <c r="M61" s="194"/>
+      <c r="N61" s="194"/>
+      <c r="O61" s="194"/>
+      <c r="P61" s="194"/>
+      <c r="Q61" s="194"/>
+      <c r="R61" s="194"/>
+      <c r="S61" s="194"/>
+      <c r="T61" s="194"/>
+      <c r="U61" s="194"/>
+      <c r="V61" s="194"/>
+      <c r="W61" s="194"/>
+      <c r="X61" s="194"/>
+    </row>
+    <row r="62" spans="1:45" s="95" customFormat="1">
+      <c r="A62" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136">
-        <f>SUM(C62,C69)</f>
-        <v>260</v>
-      </c>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="108"/>
-      <c r="M61" s="108"/>
-      <c r="N61" s="108"/>
-      <c r="O61" s="108"/>
-      <c r="P61" s="108"/>
-      <c r="Q61" s="108"/>
-      <c r="R61" s="109"/>
-      <c r="S61" s="109"/>
-      <c r="T61" s="109"/>
-      <c r="U61" s="109"/>
-      <c r="V61" s="109"/>
-      <c r="W61" s="108"/>
-      <c r="X61" s="108"/>
-      <c r="Y61" s="61"/>
-      <c r="Z61" s="61"/>
-      <c r="AA61" s="61"/>
-      <c r="AB61" s="61"/>
-      <c r="AC61" s="61"/>
-      <c r="AD61" s="61"/>
-      <c r="AE61" s="61"/>
-      <c r="AF61" s="61"/>
-      <c r="AG61" s="61"/>
-      <c r="AH61" s="61"/>
-      <c r="AI61" s="61"/>
-      <c r="AJ61" s="61"/>
-      <c r="AK61" s="61"/>
-      <c r="AL61" s="61"/>
-      <c r="AM61" s="61"/>
-      <c r="AN61" s="61"/>
-      <c r="AO61" s="61"/>
-      <c r="AP61" s="61"/>
-      <c r="AQ61" s="61"/>
-      <c r="AR61" s="61"/>
-      <c r="AS61" s="61"/>
-    </row>
-    <row r="62" spans="1:45">
-      <c r="A62" s="70" t="s">
+      <c r="B62" s="135"/>
+      <c r="C62" s="135">
+        <f>SUM(C63,C70,C74)</f>
+        <v>380</v>
+      </c>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107"/>
+      <c r="O62" s="107"/>
+      <c r="P62" s="107"/>
+      <c r="Q62" s="107"/>
+      <c r="R62" s="108"/>
+      <c r="S62" s="108"/>
+      <c r="T62" s="108"/>
+      <c r="U62" s="108"/>
+      <c r="V62" s="108"/>
+      <c r="W62" s="107"/>
+      <c r="X62" s="107"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="61"/>
+      <c r="AA62" s="61"/>
+      <c r="AB62" s="61"/>
+      <c r="AC62" s="61"/>
+      <c r="AD62" s="61"/>
+      <c r="AE62" s="61"/>
+      <c r="AF62" s="61"/>
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="61"/>
+      <c r="AJ62" s="61"/>
+      <c r="AK62" s="61"/>
+      <c r="AL62" s="61"/>
+      <c r="AM62" s="61"/>
+      <c r="AN62" s="61"/>
+      <c r="AO62" s="61"/>
+      <c r="AP62" s="61"/>
+      <c r="AQ62" s="61"/>
+      <c r="AR62" s="61"/>
+      <c r="AS62" s="61"/>
+    </row>
+    <row r="63" spans="1:45">
+      <c r="A63" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="133" t="s">
+      <c r="B63" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="133">
-        <f>SUM(C63:C68)</f>
+      <c r="C63" s="132">
+        <f>SUM(C64:C69)</f>
         <v>220</v>
       </c>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="123"/>
-      <c r="P62" s="123"/>
-      <c r="Q62" s="123"/>
-      <c r="R62" s="123"/>
-      <c r="S62" s="123"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="74"/>
-      <c r="W62" s="74"/>
-      <c r="X62" s="74"/>
-    </row>
-    <row r="63" spans="1:45">
-      <c r="A63" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="133"/>
-      <c r="C63" s="133">
-        <v>30</v>
-      </c>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="147"/>
-      <c r="P63" s="147"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="147"/>
-      <c r="S63" s="147"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="145"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="145"/>
+      <c r="J63" s="145"/>
+      <c r="K63" s="145"/>
+      <c r="L63" s="145"/>
+      <c r="M63" s="146"/>
+      <c r="N63" s="146"/>
+      <c r="O63" s="146"/>
+      <c r="P63" s="146"/>
+      <c r="Q63" s="146"/>
+      <c r="R63" s="146"/>
+      <c r="S63" s="146"/>
       <c r="T63" s="71"/>
       <c r="U63" s="71"/>
       <c r="V63" s="74"/>
@@ -4438,28 +4453,28 @@
     </row>
     <row r="64" spans="1:45">
       <c r="A64" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="133"/>
-      <c r="C64" s="133">
-        <v>50</v>
+        <v>147</v>
+      </c>
+      <c r="B64" s="132"/>
+      <c r="C64" s="132">
+        <v>30</v>
       </c>
       <c r="D64" s="71"/>
       <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="147"/>
-      <c r="O64" s="147"/>
-      <c r="P64" s="147"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="147"/>
-      <c r="S64" s="147"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="145"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
+      <c r="O64" s="145"/>
+      <c r="P64" s="145"/>
+      <c r="Q64" s="145"/>
+      <c r="R64" s="145"/>
+      <c r="S64" s="145"/>
       <c r="T64" s="71"/>
       <c r="U64" s="71"/>
       <c r="V64" s="74"/>
@@ -4468,41 +4483,41 @@
     </row>
     <row r="65" spans="1:45">
       <c r="A65" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="131"/>
-      <c r="C65" s="131">
-        <v>70</v>
+        <v>148</v>
+      </c>
+      <c r="B65" s="132"/>
+      <c r="C65" s="132">
+        <v>50</v>
       </c>
       <c r="D65" s="71"/>
       <c r="E65" s="71"/>
       <c r="F65" s="71"/>
       <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="147"/>
-      <c r="M65" s="147"/>
-      <c r="N65" s="147"/>
-      <c r="O65" s="147"/>
-      <c r="P65" s="147"/>
-      <c r="Q65" s="147"/>
-      <c r="R65" s="147"/>
-      <c r="S65" s="147"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="145"/>
+      <c r="J65" s="145"/>
+      <c r="K65" s="145"/>
+      <c r="L65" s="145"/>
+      <c r="M65" s="145"/>
+      <c r="N65" s="145"/>
+      <c r="O65" s="145"/>
+      <c r="P65" s="145"/>
+      <c r="Q65" s="145"/>
+      <c r="R65" s="145"/>
+      <c r="S65" s="145"/>
       <c r="T65" s="71"/>
-      <c r="U65" s="74"/>
+      <c r="U65" s="71"/>
       <c r="V65" s="74"/>
       <c r="W65" s="74"/>
       <c r="X65" s="74"/>
     </row>
     <row r="66" spans="1:45">
       <c r="A66" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="131"/>
-      <c r="C66" s="131">
-        <v>30</v>
+        <v>149</v>
+      </c>
+      <c r="B66" s="130"/>
+      <c r="C66" s="130">
+        <v>70</v>
       </c>
       <c r="D66" s="71"/>
       <c r="E66" s="71"/>
@@ -4512,26 +4527,26 @@
       <c r="I66" s="74"/>
       <c r="J66" s="74"/>
       <c r="K66" s="74"/>
-      <c r="L66" s="74"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="147"/>
-      <c r="P66" s="147"/>
-      <c r="Q66" s="147"/>
-      <c r="R66" s="147"/>
-      <c r="S66" s="147"/>
+      <c r="L66" s="145"/>
+      <c r="M66" s="145"/>
+      <c r="N66" s="145"/>
+      <c r="O66" s="145"/>
+      <c r="P66" s="145"/>
+      <c r="Q66" s="145"/>
+      <c r="R66" s="145"/>
+      <c r="S66" s="145"/>
       <c r="T66" s="71"/>
-      <c r="U66" s="71"/>
+      <c r="U66" s="74"/>
       <c r="V66" s="74"/>
       <c r="W66" s="74"/>
       <c r="X66" s="74"/>
     </row>
     <row r="67" spans="1:45">
       <c r="A67" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="131"/>
-      <c r="C67" s="131">
+        <v>152</v>
+      </c>
+      <c r="B67" s="130"/>
+      <c r="C67" s="130">
         <v>30</v>
       </c>
       <c r="D67" s="71"/>
@@ -4545,11 +4560,11 @@
       <c r="L67" s="74"/>
       <c r="M67" s="71"/>
       <c r="N67" s="71"/>
-      <c r="O67" s="147"/>
-      <c r="P67" s="147"/>
-      <c r="Q67" s="147"/>
-      <c r="R67" s="147"/>
-      <c r="S67" s="147"/>
+      <c r="O67" s="145"/>
+      <c r="P67" s="145"/>
+      <c r="Q67" s="145"/>
+      <c r="R67" s="145"/>
+      <c r="S67" s="145"/>
       <c r="T67" s="71"/>
       <c r="U67" s="71"/>
       <c r="V67" s="74"/>
@@ -4557,12 +4572,12 @@
       <c r="X67" s="74"/>
     </row>
     <row r="68" spans="1:45">
-      <c r="A68" s="144" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="131"/>
-      <c r="C68" s="131">
-        <v>10</v>
+      <c r="A68" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="130"/>
+      <c r="C68" s="130">
+        <v>30</v>
       </c>
       <c r="D68" s="71"/>
       <c r="E68" s="71"/>
@@ -4573,13 +4588,13 @@
       <c r="J68" s="74"/>
       <c r="K68" s="74"/>
       <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="74"/>
-      <c r="O68" s="120"/>
-      <c r="P68" s="122"/>
-      <c r="Q68" s="122"/>
-      <c r="R68" s="123"/>
-      <c r="S68" s="123"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="145"/>
+      <c r="P68" s="145"/>
+      <c r="Q68" s="145"/>
+      <c r="R68" s="145"/>
+      <c r="S68" s="145"/>
       <c r="T68" s="71"/>
       <c r="U68" s="71"/>
       <c r="V68" s="74"/>
@@ -4587,15 +4602,12 @@
       <c r="X68" s="74"/>
     </row>
     <row r="69" spans="1:45">
-      <c r="A69" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="129" t="s">
-        <v>127</v>
-      </c>
+      <c r="A69" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="130"/>
       <c r="C69" s="130">
-        <f>SUM(C70:C72)</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D69" s="71"/>
       <c r="E69" s="71"/>
@@ -4604,15 +4616,15 @@
       <c r="H69" s="74"/>
       <c r="I69" s="74"/>
       <c r="J69" s="74"/>
-      <c r="K69" s="74"/>
-      <c r="L69" s="74"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="71"/>
-      <c r="O69" s="123"/>
-      <c r="P69" s="123"/>
-      <c r="Q69" s="123"/>
-      <c r="R69" s="123"/>
-      <c r="S69" s="123"/>
+      <c r="K69" s="145"/>
+      <c r="L69" s="145"/>
+      <c r="M69" s="145"/>
+      <c r="N69" s="145"/>
+      <c r="O69" s="145"/>
+      <c r="P69" s="219"/>
+      <c r="Q69" s="219"/>
+      <c r="R69" s="146"/>
+      <c r="S69" s="146"/>
       <c r="T69" s="71"/>
       <c r="U69" s="71"/>
       <c r="V69" s="74"/>
@@ -4620,12 +4632,15 @@
       <c r="X69" s="74"/>
     </row>
     <row r="70" spans="1:45">
-      <c r="A70" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="131"/>
-      <c r="C70" s="131">
-        <v>10</v>
+      <c r="A70" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="129">
+        <f>SUM(C71:C73)</f>
+        <v>40</v>
       </c>
       <c r="D70" s="71"/>
       <c r="E70" s="71"/>
@@ -4636,26 +4651,26 @@
       <c r="J70" s="74"/>
       <c r="K70" s="74"/>
       <c r="L70" s="74"/>
-      <c r="M70" s="147"/>
-      <c r="N70" s="147"/>
-      <c r="O70" s="148"/>
-      <c r="P70" s="123"/>
-      <c r="Q70" s="123"/>
-      <c r="R70" s="123"/>
-      <c r="S70" s="123"/>
+      <c r="M70" s="146"/>
+      <c r="N70" s="146"/>
+      <c r="O70" s="146"/>
+      <c r="P70" s="146"/>
+      <c r="Q70" s="146"/>
+      <c r="R70" s="146"/>
+      <c r="S70" s="146"/>
       <c r="T70" s="71"/>
-      <c r="U70" s="74"/>
+      <c r="U70" s="71"/>
       <c r="V70" s="74"/>
       <c r="W70" s="74"/>
       <c r="X70" s="74"/>
     </row>
     <row r="71" spans="1:45">
       <c r="A71" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="131"/>
-      <c r="C71" s="131">
-        <v>20</v>
+        <v>137</v>
+      </c>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130">
+        <v>10</v>
       </c>
       <c r="D71" s="71"/>
       <c r="E71" s="71"/>
@@ -4666,15 +4681,15 @@
       <c r="J71" s="74"/>
       <c r="K71" s="74"/>
       <c r="L71" s="74"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="148"/>
-      <c r="P71" s="148"/>
-      <c r="Q71" s="148"/>
-      <c r="R71" s="123"/>
-      <c r="S71" s="123"/>
+      <c r="M71" s="145"/>
+      <c r="N71" s="145"/>
+      <c r="O71" s="146"/>
+      <c r="P71" s="122"/>
+      <c r="Q71" s="122"/>
+      <c r="R71" s="122"/>
+      <c r="S71" s="122"/>
       <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
+      <c r="U71" s="74"/>
       <c r="V71" s="74"/>
       <c r="W71" s="74"/>
       <c r="X71" s="74"/>
@@ -4683,9 +4698,9 @@
       <c r="A72" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="131"/>
-      <c r="C72" s="131">
-        <v>10</v>
+      <c r="B72" s="130"/>
+      <c r="C72" s="130">
+        <v>20</v>
       </c>
       <c r="D72" s="71"/>
       <c r="E72" s="71"/>
@@ -4698,11 +4713,11 @@
       <c r="L72" s="74"/>
       <c r="M72" s="71"/>
       <c r="N72" s="71"/>
-      <c r="O72" s="123"/>
-      <c r="P72" s="123"/>
-      <c r="Q72" s="148"/>
-      <c r="R72" s="148"/>
-      <c r="S72" s="148"/>
+      <c r="O72" s="146"/>
+      <c r="P72" s="146"/>
+      <c r="Q72" s="146"/>
+      <c r="R72" s="122"/>
+      <c r="S72" s="122"/>
       <c r="T72" s="71"/>
       <c r="U72" s="71"/>
       <c r="V72" s="74"/>
@@ -4710,864 +4725,694 @@
       <c r="X72" s="74"/>
     </row>
     <row r="73" spans="1:45">
-      <c r="A73" s="177"/>
-      <c r="B73" s="178"/>
-      <c r="C73" s="178"/>
-      <c r="D73" s="178"/>
-      <c r="E73" s="178"/>
-      <c r="F73" s="178"/>
-      <c r="G73" s="178"/>
-      <c r="H73" s="178"/>
-      <c r="I73" s="178"/>
-      <c r="J73" s="178"/>
-      <c r="K73" s="178"/>
-      <c r="L73" s="178"/>
-      <c r="M73" s="178"/>
-      <c r="N73" s="178"/>
-      <c r="O73" s="178"/>
-      <c r="P73" s="178"/>
-      <c r="Q73" s="178"/>
-      <c r="R73" s="178"/>
-      <c r="S73" s="178"/>
-      <c r="T73" s="178"/>
-      <c r="U73" s="178"/>
-      <c r="V73" s="178"/>
-      <c r="W73" s="178"/>
-      <c r="X73" s="178"/>
-    </row>
-    <row r="74" spans="1:45" s="97" customFormat="1">
-      <c r="A74" s="110" t="s">
+      <c r="A73" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130">
+        <v>10</v>
+      </c>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="122"/>
+      <c r="P73" s="122"/>
+      <c r="Q73" s="146"/>
+      <c r="R73" s="146"/>
+      <c r="S73" s="146"/>
+      <c r="T73" s="71"/>
+      <c r="U73" s="71"/>
+      <c r="V73" s="74"/>
+      <c r="W73" s="74"/>
+      <c r="X73" s="74"/>
+    </row>
+    <row r="74" spans="1:45">
+      <c r="A74" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="133">
+        <v>120</v>
+      </c>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="145"/>
+      <c r="L74" s="145"/>
+      <c r="M74" s="145"/>
+      <c r="N74" s="145"/>
+      <c r="O74" s="145"/>
+      <c r="P74" s="145"/>
+      <c r="Q74" s="145"/>
+      <c r="R74" s="145"/>
+      <c r="S74" s="145"/>
+      <c r="T74" s="145"/>
+      <c r="U74" s="145"/>
+      <c r="V74" s="145"/>
+      <c r="W74" s="145"/>
+      <c r="X74" s="145"/>
+    </row>
+    <row r="75" spans="1:45" ht="6" customHeight="1">
+      <c r="A75" s="195"/>
+      <c r="B75" s="196"/>
+      <c r="C75" s="196"/>
+      <c r="D75" s="196"/>
+      <c r="E75" s="196"/>
+      <c r="F75" s="196"/>
+      <c r="G75" s="196"/>
+      <c r="H75" s="196"/>
+      <c r="I75" s="196"/>
+      <c r="J75" s="196"/>
+      <c r="K75" s="196"/>
+      <c r="L75" s="196"/>
+      <c r="M75" s="196"/>
+      <c r="N75" s="196"/>
+      <c r="O75" s="196"/>
+      <c r="P75" s="196"/>
+      <c r="Q75" s="196"/>
+      <c r="R75" s="196"/>
+      <c r="S75" s="196"/>
+      <c r="T75" s="196"/>
+      <c r="U75" s="196"/>
+      <c r="V75" s="196"/>
+      <c r="W75" s="196"/>
+      <c r="X75" s="196"/>
+    </row>
+    <row r="76" spans="1:45" s="96" customFormat="1">
+      <c r="A76" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="137"/>
-      <c r="C74" s="137">
-        <f>SUM(C75:C79)</f>
-        <v>120</v>
-      </c>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="111"/>
-      <c r="M74" s="111"/>
-      <c r="N74" s="111"/>
-      <c r="O74" s="111"/>
-      <c r="P74" s="111"/>
-      <c r="Q74" s="111"/>
-      <c r="R74" s="111"/>
-      <c r="S74" s="111"/>
-      <c r="T74" s="111"/>
-      <c r="U74" s="111"/>
-      <c r="V74" s="111"/>
-      <c r="W74" s="111"/>
-      <c r="X74" s="111"/>
-      <c r="Y74" s="114"/>
-      <c r="Z74" s="114"/>
-      <c r="AA74" s="114"/>
-      <c r="AB74" s="114"/>
-      <c r="AC74" s="114"/>
-      <c r="AD74" s="114"/>
-      <c r="AE74" s="114"/>
-      <c r="AF74" s="114"/>
-      <c r="AG74" s="114"/>
-      <c r="AH74" s="114"/>
-      <c r="AI74" s="114"/>
-      <c r="AJ74" s="114"/>
-      <c r="AK74" s="114"/>
-      <c r="AL74" s="114"/>
-      <c r="AM74" s="114"/>
-      <c r="AN74" s="114"/>
-      <c r="AO74" s="114"/>
-      <c r="AP74" s="114"/>
-      <c r="AQ74" s="114"/>
-      <c r="AR74" s="114"/>
-      <c r="AS74" s="114"/>
-    </row>
-    <row r="75" spans="1:45" s="97" customFormat="1">
-      <c r="A75" s="126" t="s">
+      <c r="B76" s="136"/>
+      <c r="C76" s="136">
+        <f>SUM(C77:C80)</f>
+        <v>128</v>
+      </c>
+      <c r="D76" s="110"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
+      <c r="I76" s="110"/>
+      <c r="J76" s="110"/>
+      <c r="K76" s="110"/>
+      <c r="L76" s="110"/>
+      <c r="M76" s="110"/>
+      <c r="N76" s="110"/>
+      <c r="O76" s="110"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="110"/>
+      <c r="R76" s="110"/>
+      <c r="S76" s="110"/>
+      <c r="T76" s="110"/>
+      <c r="U76" s="110"/>
+      <c r="V76" s="110"/>
+      <c r="W76" s="110"/>
+      <c r="X76" s="110"/>
+      <c r="Y76" s="113"/>
+      <c r="Z76" s="113"/>
+      <c r="AA76" s="113"/>
+      <c r="AB76" s="113"/>
+      <c r="AC76" s="113"/>
+      <c r="AD76" s="113"/>
+      <c r="AE76" s="113"/>
+      <c r="AF76" s="113"/>
+      <c r="AG76" s="113"/>
+      <c r="AH76" s="113"/>
+      <c r="AI76" s="113"/>
+      <c r="AJ76" s="113"/>
+      <c r="AK76" s="113"/>
+      <c r="AL76" s="113"/>
+      <c r="AM76" s="113"/>
+      <c r="AN76" s="113"/>
+      <c r="AO76" s="113"/>
+      <c r="AP76" s="113"/>
+      <c r="AQ76" s="113"/>
+      <c r="AR76" s="113"/>
+      <c r="AS76" s="113"/>
+    </row>
+    <row r="77" spans="1:45" s="96" customFormat="1">
+      <c r="A77" s="221" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="133" t="s">
+      <c r="B77" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="133">
+      <c r="C77" s="132">
         <v>50</v>
       </c>
-      <c r="D75" s="126"/>
-      <c r="E75" s="126"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="126"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="126"/>
-      <c r="J75" s="126"/>
-      <c r="K75" s="126"/>
-      <c r="L75" s="126"/>
-      <c r="M75" s="126"/>
-      <c r="N75" s="126"/>
-      <c r="O75" s="125"/>
-      <c r="P75" s="125"/>
-      <c r="Q75" s="125"/>
-      <c r="R75" s="125"/>
-      <c r="S75" s="125"/>
-      <c r="T75" s="149"/>
-      <c r="U75" s="149"/>
-      <c r="V75" s="126"/>
-      <c r="W75" s="126"/>
-      <c r="X75" s="126"/>
-      <c r="Y75" s="114"/>
-      <c r="Z75" s="114"/>
-      <c r="AA75" s="114"/>
-      <c r="AB75" s="114"/>
-      <c r="AC75" s="114"/>
-      <c r="AD75" s="114"/>
-      <c r="AE75" s="114"/>
-      <c r="AF75" s="114"/>
-      <c r="AG75" s="114"/>
-      <c r="AH75" s="114"/>
-      <c r="AI75" s="114"/>
-      <c r="AJ75" s="114"/>
-      <c r="AK75" s="114"/>
-      <c r="AL75" s="114"/>
-      <c r="AM75" s="114"/>
-      <c r="AN75" s="114"/>
-      <c r="AO75" s="114"/>
-      <c r="AP75" s="114"/>
-      <c r="AQ75" s="114"/>
-      <c r="AR75" s="114"/>
-      <c r="AS75" s="114"/>
-    </row>
-    <row r="76" spans="1:45" s="97" customFormat="1">
-      <c r="A76" s="126" t="s">
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="125"/>
+      <c r="I77" s="125"/>
+      <c r="J77" s="125"/>
+      <c r="K77" s="125"/>
+      <c r="L77" s="125"/>
+      <c r="M77" s="125"/>
+      <c r="N77" s="125"/>
+      <c r="O77" s="124"/>
+      <c r="P77" s="124"/>
+      <c r="Q77" s="124"/>
+      <c r="R77" s="124"/>
+      <c r="S77" s="147"/>
+      <c r="T77" s="147"/>
+      <c r="U77" s="147"/>
+      <c r="V77" s="147"/>
+      <c r="W77" s="125"/>
+      <c r="X77" s="125"/>
+      <c r="Y77" s="113"/>
+      <c r="Z77" s="113"/>
+      <c r="AA77" s="113"/>
+      <c r="AB77" s="113"/>
+      <c r="AC77" s="113"/>
+      <c r="AD77" s="113"/>
+      <c r="AE77" s="113"/>
+      <c r="AF77" s="113"/>
+      <c r="AG77" s="113"/>
+      <c r="AH77" s="113"/>
+      <c r="AI77" s="113"/>
+      <c r="AJ77" s="113"/>
+      <c r="AK77" s="113"/>
+      <c r="AL77" s="113"/>
+      <c r="AM77" s="113"/>
+      <c r="AN77" s="113"/>
+      <c r="AO77" s="113"/>
+      <c r="AP77" s="113"/>
+      <c r="AQ77" s="113"/>
+      <c r="AR77" s="113"/>
+      <c r="AS77" s="113"/>
+    </row>
+    <row r="78" spans="1:45" s="96" customFormat="1">
+      <c r="A78" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="129" t="s">
+      <c r="B78" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="129">
-        <v>25</v>
-      </c>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
-      <c r="M76" s="126"/>
-      <c r="N76" s="126"/>
-      <c r="O76" s="125"/>
-      <c r="P76" s="125"/>
-      <c r="Q76" s="125"/>
-      <c r="R76" s="125"/>
-      <c r="S76" s="149"/>
-      <c r="T76" s="149"/>
-      <c r="U76" s="126"/>
-      <c r="V76" s="126"/>
-      <c r="W76" s="126"/>
-      <c r="X76" s="126"/>
-      <c r="Y76" s="114"/>
-      <c r="Z76" s="114"/>
-      <c r="AA76" s="114"/>
-      <c r="AB76" s="114"/>
-      <c r="AC76" s="114"/>
-      <c r="AD76" s="114"/>
-      <c r="AE76" s="114"/>
-      <c r="AF76" s="114"/>
-      <c r="AG76" s="114"/>
-      <c r="AH76" s="114"/>
-      <c r="AI76" s="114"/>
-      <c r="AJ76" s="114"/>
-      <c r="AK76" s="114"/>
-      <c r="AL76" s="114"/>
-      <c r="AM76" s="114"/>
-      <c r="AN76" s="114"/>
-      <c r="AO76" s="114"/>
-      <c r="AP76" s="114"/>
-      <c r="AQ76" s="114"/>
-      <c r="AR76" s="114"/>
-      <c r="AS76" s="114"/>
-    </row>
-    <row r="77" spans="1:45" s="97" customFormat="1">
-      <c r="A77" s="91" t="s">
+      <c r="C78" s="128">
+        <v>27</v>
+      </c>
+      <c r="D78" s="125"/>
+      <c r="E78" s="125"/>
+      <c r="F78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="125"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
+      <c r="K78" s="125"/>
+      <c r="L78" s="125"/>
+      <c r="M78" s="125"/>
+      <c r="N78" s="125"/>
+      <c r="O78" s="124"/>
+      <c r="P78" s="124"/>
+      <c r="Q78" s="124"/>
+      <c r="R78" s="124"/>
+      <c r="S78" s="147"/>
+      <c r="T78" s="147"/>
+      <c r="U78" s="147"/>
+      <c r="V78" s="125"/>
+      <c r="W78" s="125"/>
+      <c r="X78" s="125"/>
+      <c r="Y78" s="113"/>
+      <c r="Z78" s="113"/>
+      <c r="AA78" s="113"/>
+      <c r="AB78" s="113"/>
+      <c r="AC78" s="113"/>
+      <c r="AD78" s="113"/>
+      <c r="AE78" s="113"/>
+      <c r="AF78" s="113"/>
+      <c r="AG78" s="113"/>
+      <c r="AH78" s="113"/>
+      <c r="AI78" s="113"/>
+      <c r="AJ78" s="113"/>
+      <c r="AK78" s="113"/>
+      <c r="AL78" s="113"/>
+      <c r="AM78" s="113"/>
+      <c r="AN78" s="113"/>
+      <c r="AO78" s="113"/>
+      <c r="AP78" s="113"/>
+      <c r="AQ78" s="113"/>
+      <c r="AR78" s="113"/>
+      <c r="AS78" s="113"/>
+    </row>
+    <row r="79" spans="1:45" s="96" customFormat="1">
+      <c r="A79" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="129" t="s">
+      <c r="B79" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="129">
-        <v>25</v>
-      </c>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="126"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="126"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="126"/>
-      <c r="M77" s="126"/>
-      <c r="N77" s="126"/>
-      <c r="O77" s="125"/>
-      <c r="P77" s="125"/>
-      <c r="Q77" s="125"/>
-      <c r="R77" s="125"/>
-      <c r="S77" s="149"/>
-      <c r="T77" s="149"/>
-      <c r="U77" s="126"/>
-      <c r="V77" s="126"/>
-      <c r="W77" s="126"/>
-      <c r="X77" s="126"/>
-      <c r="Y77" s="114"/>
-      <c r="Z77" s="114"/>
-      <c r="AA77" s="114"/>
-      <c r="AB77" s="114"/>
-      <c r="AC77" s="114"/>
-      <c r="AD77" s="114"/>
-      <c r="AE77" s="114"/>
-      <c r="AF77" s="114"/>
-      <c r="AG77" s="114"/>
-      <c r="AH77" s="114"/>
-      <c r="AI77" s="114"/>
-      <c r="AJ77" s="114"/>
-      <c r="AK77" s="114"/>
-      <c r="AL77" s="114"/>
-      <c r="AM77" s="114"/>
-      <c r="AN77" s="114"/>
-      <c r="AO77" s="114"/>
-      <c r="AP77" s="114"/>
-      <c r="AQ77" s="114"/>
-      <c r="AR77" s="114"/>
-      <c r="AS77" s="114"/>
-    </row>
-    <row r="78" spans="1:45" s="97" customFormat="1">
-      <c r="A78" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" s="129" t="s">
+      <c r="C79" s="128">
+        <v>27</v>
+      </c>
+      <c r="D79" s="125"/>
+      <c r="E79" s="125"/>
+      <c r="F79" s="125"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="125"/>
+      <c r="I79" s="125"/>
+      <c r="J79" s="125"/>
+      <c r="K79" s="125"/>
+      <c r="L79" s="125"/>
+      <c r="M79" s="125"/>
+      <c r="N79" s="125"/>
+      <c r="O79" s="124"/>
+      <c r="P79" s="124"/>
+      <c r="Q79" s="124"/>
+      <c r="R79" s="124"/>
+      <c r="S79" s="147"/>
+      <c r="T79" s="147"/>
+      <c r="U79" s="147"/>
+      <c r="V79" s="125"/>
+      <c r="W79" s="125"/>
+      <c r="X79" s="125"/>
+      <c r="Y79" s="113"/>
+      <c r="Z79" s="113"/>
+      <c r="AA79" s="113"/>
+      <c r="AB79" s="113"/>
+      <c r="AC79" s="113"/>
+      <c r="AD79" s="113"/>
+      <c r="AE79" s="113"/>
+      <c r="AF79" s="113"/>
+      <c r="AG79" s="113"/>
+      <c r="AH79" s="113"/>
+      <c r="AI79" s="113"/>
+      <c r="AJ79" s="113"/>
+      <c r="AK79" s="113"/>
+      <c r="AL79" s="113"/>
+      <c r="AM79" s="113"/>
+      <c r="AN79" s="113"/>
+      <c r="AO79" s="113"/>
+      <c r="AP79" s="113"/>
+      <c r="AQ79" s="113"/>
+      <c r="AR79" s="113"/>
+      <c r="AS79" s="113"/>
+    </row>
+    <row r="80" spans="1:45" s="96" customFormat="1">
+      <c r="A80" s="221" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="129">
-        <v>20</v>
-      </c>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
-      <c r="M78" s="126"/>
-      <c r="N78" s="126"/>
-      <c r="O78" s="125"/>
-      <c r="P78" s="125"/>
-      <c r="Q78" s="125"/>
-      <c r="R78" s="125"/>
-      <c r="S78" s="149"/>
-      <c r="T78" s="149"/>
-      <c r="U78" s="126"/>
-      <c r="V78" s="126"/>
-      <c r="W78" s="126"/>
-      <c r="X78" s="126"/>
-      <c r="Y78" s="114"/>
-      <c r="Z78" s="114"/>
-      <c r="AA78" s="114"/>
-      <c r="AB78" s="114"/>
-      <c r="AC78" s="114"/>
-      <c r="AD78" s="114"/>
-      <c r="AE78" s="114"/>
-      <c r="AF78" s="114"/>
-      <c r="AG78" s="114"/>
-      <c r="AH78" s="114"/>
-      <c r="AI78" s="114"/>
-      <c r="AJ78" s="114"/>
-      <c r="AK78" s="114"/>
-      <c r="AL78" s="114"/>
-      <c r="AM78" s="114"/>
-      <c r="AN78" s="114"/>
-      <c r="AO78" s="114"/>
-      <c r="AP78" s="114"/>
-      <c r="AQ78" s="114"/>
-      <c r="AR78" s="114"/>
-      <c r="AS78" s="114"/>
-    </row>
-    <row r="79" spans="1:45" s="97" customFormat="1">
-      <c r="A79" s="126"/>
-      <c r="B79" s="129"/>
-      <c r="C79" s="129"/>
-      <c r="D79" s="126"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="126"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="126"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="126"/>
-      <c r="M79" s="126"/>
-      <c r="N79" s="126"/>
-      <c r="O79" s="125"/>
-      <c r="P79" s="125"/>
-      <c r="Q79" s="125"/>
-      <c r="R79" s="125"/>
-      <c r="S79" s="149"/>
-      <c r="T79" s="149"/>
-      <c r="U79" s="126"/>
-      <c r="V79" s="126"/>
-      <c r="W79" s="126"/>
-      <c r="X79" s="126"/>
-      <c r="Y79" s="114"/>
-      <c r="Z79" s="114"/>
-      <c r="AA79" s="114"/>
-      <c r="AB79" s="114"/>
-      <c r="AC79" s="114"/>
-      <c r="AD79" s="114"/>
-      <c r="AE79" s="114"/>
-      <c r="AF79" s="114"/>
-      <c r="AG79" s="114"/>
-      <c r="AH79" s="114"/>
-      <c r="AI79" s="114"/>
-      <c r="AJ79" s="114"/>
-      <c r="AK79" s="114"/>
-      <c r="AL79" s="114"/>
-      <c r="AM79" s="114"/>
-      <c r="AN79" s="114"/>
-      <c r="AO79" s="114"/>
-      <c r="AP79" s="114"/>
-      <c r="AQ79" s="114"/>
-      <c r="AR79" s="114"/>
-      <c r="AS79" s="114"/>
-    </row>
-    <row r="80" spans="1:45">
-      <c r="B80" s="61"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="90"/>
-      <c r="P80" s="90"/>
-      <c r="Q80" s="90"/>
-      <c r="R80" s="150"/>
-      <c r="S80" s="150"/>
-      <c r="T80" s="91"/>
-      <c r="U80" s="91"/>
-      <c r="V80" s="91"/>
-      <c r="W80" s="91"/>
-      <c r="X80" s="91"/>
-    </row>
-    <row r="81" spans="1:45">
-      <c r="A81" s="156"/>
-      <c r="B81" s="155"/>
-      <c r="C81" s="155"/>
-      <c r="D81" s="157"/>
-      <c r="E81" s="157"/>
-      <c r="F81" s="157"/>
-      <c r="G81" s="157"/>
-      <c r="H81" s="157"/>
-      <c r="I81" s="157"/>
-      <c r="J81" s="157"/>
-      <c r="K81" s="157"/>
-      <c r="L81" s="157"/>
-      <c r="M81" s="157"/>
-      <c r="N81" s="157"/>
-      <c r="O81" s="157"/>
-      <c r="P81" s="157"/>
-      <c r="Q81" s="157"/>
-      <c r="R81" s="157"/>
-      <c r="S81" s="157"/>
-      <c r="T81" s="157"/>
-      <c r="U81" s="157"/>
-      <c r="V81" s="157"/>
-      <c r="W81" s="157"/>
-      <c r="X81" s="157"/>
-    </row>
-    <row r="82" spans="1:45" s="158" customFormat="1">
-      <c r="A82" s="166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="190"/>
-      <c r="C82" s="190">
+      <c r="C80" s="128">
+        <v>24</v>
+      </c>
+      <c r="D80" s="125"/>
+      <c r="E80" s="125"/>
+      <c r="F80" s="125"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="125"/>
+      <c r="K80" s="125"/>
+      <c r="L80" s="125"/>
+      <c r="M80" s="125"/>
+      <c r="N80" s="125"/>
+      <c r="O80" s="124"/>
+      <c r="P80" s="124"/>
+      <c r="Q80" s="124"/>
+      <c r="R80" s="124"/>
+      <c r="S80" s="147"/>
+      <c r="T80" s="147"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="125"/>
+      <c r="W80" s="125"/>
+      <c r="X80" s="125"/>
+      <c r="Y80" s="113"/>
+      <c r="Z80" s="113"/>
+      <c r="AA80" s="113"/>
+      <c r="AB80" s="113"/>
+      <c r="AC80" s="113"/>
+      <c r="AD80" s="113"/>
+      <c r="AE80" s="113"/>
+      <c r="AF80" s="113"/>
+      <c r="AG80" s="113"/>
+      <c r="AH80" s="113"/>
+      <c r="AI80" s="113"/>
+      <c r="AJ80" s="113"/>
+      <c r="AK80" s="113"/>
+      <c r="AL80" s="113"/>
+      <c r="AM80" s="113"/>
+      <c r="AN80" s="113"/>
+      <c r="AO80" s="113"/>
+      <c r="AP80" s="113"/>
+      <c r="AQ80" s="113"/>
+      <c r="AR80" s="113"/>
+      <c r="AS80" s="113"/>
+    </row>
+    <row r="81" spans="1:45" ht="6" customHeight="1">
+      <c r="A81" s="153"/>
+      <c r="B81" s="152"/>
+      <c r="C81" s="152"/>
+      <c r="D81" s="154"/>
+      <c r="E81" s="154"/>
+      <c r="F81" s="154"/>
+      <c r="G81" s="154"/>
+      <c r="H81" s="154"/>
+      <c r="I81" s="154"/>
+      <c r="J81" s="154"/>
+      <c r="K81" s="154"/>
+      <c r="L81" s="154"/>
+      <c r="M81" s="154"/>
+      <c r="N81" s="154"/>
+      <c r="O81" s="154"/>
+      <c r="P81" s="154"/>
+      <c r="Q81" s="154"/>
+      <c r="R81" s="154"/>
+      <c r="S81" s="154"/>
+      <c r="T81" s="154"/>
+      <c r="U81" s="154"/>
+      <c r="V81" s="154"/>
+      <c r="W81" s="154"/>
+      <c r="X81" s="154"/>
+    </row>
+    <row r="82" spans="1:45" s="155" customFormat="1">
+      <c r="A82" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="157"/>
+      <c r="C82" s="157">
         <f>SUM(C83:C84)</f>
-        <v>15</v>
-      </c>
-      <c r="D82" s="191"/>
-      <c r="E82" s="191"/>
-      <c r="F82" s="191"/>
-      <c r="G82" s="191"/>
-      <c r="H82" s="191"/>
-      <c r="I82" s="191"/>
-      <c r="J82" s="191"/>
-      <c r="K82" s="191"/>
-      <c r="L82" s="191"/>
-      <c r="M82" s="191"/>
-      <c r="N82" s="191"/>
-      <c r="O82" s="191"/>
-      <c r="P82" s="191"/>
-      <c r="Q82" s="191"/>
-      <c r="R82" s="191"/>
-      <c r="S82" s="191"/>
-      <c r="T82" s="191"/>
-      <c r="U82" s="191"/>
-      <c r="V82" s="191"/>
-      <c r="W82" s="191"/>
-      <c r="X82" s="191"/>
+        <v>18</v>
+      </c>
+      <c r="D82" s="158"/>
+      <c r="E82" s="158"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="158"/>
+      <c r="H82" s="158"/>
+      <c r="I82" s="158"/>
+      <c r="J82" s="158"/>
+      <c r="K82" s="158"/>
+      <c r="L82" s="158"/>
+      <c r="M82" s="158"/>
+      <c r="N82" s="158"/>
+      <c r="O82" s="158"/>
+      <c r="P82" s="158"/>
+      <c r="Q82" s="158"/>
+      <c r="R82" s="158"/>
+      <c r="S82" s="158"/>
+      <c r="T82" s="158"/>
+      <c r="U82" s="158"/>
+      <c r="V82" s="158"/>
+      <c r="W82" s="158"/>
+      <c r="X82" s="158"/>
     </row>
     <row r="83" spans="1:45">
-      <c r="A83" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="129" t="s">
+      <c r="A83" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="129">
-        <v>5</v>
-      </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="202"/>
-      <c r="L83" s="91"/>
-      <c r="M83" s="91"/>
-      <c r="N83" s="91"/>
-      <c r="O83" s="91"/>
-      <c r="P83" s="91"/>
-      <c r="Q83" s="91"/>
-      <c r="R83" s="91"/>
-      <c r="S83" s="91"/>
-      <c r="T83" s="91"/>
-      <c r="U83" s="91"/>
-      <c r="V83" s="91"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91"/>
+      <c r="C83" s="128">
+        <v>6</v>
+      </c>
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="162"/>
+      <c r="L83" s="90"/>
+      <c r="M83" s="90"/>
+      <c r="N83" s="90"/>
+      <c r="O83" s="90"/>
+      <c r="P83" s="90"/>
+      <c r="Q83" s="90"/>
+      <c r="R83" s="90"/>
+      <c r="S83" s="90"/>
+      <c r="T83" s="90"/>
+      <c r="U83" s="90"/>
+      <c r="V83" s="90"/>
+      <c r="W83" s="90"/>
+      <c r="X83" s="90"/>
     </row>
     <row r="84" spans="1:45">
-      <c r="A84" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="129" t="s">
+      <c r="A84" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="129">
-        <v>10</v>
-      </c>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="91"/>
-      <c r="T84" s="91"/>
-      <c r="U84" s="91"/>
-      <c r="V84" s="91"/>
-      <c r="W84" s="202"/>
-      <c r="X84" s="202"/>
-    </row>
-    <row r="85" spans="1:45">
-      <c r="A85" s="156"/>
-      <c r="B85" s="155"/>
-      <c r="C85" s="155"/>
-      <c r="D85" s="157"/>
-      <c r="E85" s="157"/>
-      <c r="F85" s="157"/>
-      <c r="G85" s="157"/>
-      <c r="H85" s="157"/>
-      <c r="I85" s="157"/>
-      <c r="J85" s="157"/>
-      <c r="K85" s="157"/>
-      <c r="L85" s="157"/>
-      <c r="M85" s="157"/>
-      <c r="N85" s="157"/>
-      <c r="O85" s="157"/>
-      <c r="P85" s="157"/>
-      <c r="Q85" s="157"/>
-      <c r="R85" s="157"/>
-      <c r="S85" s="157"/>
-      <c r="T85" s="157"/>
-      <c r="U85" s="157"/>
-      <c r="V85" s="157"/>
-      <c r="W85" s="157"/>
-      <c r="X85" s="157"/>
-    </row>
-    <row r="86" spans="1:45" s="158" customFormat="1">
-      <c r="A86" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="167"/>
-      <c r="C86" s="167">
-        <f>SUM(C87:C89)</f>
-        <v>155</v>
-      </c>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112"/>
-      <c r="H86" s="112"/>
-      <c r="I86" s="112"/>
-      <c r="J86" s="112"/>
-      <c r="K86" s="112"/>
-      <c r="L86" s="112"/>
-      <c r="M86" s="112"/>
-      <c r="N86" s="112"/>
-      <c r="O86" s="112"/>
-      <c r="P86" s="112"/>
-      <c r="Q86" s="112"/>
-      <c r="R86" s="112"/>
-      <c r="S86" s="112"/>
-      <c r="T86" s="112"/>
-      <c r="U86" s="112"/>
-      <c r="V86" s="112"/>
-      <c r="W86" s="112"/>
-      <c r="X86" s="112"/>
+      <c r="C84" s="128">
+        <v>12</v>
+      </c>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="90"/>
+      <c r="I84" s="90"/>
+      <c r="J84" s="90"/>
+      <c r="K84" s="90"/>
+      <c r="L84" s="90"/>
+      <c r="M84" s="90"/>
+      <c r="N84" s="90"/>
+      <c r="O84" s="90"/>
+      <c r="P84" s="90"/>
+      <c r="Q84" s="90"/>
+      <c r="R84" s="90"/>
+      <c r="S84" s="90"/>
+      <c r="T84" s="90"/>
+      <c r="U84" s="90"/>
+      <c r="V84" s="90"/>
+      <c r="W84" s="162"/>
+      <c r="X84" s="162"/>
+    </row>
+    <row r="85" spans="1:45" ht="6" customHeight="1">
+      <c r="A85" s="153"/>
+      <c r="B85" s="152"/>
+      <c r="C85" s="152"/>
+      <c r="D85" s="154"/>
+      <c r="E85" s="154"/>
+      <c r="F85" s="154"/>
+      <c r="G85" s="154"/>
+      <c r="H85" s="154"/>
+      <c r="I85" s="154"/>
+      <c r="J85" s="154"/>
+      <c r="K85" s="154"/>
+      <c r="L85" s="154"/>
+      <c r="M85" s="154"/>
+      <c r="N85" s="154"/>
+      <c r="O85" s="154"/>
+      <c r="P85" s="154"/>
+      <c r="Q85" s="154"/>
+      <c r="R85" s="154"/>
+      <c r="S85" s="154"/>
+      <c r="T85" s="154"/>
+      <c r="U85" s="154"/>
+      <c r="V85" s="154"/>
+      <c r="W85" s="154"/>
+      <c r="X85" s="154"/>
+    </row>
+    <row r="86" spans="1:45" s="112" customFormat="1">
+      <c r="A86" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="230"/>
+      <c r="C86" s="230">
+        <f>SUM(C87)</f>
+        <v>32</v>
+      </c>
+      <c r="D86" s="231"/>
+      <c r="E86" s="231"/>
+      <c r="F86" s="231"/>
+      <c r="G86" s="232"/>
+      <c r="H86" s="232"/>
+      <c r="I86" s="232"/>
+      <c r="J86" s="232"/>
+      <c r="K86" s="232"/>
+      <c r="L86" s="232"/>
+      <c r="M86" s="232"/>
+      <c r="N86" s="232"/>
+      <c r="O86" s="232"/>
+      <c r="P86" s="232"/>
+      <c r="Q86" s="232"/>
+      <c r="R86" s="233"/>
+      <c r="S86" s="233"/>
+      <c r="T86" s="233"/>
+      <c r="U86" s="233"/>
+      <c r="V86" s="233"/>
+      <c r="W86" s="232"/>
+      <c r="X86" s="232"/>
+      <c r="Y86" s="61"/>
+      <c r="Z86" s="61"/>
+      <c r="AA86" s="61"/>
+      <c r="AB86" s="61"/>
+      <c r="AC86" s="61"/>
+      <c r="AD86" s="61"/>
+      <c r="AE86" s="61"/>
+      <c r="AF86" s="61"/>
+      <c r="AG86" s="61"/>
+      <c r="AH86" s="61"/>
+      <c r="AI86" s="61"/>
+      <c r="AJ86" s="61"/>
+      <c r="AK86" s="61"/>
+      <c r="AL86" s="61"/>
+      <c r="AM86" s="61"/>
+      <c r="AN86" s="61"/>
+      <c r="AO86" s="61"/>
+      <c r="AP86" s="61"/>
+      <c r="AQ86" s="61"/>
+      <c r="AR86" s="61"/>
+      <c r="AS86" s="61"/>
     </row>
     <row r="87" spans="1:45">
-      <c r="A87" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="B87" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="129">
-        <v>15</v>
-      </c>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="91"/>
-      <c r="K87" s="91"/>
-      <c r="L87" s="91"/>
-      <c r="M87" s="91"/>
-      <c r="N87" s="91"/>
-      <c r="O87" s="90"/>
-      <c r="P87" s="90"/>
-      <c r="Q87" s="90"/>
-      <c r="R87" s="90"/>
-      <c r="S87" s="90"/>
-      <c r="T87" s="91"/>
-      <c r="U87" s="91"/>
-      <c r="V87" s="91"/>
-      <c r="W87" s="91"/>
-      <c r="X87" s="91"/>
-    </row>
-    <row r="88" spans="1:45">
-      <c r="A88" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="C88" s="129">
-        <v>40</v>
-      </c>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91"/>
-      <c r="J88" s="91"/>
-      <c r="K88" s="91"/>
-      <c r="L88" s="91"/>
-      <c r="M88" s="91"/>
-      <c r="N88" s="91"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90"/>
-      <c r="S88" s="90"/>
-      <c r="T88" s="91"/>
-      <c r="U88" s="91"/>
-      <c r="V88" s="91"/>
-      <c r="W88" s="91"/>
-      <c r="X88" s="91"/>
-    </row>
-    <row r="89" spans="1:45">
-      <c r="A89" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="B89" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" s="129">
-        <v>100</v>
-      </c>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="91"/>
-      <c r="L89" s="91"/>
-      <c r="M89" s="91"/>
-      <c r="N89" s="91"/>
-      <c r="O89" s="90"/>
-      <c r="P89" s="90"/>
-      <c r="Q89" s="90"/>
-      <c r="R89" s="90"/>
-      <c r="S89" s="90"/>
-      <c r="T89" s="91"/>
-      <c r="U89" s="91"/>
-      <c r="V89" s="91"/>
-      <c r="W89" s="91"/>
-      <c r="X89" s="91"/>
-    </row>
-    <row r="90" spans="1:45">
-      <c r="A90" s="173"/>
-      <c r="B90" s="173"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
-      <c r="E90" s="173"/>
-      <c r="F90" s="173"/>
-      <c r="G90" s="173"/>
-      <c r="H90" s="173"/>
-      <c r="I90" s="173"/>
-      <c r="J90" s="173"/>
-      <c r="K90" s="173"/>
-      <c r="L90" s="173"/>
-      <c r="M90" s="173"/>
-      <c r="N90" s="173"/>
-      <c r="O90" s="173"/>
-      <c r="P90" s="173"/>
-      <c r="Q90" s="173"/>
-      <c r="R90" s="173"/>
-      <c r="S90" s="173"/>
-      <c r="T90" s="173"/>
-      <c r="U90" s="173"/>
-      <c r="V90" s="173"/>
-      <c r="W90" s="173"/>
-      <c r="X90" s="173"/>
-    </row>
-    <row r="91" spans="1:45" s="113" customFormat="1">
-      <c r="A91" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="B91" s="161"/>
-      <c r="C91" s="161">
-        <f>SUM(C92)</f>
-        <v>42</v>
-      </c>
-      <c r="D91" s="162"/>
-      <c r="E91" s="162"/>
-      <c r="F91" s="162"/>
-      <c r="G91" s="163"/>
-      <c r="H91" s="163"/>
-      <c r="I91" s="163"/>
-      <c r="J91" s="163"/>
-      <c r="K91" s="163"/>
-      <c r="L91" s="163"/>
-      <c r="M91" s="163"/>
-      <c r="N91" s="163"/>
-      <c r="O91" s="163"/>
-      <c r="P91" s="163"/>
-      <c r="Q91" s="163"/>
-      <c r="R91" s="164"/>
-      <c r="S91" s="164"/>
-      <c r="T91" s="164"/>
-      <c r="U91" s="164"/>
-      <c r="V91" s="164"/>
-      <c r="W91" s="163"/>
-      <c r="X91" s="163"/>
-      <c r="Y91" s="61"/>
-      <c r="Z91" s="61"/>
-      <c r="AA91" s="61"/>
-      <c r="AB91" s="61"/>
-      <c r="AC91" s="61"/>
-      <c r="AD91" s="61"/>
-      <c r="AE91" s="61"/>
-      <c r="AF91" s="61"/>
-      <c r="AG91" s="61"/>
-      <c r="AH91" s="61"/>
-      <c r="AI91" s="61"/>
-      <c r="AJ91" s="61"/>
-      <c r="AK91" s="61"/>
-      <c r="AL91" s="61"/>
-      <c r="AM91" s="61"/>
-      <c r="AN91" s="61"/>
-      <c r="AO91" s="61"/>
-      <c r="AP91" s="61"/>
-      <c r="AQ91" s="61"/>
-      <c r="AR91" s="61"/>
-      <c r="AS91" s="61"/>
+      <c r="A87" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63">
+        <v>32</v>
+      </c>
+      <c r="D87" s="234"/>
+      <c r="E87" s="234"/>
+      <c r="F87" s="234"/>
+      <c r="G87" s="234"/>
+      <c r="H87" s="234"/>
+      <c r="I87" s="234"/>
+      <c r="J87" s="234"/>
+      <c r="K87" s="234"/>
+      <c r="L87" s="234"/>
+      <c r="M87" s="234"/>
+      <c r="N87" s="234"/>
+      <c r="O87" s="235"/>
+      <c r="P87" s="235"/>
+      <c r="Q87" s="235"/>
+      <c r="R87" s="235"/>
+      <c r="S87" s="235"/>
+      <c r="T87" s="234"/>
+      <c r="U87" s="234"/>
+      <c r="V87" s="234"/>
+      <c r="W87" s="234"/>
+      <c r="X87" s="234"/>
+    </row>
+    <row r="91" spans="1:45">
+      <c r="A91" s="197"/>
+      <c r="B91" s="197"/>
+      <c r="C91" s="197"/>
+      <c r="D91" s="197"/>
+      <c r="E91" s="197"/>
+      <c r="F91" s="197"/>
+      <c r="G91" s="197"/>
+      <c r="H91" s="197"/>
+      <c r="I91" s="197"/>
+      <c r="J91" s="197"/>
+      <c r="K91" s="197"/>
+      <c r="L91" s="197"/>
+      <c r="M91" s="197"/>
+      <c r="N91" s="197"/>
+      <c r="O91" s="197"/>
+      <c r="P91" s="197"/>
+      <c r="Q91" s="197"/>
+      <c r="R91" s="197"/>
+      <c r="S91" s="197"/>
+      <c r="T91" s="197"/>
+      <c r="U91" s="197"/>
+      <c r="V91" s="197"/>
+      <c r="W91" s="197"/>
+      <c r="X91" s="197"/>
     </row>
     <row r="92" spans="1:45">
-      <c r="A92" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="63">
-        <v>42</v>
-      </c>
-      <c r="D92" s="165"/>
-      <c r="E92" s="165"/>
-      <c r="F92" s="165"/>
-      <c r="G92" s="165"/>
-      <c r="H92" s="165"/>
-      <c r="I92" s="165"/>
-      <c r="J92" s="165"/>
-      <c r="K92" s="165"/>
-      <c r="L92" s="165"/>
-      <c r="M92" s="165"/>
-      <c r="N92" s="165"/>
-      <c r="O92" s="159"/>
-      <c r="P92" s="159"/>
-      <c r="Q92" s="159"/>
-      <c r="R92" s="159"/>
-      <c r="S92" s="159"/>
-      <c r="T92" s="165"/>
-      <c r="U92" s="165"/>
-      <c r="V92" s="165"/>
-      <c r="W92" s="165"/>
-      <c r="X92" s="165"/>
+      <c r="A92" s="189"/>
+      <c r="B92" s="190"/>
+      <c r="C92" s="190"/>
+      <c r="D92" s="189"/>
+      <c r="E92" s="189"/>
+      <c r="F92" s="189"/>
+      <c r="G92" s="189"/>
+      <c r="H92" s="189"/>
+      <c r="I92" s="189"/>
+      <c r="J92" s="189"/>
+      <c r="K92" s="189"/>
+      <c r="L92" s="189"/>
+      <c r="M92" s="189"/>
+      <c r="N92" s="189"/>
+      <c r="O92" s="189"/>
+      <c r="P92" s="189"/>
+      <c r="Q92" s="189"/>
+      <c r="R92" s="189"/>
+      <c r="S92" s="189"/>
+      <c r="T92" s="189"/>
+      <c r="U92" s="189"/>
+      <c r="V92" s="189"/>
+      <c r="W92" s="189"/>
+      <c r="X92" s="189"/>
     </row>
     <row r="93" spans="1:45">
-      <c r="C93" s="124">
-        <f>SUM(C91,C74,C61,C47,C36,C27,C86,C82)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="96" spans="1:45">
-      <c r="A96" s="179"/>
-      <c r="B96" s="179"/>
-      <c r="C96" s="179"/>
-      <c r="D96" s="179"/>
-      <c r="E96" s="179"/>
-      <c r="F96" s="179"/>
-      <c r="G96" s="179"/>
-      <c r="H96" s="179"/>
-      <c r="I96" s="179"/>
-      <c r="J96" s="179"/>
-      <c r="K96" s="179"/>
-      <c r="L96" s="179"/>
-      <c r="M96" s="179"/>
-      <c r="N96" s="179"/>
-      <c r="O96" s="179"/>
-      <c r="P96" s="179"/>
-      <c r="Q96" s="179"/>
-      <c r="R96" s="179"/>
-      <c r="S96" s="179"/>
-      <c r="T96" s="179"/>
-      <c r="U96" s="179"/>
-      <c r="V96" s="179"/>
-      <c r="W96" s="179"/>
-      <c r="X96" s="179"/>
-    </row>
-    <row r="97" spans="1:24">
-      <c r="A97" s="169"/>
-      <c r="B97" s="168"/>
-      <c r="C97" s="168"/>
-      <c r="D97" s="169"/>
-      <c r="E97" s="169"/>
-      <c r="F97" s="169"/>
-      <c r="G97" s="169"/>
-      <c r="H97" s="169"/>
-      <c r="I97" s="169"/>
-      <c r="J97" s="169"/>
-      <c r="K97" s="169"/>
-      <c r="L97" s="169"/>
-      <c r="M97" s="169"/>
-      <c r="N97" s="169"/>
-      <c r="O97" s="169"/>
-      <c r="P97" s="169"/>
-      <c r="Q97" s="169"/>
-      <c r="R97" s="169"/>
-      <c r="S97" s="169"/>
-      <c r="T97" s="169"/>
-      <c r="U97" s="169"/>
-      <c r="V97" s="169"/>
-      <c r="W97" s="169"/>
-      <c r="X97" s="169"/>
-    </row>
-    <row r="98" spans="1:24">
-      <c r="A98" s="169"/>
-      <c r="B98" s="168"/>
-      <c r="C98" s="168"/>
-      <c r="D98" s="169"/>
-      <c r="E98" s="169"/>
-      <c r="F98" s="169"/>
-      <c r="G98" s="169"/>
-      <c r="H98" s="169"/>
-      <c r="I98" s="169"/>
-      <c r="J98" s="169"/>
-      <c r="K98" s="169"/>
-      <c r="L98" s="169"/>
-      <c r="M98" s="169"/>
-      <c r="N98" s="169"/>
-      <c r="O98" s="169"/>
-      <c r="P98" s="169"/>
-      <c r="Q98" s="169"/>
-      <c r="R98" s="169"/>
-      <c r="S98" s="169"/>
-      <c r="T98" s="169"/>
-      <c r="U98" s="169"/>
-      <c r="V98" s="169"/>
-      <c r="W98" s="169"/>
-      <c r="X98" s="169"/>
+      <c r="A93" s="189"/>
+      <c r="B93" s="190"/>
+      <c r="C93" s="190"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="189"/>
+      <c r="F93" s="189"/>
+      <c r="G93" s="189"/>
+      <c r="H93" s="189"/>
+      <c r="I93" s="189"/>
+      <c r="J93" s="189"/>
+      <c r="K93" s="189"/>
+      <c r="L93" s="189"/>
+      <c r="M93" s="189"/>
+      <c r="N93" s="189"/>
+      <c r="O93" s="189"/>
+      <c r="P93" s="189"/>
+      <c r="Q93" s="189"/>
+      <c r="R93" s="189"/>
+      <c r="S93" s="189"/>
+      <c r="T93" s="189"/>
+      <c r="U93" s="189"/>
+      <c r="V93" s="189"/>
+      <c r="W93" s="189"/>
+      <c r="X93" s="189"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A92:X92"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="A61:X61"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D21:X21"/>
     <mergeCell ref="O22:S22"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A98:X98"/>
+    <mergeCell ref="A93:X93"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A26:X26"/>
-    <mergeCell ref="A35:X35"/>
-    <mergeCell ref="A46:X46"/>
-    <mergeCell ref="A73:X73"/>
-    <mergeCell ref="A96:X96"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A47:X47"/>
+    <mergeCell ref="A75:X75"/>
+    <mergeCell ref="A91:X91"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A97:X97"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="A90:X90"/>
-    <mergeCell ref="A60:X60"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D21:X21"/>
   </mergeCells>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5579,7 +5424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5591,7 +5436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A49">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5603,7 +5448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A54">
+  <conditionalFormatting sqref="A53:A55">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5615,7 +5460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A64">
+  <conditionalFormatting sqref="A64:A65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5633,210 +5478,871 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A65E51-5950-476F-8AAD-D80644D6813A}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21104619-9600-4A6F-A028-807EB456698F}">
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="2" max="3" width="7.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="97.8" customHeight="1">
+      <c r="A1" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="216" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="217" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127">
+        <f>SUM(C3:C3,C6,C7,C8,C9,C10,C4,C5)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="129">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="6.6" customHeight="1">
+      <c r="A11" s="193"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131">
+        <f>SUM(C18,C13)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="132">
+        <f>SUM(C14:C17)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="126" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="128">
+        <f>SUM(C19:C21)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="6.6" customHeight="1">
+      <c r="A22" s="193"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134">
+        <f>SUM(C24,C28,C32,C35)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="132">
+        <f>SUM(C25:C27)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="132">
+        <f>SUM(C29:C31)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="132">
+        <f>SUM(C33:C34)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="222" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="223"/>
+      <c r="C34" s="223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="6.6" customHeight="1">
+      <c r="A36" s="193"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135">
+        <f>SUM(C38,C45,C49)</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="132">
+        <f>SUM(C39:C44)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="129">
+        <f>SUM(C46:C48)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="133">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="6.6" customHeight="1">
+      <c r="A50" s="195"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136">
+        <f>SUM(C52:C55)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="221" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="221" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="128">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="128">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="221" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="6.6" customHeight="1">
+      <c r="A56" s="153"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="152"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="157"/>
+      <c r="C57" s="157">
+        <f>SUM(C58:C59)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="6.6" customHeight="1">
+      <c r="A60" s="153"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="152"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="230"/>
+      <c r="C61" s="230">
+        <f>SUM(C62)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="61"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A50:C50"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A40">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A65E51-5950-476F-8AAD-D80644D6813A}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" style="203" customWidth="1"/>
-    <col min="2" max="2" width="13" style="206" customWidth="1"/>
-    <col min="3" max="3" width="13" style="207" customWidth="1"/>
-    <col min="4" max="4" width="13" style="219" customWidth="1"/>
-    <col min="5" max="5" width="13" style="207" customWidth="1"/>
-    <col min="6" max="16384" width="11.19921875" style="203"/>
+    <col min="1" max="1" width="20.59765625" style="163" customWidth="1"/>
+    <col min="2" max="2" width="13" style="166" customWidth="1"/>
+    <col min="3" max="3" width="13" style="167" customWidth="1"/>
+    <col min="4" max="4" width="13" style="179" customWidth="1"/>
+    <col min="5" max="5" width="13" style="167" customWidth="1"/>
+    <col min="6" max="16384" width="11.19921875" style="163"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1">
-      <c r="A1" s="213" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="214" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="215" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="216" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="215" t="s">
-        <v>177</v>
+      <c r="A1" s="173" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="174" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="175" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="176" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="175" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="208" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="209">
+      <c r="A2" s="168" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="169">
         <f>Terminplanung!C27</f>
-        <v>44</v>
-      </c>
-      <c r="C2" s="210">
-        <f>B2/B9*100</f>
-        <v>5.8047493403693933</v>
-      </c>
-      <c r="D2" s="217">
+        <v>49</v>
+      </c>
+      <c r="C2" s="170">
+        <f>B2/B8*100</f>
+        <v>6.5508021390374331</v>
+      </c>
+      <c r="D2" s="177">
         <f>B2*119</f>
-        <v>5236</v>
-      </c>
-      <c r="E2" s="210">
-        <f>D2/D9*100</f>
-        <v>9.7345132743362832</v>
+        <v>5831</v>
+      </c>
+      <c r="E2" s="170">
+        <f>D2/D8*100</f>
+        <v>10.927046830200702</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="209">
-        <f>Terminplanung!C36</f>
+      <c r="B3" s="169">
+        <f>Terminplanung!C37</f>
         <v>51</v>
       </c>
-      <c r="C3" s="210">
-        <f>B3/B9*100</f>
-        <v>6.7282321899736157</v>
-      </c>
-      <c r="D3" s="217">
+      <c r="C3" s="170">
+        <f>B3/B8*100</f>
+        <v>6.8181818181818175</v>
+      </c>
+      <c r="D3" s="177">
         <f>B3*68</f>
         <v>3468</v>
       </c>
-      <c r="E3" s="210">
-        <f>D3/D9*100</f>
-        <v>6.4475347661188369</v>
+      <c r="E3" s="170">
+        <f>D3/D8*100</f>
+        <v>6.4988849952214087</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="209">
-        <f>Terminplanung!C47</f>
-        <v>113</v>
-      </c>
-      <c r="C4" s="210">
-        <f>B4/B9*100</f>
-        <v>14.907651715039577</v>
-      </c>
-      <c r="D4" s="217">
-        <f t="shared" ref="D4:D8" si="0">B4*68</f>
-        <v>7684</v>
-      </c>
-      <c r="E4" s="210">
-        <f>D4/D9*100</f>
-        <v>14.285714285714285</v>
+      <c r="B4" s="169">
+        <f>Terminplanung!C48</f>
+        <v>122</v>
+      </c>
+      <c r="C4" s="170">
+        <f>B4/B8*100</f>
+        <v>16.310160427807489</v>
+      </c>
+      <c r="D4" s="177">
+        <f t="shared" ref="D4:D7" si="0">B4*68</f>
+        <v>8296</v>
+      </c>
+      <c r="E4" s="170">
+        <f>D4/D8*100</f>
+        <v>15.546352341510037</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="209">
-        <f>Terminplanung!C61</f>
-        <v>260</v>
-      </c>
-      <c r="C5" s="210">
-        <f>B5/B9*100</f>
-        <v>34.300791556728235</v>
-      </c>
-      <c r="D5" s="217">
+      <c r="B5" s="169">
+        <f>Terminplanung!C62</f>
+        <v>380</v>
+      </c>
+      <c r="C5" s="170">
+        <f>B5/B8*100</f>
+        <v>50.802139037433157</v>
+      </c>
+      <c r="D5" s="177">
         <f t="shared" si="0"/>
-        <v>17680</v>
-      </c>
-      <c r="E5" s="210">
-        <f>D5/D9*100</f>
-        <v>32.869785082174459</v>
-      </c>
-      <c r="F5" s="204">
-        <f>SUM(E5,E7,E8)</f>
-        <v>54.361567635903917</v>
-      </c>
+        <v>25840</v>
+      </c>
+      <c r="E5" s="170">
+        <f>D5/D8*100</f>
+        <v>48.423064670277164</v>
+      </c>
+      <c r="F5" s="164"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="209">
-        <f>Terminplanung!C74</f>
-        <v>120</v>
-      </c>
-      <c r="C6" s="210">
-        <f>B6/B9*100</f>
-        <v>15.831134564643801</v>
-      </c>
-      <c r="D6" s="217">
+      <c r="B6" s="169">
+        <f>Terminplanung!C76</f>
+        <v>128</v>
+      </c>
+      <c r="C6" s="170">
+        <f>B6/B8*100</f>
+        <v>17.112299465240639</v>
+      </c>
+      <c r="D6" s="177">
         <f t="shared" si="0"/>
-        <v>8160</v>
-      </c>
-      <c r="E6" s="210">
-        <f>D6/D9*100</f>
-        <v>15.170670037926676</v>
+        <v>8704</v>
+      </c>
+      <c r="E6" s="170">
+        <f>D6/D8*100</f>
+        <v>16.310927046830201</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="208" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="209">
+      <c r="A7" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="169">
         <f>Terminplanung!C82</f>
-        <v>15</v>
-      </c>
-      <c r="C7" s="210">
-        <f>B7/B9*100</f>
-        <v>1.9788918205804751</v>
-      </c>
-      <c r="D7" s="217">
+        <v>18</v>
+      </c>
+      <c r="C7" s="170">
+        <f>B7/B8*100</f>
+        <v>2.4064171122994651</v>
+      </c>
+      <c r="D7" s="177">
         <f t="shared" si="0"/>
-        <v>1020</v>
-      </c>
-      <c r="E7" s="210">
-        <f>D7/D9*100</f>
-        <v>1.8963337547408345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="208" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="209">
-        <f>Terminplanung!C86</f>
-        <v>155</v>
-      </c>
-      <c r="C8" s="210">
-        <f>B8/B9*100</f>
-        <v>20.448548812664907</v>
-      </c>
-      <c r="D8" s="217">
-        <f t="shared" si="0"/>
-        <v>10540</v>
-      </c>
-      <c r="E8" s="210">
-        <f>D8/D9*100</f>
-        <v>19.59544879898862</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="205" customFormat="1">
-      <c r="A9" s="227" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E7" s="170">
+        <f>D7/D8*100</f>
+        <v>2.2937241159604969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="165" customFormat="1">
+      <c r="A8" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="211">
-        <f xml:space="preserve"> SUM(B2:B8)</f>
-        <v>758</v>
-      </c>
-      <c r="C9" s="212">
-        <f xml:space="preserve"> SUM(C2:C8)</f>
+      <c r="B8" s="171">
+        <f xml:space="preserve"> SUM(B2:B7)</f>
+        <v>748</v>
+      </c>
+      <c r="C8" s="172">
+        <f xml:space="preserve"> SUM(C2:C7)</f>
         <v>100</v>
       </c>
-      <c r="D9" s="218">
-        <f xml:space="preserve"> SUM(D2:D8)</f>
-        <v>53788</v>
-      </c>
-      <c r="E9" s="212">
-        <f xml:space="preserve"> SUM(E2:E8)</f>
-        <v>100</v>
+      <c r="D8" s="178">
+        <f xml:space="preserve"> SUM(D2:D7)</f>
+        <v>53363</v>
+      </c>
+      <c r="E8" s="172">
+        <f xml:space="preserve"> SUM(E2:E7)</f>
+        <v>100.00000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5844,7 +6350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F88"/>
   <sheetViews>
@@ -5864,24 +6370,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="19.2" customHeight="1">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
     </row>
     <row r="3" spans="2:6" ht="21.45" customHeight="1">
-      <c r="B3" s="180"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="182"/>
+      <c r="F3" s="208"/>
     </row>
     <row r="4" spans="2:6" s="42" customFormat="1" ht="21.45" customHeight="1">
       <c r="B4" s="43" t="s">
@@ -7413,27 +7919,27 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="188"/>
-      <c r="C84" s="188"/>
-      <c r="D84" s="188"/>
-      <c r="E84" s="188"/>
-      <c r="F84" s="188"/>
+      <c r="B84" s="214"/>
+      <c r="C84" s="214"/>
+      <c r="D84" s="214"/>
+      <c r="E84" s="214"/>
+      <c r="F84" s="214"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="187"/>
-      <c r="C85" s="187"/>
-      <c r="D85" s="187"/>
-      <c r="E85" s="189"/>
-      <c r="F85" s="189"/>
+      <c r="B85" s="213"/>
+      <c r="C85" s="213"/>
+      <c r="D85" s="213"/>
+      <c r="E85" s="215"/>
+      <c r="F85" s="215"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="183" t="s">
+      <c r="B86" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="184"/>
-      <c r="D86" s="185"/>
-      <c r="E86" s="189"/>
-      <c r="F86" s="189"/>
+      <c r="C86" s="210"/>
+      <c r="D86" s="211"/>
+      <c r="E86" s="215"/>
+      <c r="F86" s="215"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="1" t="s">
@@ -7445,8 +7951,8 @@
       <c r="D87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="189"/>
-      <c r="F87" s="189"/>
+      <c r="E87" s="215"/>
+      <c r="F87" s="215"/>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="1" t="s">
@@ -7458,8 +7964,8 @@
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="189"/>
-      <c r="F88" s="189"/>
+      <c r="E88" s="215"/>
+      <c r="F88" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7934,6 +8440,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </if6c3b60cb7946a497c90999f960d465>
+    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -8090,17 +8607,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <if6c3b60cb7946a497c90999f960d465 xmlns="ae84a682-57c0-4245-9851-92a7533be2d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </if6c3b60cb7946a497c90999f960d465>
-    <TaxCatchAll xmlns="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8111,6 +8617,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8129,23 +8652,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B28818-B76C-46BC-8AB6-BCD2AB0F7DDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e4c5f5f2-958c-44bd-9179-f1c43ce55659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae84a682-57c0-4245-9851-92a7533be2d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
   <ds:schemaRefs>

--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB2D15-CA62-42A5-8FDA-E2FFF96288CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB8AF7D-EC6A-43F6-8F9D-A0487E962790}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,###\ &quot;PT&quot;"/>
     <numFmt numFmtId="166" formatCode="#,###\ &quot;PW&quot;"/>
-    <numFmt numFmtId="168" formatCode="0\'000.00"/>
+    <numFmt numFmtId="167" formatCode="0\'000.00"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -961,16 +961,16 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1003,70 +1003,70 @@
     <xf numFmtId="165" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8"/>
@@ -1407,35 +1407,35 @@
       <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="139"/>
+      <c r="A2" s="140"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
-      <c r="D2" s="141">
+      <c r="D2" s="155">
         <v>2019</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="143"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="157"/>
     </row>
     <row r="3" spans="1:24" ht="15.45" customHeight="1">
-      <c r="A3" s="139"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="88"/>
       <c r="C3" s="88"/>
       <c r="D3" s="3" t="s">
@@ -1471,13 +1471,13 @@
       <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="141" t="s">
+      <c r="O3" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
       <c r="T3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="139"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
       <c r="D4" s="3">
@@ -1595,37 +1595,37 @@
       <c r="X6" s="56"/>
     </row>
     <row r="7" spans="1:24" ht="6" customHeight="1">
-      <c r="A7" s="147"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="54" t="s">
         <v>2</v>
       </c>
@@ -1651,11 +1651,11 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="151"/>
       <c r="D9" s="2"/>
       <c r="E9" s="54" t="s">
         <v>2</v>
@@ -1681,11 +1681,11 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="138"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="151"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1711,11 +1711,11 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1741,11 +1741,11 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1771,11 +1771,11 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="154"/>
-      <c r="C13" s="155"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1801,11 +1801,11 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="151"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1830,11 +1830,11 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="151"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1860,11 +1860,11 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="151"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1890,11 +1890,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1974,10 +1974,10 @@
       <c r="X19" s="84"/>
     </row>
     <row r="20" spans="1:25" ht="22.2" customHeight="1">
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="146" t="s">
+      <c r="C20" s="158" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="63"/>
@@ -2003,35 +2003,35 @@
       <c r="X20" s="63"/>
     </row>
     <row r="21" spans="1:25" ht="14.4" customHeight="1">
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="141">
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="155">
         <v>2019</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="142"/>
-      <c r="W21" s="142"/>
-      <c r="X21" s="143"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="157"/>
     </row>
     <row r="22" spans="1:25" ht="14.4" customHeight="1">
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
@@ -2065,13 +2065,13 @@
       <c r="N22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="141" t="s">
+      <c r="O22" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
       <c r="T22" s="3" t="s">
         <v>22</v>
       </c>
@@ -2090,8 +2090,8 @@
     </row>
     <row r="23" spans="1:25" ht="14.4" customHeight="1">
       <c r="A23" s="121"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="3">
         <v>18.02</v>
       </c>
@@ -2159,8 +2159,8 @@
     </row>
     <row r="24" spans="1:25" ht="6" customHeight="1">
       <c r="A24" s="121"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="121"/>
       <c r="E24" s="121"/>
       <c r="F24" s="121"/>
@@ -2188,35 +2188,35 @@
       <c r="A25" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
       <c r="Y25" s="91"/>
     </row>
     <row r="26" spans="1:25" ht="6" customHeight="1">
-      <c r="A26" s="148"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
+      <c r="A26" s="142"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="142"/>
+      <c r="S26" s="142"/>
+      <c r="T26" s="142"/>
+      <c r="U26" s="142"/>
+      <c r="V26" s="142"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="142"/>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="37" t="s">
@@ -2225,7 +2225,7 @@
       <c r="B27" s="67"/>
       <c r="C27" s="67">
         <f>SUM(C28:C28,C31,C32,C33,C34,C35,C29,C30)</f>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -2257,7 +2257,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="68">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
@@ -2289,7 +2289,7 @@
         <v>49</v>
       </c>
       <c r="C29" s="69">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
@@ -2353,7 +2353,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="42"/>
@@ -2385,7 +2385,7 @@
         <v>49</v>
       </c>
       <c r="C32" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2449,7 +2449,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2481,7 +2481,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2506,30 +2506,30 @@
       <c r="X35" s="44"/>
     </row>
     <row r="36" spans="1:24" ht="6" customHeight="1">
-      <c r="A36" s="144"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="145"/>
-      <c r="N36" s="145"/>
-      <c r="O36" s="145"/>
-      <c r="P36" s="145"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="145"/>
-      <c r="S36" s="145"/>
-      <c r="T36" s="145"/>
-      <c r="U36" s="145"/>
-      <c r="V36" s="145"/>
-      <c r="W36" s="145"/>
-      <c r="X36" s="145"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="144"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="144"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="26" t="s">
@@ -2538,7 +2538,7 @@
       <c r="B37" s="71"/>
       <c r="C37" s="71">
         <f>SUM(C43,C38)</f>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C38" s="72">
         <f>SUM(C39:C42)</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B39" s="72"/>
       <c r="C39" s="72">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B40" s="72"/>
       <c r="C40" s="72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" s="126"/>
       <c r="E40" s="126"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B41" s="72"/>
       <c r="C41" s="72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B42" s="72"/>
       <c r="C42" s="72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C43" s="68">
         <f>SUM(C44:C46)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D43" s="78"/>
       <c r="E43" s="78"/>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B45" s="70"/>
       <c r="C45" s="70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="80"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B46" s="73"/>
       <c r="C46" s="73">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -2839,30 +2839,30 @@
       <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24" ht="6" customHeight="1">
-      <c r="A47" s="144"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="145"/>
-      <c r="N47" s="145"/>
-      <c r="O47" s="145"/>
-      <c r="P47" s="145"/>
-      <c r="Q47" s="145"/>
-      <c r="R47" s="145"/>
-      <c r="S47" s="145"/>
-      <c r="T47" s="145"/>
-      <c r="U47" s="145"/>
-      <c r="V47" s="145"/>
-      <c r="W47" s="145"/>
-      <c r="X47" s="145"/>
+      <c r="A47" s="143"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
+      <c r="O47" s="144"/>
+      <c r="P47" s="144"/>
+      <c r="Q47" s="144"/>
+      <c r="R47" s="144"/>
+      <c r="S47" s="144"/>
+      <c r="T47" s="144"/>
+      <c r="U47" s="144"/>
+      <c r="V47" s="144"/>
+      <c r="W47" s="144"/>
+      <c r="X47" s="144"/>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="31" t="s">
@@ -2871,7 +2871,7 @@
       <c r="B48" s="74"/>
       <c r="C48" s="74">
         <f>SUM(C49,C53,C57,C59)</f>
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C49" s="72">
         <f>SUM(C50:C52)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B50" s="69"/>
       <c r="C50" s="69">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B51" s="69"/>
       <c r="C51" s="69">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B52" s="69"/>
       <c r="C52" s="69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C53" s="72">
         <f>SUM(C54:C56)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B54" s="69"/>
       <c r="C54" s="69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B59" s="68"/>
       <c r="C59" s="68">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D59" s="82"/>
       <c r="E59" s="82"/>
@@ -3247,30 +3247,30 @@
       <c r="X59" s="14"/>
     </row>
     <row r="60" spans="1:45" ht="6" customHeight="1">
-      <c r="A60" s="144"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="145"/>
-      <c r="L60" s="145"/>
-      <c r="M60" s="145"/>
-      <c r="N60" s="145"/>
-      <c r="O60" s="145"/>
-      <c r="P60" s="145"/>
-      <c r="Q60" s="145"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="145"/>
-      <c r="T60" s="145"/>
-      <c r="U60" s="145"/>
-      <c r="V60" s="145"/>
-      <c r="W60" s="145"/>
-      <c r="X60" s="145"/>
+      <c r="A60" s="143"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="144"/>
+      <c r="S60" s="144"/>
+      <c r="T60" s="144"/>
+      <c r="U60" s="144"/>
+      <c r="V60" s="144"/>
+      <c r="W60" s="144"/>
+      <c r="X60" s="144"/>
     </row>
     <row r="61" spans="1:45" s="35" customFormat="1">
       <c r="A61" s="45" t="s">
@@ -3279,7 +3279,7 @@
       <c r="B61" s="75"/>
       <c r="C61" s="75">
         <f>SUM(C62,C70,C74)</f>
-        <v>395</v>
+        <v>495</v>
       </c>
       <c r="D61" s="46"/>
       <c r="E61" s="46"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="C62" s="72">
         <f>SUM(C63:C69)</f>
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B63" s="72"/>
       <c r="C63" s="72">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B64" s="72"/>
       <c r="C64" s="72">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B65" s="70"/>
       <c r="C65" s="70">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B68" s="70"/>
       <c r="C68" s="70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -3557,8 +3557,8 @@
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="62"/>
-      <c r="P69" s="156"/>
-      <c r="Q69" s="156"/>
+      <c r="P69" s="136"/>
+      <c r="Q69" s="136"/>
       <c r="R69" s="62"/>
       <c r="S69" s="86"/>
       <c r="T69" s="86"/>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="C70" s="69">
         <f>SUM(C71:C73)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B71" s="70"/>
       <c r="C71" s="70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B72" s="70"/>
       <c r="C72" s="70">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B73" s="70"/>
       <c r="C73" s="70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -3698,7 +3698,7 @@
         <v>49</v>
       </c>
       <c r="C74" s="73">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
@@ -3723,30 +3723,30 @@
       <c r="X74" s="85"/>
     </row>
     <row r="75" spans="1:45" ht="6" customHeight="1">
-      <c r="A75" s="149"/>
-      <c r="B75" s="150"/>
-      <c r="C75" s="150"/>
-      <c r="D75" s="150"/>
-      <c r="E75" s="150"/>
-      <c r="F75" s="150"/>
-      <c r="G75" s="150"/>
-      <c r="H75" s="150"/>
-      <c r="I75" s="150"/>
-      <c r="J75" s="150"/>
-      <c r="K75" s="150"/>
-      <c r="L75" s="150"/>
-      <c r="M75" s="150"/>
-      <c r="N75" s="150"/>
-      <c r="O75" s="150"/>
-      <c r="P75" s="150"/>
-      <c r="Q75" s="150"/>
-      <c r="R75" s="150"/>
-      <c r="S75" s="150"/>
-      <c r="T75" s="150"/>
-      <c r="U75" s="150"/>
-      <c r="V75" s="150"/>
-      <c r="W75" s="150"/>
-      <c r="X75" s="150"/>
+      <c r="A75" s="145"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="146"/>
+      <c r="H75" s="146"/>
+      <c r="I75" s="146"/>
+      <c r="J75" s="146"/>
+      <c r="K75" s="146"/>
+      <c r="L75" s="146"/>
+      <c r="M75" s="146"/>
+      <c r="N75" s="146"/>
+      <c r="O75" s="146"/>
+      <c r="P75" s="146"/>
+      <c r="Q75" s="146"/>
+      <c r="R75" s="146"/>
+      <c r="S75" s="146"/>
+      <c r="T75" s="146"/>
+      <c r="U75" s="146"/>
+      <c r="V75" s="146"/>
+      <c r="W75" s="146"/>
+      <c r="X75" s="146"/>
     </row>
     <row r="76" spans="1:45" s="36" customFormat="1">
       <c r="A76" s="49" t="s">
@@ -3755,7 +3755,7 @@
       <c r="B76" s="76"/>
       <c r="C76" s="76">
         <f>SUM(C77:C80)</f>
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
@@ -3808,7 +3808,7 @@
         <v>50</v>
       </c>
       <c r="C77" s="72">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D77" s="65"/>
       <c r="E77" s="65"/>
@@ -3861,7 +3861,7 @@
         <v>51</v>
       </c>
       <c r="C78" s="68">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D78" s="65"/>
       <c r="E78" s="65"/>
@@ -3914,7 +3914,7 @@
         <v>51</v>
       </c>
       <c r="C79" s="68">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D79" s="65"/>
       <c r="E79" s="65"/>
@@ -3967,7 +3967,7 @@
         <v>49</v>
       </c>
       <c r="C80" s="68">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" s="65"/>
@@ -4045,7 +4045,7 @@
       <c r="B82" s="97"/>
       <c r="C82" s="97">
         <f>SUM(C83:C84)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D82" s="98"/>
       <c r="E82" s="98"/>
@@ -4109,7 +4109,7 @@
         <v>49</v>
       </c>
       <c r="C84" s="68">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30"/>
@@ -4166,7 +4166,7 @@
       <c r="B86" s="130"/>
       <c r="C86" s="130">
         <f>SUM(C87)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D86" s="131"/>
       <c r="E86" s="131"/>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D87" s="134"/>
       <c r="E87" s="134"/>
@@ -4242,85 +4242,97 @@
       <c r="X87" s="134"/>
     </row>
     <row r="91" spans="1:45">
-      <c r="A91" s="151"/>
-      <c r="B91" s="151"/>
-      <c r="C91" s="151"/>
-      <c r="D91" s="151"/>
-      <c r="E91" s="151"/>
-      <c r="F91" s="151"/>
-      <c r="G91" s="151"/>
-      <c r="H91" s="151"/>
-      <c r="I91" s="151"/>
-      <c r="J91" s="151"/>
-      <c r="K91" s="151"/>
-      <c r="L91" s="151"/>
-      <c r="M91" s="151"/>
-      <c r="N91" s="151"/>
-      <c r="O91" s="151"/>
-      <c r="P91" s="151"/>
-      <c r="Q91" s="151"/>
-      <c r="R91" s="151"/>
-      <c r="S91" s="151"/>
-      <c r="T91" s="151"/>
-      <c r="U91" s="151"/>
-      <c r="V91" s="151"/>
-      <c r="W91" s="151"/>
-      <c r="X91" s="151"/>
+      <c r="A91" s="147"/>
+      <c r="B91" s="147"/>
+      <c r="C91" s="147"/>
+      <c r="D91" s="147"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="147"/>
+      <c r="G91" s="147"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="147"/>
+      <c r="J91" s="147"/>
+      <c r="K91" s="147"/>
+      <c r="L91" s="147"/>
+      <c r="M91" s="147"/>
+      <c r="N91" s="147"/>
+      <c r="O91" s="147"/>
+      <c r="P91" s="147"/>
+      <c r="Q91" s="147"/>
+      <c r="R91" s="147"/>
+      <c r="S91" s="147"/>
+      <c r="T91" s="147"/>
+      <c r="U91" s="147"/>
+      <c r="V91" s="147"/>
+      <c r="W91" s="147"/>
+      <c r="X91" s="147"/>
     </row>
     <row r="92" spans="1:45">
-      <c r="A92" s="140"/>
-      <c r="B92" s="139"/>
-      <c r="C92" s="139"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="140"/>
-      <c r="F92" s="140"/>
-      <c r="G92" s="140"/>
-      <c r="H92" s="140"/>
-      <c r="I92" s="140"/>
-      <c r="J92" s="140"/>
-      <c r="K92" s="140"/>
-      <c r="L92" s="140"/>
-      <c r="M92" s="140"/>
-      <c r="N92" s="140"/>
-      <c r="O92" s="140"/>
-      <c r="P92" s="140"/>
-      <c r="Q92" s="140"/>
-      <c r="R92" s="140"/>
-      <c r="S92" s="140"/>
-      <c r="T92" s="140"/>
-      <c r="U92" s="140"/>
-      <c r="V92" s="140"/>
-      <c r="W92" s="140"/>
-      <c r="X92" s="140"/>
+      <c r="A92" s="139"/>
+      <c r="B92" s="140"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="139"/>
+      <c r="E92" s="139"/>
+      <c r="F92" s="139"/>
+      <c r="G92" s="139"/>
+      <c r="H92" s="139"/>
+      <c r="I92" s="139"/>
+      <c r="J92" s="139"/>
+      <c r="K92" s="139"/>
+      <c r="L92" s="139"/>
+      <c r="M92" s="139"/>
+      <c r="N92" s="139"/>
+      <c r="O92" s="139"/>
+      <c r="P92" s="139"/>
+      <c r="Q92" s="139"/>
+      <c r="R92" s="139"/>
+      <c r="S92" s="139"/>
+      <c r="T92" s="139"/>
+      <c r="U92" s="139"/>
+      <c r="V92" s="139"/>
+      <c r="W92" s="139"/>
+      <c r="X92" s="139"/>
     </row>
     <row r="93" spans="1:45">
-      <c r="A93" s="140"/>
-      <c r="B93" s="139"/>
-      <c r="C93" s="139"/>
-      <c r="D93" s="140"/>
-      <c r="E93" s="140"/>
-      <c r="F93" s="140"/>
-      <c r="G93" s="140"/>
-      <c r="H93" s="140"/>
-      <c r="I93" s="140"/>
-      <c r="J93" s="140"/>
-      <c r="K93" s="140"/>
-      <c r="L93" s="140"/>
-      <c r="M93" s="140"/>
-      <c r="N93" s="140"/>
-      <c r="O93" s="140"/>
-      <c r="P93" s="140"/>
-      <c r="Q93" s="140"/>
-      <c r="R93" s="140"/>
-      <c r="S93" s="140"/>
-      <c r="T93" s="140"/>
-      <c r="U93" s="140"/>
-      <c r="V93" s="140"/>
-      <c r="W93" s="140"/>
-      <c r="X93" s="140"/>
+      <c r="A93" s="139"/>
+      <c r="B93" s="140"/>
+      <c r="C93" s="140"/>
+      <c r="D93" s="139"/>
+      <c r="E93" s="139"/>
+      <c r="F93" s="139"/>
+      <c r="G93" s="139"/>
+      <c r="H93" s="139"/>
+      <c r="I93" s="139"/>
+      <c r="J93" s="139"/>
+      <c r="K93" s="139"/>
+      <c r="L93" s="139"/>
+      <c r="M93" s="139"/>
+      <c r="N93" s="139"/>
+      <c r="O93" s="139"/>
+      <c r="P93" s="139"/>
+      <c r="Q93" s="139"/>
+      <c r="R93" s="139"/>
+      <c r="S93" s="139"/>
+      <c r="T93" s="139"/>
+      <c r="U93" s="139"/>
+      <c r="V93" s="139"/>
+      <c r="W93" s="139"/>
+      <c r="X93" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A92:X92"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="A60:X60"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D21:X21"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="A93:X93"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A26:X26"/>
@@ -4335,18 +4347,6 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A92:X92"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="A60:X60"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D21:X21"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="colorScale" priority="40">
@@ -4417,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21104619-9600-4A6F-A028-807EB456698F}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -4431,10 +4431,10 @@
       <c r="A1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="138" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4537,9 +4537,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A11" s="144"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
     </row>
     <row r="12" spans="1:3" ht="14.4" customHeight="1">
       <c r="A12" s="26" t="s">
@@ -4639,9 +4639,9 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A22" s="144"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
     </row>
     <row r="23" spans="1:3" ht="14.4" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -4762,9 +4762,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A35" s="144"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
     </row>
     <row r="36" spans="1:3" ht="14.4" customHeight="1">
       <c r="A36" s="45" t="s">
@@ -4902,9 +4902,9 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A50" s="149"/>
-      <c r="B50" s="150"/>
-      <c r="C50" s="150"/>
+      <c r="A50" s="145"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="146"/>
     </row>
     <row r="51" spans="1:3" ht="14.4" customHeight="1">
       <c r="A51" s="49" t="s">
@@ -5108,7 +5108,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -5144,19 +5144,19 @@
       </c>
       <c r="B2" s="109">
         <f>Terminplanung!C27</f>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C2" s="110">
         <f>B2/B8*100</f>
-        <v>6.4220183486238538</v>
+        <v>6.513026052104208</v>
       </c>
       <c r="D2" s="117">
         <f>B2*119</f>
-        <v>5831</v>
+        <v>7735</v>
       </c>
       <c r="E2" s="110">
         <f>D2/D8*100</f>
-        <v>10.722100656455142</v>
+        <v>10.866969190351087</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5165,19 +5165,19 @@
       </c>
       <c r="B3" s="109">
         <f>Terminplanung!C37</f>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C3" s="110">
         <f>B3/B8*100</f>
-        <v>6.6841415465268668</v>
+        <v>7.5150300601202407</v>
       </c>
       <c r="D3" s="117">
         <f>B3*68</f>
-        <v>3468</v>
+        <v>5100</v>
       </c>
       <c r="E3" s="110">
         <f>D3/D8*100</f>
-        <v>6.3769928102532045</v>
+        <v>7.165034631000716</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5186,19 +5186,19 @@
       </c>
       <c r="B4" s="109">
         <f>Terminplanung!C48</f>
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C4" s="110">
         <f>B4/B8*100</f>
-        <v>15.989515072083879</v>
+        <v>14.729458917835672</v>
       </c>
       <c r="D4" s="117">
         <f t="shared" ref="D4:D7" si="0">B4*68</f>
-        <v>8296</v>
+        <v>9996</v>
       </c>
       <c r="E4" s="110">
         <f>D4/D8*100</f>
-        <v>15.25476711472335</v>
+        <v>14.043467876761403</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5207,19 +5207,19 @@
       </c>
       <c r="B5" s="109">
         <f>Terminplanung!C61</f>
-        <v>395</v>
+        <v>495</v>
       </c>
       <c r="C5" s="110">
         <f>B5/B8*100</f>
-        <v>51.769331585845343</v>
+        <v>49.599198396793589</v>
       </c>
       <c r="D5" s="117">
         <f t="shared" si="0"/>
-        <v>26860</v>
+        <v>33660</v>
       </c>
       <c r="E5" s="110">
         <f>D5/D8*100</f>
-        <v>49.390434510784623</v>
+        <v>47.289228564604727</v>
       </c>
       <c r="F5" s="104"/>
     </row>
@@ -5229,19 +5229,19 @@
       </c>
       <c r="B6" s="109">
         <f>Terminplanung!C76</f>
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C6" s="110">
         <f>B6/B8*100</f>
-        <v>16.775884665792923</v>
+        <v>19.238476953907817</v>
       </c>
       <c r="D6" s="117">
         <f t="shared" si="0"/>
-        <v>8704</v>
+        <v>13056</v>
       </c>
       <c r="E6" s="110">
         <f>D6/D8*100</f>
-        <v>16.005001562988433</v>
+        <v>18.342488655361837</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5250,19 +5250,19 @@
       </c>
       <c r="B7" s="109">
         <f>Terminplanung!C82</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" s="110">
         <f>B7/B8*100</f>
-        <v>2.3591087811271296</v>
+        <v>2.4048096192384771</v>
       </c>
       <c r="D7" s="117">
         <f t="shared" si="0"/>
-        <v>1224</v>
+        <v>1632</v>
       </c>
       <c r="E7" s="110">
         <f>D7/D8*100</f>
-        <v>2.2507033447952485</v>
+        <v>2.2928110819202296</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="105" customFormat="1">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="B8" s="111">
         <f xml:space="preserve"> SUM(B2:B7)</f>
-        <v>763</v>
+        <v>998</v>
       </c>
       <c r="C8" s="112">
         <f xml:space="preserve"> SUM(C2:C7)</f>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="D8" s="118">
         <f xml:space="preserve"> SUM(D2:D7)</f>
-        <v>54383</v>
+        <v>71179</v>
       </c>
       <c r="E8" s="112">
         <f xml:space="preserve"> SUM(E2:E7)</f>
@@ -5292,15 +5292,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -5457,6 +5448,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5469,14 +5469,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5491,6 +5483,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB8AF7D-EC6A-43F6-8F9D-A0487E962790}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4F7BB7-6426-4015-ABFE-7191C5BF54BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
@@ -1010,22 +1010,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,15 +1059,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1055,18 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:X87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8"/>
@@ -1407,35 +1407,35 @@
       <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="140"/>
+      <c r="A2" s="139"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
-      <c r="D2" s="155">
+      <c r="D2" s="141">
         <v>2019</v>
       </c>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="157"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="143"/>
     </row>
     <row r="3" spans="1:24" ht="15.45" customHeight="1">
-      <c r="A3" s="140"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="88"/>
       <c r="C3" s="88"/>
       <c r="D3" s="3" t="s">
@@ -1471,13 +1471,13 @@
       <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="155" t="s">
+      <c r="O3" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
       <c r="T3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="140"/>
+      <c r="A4" s="139"/>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
       <c r="D4" s="3">
@@ -1595,37 +1595,37 @@
       <c r="X6" s="56"/>
     </row>
     <row r="7" spans="1:24" ht="6" customHeight="1">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="54" t="s">
         <v>2</v>
       </c>
@@ -1651,11 +1651,11 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="151"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="148"/>
       <c r="D9" s="2"/>
       <c r="E9" s="54" t="s">
         <v>2</v>
@@ -1681,11 +1681,11 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="151"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1711,11 +1711,11 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="151"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1741,11 +1741,11 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1771,11 +1771,11 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="158"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1801,11 +1801,11 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1830,11 +1830,11 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="151"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1860,11 +1860,11 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="148"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1890,11 +1890,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1974,10 +1974,10 @@
       <c r="X19" s="84"/>
     </row>
     <row r="20" spans="1:25" ht="22.2" customHeight="1">
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="149" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="63"/>
@@ -2003,35 +2003,35 @@
       <c r="X20" s="63"/>
     </row>
     <row r="21" spans="1:25" ht="14.4" customHeight="1">
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="155">
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="141">
         <v>2019</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="156"/>
-      <c r="X21" s="157"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="142"/>
+      <c r="U21" s="142"/>
+      <c r="V21" s="142"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="143"/>
     </row>
     <row r="22" spans="1:25" ht="14.4" customHeight="1">
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
@@ -2065,13 +2065,13 @@
       <c r="N22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="155" t="s">
+      <c r="O22" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="142"/>
       <c r="T22" s="3" t="s">
         <v>22</v>
       </c>
@@ -2090,8 +2090,8 @@
     </row>
     <row r="23" spans="1:25" ht="14.4" customHeight="1">
       <c r="A23" s="121"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="3">
         <v>18.02</v>
       </c>
@@ -2159,8 +2159,8 @@
     </row>
     <row r="24" spans="1:25" ht="6" customHeight="1">
       <c r="A24" s="121"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="158"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="121"/>
       <c r="E24" s="121"/>
       <c r="F24" s="121"/>
@@ -2188,35 +2188,35 @@
       <c r="A25" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
       <c r="Y25" s="91"/>
     </row>
     <row r="26" spans="1:25" ht="6" customHeight="1">
-      <c r="A26" s="142"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="142"/>
-      <c r="R26" s="142"/>
-      <c r="S26" s="142"/>
-      <c r="T26" s="142"/>
-      <c r="U26" s="142"/>
-      <c r="V26" s="142"/>
-      <c r="W26" s="142"/>
-      <c r="X26" s="142"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="151"/>
+      <c r="S26" s="151"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="151"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="37" t="s">
@@ -2506,30 +2506,30 @@
       <c r="X35" s="44"/>
     </row>
     <row r="36" spans="1:24" ht="6" customHeight="1">
-      <c r="A36" s="143"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="144"/>
-      <c r="S36" s="144"/>
-      <c r="T36" s="144"/>
-      <c r="U36" s="144"/>
-      <c r="V36" s="144"/>
-      <c r="W36" s="144"/>
-      <c r="X36" s="144"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="145"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="145"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="26" t="s">
@@ -2839,30 +2839,30 @@
       <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24" ht="6" customHeight="1">
-      <c r="A47" s="143"/>
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
-      <c r="Q47" s="144"/>
-      <c r="R47" s="144"/>
-      <c r="S47" s="144"/>
-      <c r="T47" s="144"/>
-      <c r="U47" s="144"/>
-      <c r="V47" s="144"/>
-      <c r="W47" s="144"/>
-      <c r="X47" s="144"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="145"/>
+      <c r="P47" s="145"/>
+      <c r="Q47" s="145"/>
+      <c r="R47" s="145"/>
+      <c r="S47" s="145"/>
+      <c r="T47" s="145"/>
+      <c r="U47" s="145"/>
+      <c r="V47" s="145"/>
+      <c r="W47" s="145"/>
+      <c r="X47" s="145"/>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="31" t="s">
@@ -3247,30 +3247,30 @@
       <c r="X59" s="14"/>
     </row>
     <row r="60" spans="1:45" ht="6" customHeight="1">
-      <c r="A60" s="143"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="144"/>
-      <c r="N60" s="144"/>
-      <c r="O60" s="144"/>
-      <c r="P60" s="144"/>
-      <c r="Q60" s="144"/>
-      <c r="R60" s="144"/>
-      <c r="S60" s="144"/>
-      <c r="T60" s="144"/>
-      <c r="U60" s="144"/>
-      <c r="V60" s="144"/>
-      <c r="W60" s="144"/>
-      <c r="X60" s="144"/>
+      <c r="A60" s="144"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="145"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="145"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="145"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="145"/>
+      <c r="P60" s="145"/>
+      <c r="Q60" s="145"/>
+      <c r="R60" s="145"/>
+      <c r="S60" s="145"/>
+      <c r="T60" s="145"/>
+      <c r="U60" s="145"/>
+      <c r="V60" s="145"/>
+      <c r="W60" s="145"/>
+      <c r="X60" s="145"/>
     </row>
     <row r="61" spans="1:45" s="35" customFormat="1">
       <c r="A61" s="45" t="s">
@@ -3723,30 +3723,30 @@
       <c r="X74" s="85"/>
     </row>
     <row r="75" spans="1:45" ht="6" customHeight="1">
-      <c r="A75" s="145"/>
-      <c r="B75" s="146"/>
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="146"/>
-      <c r="G75" s="146"/>
-      <c r="H75" s="146"/>
-      <c r="I75" s="146"/>
-      <c r="J75" s="146"/>
-      <c r="K75" s="146"/>
-      <c r="L75" s="146"/>
-      <c r="M75" s="146"/>
-      <c r="N75" s="146"/>
-      <c r="O75" s="146"/>
-      <c r="P75" s="146"/>
-      <c r="Q75" s="146"/>
-      <c r="R75" s="146"/>
-      <c r="S75" s="146"/>
-      <c r="T75" s="146"/>
-      <c r="U75" s="146"/>
-      <c r="V75" s="146"/>
-      <c r="W75" s="146"/>
-      <c r="X75" s="146"/>
+      <c r="A75" s="152"/>
+      <c r="B75" s="153"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="153"/>
+      <c r="G75" s="153"/>
+      <c r="H75" s="153"/>
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="153"/>
+      <c r="L75" s="153"/>
+      <c r="M75" s="153"/>
+      <c r="N75" s="153"/>
+      <c r="O75" s="153"/>
+      <c r="P75" s="153"/>
+      <c r="Q75" s="153"/>
+      <c r="R75" s="153"/>
+      <c r="S75" s="153"/>
+      <c r="T75" s="153"/>
+      <c r="U75" s="153"/>
+      <c r="V75" s="153"/>
+      <c r="W75" s="153"/>
+      <c r="X75" s="153"/>
     </row>
     <row r="76" spans="1:45" s="36" customFormat="1">
       <c r="A76" s="49" t="s">
@@ -4242,97 +4242,85 @@
       <c r="X87" s="134"/>
     </row>
     <row r="91" spans="1:45">
-      <c r="A91" s="147"/>
-      <c r="B91" s="147"/>
-      <c r="C91" s="147"/>
-      <c r="D91" s="147"/>
-      <c r="E91" s="147"/>
-      <c r="F91" s="147"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="147"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="147"/>
-      <c r="K91" s="147"/>
-      <c r="L91" s="147"/>
-      <c r="M91" s="147"/>
-      <c r="N91" s="147"/>
-      <c r="O91" s="147"/>
-      <c r="P91" s="147"/>
-      <c r="Q91" s="147"/>
-      <c r="R91" s="147"/>
-      <c r="S91" s="147"/>
-      <c r="T91" s="147"/>
-      <c r="U91" s="147"/>
-      <c r="V91" s="147"/>
-      <c r="W91" s="147"/>
-      <c r="X91" s="147"/>
+      <c r="A91" s="154"/>
+      <c r="B91" s="154"/>
+      <c r="C91" s="154"/>
+      <c r="D91" s="154"/>
+      <c r="E91" s="154"/>
+      <c r="F91" s="154"/>
+      <c r="G91" s="154"/>
+      <c r="H91" s="154"/>
+      <c r="I91" s="154"/>
+      <c r="J91" s="154"/>
+      <c r="K91" s="154"/>
+      <c r="L91" s="154"/>
+      <c r="M91" s="154"/>
+      <c r="N91" s="154"/>
+      <c r="O91" s="154"/>
+      <c r="P91" s="154"/>
+      <c r="Q91" s="154"/>
+      <c r="R91" s="154"/>
+      <c r="S91" s="154"/>
+      <c r="T91" s="154"/>
+      <c r="U91" s="154"/>
+      <c r="V91" s="154"/>
+      <c r="W91" s="154"/>
+      <c r="X91" s="154"/>
     </row>
     <row r="92" spans="1:45">
-      <c r="A92" s="139"/>
-      <c r="B92" s="140"/>
-      <c r="C92" s="140"/>
-      <c r="D92" s="139"/>
-      <c r="E92" s="139"/>
-      <c r="F92" s="139"/>
-      <c r="G92" s="139"/>
-      <c r="H92" s="139"/>
-      <c r="I92" s="139"/>
-      <c r="J92" s="139"/>
-      <c r="K92" s="139"/>
-      <c r="L92" s="139"/>
-      <c r="M92" s="139"/>
-      <c r="N92" s="139"/>
-      <c r="O92" s="139"/>
-      <c r="P92" s="139"/>
-      <c r="Q92" s="139"/>
-      <c r="R92" s="139"/>
-      <c r="S92" s="139"/>
-      <c r="T92" s="139"/>
-      <c r="U92" s="139"/>
-      <c r="V92" s="139"/>
-      <c r="W92" s="139"/>
-      <c r="X92" s="139"/>
+      <c r="A92" s="140"/>
+      <c r="B92" s="139"/>
+      <c r="C92" s="139"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="140"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="140"/>
+      <c r="H92" s="140"/>
+      <c r="I92" s="140"/>
+      <c r="J92" s="140"/>
+      <c r="K92" s="140"/>
+      <c r="L92" s="140"/>
+      <c r="M92" s="140"/>
+      <c r="N92" s="140"/>
+      <c r="O92" s="140"/>
+      <c r="P92" s="140"/>
+      <c r="Q92" s="140"/>
+      <c r="R92" s="140"/>
+      <c r="S92" s="140"/>
+      <c r="T92" s="140"/>
+      <c r="U92" s="140"/>
+      <c r="V92" s="140"/>
+      <c r="W92" s="140"/>
+      <c r="X92" s="140"/>
     </row>
     <row r="93" spans="1:45">
-      <c r="A93" s="139"/>
-      <c r="B93" s="140"/>
-      <c r="C93" s="140"/>
-      <c r="D93" s="139"/>
-      <c r="E93" s="139"/>
-      <c r="F93" s="139"/>
-      <c r="G93" s="139"/>
-      <c r="H93" s="139"/>
-      <c r="I93" s="139"/>
-      <c r="J93" s="139"/>
-      <c r="K93" s="139"/>
-      <c r="L93" s="139"/>
-      <c r="M93" s="139"/>
-      <c r="N93" s="139"/>
-      <c r="O93" s="139"/>
-      <c r="P93" s="139"/>
-      <c r="Q93" s="139"/>
-      <c r="R93" s="139"/>
-      <c r="S93" s="139"/>
-      <c r="T93" s="139"/>
-      <c r="U93" s="139"/>
-      <c r="V93" s="139"/>
-      <c r="W93" s="139"/>
-      <c r="X93" s="139"/>
+      <c r="A93" s="140"/>
+      <c r="B93" s="139"/>
+      <c r="C93" s="139"/>
+      <c r="D93" s="140"/>
+      <c r="E93" s="140"/>
+      <c r="F93" s="140"/>
+      <c r="G93" s="140"/>
+      <c r="H93" s="140"/>
+      <c r="I93" s="140"/>
+      <c r="J93" s="140"/>
+      <c r="K93" s="140"/>
+      <c r="L93" s="140"/>
+      <c r="M93" s="140"/>
+      <c r="N93" s="140"/>
+      <c r="O93" s="140"/>
+      <c r="P93" s="140"/>
+      <c r="Q93" s="140"/>
+      <c r="R93" s="140"/>
+      <c r="S93" s="140"/>
+      <c r="T93" s="140"/>
+      <c r="U93" s="140"/>
+      <c r="V93" s="140"/>
+      <c r="W93" s="140"/>
+      <c r="X93" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A92:X92"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="A60:X60"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D21:X21"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
     <mergeCell ref="A93:X93"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A26:X26"/>
@@ -4347,6 +4335,18 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A92:X92"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="A60:X60"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D21:X21"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="colorScale" priority="40">
@@ -4417,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21104619-9600-4A6F-A028-807EB456698F}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -4445,7 +4445,7 @@
       <c r="B2" s="67"/>
       <c r="C2" s="67">
         <f>SUM(C3:C3,C6,C7,C8,C9,C10,C4,C5)</f>
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.4" customHeight="1">
@@ -4456,7 +4456,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="68">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1">
@@ -4467,7 +4467,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="69">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" customHeight="1">
@@ -4489,7 +4489,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" customHeight="1">
@@ -4500,7 +4500,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4" customHeight="1">
@@ -4522,7 +4522,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" customHeight="1">
@@ -4533,13 +4533,13 @@
         <v>49</v>
       </c>
       <c r="C10" s="69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A11" s="143"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
     </row>
     <row r="12" spans="1:3" ht="14.4" customHeight="1">
       <c r="A12" s="26" t="s">
@@ -4548,7 +4548,7 @@
       <c r="B12" s="71"/>
       <c r="C12" s="71">
         <f>SUM(C18,C13)</f>
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4" customHeight="1">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C13" s="72">
         <f>SUM(C14:C17)</f>
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.4" customHeight="1">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="72">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.4" customHeight="1">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="72">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4" customHeight="1">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" customHeight="1">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="72">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" customHeight="1">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="C18" s="68">
         <f>SUM(C19:C21)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" customHeight="1">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B20" s="70"/>
       <c r="C20" s="70">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" customHeight="1">
@@ -4635,13 +4635,13 @@
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="73">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
     </row>
     <row r="23" spans="1:3" ht="14.4" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -4650,7 +4650,7 @@
       <c r="B23" s="74"/>
       <c r="C23" s="74">
         <f>SUM(C24,C28,C32,C34)</f>
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.4" customHeight="1">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C24" s="72">
         <f>SUM(C25:C27)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.4" customHeight="1">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B25" s="69"/>
       <c r="C25" s="69">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.4" customHeight="1">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B26" s="69"/>
       <c r="C26" s="69">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.4" customHeight="1">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="69">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.4" customHeight="1">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="C28" s="72">
         <f>SUM(C29:C31)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.4" customHeight="1">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="B29" s="69"/>
       <c r="C29" s="69">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.4" customHeight="1">
@@ -4758,13 +4758,13 @@
       </c>
       <c r="B34" s="68"/>
       <c r="C34" s="68">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A35" s="143"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
     </row>
     <row r="36" spans="1:3" ht="14.4" customHeight="1">
       <c r="A36" s="45" t="s">
@@ -4773,7 +4773,7 @@
       <c r="B36" s="75"/>
       <c r="C36" s="75">
         <f>SUM(C37,C45,C49)</f>
-        <v>395</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.4" customHeight="1">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C37" s="72">
         <f>SUM(C38:C44)</f>
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.4" customHeight="1">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B38" s="72"/>
       <c r="C38" s="72">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.4" customHeight="1">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B39" s="72"/>
       <c r="C39" s="72">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.4" customHeight="1">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B40" s="70"/>
       <c r="C40" s="70">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.4" customHeight="1">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B43" s="70"/>
       <c r="C43" s="70">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.4" customHeight="1">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="C45" s="69">
         <f>SUM(C46:C48)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.4" customHeight="1">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B46" s="70"/>
       <c r="C46" s="70">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.4" customHeight="1">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B47" s="70"/>
       <c r="C47" s="70">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.4" customHeight="1">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B48" s="70"/>
       <c r="C48" s="70">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.4" customHeight="1">
@@ -4898,13 +4898,13 @@
         <v>49</v>
       </c>
       <c r="C49" s="73">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A50" s="145"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="153"/>
+      <c r="C50" s="153"/>
     </row>
     <row r="51" spans="1:3" ht="14.4" customHeight="1">
       <c r="A51" s="49" t="s">
@@ -4913,7 +4913,7 @@
       <c r="B51" s="76"/>
       <c r="C51" s="76">
         <f>SUM(C52:C55)</f>
-        <v>128</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.4" customHeight="1">
@@ -4924,7 +4924,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="72">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" customHeight="1">
@@ -4935,7 +4935,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="68">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.4" customHeight="1">
@@ -4946,7 +4946,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="68">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.4" customHeight="1">
@@ -4957,7 +4957,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="68">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="6.6" customHeight="1">
@@ -4972,7 +4972,7 @@
       <c r="B57" s="97"/>
       <c r="C57" s="97">
         <f>SUM(C58:C59)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.4" customHeight="1">
@@ -4994,7 +4994,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="68">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="6.6" customHeight="1">
@@ -5009,7 +5009,7 @@
       <c r="B61" s="130"/>
       <c r="C61" s="130">
         <f>SUM(C62)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.4" customHeight="1">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5107,8 +5107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A65E51-5950-476F-8AAD-D80644D6813A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -5292,6 +5292,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -5448,15 +5457,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5469,6 +5469,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5483,14 +5491,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4F7BB7-6426-4015-ABFE-7191C5BF54BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDE4D9-71A8-4CE7-A802-D879E893B718}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
-    <sheet name="Strukturplan" sheetId="4" r:id="rId2"/>
-    <sheet name="Budget" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
+    <sheet name="Strukturplan" sheetId="4" r:id="rId3"/>
+    <sheet name="Budget" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$A$60:$X$90</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$A:$A,Terminplanung!$2:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$B$60:$Y$90</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$B:$B,Terminplanung!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="107">
   <si>
     <t>Meilensteine</t>
   </si>
@@ -327,9 +328,6 @@
     <t>Kostenanteil [%]</t>
   </si>
   <si>
-    <t>Strukturplan</t>
-  </si>
-  <si>
     <t>Aufwand in Personenstunden</t>
   </si>
   <si>
@@ -361,6 +359,24 @@
   </si>
   <si>
     <t>7. Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>19 (Projektwoche)</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Jahr</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
 </sst>
 </file>
@@ -674,9 +690,16 @@
         <color theme="0"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -684,32 +707,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -718,7 +730,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,7 +912,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,12 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,18 +978,9 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1004,16 +1000,55 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,50 +1058,148 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1388,191 +1521,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS93"/>
+  <dimension ref="B1:AT93"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:X87"/>
+      <selection activeCell="B20" sqref="B20:Y87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="45.69921875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="4.69921875" style="63" customWidth="1"/>
-    <col min="4" max="24" width="6.69921875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="45.69921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="4.69921875" style="63" customWidth="1"/>
+    <col min="5" max="15" width="6.69921875" style="1" customWidth="1"/>
+    <col min="16" max="20" width="6.09765625" style="1" customWidth="1"/>
+    <col min="21" max="25" width="6.69921875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="10.199999999999999" customHeight="1">
-      <c r="B1" s="88"/>
+    <row r="1" spans="2:25" ht="10.199999999999999" customHeight="1">
       <c r="C1" s="88"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="139"/>
-      <c r="B2" s="88"/>
+      <c r="D1" s="88"/>
+    </row>
+    <row r="2" spans="2:25">
+      <c r="B2" s="133"/>
       <c r="C2" s="88"/>
-      <c r="D2" s="141">
+      <c r="D2" s="88"/>
+      <c r="E2" s="148">
         <v>2019</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="143"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.45" customHeight="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="88"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="150"/>
+    </row>
+    <row r="3" spans="2:25" ht="15.45" customHeight="1">
+      <c r="B3" s="133"/>
       <c r="C3" s="88"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="141" t="s">
+      <c r="P3" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="4" t="s">
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="139"/>
-      <c r="B4" s="88"/>
+    <row r="4" spans="2:25">
+      <c r="B4" s="133"/>
       <c r="C4" s="88"/>
-      <c r="D4" s="3">
+      <c r="D4" s="88"/>
+      <c r="E4" s="3">
         <v>18.02</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>25.02</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>4.03</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>11.03</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>18.03</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>25.03</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>1.04</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>8.0399999999999991</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>15.04</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>22.04</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>29.04</v>
       </c>
-      <c r="O4" s="57">
+      <c r="P4" s="57">
         <v>6.05</v>
       </c>
-      <c r="P4" s="57">
+      <c r="Q4" s="57">
         <v>7.05</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="R4" s="57">
         <v>8.0500000000000007</v>
       </c>
-      <c r="R4" s="57">
+      <c r="S4" s="57">
         <v>9.0500000000000007</v>
       </c>
-      <c r="S4" s="57">
+      <c r="T4" s="57">
         <v>10.050000000000001</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>13.05</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
         <v>20.05</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <v>27.05</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="3">
         <v>3.06</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="6" customHeight="1">
-      <c r="B5" s="88"/>
+    <row r="5" spans="2:25" ht="6" customHeight="1">
       <c r="C5" s="88"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="55" t="s">
+      <c r="D5" s="88"/>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="B6" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="88"/>
       <c r="C6" s="88"/>
-      <c r="D6" s="56"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
@@ -1593,364 +1728,366 @@
       <c r="V6" s="56"/>
       <c r="W6" s="56"/>
       <c r="X6" s="56"/>
-    </row>
-    <row r="7" spans="1:24" ht="6" customHeight="1">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="146" t="s">
+      <c r="Y6" s="56"/>
+    </row>
+    <row r="7" spans="2:25" ht="6" customHeight="1">
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="B8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="143"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="57"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="57"/>
       <c r="Q8" s="57"/>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="57"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A9" s="146" t="s">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="2:25" ht="14.4" customHeight="1">
+      <c r="B9" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="54" t="s">
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="57"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="57"/>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="57"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="146" t="s">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="2:25">
+      <c r="B10" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="54" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="57"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="57"/>
       <c r="Q10" s="57"/>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
-      <c r="T10" s="3"/>
+      <c r="T10" s="57"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="146" t="s">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="2:25">
+      <c r="B11" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="54" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="57"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="3"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="2"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="146" t="s">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="B12" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="57"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="57"/>
       <c r="Q12" s="57"/>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="57"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="156" t="s">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="2:25">
+      <c r="B13" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="54" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="57"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="57"/>
       <c r="Q13" s="57"/>
       <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="3"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="146" t="s">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="2:25">
+      <c r="B14" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="144"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="54" t="s">
+      <c r="N14" s="6"/>
+      <c r="O14" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="57"/>
       <c r="P14" s="57"/>
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
-      <c r="U14" s="3"/>
+      <c r="T14" s="57"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="146" t="s">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="2:25">
+      <c r="B15" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="57"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="57"/>
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
-      <c r="T15" s="54" t="s">
+      <c r="T15" s="57"/>
+      <c r="U15" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="6"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="146" t="s">
+      <c r="V15" s="3"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="2:25">
+      <c r="B16" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="58"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="57"/>
       <c r="Q16" s="58"/>
       <c r="R16" s="58"/>
       <c r="S16" s="58"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="54" t="s">
+      <c r="T16" s="58"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="155" t="s">
+    <row r="17" spans="2:26">
+      <c r="B17" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="57"/>
       <c r="Q17" s="58"/>
       <c r="R17" s="58"/>
       <c r="S17" s="58"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="54" t="s">
+      <c r="T17" s="58"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:26">
+      <c r="B18" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="124" t="s">
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="159" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="5.4" customHeight="1">
-      <c r="A19" s="89"/>
+    <row r="19" spans="2:26" ht="5.4" customHeight="1">
       <c r="B19" s="89"/>
-      <c r="C19" s="84"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
@@ -1972,15 +2109,15 @@
       <c r="V19" s="84"/>
       <c r="W19" s="84"/>
       <c r="X19" s="84"/>
-    </row>
-    <row r="20" spans="1:25" ht="22.2" customHeight="1">
-      <c r="B20" s="149" t="s">
+      <c r="Y19" s="84"/>
+    </row>
+    <row r="20" spans="2:26" ht="26.4" customHeight="1">
+      <c r="C20" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="D20" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63"/>
       <c r="G20" s="63"/>
@@ -2001,236 +2138,236 @@
       <c r="V20" s="63"/>
       <c r="W20" s="63"/>
       <c r="X20" s="63"/>
-    </row>
-    <row r="21" spans="1:25" ht="14.4" customHeight="1">
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="141">
+      <c r="Y20" s="63"/>
+    </row>
+    <row r="21" spans="2:26" ht="14.4" customHeight="1">
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="148">
         <v>2019</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="142"/>
-      <c r="W21" s="142"/>
-      <c r="X21" s="143"/>
-    </row>
-    <row r="22" spans="1:25" ht="14.4" customHeight="1">
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="3" t="s">
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="150"/>
+    </row>
+    <row r="22" spans="2:26" ht="14.4" customHeight="1">
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="141" t="s">
+      <c r="P22" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="3" t="s">
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14.4" customHeight="1">
-      <c r="A23" s="121"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="3">
+    <row r="23" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B23" s="118"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="3">
         <v>18.02</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25.02</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>4.03</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>11.03</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>18.03</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>25.03</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>1.04</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8.0399999999999991</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <v>15.04</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22.04</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <v>29.04</v>
       </c>
-      <c r="O23" s="57">
+      <c r="P23" s="57">
         <v>6.05</v>
       </c>
-      <c r="P23" s="57">
+      <c r="Q23" s="57">
         <v>7.05</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="R23" s="57">
         <v>8.0500000000000007</v>
       </c>
-      <c r="R23" s="57">
+      <c r="S23" s="57">
         <v>9.0500000000000007</v>
       </c>
-      <c r="S23" s="57">
+      <c r="T23" s="57">
         <v>10.050000000000001</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13.05</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20.05</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27.05</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3.06</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10.06</v>
       </c>
-      <c r="Y23" s="90"/>
-    </row>
-    <row r="24" spans="1:25" ht="6" customHeight="1">
-      <c r="A24" s="121"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="120"/>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="55" t="s">
+      <c r="Z23" s="90"/>
+    </row>
+    <row r="24" spans="2:26" ht="6" customHeight="1">
+      <c r="B24" s="118"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="117"/>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="B25" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="Y25" s="91"/>
-    </row>
-    <row r="26" spans="1:25" ht="6" customHeight="1">
-      <c r="A26" s="151"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="37" t="s">
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="Z25" s="117"/>
+    </row>
+    <row r="26" spans="2:26" ht="6" customHeight="1">
+      <c r="B26" s="160"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="162"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67">
-        <f>SUM(C28:C28,C31,C32,C33,C34,C35,C29,C30)</f>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67">
+        <f>SUM(D28:D28,D31,D32,D33,D34,D35,D29,D30)</f>
         <v>65</v>
       </c>
-      <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -2247,19 +2384,19 @@
       <c r="U27" s="39"/>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
-      <c r="X27" s="40"/>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="10" t="s">
+      <c r="X27" s="39"/>
+      <c r="Y27" s="40"/>
+    </row>
+    <row r="28" spans="2:26">
+      <c r="B28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="C28" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="68">
+      <c r="D28" s="68">
         <v>10</v>
       </c>
-      <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -2280,25 +2417,25 @@
       <c r="V28" s="41"/>
       <c r="W28" s="41"/>
       <c r="X28" s="41"/>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="10" t="s">
+      <c r="Y28" s="41"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="C29" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="69">
+      <c r="D29" s="69">
         <v>32</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="41"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -2312,238 +2449,238 @@
       <c r="V29" s="41"/>
       <c r="W29" s="41"/>
       <c r="X29" s="41"/>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="68" t="s">
+      <c r="Y29" s="41"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="B30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="69">
+      <c r="D30" s="69">
         <v>10</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="68" t="s">
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="123"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="123"/>
+    </row>
+    <row r="31" spans="2:26">
+      <c r="B31" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="69">
+      <c r="D31" s="69">
         <v>2</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="42"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="14"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="60"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="59"/>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="60"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="6"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="12"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="68" t="s">
+      <c r="Y31" s="6"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="69">
+      <c r="D32" s="69">
         <v>2</v>
       </c>
-      <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="43"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="60"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="59"/>
       <c r="Q32" s="60"/>
       <c r="R32" s="60"/>
       <c r="S32" s="60"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="6"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="12"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="A33" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="68" t="s">
+      <c r="Y32" s="6"/>
+    </row>
+    <row r="33" spans="2:25">
+      <c r="B33" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="69">
+      <c r="D33" s="69">
         <v>2</v>
       </c>
-      <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="14"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="44"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="43"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
-      <c r="U33" s="6"/>
+      <c r="U33" s="44"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="68" t="s">
+      <c r="Y33" s="6"/>
+    </row>
+    <row r="34" spans="2:25">
+      <c r="B34" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="69">
+      <c r="D34" s="69">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="59"/>
       <c r="Q34" s="60"/>
       <c r="R34" s="60"/>
       <c r="S34" s="60"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="44"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="6"/>
       <c r="V34" s="44"/>
       <c r="W34" s="44"/>
       <c r="X34" s="44"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="68" t="s">
+      <c r="Y34" s="44"/>
+    </row>
+    <row r="35" spans="2:25">
+      <c r="B35" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="69">
+      <c r="D35" s="69">
         <v>3</v>
       </c>
-      <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="14"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="60"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="59"/>
       <c r="Q35" s="60"/>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
-      <c r="T35" s="6"/>
+      <c r="T35" s="60"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="44"/>
+      <c r="W35" s="6"/>
       <c r="X35" s="44"/>
-    </row>
-    <row r="36" spans="1:24" ht="6" customHeight="1">
-      <c r="A36" s="144"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="145"/>
-      <c r="N36" s="145"/>
-      <c r="O36" s="145"/>
-      <c r="P36" s="145"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="145"/>
-      <c r="S36" s="145"/>
-      <c r="T36" s="145"/>
-      <c r="U36" s="145"/>
-      <c r="V36" s="145"/>
-      <c r="W36" s="145"/>
-      <c r="X36" s="145"/>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="26" t="s">
+      <c r="Y35" s="44"/>
+    </row>
+    <row r="36" spans="2:25" ht="6" customHeight="1">
+      <c r="B36" s="136"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="137"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+    </row>
+    <row r="37" spans="2:25">
+      <c r="B37" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71">
-        <f>SUM(C43,C38)</f>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71">
+        <f>SUM(D43,D38)</f>
         <v>75</v>
       </c>
-      <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
@@ -2554,212 +2691,212 @@
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
-      <c r="R37" s="29"/>
+      <c r="R37" s="28"/>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
       <c r="U37" s="29"/>
       <c r="V37" s="29"/>
       <c r="W37" s="29"/>
       <c r="X37" s="29"/>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="15" t="s">
+      <c r="Y37" s="29"/>
+    </row>
+    <row r="38" spans="2:25">
+      <c r="B38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="C38" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="72">
-        <f>SUM(C39:C42)</f>
+      <c r="D38" s="72">
+        <f>SUM(D39:D42)</f>
         <v>43</v>
       </c>
-      <c r="D38" s="77"/>
       <c r="E38" s="77"/>
       <c r="F38" s="77"/>
       <c r="G38" s="77"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="14"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="59"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="17"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="59"/>
-      <c r="R38" s="61"/>
+      <c r="R38" s="59"/>
       <c r="S38" s="61"/>
-      <c r="T38" s="18"/>
+      <c r="T38" s="61"/>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
-      <c r="W38" s="17"/>
+      <c r="W38" s="18"/>
       <c r="X38" s="17"/>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="66" t="s">
+      <c r="Y38" s="17"/>
+    </row>
+    <row r="39" spans="2:25">
+      <c r="B39" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72">
+      <c r="C39" s="72"/>
+      <c r="D39" s="72">
         <v>12</v>
       </c>
-      <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="80"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="59"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="17"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="59"/>
-      <c r="R39" s="61"/>
+      <c r="R39" s="59"/>
       <c r="S39" s="61"/>
-      <c r="T39" s="18"/>
+      <c r="T39" s="61"/>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
-      <c r="W39" s="17"/>
+      <c r="W39" s="18"/>
       <c r="X39" s="17"/>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="A40" s="66" t="s">
+      <c r="Y39" s="17"/>
+    </row>
+    <row r="40" spans="2:25">
+      <c r="B40" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72">
+      <c r="C40" s="72"/>
+      <c r="D40" s="72">
         <v>15</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="77"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="77"/>
       <c r="I40" s="77"/>
       <c r="J40" s="77"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="77"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="59"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="17"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59"/>
-      <c r="R40" s="61"/>
+      <c r="R40" s="59"/>
       <c r="S40" s="61"/>
-      <c r="T40" s="18"/>
+      <c r="T40" s="61"/>
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
-      <c r="W40" s="17"/>
+      <c r="W40" s="18"/>
       <c r="X40" s="17"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="66" t="s">
+      <c r="Y40" s="17"/>
+    </row>
+    <row r="41" spans="2:25">
+      <c r="B41" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72">
+      <c r="C41" s="72"/>
+      <c r="D41" s="72">
         <v>10</v>
       </c>
-      <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="77"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="77"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="77"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="14"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="59"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="17"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
-      <c r="R41" s="61"/>
+      <c r="R41" s="59"/>
       <c r="S41" s="61"/>
-      <c r="T41" s="18"/>
+      <c r="T41" s="61"/>
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
-      <c r="W41" s="17"/>
+      <c r="W41" s="18"/>
       <c r="X41" s="17"/>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="66" t="s">
+      <c r="Y41" s="17"/>
+    </row>
+    <row r="42" spans="2:25">
+      <c r="B42" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72">
+      <c r="C42" s="72"/>
+      <c r="D42" s="72">
         <v>6</v>
       </c>
-      <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="11"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="14"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="59"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="17"/>
       <c r="P42" s="59"/>
       <c r="Q42" s="59"/>
-      <c r="R42" s="61"/>
+      <c r="R42" s="59"/>
       <c r="S42" s="61"/>
-      <c r="T42" s="18"/>
+      <c r="T42" s="61"/>
       <c r="U42" s="18"/>
       <c r="V42" s="18"/>
-      <c r="W42" s="17"/>
+      <c r="W42" s="18"/>
       <c r="X42" s="17"/>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="A43" s="10" t="s">
+      <c r="Y42" s="17"/>
+    </row>
+    <row r="43" spans="2:25">
+      <c r="B43" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="C43" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="68">
-        <f>SUM(C44:C46)</f>
+      <c r="D43" s="68">
+        <f>SUM(D44:D46)</f>
         <v>32</v>
       </c>
-      <c r="D43" s="78"/>
       <c r="E43" s="78"/>
       <c r="F43" s="78"/>
       <c r="G43" s="78"/>
       <c r="H43" s="78"/>
       <c r="I43" s="78"/>
       <c r="J43" s="78"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="78"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="60"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="59"/>
       <c r="Q43" s="60"/>
       <c r="R43" s="60"/>
       <c r="S43" s="60"/>
-      <c r="T43" s="6"/>
+      <c r="T43" s="60"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="A44" s="13" t="s">
+      <c r="Y43" s="6"/>
+    </row>
+    <row r="44" spans="2:25">
+      <c r="B44" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73">
+      <c r="C44" s="73"/>
+      <c r="D44" s="73">
         <v>10</v>
       </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="78"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="78"/>
-      <c r="G44" s="14"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -2767,116 +2904,116 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="61"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="59"/>
       <c r="Q44" s="61"/>
       <c r="R44" s="61"/>
       <c r="S44" s="61"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="6"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="20"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" s="13" t="s">
+      <c r="Y44" s="6"/>
+    </row>
+    <row r="45" spans="2:25">
+      <c r="B45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70">
+      <c r="C45" s="70"/>
+      <c r="D45" s="70">
         <v>10</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="78"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="77"/>
       <c r="H45" s="78"/>
-      <c r="I45" s="14"/>
+      <c r="I45" s="78"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="60"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="59"/>
       <c r="Q45" s="60"/>
       <c r="R45" s="60"/>
       <c r="S45" s="60"/>
-      <c r="T45" s="6"/>
+      <c r="T45" s="60"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" s="19" t="s">
+      <c r="Y45" s="6"/>
+    </row>
+    <row r="46" spans="2:25">
+      <c r="B46" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73">
+      <c r="C46" s="73"/>
+      <c r="D46" s="73">
         <v>12</v>
       </c>
-      <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="78"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="78"/>
       <c r="I46" s="78"/>
       <c r="J46" s="78"/>
-      <c r="K46" s="14"/>
+      <c r="K46" s="78"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="60"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="59"/>
       <c r="Q46" s="60"/>
       <c r="R46" s="60"/>
       <c r="S46" s="60"/>
-      <c r="T46" s="6"/>
+      <c r="T46" s="60"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
-    </row>
-    <row r="47" spans="1:24" ht="6" customHeight="1">
-      <c r="A47" s="144"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="145"/>
-      <c r="N47" s="145"/>
-      <c r="O47" s="145"/>
-      <c r="P47" s="145"/>
-      <c r="Q47" s="145"/>
-      <c r="R47" s="145"/>
-      <c r="S47" s="145"/>
-      <c r="T47" s="145"/>
-      <c r="U47" s="145"/>
-      <c r="V47" s="145"/>
-      <c r="W47" s="145"/>
-      <c r="X47" s="145"/>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" s="31" t="s">
+      <c r="Y46" s="6"/>
+    </row>
+    <row r="47" spans="2:25" ht="6" customHeight="1">
+      <c r="B47" s="136"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="137"/>
+      <c r="M47" s="137"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="137"/>
+      <c r="P47" s="137"/>
+      <c r="Q47" s="137"/>
+      <c r="R47" s="137"/>
+      <c r="S47" s="137"/>
+      <c r="T47" s="137"/>
+      <c r="U47" s="137"/>
+      <c r="V47" s="137"/>
+      <c r="W47" s="137"/>
+      <c r="X47" s="137"/>
+      <c r="Y47" s="137"/>
+    </row>
+    <row r="48" spans="2:25">
+      <c r="B48" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74">
-        <f>SUM(C49,C53,C57,C59)</f>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74">
+        <f>SUM(D49,D53,D57,D59)</f>
         <v>147</v>
       </c>
-      <c r="D48" s="32"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="33"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
@@ -2887,404 +3024,404 @@
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
-      <c r="R48" s="34"/>
+      <c r="R48" s="33"/>
       <c r="S48" s="34"/>
       <c r="T48" s="34"/>
       <c r="U48" s="34"/>
       <c r="V48" s="34"/>
-      <c r="W48" s="33"/>
+      <c r="W48" s="34"/>
       <c r="X48" s="33"/>
-    </row>
-    <row r="49" spans="1:45">
-      <c r="A49" s="10" t="s">
+      <c r="Y48" s="33"/>
+    </row>
+    <row r="49" spans="2:46">
+      <c r="B49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="C49" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="72">
-        <f>SUM(C50:C52)</f>
+      <c r="D49" s="72">
+        <f>SUM(D50:D52)</f>
         <v>45</v>
       </c>
-      <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="82"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="11"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="14"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="61"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="62"/>
       <c r="Q49" s="61"/>
       <c r="R49" s="61"/>
       <c r="S49" s="61"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="6"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="20"/>
       <c r="V49" s="6"/>
-      <c r="W49" s="14"/>
+      <c r="W49" s="6"/>
       <c r="X49" s="14"/>
-    </row>
-    <row r="50" spans="1:45">
-      <c r="A50" s="21" t="s">
+      <c r="Y49" s="14"/>
+    </row>
+    <row r="50" spans="2:46">
+      <c r="B50" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69">
+      <c r="C50" s="69"/>
+      <c r="D50" s="69">
         <v>20</v>
       </c>
-      <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="82"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="82"/>
-      <c r="I50" s="11"/>
+      <c r="I50" s="82"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
-      <c r="L50" s="14"/>
+      <c r="L50" s="11"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="61"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="59"/>
       <c r="Q50" s="61"/>
       <c r="R50" s="61"/>
       <c r="S50" s="61"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="6"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="20"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="14"/>
+      <c r="W50" s="6"/>
       <c r="X50" s="14"/>
-    </row>
-    <row r="51" spans="1:45">
-      <c r="A51" s="21" t="s">
+      <c r="Y50" s="14"/>
+    </row>
+    <row r="51" spans="2:46">
+      <c r="B51" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69">
+      <c r="C51" s="69"/>
+      <c r="D51" s="69">
         <v>15</v>
       </c>
-      <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="81"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="81"/>
       <c r="H51" s="81"/>
-      <c r="I51" s="11"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
-      <c r="L51" s="14"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="60"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="59"/>
       <c r="Q51" s="60"/>
       <c r="R51" s="60"/>
       <c r="S51" s="60"/>
-      <c r="T51" s="6"/>
+      <c r="T51" s="60"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
-    </row>
-    <row r="52" spans="1:45">
-      <c r="A52" s="21" t="s">
+      <c r="Y51" s="6"/>
+    </row>
+    <row r="52" spans="2:46">
+      <c r="B52" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69">
+      <c r="C52" s="69"/>
+      <c r="D52" s="69">
         <v>10</v>
       </c>
-      <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="81"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="14"/>
+      <c r="K52" s="11"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="60"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="59"/>
       <c r="Q52" s="60"/>
       <c r="R52" s="60"/>
       <c r="S52" s="60"/>
-      <c r="T52" s="6"/>
+      <c r="T52" s="60"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
-    </row>
-    <row r="53" spans="1:45">
-      <c r="A53" s="10" t="s">
+      <c r="Y52" s="6"/>
+    </row>
+    <row r="53" spans="2:46">
+      <c r="B53" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="C53" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="72">
-        <f>SUM(C54:C56)</f>
+      <c r="D53" s="72">
+        <f>SUM(D54:D56)</f>
         <v>40</v>
       </c>
-      <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="82"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="82"/>
-      <c r="I53" s="81"/>
+      <c r="I53" s="82"/>
       <c r="J53" s="81"/>
       <c r="K53" s="81"/>
-      <c r="L53" s="14"/>
+      <c r="L53" s="81"/>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="61"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="59"/>
       <c r="Q53" s="61"/>
       <c r="R53" s="61"/>
       <c r="S53" s="61"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="6"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="20"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="14"/>
+      <c r="W53" s="6"/>
       <c r="X53" s="14"/>
-    </row>
-    <row r="54" spans="1:45">
-      <c r="A54" s="21" t="s">
+      <c r="Y53" s="14"/>
+    </row>
+    <row r="54" spans="2:46">
+      <c r="B54" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69">
+      <c r="C54" s="69"/>
+      <c r="D54" s="69">
         <v>18</v>
       </c>
-      <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="82"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="82"/>
-      <c r="I54" s="81"/>
+      <c r="I54" s="82"/>
       <c r="J54" s="81"/>
       <c r="K54" s="81"/>
-      <c r="L54" s="14"/>
+      <c r="L54" s="81"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="61"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="59"/>
       <c r="Q54" s="61"/>
       <c r="R54" s="61"/>
       <c r="S54" s="61"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="6"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="20"/>
       <c r="V54" s="6"/>
-      <c r="W54" s="14"/>
+      <c r="W54" s="6"/>
       <c r="X54" s="14"/>
-    </row>
-    <row r="55" spans="1:45">
-      <c r="A55" s="21" t="s">
+      <c r="Y54" s="14"/>
+    </row>
+    <row r="55" spans="2:46">
+      <c r="B55" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69">
+      <c r="C55" s="69"/>
+      <c r="D55" s="69">
         <v>12</v>
       </c>
-      <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="14"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="14"/>
-      <c r="I55" s="81"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="81"/>
       <c r="K55" s="81"/>
-      <c r="L55" s="14"/>
+      <c r="L55" s="81"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="61"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="59"/>
       <c r="Q55" s="61"/>
       <c r="R55" s="61"/>
       <c r="S55" s="61"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="6"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="20"/>
       <c r="V55" s="6"/>
-      <c r="W55" s="14"/>
+      <c r="W55" s="6"/>
       <c r="X55" s="14"/>
-    </row>
-    <row r="56" spans="1:45">
-      <c r="A56" s="21" t="s">
+      <c r="Y55" s="14"/>
+    </row>
+    <row r="56" spans="2:46">
+      <c r="B56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69">
+      <c r="C56" s="69"/>
+      <c r="D56" s="69">
         <v>10</v>
       </c>
-      <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="81"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="82"/>
       <c r="J56" s="81"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="14"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="11"/>
       <c r="M56" s="14"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="61"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="60"/>
       <c r="Q56" s="61"/>
       <c r="R56" s="61"/>
       <c r="S56" s="61"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="6"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="20"/>
       <c r="V56" s="6"/>
-      <c r="W56" s="14"/>
+      <c r="W56" s="6"/>
       <c r="X56" s="14"/>
-    </row>
-    <row r="57" spans="1:45" s="22" customFormat="1">
-      <c r="A57" s="10" t="s">
+      <c r="Y56" s="14"/>
+    </row>
+    <row r="57" spans="2:46" s="22" customFormat="1">
+      <c r="B57" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="C57" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="72">
-        <f>SUM(C58:C58)</f>
+      <c r="D57" s="72">
+        <f>SUM(D58:D58)</f>
         <v>10</v>
       </c>
-      <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="82"/>
+      <c r="G57" s="14"/>
       <c r="H57" s="82"/>
       <c r="I57" s="82"/>
       <c r="J57" s="82"/>
-      <c r="K57" s="14"/>
+      <c r="K57" s="82"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="61"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="59"/>
       <c r="Q57" s="61"/>
       <c r="R57" s="61"/>
       <c r="S57" s="61"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="11"/>
+      <c r="T57" s="61"/>
+      <c r="U57" s="20"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
-      <c r="Y57" s="1"/>
+      <c r="Y57" s="11"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
-    </row>
-    <row r="58" spans="1:45" s="22" customFormat="1">
-      <c r="A58" s="21" t="s">
+      <c r="AE57" s="1"/>
+    </row>
+    <row r="58" spans="2:46" s="22" customFormat="1">
+      <c r="B58" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69">
+      <c r="C58" s="69"/>
+      <c r="D58" s="69">
         <v>10</v>
       </c>
-      <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="82"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="82"/>
       <c r="I58" s="82"/>
       <c r="J58" s="82"/>
-      <c r="K58" s="14"/>
+      <c r="K58" s="82"/>
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="61"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="59"/>
       <c r="Q58" s="61"/>
       <c r="R58" s="61"/>
       <c r="S58" s="61"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="11"/>
+      <c r="T58" s="61"/>
+      <c r="U58" s="20"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="11"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
-    </row>
-    <row r="59" spans="1:45">
-      <c r="A59" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68">
+      <c r="AE58" s="1"/>
+    </row>
+    <row r="59" spans="2:46">
+      <c r="B59" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68">
         <v>52</v>
       </c>
-      <c r="D59" s="82"/>
       <c r="E59" s="82"/>
       <c r="F59" s="82"/>
       <c r="G59" s="82"/>
       <c r="H59" s="82"/>
       <c r="I59" s="82"/>
       <c r="J59" s="82"/>
-      <c r="K59" s="14"/>
+      <c r="K59" s="82"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
-      <c r="P59" s="20"/>
+      <c r="P59" s="14"/>
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="14"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="6"/>
       <c r="W59" s="14"/>
       <c r="X59" s="14"/>
-    </row>
-    <row r="60" spans="1:45" ht="6" customHeight="1">
-      <c r="A60" s="144"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="145"/>
-      <c r="L60" s="145"/>
-      <c r="M60" s="145"/>
-      <c r="N60" s="145"/>
-      <c r="O60" s="145"/>
-      <c r="P60" s="145"/>
-      <c r="Q60" s="145"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="145"/>
-      <c r="T60" s="145"/>
-      <c r="U60" s="145"/>
-      <c r="V60" s="145"/>
-      <c r="W60" s="145"/>
-      <c r="X60" s="145"/>
-    </row>
-    <row r="61" spans="1:45" s="35" customFormat="1">
-      <c r="A61" s="45" t="s">
+      <c r="Y59" s="14"/>
+    </row>
+    <row r="60" spans="2:46" ht="6" customHeight="1">
+      <c r="B60" s="136"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="137"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="137"/>
+      <c r="Q60" s="137"/>
+      <c r="R60" s="137"/>
+      <c r="S60" s="137"/>
+      <c r="T60" s="137"/>
+      <c r="U60" s="137"/>
+      <c r="V60" s="137"/>
+      <c r="W60" s="137"/>
+      <c r="X60" s="137"/>
+      <c r="Y60" s="137"/>
+    </row>
+    <row r="61" spans="2:46" s="35" customFormat="1">
+      <c r="B61" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75">
-        <f>SUM(C62,C70,C74)</f>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75">
+        <f>SUM(D62,D70,D74)</f>
         <v>495</v>
       </c>
-      <c r="D61" s="46"/>
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
-      <c r="G61" s="47"/>
+      <c r="G61" s="46"/>
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
       <c r="J61" s="47"/>
@@ -3295,14 +3432,14 @@
       <c r="O61" s="47"/>
       <c r="P61" s="47"/>
       <c r="Q61" s="47"/>
-      <c r="R61" s="48"/>
+      <c r="R61" s="47"/>
       <c r="S61" s="48"/>
       <c r="T61" s="48"/>
       <c r="U61" s="48"/>
       <c r="V61" s="48"/>
-      <c r="W61" s="47"/>
+      <c r="W61" s="48"/>
       <c r="X61" s="47"/>
-      <c r="Y61" s="1"/>
+      <c r="Y61" s="47"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
@@ -3323,83 +3460,83 @@
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
-    </row>
-    <row r="62" spans="1:45">
-      <c r="A62" s="10" t="s">
+      <c r="AT61" s="1"/>
+    </row>
+    <row r="62" spans="2:46">
+      <c r="B62" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="C62" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="72">
-        <f>SUM(C63:C69)</f>
+      <c r="D62" s="72">
+        <f>SUM(D63:D69)</f>
         <v>260</v>
       </c>
-      <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" s="85"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="85"/>
       <c r="H62" s="85"/>
       <c r="I62" s="85"/>
       <c r="J62" s="85"/>
       <c r="K62" s="85"/>
       <c r="L62" s="85"/>
-      <c r="M62" s="86"/>
+      <c r="M62" s="85"/>
       <c r="N62" s="86"/>
       <c r="O62" s="86"/>
       <c r="P62" s="86"/>
       <c r="Q62" s="86"/>
       <c r="R62" s="86"/>
       <c r="S62" s="86"/>
-      <c r="T62" s="11"/>
+      <c r="T62" s="86"/>
       <c r="U62" s="11"/>
-      <c r="V62" s="14"/>
+      <c r="V62" s="11"/>
       <c r="W62" s="14"/>
       <c r="X62" s="14"/>
-    </row>
-    <row r="63" spans="1:45">
-      <c r="A63" s="13" t="s">
+      <c r="Y62" s="14"/>
+    </row>
+    <row r="63" spans="2:46">
+      <c r="B63" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72">
+      <c r="C63" s="72"/>
+      <c r="D63" s="72">
         <v>35</v>
       </c>
-      <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="85"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="85"/>
       <c r="H63" s="85"/>
       <c r="I63" s="85"/>
       <c r="J63" s="85"/>
-      <c r="K63" s="14"/>
+      <c r="K63" s="85"/>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
-      <c r="O63" s="85"/>
+      <c r="O63" s="14"/>
       <c r="P63" s="85"/>
       <c r="Q63" s="85"/>
       <c r="R63" s="85"/>
       <c r="S63" s="85"/>
-      <c r="T63" s="11"/>
+      <c r="T63" s="85"/>
       <c r="U63" s="11"/>
-      <c r="V63" s="14"/>
+      <c r="V63" s="11"/>
       <c r="W63" s="14"/>
       <c r="X63" s="14"/>
-    </row>
-    <row r="64" spans="1:45">
-      <c r="A64" s="13" t="s">
+      <c r="Y63" s="14"/>
+    </row>
+    <row r="64" spans="2:46">
+      <c r="B64" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72">
+      <c r="C64" s="72"/>
+      <c r="D64" s="72">
         <v>60</v>
       </c>
-      <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="85"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="14"/>
       <c r="I64" s="85"/>
       <c r="J64" s="85"/>
       <c r="K64" s="85"/>
@@ -3411,29 +3548,29 @@
       <c r="Q64" s="85"/>
       <c r="R64" s="85"/>
       <c r="S64" s="85"/>
-      <c r="T64" s="11"/>
+      <c r="T64" s="85"/>
       <c r="U64" s="11"/>
-      <c r="V64" s="14"/>
+      <c r="V64" s="11"/>
       <c r="W64" s="14"/>
       <c r="X64" s="14"/>
-    </row>
-    <row r="65" spans="1:45">
-      <c r="A65" s="13" t="s">
+      <c r="Y64" s="14"/>
+    </row>
+    <row r="65" spans="2:46">
+      <c r="B65" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70">
+      <c r="C65" s="70"/>
+      <c r="D65" s="70">
         <v>75</v>
       </c>
-      <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="14"/>
+      <c r="G65" s="11"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
-      <c r="L65" s="85"/>
+      <c r="L65" s="14"/>
       <c r="M65" s="85"/>
       <c r="N65" s="85"/>
       <c r="O65" s="85"/>
@@ -3441,273 +3578,273 @@
       <c r="Q65" s="85"/>
       <c r="R65" s="85"/>
       <c r="S65" s="85"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="14"/>
+      <c r="T65" s="85"/>
+      <c r="U65" s="11"/>
       <c r="V65" s="14"/>
       <c r="W65" s="14"/>
       <c r="X65" s="14"/>
-    </row>
-    <row r="66" spans="1:45">
-      <c r="A66" s="13" t="s">
+      <c r="Y65" s="14"/>
+    </row>
+    <row r="66" spans="2:46">
+      <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70">
+      <c r="C66" s="70"/>
+      <c r="D66" s="70">
         <v>30</v>
       </c>
-      <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="14"/>
+      <c r="G66" s="11"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
-      <c r="M66" s="11"/>
+      <c r="M66" s="14"/>
       <c r="N66" s="11"/>
-      <c r="O66" s="85"/>
+      <c r="O66" s="11"/>
       <c r="P66" s="85"/>
       <c r="Q66" s="85"/>
       <c r="R66" s="85"/>
       <c r="S66" s="85"/>
-      <c r="T66" s="11"/>
+      <c r="T66" s="85"/>
       <c r="U66" s="11"/>
-      <c r="V66" s="14"/>
+      <c r="V66" s="11"/>
       <c r="W66" s="14"/>
       <c r="X66" s="14"/>
-    </row>
-    <row r="67" spans="1:45">
-      <c r="A67" s="13" t="s">
+      <c r="Y66" s="14"/>
+    </row>
+    <row r="67" spans="2:46">
+      <c r="B67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70">
+      <c r="C67" s="70"/>
+      <c r="D67" s="70">
         <v>30</v>
       </c>
-      <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="14"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
-      <c r="M67" s="11"/>
+      <c r="M67" s="14"/>
       <c r="N67" s="11"/>
-      <c r="O67" s="85"/>
+      <c r="O67" s="11"/>
       <c r="P67" s="85"/>
       <c r="Q67" s="85"/>
       <c r="R67" s="85"/>
       <c r="S67" s="85"/>
-      <c r="T67" s="11"/>
+      <c r="T67" s="85"/>
       <c r="U67" s="11"/>
-      <c r="V67" s="14"/>
+      <c r="V67" s="11"/>
       <c r="W67" s="14"/>
       <c r="X67" s="14"/>
-    </row>
-    <row r="68" spans="1:45">
-      <c r="A68" s="83" t="s">
+      <c r="Y67" s="14"/>
+    </row>
+    <row r="68" spans="2:46">
+      <c r="B68" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70">
+      <c r="C68" s="70"/>
+      <c r="D68" s="70">
         <v>15</v>
       </c>
-      <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="14"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="85"/>
+      <c r="K68" s="14"/>
       <c r="L68" s="85"/>
       <c r="M68" s="85"/>
       <c r="N68" s="85"/>
       <c r="O68" s="85"/>
-      <c r="P68" s="127"/>
-      <c r="Q68" s="127"/>
-      <c r="R68" s="86"/>
+      <c r="P68" s="85"/>
+      <c r="Q68" s="121"/>
+      <c r="R68" s="121"/>
       <c r="S68" s="86"/>
-      <c r="T68" s="11"/>
+      <c r="T68" s="86"/>
       <c r="U68" s="11"/>
-      <c r="V68" s="14"/>
+      <c r="V68" s="11"/>
       <c r="W68" s="14"/>
       <c r="X68" s="14"/>
-    </row>
-    <row r="69" spans="1:45">
-      <c r="A69" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70">
+      <c r="Y68" s="14"/>
+    </row>
+    <row r="69" spans="2:46">
+      <c r="B69" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70">
         <v>15</v>
       </c>
-      <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="14"/>
+      <c r="G69" s="11"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
-      <c r="M69" s="11"/>
+      <c r="M69" s="14"/>
       <c r="N69" s="11"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="136"/>
-      <c r="Q69" s="136"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="86"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="130"/>
+      <c r="R69" s="130"/>
+      <c r="S69" s="62"/>
       <c r="T69" s="86"/>
       <c r="U69" s="86"/>
-      <c r="V69" s="14"/>
+      <c r="V69" s="86"/>
       <c r="W69" s="14"/>
       <c r="X69" s="14"/>
-    </row>
-    <row r="70" spans="1:45">
-      <c r="A70" s="10" t="s">
+      <c r="Y69" s="14"/>
+    </row>
+    <row r="70" spans="2:46">
+      <c r="B70" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="68" t="s">
+      <c r="C70" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="69">
-        <f>SUM(C71:C73)</f>
+      <c r="D70" s="69">
+        <f>SUM(D71:D73)</f>
         <v>55</v>
       </c>
-      <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
-      <c r="G70" s="14"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
-      <c r="M70" s="86"/>
+      <c r="M70" s="14"/>
       <c r="N70" s="86"/>
       <c r="O70" s="86"/>
       <c r="P70" s="86"/>
       <c r="Q70" s="86"/>
       <c r="R70" s="86"/>
       <c r="S70" s="86"/>
-      <c r="T70" s="11"/>
+      <c r="T70" s="86"/>
       <c r="U70" s="11"/>
-      <c r="V70" s="14"/>
+      <c r="V70" s="11"/>
       <c r="W70" s="14"/>
       <c r="X70" s="14"/>
-    </row>
-    <row r="71" spans="1:45">
-      <c r="A71" s="13" t="s">
+      <c r="Y70" s="14"/>
+    </row>
+    <row r="71" spans="2:46">
+      <c r="B71" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70">
+      <c r="C71" s="70"/>
+      <c r="D71" s="70">
         <v>15</v>
       </c>
-      <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="14"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
-      <c r="M71" s="85"/>
+      <c r="M71" s="14"/>
       <c r="N71" s="85"/>
-      <c r="O71" s="86"/>
-      <c r="P71" s="62"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="86"/>
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
       <c r="S71" s="62"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="14"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="11"/>
       <c r="V71" s="14"/>
       <c r="W71" s="14"/>
       <c r="X71" s="14"/>
-    </row>
-    <row r="72" spans="1:45">
-      <c r="A72" s="13" t="s">
+      <c r="Y71" s="14"/>
+    </row>
+    <row r="72" spans="2:46">
+      <c r="B72" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70">
+      <c r="C72" s="70"/>
+      <c r="D72" s="70">
         <v>25</v>
       </c>
-      <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="14"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
-      <c r="M72" s="11"/>
+      <c r="M72" s="14"/>
       <c r="N72" s="11"/>
-      <c r="O72" s="86"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="86"/>
       <c r="Q72" s="86"/>
-      <c r="R72" s="62"/>
+      <c r="R72" s="86"/>
       <c r="S72" s="62"/>
-      <c r="T72" s="11"/>
+      <c r="T72" s="62"/>
       <c r="U72" s="11"/>
-      <c r="V72" s="14"/>
+      <c r="V72" s="11"/>
       <c r="W72" s="14"/>
       <c r="X72" s="14"/>
-    </row>
-    <row r="73" spans="1:45">
-      <c r="A73" s="13" t="s">
+      <c r="Y72" s="14"/>
+    </row>
+    <row r="73" spans="2:46">
+      <c r="B73" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70">
+      <c r="C73" s="70"/>
+      <c r="D73" s="70">
         <v>15</v>
       </c>
-      <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
-      <c r="G73" s="14"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
-      <c r="M73" s="11"/>
+      <c r="M73" s="14"/>
       <c r="N73" s="11"/>
-      <c r="O73" s="62"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="62"/>
-      <c r="Q73" s="86"/>
+      <c r="Q73" s="62"/>
       <c r="R73" s="86"/>
       <c r="S73" s="86"/>
-      <c r="T73" s="11"/>
+      <c r="T73" s="86"/>
       <c r="U73" s="11"/>
-      <c r="V73" s="14"/>
+      <c r="V73" s="11"/>
       <c r="W73" s="14"/>
       <c r="X73" s="14"/>
-    </row>
-    <row r="74" spans="1:45">
-      <c r="A74" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="73" t="s">
+      <c r="Y73" s="14"/>
+    </row>
+    <row r="74" spans="2:46">
+      <c r="B74" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="73">
+      <c r="D74" s="73">
         <v>180</v>
       </c>
-      <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="85"/>
+      <c r="K74" s="14"/>
       <c r="L74" s="85"/>
       <c r="M74" s="85"/>
       <c r="N74" s="85"/>
@@ -3721,43 +3858,43 @@
       <c r="V74" s="85"/>
       <c r="W74" s="85"/>
       <c r="X74" s="85"/>
-    </row>
-    <row r="75" spans="1:45" ht="6" customHeight="1">
-      <c r="A75" s="152"/>
-      <c r="B75" s="153"/>
-      <c r="C75" s="153"/>
-      <c r="D75" s="153"/>
-      <c r="E75" s="153"/>
-      <c r="F75" s="153"/>
-      <c r="G75" s="153"/>
-      <c r="H75" s="153"/>
-      <c r="I75" s="153"/>
-      <c r="J75" s="153"/>
-      <c r="K75" s="153"/>
-      <c r="L75" s="153"/>
-      <c r="M75" s="153"/>
-      <c r="N75" s="153"/>
-      <c r="O75" s="153"/>
-      <c r="P75" s="153"/>
-      <c r="Q75" s="153"/>
-      <c r="R75" s="153"/>
-      <c r="S75" s="153"/>
-      <c r="T75" s="153"/>
-      <c r="U75" s="153"/>
-      <c r="V75" s="153"/>
-      <c r="W75" s="153"/>
-      <c r="X75" s="153"/>
-    </row>
-    <row r="76" spans="1:45" s="36" customFormat="1">
-      <c r="A76" s="49" t="s">
+      <c r="Y74" s="85"/>
+    </row>
+    <row r="75" spans="2:46" ht="6" customHeight="1">
+      <c r="B75" s="138"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="139"/>
+      <c r="I75" s="139"/>
+      <c r="J75" s="139"/>
+      <c r="K75" s="139"/>
+      <c r="L75" s="139"/>
+      <c r="M75" s="139"/>
+      <c r="N75" s="139"/>
+      <c r="O75" s="139"/>
+      <c r="P75" s="139"/>
+      <c r="Q75" s="139"/>
+      <c r="R75" s="139"/>
+      <c r="S75" s="139"/>
+      <c r="T75" s="139"/>
+      <c r="U75" s="139"/>
+      <c r="V75" s="139"/>
+      <c r="W75" s="139"/>
+      <c r="X75" s="139"/>
+      <c r="Y75" s="139"/>
+    </row>
+    <row r="76" spans="2:46" s="36" customFormat="1">
+      <c r="B76" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76">
-        <f>SUM(C77:C80)</f>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76">
+        <f>SUM(D77:D80)</f>
         <v>192</v>
       </c>
-      <c r="D76" s="50"/>
       <c r="E76" s="50"/>
       <c r="F76" s="50"/>
       <c r="G76" s="50"/>
@@ -3778,7 +3915,7 @@
       <c r="V76" s="50"/>
       <c r="W76" s="50"/>
       <c r="X76" s="50"/>
-      <c r="Y76" s="53"/>
+      <c r="Y76" s="50"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
@@ -3799,18 +3936,18 @@
       <c r="AQ76" s="53"/>
       <c r="AR76" s="53"/>
       <c r="AS76" s="53"/>
-    </row>
-    <row r="77" spans="1:45" s="36" customFormat="1">
-      <c r="A77" s="128" t="s">
+      <c r="AT76" s="53"/>
+    </row>
+    <row r="77" spans="2:46" s="36" customFormat="1">
+      <c r="B77" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="C77" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="72">
+      <c r="D77" s="72">
         <v>60</v>
       </c>
-      <c r="D77" s="65"/>
       <c r="E77" s="65"/>
       <c r="F77" s="65"/>
       <c r="G77" s="65"/>
@@ -3821,17 +3958,17 @@
       <c r="L77" s="65"/>
       <c r="M77" s="65"/>
       <c r="N77" s="65"/>
-      <c r="O77" s="64"/>
+      <c r="O77" s="65"/>
       <c r="P77" s="64"/>
       <c r="Q77" s="64"/>
       <c r="R77" s="64"/>
-      <c r="S77" s="87"/>
+      <c r="S77" s="64"/>
       <c r="T77" s="87"/>
       <c r="U77" s="87"/>
       <c r="V77" s="87"/>
-      <c r="W77" s="65"/>
+      <c r="W77" s="87"/>
       <c r="X77" s="65"/>
-      <c r="Y77" s="53"/>
+      <c r="Y77" s="65"/>
       <c r="Z77" s="53"/>
       <c r="AA77" s="53"/>
       <c r="AB77" s="53"/>
@@ -3852,18 +3989,18 @@
       <c r="AQ77" s="53"/>
       <c r="AR77" s="53"/>
       <c r="AS77" s="53"/>
-    </row>
-    <row r="78" spans="1:45" s="36" customFormat="1">
-      <c r="A78" s="128" t="s">
+      <c r="AT77" s="53"/>
+    </row>
+    <row r="78" spans="2:46" s="36" customFormat="1">
+      <c r="B78" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="68" t="s">
+      <c r="C78" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="68">
+      <c r="D78" s="68">
         <v>40</v>
       </c>
-      <c r="D78" s="65"/>
       <c r="E78" s="65"/>
       <c r="F78" s="65"/>
       <c r="G78" s="65"/>
@@ -3874,17 +4011,17 @@
       <c r="L78" s="65"/>
       <c r="M78" s="65"/>
       <c r="N78" s="65"/>
-      <c r="O78" s="64"/>
+      <c r="O78" s="65"/>
       <c r="P78" s="64"/>
       <c r="Q78" s="64"/>
       <c r="R78" s="64"/>
-      <c r="S78" s="87"/>
+      <c r="S78" s="64"/>
       <c r="T78" s="87"/>
       <c r="U78" s="87"/>
-      <c r="V78" s="65"/>
+      <c r="V78" s="87"/>
       <c r="W78" s="65"/>
       <c r="X78" s="65"/>
-      <c r="Y78" s="53"/>
+      <c r="Y78" s="65"/>
       <c r="Z78" s="53"/>
       <c r="AA78" s="53"/>
       <c r="AB78" s="53"/>
@@ -3905,18 +4042,18 @@
       <c r="AQ78" s="53"/>
       <c r="AR78" s="53"/>
       <c r="AS78" s="53"/>
-    </row>
-    <row r="79" spans="1:45" s="36" customFormat="1">
-      <c r="A79" s="10" t="s">
+      <c r="AT78" s="53"/>
+    </row>
+    <row r="79" spans="2:46" s="36" customFormat="1">
+      <c r="B79" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="68" t="s">
+      <c r="C79" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="68">
+      <c r="D79" s="68">
         <v>50</v>
       </c>
-      <c r="D79" s="65"/>
       <c r="E79" s="65"/>
       <c r="F79" s="65"/>
       <c r="G79" s="65"/>
@@ -3927,17 +4064,17 @@
       <c r="L79" s="65"/>
       <c r="M79" s="65"/>
       <c r="N79" s="65"/>
-      <c r="O79" s="64"/>
+      <c r="O79" s="65"/>
       <c r="P79" s="64"/>
       <c r="Q79" s="64"/>
       <c r="R79" s="64"/>
-      <c r="S79" s="87"/>
+      <c r="S79" s="64"/>
       <c r="T79" s="87"/>
       <c r="U79" s="87"/>
-      <c r="V79" s="65"/>
+      <c r="V79" s="87"/>
       <c r="W79" s="65"/>
       <c r="X79" s="65"/>
-      <c r="Y79" s="53"/>
+      <c r="Y79" s="65"/>
       <c r="Z79" s="53"/>
       <c r="AA79" s="53"/>
       <c r="AB79" s="53"/>
@@ -3958,18 +4095,18 @@
       <c r="AQ79" s="53"/>
       <c r="AR79" s="53"/>
       <c r="AS79" s="53"/>
-    </row>
-    <row r="80" spans="1:45" s="36" customFormat="1">
-      <c r="A80" s="128" t="s">
+      <c r="AT79" s="53"/>
+    </row>
+    <row r="80" spans="2:46" s="36" customFormat="1">
+      <c r="B80" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="C80" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C80" s="68">
+      <c r="D80" s="68">
         <v>42</v>
       </c>
-      <c r="D80" s="65"/>
       <c r="E80" s="65"/>
       <c r="F80" s="65"/>
       <c r="G80" s="65"/>
@@ -3980,17 +4117,17 @@
       <c r="L80" s="65"/>
       <c r="M80" s="65"/>
       <c r="N80" s="65"/>
-      <c r="O80" s="64"/>
+      <c r="O80" s="65"/>
       <c r="P80" s="64"/>
       <c r="Q80" s="64"/>
       <c r="R80" s="64"/>
-      <c r="S80" s="87"/>
+      <c r="S80" s="64"/>
       <c r="T80" s="87"/>
       <c r="U80" s="87"/>
-      <c r="V80" s="65"/>
+      <c r="V80" s="87"/>
       <c r="W80" s="65"/>
       <c r="X80" s="65"/>
-      <c r="Y80" s="53"/>
+      <c r="Y80" s="65"/>
       <c r="Z80" s="53"/>
       <c r="AA80" s="53"/>
       <c r="AB80" s="53"/>
@@ -4011,83 +4148,83 @@
       <c r="AQ80" s="53"/>
       <c r="AR80" s="53"/>
       <c r="AS80" s="53"/>
-    </row>
-    <row r="81" spans="1:45" ht="6" customHeight="1">
-      <c r="A81" s="93"/>
+      <c r="AT80" s="53"/>
+    </row>
+    <row r="81" spans="2:46" ht="6" customHeight="1">
       <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="94"/>
-      <c r="I81" s="94"/>
-      <c r="J81" s="94"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="94"/>
-      <c r="M81" s="94"/>
-      <c r="N81" s="94"/>
-      <c r="O81" s="94"/>
-      <c r="P81" s="94"/>
-      <c r="Q81" s="94"/>
-      <c r="R81" s="94"/>
-      <c r="S81" s="94"/>
-      <c r="T81" s="94"/>
-      <c r="U81" s="94"/>
-      <c r="V81" s="94"/>
-      <c r="W81" s="94"/>
-      <c r="X81" s="94"/>
-    </row>
-    <row r="82" spans="1:45" s="95" customFormat="1">
-      <c r="A82" s="96" t="s">
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="93"/>
+      <c r="K81" s="93"/>
+      <c r="L81" s="93"/>
+      <c r="M81" s="93"/>
+      <c r="N81" s="93"/>
+      <c r="O81" s="93"/>
+      <c r="P81" s="93"/>
+      <c r="Q81" s="93"/>
+      <c r="R81" s="93"/>
+      <c r="S81" s="93"/>
+      <c r="T81" s="93"/>
+      <c r="U81" s="93"/>
+      <c r="V81" s="93"/>
+      <c r="W81" s="93"/>
+      <c r="X81" s="93"/>
+      <c r="Y81" s="93"/>
+    </row>
+    <row r="82" spans="2:46" s="94" customFormat="1">
+      <c r="B82" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="97">
-        <f>SUM(C83:C84)</f>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96">
+        <f>SUM(D83:D84)</f>
         <v>24</v>
       </c>
-      <c r="D82" s="98"/>
-      <c r="E82" s="98"/>
-      <c r="F82" s="98"/>
-      <c r="G82" s="98"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="98"/>
-      <c r="J82" s="98"/>
-      <c r="K82" s="98"/>
-      <c r="L82" s="98"/>
-      <c r="M82" s="98"/>
-      <c r="N82" s="98"/>
-      <c r="O82" s="98"/>
-      <c r="P82" s="98"/>
-      <c r="Q82" s="98"/>
-      <c r="R82" s="98"/>
-      <c r="S82" s="98"/>
-      <c r="T82" s="98"/>
-      <c r="U82" s="98"/>
-      <c r="V82" s="98"/>
-      <c r="W82" s="98"/>
-      <c r="X82" s="98"/>
-    </row>
-    <row r="83" spans="1:45">
-      <c r="A83" s="10" t="s">
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="97"/>
+      <c r="K82" s="97"/>
+      <c r="L82" s="97"/>
+      <c r="M82" s="97"/>
+      <c r="N82" s="97"/>
+      <c r="O82" s="97"/>
+      <c r="P82" s="97"/>
+      <c r="Q82" s="97"/>
+      <c r="R82" s="97"/>
+      <c r="S82" s="97"/>
+      <c r="T82" s="97"/>
+      <c r="U82" s="97"/>
+      <c r="V82" s="97"/>
+      <c r="W82" s="97"/>
+      <c r="X82" s="97"/>
+      <c r="Y82" s="97"/>
+    </row>
+    <row r="83" spans="2:46">
+      <c r="B83" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="68" t="s">
+      <c r="C83" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C83" s="68">
+      <c r="D83" s="68">
         <v>6</v>
       </c>
-      <c r="D83" s="30"/>
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
       <c r="I83" s="30"/>
       <c r="J83" s="30"/>
-      <c r="K83" s="102"/>
-      <c r="L83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="99"/>
       <c r="M83" s="30"/>
       <c r="N83" s="30"/>
       <c r="O83" s="30"/>
@@ -4100,18 +4237,18 @@
       <c r="V83" s="30"/>
       <c r="W83" s="30"/>
       <c r="X83" s="30"/>
-    </row>
-    <row r="84" spans="1:45">
-      <c r="A84" s="10" t="s">
+      <c r="Y83" s="30"/>
+    </row>
+    <row r="84" spans="2:46">
+      <c r="B84" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="C84" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="68">
+      <c r="D84" s="68">
         <v>18</v>
       </c>
-      <c r="D84" s="30"/>
       <c r="E84" s="30"/>
       <c r="F84" s="30"/>
       <c r="G84" s="30"/>
@@ -4130,66 +4267,66 @@
       <c r="T84" s="30"/>
       <c r="U84" s="30"/>
       <c r="V84" s="30"/>
-      <c r="W84" s="102"/>
-      <c r="X84" s="102"/>
-    </row>
-    <row r="85" spans="1:45" ht="6" customHeight="1">
-      <c r="A85" s="93"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="99"/>
+      <c r="Y84" s="99"/>
+    </row>
+    <row r="85" spans="2:46" ht="6" customHeight="1">
       <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="94"/>
-      <c r="K85" s="94"/>
-      <c r="L85" s="94"/>
-      <c r="M85" s="94"/>
-      <c r="N85" s="94"/>
-      <c r="O85" s="94"/>
-      <c r="P85" s="94"/>
-      <c r="Q85" s="94"/>
-      <c r="R85" s="94"/>
-      <c r="S85" s="94"/>
-      <c r="T85" s="94"/>
-      <c r="U85" s="94"/>
-      <c r="V85" s="94"/>
-      <c r="W85" s="94"/>
-      <c r="X85" s="94"/>
-    </row>
-    <row r="86" spans="1:45" s="52" customFormat="1">
-      <c r="A86" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="130"/>
-      <c r="C86" s="130">
-        <f>SUM(C87)</f>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="93"/>
+      <c r="K85" s="93"/>
+      <c r="L85" s="93"/>
+      <c r="M85" s="93"/>
+      <c r="N85" s="93"/>
+      <c r="O85" s="93"/>
+      <c r="P85" s="93"/>
+      <c r="Q85" s="93"/>
+      <c r="R85" s="93"/>
+      <c r="S85" s="93"/>
+      <c r="T85" s="93"/>
+      <c r="U85" s="93"/>
+      <c r="V85" s="93"/>
+      <c r="W85" s="93"/>
+      <c r="X85" s="93"/>
+      <c r="Y85" s="93"/>
+    </row>
+    <row r="86" spans="2:46" s="52" customFormat="1">
+      <c r="B86" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124">
+        <f>SUM(D87)</f>
         <v>48</v>
       </c>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="132"/>
-      <c r="H86" s="132"/>
-      <c r="I86" s="132"/>
-      <c r="J86" s="132"/>
-      <c r="K86" s="132"/>
-      <c r="L86" s="132"/>
-      <c r="M86" s="132"/>
-      <c r="N86" s="132"/>
-      <c r="O86" s="132"/>
-      <c r="P86" s="132"/>
-      <c r="Q86" s="132"/>
-      <c r="R86" s="133"/>
-      <c r="S86" s="133"/>
-      <c r="T86" s="133"/>
-      <c r="U86" s="133"/>
-      <c r="V86" s="133"/>
-      <c r="W86" s="132"/>
-      <c r="X86" s="132"/>
-      <c r="Y86" s="1"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="126"/>
+      <c r="L86" s="126"/>
+      <c r="M86" s="126"/>
+      <c r="N86" s="126"/>
+      <c r="O86" s="126"/>
+      <c r="P86" s="126"/>
+      <c r="Q86" s="126"/>
+      <c r="R86" s="126"/>
+      <c r="S86" s="127"/>
+      <c r="T86" s="127"/>
+      <c r="U86" s="127"/>
+      <c r="V86" s="127"/>
+      <c r="W86" s="127"/>
+      <c r="X86" s="126"/>
+      <c r="Y86" s="126"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
@@ -4210,145 +4347,147 @@
       <c r="AQ86" s="1"/>
       <c r="AR86" s="1"/>
       <c r="AS86" s="1"/>
-    </row>
-    <row r="87" spans="1:45">
-      <c r="A87" s="23" t="s">
+      <c r="AT86" s="1"/>
+    </row>
+    <row r="87" spans="2:46">
+      <c r="B87" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3">
         <v>48</v>
       </c>
-      <c r="D87" s="134"/>
-      <c r="E87" s="134"/>
-      <c r="F87" s="134"/>
-      <c r="G87" s="134"/>
-      <c r="H87" s="134"/>
-      <c r="I87" s="134"/>
-      <c r="J87" s="134"/>
-      <c r="K87" s="134"/>
-      <c r="L87" s="134"/>
-      <c r="M87" s="134"/>
-      <c r="N87" s="134"/>
-      <c r="O87" s="135"/>
-      <c r="P87" s="135"/>
-      <c r="Q87" s="135"/>
-      <c r="R87" s="135"/>
-      <c r="S87" s="135"/>
-      <c r="T87" s="134"/>
-      <c r="U87" s="134"/>
-      <c r="V87" s="134"/>
-      <c r="W87" s="134"/>
-      <c r="X87" s="134"/>
-    </row>
-    <row r="91" spans="1:45">
-      <c r="A91" s="154"/>
-      <c r="B91" s="154"/>
-      <c r="C91" s="154"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="154"/>
-      <c r="G91" s="154"/>
-      <c r="H91" s="154"/>
-      <c r="I91" s="154"/>
-      <c r="J91" s="154"/>
-      <c r="K91" s="154"/>
-      <c r="L91" s="154"/>
-      <c r="M91" s="154"/>
-      <c r="N91" s="154"/>
-      <c r="O91" s="154"/>
-      <c r="P91" s="154"/>
-      <c r="Q91" s="154"/>
-      <c r="R91" s="154"/>
-      <c r="S91" s="154"/>
-      <c r="T91" s="154"/>
-      <c r="U91" s="154"/>
-      <c r="V91" s="154"/>
-      <c r="W91" s="154"/>
-      <c r="X91" s="154"/>
-    </row>
-    <row r="92" spans="1:45">
-      <c r="A92" s="140"/>
-      <c r="B92" s="139"/>
-      <c r="C92" s="139"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="140"/>
-      <c r="F92" s="140"/>
-      <c r="G92" s="140"/>
-      <c r="H92" s="140"/>
-      <c r="I92" s="140"/>
-      <c r="J92" s="140"/>
-      <c r="K92" s="140"/>
-      <c r="L92" s="140"/>
-      <c r="M92" s="140"/>
-      <c r="N92" s="140"/>
-      <c r="O92" s="140"/>
-      <c r="P92" s="140"/>
-      <c r="Q92" s="140"/>
-      <c r="R92" s="140"/>
-      <c r="S92" s="140"/>
-      <c r="T92" s="140"/>
-      <c r="U92" s="140"/>
-      <c r="V92" s="140"/>
-      <c r="W92" s="140"/>
-      <c r="X92" s="140"/>
-    </row>
-    <row r="93" spans="1:45">
-      <c r="A93" s="140"/>
-      <c r="B93" s="139"/>
-      <c r="C93" s="139"/>
-      <c r="D93" s="140"/>
-      <c r="E93" s="140"/>
-      <c r="F93" s="140"/>
-      <c r="G93" s="140"/>
-      <c r="H93" s="140"/>
-      <c r="I93" s="140"/>
-      <c r="J93" s="140"/>
-      <c r="K93" s="140"/>
-      <c r="L93" s="140"/>
-      <c r="M93" s="140"/>
-      <c r="N93" s="140"/>
-      <c r="O93" s="140"/>
-      <c r="P93" s="140"/>
-      <c r="Q93" s="140"/>
-      <c r="R93" s="140"/>
-      <c r="S93" s="140"/>
-      <c r="T93" s="140"/>
-      <c r="U93" s="140"/>
-      <c r="V93" s="140"/>
-      <c r="W93" s="140"/>
-      <c r="X93" s="140"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="128"/>
+      <c r="J87" s="128"/>
+      <c r="K87" s="128"/>
+      <c r="L87" s="128"/>
+      <c r="M87" s="128"/>
+      <c r="N87" s="128"/>
+      <c r="O87" s="128"/>
+      <c r="P87" s="129"/>
+      <c r="Q87" s="129"/>
+      <c r="R87" s="129"/>
+      <c r="S87" s="129"/>
+      <c r="T87" s="129"/>
+      <c r="U87" s="128"/>
+      <c r="V87" s="128"/>
+      <c r="W87" s="128"/>
+      <c r="X87" s="128"/>
+      <c r="Y87" s="128"/>
+    </row>
+    <row r="91" spans="2:46">
+      <c r="B91" s="140"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="140"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="140"/>
+      <c r="H91" s="140"/>
+      <c r="I91" s="140"/>
+      <c r="J91" s="140"/>
+      <c r="K91" s="140"/>
+      <c r="L91" s="140"/>
+      <c r="M91" s="140"/>
+      <c r="N91" s="140"/>
+      <c r="O91" s="140"/>
+      <c r="P91" s="140"/>
+      <c r="Q91" s="140"/>
+      <c r="R91" s="140"/>
+      <c r="S91" s="140"/>
+      <c r="T91" s="140"/>
+      <c r="U91" s="140"/>
+      <c r="V91" s="140"/>
+      <c r="W91" s="140"/>
+      <c r="X91" s="140"/>
+      <c r="Y91" s="140"/>
+    </row>
+    <row r="92" spans="2:46">
+      <c r="B92" s="132"/>
+      <c r="C92" s="133"/>
+      <c r="D92" s="133"/>
+      <c r="E92" s="132"/>
+      <c r="F92" s="132"/>
+      <c r="G92" s="132"/>
+      <c r="H92" s="132"/>
+      <c r="I92" s="132"/>
+      <c r="J92" s="132"/>
+      <c r="K92" s="132"/>
+      <c r="L92" s="132"/>
+      <c r="M92" s="132"/>
+      <c r="N92" s="132"/>
+      <c r="O92" s="132"/>
+      <c r="P92" s="132"/>
+      <c r="Q92" s="132"/>
+      <c r="R92" s="132"/>
+      <c r="S92" s="132"/>
+      <c r="T92" s="132"/>
+      <c r="U92" s="132"/>
+      <c r="V92" s="132"/>
+      <c r="W92" s="132"/>
+      <c r="X92" s="132"/>
+      <c r="Y92" s="132"/>
+    </row>
+    <row r="93" spans="2:46">
+      <c r="B93" s="132"/>
+      <c r="C93" s="133"/>
+      <c r="D93" s="133"/>
+      <c r="E93" s="132"/>
+      <c r="F93" s="132"/>
+      <c r="G93" s="132"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="132"/>
+      <c r="K93" s="132"/>
+      <c r="L93" s="132"/>
+      <c r="M93" s="132"/>
+      <c r="N93" s="132"/>
+      <c r="O93" s="132"/>
+      <c r="P93" s="132"/>
+      <c r="Q93" s="132"/>
+      <c r="R93" s="132"/>
+      <c r="S93" s="132"/>
+      <c r="T93" s="132"/>
+      <c r="U93" s="132"/>
+      <c r="V93" s="132"/>
+      <c r="W93" s="132"/>
+      <c r="X93" s="132"/>
+      <c r="Y93" s="132"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A93:X93"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A26:X26"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A47:X47"/>
-    <mergeCell ref="A75:X75"/>
-    <mergeCell ref="A91:X91"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A92:X92"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="A60:X60"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D21:X21"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="B20:B25"/>
+  <mergeCells count="27">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B92:Y92"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E2:Y2"/>
+    <mergeCell ref="B60:Y60"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E21:Y21"/>
+    <mergeCell ref="P22:T22"/>
     <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B93:Y93"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B26:Y26"/>
+    <mergeCell ref="B36:Y36"/>
+    <mergeCell ref="B47:Y47"/>
+    <mergeCell ref="B75:Y75"/>
+    <mergeCell ref="B91:Y91"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="B31">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -4360,7 +4499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="B32">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -4372,7 +4511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="B49">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -4384,7 +4523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A55">
+  <conditionalFormatting sqref="B53:B55">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4396,7 +4535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A64">
+  <conditionalFormatting sqref="B63:B64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4408,637 +4547,2732 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70866141732283505" right="0.67833333299999998" top="0.78740157480314998" bottom="0.78740157480314998" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21104619-9600-4A6F-A028-807EB456698F}">
-  <dimension ref="A1:C67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BB816C-1882-4397-A5F7-1E86A0979930}">
+  <dimension ref="B1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="58.5" customWidth="1"/>
-    <col min="2" max="3" width="7.8984375" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="3.09765625" customWidth="1"/>
+    <col min="4" max="4" width="0.296875" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="27" width="3.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="97.8" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="137" t="s">
+    <row r="1" spans="2:26">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+    </row>
+    <row r="2" spans="2:26">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="148">
+        <v>2019</v>
+      </c>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+    </row>
+    <row r="3" spans="2:26">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="164" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4">
+        <v>14</v>
+      </c>
+      <c r="M3" s="4">
+        <v>15</v>
+      </c>
+      <c r="N3" s="4">
+        <v>16</v>
+      </c>
+      <c r="O3" s="183">
+        <v>17</v>
+      </c>
+      <c r="P3" s="183">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="148" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="4">
+        <v>20</v>
+      </c>
+      <c r="W3" s="4">
+        <v>21</v>
+      </c>
+      <c r="X3" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="35.4" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="161">
+        <v>18.02</v>
+      </c>
+      <c r="G4" s="161">
+        <v>25.02</v>
+      </c>
+      <c r="H4" s="165">
+        <v>4.03</v>
+      </c>
+      <c r="I4" s="165">
+        <v>11.03</v>
+      </c>
+      <c r="J4" s="165">
+        <v>18.03</v>
+      </c>
+      <c r="K4" s="165">
+        <v>25.03</v>
+      </c>
+      <c r="L4" s="165">
+        <v>1.04</v>
+      </c>
+      <c r="M4" s="161">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="N4" s="165">
+        <v>15.04</v>
+      </c>
+      <c r="O4" s="161">
+        <v>22.04</v>
+      </c>
+      <c r="P4" s="165">
+        <v>29.04</v>
+      </c>
+      <c r="Q4" s="166">
+        <v>6.05</v>
+      </c>
+      <c r="R4" s="166">
+        <v>7.05</v>
+      </c>
+      <c r="S4" s="166">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="T4" s="166">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="U4" s="166">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="V4" s="161">
+        <v>13.05</v>
+      </c>
+      <c r="W4" s="161">
+        <v>20.05</v>
+      </c>
+      <c r="X4" s="161">
+        <v>27.05</v>
+      </c>
+      <c r="Y4" s="161">
+        <v>3.06</v>
+      </c>
+      <c r="Z4" s="161">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26">
+      <c r="B5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+    </row>
+    <row r="6" spans="2:26" ht="3.6" customHeight="1">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="169"/>
+    </row>
+    <row r="7" spans="2:26">
+      <c r="B7" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="2:26">
+      <c r="B8" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="143"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="B9" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="2:26">
+      <c r="B10" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="2:26">
+      <c r="B11" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="2:26">
+      <c r="B12" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="2:26">
+      <c r="B13" s="142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="2:26">
+      <c r="B14" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="143"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="2:26">
+      <c r="B15" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26">
+      <c r="B16" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="B17" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="10.8" customHeight="1">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+    </row>
+    <row r="19" spans="2:27" ht="52.8" customHeight="1">
+      <c r="B19" s="118"/>
+      <c r="C19" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="D19" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="151"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="174"/>
+      <c r="U19" s="174"/>
+      <c r="V19" s="174"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="174"/>
+      <c r="Z19" s="174"/>
+      <c r="AA19" s="174"/>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="B20" s="118"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+    </row>
+    <row r="21" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B21" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="2:27" ht="4.2" customHeight="1">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B23" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="187">
+        <f>SUM(D24:D24,D27,D28,D29,D30,D31,D25,D26)</f>
+        <v>65</v>
+      </c>
+      <c r="E23" s="187"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="40"/>
+    </row>
+    <row r="24" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B24" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="138">
+        <v>10</v>
+      </c>
+      <c r="E24" s="186"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+    </row>
+    <row r="25" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B25" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="138">
+        <v>32</v>
+      </c>
+      <c r="E25" s="186"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+    </row>
+    <row r="26" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B26" s="178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="138">
+        <v>10</v>
+      </c>
+      <c r="E26" s="186"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="123"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="123"/>
+      <c r="W26" s="123"/>
+      <c r="X26" s="123"/>
+      <c r="Y26" s="123"/>
+      <c r="Z26" s="123"/>
+    </row>
+    <row r="27" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B27" s="179" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="138">
+        <v>2</v>
+      </c>
+      <c r="E27" s="186"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B28" s="179" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="138">
+        <v>2</v>
+      </c>
+      <c r="E28" s="186"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B29" s="179" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="138">
+        <v>2</v>
+      </c>
+      <c r="E29" s="186"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B30" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="138">
+        <v>4</v>
+      </c>
+      <c r="E30" s="186"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+    </row>
+    <row r="31" spans="2:27" ht="14.4" customHeight="1">
+      <c r="B31" s="179" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="138">
+        <v>3</v>
+      </c>
+      <c r="E31" s="186"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+    </row>
+    <row r="32" spans="2:27" ht="3.6" customHeight="1">
+      <c r="B32" s="184"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="184"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="184"/>
+      <c r="R32" s="184"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="184"/>
+      <c r="U32" s="184"/>
+      <c r="V32" s="184"/>
+      <c r="W32" s="184"/>
+      <c r="X32" s="184"/>
+      <c r="Y32" s="184"/>
+      <c r="Z32" s="184"/>
+    </row>
+    <row r="33" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B33" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="176"/>
+      <c r="D33" s="188">
+        <f>SUM(D39,D34)</f>
+        <v>75</v>
+      </c>
+      <c r="E33" s="189"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="171"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="172"/>
+      <c r="U33" s="172"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="172"/>
+      <c r="X33" s="172"/>
+      <c r="Y33" s="172"/>
+      <c r="Z33" s="172"/>
+    </row>
+    <row r="34" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B34" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="191">
+        <f>SUM(D35:E38)</f>
+        <v>43</v>
+      </c>
+      <c r="E34" s="190"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+    </row>
+    <row r="35" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="191">
+        <v>12</v>
+      </c>
+      <c r="E35" s="190"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+    </row>
+    <row r="36" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="191">
+        <v>15</v>
+      </c>
+      <c r="E36" s="190"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+    </row>
+    <row r="37" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B37" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="D37" s="191">
+        <v>10</v>
+      </c>
+      <c r="E37" s="190"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+    </row>
+    <row r="38" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="191">
+        <v>6</v>
+      </c>
+      <c r="E38" s="190"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+    </row>
+    <row r="39" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B39" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="138">
+        <f>SUM(D40:E42)</f>
+        <v>32</v>
+      </c>
+      <c r="E39" s="186"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B40" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="73"/>
+      <c r="D40" s="192">
+        <v>10</v>
+      </c>
+      <c r="E40" s="193"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B41" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="70"/>
+      <c r="D41" s="192">
+        <v>10</v>
+      </c>
+      <c r="E41" s="193"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B42" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="192">
+        <v>12</v>
+      </c>
+      <c r="E42" s="193"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="2:26" ht="3.6" customHeight="1">
+      <c r="B43" s="185"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="185"/>
+      <c r="L43" s="185"/>
+      <c r="M43" s="185"/>
+      <c r="N43" s="185"/>
+      <c r="O43" s="185"/>
+      <c r="P43" s="185"/>
+      <c r="Q43" s="185"/>
+      <c r="R43" s="185"/>
+      <c r="S43" s="185"/>
+      <c r="T43" s="185"/>
+      <c r="U43" s="185"/>
+      <c r="V43" s="185"/>
+      <c r="W43" s="185"/>
+      <c r="X43" s="185"/>
+      <c r="Y43" s="185"/>
+      <c r="Z43" s="185"/>
+    </row>
+    <row r="44" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B44" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="74"/>
+      <c r="D44" s="195">
+        <f>SUM(D45,D49,D53,D55)</f>
+        <v>147</v>
+      </c>
+      <c r="E44" s="194"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+    </row>
+    <row r="45" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B45" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="191">
+        <f>SUM(D46:E48)</f>
+        <v>45</v>
+      </c>
+      <c r="E45" s="190"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+    </row>
+    <row r="46" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="138">
+        <v>20</v>
+      </c>
+      <c r="E46" s="186"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+    </row>
+    <row r="47" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="138">
+        <v>15</v>
+      </c>
+      <c r="E47" s="186"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B48" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="138">
+        <v>10</v>
+      </c>
+      <c r="E48" s="186"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B49" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="191">
+        <f>SUM(D50:E52)</f>
+        <v>40</v>
+      </c>
+      <c r="E49" s="190"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+    </row>
+    <row r="50" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="69"/>
+      <c r="D50" s="138">
+        <v>18</v>
+      </c>
+      <c r="E50" s="186"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+    </row>
+    <row r="51" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="138">
+        <v>12</v>
+      </c>
+      <c r="E51" s="186"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+    </row>
+    <row r="52" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B52" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="138">
+        <v>10</v>
+      </c>
+      <c r="E52" s="186"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+    </row>
+    <row r="53" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B53" s="178" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="191">
+        <f>SUM(D54:D54)</f>
+        <v>10</v>
+      </c>
+      <c r="E53" s="190"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+    </row>
+    <row r="54" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B54" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="69"/>
+      <c r="D54" s="138">
+        <v>10</v>
+      </c>
+      <c r="E54" s="186"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+    </row>
+    <row r="55" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B55" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="68"/>
+      <c r="D55" s="138">
+        <v>52</v>
+      </c>
+      <c r="E55" s="186"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+    </row>
+    <row r="56" spans="2:26" ht="3.6" customHeight="1">
+      <c r="B56" s="185"/>
+      <c r="C56" s="185"/>
+      <c r="D56" s="185"/>
+      <c r="E56" s="185"/>
+      <c r="F56" s="185"/>
+      <c r="G56" s="185"/>
+      <c r="H56" s="185"/>
+      <c r="I56" s="185"/>
+      <c r="J56" s="185"/>
+      <c r="K56" s="185"/>
+      <c r="L56" s="185"/>
+      <c r="M56" s="185"/>
+      <c r="N56" s="185"/>
+      <c r="O56" s="185"/>
+      <c r="P56" s="185"/>
+      <c r="Q56" s="185"/>
+      <c r="R56" s="185"/>
+      <c r="S56" s="185"/>
+      <c r="T56" s="185"/>
+      <c r="U56" s="185"/>
+      <c r="V56" s="185"/>
+      <c r="W56" s="185"/>
+      <c r="X56" s="185"/>
+      <c r="Y56" s="185"/>
+      <c r="Z56" s="185"/>
+    </row>
+    <row r="57" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B57" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="75"/>
+      <c r="D57" s="197">
+        <f>SUM(D58,D66,D70)</f>
+        <v>495</v>
+      </c>
+      <c r="E57" s="196"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="47"/>
+    </row>
+    <row r="58" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B58" s="178" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="191">
+        <f>SUM(D59:E65)</f>
+        <v>260</v>
+      </c>
+      <c r="E58" s="190"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="86"/>
+      <c r="P58" s="86"/>
+      <c r="Q58" s="86"/>
+      <c r="R58" s="86"/>
+      <c r="S58" s="86"/>
+      <c r="T58" s="86"/>
+      <c r="U58" s="86"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+    </row>
+    <row r="59" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B59" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="72"/>
+      <c r="D59" s="191">
+        <v>35</v>
+      </c>
+      <c r="E59" s="190"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="85"/>
+      <c r="R59" s="85"/>
+      <c r="S59" s="85"/>
+      <c r="T59" s="85"/>
+      <c r="U59" s="85"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+    </row>
+    <row r="60" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B60" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="72"/>
+      <c r="D60" s="191">
+        <v>60</v>
+      </c>
+      <c r="E60" s="190"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="85"/>
+      <c r="S60" s="85"/>
+      <c r="T60" s="85"/>
+      <c r="U60" s="85"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+    </row>
+    <row r="61" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B61" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="70"/>
+      <c r="D61" s="192">
+        <v>75</v>
+      </c>
+      <c r="E61" s="193"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="85"/>
+      <c r="O61" s="85"/>
+      <c r="P61" s="85"/>
+      <c r="Q61" s="85"/>
+      <c r="R61" s="85"/>
+      <c r="S61" s="85"/>
+      <c r="T61" s="85"/>
+      <c r="U61" s="85"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
+    </row>
+    <row r="62" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B62" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="70"/>
+      <c r="D62" s="192">
+        <v>30</v>
+      </c>
+      <c r="E62" s="193"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="85"/>
+      <c r="R62" s="85"/>
+      <c r="S62" s="85"/>
+      <c r="T62" s="85"/>
+      <c r="U62" s="85"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+    </row>
+    <row r="63" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B63" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="192">
+        <v>30</v>
+      </c>
+      <c r="E63" s="193"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="85"/>
+      <c r="R63" s="85"/>
+      <c r="S63" s="85"/>
+      <c r="T63" s="85"/>
+      <c r="U63" s="85"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+    </row>
+    <row r="64" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B64" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="70"/>
+      <c r="D64" s="192">
+        <v>15</v>
+      </c>
+      <c r="E64" s="193"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="85"/>
+      <c r="O64" s="85"/>
+      <c r="P64" s="85"/>
+      <c r="Q64" s="85"/>
+      <c r="R64" s="121"/>
+      <c r="S64" s="121"/>
+      <c r="T64" s="86"/>
+      <c r="U64" s="86"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+    </row>
+    <row r="65" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B65" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="70"/>
+      <c r="D65" s="192">
+        <v>15</v>
+      </c>
+      <c r="E65" s="193"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="130"/>
+      <c r="S65" s="130"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="86"/>
+      <c r="V65" s="86"/>
+      <c r="W65" s="86"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+    </row>
+    <row r="66" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B66" s="178" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="138">
+        <f>SUM(D67:E69)</f>
+        <v>55</v>
+      </c>
+      <c r="E66" s="186"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="86"/>
+      <c r="P66" s="86"/>
+      <c r="Q66" s="86"/>
+      <c r="R66" s="86"/>
+      <c r="S66" s="86"/>
+      <c r="T66" s="86"/>
+      <c r="U66" s="86"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+    </row>
+    <row r="67" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B67" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="70"/>
+      <c r="D67" s="192">
+        <v>15</v>
+      </c>
+      <c r="E67" s="193"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="85"/>
+      <c r="P67" s="85"/>
+      <c r="Q67" s="86"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="62"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+    </row>
+    <row r="68" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B68" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="70"/>
+      <c r="D68" s="192">
+        <v>25</v>
+      </c>
+      <c r="E68" s="193"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="86"/>
+      <c r="R68" s="86"/>
+      <c r="S68" s="86"/>
+      <c r="T68" s="62"/>
+      <c r="U68" s="62"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+    </row>
+    <row r="69" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B69" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="70"/>
+      <c r="D69" s="192">
+        <v>15</v>
+      </c>
+      <c r="E69" s="193"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="86"/>
+      <c r="T69" s="86"/>
+      <c r="U69" s="86"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+    </row>
+    <row r="70" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B70" s="179" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67">
-        <f>SUM(C3:C3,C6,C7,C8,C9,C10,C4,C5)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="68" t="s">
+      <c r="C70" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="D70" s="192">
+        <v>180</v>
+      </c>
+      <c r="E70" s="193"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="85"/>
+      <c r="P70" s="85"/>
+      <c r="Q70" s="85"/>
+      <c r="R70" s="85"/>
+      <c r="S70" s="85"/>
+      <c r="T70" s="85"/>
+      <c r="U70" s="85"/>
+      <c r="V70" s="85"/>
+      <c r="W70" s="85"/>
+      <c r="X70" s="85"/>
+      <c r="Y70" s="85"/>
+      <c r="Z70" s="85"/>
+    </row>
+    <row r="71" spans="2:26" ht="3.6" customHeight="1">
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="93"/>
+      <c r="M71" s="93"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="93"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="93"/>
+      <c r="S71" s="93"/>
+      <c r="T71" s="93"/>
+      <c r="U71" s="93"/>
+      <c r="V71" s="93"/>
+      <c r="W71" s="93"/>
+      <c r="X71" s="93"/>
+      <c r="Y71" s="93"/>
+      <c r="Z71" s="93"/>
+    </row>
+    <row r="72" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B72" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="76"/>
+      <c r="D72" s="198">
+        <f>SUM(D73:E76)</f>
+        <v>192</v>
+      </c>
+      <c r="E72" s="199"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="50"/>
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
+      <c r="V72" s="50"/>
+      <c r="W72" s="50"/>
+      <c r="X72" s="50"/>
+      <c r="Y72" s="50"/>
+      <c r="Z72" s="50"/>
+    </row>
+    <row r="73" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B73" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="191">
+        <v>60</v>
+      </c>
+      <c r="E73" s="190"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="65"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="65"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="64"/>
+      <c r="U73" s="87"/>
+      <c r="V73" s="87"/>
+      <c r="W73" s="87"/>
+      <c r="X73" s="87"/>
+      <c r="Y73" s="65"/>
+      <c r="Z73" s="65"/>
+    </row>
+    <row r="74" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B74" s="181" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="138">
+        <v>40</v>
+      </c>
+      <c r="E74" s="186"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="T74" s="64"/>
+      <c r="U74" s="87"/>
+      <c r="V74" s="87"/>
+      <c r="W74" s="87"/>
+      <c r="X74" s="65"/>
+      <c r="Y74" s="65"/>
+      <c r="Z74" s="65"/>
+    </row>
+    <row r="75" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B75" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="138">
+        <v>50</v>
+      </c>
+      <c r="E75" s="186"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
+      <c r="S75" s="64"/>
+      <c r="T75" s="64"/>
+      <c r="U75" s="87"/>
+      <c r="V75" s="87"/>
+      <c r="W75" s="87"/>
+      <c r="X75" s="65"/>
+      <c r="Y75" s="65"/>
+      <c r="Z75" s="65"/>
+    </row>
+    <row r="76" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B76" s="181" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="69">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="68" t="s">
+      <c r="D76" s="138">
+        <v>42</v>
+      </c>
+      <c r="E76" s="186"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="64"/>
+      <c r="S76" s="64"/>
+      <c r="T76" s="64"/>
+      <c r="U76" s="87"/>
+      <c r="V76" s="87"/>
+      <c r="W76" s="87"/>
+      <c r="X76" s="65"/>
+      <c r="Y76" s="65"/>
+      <c r="Z76" s="65"/>
+    </row>
+    <row r="77" spans="2:26" ht="3.6" customHeight="1">
+      <c r="B77" s="93"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="93"/>
+      <c r="M77" s="93"/>
+      <c r="N77" s="93"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="93"/>
+      <c r="Q77" s="93"/>
+      <c r="R77" s="93"/>
+      <c r="S77" s="93"/>
+      <c r="T77" s="93"/>
+      <c r="U77" s="93"/>
+      <c r="V77" s="93"/>
+      <c r="W77" s="93"/>
+      <c r="X77" s="93"/>
+      <c r="Y77" s="93"/>
+      <c r="Z77" s="93"/>
+    </row>
+    <row r="78" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B78" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="96"/>
+      <c r="D78" s="200">
+        <f>SUM(D79:E80)</f>
+        <v>24</v>
+      </c>
+      <c r="E78" s="201"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="97"/>
+      <c r="K78" s="97"/>
+      <c r="L78" s="97"/>
+      <c r="M78" s="97"/>
+      <c r="N78" s="97"/>
+      <c r="O78" s="97"/>
+      <c r="P78" s="97"/>
+      <c r="Q78" s="97"/>
+      <c r="R78" s="97"/>
+      <c r="S78" s="97"/>
+      <c r="T78" s="97"/>
+      <c r="U78" s="97"/>
+      <c r="V78" s="97"/>
+      <c r="W78" s="97"/>
+      <c r="X78" s="97"/>
+      <c r="Y78" s="97"/>
+      <c r="Z78" s="97"/>
+    </row>
+    <row r="79" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B79" s="178" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="68" t="s">
+      <c r="D79" s="138">
+        <v>6</v>
+      </c>
+      <c r="E79" s="186"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="99"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="182"/>
+      <c r="R79" s="182"/>
+      <c r="S79" s="182"/>
+      <c r="T79" s="182"/>
+      <c r="U79" s="182"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+    </row>
+    <row r="80" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B80" s="178" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="D80" s="138">
+        <v>18</v>
+      </c>
+      <c r="E80" s="186"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="182"/>
+      <c r="R80" s="182"/>
+      <c r="S80" s="182"/>
+      <c r="T80" s="182"/>
+      <c r="U80" s="182"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="99"/>
+      <c r="Z80" s="99"/>
+    </row>
+    <row r="81" spans="2:26" ht="3.6" customHeight="1">
+      <c r="B81" s="93"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="93"/>
+      <c r="K81" s="93"/>
+      <c r="L81" s="93"/>
+      <c r="M81" s="93"/>
+      <c r="N81" s="93"/>
+      <c r="O81" s="93"/>
+      <c r="P81" s="93"/>
+      <c r="Q81" s="93"/>
+      <c r="R81" s="93"/>
+      <c r="S81" s="93"/>
+      <c r="T81" s="93"/>
+      <c r="U81" s="93"/>
+      <c r="V81" s="93"/>
+      <c r="W81" s="93"/>
+      <c r="X81" s="93"/>
+      <c r="Y81" s="93"/>
+      <c r="Z81" s="93"/>
+    </row>
+    <row r="82" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B82" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A11" s="144"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71">
-        <f>SUM(C18,C13)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="72">
-        <f>SUM(C14:C17)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A14" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A15" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A16" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A17" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="68">
-        <f>SUM(C19:C21)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A22" s="144"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
-    </row>
-    <row r="23" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74">
-        <f>SUM(C24,C28,C32,C34)</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="72">
-        <f>SUM(C25:C27)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A25" s="21" t="s">
+      <c r="C82" s="124"/>
+      <c r="D82" s="203">
+        <f>SUM(D83)</f>
         <v>48</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="72">
-        <f>SUM(C29:C31)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="72">
-        <f>SUM(C33:C33)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A35" s="144"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-    </row>
-    <row r="36" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A36" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75">
-        <f>SUM(C37,C45,C49)</f>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="72">
-        <f>SUM(C38:C44)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A41" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A43" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A44" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="69">
-        <f>SUM(C46:C48)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A46" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A47" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A48" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="73">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A50" s="152"/>
-      <c r="B50" s="153"/>
-      <c r="C50" s="153"/>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A51" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76">
-        <f>SUM(C52:C55)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A52" s="128" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="72">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A53" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="68">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A54" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="68">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A55" s="128" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="68">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A56" s="93"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-    </row>
-    <row r="57" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A57" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="97">
-        <f>SUM(C58:C59)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A58" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A59" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="68">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="6.6" customHeight="1">
-      <c r="A60" s="93"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-    </row>
-    <row r="61" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A61" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="130"/>
-      <c r="C61" s="130">
-        <f>SUM(C62)</f>
+      <c r="E82" s="202"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="126"/>
+      <c r="M82" s="126"/>
+      <c r="N82" s="126"/>
+      <c r="O82" s="126"/>
+      <c r="P82" s="126"/>
+      <c r="Q82" s="126"/>
+      <c r="R82" s="126"/>
+      <c r="S82" s="126"/>
+      <c r="T82" s="127"/>
+      <c r="U82" s="127"/>
+      <c r="V82" s="127"/>
+      <c r="W82" s="127"/>
+      <c r="X82" s="127"/>
+      <c r="Y82" s="126"/>
+      <c r="Z82" s="126"/>
+    </row>
+    <row r="83" spans="2:26" ht="14.4" customHeight="1">
+      <c r="B83" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="148">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A62" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-    </row>
+      <c r="E83" s="150"/>
+      <c r="F83" s="128"/>
+      <c r="G83" s="128"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="128"/>
+      <c r="J83" s="128"/>
+      <c r="K83" s="128"/>
+      <c r="L83" s="128"/>
+      <c r="M83" s="128"/>
+      <c r="N83" s="128"/>
+      <c r="O83" s="128"/>
+      <c r="P83" s="128"/>
+      <c r="Q83" s="129"/>
+      <c r="R83" s="129"/>
+      <c r="S83" s="129"/>
+      <c r="T83" s="129"/>
+      <c r="U83" s="129"/>
+      <c r="V83" s="128"/>
+      <c r="W83" s="128"/>
+      <c r="X83" s="128"/>
+      <c r="Y83" s="128"/>
+      <c r="Z83" s="128"/>
+    </row>
+    <row r="84" spans="2:26" ht="3.6" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:C50"/>
+  <mergeCells count="70">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F2:Z2"/>
+    <mergeCell ref="Q3:U3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="B27:C27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5050,7 +7284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="B28:C28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5062,7 +7296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="B45">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5074,7 +7308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A30">
+  <conditionalFormatting sqref="B49:B51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5086,7 +7320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A39">
+  <conditionalFormatting sqref="B59:B60">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5104,184 +7338,881 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21104619-9600-4A6F-A028-807EB456698F}">
+  <dimension ref="B2:G68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="2" width="48.8984375" customWidth="1"/>
+    <col min="3" max="4" width="7.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="97.8" customHeight="1">
+      <c r="B2" s="55"/>
+      <c r="C2" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="154" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67">
+        <f>SUM(D4:D4,D7,D8,D9,D10,D11,D5,D6)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="69">
+        <v>32</v>
+      </c>
+      <c r="E5" s="153"/>
+    </row>
+    <row r="6" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B11" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="6.6" customHeight="1">
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+    </row>
+    <row r="13" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71">
+        <f>SUM(D19,D14)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="72">
+        <f>SUM(D15:D18)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B15" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="14.4" customHeight="1">
+      <c r="B16" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B17" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B18" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="68">
+        <f>SUM(D20:D22)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="6.6" customHeight="1">
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+    </row>
+    <row r="24" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74">
+        <f>SUM(D25,D29,D33,D35)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="72">
+        <f>SUM(D26:D28)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B27" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B28" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="72">
+        <f>SUM(D30:D32)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="72">
+        <f>SUM(D34:D34)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="6.6" customHeight="1">
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+    </row>
+    <row r="37" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B37" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75">
+        <f>SUM(D38,D46,D50)</f>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="72">
+        <f>SUM(D39:D45)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B41" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B44" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B45" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="69">
+        <f>SUM(D47:D49)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B47" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="14.4" customHeight="1">
+      <c r="B48" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B49" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B50" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="73">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="6.6" customHeight="1">
+      <c r="B51" s="139"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+    </row>
+    <row r="52" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B52" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76">
+        <f>SUM(D53:D56)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B53" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B54" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B55" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B56" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="68">
+        <v>42</v>
+      </c>
+      <c r="G56" s="157"/>
+    </row>
+    <row r="57" spans="2:7" ht="6.6" customHeight="1">
+      <c r="B57" s="93"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+    </row>
+    <row r="58" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B58" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96">
+        <f>SUM(D59:D60)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B59" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B60" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="6.6" customHeight="1">
+      <c r="B61" s="158"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+    </row>
+    <row r="62" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B62" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124">
+        <f>SUM(D63)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="14.4" customHeight="1">
+      <c r="B63" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3">
+        <v>48</v>
+      </c>
+      <c r="F63" s="157"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="156" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="156"/>
+      <c r="D64" s="155">
+        <f>SUM(D3,D13,D24,D37,D52,D58,D62)</f>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="1"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B64:C64"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B40">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A65E51-5950-476F-8AAD-D80644D6813A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="13" style="106" customWidth="1"/>
-    <col min="3" max="3" width="13" style="107" customWidth="1"/>
-    <col min="4" max="4" width="13" style="119" customWidth="1"/>
-    <col min="5" max="5" width="13" style="107" customWidth="1"/>
-    <col min="6" max="16384" width="11.19921875" style="103"/>
+    <col min="1" max="1" width="20.59765625" style="100" customWidth="1"/>
+    <col min="2" max="2" width="13" style="103" customWidth="1"/>
+    <col min="3" max="3" width="13" style="104" customWidth="1"/>
+    <col min="4" max="4" width="13" style="116" customWidth="1"/>
+    <col min="5" max="5" width="13" style="104" customWidth="1"/>
+    <col min="6" max="16384" width="11.19921875" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="112" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="109">
-        <f>Terminplanung!C27</f>
+      <c r="B2" s="106">
+        <f>Terminplanung!D27</f>
         <v>65</v>
       </c>
-      <c r="C2" s="110">
+      <c r="C2" s="107">
         <f>B2/B8*100</f>
         <v>6.513026052104208</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="114">
         <f>B2*119</f>
         <v>7735</v>
       </c>
-      <c r="E2" s="110">
+      <c r="E2" s="107">
         <f>D2/D8*100</f>
         <v>10.866969190351087</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="109">
-        <f>Terminplanung!C37</f>
+      <c r="B3" s="106">
+        <f>Terminplanung!D37</f>
         <v>75</v>
       </c>
-      <c r="C3" s="110">
+      <c r="C3" s="107">
         <f>B3/B8*100</f>
         <v>7.5150300601202407</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="114">
         <f>B3*68</f>
         <v>5100</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="107">
         <f>D3/D8*100</f>
         <v>7.165034631000716</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="109">
-        <f>Terminplanung!C48</f>
+      <c r="B4" s="106">
+        <f>Terminplanung!D48</f>
         <v>147</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="107">
         <f>B4/B8*100</f>
         <v>14.729458917835672</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="114">
         <f t="shared" ref="D4:D7" si="0">B4*68</f>
         <v>9996</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="107">
         <f>D4/D8*100</f>
         <v>14.043467876761403</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="109">
-        <f>Terminplanung!C61</f>
+      <c r="B5" s="106">
+        <f>Terminplanung!D61</f>
         <v>495</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="107">
         <f>B5/B8*100</f>
         <v>49.599198396793589</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="114">
         <f t="shared" si="0"/>
         <v>33660</v>
       </c>
-      <c r="E5" s="110">
+      <c r="E5" s="107">
         <f>D5/D8*100</f>
         <v>47.289228564604727</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="109">
-        <f>Terminplanung!C76</f>
+      <c r="B6" s="106">
+        <f>Terminplanung!D76</f>
         <v>192</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="107">
         <f>B6/B8*100</f>
         <v>19.238476953907817</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="114">
         <f t="shared" si="0"/>
         <v>13056</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="107">
         <f>D6/D8*100</f>
         <v>18.342488655361837</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="109">
-        <f>Terminplanung!C82</f>
+      <c r="B7" s="106">
+        <f>Terminplanung!D82</f>
         <v>24</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="107">
         <f>B7/B8*100</f>
         <v>2.4048096192384771</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="114">
         <f t="shared" si="0"/>
         <v>1632</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="107">
         <f>D7/D8*100</f>
         <v>2.2928110819202296</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="105" customFormat="1">
-      <c r="A8" s="125" t="s">
+    <row r="8" spans="1:6" s="102" customFormat="1">
+      <c r="A8" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="111">
+      <c r="B8" s="108">
         <f xml:space="preserve"> SUM(B2:B7)</f>
         <v>998</v>
       </c>
-      <c r="C8" s="112">
+      <c r="C8" s="109">
         <f xml:space="preserve"> SUM(C2:C7)</f>
         <v>100</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="115">
         <f xml:space="preserve"> SUM(D2:D7)</f>
         <v>71179</v>
       </c>
-      <c r="E8" s="112">
+      <c r="E8" s="109">
         <f xml:space="preserve"> SUM(E2:E7)</f>
         <v>100</v>
       </c>
@@ -5292,15 +8223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument Projektgruppe" ma:contentTypeID="0x0101001BCAAA424C4FC643A41D277282D4C6DA00147A2F50F690F64C87FE6572BCE8E7D1" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="4ef6f085b060a28d86f5839659710628">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae84a682-57c0-4245-9851-92a7533be2d6" xmlns:ns3="e4c5f5f2-958c-44bd-9179-f1c43ce55659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4beed55d63ba88c63baba0defe326347" ns2:_="" ns3:_="">
     <xsd:import namespace="ae84a682-57c0-4245-9851-92a7533be2d6"/>
@@ -5457,6 +8379,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5469,14 +8400,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E98B02-8317-42A1-B942-EB0DB152AA3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5491,6 +8414,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C68EF06-77D1-4F69-9021-BB6F0CF7B5AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TerminplanungP2.xlsx
+++ b/TerminplanungP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB3335C-1C70-432D-9F82-AD3666170A27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5BFDDA-D667-4031-BF99-94F041488B10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminplanung" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Budget" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Terminplanung!$B$54:$Z$84</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Terminplanung!$B:$B,Terminplanung!$2:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -256,9 +255,6 @@
     <t>5.4 Lösungsprüfung mit Auftraggeber</t>
   </si>
   <si>
-    <t>Arbeitspakete</t>
-  </si>
-  <si>
     <t>Stunden [h]</t>
   </si>
   <si>
@@ -326,6 +322,9 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>Arbeitspaket</t>
   </si>
 </sst>
 </file>
@@ -703,9 +702,6 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -849,9 +845,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1026,10 +1019,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,113 +1074,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1467,69 +1466,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AU87"/>
+  <dimension ref="A1:AU87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A13" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="62" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="1"/>
     <col min="2" max="2" width="43.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.69921875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="4.09765625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="4.69921875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="3.3984375" style="61" customWidth="1"/>
+    <col min="4" max="4" width="5.09765625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="61" customWidth="1"/>
     <col min="6" max="26" width="3.19921875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="14.4" customHeight="1">
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-    </row>
-    <row r="2" spans="2:26" ht="21" customHeight="1">
-      <c r="B2" s="165"/>
-      <c r="C2" s="175" t="s">
+    <row r="1" spans="2:29" ht="14.4" customHeight="1">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+    </row>
+    <row r="2" spans="2:29" ht="21" customHeight="1">
+      <c r="B2" s="171"/>
+      <c r="C2" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="167">
+      <c r="E2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="179">
         <v>2019</v>
       </c>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="169"/>
-    </row>
-    <row r="3" spans="2:26" ht="15.45" customHeight="1">
-      <c r="B3" s="165"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
+    </row>
+    <row r="3" spans="2:29" ht="15.45" customHeight="1">
+      <c r="B3" s="171"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="3">
         <v>8</v>
@@ -1564,13 +1563,13 @@
       <c r="P3" s="3">
         <v>18</v>
       </c>
-      <c r="Q3" s="167" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
+      <c r="Q3" s="179" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
       <c r="V3" s="4">
         <v>20</v>
       </c>
@@ -1587,141 +1586,142 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="36.6">
-      <c r="B4" s="165"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="205" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="141">
+    <row r="4" spans="2:29" ht="36.6">
+      <c r="B4" s="171"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="163" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="139">
         <v>18.02</v>
       </c>
-      <c r="G4" s="141">
+      <c r="G4" s="139">
         <v>25.02</v>
       </c>
-      <c r="H4" s="144">
+      <c r="H4" s="142">
         <v>4.03</v>
       </c>
-      <c r="I4" s="144">
+      <c r="I4" s="142">
         <v>11.03</v>
       </c>
-      <c r="J4" s="144">
+      <c r="J4" s="142">
         <v>18.03</v>
       </c>
-      <c r="K4" s="144">
+      <c r="K4" s="142">
         <v>25.03</v>
       </c>
-      <c r="L4" s="144">
+      <c r="L4" s="142">
         <v>1.04</v>
       </c>
-      <c r="M4" s="141">
+      <c r="M4" s="139">
         <v>8.0399999999999991</v>
       </c>
-      <c r="N4" s="144">
+      <c r="N4" s="142">
         <v>15.04</v>
       </c>
-      <c r="O4" s="141">
+      <c r="O4" s="139">
         <v>22.04</v>
       </c>
-      <c r="P4" s="144">
+      <c r="P4" s="142">
         <v>29.04</v>
       </c>
-      <c r="Q4" s="145">
+      <c r="Q4" s="143">
         <v>6.05</v>
       </c>
-      <c r="R4" s="145">
+      <c r="R4" s="143">
         <v>7.05</v>
       </c>
-      <c r="S4" s="145">
+      <c r="S4" s="143">
         <v>8.0500000000000007</v>
       </c>
-      <c r="T4" s="145">
+      <c r="T4" s="143">
         <v>9.0500000000000007</v>
       </c>
-      <c r="U4" s="145">
+      <c r="U4" s="143">
         <v>10.050000000000001</v>
       </c>
-      <c r="V4" s="141">
+      <c r="V4" s="139">
         <v>13.05</v>
       </c>
-      <c r="W4" s="141">
+      <c r="W4" s="139">
         <v>20.05</v>
       </c>
-      <c r="X4" s="141">
+      <c r="X4" s="139">
         <v>27.05</v>
       </c>
-      <c r="Y4" s="141">
+      <c r="Y4" s="139">
         <v>3.06</v>
       </c>
-      <c r="Z4" s="141">
+      <c r="Z4" s="139">
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="2:26">
-      <c r="B5" s="54" t="s">
+    <row r="5" spans="2:29">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-    </row>
-    <row r="6" spans="2:26" ht="6" customHeight="1">
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="176"/>
-      <c r="U6" s="176"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="176"/>
-      <c r="X6" s="176"/>
-      <c r="Y6" s="176"/>
-      <c r="Z6" s="176"/>
-    </row>
-    <row r="7" spans="2:26">
-      <c r="B7" s="172" t="s">
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AC5" s="5"/>
+    </row>
+    <row r="6" spans="2:29" ht="6" customHeight="1">
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="172"/>
+      <c r="Z6" s="172"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="52" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2"/>
@@ -1734,26 +1734,26 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="2:26" ht="14.4" customHeight="1">
-      <c r="B8" s="172" t="s">
+    <row r="8" spans="2:29" ht="14.4" customHeight="1">
+      <c r="B8" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="52" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="2"/>
@@ -1765,29 +1765,29 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="2:26">
-      <c r="B9" s="172" t="s">
+    <row r="9" spans="2:29">
+      <c r="B9" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="7"/>
@@ -1796,30 +1796,30 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="2:26">
-      <c r="B10" s="172" t="s">
+    <row r="10" spans="2:29">
+      <c r="B10" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="5"/>
@@ -1827,55 +1827,55 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
       <c r="V10" s="2"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="2:26">
-      <c r="B11" s="130" t="s">
+    <row r="11" spans="2:29">
+      <c r="B11" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="52" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="2:26">
-      <c r="B12" s="183" t="s">
+    <row r="12" spans="2:29">
+      <c r="B12" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="185"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1883,30 +1883,30 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="52" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="57"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="2:26">
-      <c r="B13" s="172" t="s">
+    <row r="13" spans="2:29">
+      <c r="B13" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1917,26 +1917,26 @@
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="2:26">
-      <c r="B14" s="172" t="s">
+    <row r="14" spans="2:29">
+      <c r="B14" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="174"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="166"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1948,12 +1948,12 @@
       <c r="N14" s="3"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="53" t="s">
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="52" t="s">
         <v>2</v>
       </c>
       <c r="W14" s="3"/>
@@ -1961,13 +1961,13 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="2:26">
-      <c r="B15" s="172" t="s">
+    <row r="15" spans="2:29">
+      <c r="B15" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="166"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1979,26 +1979,26 @@
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="23"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="22"/>
       <c r="W15" s="3"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="53" t="s">
+      <c r="Z15" s="52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:26">
-      <c r="B16" s="172" t="s">
+    <row r="16" spans="2:29">
+      <c r="B16" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2010,26 +2010,26 @@
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="23"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="3"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="53" t="s">
+      <c r="Z16" s="52" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:27">
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="166"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2041,240 +2041,240 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="140" t="s">
+      <c r="Z17" s="138" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:27" ht="5.4" customHeight="1">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
     </row>
     <row r="19" spans="2:27">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="133"/>
-      <c r="AA19" s="115"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="131"/>
+      <c r="AA19" s="113"/>
     </row>
     <row r="20" spans="2:27" ht="6" customHeight="1">
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="178"/>
-      <c r="X20" s="178"/>
-      <c r="Y20" s="178"/>
-      <c r="Z20" s="179"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="174"/>
+      <c r="T20" s="174"/>
+      <c r="U20" s="174"/>
+      <c r="V20" s="174"/>
+      <c r="W20" s="174"/>
+      <c r="X20" s="174"/>
+      <c r="Y20" s="174"/>
+      <c r="Z20" s="175"/>
     </row>
     <row r="21" spans="2:27">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65">
         <f>SUM(D22:D22,D25,D26,D27,D28,D29,D23,D24)</f>
         <v>65</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="39"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="38"/>
     </row>
     <row r="22" spans="2:27">
       <c r="B22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="66">
         <v>10</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
     </row>
     <row r="23" spans="2:27">
       <c r="B23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="67">
         <v>32</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
     </row>
     <row r="24" spans="2:27">
       <c r="B24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="67">
         <v>10</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="119"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
     </row>
     <row r="25" spans="2:27">
-      <c r="B25" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="67" t="s">
+      <c r="B25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="67">
         <v>2</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="10"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
       <c r="V25" s="11"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -2282,32 +2282,32 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="2:27">
-      <c r="B26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="67" t="s">
+      <c r="B26" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="67">
         <v>2</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
       <c r="V26" s="11"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
@@ -2315,16 +2315,16 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="2:27">
-      <c r="B27" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="67" t="s">
+      <c r="B27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="67">
         <v>2</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -2336,28 +2336,28 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="2:27">
-      <c r="B28" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="67" t="s">
+      <c r="B28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="67">
         <v>4</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2369,28 +2369,28 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
     </row>
     <row r="29" spans="2:27">
-      <c r="B29" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="67">
         <v>3</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2402,92 +2402,92 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
     </row>
     <row r="30" spans="2:27" ht="6" customHeight="1">
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="176"/>
+      <c r="R30" s="176"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="176"/>
+      <c r="X30" s="176"/>
+      <c r="Y30" s="176"/>
+      <c r="Z30" s="176"/>
     </row>
     <row r="31" spans="2:27">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70">
+      <c r="C31" s="69"/>
+      <c r="D31" s="69">
         <f>SUM(D37,D32)</f>
         <v>75</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
     </row>
     <row r="32" spans="2:27">
       <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="71">
+      <c r="D32" s="70">
         <f>SUM(D33:D36)</f>
         <v>43</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -2495,11 +2495,11 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="16"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
@@ -2507,17 +2507,17 @@
       <c r="Z32" s="16"/>
     </row>
     <row r="33" spans="2:26">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71">
+      <c r="C33" s="70"/>
+      <c r="D33" s="70">
         <v>12</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -2526,11 +2526,11 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="16"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
@@ -2538,30 +2538,30 @@
       <c r="Z33" s="16"/>
     </row>
     <row r="34" spans="2:26">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71">
+      <c r="C34" s="70"/>
+      <c r="D34" s="70">
         <v>15</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="16"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
@@ -2569,30 +2569,30 @@
       <c r="Z34" s="16"/>
     </row>
     <row r="35" spans="2:26">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71">
+      <c r="C35" s="70"/>
+      <c r="D35" s="70">
         <v>10</v>
       </c>
-      <c r="E35" s="71"/>
+      <c r="E35" s="70"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="16"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
@@ -2600,18 +2600,18 @@
       <c r="Z35" s="16"/>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71">
+      <c r="C36" s="70"/>
+      <c r="D36" s="70">
         <v>6</v>
       </c>
-      <c r="E36" s="71"/>
+      <c r="E36" s="70"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="76"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="75"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -2619,11 +2619,11 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="16"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
@@ -2634,30 +2634,30 @@
       <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="66">
         <f>SUM(D38:D40)</f>
         <v>32</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
@@ -2668,14 +2668,14 @@
       <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72">
+      <c r="C38" s="71"/>
+      <c r="D38" s="71">
         <v>10</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -2684,12 +2684,12 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="19"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="18"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
@@ -2699,27 +2699,27 @@
       <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69">
+      <c r="C39" s="68"/>
+      <c r="D39" s="68">
         <v>10</v>
       </c>
-      <c r="E39" s="69"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
@@ -2727,30 +2727,30 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72">
+      <c r="C40" s="71"/>
+      <c r="D40" s="71">
         <v>12</v>
       </c>
-      <c r="E40" s="72"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
@@ -2758,154 +2758,154 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="2:26" ht="6" customHeight="1">
-      <c r="B41" s="170"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171"/>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="171"/>
-      <c r="S41" s="171"/>
-      <c r="T41" s="171"/>
-      <c r="U41" s="171"/>
-      <c r="V41" s="171"/>
-      <c r="W41" s="171"/>
-      <c r="X41" s="171"/>
-      <c r="Y41" s="171"/>
-      <c r="Z41" s="171"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="176"/>
+      <c r="L41" s="176"/>
+      <c r="M41" s="176"/>
+      <c r="N41" s="176"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176"/>
+      <c r="S41" s="176"/>
+      <c r="T41" s="176"/>
+      <c r="U41" s="176"/>
+      <c r="V41" s="176"/>
+      <c r="W41" s="176"/>
+      <c r="X41" s="176"/>
+      <c r="Y41" s="176"/>
+      <c r="Z41" s="176"/>
     </row>
     <row r="42" spans="2:26">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73">
+      <c r="C42" s="72"/>
+      <c r="D42" s="72">
         <f>SUM(D43,D47,D51,D53)</f>
         <v>147</v>
       </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
     </row>
     <row r="43" spans="2:26">
       <c r="B43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="71">
+      <c r="D43" s="70">
         <f>SUM(D44:D46)</f>
         <v>45</v>
       </c>
-      <c r="E43" s="71"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
       <c r="K43" s="13"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="60"/>
-      <c r="V43" s="19"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="18"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68">
+      <c r="C44" s="67"/>
+      <c r="D44" s="67">
         <v>20</v>
       </c>
-      <c r="E44" s="68"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="60"/>
-      <c r="V44" s="19"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="18"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
     </row>
     <row r="45" spans="2:26">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68">
+      <c r="C45" s="67"/>
+      <c r="D45" s="67">
         <v>15</v>
       </c>
-      <c r="E45" s="68"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
@@ -2913,30 +2913,30 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68">
+      <c r="C46" s="67"/>
+      <c r="D46" s="67">
         <v>10</v>
       </c>
-      <c r="E46" s="68"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="79"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="58"/>
+      <c r="U46" s="58"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
@@ -2947,158 +2947,158 @@
       <c r="B47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="71">
+      <c r="D47" s="70">
         <f>SUM(D48:D50)</f>
         <v>40</v>
       </c>
-      <c r="E47" s="71"/>
+      <c r="E47" s="70"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
-      <c r="V47" s="19"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="59"/>
+      <c r="V47" s="18"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="2:26">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68">
+      <c r="C48" s="67"/>
+      <c r="D48" s="67">
         <v>18</v>
       </c>
-      <c r="E48" s="68"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
-      <c r="V48" s="19"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="59"/>
+      <c r="V48" s="18"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49" spans="2:47">
-      <c r="B49" s="20" t="s">
+    <row r="49" spans="1:47">
+      <c r="B49" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68">
+      <c r="C49" s="67"/>
+      <c r="D49" s="67">
         <v>12</v>
       </c>
-      <c r="E49" s="68"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
-      <c r="V49" s="19"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
+      <c r="V49" s="18"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" spans="2:47">
-      <c r="B50" s="20" t="s">
+    <row r="50" spans="1:47">
+      <c r="B50" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68">
+      <c r="C50" s="67"/>
+      <c r="D50" s="67">
         <v>10</v>
       </c>
-      <c r="E50" s="68"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
       <c r="M50" s="10"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="60"/>
-      <c r="V50" s="19"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="18"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
     </row>
-    <row r="51" spans="2:47" s="21" customFormat="1">
+    <row r="51" spans="1:47" s="20" customFormat="1">
       <c r="B51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="71">
+      <c r="D51" s="70">
         <f>SUM(D52:D52)</f>
         <v>10</v>
       </c>
-      <c r="E51" s="71"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="60"/>
-      <c r="V51" s="19"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="18"/>
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
@@ -3110,32 +3110,32 @@
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
     </row>
-    <row r="52" spans="2:47" s="21" customFormat="1">
-      <c r="B52" s="20" t="s">
+    <row r="52" spans="1:47" s="20" customFormat="1">
+      <c r="B52" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68">
+      <c r="C52" s="67"/>
+      <c r="D52" s="67">
         <v>10</v>
       </c>
-      <c r="E52" s="68"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="60"/>
-      <c r="V52" s="19"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="18"/>
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
@@ -3147,95 +3147,96 @@
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
     </row>
-    <row r="53" spans="2:47">
+    <row r="53" spans="1:47">
       <c r="B53" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67">
+        <v>74</v>
+      </c>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66">
         <v>52</v>
       </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
       <c r="W53" s="5"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
-    <row r="54" spans="2:47" ht="6" customHeight="1">
-      <c r="B54" s="170"/>
-      <c r="C54" s="171"/>
-      <c r="D54" s="171"/>
-      <c r="E54" s="171"/>
-      <c r="F54" s="171"/>
-      <c r="G54" s="171"/>
-      <c r="H54" s="171"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="171"/>
-      <c r="L54" s="171"/>
-      <c r="M54" s="171"/>
-      <c r="N54" s="171"/>
-      <c r="O54" s="171"/>
-      <c r="P54" s="171"/>
-      <c r="Q54" s="171"/>
-      <c r="R54" s="171"/>
-      <c r="S54" s="171"/>
-      <c r="T54" s="171"/>
-      <c r="U54" s="171"/>
-      <c r="V54" s="171"/>
-      <c r="W54" s="171"/>
-      <c r="X54" s="171"/>
-      <c r="Y54" s="171"/>
-      <c r="Z54" s="171"/>
-    </row>
-    <row r="55" spans="2:47" s="34" customFormat="1">
-      <c r="B55" s="44" t="s">
+    <row r="54" spans="1:47" ht="6" customHeight="1">
+      <c r="B54" s="202"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="202"/>
+      <c r="F54" s="202"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="202"/>
+      <c r="O54" s="202"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="202"/>
+      <c r="R54" s="202"/>
+      <c r="S54" s="202"/>
+      <c r="T54" s="202"/>
+      <c r="U54" s="202"/>
+      <c r="V54" s="202"/>
+      <c r="W54" s="202"/>
+      <c r="X54" s="202"/>
+      <c r="Y54" s="202"/>
+      <c r="Z54" s="202"/>
+    </row>
+    <row r="55" spans="1:47" s="33" customFormat="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74">
+      <c r="C55" s="205"/>
+      <c r="D55" s="205">
         <f>SUM(D56,D64,D68)</f>
         <v>495</v>
       </c>
-      <c r="E55" s="74"/>
+      <c r="E55" s="205"/>
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
       <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="46"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="45"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
@@ -3258,111 +3259,111 @@
       <c r="AT55" s="1"/>
       <c r="AU55" s="1"/>
     </row>
-    <row r="56" spans="2:47">
+    <row r="56" spans="1:47">
       <c r="B56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="71">
+      <c r="D56" s="70">
         <f>SUM(D57:D63)</f>
         <v>260</v>
       </c>
-      <c r="E56" s="71"/>
+      <c r="E56" s="70"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="85"/>
-      <c r="U56" s="85"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
+      <c r="U56" s="84"/>
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
-    <row r="57" spans="2:47">
+    <row r="57" spans="1:47">
       <c r="B57" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71">
+      <c r="C57" s="70"/>
+      <c r="D57" s="70">
         <v>35</v>
       </c>
-      <c r="E57" s="71"/>
+      <c r="E57" s="70"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
-      <c r="U57" s="84"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="83"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
-    <row r="58" spans="2:47">
+    <row r="58" spans="1:47">
       <c r="B58" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71">
+      <c r="C58" s="70"/>
+      <c r="D58" s="70">
         <v>60</v>
       </c>
-      <c r="E58" s="71"/>
+      <c r="E58" s="70"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
-      <c r="S58" s="84"/>
-      <c r="T58" s="84"/>
-      <c r="U58" s="84"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="83"/>
+      <c r="T58" s="83"/>
+      <c r="U58" s="83"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
-    <row r="59" spans="2:47">
+    <row r="59" spans="1:47">
       <c r="B59" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69">
+      <c r="C59" s="68"/>
+      <c r="D59" s="68">
         <v>75</v>
       </c>
-      <c r="E59" s="69"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -3371,29 +3372,29 @@
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
-      <c r="U59" s="84"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
+      <c r="T59" s="83"/>
+      <c r="U59" s="83"/>
       <c r="V59" s="10"/>
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
     </row>
-    <row r="60" spans="2:47">
+    <row r="60" spans="1:47">
       <c r="B60" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69">
+      <c r="C60" s="68"/>
+      <c r="D60" s="68">
         <v>30</v>
       </c>
-      <c r="E60" s="69"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -3405,26 +3406,26 @@
       <c r="N60" s="13"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="84"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="83"/>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
-    <row r="61" spans="2:47">
+    <row r="61" spans="1:47">
       <c r="B61" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69">
+      <c r="C61" s="68"/>
+      <c r="D61" s="68">
         <v>30</v>
       </c>
-      <c r="E61" s="69"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -3436,26 +3437,26 @@
       <c r="N61" s="13"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="84"/>
-      <c r="S61" s="84"/>
-      <c r="T61" s="84"/>
-      <c r="U61" s="84"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="83"/>
+      <c r="U61" s="83"/>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
-    <row r="62" spans="2:47">
-      <c r="B62" s="82" t="s">
+    <row r="62" spans="1:47">
+      <c r="B62" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69">
+      <c r="C62" s="68"/>
+      <c r="D62" s="68">
         <v>15</v>
       </c>
-      <c r="E62" s="69"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -3463,30 +3464,30 @@
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="84"/>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="119"/>
-      <c r="S62" s="119"/>
-      <c r="T62" s="85"/>
-      <c r="U62" s="85"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="117"/>
+      <c r="S62" s="117"/>
+      <c r="T62" s="84"/>
+      <c r="U62" s="84"/>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
     </row>
-    <row r="63" spans="2:47">
-      <c r="B63" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69">
+    <row r="63" spans="1:47">
+      <c r="B63" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68">
         <v>15</v>
       </c>
-      <c r="E63" s="69"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -3498,29 +3499,29 @@
       <c r="N63" s="13"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="128"/>
-      <c r="S63" s="128"/>
-      <c r="T63" s="61"/>
-      <c r="U63" s="85"/>
-      <c r="V63" s="85"/>
-      <c r="W63" s="85"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="126"/>
+      <c r="S63" s="126"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="84"/>
+      <c r="V63" s="84"/>
+      <c r="W63" s="84"/>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
     </row>
-    <row r="64" spans="2:47">
+    <row r="64" spans="1:47">
       <c r="B64" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="68">
+      <c r="D64" s="67">
         <f>SUM(D65:D67)</f>
         <v>55</v>
       </c>
-      <c r="E64" s="68"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -3530,28 +3531,28 @@
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="85"/>
-      <c r="Q64" s="85"/>
-      <c r="R64" s="85"/>
-      <c r="S64" s="85"/>
-      <c r="T64" s="85"/>
-      <c r="U64" s="85"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="84"/>
+      <c r="T64" s="84"/>
+      <c r="U64" s="84"/>
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
     </row>
-    <row r="65" spans="2:47">
+    <row r="65" spans="1:47">
       <c r="B65" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68">
         <v>15</v>
       </c>
-      <c r="E65" s="69"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -3561,28 +3562,28 @@
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="85"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
+      <c r="O65" s="83"/>
+      <c r="P65" s="83"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="60"/>
+      <c r="U65" s="60"/>
       <c r="V65" s="10"/>
       <c r="W65" s="13"/>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
     </row>
-    <row r="66" spans="2:47">
+    <row r="66" spans="1:47">
       <c r="B66" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69">
+      <c r="C66" s="68"/>
+      <c r="D66" s="68">
         <v>25</v>
       </c>
-      <c r="E66" s="69"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -3594,26 +3595,26 @@
       <c r="N66" s="13"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="85"/>
-      <c r="R66" s="85"/>
-      <c r="S66" s="85"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="S66" s="84"/>
+      <c r="T66" s="60"/>
+      <c r="U66" s="60"/>
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
     </row>
-    <row r="67" spans="2:47">
+    <row r="67" spans="1:47">
       <c r="B67" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69">
+      <c r="C67" s="68"/>
+      <c r="D67" s="68">
         <v>15</v>
       </c>
-      <c r="E67" s="69"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -3625,28 +3626,28 @@
       <c r="N67" s="13"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="85"/>
-      <c r="T67" s="85"/>
-      <c r="U67" s="85"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="84"/>
+      <c r="T67" s="84"/>
+      <c r="U67" s="84"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
       <c r="X67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
     </row>
-    <row r="68" spans="2:47">
-      <c r="B68" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="72" t="s">
+    <row r="68" spans="1:47">
+      <c r="B68" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="72">
+      <c r="D68" s="71">
         <v>180</v>
       </c>
-      <c r="E68" s="72"/>
+      <c r="E68" s="71"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -3654,500 +3655,506 @@
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="84"/>
-      <c r="T68" s="84"/>
-      <c r="U68" s="84"/>
-      <c r="V68" s="84"/>
-      <c r="W68" s="84"/>
-      <c r="X68" s="84"/>
-      <c r="Y68" s="84"/>
-      <c r="Z68" s="84"/>
-    </row>
-    <row r="69" spans="2:47" ht="6" customHeight="1">
-      <c r="B69" s="180"/>
-      <c r="C69" s="181"/>
-      <c r="D69" s="181"/>
-      <c r="E69" s="181"/>
-      <c r="F69" s="181"/>
-      <c r="G69" s="181"/>
-      <c r="H69" s="181"/>
-      <c r="I69" s="181"/>
-      <c r="J69" s="181"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="181"/>
-      <c r="M69" s="181"/>
-      <c r="N69" s="181"/>
-      <c r="O69" s="181"/>
-      <c r="P69" s="181"/>
-      <c r="Q69" s="181"/>
-      <c r="R69" s="181"/>
-      <c r="S69" s="181"/>
-      <c r="T69" s="181"/>
-      <c r="U69" s="181"/>
-      <c r="V69" s="181"/>
-      <c r="W69" s="181"/>
-      <c r="X69" s="181"/>
-      <c r="Y69" s="181"/>
-      <c r="Z69" s="181"/>
-    </row>
-    <row r="70" spans="2:47" s="35" customFormat="1">
-      <c r="B70" s="48" t="s">
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="83"/>
+      <c r="S68" s="83"/>
+      <c r="T68" s="83"/>
+      <c r="U68" s="83"/>
+      <c r="V68" s="83"/>
+      <c r="W68" s="83"/>
+      <c r="X68" s="83"/>
+      <c r="Y68" s="83"/>
+      <c r="Z68" s="83"/>
+    </row>
+    <row r="69" spans="1:47" ht="6" customHeight="1">
+      <c r="B69" s="203"/>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="203"/>
+      <c r="F69" s="203"/>
+      <c r="G69" s="203"/>
+      <c r="H69" s="203"/>
+      <c r="I69" s="203"/>
+      <c r="J69" s="203"/>
+      <c r="K69" s="203"/>
+      <c r="L69" s="203"/>
+      <c r="M69" s="203"/>
+      <c r="N69" s="203"/>
+      <c r="O69" s="203"/>
+      <c r="P69" s="203"/>
+      <c r="Q69" s="203"/>
+      <c r="R69" s="203"/>
+      <c r="S69" s="203"/>
+      <c r="T69" s="203"/>
+      <c r="U69" s="203"/>
+      <c r="V69" s="203"/>
+      <c r="W69" s="203"/>
+      <c r="X69" s="203"/>
+      <c r="Y69" s="203"/>
+      <c r="Z69" s="203"/>
+    </row>
+    <row r="70" spans="1:47" s="34" customFormat="1">
+      <c r="A70" s="51"/>
+      <c r="B70" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75">
+      <c r="C70" s="74"/>
+      <c r="D70" s="74">
         <f>SUM(D71:D74)</f>
         <v>192</v>
       </c>
-      <c r="E70" s="75"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="49"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
-      <c r="U70" s="49"/>
-      <c r="V70" s="49"/>
-      <c r="W70" s="49"/>
-      <c r="X70" s="49"/>
-      <c r="Y70" s="49"/>
-      <c r="Z70" s="49"/>
-      <c r="AA70" s="52"/>
-      <c r="AB70" s="52"/>
-      <c r="AC70" s="52"/>
-      <c r="AD70" s="52"/>
-      <c r="AE70" s="52"/>
-      <c r="AF70" s="52"/>
-      <c r="AG70" s="52"/>
-      <c r="AH70" s="52"/>
-      <c r="AI70" s="52"/>
-      <c r="AJ70" s="52"/>
-      <c r="AK70" s="52"/>
-      <c r="AL70" s="52"/>
-      <c r="AM70" s="52"/>
-      <c r="AN70" s="52"/>
-      <c r="AO70" s="52"/>
-      <c r="AP70" s="52"/>
-      <c r="AQ70" s="52"/>
-      <c r="AR70" s="52"/>
-      <c r="AS70" s="52"/>
-      <c r="AT70" s="52"/>
-      <c r="AU70" s="52"/>
-    </row>
-    <row r="71" spans="2:47" s="35" customFormat="1">
-      <c r="B71" s="120" t="s">
+      <c r="E70" s="74"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="48"/>
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="51"/>
+      <c r="AB70" s="51"/>
+      <c r="AC70" s="51"/>
+      <c r="AD70" s="51"/>
+      <c r="AE70" s="51"/>
+      <c r="AF70" s="51"/>
+      <c r="AG70" s="51"/>
+      <c r="AH70" s="51"/>
+      <c r="AI70" s="51"/>
+      <c r="AJ70" s="51"/>
+      <c r="AK70" s="51"/>
+      <c r="AL70" s="51"/>
+      <c r="AM70" s="51"/>
+      <c r="AN70" s="51"/>
+      <c r="AO70" s="51"/>
+      <c r="AP70" s="51"/>
+      <c r="AQ70" s="51"/>
+      <c r="AR70" s="51"/>
+      <c r="AS70" s="51"/>
+      <c r="AT70" s="51"/>
+      <c r="AU70" s="51"/>
+    </row>
+    <row r="71" spans="1:47" s="34" customFormat="1">
+      <c r="A71" s="51"/>
+      <c r="B71" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="71" t="s">
+      <c r="C71" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="71">
+      <c r="D71" s="70">
         <v>60</v>
       </c>
-      <c r="E71" s="71"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="64"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="63"/>
-      <c r="U71" s="86"/>
-      <c r="V71" s="86"/>
-      <c r="W71" s="86"/>
-      <c r="X71" s="86"/>
-      <c r="Y71" s="64"/>
-      <c r="Z71" s="64"/>
-      <c r="AA71" s="52"/>
-      <c r="AB71" s="52"/>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="52"/>
-      <c r="AI71" s="52"/>
-      <c r="AJ71" s="52"/>
-      <c r="AK71" s="52"/>
-      <c r="AL71" s="52"/>
-      <c r="AM71" s="52"/>
-      <c r="AN71" s="52"/>
-      <c r="AO71" s="52"/>
-      <c r="AP71" s="52"/>
-      <c r="AQ71" s="52"/>
-      <c r="AR71" s="52"/>
-      <c r="AS71" s="52"/>
-      <c r="AT71" s="52"/>
-      <c r="AU71" s="52"/>
-    </row>
-    <row r="72" spans="2:47" s="35" customFormat="1">
-      <c r="B72" s="120" t="s">
+      <c r="E71" s="70"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="63"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="85"/>
+      <c r="V71" s="85"/>
+      <c r="W71" s="85"/>
+      <c r="X71" s="85"/>
+      <c r="Y71" s="63"/>
+      <c r="Z71" s="63"/>
+      <c r="AA71" s="51"/>
+      <c r="AB71" s="51"/>
+      <c r="AC71" s="51"/>
+      <c r="AD71" s="51"/>
+      <c r="AE71" s="51"/>
+      <c r="AF71" s="51"/>
+      <c r="AG71" s="51"/>
+      <c r="AH71" s="51"/>
+      <c r="AI71" s="51"/>
+      <c r="AJ71" s="51"/>
+      <c r="AK71" s="51"/>
+      <c r="AL71" s="51"/>
+      <c r="AM71" s="51"/>
+      <c r="AN71" s="51"/>
+      <c r="AO71" s="51"/>
+      <c r="AP71" s="51"/>
+      <c r="AQ71" s="51"/>
+      <c r="AR71" s="51"/>
+      <c r="AS71" s="51"/>
+      <c r="AT71" s="51"/>
+      <c r="AU71" s="51"/>
+    </row>
+    <row r="72" spans="1:47" s="34" customFormat="1">
+      <c r="A72" s="51"/>
+      <c r="B72" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="67">
+      <c r="D72" s="66">
         <v>40</v>
       </c>
-      <c r="E72" s="67"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="64"/>
-      <c r="Q72" s="63"/>
-      <c r="R72" s="63"/>
-      <c r="S72" s="63"/>
-      <c r="T72" s="63"/>
-      <c r="U72" s="86"/>
-      <c r="V72" s="86"/>
-      <c r="W72" s="86"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="64"/>
-      <c r="Z72" s="64"/>
-      <c r="AA72" s="52"/>
-      <c r="AB72" s="52"/>
-      <c r="AC72" s="52"/>
-      <c r="AD72" s="52"/>
-      <c r="AE72" s="52"/>
-      <c r="AF72" s="52"/>
-      <c r="AG72" s="52"/>
-      <c r="AH72" s="52"/>
-      <c r="AI72" s="52"/>
-      <c r="AJ72" s="52"/>
-      <c r="AK72" s="52"/>
-      <c r="AL72" s="52"/>
-      <c r="AM72" s="52"/>
-      <c r="AN72" s="52"/>
-      <c r="AO72" s="52"/>
-      <c r="AP72" s="52"/>
-      <c r="AQ72" s="52"/>
-      <c r="AR72" s="52"/>
-      <c r="AS72" s="52"/>
-      <c r="AT72" s="52"/>
-      <c r="AU72" s="52"/>
-    </row>
-    <row r="73" spans="2:47" s="35" customFormat="1">
+      <c r="E72" s="66"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="62"/>
+      <c r="S72" s="62"/>
+      <c r="T72" s="62"/>
+      <c r="U72" s="85"/>
+      <c r="V72" s="85"/>
+      <c r="W72" s="85"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="51"/>
+      <c r="AB72" s="51"/>
+      <c r="AC72" s="51"/>
+      <c r="AD72" s="51"/>
+      <c r="AE72" s="51"/>
+      <c r="AF72" s="51"/>
+      <c r="AG72" s="51"/>
+      <c r="AH72" s="51"/>
+      <c r="AI72" s="51"/>
+      <c r="AJ72" s="51"/>
+      <c r="AK72" s="51"/>
+      <c r="AL72" s="51"/>
+      <c r="AM72" s="51"/>
+      <c r="AN72" s="51"/>
+      <c r="AO72" s="51"/>
+      <c r="AP72" s="51"/>
+      <c r="AQ72" s="51"/>
+      <c r="AR72" s="51"/>
+      <c r="AS72" s="51"/>
+      <c r="AT72" s="51"/>
+      <c r="AU72" s="51"/>
+    </row>
+    <row r="73" spans="1:47" s="34" customFormat="1">
+      <c r="A73" s="51"/>
       <c r="B73" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="67">
+      <c r="D73" s="66">
         <v>50</v>
       </c>
-      <c r="E73" s="67"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="64"/>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="63"/>
-      <c r="T73" s="63"/>
-      <c r="U73" s="86"/>
-      <c r="V73" s="86"/>
-      <c r="W73" s="86"/>
-      <c r="X73" s="64"/>
-      <c r="Y73" s="64"/>
-      <c r="Z73" s="64"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="52"/>
-      <c r="AC73" s="52"/>
-      <c r="AD73" s="52"/>
-      <c r="AE73" s="52"/>
-      <c r="AF73" s="52"/>
-      <c r="AG73" s="52"/>
-      <c r="AH73" s="52"/>
-      <c r="AI73" s="52"/>
-      <c r="AJ73" s="52"/>
-      <c r="AK73" s="52"/>
-      <c r="AL73" s="52"/>
-      <c r="AM73" s="52"/>
-      <c r="AN73" s="52"/>
-      <c r="AO73" s="52"/>
-      <c r="AP73" s="52"/>
-      <c r="AQ73" s="52"/>
-      <c r="AR73" s="52"/>
-      <c r="AS73" s="52"/>
-      <c r="AT73" s="52"/>
-      <c r="AU73" s="52"/>
-    </row>
-    <row r="74" spans="2:47" s="35" customFormat="1">
-      <c r="B74" s="120" t="s">
+      <c r="E73" s="66"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="62"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="85"/>
+      <c r="V73" s="85"/>
+      <c r="W73" s="85"/>
+      <c r="X73" s="63"/>
+      <c r="Y73" s="63"/>
+      <c r="Z73" s="63"/>
+      <c r="AA73" s="51"/>
+      <c r="AB73" s="51"/>
+      <c r="AC73" s="51"/>
+      <c r="AD73" s="51"/>
+      <c r="AE73" s="51"/>
+      <c r="AF73" s="51"/>
+      <c r="AG73" s="51"/>
+      <c r="AH73" s="51"/>
+      <c r="AI73" s="51"/>
+      <c r="AJ73" s="51"/>
+      <c r="AK73" s="51"/>
+      <c r="AL73" s="51"/>
+      <c r="AM73" s="51"/>
+      <c r="AN73" s="51"/>
+      <c r="AO73" s="51"/>
+      <c r="AP73" s="51"/>
+      <c r="AQ73" s="51"/>
+      <c r="AR73" s="51"/>
+      <c r="AS73" s="51"/>
+      <c r="AT73" s="51"/>
+      <c r="AU73" s="51"/>
+    </row>
+    <row r="74" spans="1:47" s="34" customFormat="1">
+      <c r="A74" s="51"/>
+      <c r="B74" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="67">
+      <c r="D74" s="66">
         <v>42</v>
       </c>
-      <c r="E74" s="67"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="64"/>
-      <c r="K74" s="64"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
-      <c r="O74" s="64"/>
-      <c r="P74" s="64"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="63"/>
-      <c r="T74" s="63"/>
-      <c r="U74" s="86"/>
-      <c r="V74" s="86"/>
-      <c r="W74" s="86"/>
-      <c r="X74" s="64"/>
-      <c r="Y74" s="64"/>
-      <c r="Z74" s="64"/>
-      <c r="AA74" s="52"/>
-      <c r="AB74" s="52"/>
-      <c r="AC74" s="52"/>
-      <c r="AD74" s="52"/>
-      <c r="AE74" s="52"/>
-      <c r="AF74" s="52"/>
-      <c r="AG74" s="52"/>
-      <c r="AH74" s="52"/>
-      <c r="AI74" s="52"/>
-      <c r="AJ74" s="52"/>
-      <c r="AK74" s="52"/>
-      <c r="AL74" s="52"/>
-      <c r="AM74" s="52"/>
-      <c r="AN74" s="52"/>
-      <c r="AO74" s="52"/>
-      <c r="AP74" s="52"/>
-      <c r="AQ74" s="52"/>
-      <c r="AR74" s="52"/>
-      <c r="AS74" s="52"/>
-      <c r="AT74" s="52"/>
-      <c r="AU74" s="52"/>
-    </row>
-    <row r="75" spans="2:47" ht="6" customHeight="1">
-      <c r="B75" s="90"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="91"/>
-      <c r="K75" s="91"/>
-      <c r="L75" s="91"/>
-      <c r="M75" s="91"/>
-      <c r="N75" s="91"/>
-      <c r="O75" s="91"/>
-      <c r="P75" s="91"/>
-      <c r="Q75" s="91"/>
-      <c r="R75" s="91"/>
-      <c r="S75" s="91"/>
-      <c r="T75" s="91"/>
-      <c r="U75" s="91"/>
-      <c r="V75" s="91"/>
-      <c r="W75" s="91"/>
-      <c r="X75" s="91"/>
-      <c r="Y75" s="91"/>
-      <c r="Z75" s="91"/>
-    </row>
-    <row r="76" spans="2:47" s="92" customFormat="1">
+      <c r="E74" s="66"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="63"/>
+      <c r="O74" s="63"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="62"/>
+      <c r="S74" s="62"/>
+      <c r="T74" s="62"/>
+      <c r="U74" s="85"/>
+      <c r="V74" s="85"/>
+      <c r="W74" s="85"/>
+      <c r="X74" s="63"/>
+      <c r="Y74" s="63"/>
+      <c r="Z74" s="63"/>
+      <c r="AA74" s="51"/>
+      <c r="AB74" s="51"/>
+      <c r="AC74" s="51"/>
+      <c r="AD74" s="51"/>
+      <c r="AE74" s="51"/>
+      <c r="AF74" s="51"/>
+      <c r="AG74" s="51"/>
+      <c r="AH74" s="51"/>
+      <c r="AI74" s="51"/>
+      <c r="AJ74" s="51"/>
+      <c r="AK74" s="51"/>
+      <c r="AL74" s="51"/>
+      <c r="AM74" s="51"/>
+      <c r="AN74" s="51"/>
+      <c r="AO74" s="51"/>
+      <c r="AP74" s="51"/>
+      <c r="AQ74" s="51"/>
+      <c r="AR74" s="51"/>
+      <c r="AS74" s="51"/>
+      <c r="AT74" s="51"/>
+      <c r="AU74" s="51"/>
+    </row>
+    <row r="75" spans="1:47" ht="6" customHeight="1">
+      <c r="B75" s="204"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="89"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="89"/>
+      <c r="S75" s="89"/>
+      <c r="T75" s="89"/>
+      <c r="U75" s="89"/>
+      <c r="V75" s="89"/>
+      <c r="W75" s="89"/>
+      <c r="X75" s="89"/>
+      <c r="Y75" s="89"/>
+      <c r="Z75" s="89"/>
+    </row>
+    <row r="76" spans="1:47" s="90" customFormat="1">
       <c r="B76" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94">
+      <c r="C76" s="92"/>
+      <c r="D76" s="92">
         <f>SUM(D77:D78)</f>
         <v>24</v>
       </c>
-      <c r="E76" s="94"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="95"/>
-      <c r="M76" s="95"/>
-      <c r="N76" s="95"/>
-      <c r="O76" s="95"/>
-      <c r="P76" s="95"/>
-      <c r="Q76" s="95"/>
-      <c r="R76" s="95"/>
-      <c r="S76" s="95"/>
-      <c r="T76" s="95"/>
-      <c r="U76" s="95"/>
-      <c r="V76" s="95"/>
-      <c r="W76" s="95"/>
-      <c r="X76" s="95"/>
-      <c r="Y76" s="95"/>
-      <c r="Z76" s="95"/>
-    </row>
-    <row r="77" spans="2:47">
+      <c r="E76" s="92"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
+      <c r="I76" s="93"/>
+      <c r="J76" s="93"/>
+      <c r="K76" s="93"/>
+      <c r="L76" s="93"/>
+      <c r="M76" s="93"/>
+      <c r="N76" s="93"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="93"/>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="93"/>
+      <c r="S76" s="93"/>
+      <c r="T76" s="93"/>
+      <c r="U76" s="93"/>
+      <c r="V76" s="93"/>
+      <c r="W76" s="93"/>
+      <c r="X76" s="93"/>
+      <c r="Y76" s="93"/>
+      <c r="Z76" s="93"/>
+    </row>
+    <row r="77" spans="1:47">
       <c r="B77" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="67" t="s">
+      <c r="C77" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="67">
+      <c r="D77" s="66">
         <v>6</v>
       </c>
-      <c r="E77" s="67"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="97"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="29"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-    </row>
-    <row r="78" spans="2:47">
+      <c r="E77" s="66"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+    </row>
+    <row r="78" spans="1:47">
       <c r="B78" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="67" t="s">
+      <c r="C78" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="67">
+      <c r="D78" s="66">
         <v>18</v>
       </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="97"/>
-      <c r="Z78" s="97"/>
-    </row>
-    <row r="79" spans="2:47" ht="6" customHeight="1">
-      <c r="B79" s="90"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="91"/>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="91"/>
-      <c r="S79" s="91"/>
-      <c r="T79" s="91"/>
-      <c r="U79" s="91"/>
-      <c r="V79" s="91"/>
-      <c r="W79" s="91"/>
-      <c r="X79" s="91"/>
-      <c r="Y79" s="91"/>
-      <c r="Z79" s="91"/>
-    </row>
-    <row r="80" spans="2:47" s="51" customFormat="1">
-      <c r="B80" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="122"/>
-      <c r="D80" s="122">
+      <c r="E78" s="66"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="95"/>
+      <c r="Z78" s="95"/>
+    </row>
+    <row r="79" spans="1:47" ht="6" customHeight="1">
+      <c r="B79" s="89"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="89"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="89"/>
+      <c r="J79" s="89"/>
+      <c r="K79" s="89"/>
+      <c r="L79" s="89"/>
+      <c r="M79" s="89"/>
+      <c r="N79" s="89"/>
+      <c r="O79" s="89"/>
+      <c r="P79" s="89"/>
+      <c r="Q79" s="89"/>
+      <c r="R79" s="89"/>
+      <c r="S79" s="89"/>
+      <c r="T79" s="89"/>
+      <c r="U79" s="89"/>
+      <c r="V79" s="89"/>
+      <c r="W79" s="89"/>
+      <c r="X79" s="89"/>
+      <c r="Y79" s="89"/>
+      <c r="Z79" s="89"/>
+    </row>
+    <row r="80" spans="1:47" s="50" customFormat="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="120"/>
+      <c r="D80" s="120">
         <f>SUM(D81)</f>
         <v>48</v>
       </c>
-      <c r="E80" s="122"/>
-      <c r="F80" s="123"/>
-      <c r="G80" s="123"/>
-      <c r="H80" s="123"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="124"/>
-      <c r="K80" s="124"/>
-      <c r="L80" s="124"/>
-      <c r="M80" s="124"/>
-      <c r="N80" s="124"/>
-      <c r="O80" s="124"/>
-      <c r="P80" s="124"/>
-      <c r="Q80" s="124"/>
-      <c r="R80" s="124"/>
-      <c r="S80" s="124"/>
-      <c r="T80" s="125"/>
-      <c r="U80" s="125"/>
-      <c r="V80" s="125"/>
-      <c r="W80" s="125"/>
-      <c r="X80" s="125"/>
-      <c r="Y80" s="124"/>
-      <c r="Z80" s="124"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="121"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="121"/>
+      <c r="I80" s="122"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="122"/>
+      <c r="M80" s="122"/>
+      <c r="N80" s="122"/>
+      <c r="O80" s="122"/>
+      <c r="P80" s="122"/>
+      <c r="Q80" s="122"/>
+      <c r="R80" s="122"/>
+      <c r="S80" s="122"/>
+      <c r="T80" s="123"/>
+      <c r="U80" s="123"/>
+      <c r="V80" s="123"/>
+      <c r="W80" s="123"/>
+      <c r="X80" s="123"/>
+      <c r="Y80" s="122"/>
+      <c r="Z80" s="122"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
@@ -4171,7 +4178,7 @@
       <c r="AU80" s="1"/>
     </row>
     <row r="81" spans="2:26">
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C81" s="3"/>
@@ -4179,118 +4186,119 @@
         <v>48</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="126"/>
-      <c r="I81" s="126"/>
-      <c r="J81" s="126"/>
-      <c r="K81" s="126"/>
-      <c r="L81" s="126"/>
-      <c r="M81" s="126"/>
-      <c r="N81" s="126"/>
-      <c r="O81" s="126"/>
-      <c r="P81" s="126"/>
-      <c r="Q81" s="127"/>
-      <c r="R81" s="127"/>
-      <c r="S81" s="127"/>
-      <c r="T81" s="127"/>
-      <c r="U81" s="127"/>
-      <c r="V81" s="126"/>
-      <c r="W81" s="126"/>
-      <c r="X81" s="126"/>
-      <c r="Y81" s="126"/>
-      <c r="Z81" s="126"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="124"/>
+      <c r="J81" s="124"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="124"/>
+      <c r="N81" s="124"/>
+      <c r="O81" s="124"/>
+      <c r="P81" s="124"/>
+      <c r="Q81" s="125"/>
+      <c r="R81" s="125"/>
+      <c r="S81" s="125"/>
+      <c r="T81" s="125"/>
+      <c r="U81" s="125"/>
+      <c r="V81" s="124"/>
+      <c r="W81" s="124"/>
+      <c r="X81" s="124"/>
+      <c r="Y81" s="124"/>
+      <c r="Z81" s="124"/>
     </row>
     <row r="85" spans="2:26">
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="182"/>
-      <c r="G85" s="182"/>
-      <c r="H85" s="182"/>
-      <c r="I85" s="182"/>
-      <c r="J85" s="182"/>
-      <c r="K85" s="182"/>
-      <c r="L85" s="182"/>
-      <c r="M85" s="182"/>
-      <c r="N85" s="182"/>
-      <c r="O85" s="182"/>
-      <c r="P85" s="182"/>
-      <c r="Q85" s="182"/>
-      <c r="R85" s="182"/>
-      <c r="S85" s="182"/>
-      <c r="T85" s="182"/>
-      <c r="U85" s="182"/>
-      <c r="V85" s="182"/>
-      <c r="W85" s="182"/>
-      <c r="X85" s="182"/>
-      <c r="Y85" s="182"/>
-      <c r="Z85" s="182"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
+      <c r="F85" s="202"/>
+      <c r="G85" s="202"/>
+      <c r="H85" s="202"/>
+      <c r="I85" s="202"/>
+      <c r="J85" s="202"/>
+      <c r="K85" s="202"/>
+      <c r="L85" s="202"/>
+      <c r="M85" s="202"/>
+      <c r="N85" s="202"/>
+      <c r="O85" s="202"/>
+      <c r="P85" s="202"/>
+      <c r="Q85" s="202"/>
+      <c r="R85" s="202"/>
+      <c r="S85" s="202"/>
+      <c r="T85" s="202"/>
+      <c r="U85" s="202"/>
+      <c r="V85" s="202"/>
+      <c r="W85" s="202"/>
+      <c r="X85" s="202"/>
+      <c r="Y85" s="202"/>
+      <c r="Z85" s="202"/>
     </row>
     <row r="86" spans="2:26">
-      <c r="B86" s="166"/>
-      <c r="C86" s="165"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="165"/>
-      <c r="F86" s="166"/>
-      <c r="G86" s="166"/>
-      <c r="H86" s="166"/>
-      <c r="I86" s="166"/>
-      <c r="J86" s="166"/>
-      <c r="K86" s="166"/>
-      <c r="L86" s="166"/>
-      <c r="M86" s="166"/>
-      <c r="N86" s="166"/>
-      <c r="O86" s="166"/>
-      <c r="P86" s="166"/>
-      <c r="Q86" s="166"/>
-      <c r="R86" s="166"/>
-      <c r="S86" s="166"/>
-      <c r="T86" s="166"/>
-      <c r="U86" s="166"/>
-      <c r="V86" s="166"/>
-      <c r="W86" s="166"/>
-      <c r="X86" s="166"/>
-      <c r="Y86" s="166"/>
-      <c r="Z86" s="166"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="170"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="170"/>
+      <c r="J86" s="170"/>
+      <c r="K86" s="170"/>
+      <c r="L86" s="170"/>
+      <c r="M86" s="170"/>
+      <c r="N86" s="170"/>
+      <c r="O86" s="170"/>
+      <c r="P86" s="170"/>
+      <c r="Q86" s="170"/>
+      <c r="R86" s="170"/>
+      <c r="S86" s="170"/>
+      <c r="T86" s="170"/>
+      <c r="U86" s="170"/>
+      <c r="V86" s="170"/>
+      <c r="W86" s="170"/>
+      <c r="X86" s="170"/>
+      <c r="Y86" s="170"/>
+      <c r="Z86" s="170"/>
     </row>
     <row r="87" spans="2:26">
-      <c r="B87" s="166"/>
-      <c r="C87" s="165"/>
-      <c r="D87" s="165"/>
-      <c r="E87" s="165"/>
-      <c r="F87" s="166"/>
-      <c r="G87" s="166"/>
-      <c r="H87" s="166"/>
-      <c r="I87" s="166"/>
-      <c r="J87" s="166"/>
-      <c r="K87" s="166"/>
-      <c r="L87" s="166"/>
-      <c r="M87" s="166"/>
-      <c r="N87" s="166"/>
-      <c r="O87" s="166"/>
-      <c r="P87" s="166"/>
-      <c r="Q87" s="166"/>
-      <c r="R87" s="166"/>
-      <c r="S87" s="166"/>
-      <c r="T87" s="166"/>
-      <c r="U87" s="166"/>
-      <c r="V87" s="166"/>
-      <c r="W87" s="166"/>
-      <c r="X87" s="166"/>
-      <c r="Y87" s="166"/>
-      <c r="Z87" s="166"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="170"/>
+      <c r="G87" s="170"/>
+      <c r="H87" s="170"/>
+      <c r="I87" s="170"/>
+      <c r="J87" s="170"/>
+      <c r="K87" s="170"/>
+      <c r="L87" s="170"/>
+      <c r="M87" s="170"/>
+      <c r="N87" s="170"/>
+      <c r="O87" s="170"/>
+      <c r="P87" s="170"/>
+      <c r="Q87" s="170"/>
+      <c r="R87" s="170"/>
+      <c r="S87" s="170"/>
+      <c r="T87" s="170"/>
+      <c r="U87" s="170"/>
+      <c r="V87" s="170"/>
+      <c r="W87" s="170"/>
+      <c r="X87" s="170"/>
+      <c r="Y87" s="170"/>
+      <c r="Z87" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B86:Z86"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="F2:Z2"/>
+    <mergeCell ref="B54:Z54"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B87:Z87"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="B20:Z20"/>
@@ -4300,14 +4308,13 @@
     <mergeCell ref="B85:Z85"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B86:Z86"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="F2:Z2"/>
-    <mergeCell ref="B54:Z54"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="B25">
     <cfRule type="colorScale" priority="40">
@@ -4370,7 +4377,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4378,7 +4385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BB816C-1882-4397-A5F7-1E86A0979930}">
   <dimension ref="B1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D19" sqref="D19:E21"/>
     </sheetView>
   </sheetViews>
@@ -4393,44 +4400,44 @@
     <row r="1" spans="2:26">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="2:26">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="147" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="167">
+      <c r="E2" s="145" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="179">
         <v>2019</v>
       </c>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="169"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="2:26">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="143" t="s">
-        <v>86</v>
+      <c r="E3" s="141" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="4">
         <v>8</v>
@@ -4459,19 +4466,19 @@
       <c r="N3" s="4">
         <v>16</v>
       </c>
-      <c r="O3" s="162">
+      <c r="O3" s="160">
         <v>17</v>
       </c>
-      <c r="P3" s="162">
+      <c r="P3" s="160">
         <v>18</v>
       </c>
-      <c r="Q3" s="167" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="169"/>
+      <c r="Q3" s="179" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="181"/>
       <c r="V3" s="4">
         <v>20</v>
       </c>
@@ -4491,133 +4498,133 @@
     <row r="4" spans="2:26" ht="35.4" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="E4" s="146" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="141">
+      <c r="E4" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="139">
         <v>18.02</v>
       </c>
-      <c r="G4" s="141">
+      <c r="G4" s="139">
         <v>25.02</v>
       </c>
-      <c r="H4" s="144">
+      <c r="H4" s="142">
         <v>4.03</v>
       </c>
-      <c r="I4" s="144">
+      <c r="I4" s="142">
         <v>11.03</v>
       </c>
-      <c r="J4" s="144">
+      <c r="J4" s="142">
         <v>18.03</v>
       </c>
-      <c r="K4" s="144">
+      <c r="K4" s="142">
         <v>25.03</v>
       </c>
-      <c r="L4" s="144">
+      <c r="L4" s="142">
         <v>1.04</v>
       </c>
-      <c r="M4" s="141">
+      <c r="M4" s="139">
         <v>8.0399999999999991</v>
       </c>
-      <c r="N4" s="144">
+      <c r="N4" s="142">
         <v>15.04</v>
       </c>
-      <c r="O4" s="141">
+      <c r="O4" s="139">
         <v>22.04</v>
       </c>
-      <c r="P4" s="144">
+      <c r="P4" s="142">
         <v>29.04</v>
       </c>
-      <c r="Q4" s="145">
+      <c r="Q4" s="143">
         <v>6.05</v>
       </c>
-      <c r="R4" s="145">
+      <c r="R4" s="143">
         <v>7.05</v>
       </c>
-      <c r="S4" s="145">
+      <c r="S4" s="143">
         <v>8.0500000000000007</v>
       </c>
-      <c r="T4" s="145">
+      <c r="T4" s="143">
         <v>9.0500000000000007</v>
       </c>
-      <c r="U4" s="145">
+      <c r="U4" s="143">
         <v>10.050000000000001</v>
       </c>
-      <c r="V4" s="141">
+      <c r="V4" s="139">
         <v>13.05</v>
       </c>
-      <c r="W4" s="141">
+      <c r="W4" s="139">
         <v>20.05</v>
       </c>
-      <c r="X4" s="141">
+      <c r="X4" s="139">
         <v>27.05</v>
       </c>
-      <c r="Y4" s="141">
+      <c r="Y4" s="139">
         <v>3.06</v>
       </c>
-      <c r="Z4" s="141">
+      <c r="Z4" s="139">
         <v>10.06</v>
       </c>
     </row>
     <row r="5" spans="2:26">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
+      <c r="C5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
     </row>
     <row r="6" spans="2:26" ht="3.6" customHeight="1">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="148"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="148"/>
-      <c r="X6" s="148"/>
-      <c r="Y6" s="148"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
     </row>
     <row r="7" spans="2:26">
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="52" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2"/>
@@ -4630,11 +4637,11 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -4642,14 +4649,14 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26">
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="166"/>
       <c r="E8" s="5"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="52" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="2"/>
@@ -4661,11 +4668,11 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -4673,17 +4680,17 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="174"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="5"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="7"/>
@@ -4692,11 +4699,11 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -4704,18 +4711,18 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
       <c r="E10" s="5"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="5"/>
@@ -4723,11 +4730,11 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
       <c r="V10" s="2"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -4735,11 +4742,11 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26">
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="174"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4747,18 +4754,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="52" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -4766,11 +4773,11 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="185"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="11"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4779,17 +4786,17 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="52" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="57"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -4797,11 +4804,11 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="2:26">
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4813,14 +4820,14 @@
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
       <c r="V13" s="1"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -4828,11 +4835,11 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="2:26">
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4845,12 +4852,12 @@
       <c r="N14" s="3"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="53" t="s">
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="52" t="s">
         <v>2</v>
       </c>
       <c r="W14" s="3"/>
@@ -4859,11 +4866,11 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="2:26">
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4876,25 +4883,25 @@
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="23"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="22"/>
       <c r="W15" s="3"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="53" t="s">
+      <c r="Z15" s="52" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="5"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4907,25 +4914,25 @@
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="23"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="3"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="53" t="s">
+      <c r="Z16" s="52" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:27">
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="174"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -4938,113 +4945,113 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="140" t="s">
+      <c r="Z17" s="138" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:27" ht="10.8" customHeight="1">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
     </row>
     <row r="19" spans="2:27" ht="52.8" customHeight="1">
-      <c r="B19" s="116"/>
-      <c r="C19" s="175" t="s">
+      <c r="B19" s="114"/>
+      <c r="C19" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="175" t="s">
+      <c r="D19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="175"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="153"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="153"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="151"/>
     </row>
     <row r="20" spans="2:27">
-      <c r="B20" s="116"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
     </row>
     <row r="21" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5095,163 +5102,163 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="203">
+      <c r="C23" s="35"/>
+      <c r="D23" s="185">
         <f>SUM(D24:D24,D27,D28,D29,D30,D31,D25,D26)</f>
         <v>65</v>
       </c>
-      <c r="E23" s="203"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="39"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="38"/>
     </row>
     <row r="24" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B24" s="157" t="s">
+      <c r="B24" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="180">
+      <c r="D24" s="177">
         <v>10</v>
       </c>
       <c r="E24" s="186"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="180">
+      <c r="D25" s="177">
         <v>32</v>
       </c>
       <c r="E25" s="186"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B26" s="157" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="67" t="s">
+      <c r="B26" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="180">
+      <c r="D26" s="177">
         <v>10</v>
       </c>
       <c r="E26" s="186"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
     </row>
     <row r="27" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B27" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="67" t="s">
+      <c r="B27" s="156" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="180">
+      <c r="D27" s="177">
         <v>2</v>
       </c>
       <c r="E27" s="186"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="10"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
       <c r="V27" s="11"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
@@ -5259,13 +5266,13 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B28" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="67" t="s">
+      <c r="B28" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="180">
+      <c r="D28" s="177">
         <v>2</v>
       </c>
       <c r="E28" s="186"/>
@@ -5275,16 +5282,16 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
       <c r="V28" s="11"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
@@ -5292,13 +5299,13 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B29" s="158" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="156" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="180">
+      <c r="D29" s="177">
         <v>2</v>
       </c>
       <c r="E29" s="186"/>
@@ -5313,25 +5320,25 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B30" s="158" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="67" t="s">
+      <c r="B30" s="156" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="180">
+      <c r="D30" s="177">
         <v>4</v>
       </c>
       <c r="E30" s="186"/>
@@ -5346,25 +5353,25 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
     </row>
     <row r="31" spans="2:27" ht="14.4" customHeight="1">
-      <c r="B31" s="158" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="67" t="s">
+      <c r="B31" s="156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="180">
+      <c r="D31" s="177">
         <v>3</v>
       </c>
       <c r="E31" s="186"/>
@@ -5379,92 +5386,92 @@
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="43"/>
-      <c